--- a/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
+++ b/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\PycharmProjects\ULTERA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-guest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE80EA9B-D03F-4CC0-B578-706C05F86A21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05A07EE-77AE-BD4E-B686-7F6EA054212E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-21710" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -306,15 +306,6 @@
     <t>V</t>
   </si>
   <si>
-    <t>Nb27.8 Ta27.45 Ti22.55 V21.55</t>
-  </si>
-  <si>
-    <t>Nb28.5 Ta29.65 V20.67 W21.18</t>
-  </si>
-  <si>
-    <t>Nb22.7 Ta25.35 Ti16.7 V17.35 W18</t>
-  </si>
-  <si>
     <t>Ta90 W10</t>
   </si>
   <si>
@@ -681,14 +672,30 @@
   <si>
     <t>Collected by Marcia; small fixes by Adam; elemental data moved to another sheet</t>
   </si>
+  <si>
+    <t>Nb Ta Ti V</t>
+  </si>
+  <si>
+    <t>Nb Ta V W</t>
+  </si>
+  <si>
+    <t>Nb Ta Ti V W</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -853,116 +860,117 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1251,29 +1259,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T447"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14.15625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="53.68359375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.68359375" style="3" customWidth="1"/>
-    <col min="5" max="6" width="17.83984375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.3125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="53.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="17.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="21" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.47265625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.47265625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15.3125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.47265625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="17.83984375" style="3" customWidth="1"/>
-    <col min="14" max="15" width="39.3125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="17.68359375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" style="3" customWidth="1"/>
+    <col min="14" max="15" width="39.33203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" style="3" customWidth="1"/>
     <col min="17" max="18" width="18" style="3" customWidth="1"/>
-    <col min="19" max="20" width="17.47265625" style="3" customWidth="1"/>
-    <col min="21" max="16384" width="8.83984375" style="3"/>
+    <col min="19" max="20" width="17.5" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -1286,23 +1294,23 @@
         <v>0</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:20" ht="22" customHeight="1">
@@ -1310,19 +1318,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
+        <v>196</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:20" ht="22.5" customHeight="1">
@@ -1333,50 +1341,50 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="21.55" customHeight="1">
+    <row r="5" spans="1:20" ht="21.5" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="L5" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="N5" s="45" t="s">
+      <c r="M5" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="N5" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="46" t="s">
+      <c r="O5" s="40" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1387,19 +1395,19 @@
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="46"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="40"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
@@ -1444,7 +1452,7 @@
       <c r="N7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="46"/>
+      <c r="O7" s="40"/>
       <c r="P7" s="9" t="s">
         <v>43</v>
       </c>
@@ -1457,35 +1465,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.5" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43" t="s">
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="44" t="s">
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="44"/>
+      <c r="N8" s="48"/>
       <c r="O8" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="P8" s="47" t="s">
+      <c r="P8" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
     </row>
     <row r="9" spans="1:20" ht="22" customHeight="1">
       <c r="A9" s="5" t="s">
@@ -1555,17 +1563,17 @@
         <v>60</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="23">
@@ -1580,10 +1588,10 @@
         <v>47</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N10" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O10" s="20"/>
     </row>
@@ -1595,17 +1603,17 @@
         <v>60</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="23">
@@ -1620,10 +1628,10 @@
         <v>47</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N11" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O11" s="20"/>
     </row>
@@ -1635,17 +1643,17 @@
         <v>60</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="23">
@@ -1660,10 +1668,10 @@
         <v>47</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N12" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O12" s="33"/>
     </row>
@@ -1675,17 +1683,17 @@
         <v>60</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="23">
@@ -1700,10 +1708,10 @@
         <v>47</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N13" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O13" s="20"/>
     </row>
@@ -1715,17 +1723,17 @@
         <v>60</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="23">
@@ -1740,10 +1748,10 @@
         <v>47</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N14" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O14" s="20"/>
     </row>
@@ -1755,17 +1763,17 @@
         <v>60</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="23">
@@ -1780,10 +1788,10 @@
         <v>47</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N15" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O15" s="20"/>
     </row>
@@ -1795,17 +1803,17 @@
         <v>60</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="23">
@@ -1820,10 +1828,10 @@
         <v>47</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N16" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O16" s="20"/>
     </row>
@@ -1835,17 +1843,17 @@
         <v>60</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="23">
@@ -1860,10 +1868,10 @@
         <v>47</v>
       </c>
       <c r="M17" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N17" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1874,17 +1882,17 @@
         <v>60</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="23">
@@ -1899,10 +1907,10 @@
         <v>47</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N18" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1913,17 +1921,17 @@
         <v>60</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H19" s="22"/>
       <c r="I19" s="23">
@@ -1938,10 +1946,10 @@
         <v>47</v>
       </c>
       <c r="M19" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N19" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1952,17 +1960,17 @@
         <v>60</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="23">
@@ -1977,10 +1985,10 @@
         <v>47</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N20" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1991,17 +1999,17 @@
         <v>60</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H21" s="22"/>
       <c r="I21" s="23">
@@ -2016,10 +2024,10 @@
         <v>47</v>
       </c>
       <c r="M21" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N21" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2030,17 +2038,17 @@
         <v>60</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="23">
@@ -2055,10 +2063,10 @@
         <v>47</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N22" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2069,17 +2077,17 @@
         <v>61</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="23">
@@ -2094,10 +2102,10 @@
         <v>47</v>
       </c>
       <c r="M23" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N23" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2108,17 +2116,17 @@
         <v>61</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="23">
@@ -2133,10 +2141,10 @@
         <v>47</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N24" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2147,17 +2155,17 @@
         <v>61</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="23">
@@ -2172,10 +2180,10 @@
         <v>47</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N25" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2186,17 +2194,17 @@
         <v>61</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="23">
@@ -2211,10 +2219,10 @@
         <v>47</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N26" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2225,17 +2233,17 @@
         <v>61</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="23">
@@ -2250,10 +2258,10 @@
         <v>47</v>
       </c>
       <c r="M27" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N27" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2264,17 +2272,17 @@
         <v>61</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="23">
@@ -2289,10 +2297,10 @@
         <v>47</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N28" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2303,17 +2311,17 @@
         <v>61</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="23">
@@ -2328,10 +2336,10 @@
         <v>47</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N29" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2342,17 +2350,17 @@
         <v>61</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="23">
@@ -2367,10 +2375,10 @@
         <v>47</v>
       </c>
       <c r="M30" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N30" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2381,17 +2389,17 @@
         <v>61</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="23">
@@ -2406,10 +2414,10 @@
         <v>47</v>
       </c>
       <c r="M31" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N31" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2420,17 +2428,17 @@
         <v>61</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H32" s="22"/>
       <c r="I32" s="23">
@@ -2445,10 +2453,10 @@
         <v>47</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N32" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2459,17 +2467,17 @@
         <v>61</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H33" s="22"/>
       <c r="I33" s="23">
@@ -2484,10 +2492,10 @@
         <v>47</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N33" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2498,17 +2506,17 @@
         <v>61</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H34" s="22"/>
       <c r="I34" s="23">
@@ -2523,10 +2531,10 @@
         <v>47</v>
       </c>
       <c r="M34" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N34" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2537,17 +2545,17 @@
         <v>61</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H35" s="22"/>
       <c r="I35" s="23">
@@ -2562,10 +2570,10 @@
         <v>47</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N35" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2576,14 +2584,14 @@
         <v>62</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H36" s="22"/>
       <c r="I36" s="23">
@@ -2598,10 +2606,10 @@
         <v>47</v>
       </c>
       <c r="M36" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N36" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2612,14 +2620,14 @@
         <v>63</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H37" s="22"/>
       <c r="I37" s="23">
@@ -2634,10 +2642,10 @@
         <v>47</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N37" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2648,14 +2656,14 @@
         <v>64</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H38" s="22"/>
       <c r="I38" s="23">
@@ -2669,10 +2677,10 @@
         <v>47</v>
       </c>
       <c r="M38" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N38" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2683,14 +2691,14 @@
         <v>65</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H39" s="22"/>
       <c r="I39" s="23">
@@ -2704,10 +2712,10 @@
         <v>47</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N39" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2718,14 +2726,14 @@
         <v>66</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H40" s="22"/>
       <c r="I40" s="23">
@@ -2739,10 +2747,10 @@
         <v>47</v>
       </c>
       <c r="M40" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N40" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2753,14 +2761,14 @@
         <v>67</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H41" s="22"/>
       <c r="I41" s="23">
@@ -2775,7 +2783,7 @@
       </c>
       <c r="M41" s="20"/>
       <c r="N41" s="26" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2783,18 +2791,18 @@
         <v>33</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H42" s="22"/>
       <c r="I42" s="23">
@@ -2808,10 +2816,10 @@
         <v>47</v>
       </c>
       <c r="M42" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N42" s="26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2823,14 +2831,14 @@
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H43" s="22"/>
       <c r="I43" s="23">
@@ -2844,10 +2852,10 @@
         <v>47</v>
       </c>
       <c r="M43" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2859,14 +2867,14 @@
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H44" s="22"/>
       <c r="I44" s="23">
@@ -2880,10 +2888,10 @@
         <v>47</v>
       </c>
       <c r="M44" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2895,14 +2903,14 @@
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H45" s="22"/>
       <c r="I45" s="23">
@@ -2916,10 +2924,10 @@
         <v>47</v>
       </c>
       <c r="M45" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2927,18 +2935,18 @@
         <v>37</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="34" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H46" s="22"/>
       <c r="I46" s="23">
@@ -2952,10 +2960,10 @@
         <v>47</v>
       </c>
       <c r="M46" s="21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N46" s="35" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2967,14 +2975,14 @@
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="34" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H47" s="22"/>
       <c r="I47" s="23">
@@ -2988,10 +2996,10 @@
         <v>47</v>
       </c>
       <c r="M47" s="21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N47" s="35" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2999,18 +3007,18 @@
         <v>39</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="34" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H48" s="22"/>
       <c r="I48" s="23">
@@ -3024,10 +3032,10 @@
         <v>47</v>
       </c>
       <c r="M48" s="21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N48" s="35" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3035,18 +3043,18 @@
         <v>40</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="34" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H49" s="22"/>
       <c r="I49" s="23">
@@ -3060,10 +3068,10 @@
         <v>47</v>
       </c>
       <c r="M49" s="21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N49" s="35" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3075,14 +3083,14 @@
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="34" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H50" s="22"/>
       <c r="I50" s="23">
@@ -3096,10 +3104,10 @@
         <v>47</v>
       </c>
       <c r="M50" s="21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N50" s="35" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3111,14 +3119,14 @@
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="34" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H51" s="22"/>
       <c r="I51" s="23">
@@ -3132,10 +3140,10 @@
         <v>47</v>
       </c>
       <c r="M51" s="21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N51" s="35" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3148,10 +3156,10 @@
       <c r="C52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H52" s="22"/>
       <c r="I52" s="23">
@@ -3165,10 +3173,10 @@
         <v>47</v>
       </c>
       <c r="M52" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N52" s="27" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3176,15 +3184,15 @@
         <v>44</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C53" s="20"/>
       <c r="E53" s="20"/>
       <c r="F53" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H53" s="22"/>
       <c r="I53" s="23">
@@ -3198,10 +3206,10 @@
         <v>47</v>
       </c>
       <c r="M53" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N53" s="26" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3209,15 +3217,15 @@
         <v>45</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C54" s="20"/>
       <c r="E54" s="20"/>
       <c r="F54" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H54" s="22"/>
       <c r="I54" s="23">
@@ -3231,10 +3239,10 @@
         <v>47</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3242,15 +3250,15 @@
         <v>46</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C55" s="20"/>
       <c r="E55" s="20"/>
       <c r="F55" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H55" s="22"/>
       <c r="I55" s="23">
@@ -3264,10 +3272,10 @@
         <v>47</v>
       </c>
       <c r="M55" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3275,15 +3283,15 @@
         <v>47</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H56" s="22"/>
       <c r="I56" s="23">
@@ -3297,10 +3305,10 @@
         <v>47</v>
       </c>
       <c r="M56" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3308,15 +3316,15 @@
         <v>48</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C57" s="20"/>
       <c r="E57" s="20"/>
       <c r="F57" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="23">
@@ -3330,10 +3338,10 @@
         <v>47</v>
       </c>
       <c r="M57" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3345,14 +3353,14 @@
       </c>
       <c r="C58" s="20"/>
       <c r="D58" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H58" s="22"/>
       <c r="I58" s="23"/>
@@ -3365,10 +3373,10 @@
         <v>47</v>
       </c>
       <c r="M58" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N58" s="26" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3380,14 +3388,14 @@
       </c>
       <c r="C59" s="20"/>
       <c r="D59" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H59" s="22"/>
       <c r="I59" s="23"/>
@@ -3400,10 +3408,10 @@
         <v>47</v>
       </c>
       <c r="M59" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3415,14 +3423,14 @@
       </c>
       <c r="C60" s="20"/>
       <c r="D60" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H60" s="22"/>
       <c r="I60" s="23"/>
@@ -3435,10 +3443,10 @@
         <v>47</v>
       </c>
       <c r="M60" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3450,14 +3458,14 @@
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H61" s="22"/>
       <c r="I61" s="23"/>
@@ -3470,10 +3478,10 @@
         <v>47</v>
       </c>
       <c r="M61" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3484,17 +3492,17 @@
         <v>72</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H62" s="22"/>
       <c r="I62" s="23">
@@ -3509,10 +3517,10 @@
         <v>47</v>
       </c>
       <c r="M62" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3523,17 +3531,17 @@
         <v>73</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E63" s="20"/>
       <c r="F63" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H63" s="22"/>
       <c r="I63" s="23">
@@ -3548,10 +3556,10 @@
         <v>47</v>
       </c>
       <c r="M63" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3562,17 +3570,17 @@
         <v>74</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H64" s="22"/>
       <c r="I64" s="23">
@@ -3587,10 +3595,10 @@
         <v>47</v>
       </c>
       <c r="M64" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3601,17 +3609,17 @@
         <v>75</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H65" s="22"/>
       <c r="I65" s="23">
@@ -3626,10 +3634,10 @@
         <v>47</v>
       </c>
       <c r="M65" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3640,17 +3648,17 @@
         <v>76</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E66" s="20"/>
       <c r="F66" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H66" s="22"/>
       <c r="I66" s="23"/>
@@ -3663,10 +3671,10 @@
         <v>47</v>
       </c>
       <c r="M66" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N66" s="26" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3677,17 +3685,17 @@
         <v>77</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H67" s="22"/>
       <c r="I67" s="23"/>
@@ -3700,10 +3708,10 @@
         <v>47</v>
       </c>
       <c r="M67" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3714,17 +3722,17 @@
         <v>78</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E68" s="20"/>
       <c r="F68" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H68" s="22"/>
       <c r="I68" s="23"/>
@@ -3737,10 +3745,10 @@
         <v>47</v>
       </c>
       <c r="M68" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3751,17 +3759,17 @@
         <v>79</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H69" s="22"/>
       <c r="I69" s="23"/>
@@ -3774,10 +3782,10 @@
         <v>47</v>
       </c>
       <c r="M69" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3788,17 +3796,17 @@
         <v>80</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E70" s="20"/>
       <c r="F70" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H70" s="22"/>
       <c r="I70" s="23"/>
@@ -3811,10 +3819,10 @@
         <v>47</v>
       </c>
       <c r="M70" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3825,17 +3833,17 @@
         <v>81</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E71" s="20"/>
       <c r="F71" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H71" s="22"/>
       <c r="I71" s="23"/>
@@ -3848,10 +3856,10 @@
         <v>47</v>
       </c>
       <c r="M71" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3862,17 +3870,17 @@
         <v>82</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H72" s="22"/>
       <c r="I72" s="23"/>
@@ -3885,10 +3893,10 @@
         <v>47</v>
       </c>
       <c r="M72" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3899,17 +3907,17 @@
         <v>83</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E73" s="20"/>
       <c r="F73" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H73" s="22"/>
       <c r="I73" s="23"/>
@@ -3922,10 +3930,10 @@
         <v>47</v>
       </c>
       <c r="M73" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3933,15 +3941,15 @@
         <v>65</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H74" s="22"/>
       <c r="I74" s="23">
@@ -3956,7 +3964,7 @@
       </c>
       <c r="M74" s="20"/>
       <c r="N74" s="26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3964,15 +3972,15 @@
         <v>66</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G75" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H75" s="22"/>
       <c r="I75" s="23">
@@ -3987,7 +3995,7 @@
       </c>
       <c r="M75" s="20"/>
       <c r="N75" s="26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3995,15 +4003,15 @@
         <v>67</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C76" s="20"/>
       <c r="E76" s="20"/>
       <c r="F76" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G76" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H76" s="22"/>
       <c r="I76" s="23">
@@ -4018,7 +4026,7 @@
       </c>
       <c r="M76" s="20"/>
       <c r="N76" s="26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4026,17 +4034,17 @@
         <v>68</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E77" s="20"/>
       <c r="F77" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H77" s="22"/>
       <c r="I77" s="23">
@@ -4050,10 +4058,10 @@
         <v>47</v>
       </c>
       <c r="M77" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N77" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -4061,17 +4069,17 @@
         <v>69</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E78" s="20"/>
       <c r="F78" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H78" s="22"/>
       <c r="I78" s="23">
@@ -4085,10 +4093,10 @@
         <v>47</v>
       </c>
       <c r="M78" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N78" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4096,17 +4104,17 @@
         <v>70</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E79" s="20"/>
       <c r="F79" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H79" s="22"/>
       <c r="I79" s="23">
@@ -4120,10 +4128,10 @@
         <v>47</v>
       </c>
       <c r="M79" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N79" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4134,14 +4142,14 @@
         <v>84</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E80" s="20"/>
       <c r="F80" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G80" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H80" s="22"/>
       <c r="I80" s="23">
@@ -4156,10 +4164,10 @@
         <v>47</v>
       </c>
       <c r="M80" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N80" s="26" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4170,14 +4178,14 @@
         <v>85</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E81" s="20"/>
       <c r="F81" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G81" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H81" s="22"/>
       <c r="I81" s="23">
@@ -4192,10 +4200,10 @@
         <v>47</v>
       </c>
       <c r="M81" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N81" s="26" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4203,17 +4211,17 @@
         <v>73</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E82" s="20"/>
       <c r="F82" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G82" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H82" s="22"/>
       <c r="I82" s="23">
@@ -4228,10 +4236,10 @@
         <v>47</v>
       </c>
       <c r="M82" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N82" s="26" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4239,17 +4247,17 @@
         <v>74</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G83" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H83" s="22"/>
       <c r="I83" s="23">
@@ -4263,10 +4271,10 @@
         <v>47</v>
       </c>
       <c r="M83" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N83" s="26" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4277,14 +4285,14 @@
         <v>86</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E84" s="20"/>
       <c r="F84" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G84" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H84" s="22"/>
       <c r="I84" s="23">
@@ -4298,10 +4306,10 @@
         <v>47</v>
       </c>
       <c r="M84" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N84" s="26" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4312,14 +4320,14 @@
         <v>87</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E85" s="20"/>
       <c r="F85" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H85" s="22"/>
       <c r="I85" s="23">
@@ -4333,10 +4341,10 @@
         <v>47</v>
       </c>
       <c r="M85" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N85" s="26" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4347,14 +4355,14 @@
         <v>88</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G86" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H86" s="22"/>
       <c r="I86" s="23">
@@ -4368,10 +4376,10 @@
         <v>47</v>
       </c>
       <c r="M86" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N86" s="26" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4382,14 +4390,14 @@
         <v>89</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E87" s="20"/>
       <c r="F87" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G87" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H87" s="22"/>
       <c r="I87" s="23">
@@ -4403,10 +4411,10 @@
         <v>47</v>
       </c>
       <c r="M87" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N87" s="26" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4417,14 +4425,14 @@
         <v>84</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G88" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H88" s="22"/>
       <c r="I88" s="23">
@@ -4438,28 +4446,28 @@
         <v>47</v>
       </c>
       <c r="M88" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N88" s="26" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="3">
         <v>80</v>
       </c>
-      <c r="B89" s="20" t="s">
-        <v>90</v>
+      <c r="B89" s="49" t="s">
+        <v>203</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E89" s="20"/>
       <c r="F89" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H89" s="22"/>
       <c r="I89" s="23">
@@ -4473,28 +4481,28 @@
         <v>47</v>
       </c>
       <c r="M89" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N89" s="26" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="3">
         <v>81</v>
       </c>
-      <c r="B90" s="20" t="s">
-        <v>91</v>
+      <c r="B90" s="49" t="s">
+        <v>204</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E90" s="20"/>
       <c r="F90" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G90" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H90" s="22"/>
       <c r="I90" s="23">
@@ -4508,28 +4516,28 @@
         <v>47</v>
       </c>
       <c r="M90" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N90" s="26" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="3">
         <v>82</v>
       </c>
-      <c r="B91" s="20" t="s">
-        <v>92</v>
+      <c r="B91" s="49" t="s">
+        <v>205</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E91" s="20"/>
       <c r="F91" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G91" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H91" s="22"/>
       <c r="I91" s="23">
@@ -4543,10 +4551,10 @@
         <v>47</v>
       </c>
       <c r="M91" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N91" s="26" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4557,17 +4565,17 @@
         <v>87</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D92" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E92" s="20"/>
       <c r="F92" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G92" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H92" s="22"/>
       <c r="I92" s="23">
@@ -4582,10 +4590,10 @@
         <v>47</v>
       </c>
       <c r="M92" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N92" s="26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4593,17 +4601,17 @@
         <v>84</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D93" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E93" s="20"/>
       <c r="F93" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G93" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H93" s="22"/>
       <c r="I93" s="23">
@@ -4618,10 +4626,10 @@
         <v>47</v>
       </c>
       <c r="M93" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N93" s="26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4629,17 +4637,17 @@
         <v>85</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D94" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E94" s="20"/>
       <c r="F94" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H94" s="22"/>
       <c r="I94" s="23">
@@ -4654,10 +4662,10 @@
         <v>47</v>
       </c>
       <c r="M94" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N94" s="26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4665,17 +4673,17 @@
         <v>86</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D95" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E95" s="20"/>
       <c r="F95" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H95" s="22"/>
       <c r="I95" s="23">
@@ -4689,10 +4697,10 @@
         <v>47</v>
       </c>
       <c r="M95" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N95" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4700,17 +4708,17 @@
         <v>87</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D96" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E96" s="20"/>
       <c r="F96" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G96" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H96" s="22"/>
       <c r="I96" s="23">
@@ -4724,10 +4732,10 @@
         <v>47</v>
       </c>
       <c r="M96" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N96" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4735,17 +4743,17 @@
         <v>88</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D97" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E97" s="20"/>
       <c r="F97" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G97" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H97" s="22"/>
       <c r="I97" s="23">
@@ -4759,10 +4767,10 @@
         <v>47</v>
       </c>
       <c r="M97" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N97" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -4770,17 +4778,17 @@
         <v>89</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D98" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E98" s="20"/>
       <c r="F98" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G98" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H98" s="22"/>
       <c r="I98" s="23">
@@ -4794,10 +4802,10 @@
         <v>47</v>
       </c>
       <c r="M98" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N98" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -4805,17 +4813,17 @@
         <v>90</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D99" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G99" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H99" s="22"/>
       <c r="I99" s="23">
@@ -4829,10 +4837,10 @@
         <v>47</v>
       </c>
       <c r="M99" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N99" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -4840,17 +4848,17 @@
         <v>91</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D100" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E100" s="20"/>
       <c r="F100" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G100" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H100" s="22"/>
       <c r="I100" s="23">
@@ -4864,10 +4872,10 @@
         <v>47</v>
       </c>
       <c r="M100" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N100" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -4875,17 +4883,17 @@
         <v>92</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D101" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E101" s="20"/>
       <c r="F101" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G101" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H101" s="22"/>
       <c r="I101" s="23">
@@ -4899,10 +4907,10 @@
         <v>47</v>
       </c>
       <c r="M101" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N101" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -4910,17 +4918,17 @@
         <v>93</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D102" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E102" s="20"/>
       <c r="F102" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G102" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H102" s="22"/>
       <c r="I102" s="23">
@@ -4934,10 +4942,10 @@
         <v>47</v>
       </c>
       <c r="M102" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N102" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -4945,17 +4953,17 @@
         <v>94</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D103" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E103" s="20"/>
       <c r="F103" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G103" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H103" s="22"/>
       <c r="I103" s="23">
@@ -4969,10 +4977,10 @@
         <v>47</v>
       </c>
       <c r="M103" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N103" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -4980,17 +4988,17 @@
         <v>95</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D104" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E104" s="20"/>
       <c r="F104" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G104" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H104" s="22"/>
       <c r="I104" s="23">
@@ -5004,10 +5012,10 @@
         <v>47</v>
       </c>
       <c r="M104" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N104" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5015,17 +5023,17 @@
         <v>96</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D105" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G105" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H105" s="22"/>
       <c r="I105" s="23">
@@ -5039,10 +5047,10 @@
         <v>47</v>
       </c>
       <c r="M105" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N105" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5050,17 +5058,17 @@
         <v>97</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G106" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H106" s="22"/>
       <c r="I106" s="23"/>
@@ -5073,10 +5081,10 @@
         <v>47</v>
       </c>
       <c r="M106" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N106" s="26" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5084,17 +5092,17 @@
         <v>98</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G107" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H107" s="22"/>
       <c r="I107" s="23"/>
@@ -5107,10 +5115,10 @@
         <v>47</v>
       </c>
       <c r="M107" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N107" s="26" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5118,17 +5126,17 @@
         <v>99</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E108" s="20"/>
       <c r="F108" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G108" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H108" s="22"/>
       <c r="I108" s="23"/>
@@ -5141,10 +5149,10 @@
         <v>47</v>
       </c>
       <c r="M108" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N108" s="26" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5152,17 +5160,17 @@
         <v>100</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E109" s="20"/>
       <c r="F109" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G109" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H109" s="22"/>
       <c r="I109" s="23"/>
@@ -5175,10 +5183,10 @@
         <v>47</v>
       </c>
       <c r="M109" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N109" s="26" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5186,20 +5194,20 @@
         <v>101</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G110" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H110" s="22"/>
       <c r="I110" s="23"/>
@@ -5212,10 +5220,10 @@
         <v>47</v>
       </c>
       <c r="M110" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N110" s="26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5223,20 +5231,20 @@
         <v>102</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G111" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H111" s="22"/>
       <c r="I111" s="23"/>
@@ -5249,10 +5257,10 @@
         <v>47</v>
       </c>
       <c r="M111" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N111" s="26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5260,20 +5268,20 @@
         <v>103</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G112" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H112" s="22"/>
       <c r="I112" s="23"/>
@@ -5286,10 +5294,10 @@
         <v>47</v>
       </c>
       <c r="M112" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N112" s="26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5297,20 +5305,20 @@
         <v>104</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G113" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H113" s="22"/>
       <c r="I113" s="23"/>
@@ -5323,10 +5331,10 @@
         <v>47</v>
       </c>
       <c r="M113" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N113" s="26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5334,20 +5342,20 @@
         <v>105</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G114" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H114" s="22"/>
       <c r="I114" s="23"/>
@@ -5360,10 +5368,10 @@
         <v>47</v>
       </c>
       <c r="M114" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N114" s="26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5371,20 +5379,20 @@
         <v>106</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G115" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H115" s="22"/>
       <c r="I115" s="23"/>
@@ -5397,10 +5405,10 @@
         <v>47</v>
       </c>
       <c r="M115" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N115" s="26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5408,20 +5416,20 @@
         <v>107</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G116" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H116" s="22"/>
       <c r="I116" s="23"/>
@@ -5434,10 +5442,10 @@
         <v>47</v>
       </c>
       <c r="M116" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N116" s="26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -5445,20 +5453,20 @@
         <v>108</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G117" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H117" s="22"/>
       <c r="I117" s="23"/>
@@ -5471,10 +5479,10 @@
         <v>47</v>
       </c>
       <c r="M117" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N117" s="26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -5482,20 +5490,20 @@
         <v>109</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G118" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H118" s="22"/>
       <c r="I118" s="23"/>
@@ -5508,10 +5516,10 @@
         <v>47</v>
       </c>
       <c r="M118" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N118" s="26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -5519,20 +5527,20 @@
         <v>110</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G119" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H119" s="22"/>
       <c r="I119" s="23"/>
@@ -5545,10 +5553,10 @@
         <v>47</v>
       </c>
       <c r="M119" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N119" s="26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -5556,20 +5564,20 @@
         <v>111</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E120" s="20"/>
       <c r="F120" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G120" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H120" s="22"/>
       <c r="I120" s="23"/>
@@ -5582,10 +5590,10 @@
         <v>47</v>
       </c>
       <c r="M120" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N120" s="26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -5593,20 +5601,20 @@
         <v>112</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E121" s="20"/>
       <c r="F121" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G121" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H121" s="22"/>
       <c r="I121" s="23"/>
@@ -5619,10 +5627,10 @@
         <v>47</v>
       </c>
       <c r="M121" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N121" s="26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -5630,20 +5638,20 @@
         <v>113</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D122" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E122" s="20"/>
       <c r="F122" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G122" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H122" s="22"/>
       <c r="I122" s="23">
@@ -5657,10 +5665,10 @@
         <v>47</v>
       </c>
       <c r="M122" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N122" s="29" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -5668,20 +5676,20 @@
         <v>114</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D123" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E123" s="20"/>
       <c r="F123" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G123" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H123" s="22"/>
       <c r="I123" s="23">
@@ -5695,10 +5703,10 @@
         <v>47</v>
       </c>
       <c r="M123" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N123" s="29" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -5706,20 +5714,20 @@
         <v>115</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D124" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E124" s="20"/>
       <c r="F124" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G124" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H124" s="22"/>
       <c r="I124" s="23">
@@ -5733,10 +5741,10 @@
         <v>47</v>
       </c>
       <c r="M124" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N124" s="29" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -5744,20 +5752,20 @@
         <v>116</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D125" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E125" s="20"/>
       <c r="F125" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G125" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H125" s="22"/>
       <c r="I125" s="23">
@@ -5771,10 +5779,10 @@
         <v>47</v>
       </c>
       <c r="M125" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N125" s="29" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -5782,20 +5790,20 @@
         <v>117</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G126" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H126" s="22"/>
       <c r="I126" s="23"/>
@@ -5808,10 +5816,10 @@
         <v>47</v>
       </c>
       <c r="M126" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N126" s="26" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -5819,20 +5827,20 @@
         <v>118</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D127" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G127" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H127" s="22"/>
       <c r="I127" s="23">
@@ -5847,10 +5855,10 @@
         <v>47</v>
       </c>
       <c r="M127" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N127" s="26" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -5858,20 +5866,20 @@
         <v>119</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D128" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E128" s="20"/>
       <c r="F128" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G128" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H128" s="22"/>
       <c r="I128" s="23">
@@ -5886,10 +5894,10 @@
         <v>47</v>
       </c>
       <c r="M128" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N128" s="26" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -5897,20 +5905,20 @@
         <v>120</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D129" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E129" s="20"/>
       <c r="F129" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G129" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H129" s="22"/>
       <c r="I129" s="23">
@@ -5925,10 +5933,10 @@
         <v>47</v>
       </c>
       <c r="M129" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N129" s="26" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -5936,20 +5944,20 @@
         <v>121</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C130" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D130" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="E130" s="20"/>
       <c r="F130" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G130" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H130" s="22"/>
       <c r="I130" s="23">
@@ -5964,10 +5972,10 @@
         <v>47</v>
       </c>
       <c r="M130" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N130" s="26" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -5975,17 +5983,17 @@
         <v>122</v>
       </c>
       <c r="B131" s="31" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E131" s="20"/>
       <c r="F131" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G131" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H131" s="22"/>
       <c r="I131" s="23">
@@ -6000,10 +6008,10 @@
         <v>47</v>
       </c>
       <c r="M131" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N131" s="26" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -6011,17 +6019,17 @@
         <v>123</v>
       </c>
       <c r="B132" s="31" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E132" s="20"/>
       <c r="F132" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G132" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H132" s="22"/>
       <c r="I132" s="23">
@@ -6036,10 +6044,10 @@
         <v>47</v>
       </c>
       <c r="M132" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N132" s="26" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -6047,17 +6055,17 @@
         <v>124</v>
       </c>
       <c r="B133" s="31" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E133" s="20"/>
       <c r="F133" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G133" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H133" s="22"/>
       <c r="I133" s="23">
@@ -6072,10 +6080,10 @@
         <v>47</v>
       </c>
       <c r="M133" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N133" s="26" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -6083,17 +6091,17 @@
         <v>125</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D134" s="37" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E134" s="20"/>
       <c r="F134" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G134" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H134" s="22"/>
       <c r="I134" s="23">
@@ -6107,10 +6115,10 @@
         <v>47</v>
       </c>
       <c r="M134" s="38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N134" s="35" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -6118,17 +6126,17 @@
         <v>126</v>
       </c>
       <c r="B135" s="38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D135" s="37" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E135" s="20"/>
       <c r="F135" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G135" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H135" s="22"/>
       <c r="I135" s="23">
@@ -6142,10 +6150,10 @@
         <v>47</v>
       </c>
       <c r="M135" s="38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N135" s="35" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -6153,17 +6161,17 @@
         <v>127</v>
       </c>
       <c r="B136" s="38" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D136" s="37" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E136" s="20"/>
       <c r="F136" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G136" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H136" s="22"/>
       <c r="I136" s="23">
@@ -6177,10 +6185,10 @@
         <v>47</v>
       </c>
       <c r="M136" s="38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N136" s="35" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -6188,17 +6196,17 @@
         <v>128</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D137" s="37" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E137" s="20"/>
       <c r="F137" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G137" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H137" s="22"/>
       <c r="I137" s="23">
@@ -6212,10 +6220,10 @@
         <v>47</v>
       </c>
       <c r="M137" s="38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N137" s="35" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -6223,17 +6231,17 @@
         <v>129</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D138" s="37" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E138" s="20"/>
       <c r="F138" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G138" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H138" s="22"/>
       <c r="I138" s="23">
@@ -6247,10 +6255,10 @@
         <v>47</v>
       </c>
       <c r="M138" s="38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N138" s="35" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -6258,17 +6266,17 @@
         <v>130</v>
       </c>
       <c r="B139" s="38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D139" s="37" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E139" s="20"/>
       <c r="F139" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G139" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H139" s="22"/>
       <c r="I139" s="23">
@@ -6282,10 +6290,10 @@
         <v>47</v>
       </c>
       <c r="M139" s="38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N139" s="35" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -6293,17 +6301,17 @@
         <v>131</v>
       </c>
       <c r="B140" s="38" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D140" s="37" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E140" s="20"/>
       <c r="F140" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G140" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H140" s="22"/>
       <c r="I140" s="23">
@@ -6317,10 +6325,10 @@
         <v>47</v>
       </c>
       <c r="M140" s="38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N140" s="35" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -6328,17 +6336,17 @@
         <v>132</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D141" s="37" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E141" s="20"/>
       <c r="F141" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G141" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H141" s="22"/>
       <c r="I141" s="23">
@@ -6352,10 +6360,10 @@
         <v>47</v>
       </c>
       <c r="M141" s="38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N141" s="35" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -6363,14 +6371,14 @@
         <v>133</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E142" s="20"/>
       <c r="F142" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G142" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H142" s="22"/>
       <c r="I142" s="23"/>
@@ -6384,7 +6392,7 @@
       </c>
       <c r="M142" s="20"/>
       <c r="N142" s="30" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -6392,17 +6400,17 @@
         <v>134</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E143" s="20"/>
       <c r="F143" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G143" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H143" s="22"/>
       <c r="I143" s="23"/>
@@ -6414,10 +6422,10 @@
         <v>47</v>
       </c>
       <c r="M143" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N143" s="30" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -6425,20 +6433,20 @@
         <v>135</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D144" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E144" s="20"/>
       <c r="F144" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G144" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H144" s="22"/>
       <c r="I144" s="23">
@@ -6453,10 +6461,10 @@
         <v>47</v>
       </c>
       <c r="M144" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N144" s="28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -6464,20 +6472,20 @@
         <v>136</v>
       </c>
       <c r="B145" s="31" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D145" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E145" s="20"/>
       <c r="F145" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G145" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H145" s="22"/>
       <c r="I145" s="23">
@@ -6492,10 +6500,10 @@
         <v>47</v>
       </c>
       <c r="M145" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N145" s="28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -6503,20 +6511,20 @@
         <v>137</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D146" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E146" s="20"/>
       <c r="F146" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G146" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H146" s="22"/>
       <c r="I146" s="23">
@@ -6531,10 +6539,10 @@
         <v>47</v>
       </c>
       <c r="M146" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N146" s="28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -6542,20 +6550,20 @@
         <v>138</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D147" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E147" s="20"/>
       <c r="F147" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G147" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H147" s="22"/>
       <c r="I147" s="23">
@@ -6570,10 +6578,10 @@
         <v>47</v>
       </c>
       <c r="M147" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N147" s="28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -6581,20 +6589,20 @@
         <v>139</v>
       </c>
       <c r="B148" s="31" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D148" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E148" s="20"/>
       <c r="F148" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G148" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H148" s="22"/>
       <c r="I148" s="23">
@@ -6609,10 +6617,10 @@
         <v>47</v>
       </c>
       <c r="M148" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N148" s="28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -6620,20 +6628,20 @@
         <v>140</v>
       </c>
       <c r="B149" s="31" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D149" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E149" s="20"/>
       <c r="F149" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G149" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H149" s="22"/>
       <c r="I149" s="23">
@@ -6648,10 +6656,10 @@
         <v>47</v>
       </c>
       <c r="M149" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N149" s="28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -6659,20 +6667,20 @@
         <v>141</v>
       </c>
       <c r="B150" s="31" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D150" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E150" s="20"/>
       <c r="F150" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G150" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H150" s="22"/>
       <c r="I150" s="23">
@@ -6687,10 +6695,10 @@
         <v>47</v>
       </c>
       <c r="M150" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N150" s="28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -6698,20 +6706,20 @@
         <v>142</v>
       </c>
       <c r="B151" s="31" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D151" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E151" s="20"/>
       <c r="F151" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G151" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H151" s="22"/>
       <c r="I151" s="23">
@@ -6726,10 +6734,10 @@
         <v>47</v>
       </c>
       <c r="M151" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N151" s="28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -6737,17 +6745,17 @@
         <v>143</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E152" s="20"/>
       <c r="F152" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G152" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H152" s="22"/>
       <c r="I152" s="23"/>
@@ -6760,10 +6768,10 @@
         <v>47</v>
       </c>
       <c r="M152" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N152" s="30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -6771,17 +6779,17 @@
         <v>144</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E153" s="20"/>
       <c r="F153" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G153" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H153" s="22"/>
       <c r="I153" s="23">
@@ -6796,10 +6804,10 @@
         <v>47</v>
       </c>
       <c r="M153" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N153" s="30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -6807,17 +6815,17 @@
         <v>145</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D154" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E154" s="20"/>
       <c r="F154" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G154" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H154" s="22"/>
       <c r="I154" s="23">
@@ -6832,10 +6840,10 @@
         <v>47</v>
       </c>
       <c r="M154" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N154" s="30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -6843,17 +6851,17 @@
         <v>146</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D155" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E155" s="20"/>
       <c r="F155" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G155" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H155" s="22"/>
       <c r="I155" s="23">
@@ -6868,10 +6876,10 @@
         <v>47</v>
       </c>
       <c r="M155" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N155" s="30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -6879,17 +6887,17 @@
         <v>147</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E156" s="20"/>
       <c r="F156" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G156" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H156" s="22"/>
       <c r="I156" s="23"/>
@@ -6902,10 +6910,10 @@
         <v>47</v>
       </c>
       <c r="M156" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N156" s="30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -6913,17 +6921,17 @@
         <v>148</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E157" s="20"/>
       <c r="F157" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G157" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H157" s="22"/>
       <c r="I157" s="23">
@@ -6938,10 +6946,10 @@
         <v>47</v>
       </c>
       <c r="M157" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N157" s="30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -6949,17 +6957,17 @@
         <v>149</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D158" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E158" s="20"/>
       <c r="F158" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G158" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H158" s="22"/>
       <c r="I158" s="23">
@@ -6974,10 +6982,10 @@
         <v>47</v>
       </c>
       <c r="M158" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N158" s="30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -6985,17 +6993,17 @@
         <v>150</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D159" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E159" s="20"/>
       <c r="F159" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G159" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H159" s="22"/>
       <c r="I159" s="23">
@@ -7010,10 +7018,10 @@
         <v>47</v>
       </c>
       <c r="M159" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N159" s="30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -7021,17 +7029,17 @@
         <v>151</v>
       </c>
       <c r="B160" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E160" s="20"/>
       <c r="F160" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G160" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H160" s="22"/>
       <c r="I160" s="23"/>
@@ -7044,10 +7052,10 @@
         <v>47</v>
       </c>
       <c r="M160" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N160" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -7055,17 +7063,17 @@
         <v>152</v>
       </c>
       <c r="B161" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="E161" s="20"/>
       <c r="F161" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G161" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H161" s="22"/>
       <c r="I161" s="23"/>
@@ -7078,10 +7086,10 @@
         <v>47</v>
       </c>
       <c r="M161" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N161" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -7089,17 +7097,17 @@
         <v>153</v>
       </c>
       <c r="B162" s="31" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E162" s="20"/>
       <c r="F162" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G162" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H162" s="22"/>
       <c r="I162" s="23"/>
@@ -7112,10 +7120,10 @@
         <v>47</v>
       </c>
       <c r="M162" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N162" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -7123,17 +7131,17 @@
         <v>154</v>
       </c>
       <c r="B163" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E163" s="20"/>
       <c r="F163" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G163" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H163" s="22"/>
       <c r="I163" s="23"/>
@@ -7146,10 +7154,10 @@
         <v>47</v>
       </c>
       <c r="M163" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N163" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -7157,17 +7165,17 @@
         <v>155</v>
       </c>
       <c r="B164" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E164" s="20"/>
       <c r="F164" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G164" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H164" s="22"/>
       <c r="I164" s="23"/>
@@ -7180,10 +7188,10 @@
         <v>47</v>
       </c>
       <c r="M164" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N164" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -7191,20 +7199,20 @@
         <v>156</v>
       </c>
       <c r="B165" s="31" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E165" s="20"/>
       <c r="F165" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G165" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H165" s="22"/>
       <c r="I165" s="23"/>
@@ -7217,10 +7225,10 @@
         <v>47</v>
       </c>
       <c r="M165" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N165" s="26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -7228,20 +7236,20 @@
         <v>157</v>
       </c>
       <c r="B166" s="31" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C166" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="D166" s="36" t="s">
         <v>197</v>
-      </c>
-      <c r="D166" s="36" t="s">
-        <v>200</v>
       </c>
       <c r="E166" s="20"/>
       <c r="F166" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G166" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H166" s="22"/>
       <c r="I166" s="23">
@@ -7256,10 +7264,10 @@
         <v>47</v>
       </c>
       <c r="M166" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N166" s="26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="167" spans="1:14">
@@ -7267,22 +7275,22 @@
         <v>158</v>
       </c>
       <c r="B167" s="31" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C167" s="36" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D167" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="E167" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="E167" s="31" t="s">
-        <v>203</v>
-      </c>
       <c r="F167" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G167" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H167" s="22"/>
       <c r="I167" s="23">
@@ -7297,10 +7305,10 @@
         <v>47</v>
       </c>
       <c r="M167" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N167" s="26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="168" spans="1:14">
@@ -7308,22 +7316,22 @@
         <v>159</v>
       </c>
       <c r="B168" s="31" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C168" s="36" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D168" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="E168" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="E168" s="31" t="s">
-        <v>203</v>
-      </c>
       <c r="F168" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G168" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H168" s="22"/>
       <c r="I168" s="23">
@@ -7338,10 +7346,10 @@
         <v>47</v>
       </c>
       <c r="M168" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N168" s="26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -11060,11 +11068,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="H5:H6"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="B8:E8"/>
@@ -11079,8 +11082,13 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="L5:L6"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="H5:H6"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{D357D88A-2775-40B2-B73F-2173296B7938}"/>
     <hyperlink ref="N10" r:id="rId2" display="http://dx.doi.org/10.1016/j.jnucmat.2016.12.040" xr:uid="{714A93C9-3A88-EC49-94BE-6C9C80FE0CD4}"/>

--- a/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
+++ b/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-guest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05A07EE-77AE-BD4E-B686-7F6EA054212E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EDF8B3-0D3D-774B-BD99-C9298D059E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="218">
   <si>
     <t>Name:</t>
   </si>
@@ -613,9 +613,6 @@
     <t>Cr16.8 Mo17.6 Nb17.9 Ta18.5 V11.4 W17.8</t>
   </si>
   <si>
-    <t>Mo98.57 Ti1.16 Zr0.004 Co0.24 S0.29</t>
-  </si>
-  <si>
     <t>Mo25 Nb25 Ta25 V25</t>
   </si>
   <si>
@@ -680,6 +677,45 @@
   </si>
   <si>
     <t>Nb Ta Ti V W</t>
+  </si>
+  <si>
+    <t>Mo98.74 Ti0.996 Zr0.104 C0.159</t>
+  </si>
+  <si>
+    <t>SPS</t>
+  </si>
+  <si>
+    <t>1723K SPS for 300s at 40MPa</t>
+  </si>
+  <si>
+    <t>1773K SPS for 300s at 40MPa</t>
+  </si>
+  <si>
+    <t>1798K SPS for 300s at 40MPa</t>
+  </si>
+  <si>
+    <t>1823K SPS for 300s at 40MPa</t>
+  </si>
+  <si>
+    <t>1848K SPS for 300s at 40MPa</t>
+  </si>
+  <si>
+    <t>1848K SPS for 150s at 40MPa</t>
+  </si>
+  <si>
+    <t>1723K SPS for 150s at 40MPa</t>
+  </si>
+  <si>
+    <t>1723K SPS for 150s at 60MPa</t>
+  </si>
+  <si>
+    <t>1723K SPS for 150s at 70MPa</t>
+  </si>
+  <si>
+    <t>1723K SPS for 150s at 80MPa</t>
+  </si>
+  <si>
+    <t>1973K SPS for 150s at 80MPa</t>
   </si>
 </sst>
 </file>
@@ -862,7 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -971,6 +1007,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1259,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1294,14 +1332,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D2" s="45" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="45"/>
       <c r="F2" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
@@ -1318,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D3" s="45"/>
       <c r="E3" s="45"/>
@@ -1570,7 +1608,7 @@
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G10" s="20" t="s">
         <v>123</v>
@@ -1610,7 +1648,7 @@
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G11" s="20" t="s">
         <v>123</v>
@@ -1650,7 +1688,7 @@
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>123</v>
@@ -1690,7 +1728,7 @@
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>123</v>
@@ -1730,7 +1768,7 @@
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>123</v>
@@ -1770,7 +1808,7 @@
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>123</v>
@@ -1810,7 +1848,7 @@
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>123</v>
@@ -1850,7 +1888,7 @@
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>123</v>
@@ -1889,7 +1927,7 @@
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>123</v>
@@ -1928,7 +1966,7 @@
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>123</v>
@@ -1967,7 +2005,7 @@
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>123</v>
@@ -2006,7 +2044,7 @@
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>123</v>
@@ -2045,7 +2083,7 @@
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>123</v>
@@ -2084,7 +2122,7 @@
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>123</v>
@@ -2123,7 +2161,7 @@
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G24" s="20" t="s">
         <v>123</v>
@@ -2162,7 +2200,7 @@
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>123</v>
@@ -2201,7 +2239,7 @@
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G26" s="20" t="s">
         <v>123</v>
@@ -2240,7 +2278,7 @@
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G27" s="20" t="s">
         <v>123</v>
@@ -2279,7 +2317,7 @@
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G28" s="20" t="s">
         <v>123</v>
@@ -2318,7 +2356,7 @@
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G29" s="20" t="s">
         <v>123</v>
@@ -2357,7 +2395,7 @@
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>123</v>
@@ -2396,7 +2434,7 @@
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G31" s="20" t="s">
         <v>123</v>
@@ -2435,7 +2473,7 @@
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G32" s="20" t="s">
         <v>123</v>
@@ -2474,7 +2512,7 @@
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G33" s="20" t="s">
         <v>123</v>
@@ -2513,7 +2551,7 @@
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G34" s="20" t="s">
         <v>123</v>
@@ -2552,7 +2590,7 @@
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G35" s="20" t="s">
         <v>123</v>
@@ -2588,7 +2626,7 @@
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G36" s="20" t="s">
         <v>123</v>
@@ -2624,7 +2662,7 @@
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G37" s="20" t="s">
         <v>123</v>
@@ -2660,7 +2698,7 @@
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G38" s="20" t="s">
         <v>123</v>
@@ -2695,7 +2733,7 @@
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G39" s="20" t="s">
         <v>123</v>
@@ -2730,7 +2768,7 @@
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G40" s="20" t="s">
         <v>123</v>
@@ -2765,7 +2803,7 @@
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G41" s="20" t="s">
         <v>123</v>
@@ -2799,7 +2837,7 @@
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G42" s="20" t="s">
         <v>123</v>
@@ -2835,7 +2873,7 @@
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G43" s="20" t="s">
         <v>123</v>
@@ -2871,7 +2909,7 @@
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G44" s="20" t="s">
         <v>123</v>
@@ -2907,7 +2945,7 @@
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G45" s="20" t="s">
         <v>123</v>
@@ -2943,7 +2981,7 @@
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G46" s="20" t="s">
         <v>123</v>
@@ -2979,7 +3017,7 @@
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G47" s="20" t="s">
         <v>123</v>
@@ -3015,7 +3053,7 @@
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G48" s="20" t="s">
         <v>123</v>
@@ -3051,7 +3089,7 @@
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G49" s="20" t="s">
         <v>123</v>
@@ -3087,7 +3125,7 @@
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G50" s="20" t="s">
         <v>123</v>
@@ -3123,7 +3161,7 @@
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G51" s="20" t="s">
         <v>123</v>
@@ -3156,7 +3194,7 @@
       <c r="C52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G52" s="20" t="s">
         <v>123</v>
@@ -3189,7 +3227,7 @@
       <c r="C53" s="20"/>
       <c r="E53" s="20"/>
       <c r="F53" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G53" s="20" t="s">
         <v>123</v>
@@ -3222,7 +3260,7 @@
       <c r="C54" s="20"/>
       <c r="E54" s="20"/>
       <c r="F54" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G54" s="20" t="s">
         <v>123</v>
@@ -3255,7 +3293,7 @@
       <c r="C55" s="20"/>
       <c r="E55" s="20"/>
       <c r="F55" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G55" s="20" t="s">
         <v>123</v>
@@ -3288,7 +3326,7 @@
       <c r="C56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G56" s="20" t="s">
         <v>123</v>
@@ -3321,7 +3359,7 @@
       <c r="C57" s="20"/>
       <c r="E57" s="20"/>
       <c r="F57" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G57" s="20" t="s">
         <v>123</v>
@@ -3357,7 +3395,7 @@
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G58" s="20" t="s">
         <v>123</v>
@@ -3392,7 +3430,7 @@
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G59" s="20" t="s">
         <v>123</v>
@@ -3427,7 +3465,7 @@
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G60" s="20" t="s">
         <v>123</v>
@@ -3462,7 +3500,7 @@
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G61" s="20" t="s">
         <v>123</v>
@@ -3499,7 +3537,7 @@
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G62" s="20" t="s">
         <v>123</v>
@@ -3538,7 +3576,7 @@
       </c>
       <c r="E63" s="20"/>
       <c r="F63" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G63" s="20" t="s">
         <v>123</v>
@@ -3577,7 +3615,7 @@
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G64" s="20" t="s">
         <v>123</v>
@@ -3616,7 +3654,7 @@
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G65" s="20" t="s">
         <v>123</v>
@@ -3655,7 +3693,7 @@
       </c>
       <c r="E66" s="20"/>
       <c r="F66" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G66" s="20" t="s">
         <v>123</v>
@@ -3692,7 +3730,7 @@
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G67" s="20" t="s">
         <v>123</v>
@@ -3729,7 +3767,7 @@
       </c>
       <c r="E68" s="20"/>
       <c r="F68" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G68" s="20" t="s">
         <v>123</v>
@@ -3766,7 +3804,7 @@
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G69" s="20" t="s">
         <v>123</v>
@@ -3803,7 +3841,7 @@
       </c>
       <c r="E70" s="20"/>
       <c r="F70" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G70" s="20" t="s">
         <v>123</v>
@@ -3840,7 +3878,7 @@
       </c>
       <c r="E71" s="20"/>
       <c r="F71" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G71" s="20" t="s">
         <v>123</v>
@@ -3877,7 +3915,7 @@
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G72" s="20" t="s">
         <v>123</v>
@@ -3914,7 +3952,7 @@
       </c>
       <c r="E73" s="20"/>
       <c r="F73" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G73" s="20" t="s">
         <v>123</v>
@@ -3946,7 +3984,7 @@
       <c r="C74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G74" s="20" t="s">
         <v>123</v>
@@ -3977,7 +4015,7 @@
       <c r="C75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G75" s="20" t="s">
         <v>123</v>
@@ -4008,7 +4046,7 @@
       <c r="C76" s="20"/>
       <c r="E76" s="20"/>
       <c r="F76" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G76" s="20" t="s">
         <v>123</v>
@@ -4041,7 +4079,7 @@
       </c>
       <c r="E77" s="20"/>
       <c r="F77" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G77" s="20" t="s">
         <v>123</v>
@@ -4076,7 +4114,7 @@
       </c>
       <c r="E78" s="20"/>
       <c r="F78" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G78" s="20" t="s">
         <v>123</v>
@@ -4111,7 +4149,7 @@
       </c>
       <c r="E79" s="20"/>
       <c r="F79" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G79" s="20" t="s">
         <v>123</v>
@@ -4146,7 +4184,7 @@
       </c>
       <c r="E80" s="20"/>
       <c r="F80" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G80" s="20" t="s">
         <v>123</v>
@@ -4182,7 +4220,7 @@
       </c>
       <c r="E81" s="20"/>
       <c r="F81" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G81" s="20" t="s">
         <v>123</v>
@@ -4218,7 +4256,7 @@
       </c>
       <c r="E82" s="20"/>
       <c r="F82" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G82" s="20" t="s">
         <v>123</v>
@@ -4254,7 +4292,7 @@
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G83" s="20" t="s">
         <v>123</v>
@@ -4289,7 +4327,7 @@
       </c>
       <c r="E84" s="20"/>
       <c r="F84" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G84" s="20" t="s">
         <v>123</v>
@@ -4324,7 +4362,7 @@
       </c>
       <c r="E85" s="20"/>
       <c r="F85" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G85" s="20" t="s">
         <v>123</v>
@@ -4359,7 +4397,7 @@
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G86" s="20" t="s">
         <v>123</v>
@@ -4394,7 +4432,7 @@
       </c>
       <c r="E87" s="20"/>
       <c r="F87" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G87" s="20" t="s">
         <v>123</v>
@@ -4429,7 +4467,7 @@
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G88" s="20" t="s">
         <v>123</v>
@@ -4457,14 +4495,14 @@
         <v>80</v>
       </c>
       <c r="B89" s="49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C89" s="20" t="s">
         <v>117</v>
       </c>
       <c r="E89" s="20"/>
       <c r="F89" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G89" s="20" t="s">
         <v>123</v>
@@ -4492,14 +4530,14 @@
         <v>81</v>
       </c>
       <c r="B90" s="49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C90" s="20" t="s">
         <v>117</v>
       </c>
       <c r="E90" s="20"/>
       <c r="F90" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G90" s="20" t="s">
         <v>123</v>
@@ -4527,14 +4565,14 @@
         <v>82</v>
       </c>
       <c r="B91" s="49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C91" s="20" t="s">
         <v>117</v>
       </c>
       <c r="E91" s="20"/>
       <c r="F91" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G91" s="20" t="s">
         <v>123</v>
@@ -4568,11 +4606,11 @@
         <v>117</v>
       </c>
       <c r="D92" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E92" s="20"/>
       <c r="F92" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G92" s="20" t="s">
         <v>123</v>
@@ -4604,11 +4642,11 @@
         <v>90</v>
       </c>
       <c r="D93" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E93" s="20"/>
       <c r="F93" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G93" s="20" t="s">
         <v>123</v>
@@ -4640,11 +4678,11 @@
         <v>91</v>
       </c>
       <c r="D94" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E94" s="20"/>
       <c r="F94" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G94" s="20" t="s">
         <v>123</v>
@@ -4672,22 +4710,27 @@
       <c r="A95" s="3">
         <v>86</v>
       </c>
-      <c r="B95" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D95" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="E95" s="20"/>
+      <c r="B95" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C95" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D95" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="E95" s="51" t="s">
+        <v>207</v>
+      </c>
       <c r="F95" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G95" s="20" t="s">
         <v>123</v>
       </c>
       <c r="H95" s="22"/>
-      <c r="I95" s="23">
-        <v>1723</v>
+      <c r="I95" s="3">
+        <v>298</v>
       </c>
       <c r="J95" s="19">
         <v>1910000000</v>
@@ -4707,22 +4750,27 @@
       <c r="A96" s="3">
         <v>87</v>
       </c>
-      <c r="B96" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D96" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="E96" s="20"/>
+      <c r="B96" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C96" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D96" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="E96" s="51" t="s">
+        <v>208</v>
+      </c>
       <c r="F96" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G96" s="20" t="s">
         <v>123</v>
       </c>
       <c r="H96" s="22"/>
-      <c r="I96" s="23">
-        <v>1773</v>
+      <c r="I96" s="3">
+        <v>298</v>
       </c>
       <c r="J96" s="19">
         <v>1890000000</v>
@@ -4742,22 +4790,27 @@
       <c r="A97" s="3">
         <v>88</v>
       </c>
-      <c r="B97" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D97" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="E97" s="20"/>
+      <c r="B97" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C97" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D97" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="E97" s="51" t="s">
+        <v>209</v>
+      </c>
       <c r="F97" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G97" s="20" t="s">
         <v>123</v>
       </c>
       <c r="H97" s="22"/>
-      <c r="I97" s="23">
-        <v>1798</v>
+      <c r="I97" s="3">
+        <v>298</v>
       </c>
       <c r="J97" s="19">
         <v>1840000000</v>
@@ -4777,22 +4830,27 @@
       <c r="A98" s="3">
         <v>89</v>
       </c>
-      <c r="B98" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D98" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="E98" s="20"/>
+      <c r="B98" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C98" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D98" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="E98" s="51" t="s">
+        <v>210</v>
+      </c>
       <c r="F98" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G98" s="20" t="s">
         <v>123</v>
       </c>
       <c r="H98" s="22"/>
-      <c r="I98" s="23">
-        <v>1823</v>
+      <c r="I98" s="3">
+        <v>298</v>
       </c>
       <c r="J98" s="19">
         <v>1820000000</v>
@@ -4812,22 +4870,27 @@
       <c r="A99" s="3">
         <v>90</v>
       </c>
-      <c r="B99" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D99" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="E99" s="20"/>
+      <c r="B99" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C99" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D99" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="E99" s="51" t="s">
+        <v>211</v>
+      </c>
       <c r="F99" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G99" s="20" t="s">
         <v>123</v>
       </c>
       <c r="H99" s="22"/>
-      <c r="I99" s="23">
-        <v>1848</v>
+      <c r="I99" s="3">
+        <v>298</v>
       </c>
       <c r="J99" s="19">
         <v>1850000000</v>
@@ -4847,22 +4910,27 @@
       <c r="A100" s="3">
         <v>91</v>
       </c>
-      <c r="B100" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D100" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="E100" s="20"/>
+      <c r="B100" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D100" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="E100" s="51" t="s">
+        <v>212</v>
+      </c>
       <c r="F100" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G100" s="20" t="s">
         <v>123</v>
       </c>
       <c r="H100" s="22"/>
-      <c r="I100" s="23">
-        <v>1848</v>
+      <c r="I100" s="3">
+        <v>298</v>
       </c>
       <c r="J100" s="19">
         <v>1810000000</v>
@@ -4882,22 +4950,27 @@
       <c r="A101" s="3">
         <v>92</v>
       </c>
-      <c r="B101" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D101" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="E101" s="20"/>
+      <c r="B101" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C101" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D101" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="E101" s="51" t="s">
+        <v>213</v>
+      </c>
       <c r="F101" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G101" s="20" t="s">
         <v>123</v>
       </c>
       <c r="H101" s="22"/>
-      <c r="I101" s="23">
-        <v>1723</v>
+      <c r="I101" s="3">
+        <v>298</v>
       </c>
       <c r="J101" s="19">
         <v>1750000000</v>
@@ -4917,22 +4990,27 @@
       <c r="A102" s="3">
         <v>93</v>
       </c>
-      <c r="B102" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D102" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="E102" s="20"/>
+      <c r="B102" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D102" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="E102" s="51" t="s">
+        <v>214</v>
+      </c>
       <c r="F102" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G102" s="20" t="s">
         <v>123</v>
       </c>
       <c r="H102" s="22"/>
-      <c r="I102" s="23">
-        <v>1723</v>
+      <c r="I102" s="3">
+        <v>298</v>
       </c>
       <c r="J102" s="19">
         <v>1920000000</v>
@@ -4952,22 +5030,27 @@
       <c r="A103" s="3">
         <v>94</v>
       </c>
-      <c r="B103" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D103" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="E103" s="20"/>
+      <c r="B103" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C103" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D103" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="E103" s="51" t="s">
+        <v>215</v>
+      </c>
       <c r="F103" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G103" s="20" t="s">
         <v>123</v>
       </c>
       <c r="H103" s="22"/>
-      <c r="I103" s="23">
-        <v>1723</v>
+      <c r="I103" s="3">
+        <v>298</v>
       </c>
       <c r="J103" s="19">
         <v>1950000000</v>
@@ -4987,22 +5070,27 @@
       <c r="A104" s="3">
         <v>95</v>
       </c>
-      <c r="B104" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D104" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="E104" s="20"/>
+      <c r="B104" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C104" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D104" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="E104" s="51" t="s">
+        <v>216</v>
+      </c>
       <c r="F104" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G104" s="20" t="s">
         <v>123</v>
       </c>
       <c r="H104" s="22"/>
-      <c r="I104" s="23">
-        <v>1723</v>
+      <c r="I104" s="3">
+        <v>298</v>
       </c>
       <c r="J104" s="19">
         <v>2040000000</v>
@@ -5022,22 +5110,27 @@
       <c r="A105" s="3">
         <v>96</v>
       </c>
-      <c r="B105" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D105" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="E105" s="20"/>
+      <c r="B105" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C105" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D105" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="E105" s="51" t="s">
+        <v>217</v>
+      </c>
       <c r="F105" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G105" s="20" t="s">
         <v>123</v>
       </c>
       <c r="H105" s="22"/>
-      <c r="I105" s="23">
-        <v>1973</v>
+      <c r="I105" s="3">
+        <v>298</v>
       </c>
       <c r="J105" s="19">
         <v>1980000000</v>
@@ -5065,7 +5158,7 @@
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G106" s="20" t="s">
         <v>123</v>
@@ -5099,7 +5192,7 @@
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G107" s="20" t="s">
         <v>123</v>
@@ -5133,7 +5226,7 @@
       </c>
       <c r="E108" s="20"/>
       <c r="F108" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G108" s="20" t="s">
         <v>123</v>
@@ -5167,7 +5260,7 @@
       </c>
       <c r="E109" s="20"/>
       <c r="F109" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G109" s="20" t="s">
         <v>123</v>
@@ -5204,7 +5297,7 @@
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G110" s="20" t="s">
         <v>123</v>
@@ -5231,7 +5324,7 @@
         <v>102</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>117</v>
@@ -5241,7 +5334,7 @@
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G111" s="20" t="s">
         <v>123</v>
@@ -5278,7 +5371,7 @@
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G112" s="20" t="s">
         <v>123</v>
@@ -5315,7 +5408,7 @@
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G113" s="20" t="s">
         <v>123</v>
@@ -5352,7 +5445,7 @@
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G114" s="20" t="s">
         <v>123</v>
@@ -5389,7 +5482,7 @@
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G115" s="20" t="s">
         <v>123</v>
@@ -5426,7 +5519,7 @@
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G116" s="20" t="s">
         <v>123</v>
@@ -5463,7 +5556,7 @@
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G117" s="20" t="s">
         <v>123</v>
@@ -5500,7 +5593,7 @@
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G118" s="20" t="s">
         <v>123</v>
@@ -5537,7 +5630,7 @@
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G119" s="20" t="s">
         <v>123</v>
@@ -5574,7 +5667,7 @@
       </c>
       <c r="E120" s="20"/>
       <c r="F120" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G120" s="20" t="s">
         <v>123</v>
@@ -5611,7 +5704,7 @@
       </c>
       <c r="E121" s="20"/>
       <c r="F121" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G121" s="20" t="s">
         <v>123</v>
@@ -5644,11 +5737,11 @@
         <v>117</v>
       </c>
       <c r="D122" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E122" s="20"/>
       <c r="F122" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G122" s="20" t="s">
         <v>123</v>
@@ -5682,11 +5775,11 @@
         <v>117</v>
       </c>
       <c r="D123" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E123" s="20"/>
       <c r="F123" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G123" s="20" t="s">
         <v>123</v>
@@ -5720,11 +5813,11 @@
         <v>117</v>
       </c>
       <c r="D124" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E124" s="20"/>
       <c r="F124" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G124" s="20" t="s">
         <v>123</v>
@@ -5758,11 +5851,11 @@
         <v>117</v>
       </c>
       <c r="D125" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E125" s="20"/>
       <c r="F125" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G125" s="20" t="s">
         <v>123</v>
@@ -5800,7 +5893,7 @@
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G126" s="20" t="s">
         <v>123</v>
@@ -5833,11 +5926,11 @@
         <v>117</v>
       </c>
       <c r="D127" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G127" s="20" t="s">
         <v>123</v>
@@ -5872,11 +5965,11 @@
         <v>117</v>
       </c>
       <c r="D128" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E128" s="20"/>
       <c r="F128" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G128" s="20" t="s">
         <v>123</v>
@@ -5911,11 +6004,11 @@
         <v>117</v>
       </c>
       <c r="D129" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E129" s="20"/>
       <c r="F129" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G129" s="20" t="s">
         <v>123</v>
@@ -5944,7 +6037,7 @@
         <v>121</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>117</v>
@@ -5954,7 +6047,7 @@
       </c>
       <c r="E130" s="20"/>
       <c r="F130" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G130" s="20" t="s">
         <v>123</v>
@@ -5983,14 +6076,14 @@
         <v>122</v>
       </c>
       <c r="B131" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>120</v>
       </c>
       <c r="E131" s="20"/>
       <c r="F131" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G131" s="20" t="s">
         <v>123</v>
@@ -6019,14 +6112,14 @@
         <v>123</v>
       </c>
       <c r="B132" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>120</v>
       </c>
       <c r="E132" s="20"/>
       <c r="F132" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G132" s="20" t="s">
         <v>123</v>
@@ -6055,14 +6148,14 @@
         <v>124</v>
       </c>
       <c r="B133" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>120</v>
       </c>
       <c r="E133" s="20"/>
       <c r="F133" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G133" s="20" t="s">
         <v>123</v>
@@ -6098,7 +6191,7 @@
       </c>
       <c r="E134" s="20"/>
       <c r="F134" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G134" s="20" t="s">
         <v>123</v>
@@ -6133,7 +6226,7 @@
       </c>
       <c r="E135" s="20"/>
       <c r="F135" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G135" s="20" t="s">
         <v>123</v>
@@ -6168,7 +6261,7 @@
       </c>
       <c r="E136" s="20"/>
       <c r="F136" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G136" s="20" t="s">
         <v>123</v>
@@ -6203,7 +6296,7 @@
       </c>
       <c r="E137" s="20"/>
       <c r="F137" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G137" s="20" t="s">
         <v>123</v>
@@ -6238,7 +6331,7 @@
       </c>
       <c r="E138" s="20"/>
       <c r="F138" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G138" s="20" t="s">
         <v>123</v>
@@ -6273,7 +6366,7 @@
       </c>
       <c r="E139" s="20"/>
       <c r="F139" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G139" s="20" t="s">
         <v>123</v>
@@ -6308,7 +6401,7 @@
       </c>
       <c r="E140" s="20"/>
       <c r="F140" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G140" s="20" t="s">
         <v>123</v>
@@ -6343,7 +6436,7 @@
       </c>
       <c r="E141" s="20"/>
       <c r="F141" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G141" s="20" t="s">
         <v>123</v>
@@ -6375,7 +6468,7 @@
       </c>
       <c r="E142" s="20"/>
       <c r="F142" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G142" s="20" t="s">
         <v>123</v>
@@ -6407,7 +6500,7 @@
       </c>
       <c r="E143" s="20"/>
       <c r="F143" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G143" s="20" t="s">
         <v>123</v>
@@ -6433,17 +6526,17 @@
         <v>135</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>121</v>
       </c>
       <c r="D144" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E144" s="20"/>
       <c r="F144" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G144" s="20" t="s">
         <v>123</v>
@@ -6472,17 +6565,17 @@
         <v>136</v>
       </c>
       <c r="B145" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>121</v>
       </c>
       <c r="D145" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E145" s="20"/>
       <c r="F145" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G145" s="20" t="s">
         <v>123</v>
@@ -6511,17 +6604,17 @@
         <v>137</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>121</v>
       </c>
       <c r="D146" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E146" s="20"/>
       <c r="F146" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G146" s="20" t="s">
         <v>123</v>
@@ -6550,17 +6643,17 @@
         <v>138</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>121</v>
       </c>
       <c r="D147" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E147" s="20"/>
       <c r="F147" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G147" s="20" t="s">
         <v>123</v>
@@ -6589,17 +6682,17 @@
         <v>139</v>
       </c>
       <c r="B148" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>121</v>
       </c>
       <c r="D148" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E148" s="20"/>
       <c r="F148" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G148" s="20" t="s">
         <v>123</v>
@@ -6628,17 +6721,17 @@
         <v>140</v>
       </c>
       <c r="B149" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>121</v>
       </c>
       <c r="D149" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E149" s="20"/>
       <c r="F149" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G149" s="20" t="s">
         <v>123</v>
@@ -6667,17 +6760,17 @@
         <v>141</v>
       </c>
       <c r="B150" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>121</v>
       </c>
       <c r="D150" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E150" s="20"/>
       <c r="F150" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G150" s="20" t="s">
         <v>123</v>
@@ -6706,17 +6799,17 @@
         <v>142</v>
       </c>
       <c r="B151" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>121</v>
       </c>
       <c r="D151" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E151" s="20"/>
       <c r="F151" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G151" s="20" t="s">
         <v>123</v>
@@ -6752,7 +6845,7 @@
       </c>
       <c r="E152" s="20"/>
       <c r="F152" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G152" s="20" t="s">
         <v>123</v>
@@ -6786,7 +6879,7 @@
       </c>
       <c r="E153" s="20"/>
       <c r="F153" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G153" s="20" t="s">
         <v>123</v>
@@ -6818,11 +6911,11 @@
         <v>111</v>
       </c>
       <c r="D154" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E154" s="20"/>
       <c r="F154" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G154" s="20" t="s">
         <v>123</v>
@@ -6854,11 +6947,11 @@
         <v>111</v>
       </c>
       <c r="D155" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E155" s="20"/>
       <c r="F155" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G155" s="20" t="s">
         <v>123</v>
@@ -6894,7 +6987,7 @@
       </c>
       <c r="E156" s="20"/>
       <c r="F156" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G156" s="20" t="s">
         <v>123</v>
@@ -6928,7 +7021,7 @@
       </c>
       <c r="E157" s="20"/>
       <c r="F157" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G157" s="20" t="s">
         <v>123</v>
@@ -6960,11 +7053,11 @@
         <v>112</v>
       </c>
       <c r="D158" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E158" s="20"/>
       <c r="F158" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G158" s="20" t="s">
         <v>123</v>
@@ -6996,11 +7089,11 @@
         <v>112</v>
       </c>
       <c r="D159" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E159" s="20"/>
       <c r="F159" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G159" s="20" t="s">
         <v>123</v>
@@ -7036,7 +7129,7 @@
       </c>
       <c r="E160" s="20"/>
       <c r="F160" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G160" s="20" t="s">
         <v>123</v>
@@ -7070,7 +7163,7 @@
       </c>
       <c r="E161" s="20"/>
       <c r="F161" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G161" s="20" t="s">
         <v>123</v>
@@ -7104,7 +7197,7 @@
       </c>
       <c r="E162" s="20"/>
       <c r="F162" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G162" s="20" t="s">
         <v>123</v>
@@ -7138,7 +7231,7 @@
       </c>
       <c r="E163" s="20"/>
       <c r="F163" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G163" s="20" t="s">
         <v>123</v>
@@ -7172,7 +7265,7 @@
       </c>
       <c r="E164" s="20"/>
       <c r="F164" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G164" s="20" t="s">
         <v>123</v>
@@ -7199,7 +7292,7 @@
         <v>156</v>
       </c>
       <c r="B165" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>117</v>
@@ -7209,7 +7302,7 @@
       </c>
       <c r="E165" s="20"/>
       <c r="F165" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G165" s="20" t="s">
         <v>123</v>
@@ -7236,17 +7329,17 @@
         <v>157</v>
       </c>
       <c r="B166" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="C166" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="C166" s="36" t="s">
-        <v>194</v>
-      </c>
       <c r="D166" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E166" s="20"/>
       <c r="F166" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G166" s="20" t="s">
         <v>123</v>
@@ -7275,19 +7368,19 @@
         <v>158</v>
       </c>
       <c r="B167" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C167" s="36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D167" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E167" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F167" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G167" s="20" t="s">
         <v>123</v>
@@ -7316,19 +7409,19 @@
         <v>159</v>
       </c>
       <c r="B168" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C168" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="D168" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="E168" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="D168" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="E168" s="31" t="s">
-        <v>200</v>
-      </c>
       <c r="F168" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G168" s="20" t="s">
         <v>123</v>

--- a/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
+++ b/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-guest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EDF8B3-0D3D-774B-BD99-C9298D059E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95A6D6E-E08C-2648-8356-D4BB80FB5401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="219">
   <si>
     <t>Name:</t>
   </si>
@@ -304,12 +304,6 @@
   </si>
   <si>
     <t>V</t>
-  </si>
-  <si>
-    <t>Ta90 W10</t>
-  </si>
-  <si>
-    <t>Ta88.5 W10 TiC1.5</t>
   </si>
   <si>
     <t xml:space="preserve">Hf25 Nb25 Mo12.5 Ti25 V12.5 </t>
@@ -717,12 +711,21 @@
   <si>
     <t>1973K SPS for 150s at 80MPa</t>
   </si>
+  <si>
+    <t>SPS at 2000*C for 25 min at 35 Mpa</t>
+  </si>
+  <si>
+    <t>Ta88.8 W11.2</t>
+  </si>
+  <si>
+    <t>Ta87.4 W11.2 (TiC)0.7</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -819,6 +822,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -898,7 +907,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1009,6 +1018,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1298,7 +1308,7 @@
   <dimension ref="A1:T447"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+      <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1332,14 +1342,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D2" s="45" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="45"/>
       <c r="F2" s="43" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
@@ -1356,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D3" s="45"/>
       <c r="E3" s="45"/>
@@ -1417,7 +1427,7 @@
         <v>30</v>
       </c>
       <c r="M5" s="42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N5" s="42" t="s">
         <v>46</v>
@@ -1601,17 +1611,17 @@
         <v>60</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="23">
@@ -1626,10 +1636,10 @@
         <v>47</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N10" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O10" s="20"/>
     </row>
@@ -1641,17 +1651,17 @@
         <v>60</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="23">
@@ -1666,10 +1676,10 @@
         <v>47</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N11" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O11" s="20"/>
     </row>
@@ -1681,17 +1691,17 @@
         <v>60</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="23">
@@ -1706,10 +1716,10 @@
         <v>47</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N12" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O12" s="33"/>
     </row>
@@ -1721,17 +1731,17 @@
         <v>60</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="23">
@@ -1746,10 +1756,10 @@
         <v>47</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N13" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O13" s="20"/>
     </row>
@@ -1761,17 +1771,17 @@
         <v>60</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="23">
@@ -1786,10 +1796,10 @@
         <v>47</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N14" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O14" s="20"/>
     </row>
@@ -1801,17 +1811,17 @@
         <v>60</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="23">
@@ -1826,10 +1836,10 @@
         <v>47</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N15" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O15" s="20"/>
     </row>
@@ -1841,17 +1851,17 @@
         <v>60</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="23">
@@ -1866,10 +1876,10 @@
         <v>47</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N16" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O16" s="20"/>
     </row>
@@ -1881,17 +1891,17 @@
         <v>60</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="23">
@@ -1906,10 +1916,10 @@
         <v>47</v>
       </c>
       <c r="M17" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N17" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1920,17 +1930,17 @@
         <v>60</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="23">
@@ -1945,10 +1955,10 @@
         <v>47</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N18" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1959,17 +1969,17 @@
         <v>60</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H19" s="22"/>
       <c r="I19" s="23">
@@ -1984,10 +1994,10 @@
         <v>47</v>
       </c>
       <c r="M19" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N19" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1998,17 +2008,17 @@
         <v>60</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="23">
@@ -2023,10 +2033,10 @@
         <v>47</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N20" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2037,17 +2047,17 @@
         <v>60</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H21" s="22"/>
       <c r="I21" s="23">
@@ -2062,10 +2072,10 @@
         <v>47</v>
       </c>
       <c r="M21" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N21" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2076,17 +2086,17 @@
         <v>60</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="23">
@@ -2101,10 +2111,10 @@
         <v>47</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N22" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2115,17 +2125,17 @@
         <v>61</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="23">
@@ -2140,10 +2150,10 @@
         <v>47</v>
       </c>
       <c r="M23" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N23" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2154,17 +2164,17 @@
         <v>61</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="23">
@@ -2179,10 +2189,10 @@
         <v>47</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N24" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2193,17 +2203,17 @@
         <v>61</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="23">
@@ -2218,10 +2228,10 @@
         <v>47</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N25" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2232,17 +2242,17 @@
         <v>61</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="23">
@@ -2257,10 +2267,10 @@
         <v>47</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N26" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2271,17 +2281,17 @@
         <v>61</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="23">
@@ -2296,10 +2306,10 @@
         <v>47</v>
       </c>
       <c r="M27" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N27" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2310,17 +2320,17 @@
         <v>61</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="23">
@@ -2335,10 +2345,10 @@
         <v>47</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N28" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2349,17 +2359,17 @@
         <v>61</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="23">
@@ -2374,10 +2384,10 @@
         <v>47</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N29" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2388,17 +2398,17 @@
         <v>61</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="23">
@@ -2413,10 +2423,10 @@
         <v>47</v>
       </c>
       <c r="M30" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N30" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2427,17 +2437,17 @@
         <v>61</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="23">
@@ -2452,10 +2462,10 @@
         <v>47</v>
       </c>
       <c r="M31" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N31" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2466,17 +2476,17 @@
         <v>61</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H32" s="22"/>
       <c r="I32" s="23">
@@ -2491,10 +2501,10 @@
         <v>47</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N32" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2505,17 +2515,17 @@
         <v>61</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H33" s="22"/>
       <c r="I33" s="23">
@@ -2530,10 +2540,10 @@
         <v>47</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N33" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2544,17 +2554,17 @@
         <v>61</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H34" s="22"/>
       <c r="I34" s="23">
@@ -2569,10 +2579,10 @@
         <v>47</v>
       </c>
       <c r="M34" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N34" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2583,17 +2593,17 @@
         <v>61</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H35" s="22"/>
       <c r="I35" s="23">
@@ -2608,10 +2618,10 @@
         <v>47</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N35" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2622,14 +2632,14 @@
         <v>62</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H36" s="22"/>
       <c r="I36" s="23">
@@ -2644,10 +2654,10 @@
         <v>47</v>
       </c>
       <c r="M36" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N36" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2658,14 +2668,14 @@
         <v>63</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H37" s="22"/>
       <c r="I37" s="23">
@@ -2680,10 +2690,10 @@
         <v>47</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N37" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2694,14 +2704,14 @@
         <v>64</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H38" s="22"/>
       <c r="I38" s="23">
@@ -2715,10 +2725,10 @@
         <v>47</v>
       </c>
       <c r="M38" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N38" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2729,14 +2739,14 @@
         <v>65</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H39" s="22"/>
       <c r="I39" s="23">
@@ -2750,10 +2760,10 @@
         <v>47</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N39" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2764,14 +2774,14 @@
         <v>66</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H40" s="22"/>
       <c r="I40" s="23">
@@ -2785,10 +2795,10 @@
         <v>47</v>
       </c>
       <c r="M40" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N40" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2799,14 +2809,14 @@
         <v>67</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H41" s="22"/>
       <c r="I41" s="23">
@@ -2821,7 +2831,7 @@
       </c>
       <c r="M41" s="20"/>
       <c r="N41" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2829,18 +2839,18 @@
         <v>33</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H42" s="22"/>
       <c r="I42" s="23">
@@ -2854,10 +2864,10 @@
         <v>47</v>
       </c>
       <c r="M42" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N42" s="26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2869,14 +2879,14 @@
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H43" s="22"/>
       <c r="I43" s="23">
@@ -2890,10 +2900,10 @@
         <v>47</v>
       </c>
       <c r="M43" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2905,14 +2915,14 @@
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H44" s="22"/>
       <c r="I44" s="23">
@@ -2926,10 +2936,10 @@
         <v>47</v>
       </c>
       <c r="M44" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2941,14 +2951,14 @@
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H45" s="22"/>
       <c r="I45" s="23">
@@ -2962,10 +2972,10 @@
         <v>47</v>
       </c>
       <c r="M45" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2973,18 +2983,18 @@
         <v>37</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H46" s="22"/>
       <c r="I46" s="23">
@@ -2998,10 +3008,10 @@
         <v>47</v>
       </c>
       <c r="M46" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N46" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3013,14 +3023,14 @@
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H47" s="22"/>
       <c r="I47" s="23">
@@ -3034,10 +3044,10 @@
         <v>47</v>
       </c>
       <c r="M47" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N47" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3045,18 +3055,18 @@
         <v>39</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H48" s="22"/>
       <c r="I48" s="23">
@@ -3070,10 +3080,10 @@
         <v>47</v>
       </c>
       <c r="M48" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N48" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3081,18 +3091,18 @@
         <v>40</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H49" s="22"/>
       <c r="I49" s="23">
@@ -3106,10 +3116,10 @@
         <v>47</v>
       </c>
       <c r="M49" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N49" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3121,14 +3131,14 @@
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H50" s="22"/>
       <c r="I50" s="23">
@@ -3142,10 +3152,10 @@
         <v>47</v>
       </c>
       <c r="M50" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N50" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3157,14 +3167,14 @@
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H51" s="22"/>
       <c r="I51" s="23">
@@ -3178,10 +3188,10 @@
         <v>47</v>
       </c>
       <c r="M51" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N51" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3194,10 +3204,10 @@
       <c r="C52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H52" s="22"/>
       <c r="I52" s="23">
@@ -3211,10 +3221,10 @@
         <v>47</v>
       </c>
       <c r="M52" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N52" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3222,15 +3232,15 @@
         <v>44</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C53" s="20"/>
       <c r="E53" s="20"/>
       <c r="F53" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H53" s="22"/>
       <c r="I53" s="23">
@@ -3244,10 +3254,10 @@
         <v>47</v>
       </c>
       <c r="M53" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N53" s="26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3255,15 +3265,15 @@
         <v>45</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C54" s="20"/>
       <c r="E54" s="20"/>
       <c r="F54" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H54" s="22"/>
       <c r="I54" s="23">
@@ -3277,10 +3287,10 @@
         <v>47</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3288,15 +3298,15 @@
         <v>46</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C55" s="20"/>
       <c r="E55" s="20"/>
       <c r="F55" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H55" s="22"/>
       <c r="I55" s="23">
@@ -3310,10 +3320,10 @@
         <v>47</v>
       </c>
       <c r="M55" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3321,15 +3331,15 @@
         <v>47</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H56" s="22"/>
       <c r="I56" s="23">
@@ -3343,10 +3353,10 @@
         <v>47</v>
       </c>
       <c r="M56" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3354,15 +3364,15 @@
         <v>48</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C57" s="20"/>
       <c r="E57" s="20"/>
       <c r="F57" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="23">
@@ -3376,10 +3386,10 @@
         <v>47</v>
       </c>
       <c r="M57" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3391,14 +3401,14 @@
       </c>
       <c r="C58" s="20"/>
       <c r="D58" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H58" s="22"/>
       <c r="I58" s="23"/>
@@ -3411,10 +3421,10 @@
         <v>47</v>
       </c>
       <c r="M58" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N58" s="26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3426,14 +3436,14 @@
       </c>
       <c r="C59" s="20"/>
       <c r="D59" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H59" s="22"/>
       <c r="I59" s="23"/>
@@ -3446,10 +3456,10 @@
         <v>47</v>
       </c>
       <c r="M59" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3461,14 +3471,14 @@
       </c>
       <c r="C60" s="20"/>
       <c r="D60" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H60" s="22"/>
       <c r="I60" s="23"/>
@@ -3481,10 +3491,10 @@
         <v>47</v>
       </c>
       <c r="M60" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3496,14 +3506,14 @@
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H61" s="22"/>
       <c r="I61" s="23"/>
@@ -3516,10 +3526,10 @@
         <v>47</v>
       </c>
       <c r="M61" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3530,17 +3540,17 @@
         <v>72</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H62" s="22"/>
       <c r="I62" s="23">
@@ -3555,10 +3565,10 @@
         <v>47</v>
       </c>
       <c r="M62" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3569,17 +3579,17 @@
         <v>73</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E63" s="20"/>
       <c r="F63" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H63" s="22"/>
       <c r="I63" s="23">
@@ -3594,10 +3604,10 @@
         <v>47</v>
       </c>
       <c r="M63" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3608,17 +3618,17 @@
         <v>74</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H64" s="22"/>
       <c r="I64" s="23">
@@ -3633,10 +3643,10 @@
         <v>47</v>
       </c>
       <c r="M64" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3647,17 +3657,17 @@
         <v>75</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H65" s="22"/>
       <c r="I65" s="23">
@@ -3672,10 +3682,10 @@
         <v>47</v>
       </c>
       <c r="M65" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3686,17 +3696,17 @@
         <v>76</v>
       </c>
       <c r="C66" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E66" s="20"/>
       <c r="F66" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H66" s="22"/>
       <c r="I66" s="23"/>
@@ -3709,10 +3719,10 @@
         <v>47</v>
       </c>
       <c r="M66" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N66" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3723,17 +3733,17 @@
         <v>77</v>
       </c>
       <c r="C67" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H67" s="22"/>
       <c r="I67" s="23"/>
@@ -3746,10 +3756,10 @@
         <v>47</v>
       </c>
       <c r="M67" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3760,17 +3770,17 @@
         <v>78</v>
       </c>
       <c r="C68" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E68" s="20"/>
       <c r="F68" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H68" s="22"/>
       <c r="I68" s="23"/>
@@ -3783,10 +3793,10 @@
         <v>47</v>
       </c>
       <c r="M68" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3797,17 +3807,17 @@
         <v>79</v>
       </c>
       <c r="C69" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H69" s="22"/>
       <c r="I69" s="23"/>
@@ -3820,10 +3830,10 @@
         <v>47</v>
       </c>
       <c r="M69" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3834,17 +3844,17 @@
         <v>80</v>
       </c>
       <c r="C70" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E70" s="20"/>
       <c r="F70" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H70" s="22"/>
       <c r="I70" s="23"/>
@@ -3857,10 +3867,10 @@
         <v>47</v>
       </c>
       <c r="M70" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3871,17 +3881,17 @@
         <v>81</v>
       </c>
       <c r="C71" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E71" s="20"/>
       <c r="F71" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H71" s="22"/>
       <c r="I71" s="23"/>
@@ -3894,10 +3904,10 @@
         <v>47</v>
       </c>
       <c r="M71" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3908,17 +3918,17 @@
         <v>82</v>
       </c>
       <c r="C72" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H72" s="22"/>
       <c r="I72" s="23"/>
@@ -3931,10 +3941,10 @@
         <v>47</v>
       </c>
       <c r="M72" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3945,17 +3955,17 @@
         <v>83</v>
       </c>
       <c r="C73" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E73" s="20"/>
       <c r="F73" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H73" s="22"/>
       <c r="I73" s="23"/>
@@ -3968,10 +3978,10 @@
         <v>47</v>
       </c>
       <c r="M73" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3979,15 +3989,15 @@
         <v>65</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H74" s="22"/>
       <c r="I74" s="23">
@@ -4002,7 +4012,7 @@
       </c>
       <c r="M74" s="20"/>
       <c r="N74" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4010,15 +4020,15 @@
         <v>66</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G75" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H75" s="22"/>
       <c r="I75" s="23">
@@ -4033,7 +4043,7 @@
       </c>
       <c r="M75" s="20"/>
       <c r="N75" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -4041,15 +4051,15 @@
         <v>67</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C76" s="20"/>
       <c r="E76" s="20"/>
       <c r="F76" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G76" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H76" s="22"/>
       <c r="I76" s="23">
@@ -4064,7 +4074,7 @@
       </c>
       <c r="M76" s="20"/>
       <c r="N76" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4072,17 +4082,17 @@
         <v>68</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E77" s="20"/>
       <c r="F77" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H77" s="22"/>
       <c r="I77" s="23">
@@ -4096,10 +4106,10 @@
         <v>47</v>
       </c>
       <c r="M77" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N77" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -4107,17 +4117,17 @@
         <v>69</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E78" s="20"/>
       <c r="F78" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H78" s="22"/>
       <c r="I78" s="23">
@@ -4131,10 +4141,10 @@
         <v>47</v>
       </c>
       <c r="M78" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N78" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4142,17 +4152,17 @@
         <v>70</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E79" s="20"/>
       <c r="F79" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H79" s="22"/>
       <c r="I79" s="23">
@@ -4166,13 +4176,13 @@
         <v>47</v>
       </c>
       <c r="M79" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N79" s="26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="21">
       <c r="A80" s="3">
         <v>71</v>
       </c>
@@ -4180,14 +4190,14 @@
         <v>84</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="E80" s="20"/>
+        <v>115</v>
+      </c>
+      <c r="E80" s="52"/>
       <c r="F80" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G80" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H80" s="22"/>
       <c r="I80" s="23">
@@ -4202,10 +4212,10 @@
         <v>47</v>
       </c>
       <c r="M80" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N80" s="26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4216,14 +4226,14 @@
         <v>85</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E81" s="20"/>
       <c r="F81" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G81" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H81" s="22"/>
       <c r="I81" s="23">
@@ -4238,10 +4248,10 @@
         <v>47</v>
       </c>
       <c r="M81" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N81" s="26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4249,17 +4259,17 @@
         <v>73</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E82" s="20"/>
       <c r="F82" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G82" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H82" s="22"/>
       <c r="I82" s="23">
@@ -4274,10 +4284,10 @@
         <v>47</v>
       </c>
       <c r="M82" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N82" s="26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4285,17 +4295,17 @@
         <v>74</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G83" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H83" s="22"/>
       <c r="I83" s="23">
@@ -4309,10 +4319,10 @@
         <v>47</v>
       </c>
       <c r="M83" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N83" s="26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4323,14 +4333,14 @@
         <v>86</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E84" s="20"/>
       <c r="F84" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G84" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H84" s="22"/>
       <c r="I84" s="23">
@@ -4344,10 +4354,10 @@
         <v>47</v>
       </c>
       <c r="M84" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N84" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4358,14 +4368,14 @@
         <v>87</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E85" s="20"/>
       <c r="F85" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H85" s="22"/>
       <c r="I85" s="23">
@@ -4379,10 +4389,10 @@
         <v>47</v>
       </c>
       <c r="M85" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N85" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4393,14 +4403,14 @@
         <v>88</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G86" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H86" s="22"/>
       <c r="I86" s="23">
@@ -4414,10 +4424,10 @@
         <v>47</v>
       </c>
       <c r="M86" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N86" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4428,14 +4438,14 @@
         <v>89</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E87" s="20"/>
       <c r="F87" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G87" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H87" s="22"/>
       <c r="I87" s="23">
@@ -4449,10 +4459,10 @@
         <v>47</v>
       </c>
       <c r="M87" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N87" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4463,14 +4473,14 @@
         <v>84</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G88" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H88" s="22"/>
       <c r="I88" s="23">
@@ -4484,10 +4494,10 @@
         <v>47</v>
       </c>
       <c r="M88" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N88" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4495,17 +4505,17 @@
         <v>80</v>
       </c>
       <c r="B89" s="49" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E89" s="20"/>
       <c r="F89" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H89" s="22"/>
       <c r="I89" s="23">
@@ -4519,10 +4529,10 @@
         <v>47</v>
       </c>
       <c r="M89" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N89" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4530,17 +4540,17 @@
         <v>81</v>
       </c>
       <c r="B90" s="49" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E90" s="20"/>
       <c r="F90" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G90" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H90" s="22"/>
       <c r="I90" s="23">
@@ -4554,10 +4564,10 @@
         <v>47</v>
       </c>
       <c r="M90" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N90" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4565,17 +4575,17 @@
         <v>82</v>
       </c>
       <c r="B91" s="49" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E91" s="20"/>
       <c r="F91" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G91" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H91" s="22"/>
       <c r="I91" s="23">
@@ -4589,10 +4599,10 @@
         <v>47</v>
       </c>
       <c r="M91" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N91" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4603,21 +4613,23 @@
         <v>87</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D92" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="E92" s="20"/>
+        <v>115</v>
+      </c>
+      <c r="D92" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E92" s="49" t="s">
+        <v>216</v>
+      </c>
       <c r="F92" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G92" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H92" s="22"/>
       <c r="I92" s="23">
-        <v>2273</v>
+        <v>298</v>
       </c>
       <c r="J92" s="19">
         <f>103*9807000</f>
@@ -4628,32 +4640,34 @@
         <v>47</v>
       </c>
       <c r="M92" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N92" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="3">
         <v>84</v>
       </c>
-      <c r="B93" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D93" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="E93" s="20"/>
+      <c r="B93" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="D93" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E93" s="49" t="s">
+        <v>216</v>
+      </c>
       <c r="F93" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G93" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H93" s="22"/>
       <c r="I93" s="23">
-        <v>2273</v>
+        <v>298</v>
       </c>
       <c r="J93" s="19">
         <f>204*9807000</f>
@@ -4664,32 +4678,34 @@
         <v>47</v>
       </c>
       <c r="M93" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N93" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="3">
         <v>85</v>
       </c>
-      <c r="B94" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D94" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="E94" s="20"/>
+      <c r="B94" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="D94" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E94" s="49" t="s">
+        <v>216</v>
+      </c>
       <c r="F94" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H94" s="22"/>
       <c r="I94" s="23">
-        <v>2273</v>
+        <v>298</v>
       </c>
       <c r="J94" s="19">
         <f>244*9807000</f>
@@ -4700,10 +4716,10 @@
         <v>47</v>
       </c>
       <c r="M94" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N94" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4711,22 +4727,22 @@
         <v>86</v>
       </c>
       <c r="B95" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="C95" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D95" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E95" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="C95" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="D95" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="E95" s="51" t="s">
-        <v>207</v>
-      </c>
       <c r="F95" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H95" s="22"/>
       <c r="I95" s="3">
@@ -4740,10 +4756,10 @@
         <v>47</v>
       </c>
       <c r="M95" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N95" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4751,22 +4767,22 @@
         <v>87</v>
       </c>
       <c r="B96" s="49" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C96" s="50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D96" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E96" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="E96" s="51" t="s">
-        <v>208</v>
-      </c>
       <c r="F96" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G96" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H96" s="22"/>
       <c r="I96" s="3">
@@ -4780,10 +4796,10 @@
         <v>47</v>
       </c>
       <c r="M96" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N96" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4791,22 +4807,22 @@
         <v>88</v>
       </c>
       <c r="B97" s="49" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C97" s="50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D97" s="50" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E97" s="51" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F97" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G97" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H97" s="22"/>
       <c r="I97" s="3">
@@ -4820,10 +4836,10 @@
         <v>47</v>
       </c>
       <c r="M97" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N97" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -4831,22 +4847,22 @@
         <v>89</v>
       </c>
       <c r="B98" s="49" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C98" s="50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D98" s="50" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E98" s="51" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F98" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G98" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H98" s="22"/>
       <c r="I98" s="3">
@@ -4860,10 +4876,10 @@
         <v>47</v>
       </c>
       <c r="M98" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N98" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -4871,22 +4887,22 @@
         <v>90</v>
       </c>
       <c r="B99" s="49" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C99" s="50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D99" s="50" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E99" s="51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F99" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G99" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H99" s="22"/>
       <c r="I99" s="3">
@@ -4900,10 +4916,10 @@
         <v>47</v>
       </c>
       <c r="M99" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N99" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -4911,22 +4927,22 @@
         <v>91</v>
       </c>
       <c r="B100" s="49" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C100" s="50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D100" s="50" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E100" s="51" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F100" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G100" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H100" s="22"/>
       <c r="I100" s="3">
@@ -4940,10 +4956,10 @@
         <v>47</v>
       </c>
       <c r="M100" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N100" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -4951,22 +4967,22 @@
         <v>92</v>
       </c>
       <c r="B101" s="49" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C101" s="50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D101" s="50" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E101" s="51" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F101" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H101" s="22"/>
       <c r="I101" s="3">
@@ -4980,10 +4996,10 @@
         <v>47</v>
       </c>
       <c r="M101" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N101" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -4991,22 +5007,22 @@
         <v>93</v>
       </c>
       <c r="B102" s="49" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C102" s="50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D102" s="50" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E102" s="51" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F102" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G102" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H102" s="22"/>
       <c r="I102" s="3">
@@ -5020,10 +5036,10 @@
         <v>47</v>
       </c>
       <c r="M102" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N102" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -5031,22 +5047,22 @@
         <v>94</v>
       </c>
       <c r="B103" s="49" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C103" s="50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D103" s="50" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E103" s="51" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F103" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G103" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H103" s="22"/>
       <c r="I103" s="3">
@@ -5060,10 +5076,10 @@
         <v>47</v>
       </c>
       <c r="M103" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N103" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5071,22 +5087,22 @@
         <v>95</v>
       </c>
       <c r="B104" s="49" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C104" s="50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D104" s="50" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E104" s="51" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F104" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G104" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H104" s="22"/>
       <c r="I104" s="3">
@@ -5100,10 +5116,10 @@
         <v>47</v>
       </c>
       <c r="M104" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N104" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5111,22 +5127,22 @@
         <v>96</v>
       </c>
       <c r="B105" s="49" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C105" s="50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D105" s="50" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E105" s="51" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F105" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G105" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H105" s="22"/>
       <c r="I105" s="3">
@@ -5140,10 +5156,10 @@
         <v>47</v>
       </c>
       <c r="M105" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N105" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5151,17 +5167,17 @@
         <v>97</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G106" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H106" s="22"/>
       <c r="I106" s="23"/>
@@ -5174,10 +5190,10 @@
         <v>47</v>
       </c>
       <c r="M106" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N106" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5185,17 +5201,17 @@
         <v>98</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G107" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H107" s="22"/>
       <c r="I107" s="23"/>
@@ -5208,10 +5224,10 @@
         <v>47</v>
       </c>
       <c r="M107" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N107" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5219,17 +5235,17 @@
         <v>99</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E108" s="20"/>
       <c r="F108" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G108" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H108" s="22"/>
       <c r="I108" s="23"/>
@@ -5242,10 +5258,10 @@
         <v>47</v>
       </c>
       <c r="M108" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N108" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5253,17 +5269,17 @@
         <v>100</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E109" s="20"/>
       <c r="F109" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G109" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H109" s="22"/>
       <c r="I109" s="23"/>
@@ -5276,10 +5292,10 @@
         <v>47</v>
       </c>
       <c r="M109" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N109" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5287,20 +5303,20 @@
         <v>101</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C110" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G110" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H110" s="22"/>
       <c r="I110" s="23"/>
@@ -5313,10 +5329,10 @@
         <v>47</v>
       </c>
       <c r="M110" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N110" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5324,20 +5340,20 @@
         <v>102</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C111" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G111" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H111" s="22"/>
       <c r="I111" s="23"/>
@@ -5350,10 +5366,10 @@
         <v>47</v>
       </c>
       <c r="M111" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N111" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5361,20 +5377,20 @@
         <v>103</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C112" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G112" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H112" s="22"/>
       <c r="I112" s="23"/>
@@ -5387,10 +5403,10 @@
         <v>47</v>
       </c>
       <c r="M112" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N112" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5398,20 +5414,20 @@
         <v>104</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C113" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G113" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H113" s="22"/>
       <c r="I113" s="23"/>
@@ -5424,10 +5440,10 @@
         <v>47</v>
       </c>
       <c r="M113" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N113" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5435,20 +5451,20 @@
         <v>105</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C114" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G114" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H114" s="22"/>
       <c r="I114" s="23"/>
@@ -5461,10 +5477,10 @@
         <v>47</v>
       </c>
       <c r="M114" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N114" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5472,20 +5488,20 @@
         <v>106</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C115" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G115" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H115" s="22"/>
       <c r="I115" s="23"/>
@@ -5498,10 +5514,10 @@
         <v>47</v>
       </c>
       <c r="M115" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N115" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5509,20 +5525,20 @@
         <v>107</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C116" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G116" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H116" s="22"/>
       <c r="I116" s="23"/>
@@ -5535,10 +5551,10 @@
         <v>47</v>
       </c>
       <c r="M116" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N116" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -5546,20 +5562,20 @@
         <v>108</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C117" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G117" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H117" s="22"/>
       <c r="I117" s="23"/>
@@ -5572,10 +5588,10 @@
         <v>47</v>
       </c>
       <c r="M117" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N117" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -5583,20 +5599,20 @@
         <v>109</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C118" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G118" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H118" s="22"/>
       <c r="I118" s="23"/>
@@ -5609,10 +5625,10 @@
         <v>47</v>
       </c>
       <c r="M118" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N118" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -5620,20 +5636,20 @@
         <v>110</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C119" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G119" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H119" s="22"/>
       <c r="I119" s="23"/>
@@ -5646,10 +5662,10 @@
         <v>47</v>
       </c>
       <c r="M119" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N119" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -5657,20 +5673,20 @@
         <v>111</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C120" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E120" s="20"/>
       <c r="F120" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G120" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H120" s="22"/>
       <c r="I120" s="23"/>
@@ -5683,10 +5699,10 @@
         <v>47</v>
       </c>
       <c r="M120" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N120" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -5694,20 +5710,20 @@
         <v>112</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C121" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D121" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E121" s="20"/>
       <c r="F121" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G121" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H121" s="22"/>
       <c r="I121" s="23"/>
@@ -5720,10 +5736,10 @@
         <v>47</v>
       </c>
       <c r="M121" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N121" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -5731,20 +5747,20 @@
         <v>113</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D122" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E122" s="20"/>
       <c r="F122" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G122" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H122" s="22"/>
       <c r="I122" s="23">
@@ -5758,10 +5774,10 @@
         <v>47</v>
       </c>
       <c r="M122" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N122" s="29" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -5769,20 +5785,20 @@
         <v>114</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D123" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E123" s="20"/>
       <c r="F123" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G123" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H123" s="22"/>
       <c r="I123" s="23">
@@ -5796,10 +5812,10 @@
         <v>47</v>
       </c>
       <c r="M123" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N123" s="29" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -5807,20 +5823,20 @@
         <v>115</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D124" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E124" s="20"/>
       <c r="F124" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G124" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H124" s="22"/>
       <c r="I124" s="23">
@@ -5834,10 +5850,10 @@
         <v>47</v>
       </c>
       <c r="M124" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N124" s="29" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -5845,20 +5861,20 @@
         <v>116</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D125" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E125" s="20"/>
       <c r="F125" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G125" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H125" s="22"/>
       <c r="I125" s="23">
@@ -5872,10 +5888,10 @@
         <v>47</v>
       </c>
       <c r="M125" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N125" s="29" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -5883,20 +5899,20 @@
         <v>117</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C126" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G126" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H126" s="22"/>
       <c r="I126" s="23"/>
@@ -5909,10 +5925,10 @@
         <v>47</v>
       </c>
       <c r="M126" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N126" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -5920,20 +5936,20 @@
         <v>118</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D127" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G127" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H127" s="22"/>
       <c r="I127" s="23">
@@ -5948,10 +5964,10 @@
         <v>47</v>
       </c>
       <c r="M127" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N127" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -5959,20 +5975,20 @@
         <v>119</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D128" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E128" s="20"/>
       <c r="F128" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G128" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H128" s="22"/>
       <c r="I128" s="23">
@@ -5987,10 +6003,10 @@
         <v>47</v>
       </c>
       <c r="M128" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N128" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -5998,20 +6014,20 @@
         <v>120</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D129" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E129" s="20"/>
       <c r="F129" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G129" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H129" s="22"/>
       <c r="I129" s="23">
@@ -6026,10 +6042,10 @@
         <v>47</v>
       </c>
       <c r="M129" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N129" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -6037,20 +6053,20 @@
         <v>121</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E130" s="20"/>
       <c r="F130" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G130" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H130" s="22"/>
       <c r="I130" s="23">
@@ -6065,10 +6081,10 @@
         <v>47</v>
       </c>
       <c r="M130" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N130" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -6076,17 +6092,17 @@
         <v>122</v>
       </c>
       <c r="B131" s="31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E131" s="20"/>
       <c r="F131" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G131" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H131" s="22"/>
       <c r="I131" s="23">
@@ -6101,10 +6117,10 @@
         <v>47</v>
       </c>
       <c r="M131" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N131" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -6112,17 +6128,17 @@
         <v>123</v>
       </c>
       <c r="B132" s="31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E132" s="20"/>
       <c r="F132" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G132" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H132" s="22"/>
       <c r="I132" s="23">
@@ -6137,10 +6153,10 @@
         <v>47</v>
       </c>
       <c r="M132" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N132" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -6148,17 +6164,17 @@
         <v>124</v>
       </c>
       <c r="B133" s="31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E133" s="20"/>
       <c r="F133" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G133" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H133" s="22"/>
       <c r="I133" s="23">
@@ -6173,10 +6189,10 @@
         <v>47</v>
       </c>
       <c r="M133" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N133" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -6184,17 +6200,17 @@
         <v>125</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D134" s="37" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E134" s="20"/>
       <c r="F134" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G134" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H134" s="22"/>
       <c r="I134" s="23">
@@ -6208,10 +6224,10 @@
         <v>47</v>
       </c>
       <c r="M134" s="38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N134" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -6219,17 +6235,17 @@
         <v>126</v>
       </c>
       <c r="B135" s="38" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D135" s="37" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E135" s="20"/>
       <c r="F135" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G135" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H135" s="22"/>
       <c r="I135" s="23">
@@ -6243,10 +6259,10 @@
         <v>47</v>
       </c>
       <c r="M135" s="38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N135" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -6254,17 +6270,17 @@
         <v>127</v>
       </c>
       <c r="B136" s="38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D136" s="37" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E136" s="20"/>
       <c r="F136" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G136" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H136" s="22"/>
       <c r="I136" s="23">
@@ -6278,10 +6294,10 @@
         <v>47</v>
       </c>
       <c r="M136" s="38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N136" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -6289,17 +6305,17 @@
         <v>128</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D137" s="37" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E137" s="20"/>
       <c r="F137" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G137" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H137" s="22"/>
       <c r="I137" s="23">
@@ -6313,10 +6329,10 @@
         <v>47</v>
       </c>
       <c r="M137" s="38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N137" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -6324,17 +6340,17 @@
         <v>129</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D138" s="37" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E138" s="20"/>
       <c r="F138" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G138" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H138" s="22"/>
       <c r="I138" s="23">
@@ -6348,10 +6364,10 @@
         <v>47</v>
       </c>
       <c r="M138" s="38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N138" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -6359,17 +6375,17 @@
         <v>130</v>
       </c>
       <c r="B139" s="38" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D139" s="37" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E139" s="20"/>
       <c r="F139" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G139" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H139" s="22"/>
       <c r="I139" s="23">
@@ -6383,10 +6399,10 @@
         <v>47</v>
       </c>
       <c r="M139" s="38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N139" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -6394,17 +6410,17 @@
         <v>131</v>
       </c>
       <c r="B140" s="38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D140" s="37" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E140" s="20"/>
       <c r="F140" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G140" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H140" s="22"/>
       <c r="I140" s="23">
@@ -6418,10 +6434,10 @@
         <v>47</v>
       </c>
       <c r="M140" s="38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N140" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -6429,17 +6445,17 @@
         <v>132</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D141" s="37" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E141" s="20"/>
       <c r="F141" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G141" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H141" s="22"/>
       <c r="I141" s="23">
@@ -6453,10 +6469,10 @@
         <v>47</v>
       </c>
       <c r="M141" s="38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N141" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -6464,14 +6480,14 @@
         <v>133</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E142" s="20"/>
       <c r="F142" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G142" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H142" s="22"/>
       <c r="I142" s="23"/>
@@ -6485,7 +6501,7 @@
       </c>
       <c r="M142" s="20"/>
       <c r="N142" s="30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -6493,17 +6509,17 @@
         <v>134</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E143" s="20"/>
       <c r="F143" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G143" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H143" s="22"/>
       <c r="I143" s="23"/>
@@ -6515,10 +6531,10 @@
         <v>47</v>
       </c>
       <c r="M143" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N143" s="30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -6526,20 +6542,20 @@
         <v>135</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D144" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E144" s="20"/>
       <c r="F144" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G144" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H144" s="22"/>
       <c r="I144" s="23">
@@ -6554,10 +6570,10 @@
         <v>47</v>
       </c>
       <c r="M144" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N144" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -6565,20 +6581,20 @@
         <v>136</v>
       </c>
       <c r="B145" s="31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D145" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E145" s="20"/>
       <c r="F145" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G145" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H145" s="22"/>
       <c r="I145" s="23">
@@ -6593,10 +6609,10 @@
         <v>47</v>
       </c>
       <c r="M145" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N145" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -6604,20 +6620,20 @@
         <v>137</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D146" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E146" s="20"/>
       <c r="F146" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G146" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H146" s="22"/>
       <c r="I146" s="23">
@@ -6632,10 +6648,10 @@
         <v>47</v>
       </c>
       <c r="M146" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N146" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -6643,20 +6659,20 @@
         <v>138</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D147" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E147" s="20"/>
       <c r="F147" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G147" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H147" s="22"/>
       <c r="I147" s="23">
@@ -6671,10 +6687,10 @@
         <v>47</v>
       </c>
       <c r="M147" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N147" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -6682,20 +6698,20 @@
         <v>139</v>
       </c>
       <c r="B148" s="31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D148" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E148" s="20"/>
       <c r="F148" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G148" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H148" s="22"/>
       <c r="I148" s="23">
@@ -6710,10 +6726,10 @@
         <v>47</v>
       </c>
       <c r="M148" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N148" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -6721,20 +6737,20 @@
         <v>140</v>
       </c>
       <c r="B149" s="31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D149" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E149" s="20"/>
       <c r="F149" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G149" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H149" s="22"/>
       <c r="I149" s="23">
@@ -6749,10 +6765,10 @@
         <v>47</v>
       </c>
       <c r="M149" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N149" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -6760,20 +6776,20 @@
         <v>141</v>
       </c>
       <c r="B150" s="31" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D150" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E150" s="20"/>
       <c r="F150" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G150" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H150" s="22"/>
       <c r="I150" s="23">
@@ -6788,10 +6804,10 @@
         <v>47</v>
       </c>
       <c r="M150" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N150" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -6799,20 +6815,20 @@
         <v>142</v>
       </c>
       <c r="B151" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D151" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E151" s="20"/>
       <c r="F151" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G151" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H151" s="22"/>
       <c r="I151" s="23">
@@ -6827,10 +6843,10 @@
         <v>47</v>
       </c>
       <c r="M151" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N151" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -6838,17 +6854,17 @@
         <v>143</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E152" s="20"/>
       <c r="F152" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G152" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H152" s="22"/>
       <c r="I152" s="23"/>
@@ -6861,10 +6877,10 @@
         <v>47</v>
       </c>
       <c r="M152" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N152" s="30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -6872,17 +6888,17 @@
         <v>144</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E153" s="20"/>
       <c r="F153" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G153" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H153" s="22"/>
       <c r="I153" s="23">
@@ -6897,10 +6913,10 @@
         <v>47</v>
       </c>
       <c r="M153" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N153" s="30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -6908,17 +6924,17 @@
         <v>145</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D154" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E154" s="20"/>
       <c r="F154" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G154" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H154" s="22"/>
       <c r="I154" s="23">
@@ -6933,10 +6949,10 @@
         <v>47</v>
       </c>
       <c r="M154" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N154" s="30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -6944,17 +6960,17 @@
         <v>146</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D155" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E155" s="20"/>
       <c r="F155" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G155" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H155" s="22"/>
       <c r="I155" s="23">
@@ -6969,10 +6985,10 @@
         <v>47</v>
       </c>
       <c r="M155" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N155" s="30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -6980,17 +6996,17 @@
         <v>147</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E156" s="20"/>
       <c r="F156" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G156" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H156" s="22"/>
       <c r="I156" s="23"/>
@@ -7003,10 +7019,10 @@
         <v>47</v>
       </c>
       <c r="M156" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N156" s="30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -7014,17 +7030,17 @@
         <v>148</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E157" s="20"/>
       <c r="F157" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G157" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H157" s="22"/>
       <c r="I157" s="23">
@@ -7039,10 +7055,10 @@
         <v>47</v>
       </c>
       <c r="M157" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N157" s="30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -7050,17 +7066,17 @@
         <v>149</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D158" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E158" s="20"/>
       <c r="F158" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G158" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H158" s="22"/>
       <c r="I158" s="23">
@@ -7075,10 +7091,10 @@
         <v>47</v>
       </c>
       <c r="M158" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N158" s="30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -7086,17 +7102,17 @@
         <v>150</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D159" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E159" s="20"/>
       <c r="F159" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G159" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H159" s="22"/>
       <c r="I159" s="23">
@@ -7111,10 +7127,10 @@
         <v>47</v>
       </c>
       <c r="M159" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N159" s="30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -7122,17 +7138,17 @@
         <v>151</v>
       </c>
       <c r="B160" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E160" s="20"/>
       <c r="F160" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G160" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H160" s="22"/>
       <c r="I160" s="23"/>
@@ -7145,10 +7161,10 @@
         <v>47</v>
       </c>
       <c r="M160" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="N160" s="30" t="s">
         <v>154</v>
-      </c>
-      <c r="N160" s="30" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -7156,17 +7172,17 @@
         <v>152</v>
       </c>
       <c r="B161" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E161" s="20"/>
       <c r="F161" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G161" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H161" s="22"/>
       <c r="I161" s="23"/>
@@ -7179,10 +7195,10 @@
         <v>47</v>
       </c>
       <c r="M161" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="N161" s="30" t="s">
         <v>154</v>
-      </c>
-      <c r="N161" s="30" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -7190,17 +7206,17 @@
         <v>153</v>
       </c>
       <c r="B162" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E162" s="20"/>
       <c r="F162" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G162" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H162" s="22"/>
       <c r="I162" s="23"/>
@@ -7213,10 +7229,10 @@
         <v>47</v>
       </c>
       <c r="M162" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="N162" s="30" t="s">
         <v>154</v>
-      </c>
-      <c r="N162" s="30" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -7224,17 +7240,17 @@
         <v>154</v>
       </c>
       <c r="B163" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="E163" s="20"/>
       <c r="F163" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G163" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H163" s="22"/>
       <c r="I163" s="23"/>
@@ -7247,10 +7263,10 @@
         <v>47</v>
       </c>
       <c r="M163" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="N163" s="30" t="s">
         <v>154</v>
-      </c>
-      <c r="N163" s="30" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -7258,17 +7274,17 @@
         <v>155</v>
       </c>
       <c r="B164" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E164" s="20"/>
       <c r="F164" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G164" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H164" s="22"/>
       <c r="I164" s="23"/>
@@ -7281,10 +7297,10 @@
         <v>47</v>
       </c>
       <c r="M164" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="N164" s="30" t="s">
         <v>154</v>
-      </c>
-      <c r="N164" s="30" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -7292,20 +7308,20 @@
         <v>156</v>
       </c>
       <c r="B165" s="31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C165" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D165" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E165" s="20"/>
       <c r="F165" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G165" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H165" s="22"/>
       <c r="I165" s="23"/>
@@ -7318,10 +7334,10 @@
         <v>47</v>
       </c>
       <c r="M165" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N165" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -7329,20 +7345,20 @@
         <v>157</v>
       </c>
       <c r="B166" s="31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C166" s="36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D166" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E166" s="20"/>
       <c r="F166" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G166" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H166" s="22"/>
       <c r="I166" s="23">
@@ -7357,10 +7373,10 @@
         <v>47</v>
       </c>
       <c r="M166" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N166" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="167" spans="1:14">
@@ -7368,22 +7384,22 @@
         <v>158</v>
       </c>
       <c r="B167" s="31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C167" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="D167" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="E167" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="D167" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="E167" s="31" t="s">
-        <v>199</v>
-      </c>
       <c r="F167" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G167" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H167" s="22"/>
       <c r="I167" s="23">
@@ -7398,10 +7414,10 @@
         <v>47</v>
       </c>
       <c r="M167" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N167" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="168" spans="1:14">
@@ -7409,22 +7425,22 @@
         <v>159</v>
       </c>
       <c r="B168" s="31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C168" s="36" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D168" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E168" s="31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F168" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G168" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H168" s="22"/>
       <c r="I168" s="23">
@@ -7439,10 +7455,10 @@
         <v>47</v>
       </c>
       <c r="M168" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N168" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="169" spans="1:14">

--- a/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
+++ b/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-guest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95A6D6E-E08C-2648-8356-D4BB80FB5401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F247196-A11D-AB4C-B96E-5FD796574589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="221">
   <si>
     <t>Name:</t>
   </si>
@@ -719,6 +719,12 @@
   </si>
   <si>
     <t>Ta87.4 W11.2 (TiC)0.7</t>
+  </si>
+  <si>
+    <t>1523K sintering temperature</t>
+  </si>
+  <si>
+    <t>1573K sintering temperature</t>
   </si>
 </sst>
 </file>
@@ -1307,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G172" sqref="G172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -6544,13 +6550,15 @@
       <c r="B144" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="C144" s="3" t="s">
-        <v>119</v>
+      <c r="C144" s="50" t="s">
+        <v>115</v>
       </c>
       <c r="D144" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="E144" s="20"/>
+      <c r="E144" s="51" t="s">
+        <v>219</v>
+      </c>
       <c r="F144" s="31" t="s">
         <v>198</v>
       </c>
@@ -6558,8 +6566,8 @@
         <v>121</v>
       </c>
       <c r="H144" s="22"/>
-      <c r="I144" s="23">
-        <v>1523</v>
+      <c r="I144" s="3">
+        <v>298</v>
       </c>
       <c r="J144" s="19">
         <f>341*9807000</f>
@@ -6583,13 +6591,15 @@
       <c r="B145" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="C145" s="3" t="s">
-        <v>119</v>
+      <c r="C145" s="50" t="s">
+        <v>115</v>
       </c>
       <c r="D145" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="E145" s="20"/>
+      <c r="E145" s="51" t="s">
+        <v>219</v>
+      </c>
       <c r="F145" s="31" t="s">
         <v>198</v>
       </c>
@@ -6597,8 +6607,8 @@
         <v>121</v>
       </c>
       <c r="H145" s="22"/>
-      <c r="I145" s="23">
-        <v>1523</v>
+      <c r="I145" s="3">
+        <v>298</v>
       </c>
       <c r="J145" s="19">
         <f>338*9807000</f>
@@ -6622,13 +6632,15 @@
       <c r="B146" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="C146" s="3" t="s">
-        <v>119</v>
+      <c r="C146" s="50" t="s">
+        <v>115</v>
       </c>
       <c r="D146" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="E146" s="20"/>
+      <c r="E146" s="51" t="s">
+        <v>219</v>
+      </c>
       <c r="F146" s="31" t="s">
         <v>198</v>
       </c>
@@ -6636,8 +6648,8 @@
         <v>121</v>
       </c>
       <c r="H146" s="22"/>
-      <c r="I146" s="23">
-        <v>1523</v>
+      <c r="I146" s="3">
+        <v>298</v>
       </c>
       <c r="J146" s="19">
         <f>340*9807000</f>
@@ -6661,13 +6673,15 @@
       <c r="B147" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="C147" s="3" t="s">
-        <v>119</v>
+      <c r="C147" s="50" t="s">
+        <v>115</v>
       </c>
       <c r="D147" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="E147" s="20"/>
+      <c r="E147" s="51" t="s">
+        <v>219</v>
+      </c>
       <c r="F147" s="31" t="s">
         <v>198</v>
       </c>
@@ -6675,8 +6689,8 @@
         <v>121</v>
       </c>
       <c r="H147" s="22"/>
-      <c r="I147" s="23">
-        <v>1523</v>
+      <c r="I147" s="3">
+        <v>298</v>
       </c>
       <c r="J147" s="19">
         <f>345*9807000</f>
@@ -6700,13 +6714,15 @@
       <c r="B148" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="C148" s="3" t="s">
-        <v>119</v>
+      <c r="C148" s="50" t="s">
+        <v>115</v>
       </c>
       <c r="D148" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="E148" s="20"/>
+      <c r="E148" s="51" t="s">
+        <v>220</v>
+      </c>
       <c r="F148" s="31" t="s">
         <v>198</v>
       </c>
@@ -6714,8 +6730,8 @@
         <v>121</v>
       </c>
       <c r="H148" s="22"/>
-      <c r="I148" s="23">
-        <v>1573</v>
+      <c r="I148" s="3">
+        <v>298</v>
       </c>
       <c r="J148" s="19">
         <f>334*9807000</f>
@@ -6739,13 +6755,15 @@
       <c r="B149" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="C149" s="3" t="s">
-        <v>119</v>
+      <c r="C149" s="50" t="s">
+        <v>115</v>
       </c>
       <c r="D149" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="E149" s="20"/>
+      <c r="E149" s="51" t="s">
+        <v>220</v>
+      </c>
       <c r="F149" s="31" t="s">
         <v>198</v>
       </c>
@@ -6753,8 +6771,8 @@
         <v>121</v>
       </c>
       <c r="H149" s="22"/>
-      <c r="I149" s="23">
-        <v>1573</v>
+      <c r="I149" s="3">
+        <v>298</v>
       </c>
       <c r="J149" s="19">
         <f>340*9807000</f>
@@ -6778,13 +6796,15 @@
       <c r="B150" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="C150" s="3" t="s">
-        <v>119</v>
+      <c r="C150" s="50" t="s">
+        <v>115</v>
       </c>
       <c r="D150" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="E150" s="20"/>
+      <c r="E150" s="51" t="s">
+        <v>220</v>
+      </c>
       <c r="F150" s="31" t="s">
         <v>198</v>
       </c>
@@ -6792,8 +6812,8 @@
         <v>121</v>
       </c>
       <c r="H150" s="22"/>
-      <c r="I150" s="23">
-        <v>1573</v>
+      <c r="I150" s="3">
+        <v>298</v>
       </c>
       <c r="J150" s="19">
         <f>340*9807000</f>
@@ -6817,13 +6837,15 @@
       <c r="B151" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="C151" s="3" t="s">
-        <v>119</v>
+      <c r="C151" s="50" t="s">
+        <v>115</v>
       </c>
       <c r="D151" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="E151" s="20"/>
+      <c r="E151" s="51" t="s">
+        <v>220</v>
+      </c>
       <c r="F151" s="31" t="s">
         <v>198</v>
       </c>
@@ -6831,8 +6853,8 @@
         <v>121</v>
       </c>
       <c r="H151" s="22"/>
-      <c r="I151" s="23">
-        <v>1573</v>
+      <c r="I151" s="3">
+        <v>298</v>
       </c>
       <c r="J151" s="19">
         <f>331*9807000</f>
@@ -6867,7 +6889,9 @@
         <v>121</v>
       </c>
       <c r="H152" s="22"/>
-      <c r="I152" s="23"/>
+      <c r="I152" s="3">
+        <v>298</v>
+      </c>
       <c r="J152" s="19">
         <f>459*9807000</f>
         <v>4501413000</v>

--- a/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
+++ b/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-guest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F247196-A11D-AB4C-B96E-5FD796574589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7886D0B1-DDBF-BB4F-8607-0BB03DA17C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="222">
   <si>
     <t>Name:</t>
   </si>
@@ -291,9 +291,6 @@
     <t>W</t>
   </si>
   <si>
-    <t>W90 Ta10</t>
-  </si>
-  <si>
     <t>Nb</t>
   </si>
   <si>
@@ -502,12 +499,6 @@
   </si>
   <si>
     <t>10.1007/s11661-018-4472-z</t>
-  </si>
-  <si>
-    <t>W97 Ti1.5 C1.5</t>
-  </si>
-  <si>
-    <t>W95 Ti2.5 C2.5</t>
   </si>
   <si>
     <t>Ti85 C15</t>
@@ -726,12 +717,24 @@
   <si>
     <t>1573K sintering temperature</t>
   </si>
+  <si>
+    <t>W91.1 Ta8.9</t>
+  </si>
+  <si>
+    <t>W95.4 Ti2.3 C2.3</t>
+  </si>
+  <si>
+    <t>W92.2 Ti3.9 C3.9</t>
+  </si>
+  <si>
+    <t>sintered at 2100*C under 35 MPa for 25–30min; high temperature tensile data present but not extracted here</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -828,12 +831,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -913,7 +910,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1024,7 +1021,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1313,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G172" sqref="G172"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O84" sqref="O84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1348,14 +1344,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D2" s="45" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="45"/>
       <c r="F2" s="43" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
@@ -1372,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D3" s="45"/>
       <c r="E3" s="45"/>
@@ -1433,7 +1429,7 @@
         <v>30</v>
       </c>
       <c r="M5" s="42" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N5" s="42" t="s">
         <v>46</v>
@@ -1617,17 +1613,17 @@
         <v>60</v>
       </c>
       <c r="C10" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="23">
@@ -1642,10 +1638,10 @@
         <v>47</v>
       </c>
       <c r="M10" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="N10" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N10" s="25" t="s">
-        <v>123</v>
       </c>
       <c r="O10" s="20"/>
     </row>
@@ -1657,17 +1653,17 @@
         <v>60</v>
       </c>
       <c r="C11" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="23">
@@ -1682,10 +1678,10 @@
         <v>47</v>
       </c>
       <c r="M11" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="N11" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N11" s="25" t="s">
-        <v>123</v>
       </c>
       <c r="O11" s="20"/>
     </row>
@@ -1697,17 +1693,17 @@
         <v>60</v>
       </c>
       <c r="C12" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="23">
@@ -1722,10 +1718,10 @@
         <v>47</v>
       </c>
       <c r="M12" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="N12" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N12" s="25" t="s">
-        <v>123</v>
       </c>
       <c r="O12" s="33"/>
     </row>
@@ -1737,17 +1733,17 @@
         <v>60</v>
       </c>
       <c r="C13" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="23">
@@ -1762,10 +1758,10 @@
         <v>47</v>
       </c>
       <c r="M13" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="N13" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N13" s="25" t="s">
-        <v>123</v>
       </c>
       <c r="O13" s="20"/>
     </row>
@@ -1777,17 +1773,17 @@
         <v>60</v>
       </c>
       <c r="C14" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="23">
@@ -1802,10 +1798,10 @@
         <v>47</v>
       </c>
       <c r="M14" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N14" s="25" t="s">
-        <v>123</v>
       </c>
       <c r="O14" s="20"/>
     </row>
@@ -1817,17 +1813,17 @@
         <v>60</v>
       </c>
       <c r="C15" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="23">
@@ -1842,10 +1838,10 @@
         <v>47</v>
       </c>
       <c r="M15" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N15" s="25" t="s">
-        <v>123</v>
       </c>
       <c r="O15" s="20"/>
     </row>
@@ -1857,17 +1853,17 @@
         <v>60</v>
       </c>
       <c r="C16" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="23">
@@ -1882,10 +1878,10 @@
         <v>47</v>
       </c>
       <c r="M16" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="N16" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N16" s="25" t="s">
-        <v>123</v>
       </c>
       <c r="O16" s="20"/>
     </row>
@@ -1897,17 +1893,17 @@
         <v>60</v>
       </c>
       <c r="C17" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="23">
@@ -1922,10 +1918,10 @@
         <v>47</v>
       </c>
       <c r="M17" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="N17" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N17" s="25" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1936,17 +1932,17 @@
         <v>60</v>
       </c>
       <c r="C18" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="23">
@@ -1961,10 +1957,10 @@
         <v>47</v>
       </c>
       <c r="M18" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="N18" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N18" s="25" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1975,17 +1971,17 @@
         <v>60</v>
       </c>
       <c r="C19" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H19" s="22"/>
       <c r="I19" s="23">
@@ -2000,10 +1996,10 @@
         <v>47</v>
       </c>
       <c r="M19" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="N19" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N19" s="25" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2014,17 +2010,17 @@
         <v>60</v>
       </c>
       <c r="C20" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="23">
@@ -2039,10 +2035,10 @@
         <v>47</v>
       </c>
       <c r="M20" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="N20" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N20" s="25" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2053,17 +2049,17 @@
         <v>60</v>
       </c>
       <c r="C21" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H21" s="22"/>
       <c r="I21" s="23">
@@ -2078,10 +2074,10 @@
         <v>47</v>
       </c>
       <c r="M21" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="N21" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N21" s="25" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2092,17 +2088,17 @@
         <v>60</v>
       </c>
       <c r="C22" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="23">
@@ -2117,10 +2113,10 @@
         <v>47</v>
       </c>
       <c r="M22" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="N22" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N22" s="25" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2131,17 +2127,17 @@
         <v>61</v>
       </c>
       <c r="C23" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="23">
@@ -2156,10 +2152,10 @@
         <v>47</v>
       </c>
       <c r="M23" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="N23" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N23" s="25" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2170,17 +2166,17 @@
         <v>61</v>
       </c>
       <c r="C24" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="23">
@@ -2195,10 +2191,10 @@
         <v>47</v>
       </c>
       <c r="M24" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="N24" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N24" s="25" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2209,17 +2205,17 @@
         <v>61</v>
       </c>
       <c r="C25" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="23">
@@ -2234,10 +2230,10 @@
         <v>47</v>
       </c>
       <c r="M25" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="N25" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N25" s="25" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2248,17 +2244,17 @@
         <v>61</v>
       </c>
       <c r="C26" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="23">
@@ -2273,10 +2269,10 @@
         <v>47</v>
       </c>
       <c r="M26" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="N26" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N26" s="25" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2287,17 +2283,17 @@
         <v>61</v>
       </c>
       <c r="C27" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="23">
@@ -2312,10 +2308,10 @@
         <v>47</v>
       </c>
       <c r="M27" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="N27" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N27" s="25" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2326,17 +2322,17 @@
         <v>61</v>
       </c>
       <c r="C28" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="23">
@@ -2351,10 +2347,10 @@
         <v>47</v>
       </c>
       <c r="M28" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="N28" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N28" s="25" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2365,17 +2361,17 @@
         <v>61</v>
       </c>
       <c r="C29" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="23">
@@ -2390,10 +2386,10 @@
         <v>47</v>
       </c>
       <c r="M29" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="N29" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N29" s="25" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2404,17 +2400,17 @@
         <v>61</v>
       </c>
       <c r="C30" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="23">
@@ -2429,10 +2425,10 @@
         <v>47</v>
       </c>
       <c r="M30" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="N30" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N30" s="25" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2443,17 +2439,17 @@
         <v>61</v>
       </c>
       <c r="C31" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="23">
@@ -2468,10 +2464,10 @@
         <v>47</v>
       </c>
       <c r="M31" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="N31" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N31" s="25" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2482,17 +2478,17 @@
         <v>61</v>
       </c>
       <c r="C32" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H32" s="22"/>
       <c r="I32" s="23">
@@ -2507,10 +2503,10 @@
         <v>47</v>
       </c>
       <c r="M32" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="N32" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N32" s="25" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2521,17 +2517,17 @@
         <v>61</v>
       </c>
       <c r="C33" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H33" s="22"/>
       <c r="I33" s="23">
@@ -2546,10 +2542,10 @@
         <v>47</v>
       </c>
       <c r="M33" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="N33" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N33" s="25" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2560,17 +2556,17 @@
         <v>61</v>
       </c>
       <c r="C34" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H34" s="22"/>
       <c r="I34" s="23">
@@ -2585,10 +2581,10 @@
         <v>47</v>
       </c>
       <c r="M34" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="N34" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N34" s="25" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2599,17 +2595,17 @@
         <v>61</v>
       </c>
       <c r="C35" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H35" s="22"/>
       <c r="I35" s="23">
@@ -2624,10 +2620,10 @@
         <v>47</v>
       </c>
       <c r="M35" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="N35" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="N35" s="25" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2638,14 +2634,14 @@
         <v>62</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H36" s="22"/>
       <c r="I36" s="23">
@@ -2660,10 +2656,10 @@
         <v>47</v>
       </c>
       <c r="M36" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="N36" s="26" t="s">
         <v>124</v>
-      </c>
-      <c r="N36" s="26" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2674,14 +2670,14 @@
         <v>63</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H37" s="22"/>
       <c r="I37" s="23">
@@ -2696,10 +2692,10 @@
         <v>47</v>
       </c>
       <c r="M37" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="N37" s="26" t="s">
         <v>124</v>
-      </c>
-      <c r="N37" s="26" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2710,14 +2706,14 @@
         <v>64</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H38" s="22"/>
       <c r="I38" s="23">
@@ -2731,10 +2727,10 @@
         <v>47</v>
       </c>
       <c r="M38" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="N38" s="26" t="s">
         <v>124</v>
-      </c>
-      <c r="N38" s="26" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2745,14 +2741,14 @@
         <v>65</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H39" s="22"/>
       <c r="I39" s="23">
@@ -2766,10 +2762,10 @@
         <v>47</v>
       </c>
       <c r="M39" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="N39" s="26" t="s">
         <v>124</v>
-      </c>
-      <c r="N39" s="26" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2780,14 +2776,14 @@
         <v>66</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H40" s="22"/>
       <c r="I40" s="23">
@@ -2801,10 +2797,10 @@
         <v>47</v>
       </c>
       <c r="M40" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="N40" s="26" t="s">
         <v>124</v>
-      </c>
-      <c r="N40" s="26" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2815,14 +2811,14 @@
         <v>67</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H41" s="22"/>
       <c r="I41" s="23">
@@ -2837,7 +2833,7 @@
       </c>
       <c r="M41" s="20"/>
       <c r="N41" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2845,18 +2841,18 @@
         <v>33</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H42" s="22"/>
       <c r="I42" s="23">
@@ -2870,10 +2866,10 @@
         <v>47</v>
       </c>
       <c r="M42" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="N42" s="26" t="s">
         <v>127</v>
-      </c>
-      <c r="N42" s="26" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2885,14 +2881,14 @@
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H43" s="22"/>
       <c r="I43" s="23">
@@ -2906,10 +2902,10 @@
         <v>47</v>
       </c>
       <c r="M43" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="N43" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2921,14 +2917,14 @@
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H44" s="22"/>
       <c r="I44" s="23">
@@ -2942,10 +2938,10 @@
         <v>47</v>
       </c>
       <c r="M44" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="N44" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2957,14 +2953,14 @@
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H45" s="22"/>
       <c r="I45" s="23">
@@ -2978,10 +2974,10 @@
         <v>47</v>
       </c>
       <c r="M45" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="N45" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2989,18 +2985,18 @@
         <v>37</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H46" s="22"/>
       <c r="I46" s="23">
@@ -3014,10 +3010,10 @@
         <v>47</v>
       </c>
       <c r="M46" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N46" s="35" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3029,14 +3025,14 @@
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H47" s="22"/>
       <c r="I47" s="23">
@@ -3050,10 +3046,10 @@
         <v>47</v>
       </c>
       <c r="M47" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N47" s="35" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3061,18 +3057,18 @@
         <v>39</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H48" s="22"/>
       <c r="I48" s="23">
@@ -3086,10 +3082,10 @@
         <v>47</v>
       </c>
       <c r="M48" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N48" s="35" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3097,18 +3093,18 @@
         <v>40</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H49" s="22"/>
       <c r="I49" s="23">
@@ -3122,10 +3118,10 @@
         <v>47</v>
       </c>
       <c r="M49" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N49" s="35" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3137,14 +3133,14 @@
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H50" s="22"/>
       <c r="I50" s="23">
@@ -3158,10 +3154,10 @@
         <v>47</v>
       </c>
       <c r="M50" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N50" s="35" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3173,14 +3169,14 @@
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H51" s="22"/>
       <c r="I51" s="23">
@@ -3194,10 +3190,10 @@
         <v>47</v>
       </c>
       <c r="M51" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N51" s="35" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3210,10 +3206,10 @@
       <c r="C52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H52" s="22"/>
       <c r="I52" s="23">
@@ -3227,10 +3223,10 @@
         <v>47</v>
       </c>
       <c r="M52" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N52" s="27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3238,15 +3234,15 @@
         <v>44</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C53" s="20"/>
       <c r="E53" s="20"/>
       <c r="F53" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H53" s="22"/>
       <c r="I53" s="23">
@@ -3260,10 +3256,10 @@
         <v>47</v>
       </c>
       <c r="M53" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N53" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3271,15 +3267,15 @@
         <v>45</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C54" s="20"/>
       <c r="E54" s="20"/>
       <c r="F54" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H54" s="22"/>
       <c r="I54" s="23">
@@ -3293,10 +3289,10 @@
         <v>47</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3304,15 +3300,15 @@
         <v>46</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C55" s="20"/>
       <c r="E55" s="20"/>
       <c r="F55" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H55" s="22"/>
       <c r="I55" s="23">
@@ -3326,10 +3322,10 @@
         <v>47</v>
       </c>
       <c r="M55" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3337,15 +3333,15 @@
         <v>47</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H56" s="22"/>
       <c r="I56" s="23">
@@ -3359,10 +3355,10 @@
         <v>47</v>
       </c>
       <c r="M56" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3370,15 +3366,15 @@
         <v>48</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C57" s="20"/>
       <c r="E57" s="20"/>
       <c r="F57" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="23">
@@ -3392,10 +3388,10 @@
         <v>47</v>
       </c>
       <c r="M57" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3407,14 +3403,14 @@
       </c>
       <c r="C58" s="20"/>
       <c r="D58" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H58" s="22"/>
       <c r="I58" s="23"/>
@@ -3427,10 +3423,10 @@
         <v>47</v>
       </c>
       <c r="M58" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N58" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3442,14 +3438,14 @@
       </c>
       <c r="C59" s="20"/>
       <c r="D59" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H59" s="22"/>
       <c r="I59" s="23"/>
@@ -3462,10 +3458,10 @@
         <v>47</v>
       </c>
       <c r="M59" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3477,14 +3473,14 @@
       </c>
       <c r="C60" s="20"/>
       <c r="D60" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H60" s="22"/>
       <c r="I60" s="23"/>
@@ -3497,10 +3493,10 @@
         <v>47</v>
       </c>
       <c r="M60" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3512,14 +3508,14 @@
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H61" s="22"/>
       <c r="I61" s="23"/>
@@ -3532,10 +3528,10 @@
         <v>47</v>
       </c>
       <c r="M61" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3546,17 +3542,17 @@
         <v>72</v>
       </c>
       <c r="C62" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H62" s="22"/>
       <c r="I62" s="23">
@@ -3571,10 +3567,10 @@
         <v>47</v>
       </c>
       <c r="M62" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3585,17 +3581,17 @@
         <v>73</v>
       </c>
       <c r="C63" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E63" s="20"/>
       <c r="F63" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H63" s="22"/>
       <c r="I63" s="23">
@@ -3610,10 +3606,10 @@
         <v>47</v>
       </c>
       <c r="M63" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3624,17 +3620,17 @@
         <v>74</v>
       </c>
       <c r="C64" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H64" s="22"/>
       <c r="I64" s="23">
@@ -3649,10 +3645,10 @@
         <v>47</v>
       </c>
       <c r="M64" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3663,17 +3659,17 @@
         <v>75</v>
       </c>
       <c r="C65" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H65" s="22"/>
       <c r="I65" s="23">
@@ -3688,10 +3684,10 @@
         <v>47</v>
       </c>
       <c r="M65" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3702,17 +3698,17 @@
         <v>76</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E66" s="20"/>
       <c r="F66" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H66" s="22"/>
       <c r="I66" s="23"/>
@@ -3725,10 +3721,10 @@
         <v>47</v>
       </c>
       <c r="M66" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N66" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3739,17 +3735,17 @@
         <v>77</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H67" s="22"/>
       <c r="I67" s="23"/>
@@ -3762,10 +3758,10 @@
         <v>47</v>
       </c>
       <c r="M67" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3776,17 +3772,17 @@
         <v>78</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E68" s="20"/>
       <c r="F68" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H68" s="22"/>
       <c r="I68" s="23"/>
@@ -3799,10 +3795,10 @@
         <v>47</v>
       </c>
       <c r="M68" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3813,17 +3809,17 @@
         <v>79</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H69" s="22"/>
       <c r="I69" s="23"/>
@@ -3836,10 +3832,10 @@
         <v>47</v>
       </c>
       <c r="M69" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3850,17 +3846,17 @@
         <v>80</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E70" s="20"/>
       <c r="F70" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H70" s="22"/>
       <c r="I70" s="23"/>
@@ -3873,10 +3869,10 @@
         <v>47</v>
       </c>
       <c r="M70" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3887,17 +3883,17 @@
         <v>81</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E71" s="20"/>
       <c r="F71" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H71" s="22"/>
       <c r="I71" s="23"/>
@@ -3910,10 +3906,10 @@
         <v>47</v>
       </c>
       <c r="M71" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3924,17 +3920,17 @@
         <v>82</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H72" s="22"/>
       <c r="I72" s="23"/>
@@ -3947,10 +3943,10 @@
         <v>47</v>
       </c>
       <c r="M72" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3961,17 +3957,17 @@
         <v>83</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E73" s="20"/>
       <c r="F73" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H73" s="22"/>
       <c r="I73" s="23"/>
@@ -3984,10 +3980,10 @@
         <v>47</v>
       </c>
       <c r="M73" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3995,15 +3991,15 @@
         <v>65</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H74" s="22"/>
       <c r="I74" s="23">
@@ -4018,7 +4014,7 @@
       </c>
       <c r="M74" s="20"/>
       <c r="N74" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4026,15 +4022,15 @@
         <v>66</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G75" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H75" s="22"/>
       <c r="I75" s="23">
@@ -4049,7 +4045,7 @@
       </c>
       <c r="M75" s="20"/>
       <c r="N75" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -4057,15 +4053,15 @@
         <v>67</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C76" s="20"/>
       <c r="E76" s="20"/>
       <c r="F76" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G76" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H76" s="22"/>
       <c r="I76" s="23">
@@ -4080,7 +4076,7 @@
       </c>
       <c r="M76" s="20"/>
       <c r="N76" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4088,17 +4084,17 @@
         <v>68</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E77" s="20"/>
       <c r="F77" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H77" s="22"/>
       <c r="I77" s="23">
@@ -4112,10 +4108,10 @@
         <v>47</v>
       </c>
       <c r="M77" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N77" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -4123,17 +4119,17 @@
         <v>69</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E78" s="20"/>
       <c r="F78" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H78" s="22"/>
       <c r="I78" s="23">
@@ -4147,10 +4143,10 @@
         <v>47</v>
       </c>
       <c r="M78" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N78" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4158,17 +4154,17 @@
         <v>70</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E79" s="20"/>
       <c r="F79" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H79" s="22"/>
       <c r="I79" s="23">
@@ -4182,13 +4178,13 @@
         <v>47</v>
       </c>
       <c r="M79" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N79" s="26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" ht="21">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" s="3">
         <v>71</v>
       </c>
@@ -4196,18 +4192,20 @@
         <v>84</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E80" s="52"/>
+        <v>114</v>
+      </c>
+      <c r="E80" s="49" t="s">
+        <v>221</v>
+      </c>
       <c r="F80" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G80" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H80" s="22"/>
       <c r="I80" s="23">
-        <v>2373</v>
+        <v>298</v>
       </c>
       <c r="J80" s="19">
         <f>410*9807000</f>
@@ -4218,32 +4216,34 @@
         <v>47</v>
       </c>
       <c r="M80" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="N80" s="26" t="s">
         <v>135</v>
-      </c>
-      <c r="N80" s="26" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="3">
         <v>72</v>
       </c>
-      <c r="B81" s="20" t="s">
-        <v>85</v>
+      <c r="B81" s="49" t="s">
+        <v>218</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E81" s="20"/>
+        <v>114</v>
+      </c>
+      <c r="E81" s="49" t="s">
+        <v>221</v>
+      </c>
       <c r="F81" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G81" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H81" s="22"/>
       <c r="I81" s="23">
-        <v>2373</v>
+        <v>298</v>
       </c>
       <c r="J81" s="19">
         <f>383*9807000</f>
@@ -4254,32 +4254,34 @@
         <v>47</v>
       </c>
       <c r="M81" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="N81" s="26" t="s">
         <v>135</v>
-      </c>
-      <c r="N81" s="26" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="3">
         <v>73</v>
       </c>
-      <c r="B82" s="31" t="s">
-        <v>156</v>
+      <c r="B82" s="49" t="s">
+        <v>219</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E82" s="20"/>
+        <v>114</v>
+      </c>
+      <c r="E82" s="49" t="s">
+        <v>221</v>
+      </c>
       <c r="F82" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G82" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H82" s="22"/>
       <c r="I82" s="23">
-        <v>2373</v>
+        <v>298</v>
       </c>
       <c r="J82" s="19">
         <f>530*9807000</f>
@@ -4290,32 +4292,34 @@
         <v>47</v>
       </c>
       <c r="M82" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="N82" s="26" t="s">
         <v>135</v>
-      </c>
-      <c r="N82" s="26" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="3">
         <v>74</v>
       </c>
-      <c r="B83" s="31" t="s">
-        <v>157</v>
+      <c r="B83" s="49" t="s">
+        <v>220</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E83" s="20"/>
+        <v>114</v>
+      </c>
+      <c r="E83" s="49" t="s">
+        <v>221</v>
+      </c>
       <c r="F83" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G83" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H83" s="22"/>
       <c r="I83" s="23">
-        <v>2373</v>
+        <v>298</v>
       </c>
       <c r="J83" s="19">
         <v>609</v>
@@ -4325,10 +4329,10 @@
         <v>47</v>
       </c>
       <c r="M83" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="N83" s="26" t="s">
         <v>135</v>
-      </c>
-      <c r="N83" s="26" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4336,17 +4340,17 @@
         <v>75</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E84" s="20"/>
       <c r="F84" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G84" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H84" s="22"/>
       <c r="I84" s="23">
@@ -4360,10 +4364,10 @@
         <v>47</v>
       </c>
       <c r="M84" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="N84" s="26" t="s">
         <v>137</v>
-      </c>
-      <c r="N84" s="26" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4371,17 +4375,17 @@
         <v>76</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E85" s="20"/>
       <c r="F85" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H85" s="22"/>
       <c r="I85" s="23">
@@ -4395,10 +4399,10 @@
         <v>47</v>
       </c>
       <c r="M85" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="N85" s="26" t="s">
         <v>137</v>
-      </c>
-      <c r="N85" s="26" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4406,17 +4410,17 @@
         <v>77</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G86" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H86" s="22"/>
       <c r="I86" s="23">
@@ -4430,10 +4434,10 @@
         <v>47</v>
       </c>
       <c r="M86" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="N86" s="26" t="s">
         <v>137</v>
-      </c>
-      <c r="N86" s="26" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4441,17 +4445,17 @@
         <v>78</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E87" s="20"/>
       <c r="F87" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G87" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H87" s="22"/>
       <c r="I87" s="23">
@@ -4465,10 +4469,10 @@
         <v>47</v>
       </c>
       <c r="M87" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="N87" s="26" t="s">
         <v>137</v>
-      </c>
-      <c r="N87" s="26" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4479,14 +4483,14 @@
         <v>84</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G88" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H88" s="22"/>
       <c r="I88" s="23">
@@ -4500,10 +4504,10 @@
         <v>47</v>
       </c>
       <c r="M88" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="N88" s="26" t="s">
         <v>137</v>
-      </c>
-      <c r="N88" s="26" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4511,17 +4515,17 @@
         <v>80</v>
       </c>
       <c r="B89" s="49" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E89" s="20"/>
       <c r="F89" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H89" s="22"/>
       <c r="I89" s="23">
@@ -4535,10 +4539,10 @@
         <v>47</v>
       </c>
       <c r="M89" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="N89" s="26" t="s">
         <v>137</v>
-      </c>
-      <c r="N89" s="26" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4546,17 +4550,17 @@
         <v>81</v>
       </c>
       <c r="B90" s="49" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E90" s="20"/>
       <c r="F90" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G90" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H90" s="22"/>
       <c r="I90" s="23">
@@ -4570,10 +4574,10 @@
         <v>47</v>
       </c>
       <c r="M90" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="N90" s="26" t="s">
         <v>137</v>
-      </c>
-      <c r="N90" s="26" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4581,17 +4585,17 @@
         <v>82</v>
       </c>
       <c r="B91" s="49" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E91" s="20"/>
       <c r="F91" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G91" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H91" s="22"/>
       <c r="I91" s="23">
@@ -4605,10 +4609,10 @@
         <v>47</v>
       </c>
       <c r="M91" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="N91" s="26" t="s">
         <v>137</v>
-      </c>
-      <c r="N91" s="26" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4616,22 +4620,22 @@
         <v>83</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D92" s="50" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E92" s="49" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F92" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G92" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H92" s="22"/>
       <c r="I92" s="23">
@@ -4646,10 +4650,10 @@
         <v>47</v>
       </c>
       <c r="M92" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="N92" s="26" t="s">
         <v>139</v>
-      </c>
-      <c r="N92" s="26" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4657,19 +4661,19 @@
         <v>84</v>
       </c>
       <c r="B93" s="49" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D93" s="50" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E93" s="49" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F93" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G93" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H93" s="22"/>
       <c r="I93" s="23">
@@ -4684,10 +4688,10 @@
         <v>47</v>
       </c>
       <c r="M93" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="N93" s="26" t="s">
         <v>139</v>
-      </c>
-      <c r="N93" s="26" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4695,19 +4699,19 @@
         <v>85</v>
       </c>
       <c r="B94" s="49" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D94" s="50" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E94" s="49" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F94" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H94" s="22"/>
       <c r="I94" s="23">
@@ -4722,10 +4726,10 @@
         <v>47</v>
       </c>
       <c r="M94" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="N94" s="26" t="s">
         <v>139</v>
-      </c>
-      <c r="N94" s="26" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4733,22 +4737,22 @@
         <v>86</v>
       </c>
       <c r="B95" s="49" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C95" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D95" s="50" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E95" s="51" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F95" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H95" s="22"/>
       <c r="I95" s="3">
@@ -4762,10 +4766,10 @@
         <v>47</v>
       </c>
       <c r="M95" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N95" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4773,22 +4777,22 @@
         <v>87</v>
       </c>
       <c r="B96" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="C96" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D96" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="E96" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="C96" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="D96" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="E96" s="51" t="s">
-        <v>206</v>
-      </c>
       <c r="F96" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G96" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H96" s="22"/>
       <c r="I96" s="3">
@@ -4802,10 +4806,10 @@
         <v>47</v>
       </c>
       <c r="M96" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N96" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4813,22 +4817,22 @@
         <v>88</v>
       </c>
       <c r="B97" s="49" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C97" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D97" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="E97" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="E97" s="51" t="s">
-        <v>207</v>
-      </c>
       <c r="F97" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G97" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H97" s="22"/>
       <c r="I97" s="3">
@@ -4842,10 +4846,10 @@
         <v>47</v>
       </c>
       <c r="M97" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N97" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -4853,22 +4857,22 @@
         <v>89</v>
       </c>
       <c r="B98" s="49" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C98" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D98" s="50" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E98" s="51" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F98" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G98" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H98" s="22"/>
       <c r="I98" s="3">
@@ -4882,10 +4886,10 @@
         <v>47</v>
       </c>
       <c r="M98" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N98" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -4893,22 +4897,22 @@
         <v>90</v>
       </c>
       <c r="B99" s="49" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C99" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D99" s="50" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E99" s="51" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F99" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G99" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H99" s="22"/>
       <c r="I99" s="3">
@@ -4922,10 +4926,10 @@
         <v>47</v>
       </c>
       <c r="M99" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N99" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -4933,22 +4937,22 @@
         <v>91</v>
       </c>
       <c r="B100" s="49" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C100" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D100" s="50" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E100" s="51" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F100" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G100" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H100" s="22"/>
       <c r="I100" s="3">
@@ -4962,10 +4966,10 @@
         <v>47</v>
       </c>
       <c r="M100" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N100" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -4973,22 +4977,22 @@
         <v>92</v>
       </c>
       <c r="B101" s="49" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C101" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D101" s="50" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E101" s="51" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F101" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G101" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H101" s="22"/>
       <c r="I101" s="3">
@@ -5002,10 +5006,10 @@
         <v>47</v>
       </c>
       <c r="M101" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N101" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -5013,22 +5017,22 @@
         <v>93</v>
       </c>
       <c r="B102" s="49" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C102" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D102" s="50" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E102" s="51" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F102" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G102" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H102" s="22"/>
       <c r="I102" s="3">
@@ -5042,10 +5046,10 @@
         <v>47</v>
       </c>
       <c r="M102" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N102" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -5053,22 +5057,22 @@
         <v>94</v>
       </c>
       <c r="B103" s="49" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C103" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D103" s="50" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E103" s="51" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F103" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G103" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H103" s="22"/>
       <c r="I103" s="3">
@@ -5082,10 +5086,10 @@
         <v>47</v>
       </c>
       <c r="M103" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N103" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5093,22 +5097,22 @@
         <v>95</v>
       </c>
       <c r="B104" s="49" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C104" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D104" s="50" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E104" s="51" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F104" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G104" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H104" s="22"/>
       <c r="I104" s="3">
@@ -5122,10 +5126,10 @@
         <v>47</v>
       </c>
       <c r="M104" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N104" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5133,22 +5137,22 @@
         <v>96</v>
       </c>
       <c r="B105" s="49" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C105" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D105" s="50" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E105" s="51" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F105" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G105" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H105" s="22"/>
       <c r="I105" s="3">
@@ -5162,10 +5166,10 @@
         <v>47</v>
       </c>
       <c r="M105" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N105" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5173,17 +5177,17 @@
         <v>97</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G106" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H106" s="22"/>
       <c r="I106" s="23"/>
@@ -5196,10 +5200,10 @@
         <v>47</v>
       </c>
       <c r="M106" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="N106" s="26" t="s">
         <v>142</v>
-      </c>
-      <c r="N106" s="26" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5207,17 +5211,17 @@
         <v>98</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G107" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H107" s="22"/>
       <c r="I107" s="23"/>
@@ -5230,10 +5234,10 @@
         <v>47</v>
       </c>
       <c r="M107" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="N107" s="26" t="s">
         <v>142</v>
-      </c>
-      <c r="N107" s="26" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5241,17 +5245,17 @@
         <v>99</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E108" s="20"/>
       <c r="F108" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G108" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H108" s="22"/>
       <c r="I108" s="23"/>
@@ -5264,10 +5268,10 @@
         <v>47</v>
       </c>
       <c r="M108" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="N108" s="26" t="s">
         <v>142</v>
-      </c>
-      <c r="N108" s="26" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5275,17 +5279,17 @@
         <v>100</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E109" s="20"/>
       <c r="F109" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G109" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H109" s="22"/>
       <c r="I109" s="23"/>
@@ -5298,10 +5302,10 @@
         <v>47</v>
       </c>
       <c r="M109" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="N109" s="26" t="s">
         <v>142</v>
-      </c>
-      <c r="N109" s="26" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5309,20 +5313,20 @@
         <v>101</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G110" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H110" s="22"/>
       <c r="I110" s="23"/>
@@ -5335,10 +5339,10 @@
         <v>47</v>
       </c>
       <c r="M110" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N110" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5346,20 +5350,20 @@
         <v>102</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G111" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H111" s="22"/>
       <c r="I111" s="23"/>
@@ -5372,10 +5376,10 @@
         <v>47</v>
       </c>
       <c r="M111" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N111" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5383,20 +5387,20 @@
         <v>103</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G112" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H112" s="22"/>
       <c r="I112" s="23"/>
@@ -5409,10 +5413,10 @@
         <v>47</v>
       </c>
       <c r="M112" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N112" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5420,20 +5424,20 @@
         <v>104</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G113" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H113" s="22"/>
       <c r="I113" s="23"/>
@@ -5446,10 +5450,10 @@
         <v>47</v>
       </c>
       <c r="M113" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N113" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5457,20 +5461,20 @@
         <v>105</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G114" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H114" s="22"/>
       <c r="I114" s="23"/>
@@ -5483,10 +5487,10 @@
         <v>47</v>
       </c>
       <c r="M114" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N114" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5494,20 +5498,20 @@
         <v>106</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G115" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H115" s="22"/>
       <c r="I115" s="23"/>
@@ -5520,10 +5524,10 @@
         <v>47</v>
       </c>
       <c r="M115" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N115" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5531,20 +5535,20 @@
         <v>107</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G116" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H116" s="22"/>
       <c r="I116" s="23"/>
@@ -5557,10 +5561,10 @@
         <v>47</v>
       </c>
       <c r="M116" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N116" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -5568,20 +5572,20 @@
         <v>108</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G117" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H117" s="22"/>
       <c r="I117" s="23"/>
@@ -5594,10 +5598,10 @@
         <v>47</v>
       </c>
       <c r="M117" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N117" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -5605,20 +5609,20 @@
         <v>109</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G118" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H118" s="22"/>
       <c r="I118" s="23"/>
@@ -5631,10 +5635,10 @@
         <v>47</v>
       </c>
       <c r="M118" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N118" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -5642,20 +5646,20 @@
         <v>110</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G119" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H119" s="22"/>
       <c r="I119" s="23"/>
@@ -5668,10 +5672,10 @@
         <v>47</v>
       </c>
       <c r="M119" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N119" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -5679,20 +5683,20 @@
         <v>111</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E120" s="20"/>
       <c r="F120" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G120" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H120" s="22"/>
       <c r="I120" s="23"/>
@@ -5705,10 +5709,10 @@
         <v>47</v>
       </c>
       <c r="M120" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N120" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -5716,20 +5720,20 @@
         <v>112</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E121" s="20"/>
       <c r="F121" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G121" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H121" s="22"/>
       <c r="I121" s="23"/>
@@ -5742,10 +5746,10 @@
         <v>47</v>
       </c>
       <c r="M121" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N121" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -5753,20 +5757,20 @@
         <v>113</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D122" s="36" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E122" s="20"/>
       <c r="F122" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G122" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H122" s="22"/>
       <c r="I122" s="23">
@@ -5780,10 +5784,10 @@
         <v>47</v>
       </c>
       <c r="M122" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N122" s="29" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -5791,20 +5795,20 @@
         <v>114</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D123" s="36" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E123" s="20"/>
       <c r="F123" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G123" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H123" s="22"/>
       <c r="I123" s="23">
@@ -5818,10 +5822,10 @@
         <v>47</v>
       </c>
       <c r="M123" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N123" s="29" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -5829,20 +5833,20 @@
         <v>115</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D124" s="36" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E124" s="20"/>
       <c r="F124" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G124" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H124" s="22"/>
       <c r="I124" s="23">
@@ -5856,10 +5860,10 @@
         <v>47</v>
       </c>
       <c r="M124" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N124" s="29" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -5867,20 +5871,20 @@
         <v>116</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D125" s="36" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E125" s="20"/>
       <c r="F125" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G125" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H125" s="22"/>
       <c r="I125" s="23">
@@ -5894,10 +5898,10 @@
         <v>47</v>
       </c>
       <c r="M125" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N125" s="29" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -5905,20 +5909,20 @@
         <v>117</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G126" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H126" s="22"/>
       <c r="I126" s="23"/>
@@ -5931,10 +5935,10 @@
         <v>47</v>
       </c>
       <c r="M126" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N126" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -5942,20 +5946,20 @@
         <v>118</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D127" s="36" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G127" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H127" s="22"/>
       <c r="I127" s="23">
@@ -5970,10 +5974,10 @@
         <v>47</v>
       </c>
       <c r="M127" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N127" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -5981,20 +5985,20 @@
         <v>119</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D128" s="36" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E128" s="20"/>
       <c r="F128" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G128" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H128" s="22"/>
       <c r="I128" s="23">
@@ -6009,10 +6013,10 @@
         <v>47</v>
       </c>
       <c r="M128" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N128" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -6020,20 +6024,20 @@
         <v>120</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D129" s="36" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E129" s="20"/>
       <c r="F129" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G129" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H129" s="22"/>
       <c r="I129" s="23">
@@ -6048,10 +6052,10 @@
         <v>47</v>
       </c>
       <c r="M129" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N129" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -6059,20 +6063,20 @@
         <v>121</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E130" s="20"/>
       <c r="F130" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G130" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H130" s="22"/>
       <c r="I130" s="23">
@@ -6087,10 +6091,10 @@
         <v>47</v>
       </c>
       <c r="M130" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="N130" s="26" t="s">
         <v>146</v>
-      </c>
-      <c r="N130" s="26" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -6098,17 +6102,17 @@
         <v>122</v>
       </c>
       <c r="B131" s="31" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E131" s="20"/>
       <c r="F131" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G131" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H131" s="22"/>
       <c r="I131" s="23">
@@ -6123,10 +6127,10 @@
         <v>47</v>
       </c>
       <c r="M131" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="N131" s="26" t="s">
         <v>146</v>
-      </c>
-      <c r="N131" s="26" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -6134,17 +6138,17 @@
         <v>123</v>
       </c>
       <c r="B132" s="31" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E132" s="20"/>
       <c r="F132" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G132" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H132" s="22"/>
       <c r="I132" s="23">
@@ -6159,10 +6163,10 @@
         <v>47</v>
       </c>
       <c r="M132" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="N132" s="26" t="s">
         <v>146</v>
-      </c>
-      <c r="N132" s="26" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -6170,17 +6174,17 @@
         <v>124</v>
       </c>
       <c r="B133" s="31" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E133" s="20"/>
       <c r="F133" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G133" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H133" s="22"/>
       <c r="I133" s="23">
@@ -6195,10 +6199,10 @@
         <v>47</v>
       </c>
       <c r="M133" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="N133" s="26" t="s">
         <v>146</v>
-      </c>
-      <c r="N133" s="26" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -6206,17 +6210,17 @@
         <v>125</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D134" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E134" s="20"/>
       <c r="F134" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G134" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H134" s="22"/>
       <c r="I134" s="23">
@@ -6230,10 +6234,10 @@
         <v>47</v>
       </c>
       <c r="M134" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N134" s="35" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -6241,17 +6245,17 @@
         <v>126</v>
       </c>
       <c r="B135" s="38" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D135" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E135" s="20"/>
       <c r="F135" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G135" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H135" s="22"/>
       <c r="I135" s="23">
@@ -6265,10 +6269,10 @@
         <v>47</v>
       </c>
       <c r="M135" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N135" s="35" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -6276,17 +6280,17 @@
         <v>127</v>
       </c>
       <c r="B136" s="38" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D136" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E136" s="20"/>
       <c r="F136" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G136" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H136" s="22"/>
       <c r="I136" s="23">
@@ -6300,10 +6304,10 @@
         <v>47</v>
       </c>
       <c r="M136" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N136" s="35" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -6311,17 +6315,17 @@
         <v>128</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D137" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E137" s="20"/>
       <c r="F137" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G137" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H137" s="22"/>
       <c r="I137" s="23">
@@ -6335,10 +6339,10 @@
         <v>47</v>
       </c>
       <c r="M137" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N137" s="35" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -6346,17 +6350,17 @@
         <v>129</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D138" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E138" s="20"/>
       <c r="F138" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G138" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H138" s="22"/>
       <c r="I138" s="23">
@@ -6370,10 +6374,10 @@
         <v>47</v>
       </c>
       <c r="M138" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N138" s="35" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -6381,17 +6385,17 @@
         <v>130</v>
       </c>
       <c r="B139" s="38" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D139" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E139" s="20"/>
       <c r="F139" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G139" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H139" s="22"/>
       <c r="I139" s="23">
@@ -6405,10 +6409,10 @@
         <v>47</v>
       </c>
       <c r="M139" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N139" s="35" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -6416,17 +6420,17 @@
         <v>131</v>
       </c>
       <c r="B140" s="38" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D140" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E140" s="20"/>
       <c r="F140" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G140" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H140" s="22"/>
       <c r="I140" s="23">
@@ -6440,10 +6444,10 @@
         <v>47</v>
       </c>
       <c r="M140" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N140" s="35" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -6451,17 +6455,17 @@
         <v>132</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D141" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E141" s="20"/>
       <c r="F141" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G141" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H141" s="22"/>
       <c r="I141" s="23">
@@ -6475,10 +6479,10 @@
         <v>47</v>
       </c>
       <c r="M141" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N141" s="35" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -6486,14 +6490,14 @@
         <v>133</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E142" s="20"/>
       <c r="F142" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G142" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H142" s="22"/>
       <c r="I142" s="23"/>
@@ -6507,7 +6511,7 @@
       </c>
       <c r="M142" s="20"/>
       <c r="N142" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -6515,17 +6519,17 @@
         <v>134</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E143" s="20"/>
       <c r="F143" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G143" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H143" s="22"/>
       <c r="I143" s="23"/>
@@ -6537,10 +6541,10 @@
         <v>47</v>
       </c>
       <c r="M143" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="N143" s="30" t="s">
         <v>149</v>
-      </c>
-      <c r="N143" s="30" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -6548,22 +6552,22 @@
         <v>135</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C144" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D144" s="36" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E144" s="51" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F144" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G144" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H144" s="22"/>
       <c r="I144" s="3">
@@ -6578,10 +6582,10 @@
         <v>47</v>
       </c>
       <c r="M144" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N144" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -6589,22 +6593,22 @@
         <v>136</v>
       </c>
       <c r="B145" s="31" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C145" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D145" s="36" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E145" s="51" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F145" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G145" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H145" s="22"/>
       <c r="I145" s="3">
@@ -6619,10 +6623,10 @@
         <v>47</v>
       </c>
       <c r="M145" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N145" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -6630,22 +6634,22 @@
         <v>137</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C146" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D146" s="36" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E146" s="51" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F146" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G146" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H146" s="22"/>
       <c r="I146" s="3">
@@ -6660,10 +6664,10 @@
         <v>47</v>
       </c>
       <c r="M146" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N146" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -6671,22 +6675,22 @@
         <v>138</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C147" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D147" s="36" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E147" s="51" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F147" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G147" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H147" s="22"/>
       <c r="I147" s="3">
@@ -6701,10 +6705,10 @@
         <v>47</v>
       </c>
       <c r="M147" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N147" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -6712,22 +6716,22 @@
         <v>139</v>
       </c>
       <c r="B148" s="31" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C148" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D148" s="36" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E148" s="51" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F148" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G148" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H148" s="22"/>
       <c r="I148" s="3">
@@ -6742,10 +6746,10 @@
         <v>47</v>
       </c>
       <c r="M148" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N148" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -6753,22 +6757,22 @@
         <v>140</v>
       </c>
       <c r="B149" s="31" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C149" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D149" s="36" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E149" s="51" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F149" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G149" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H149" s="22"/>
       <c r="I149" s="3">
@@ -6783,10 +6787,10 @@
         <v>47</v>
       </c>
       <c r="M149" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N149" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -6794,22 +6798,22 @@
         <v>141</v>
       </c>
       <c r="B150" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C150" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D150" s="36" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E150" s="51" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F150" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G150" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H150" s="22"/>
       <c r="I150" s="3">
@@ -6824,10 +6828,10 @@
         <v>47</v>
       </c>
       <c r="M150" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N150" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -6835,22 +6839,22 @@
         <v>142</v>
       </c>
       <c r="B151" s="31" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C151" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D151" s="36" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E151" s="51" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F151" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G151" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H151" s="22"/>
       <c r="I151" s="3">
@@ -6865,10 +6869,10 @@
         <v>47</v>
       </c>
       <c r="M151" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N151" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -6876,17 +6880,17 @@
         <v>143</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E152" s="20"/>
       <c r="F152" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G152" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H152" s="22"/>
       <c r="I152" s="3">
@@ -6901,10 +6905,10 @@
         <v>47</v>
       </c>
       <c r="M152" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="N152" s="30" t="s">
         <v>152</v>
-      </c>
-      <c r="N152" s="30" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -6912,17 +6916,17 @@
         <v>144</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E153" s="20"/>
       <c r="F153" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G153" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H153" s="22"/>
       <c r="I153" s="23">
@@ -6937,10 +6941,10 @@
         <v>47</v>
       </c>
       <c r="M153" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="N153" s="30" t="s">
         <v>152</v>
-      </c>
-      <c r="N153" s="30" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -6948,17 +6952,17 @@
         <v>145</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D154" s="36" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E154" s="20"/>
       <c r="F154" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G154" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H154" s="22"/>
       <c r="I154" s="23">
@@ -6973,10 +6977,10 @@
         <v>47</v>
       </c>
       <c r="M154" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="N154" s="30" t="s">
         <v>152</v>
-      </c>
-      <c r="N154" s="30" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -6984,17 +6988,17 @@
         <v>146</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D155" s="36" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E155" s="20"/>
       <c r="F155" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G155" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H155" s="22"/>
       <c r="I155" s="23">
@@ -7009,10 +7013,10 @@
         <v>47</v>
       </c>
       <c r="M155" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="N155" s="30" t="s">
         <v>152</v>
-      </c>
-      <c r="N155" s="30" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -7020,17 +7024,17 @@
         <v>147</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E156" s="20"/>
       <c r="F156" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G156" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H156" s="22"/>
       <c r="I156" s="23"/>
@@ -7043,10 +7047,10 @@
         <v>47</v>
       </c>
       <c r="M156" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="N156" s="30" t="s">
         <v>152</v>
-      </c>
-      <c r="N156" s="30" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -7054,17 +7058,17 @@
         <v>148</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E157" s="20"/>
       <c r="F157" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G157" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H157" s="22"/>
       <c r="I157" s="23">
@@ -7079,10 +7083,10 @@
         <v>47</v>
       </c>
       <c r="M157" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="N157" s="30" t="s">
         <v>152</v>
-      </c>
-      <c r="N157" s="30" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -7090,17 +7094,17 @@
         <v>149</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D158" s="36" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E158" s="20"/>
       <c r="F158" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G158" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H158" s="22"/>
       <c r="I158" s="23">
@@ -7115,10 +7119,10 @@
         <v>47</v>
       </c>
       <c r="M158" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="N158" s="30" t="s">
         <v>152</v>
-      </c>
-      <c r="N158" s="30" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -7126,17 +7130,17 @@
         <v>150</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D159" s="36" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E159" s="20"/>
       <c r="F159" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G159" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H159" s="22"/>
       <c r="I159" s="23">
@@ -7151,10 +7155,10 @@
         <v>47</v>
       </c>
       <c r="M159" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="N159" s="30" t="s">
         <v>152</v>
-      </c>
-      <c r="N159" s="30" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -7162,17 +7166,17 @@
         <v>151</v>
       </c>
       <c r="B160" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E160" s="20"/>
       <c r="F160" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G160" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H160" s="22"/>
       <c r="I160" s="23"/>
@@ -7185,10 +7189,10 @@
         <v>47</v>
       </c>
       <c r="M160" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N160" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -7196,17 +7200,17 @@
         <v>152</v>
       </c>
       <c r="B161" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E161" s="20"/>
       <c r="F161" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G161" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H161" s="22"/>
       <c r="I161" s="23"/>
@@ -7219,10 +7223,10 @@
         <v>47</v>
       </c>
       <c r="M161" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N161" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -7230,17 +7234,17 @@
         <v>153</v>
       </c>
       <c r="B162" s="31" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E162" s="20"/>
       <c r="F162" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G162" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H162" s="22"/>
       <c r="I162" s="23"/>
@@ -7253,10 +7257,10 @@
         <v>47</v>
       </c>
       <c r="M162" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N162" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -7264,17 +7268,17 @@
         <v>154</v>
       </c>
       <c r="B163" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E163" s="20"/>
       <c r="F163" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G163" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H163" s="22"/>
       <c r="I163" s="23"/>
@@ -7287,10 +7291,10 @@
         <v>47</v>
       </c>
       <c r="M163" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N163" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -7298,17 +7302,17 @@
         <v>155</v>
       </c>
       <c r="B164" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E164" s="20"/>
       <c r="F164" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G164" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H164" s="22"/>
       <c r="I164" s="23"/>
@@ -7321,10 +7325,10 @@
         <v>47</v>
       </c>
       <c r="M164" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N164" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -7332,20 +7336,20 @@
         <v>156</v>
       </c>
       <c r="B165" s="31" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E165" s="20"/>
       <c r="F165" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G165" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H165" s="22"/>
       <c r="I165" s="23"/>
@@ -7358,10 +7362,10 @@
         <v>47</v>
       </c>
       <c r="M165" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N165" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -7369,20 +7373,20 @@
         <v>157</v>
       </c>
       <c r="B166" s="31" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C166" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="D166" s="36" t="s">
         <v>191</v>
-      </c>
-      <c r="D166" s="36" t="s">
-        <v>194</v>
       </c>
       <c r="E166" s="20"/>
       <c r="F166" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G166" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H166" s="22"/>
       <c r="I166" s="23">
@@ -7397,10 +7401,10 @@
         <v>47</v>
       </c>
       <c r="M166" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N166" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="167" spans="1:14">
@@ -7408,22 +7412,22 @@
         <v>158</v>
       </c>
       <c r="B167" s="31" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C167" s="36" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D167" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="E167" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="E167" s="31" t="s">
-        <v>197</v>
-      </c>
       <c r="F167" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G167" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H167" s="22"/>
       <c r="I167" s="23">
@@ -7438,10 +7442,10 @@
         <v>47</v>
       </c>
       <c r="M167" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N167" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="168" spans="1:14">
@@ -7449,22 +7453,22 @@
         <v>159</v>
       </c>
       <c r="B168" s="31" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C168" s="36" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D168" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="E168" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="E168" s="31" t="s">
-        <v>197</v>
-      </c>
       <c r="F168" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G168" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H168" s="22"/>
       <c r="I168" s="23">
@@ -7479,10 +7483,10 @@
         <v>47</v>
       </c>
       <c r="M168" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N168" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="169" spans="1:14">

--- a/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
+++ b/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-guest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7886D0B1-DDBF-BB4F-8607-0BB03DA17C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBA0CB3-16A8-F349-915E-478C44BD0A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="218">
   <si>
     <t>Name:</t>
   </si>
@@ -433,9 +433,6 @@
   </si>
   <si>
     <t xml:space="preserve">10.1016/j.ceramint.2018.07.141 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.calphad.2015.09.007 </t>
   </si>
   <si>
     <t>F7</t>
@@ -587,15 +584,6 @@
   </si>
   <si>
     <t>Mo67.86 Ti0.72 Zr0.06 C5.83 B25.52</t>
-  </si>
-  <si>
-    <t>Cr6.1 Mo19.2 Nb19.2 Ta19.3 V17.0 W19.2</t>
-  </si>
-  <si>
-    <t>Cr5.7 Mo20.2 Nb20.4 Ta20.6 V13.0 W20.1</t>
-  </si>
-  <si>
-    <t>Cr16.8 Mo17.6 Nb17.9 Ta18.5 V11.4 W17.8</t>
   </si>
   <si>
     <t>Mo25 Nb25 Ta25 V25</t>
@@ -1307,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T447"/>
+  <dimension ref="A1:T444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O84" sqref="O84"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1344,14 +1332,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D2" s="45" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="45"/>
       <c r="F2" s="43" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
@@ -1368,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D3" s="45"/>
       <c r="E3" s="45"/>
@@ -1429,7 +1417,7 @@
         <v>30</v>
       </c>
       <c r="M5" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N5" s="42" t="s">
         <v>46</v>
@@ -1620,7 +1608,7 @@
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G10" s="20" t="s">
         <v>120</v>
@@ -1660,7 +1648,7 @@
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G11" s="20" t="s">
         <v>120</v>
@@ -1700,7 +1688,7 @@
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>120</v>
@@ -1740,7 +1728,7 @@
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>120</v>
@@ -1780,7 +1768,7 @@
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>120</v>
@@ -1820,7 +1808,7 @@
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>120</v>
@@ -1860,7 +1848,7 @@
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>120</v>
@@ -1900,7 +1888,7 @@
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>120</v>
@@ -1939,7 +1927,7 @@
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>120</v>
@@ -1978,7 +1966,7 @@
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>120</v>
@@ -2017,7 +2005,7 @@
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>120</v>
@@ -2056,7 +2044,7 @@
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>120</v>
@@ -2095,7 +2083,7 @@
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>120</v>
@@ -2134,7 +2122,7 @@
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>120</v>
@@ -2173,7 +2161,7 @@
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G24" s="20" t="s">
         <v>120</v>
@@ -2212,7 +2200,7 @@
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>120</v>
@@ -2251,7 +2239,7 @@
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G26" s="20" t="s">
         <v>120</v>
@@ -2290,7 +2278,7 @@
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G27" s="20" t="s">
         <v>120</v>
@@ -2329,7 +2317,7 @@
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G28" s="20" t="s">
         <v>120</v>
@@ -2368,7 +2356,7 @@
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G29" s="20" t="s">
         <v>120</v>
@@ -2407,7 +2395,7 @@
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>120</v>
@@ -2446,7 +2434,7 @@
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G31" s="20" t="s">
         <v>120</v>
@@ -2485,7 +2473,7 @@
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G32" s="20" t="s">
         <v>120</v>
@@ -2524,7 +2512,7 @@
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G33" s="20" t="s">
         <v>120</v>
@@ -2563,7 +2551,7 @@
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G34" s="20" t="s">
         <v>120</v>
@@ -2602,7 +2590,7 @@
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G35" s="20" t="s">
         <v>120</v>
@@ -2638,7 +2626,7 @@
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G36" s="20" t="s">
         <v>120</v>
@@ -2674,7 +2662,7 @@
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G37" s="20" t="s">
         <v>120</v>
@@ -2710,7 +2698,7 @@
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G38" s="20" t="s">
         <v>120</v>
@@ -2745,7 +2733,7 @@
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G39" s="20" t="s">
         <v>120</v>
@@ -2780,7 +2768,7 @@
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G40" s="20" t="s">
         <v>120</v>
@@ -2815,7 +2803,7 @@
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G41" s="20" t="s">
         <v>120</v>
@@ -2841,7 +2829,7 @@
         <v>33</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="3" t="s">
@@ -2849,7 +2837,7 @@
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G42" s="20" t="s">
         <v>120</v>
@@ -2885,7 +2873,7 @@
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G43" s="20" t="s">
         <v>120</v>
@@ -2921,7 +2909,7 @@
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G44" s="20" t="s">
         <v>120</v>
@@ -2957,7 +2945,7 @@
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G45" s="20" t="s">
         <v>120</v>
@@ -2985,7 +2973,7 @@
         <v>37</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="34" t="s">
@@ -2993,7 +2981,7 @@
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G46" s="20" t="s">
         <v>120</v>
@@ -3013,7 +3001,7 @@
         <v>126</v>
       </c>
       <c r="N46" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3029,7 +3017,7 @@
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G47" s="20" t="s">
         <v>120</v>
@@ -3049,7 +3037,7 @@
         <v>126</v>
       </c>
       <c r="N47" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3057,7 +3045,7 @@
         <v>39</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="34" t="s">
@@ -3065,7 +3053,7 @@
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G48" s="20" t="s">
         <v>120</v>
@@ -3085,7 +3073,7 @@
         <v>126</v>
       </c>
       <c r="N48" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3093,7 +3081,7 @@
         <v>40</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="34" t="s">
@@ -3101,7 +3089,7 @@
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G49" s="20" t="s">
         <v>120</v>
@@ -3121,7 +3109,7 @@
         <v>126</v>
       </c>
       <c r="N49" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3137,7 +3125,7 @@
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G50" s="20" t="s">
         <v>120</v>
@@ -3157,7 +3145,7 @@
         <v>126</v>
       </c>
       <c r="N50" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3173,7 +3161,7 @@
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G51" s="20" t="s">
         <v>120</v>
@@ -3193,7 +3181,7 @@
         <v>126</v>
       </c>
       <c r="N51" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3206,7 +3194,7 @@
       <c r="C52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G52" s="20" t="s">
         <v>120</v>
@@ -3226,7 +3214,7 @@
         <v>128</v>
       </c>
       <c r="N52" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3234,12 +3222,12 @@
         <v>44</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C53" s="20"/>
       <c r="E53" s="20"/>
       <c r="F53" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G53" s="20" t="s">
         <v>120</v>
@@ -3267,12 +3255,12 @@
         <v>45</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C54" s="20"/>
       <c r="E54" s="20"/>
       <c r="F54" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G54" s="20" t="s">
         <v>120</v>
@@ -3300,12 +3288,12 @@
         <v>46</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C55" s="20"/>
       <c r="E55" s="20"/>
       <c r="F55" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G55" s="20" t="s">
         <v>120</v>
@@ -3333,12 +3321,12 @@
         <v>47</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G56" s="20" t="s">
         <v>120</v>
@@ -3366,12 +3354,12 @@
         <v>48</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C57" s="20"/>
       <c r="E57" s="20"/>
       <c r="F57" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G57" s="20" t="s">
         <v>120</v>
@@ -3407,7 +3395,7 @@
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G58" s="20" t="s">
         <v>120</v>
@@ -3442,7 +3430,7 @@
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G59" s="20" t="s">
         <v>120</v>
@@ -3477,7 +3465,7 @@
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G60" s="20" t="s">
         <v>120</v>
@@ -3512,7 +3500,7 @@
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G61" s="20" t="s">
         <v>120</v>
@@ -3549,7 +3537,7 @@
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G62" s="20" t="s">
         <v>120</v>
@@ -3588,7 +3576,7 @@
       </c>
       <c r="E63" s="20"/>
       <c r="F63" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G63" s="20" t="s">
         <v>120</v>
@@ -3627,7 +3615,7 @@
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G64" s="20" t="s">
         <v>120</v>
@@ -3666,7 +3654,7 @@
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G65" s="20" t="s">
         <v>120</v>
@@ -3705,7 +3693,7 @@
       </c>
       <c r="E66" s="20"/>
       <c r="F66" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G66" s="20" t="s">
         <v>120</v>
@@ -3742,7 +3730,7 @@
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G67" s="20" t="s">
         <v>120</v>
@@ -3779,7 +3767,7 @@
       </c>
       <c r="E68" s="20"/>
       <c r="F68" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G68" s="20" t="s">
         <v>120</v>
@@ -3816,7 +3804,7 @@
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G69" s="20" t="s">
         <v>120</v>
@@ -3853,7 +3841,7 @@
       </c>
       <c r="E70" s="20"/>
       <c r="F70" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G70" s="20" t="s">
         <v>120</v>
@@ -3890,7 +3878,7 @@
       </c>
       <c r="E71" s="20"/>
       <c r="F71" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G71" s="20" t="s">
         <v>120</v>
@@ -3927,7 +3915,7 @@
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G72" s="20" t="s">
         <v>120</v>
@@ -3964,7 +3952,7 @@
       </c>
       <c r="E73" s="20"/>
       <c r="F73" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G73" s="20" t="s">
         <v>120</v>
@@ -3991,12 +3979,12 @@
         <v>65</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G74" s="20" t="s">
         <v>120</v>
@@ -4022,12 +4010,12 @@
         <v>66</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G75" s="20" t="s">
         <v>120</v>
@@ -4053,12 +4041,12 @@
         <v>67</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C76" s="20"/>
       <c r="E76" s="20"/>
       <c r="F76" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G76" s="20" t="s">
         <v>120</v>
@@ -4081,124 +4069,145 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="3">
-        <v>68</v>
-      </c>
-      <c r="B77" s="31" t="s">
-        <v>175</v>
+        <v>71</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="C77" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="E77" s="20"/>
+      <c r="D77" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="E77" s="49" t="s">
+        <v>217</v>
+      </c>
       <c r="F77" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G77" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H77" s="22"/>
       <c r="I77" s="23">
-        <v>1273</v>
+        <v>298</v>
       </c>
       <c r="J77" s="19">
-        <v>6624000000</v>
+        <f>410*9807000</f>
+        <v>4020870000</v>
       </c>
       <c r="K77" s="19"/>
       <c r="L77" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M77" s="20" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="N77" s="26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="3">
-        <v>69</v>
-      </c>
-      <c r="B78" s="31" t="s">
-        <v>176</v>
+        <v>72</v>
+      </c>
+      <c r="B78" s="49" t="s">
+        <v>214</v>
       </c>
       <c r="C78" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="E78" s="20"/>
+      <c r="D78" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="E78" s="49" t="s">
+        <v>217</v>
+      </c>
       <c r="F78" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G78" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H78" s="22"/>
       <c r="I78" s="23">
-        <v>1273</v>
+        <v>298</v>
       </c>
       <c r="J78" s="19">
-        <v>6910000000</v>
+        <f>383*9807000</f>
+        <v>3756081000</v>
       </c>
       <c r="K78" s="19"/>
       <c r="L78" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M78" s="20" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="N78" s="26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="3">
-        <v>70</v>
-      </c>
-      <c r="B79" s="31" t="s">
-        <v>177</v>
+        <v>73</v>
+      </c>
+      <c r="B79" s="49" t="s">
+        <v>215</v>
       </c>
       <c r="C79" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="E79" s="20"/>
+      <c r="D79" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="E79" s="49" t="s">
+        <v>217</v>
+      </c>
       <c r="F79" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G79" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H79" s="22"/>
       <c r="I79" s="23">
-        <v>1573</v>
+        <v>298</v>
       </c>
       <c r="J79" s="19">
-        <v>7403000000</v>
+        <f>530*9807000</f>
+        <v>5197710000</v>
       </c>
       <c r="K79" s="19"/>
       <c r="L79" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M79" s="20" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="N79" s="26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="3">
-        <v>71</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>84</v>
+        <v>74</v>
+      </c>
+      <c r="B80" s="49" t="s">
+        <v>216</v>
       </c>
       <c r="C80" s="20" t="s">
         <v>114</v>
       </c>
+      <c r="D80" s="50" t="s">
+        <v>187</v>
+      </c>
       <c r="E80" s="49" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F80" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G80" s="20" t="s">
         <v>120</v>
@@ -4208,35 +4217,32 @@
         <v>298</v>
       </c>
       <c r="J80" s="19">
-        <f>410*9807000</f>
-        <v>4020870000</v>
+        <v>609</v>
       </c>
       <c r="K80" s="19"/>
       <c r="L80" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M80" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="N80" s="26" t="s">
         <v>134</v>
-      </c>
-      <c r="N80" s="26" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="3">
-        <v>72</v>
-      </c>
-      <c r="B81" s="49" t="s">
-        <v>218</v>
+        <v>75</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>85</v>
       </c>
       <c r="C81" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="E81" s="49" t="s">
-        <v>221</v>
-      </c>
+      <c r="E81" s="20"/>
       <c r="F81" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G81" s="20" t="s">
         <v>120</v>
@@ -4246,35 +4252,32 @@
         <v>298</v>
       </c>
       <c r="J81" s="19">
-        <f>383*9807000</f>
-        <v>3756081000</v>
+        <v>1320000000</v>
       </c>
       <c r="K81" s="19"/>
       <c r="L81" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M81" s="20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N81" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="3">
-        <v>73</v>
-      </c>
-      <c r="B82" s="49" t="s">
-        <v>219</v>
+        <v>76</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="C82" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="E82" s="49" t="s">
-        <v>221</v>
-      </c>
+      <c r="E82" s="20"/>
       <c r="F82" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G82" s="20" t="s">
         <v>120</v>
@@ -4284,35 +4287,32 @@
         <v>298</v>
       </c>
       <c r="J82" s="19">
-        <f>530*9807000</f>
-        <v>5197710000</v>
+        <v>873000000</v>
       </c>
       <c r="K82" s="19"/>
       <c r="L82" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M82" s="20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N82" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="3">
-        <v>74</v>
-      </c>
-      <c r="B83" s="49" t="s">
-        <v>220</v>
+        <v>77</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="C83" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="E83" s="49" t="s">
-        <v>221</v>
-      </c>
+      <c r="E83" s="20"/>
       <c r="F83" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G83" s="20" t="s">
         <v>120</v>
@@ -4322,32 +4322,32 @@
         <v>298</v>
       </c>
       <c r="J83" s="19">
-        <v>609</v>
+        <v>970000000</v>
       </c>
       <c r="K83" s="19"/>
       <c r="L83" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M83" s="20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N83" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="3">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C84" s="20" t="s">
         <v>114</v>
       </c>
       <c r="E84" s="20"/>
       <c r="F84" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G84" s="20" t="s">
         <v>120</v>
@@ -4357,32 +4357,32 @@
         <v>298</v>
       </c>
       <c r="J84" s="19">
-        <v>1320000000</v>
+        <v>628000000</v>
       </c>
       <c r="K84" s="19"/>
       <c r="L84" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M84" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="N84" s="26" t="s">
         <v>136</v>
-      </c>
-      <c r="N84" s="26" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="3">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C85" s="20" t="s">
         <v>114</v>
       </c>
       <c r="E85" s="20"/>
       <c r="F85" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G85" s="20" t="s">
         <v>120</v>
@@ -4392,32 +4392,32 @@
         <v>298</v>
       </c>
       <c r="J85" s="19">
-        <v>873000000</v>
+        <v>3430000000</v>
       </c>
       <c r="K85" s="19"/>
       <c r="L85" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M85" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="N85" s="26" t="s">
         <v>136</v>
-      </c>
-      <c r="N85" s="26" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="3">
-        <v>77</v>
-      </c>
-      <c r="B86" s="20" t="s">
-        <v>87</v>
+        <v>80</v>
+      </c>
+      <c r="B86" s="49" t="s">
+        <v>193</v>
       </c>
       <c r="C86" s="20" t="s">
         <v>114</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G86" s="20" t="s">
         <v>120</v>
@@ -4427,32 +4427,32 @@
         <v>298</v>
       </c>
       <c r="J86" s="19">
-        <v>970000000</v>
+        <v>3113000000</v>
       </c>
       <c r="K86" s="19"/>
       <c r="L86" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M86" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="N86" s="26" t="s">
         <v>136</v>
-      </c>
-      <c r="N86" s="26" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="3">
-        <v>78</v>
-      </c>
-      <c r="B87" s="20" t="s">
-        <v>88</v>
+        <v>81</v>
+      </c>
+      <c r="B87" s="49" t="s">
+        <v>194</v>
       </c>
       <c r="C87" s="20" t="s">
         <v>114</v>
       </c>
       <c r="E87" s="20"/>
       <c r="F87" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G87" s="20" t="s">
         <v>120</v>
@@ -4462,32 +4462,32 @@
         <v>298</v>
       </c>
       <c r="J87" s="19">
-        <v>628000000</v>
+        <v>4830000000</v>
       </c>
       <c r="K87" s="19"/>
       <c r="L87" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M87" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="N87" s="26" t="s">
         <v>136</v>
-      </c>
-      <c r="N87" s="26" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="3">
-        <v>79</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="B88" s="49" t="s">
+        <v>195</v>
       </c>
       <c r="C88" s="20" t="s">
         <v>114</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G88" s="20" t="s">
         <v>120</v>
@@ -4497,32 +4497,37 @@
         <v>298</v>
       </c>
       <c r="J88" s="19">
-        <v>3430000000</v>
+        <v>4380000000</v>
       </c>
       <c r="K88" s="19"/>
       <c r="L88" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M88" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="N88" s="26" t="s">
         <v>136</v>
-      </c>
-      <c r="N88" s="26" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="3">
-        <v>80</v>
-      </c>
-      <c r="B89" s="49" t="s">
-        <v>197</v>
+        <v>83</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="C89" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="E89" s="20"/>
+      <c r="D89" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="E89" s="49" t="s">
+        <v>209</v>
+      </c>
       <c r="F89" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G89" s="20" t="s">
         <v>120</v>
@@ -4532,32 +4537,35 @@
         <v>298</v>
       </c>
       <c r="J89" s="19">
-        <v>3113000000</v>
+        <f>103*9807000</f>
+        <v>1010121000</v>
       </c>
       <c r="K89" s="19"/>
       <c r="L89" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M89" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N89" s="26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="3">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B90" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E90" s="20"/>
+        <v>210</v>
+      </c>
+      <c r="D90" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="E90" s="49" t="s">
+        <v>209</v>
+      </c>
       <c r="F90" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G90" s="20" t="s">
         <v>120</v>
@@ -4567,32 +4575,35 @@
         <v>298</v>
       </c>
       <c r="J90" s="19">
-        <v>4830000000</v>
+        <f>204*9807000</f>
+        <v>2000628000</v>
       </c>
       <c r="K90" s="19"/>
       <c r="L90" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M90" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N90" s="26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="3">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B91" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E91" s="20"/>
+        <v>211</v>
+      </c>
+      <c r="D91" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="E91" s="49" t="s">
+        <v>209</v>
+      </c>
       <c r="F91" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G91" s="20" t="s">
         <v>120</v>
@@ -4602,154 +4613,158 @@
         <v>298</v>
       </c>
       <c r="J91" s="19">
-        <v>4380000000</v>
+        <f>244*9807000</f>
+        <v>2392908000</v>
       </c>
       <c r="K91" s="19"/>
       <c r="L91" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M91" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N91" s="26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="3">
-        <v>83</v>
-      </c>
-      <c r="B92" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C92" s="20" t="s">
+      <c r="B92" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="C92" s="50" t="s">
         <v>114</v>
       </c>
       <c r="D92" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="E92" s="49" t="s">
-        <v>213</v>
+        <v>197</v>
+      </c>
+      <c r="E92" s="51" t="s">
+        <v>198</v>
       </c>
       <c r="F92" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G92" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H92" s="22"/>
-      <c r="I92" s="23">
+      <c r="I92" s="3">
         <v>298</v>
       </c>
       <c r="J92" s="19">
-        <f>103*9807000</f>
-        <v>1010121000</v>
+        <v>1910000000</v>
       </c>
       <c r="K92" s="19"/>
       <c r="L92" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M92" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="N92" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="N92" s="28" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="3">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B93" s="49" t="s">
-        <v>214</v>
+        <v>196</v>
+      </c>
+      <c r="C93" s="50" t="s">
+        <v>114</v>
       </c>
       <c r="D93" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="E93" s="49" t="s">
-        <v>213</v>
+        <v>197</v>
+      </c>
+      <c r="E93" s="51" t="s">
+        <v>199</v>
       </c>
       <c r="F93" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G93" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H93" s="22"/>
-      <c r="I93" s="23">
+      <c r="I93" s="3">
         <v>298</v>
       </c>
       <c r="J93" s="19">
-        <f>204*9807000</f>
-        <v>2000628000</v>
+        <v>1890000000</v>
       </c>
       <c r="K93" s="19"/>
       <c r="L93" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M93" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="N93" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="N93" s="28" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="3">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B94" s="49" t="s">
-        <v>215</v>
+        <v>196</v>
+      </c>
+      <c r="C94" s="50" t="s">
+        <v>114</v>
       </c>
       <c r="D94" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="E94" s="49" t="s">
-        <v>213</v>
+        <v>197</v>
+      </c>
+      <c r="E94" s="51" t="s">
+        <v>200</v>
       </c>
       <c r="F94" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G94" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H94" s="22"/>
-      <c r="I94" s="23">
+      <c r="I94" s="3">
         <v>298</v>
       </c>
       <c r="J94" s="19">
-        <f>244*9807000</f>
-        <v>2392908000</v>
+        <v>1840000000</v>
       </c>
       <c r="K94" s="19"/>
       <c r="L94" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M94" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="N94" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="N94" s="28" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="3">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B95" s="49" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C95" s="50" t="s">
         <v>114</v>
       </c>
       <c r="D95" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="E95" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="E95" s="51" t="s">
-        <v>202</v>
-      </c>
       <c r="F95" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G95" s="20" t="s">
         <v>120</v>
@@ -4759,37 +4774,37 @@
         <v>298</v>
       </c>
       <c r="J95" s="19">
-        <v>1910000000</v>
+        <v>1820000000</v>
       </c>
       <c r="K95" s="19"/>
       <c r="L95" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M95" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N95" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B96" s="49" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C96" s="50" t="s">
         <v>114</v>
       </c>
       <c r="D96" s="50" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E96" s="51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F96" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G96" s="20" t="s">
         <v>120</v>
@@ -4799,37 +4814,37 @@
         <v>298</v>
       </c>
       <c r="J96" s="19">
-        <v>1890000000</v>
+        <v>1850000000</v>
       </c>
       <c r="K96" s="19"/>
       <c r="L96" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M96" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N96" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="3">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B97" s="49" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C97" s="50" t="s">
         <v>114</v>
       </c>
       <c r="D97" s="50" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E97" s="51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F97" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G97" s="20" t="s">
         <v>120</v>
@@ -4839,37 +4854,37 @@
         <v>298</v>
       </c>
       <c r="J97" s="19">
-        <v>1840000000</v>
+        <v>1810000000</v>
       </c>
       <c r="K97" s="19"/>
       <c r="L97" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M97" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N97" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="3">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B98" s="49" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C98" s="50" t="s">
         <v>114</v>
       </c>
       <c r="D98" s="50" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E98" s="51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F98" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G98" s="20" t="s">
         <v>120</v>
@@ -4879,37 +4894,37 @@
         <v>298</v>
       </c>
       <c r="J98" s="19">
-        <v>1820000000</v>
+        <v>1750000000</v>
       </c>
       <c r="K98" s="19"/>
       <c r="L98" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M98" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N98" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="3">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B99" s="49" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C99" s="50" t="s">
         <v>114</v>
       </c>
       <c r="D99" s="50" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E99" s="51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F99" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G99" s="20" t="s">
         <v>120</v>
@@ -4919,37 +4934,37 @@
         <v>298</v>
       </c>
       <c r="J99" s="19">
-        <v>1850000000</v>
+        <v>1920000000</v>
       </c>
       <c r="K99" s="19"/>
       <c r="L99" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M99" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N99" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="3">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B100" s="49" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C100" s="50" t="s">
         <v>114</v>
       </c>
       <c r="D100" s="50" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E100" s="51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F100" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G100" s="20" t="s">
         <v>120</v>
@@ -4959,37 +4974,37 @@
         <v>298</v>
       </c>
       <c r="J100" s="19">
-        <v>1810000000</v>
+        <v>1950000000</v>
       </c>
       <c r="K100" s="19"/>
       <c r="L100" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M100" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N100" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="3">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B101" s="49" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C101" s="50" t="s">
         <v>114</v>
       </c>
       <c r="D101" s="50" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E101" s="51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F101" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G101" s="20" t="s">
         <v>120</v>
@@ -4999,37 +5014,37 @@
         <v>298</v>
       </c>
       <c r="J101" s="19">
-        <v>1750000000</v>
+        <v>2040000000</v>
       </c>
       <c r="K101" s="19"/>
       <c r="L101" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M101" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N101" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="3">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B102" s="49" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C102" s="50" t="s">
         <v>114</v>
       </c>
       <c r="D102" s="50" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E102" s="51" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F102" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G102" s="20" t="s">
         <v>120</v>
@@ -5039,152 +5054,134 @@
         <v>298</v>
       </c>
       <c r="J102" s="19">
-        <v>1920000000</v>
+        <v>1980000000</v>
       </c>
       <c r="K102" s="19"/>
       <c r="L102" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M102" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N102" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="3">
-        <v>94</v>
-      </c>
-      <c r="B103" s="49" t="s">
-        <v>200</v>
-      </c>
-      <c r="C103" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D103" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="E103" s="51" t="s">
-        <v>210</v>
-      </c>
+      <c r="E103" s="20"/>
       <c r="F103" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G103" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H103" s="22"/>
-      <c r="I103" s="3">
-        <v>298</v>
-      </c>
+      <c r="I103" s="23"/>
       <c r="J103" s="19">
-        <v>1950000000</v>
+        <f>400*9807000</f>
+        <v>3922800000</v>
       </c>
       <c r="K103" s="19"/>
       <c r="L103" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M103" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="N103" s="28" t="s">
         <v>140</v>
+      </c>
+      <c r="N103" s="26" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="3">
-        <v>95</v>
-      </c>
-      <c r="B104" s="49" t="s">
-        <v>200</v>
-      </c>
-      <c r="C104" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D104" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="E104" s="51" t="s">
-        <v>211</v>
-      </c>
+      <c r="E104" s="20"/>
       <c r="F104" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G104" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H104" s="22"/>
-      <c r="I104" s="3">
-        <v>298</v>
-      </c>
+      <c r="I104" s="23"/>
       <c r="J104" s="19">
-        <v>2040000000</v>
+        <f>490*9807000</f>
+        <v>4805430000</v>
       </c>
       <c r="K104" s="19"/>
       <c r="L104" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M104" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="N104" s="28" t="s">
         <v>140</v>
+      </c>
+      <c r="N104" s="26" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="3">
-        <v>96</v>
-      </c>
-      <c r="B105" s="49" t="s">
-        <v>200</v>
-      </c>
-      <c r="C105" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D105" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="E105" s="51" t="s">
-        <v>212</v>
-      </c>
+      <c r="E105" s="20"/>
       <c r="F105" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G105" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H105" s="22"/>
-      <c r="I105" s="3">
-        <v>298</v>
-      </c>
+      <c r="I105" s="23"/>
       <c r="J105" s="19">
-        <v>1980000000</v>
+        <f>575*9807000</f>
+        <v>5639025000</v>
       </c>
       <c r="K105" s="19"/>
       <c r="L105" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M105" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="N105" s="28" t="s">
         <v>140</v>
+      </c>
+      <c r="N105" s="26" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="3">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>114</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G106" s="20" t="s">
         <v>120</v>
@@ -5192,33 +5189,36 @@
       <c r="H106" s="22"/>
       <c r="I106" s="23"/>
       <c r="J106" s="19">
-        <f>400*9807000</f>
-        <v>3922800000</v>
+        <f>600*9807000</f>
+        <v>5884200000</v>
       </c>
       <c r="K106" s="19"/>
       <c r="L106" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M106" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="N106" s="26" t="s">
         <v>141</v>
-      </c>
-      <c r="N106" s="26" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="3">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="D107" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="E107" s="20"/>
       <c r="F107" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G107" s="20" t="s">
         <v>120</v>
@@ -5226,15 +5226,15 @@
       <c r="H107" s="22"/>
       <c r="I107" s="23"/>
       <c r="J107" s="19">
-        <f>490*9807000</f>
-        <v>4805430000</v>
+        <f>443*9807000</f>
+        <v>4344501000</v>
       </c>
       <c r="K107" s="19"/>
       <c r="L107" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M107" s="20" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="N107" s="26" t="s">
         <v>142</v>
@@ -5242,17 +5242,20 @@
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="3">
-        <v>99</v>
-      </c>
-      <c r="B108" s="20" t="s">
-        <v>91</v>
+        <v>102</v>
+      </c>
+      <c r="B108" s="31" t="s">
+        <v>174</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="D108" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="E108" s="20"/>
       <c r="F108" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G108" s="20" t="s">
         <v>120</v>
@@ -5260,15 +5263,15 @@
       <c r="H108" s="22"/>
       <c r="I108" s="23"/>
       <c r="J108" s="19">
-        <f>575*9807000</f>
-        <v>5639025000</v>
+        <f>504*9807000</f>
+        <v>4942728000</v>
       </c>
       <c r="K108" s="19"/>
       <c r="L108" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M108" s="20" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="N108" s="26" t="s">
         <v>142</v>
@@ -5276,17 +5279,20 @@
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="3">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="D109" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="E109" s="20"/>
       <c r="F109" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G109" s="20" t="s">
         <v>120</v>
@@ -5294,15 +5300,15 @@
       <c r="H109" s="22"/>
       <c r="I109" s="23"/>
       <c r="J109" s="19">
-        <f>600*9807000</f>
-        <v>5884200000</v>
+        <f>298*9807000</f>
+        <v>2922486000</v>
       </c>
       <c r="K109" s="19"/>
       <c r="L109" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M109" s="20" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="N109" s="26" t="s">
         <v>142</v>
@@ -5310,10 +5316,10 @@
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="3">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>114</v>
@@ -5323,7 +5329,7 @@
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G110" s="20" t="s">
         <v>120</v>
@@ -5331,26 +5337,26 @@
       <c r="H110" s="22"/>
       <c r="I110" s="23"/>
       <c r="J110" s="19">
-        <f>443*9807000</f>
-        <v>4344501000</v>
+        <f>493*9807000</f>
+        <v>4834851000</v>
       </c>
       <c r="K110" s="19"/>
       <c r="L110" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M110" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N110" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="3">
-        <v>102</v>
-      </c>
-      <c r="B111" s="31" t="s">
-        <v>178</v>
+        <v>105</v>
+      </c>
+      <c r="B111" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>114</v>
@@ -5360,7 +5366,7 @@
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G111" s="20" t="s">
         <v>120</v>
@@ -5368,26 +5374,26 @@
       <c r="H111" s="22"/>
       <c r="I111" s="23"/>
       <c r="J111" s="19">
-        <f>504*9807000</f>
-        <v>4942728000</v>
+        <f>447*9807000</f>
+        <v>4383729000</v>
       </c>
       <c r="K111" s="19"/>
       <c r="L111" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M111" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N111" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="3">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>114</v>
@@ -5397,7 +5403,7 @@
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G112" s="20" t="s">
         <v>120</v>
@@ -5405,26 +5411,26 @@
       <c r="H112" s="22"/>
       <c r="I112" s="23"/>
       <c r="J112" s="19">
-        <f>298*9807000</f>
-        <v>2922486000</v>
+        <f>454*9807000</f>
+        <v>4452378000</v>
       </c>
       <c r="K112" s="19"/>
       <c r="L112" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M112" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N112" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="3">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>114</v>
@@ -5434,7 +5440,7 @@
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G113" s="20" t="s">
         <v>120</v>
@@ -5442,26 +5448,26 @@
       <c r="H113" s="22"/>
       <c r="I113" s="23"/>
       <c r="J113" s="19">
-        <f>493*9807000</f>
-        <v>4834851000</v>
+        <f>535*9807000</f>
+        <v>5246745000</v>
       </c>
       <c r="K113" s="19"/>
       <c r="L113" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M113" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N113" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="3">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>114</v>
@@ -5471,7 +5477,7 @@
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G114" s="20" t="s">
         <v>120</v>
@@ -5479,26 +5485,26 @@
       <c r="H114" s="22"/>
       <c r="I114" s="23"/>
       <c r="J114" s="19">
-        <f>447*9807000</f>
-        <v>4383729000</v>
+        <f>705*9807000</f>
+        <v>6913935000</v>
       </c>
       <c r="K114" s="19"/>
       <c r="L114" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M114" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N114" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="3">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>114</v>
@@ -5508,7 +5514,7 @@
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G115" s="20" t="s">
         <v>120</v>
@@ -5516,26 +5522,26 @@
       <c r="H115" s="22"/>
       <c r="I115" s="23"/>
       <c r="J115" s="19">
-        <f>454*9807000</f>
-        <v>4452378000</v>
+        <f>542*9807000</f>
+        <v>5315394000</v>
       </c>
       <c r="K115" s="19"/>
       <c r="L115" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M115" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N115" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="3">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>114</v>
@@ -5545,7 +5551,7 @@
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G116" s="20" t="s">
         <v>120</v>
@@ -5553,26 +5559,26 @@
       <c r="H116" s="22"/>
       <c r="I116" s="23"/>
       <c r="J116" s="19">
-        <f>535*9807000</f>
-        <v>5246745000</v>
+        <f>505*9807000</f>
+        <v>4952535000</v>
       </c>
       <c r="K116" s="19"/>
       <c r="L116" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M116" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N116" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="3">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>114</v>
@@ -5582,7 +5588,7 @@
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G117" s="20" t="s">
         <v>120</v>
@@ -5590,26 +5596,26 @@
       <c r="H117" s="22"/>
       <c r="I117" s="23"/>
       <c r="J117" s="19">
-        <f>705*9807000</f>
-        <v>6913935000</v>
+        <f>558*9807000</f>
+        <v>5472306000</v>
       </c>
       <c r="K117" s="19"/>
       <c r="L117" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M117" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N117" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="3">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>114</v>
@@ -5619,7 +5625,7 @@
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G118" s="20" t="s">
         <v>120</v>
@@ -5627,134 +5633,137 @@
       <c r="H118" s="22"/>
       <c r="I118" s="23"/>
       <c r="J118" s="19">
-        <f>542*9807000</f>
-        <v>5315394000</v>
+        <f>390*9807000</f>
+        <v>3824730000</v>
       </c>
       <c r="K118" s="19"/>
       <c r="L118" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M118" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N118" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="3">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D119" s="3" t="s">
-        <v>116</v>
+      <c r="D119" s="36" t="s">
+        <v>187</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G119" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H119" s="22"/>
-      <c r="I119" s="23"/>
+      <c r="I119" s="23">
+        <v>1423</v>
+      </c>
       <c r="J119" s="19">
-        <f>505*9807000</f>
-        <v>4952535000</v>
+        <v>11400000000</v>
       </c>
       <c r="K119" s="19"/>
       <c r="L119" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M119" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="N119" s="26" t="s">
-        <v>143</v>
+        <v>123</v>
+      </c>
+      <c r="N119" s="29" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="3">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D120" s="3" t="s">
-        <v>116</v>
+      <c r="D120" s="36" t="s">
+        <v>187</v>
       </c>
       <c r="E120" s="20"/>
       <c r="F120" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G120" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H120" s="22"/>
-      <c r="I120" s="23"/>
+      <c r="I120" s="23">
+        <v>1523</v>
+      </c>
       <c r="J120" s="19">
-        <f>558*9807000</f>
-        <v>5472306000</v>
+        <v>10300000000</v>
       </c>
       <c r="K120" s="19"/>
       <c r="L120" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M120" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="N120" s="26" t="s">
-        <v>143</v>
+        <v>123</v>
+      </c>
+      <c r="N120" s="29" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="3">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>116</v>
+      <c r="D121" s="36" t="s">
+        <v>187</v>
       </c>
       <c r="E121" s="20"/>
       <c r="F121" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G121" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H121" s="22"/>
-      <c r="I121" s="23"/>
+      <c r="I121" s="23">
+        <v>1623</v>
+      </c>
       <c r="J121" s="19">
-        <f>390*9807000</f>
-        <v>3824730000</v>
+        <v>10200000000</v>
       </c>
       <c r="K121" s="19"/>
       <c r="L121" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M121" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="N121" s="26" t="s">
-        <v>143</v>
+        <v>123</v>
+      </c>
+      <c r="N121" s="29" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B122" s="20" t="s">
         <v>104</v>
@@ -5763,21 +5772,21 @@
         <v>114</v>
       </c>
       <c r="D122" s="36" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E122" s="20"/>
       <c r="F122" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G122" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H122" s="22"/>
       <c r="I122" s="23">
-        <v>1423</v>
+        <v>1773</v>
       </c>
       <c r="J122" s="19">
-        <v>11400000000</v>
+        <v>8800000000</v>
       </c>
       <c r="K122" s="19"/>
       <c r="L122" s="20" t="s">
@@ -5787,126 +5796,127 @@
         <v>123</v>
       </c>
       <c r="N122" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D123" s="36" t="s">
-        <v>191</v>
+      <c r="D123" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="E123" s="20"/>
       <c r="F123" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G123" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H123" s="22"/>
-      <c r="I123" s="23">
-        <v>1523</v>
-      </c>
+      <c r="I123" s="23"/>
       <c r="J123" s="19">
-        <v>10300000000</v>
+        <f>298*9807000</f>
+        <v>2922486000</v>
       </c>
       <c r="K123" s="19"/>
       <c r="L123" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M123" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="N123" s="29" t="s">
-        <v>161</v>
+        <v>137</v>
+      </c>
+      <c r="N123" s="26" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>114</v>
       </c>
       <c r="D124" s="36" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E124" s="20"/>
       <c r="F124" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G124" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H124" s="22"/>
       <c r="I124" s="23">
-        <v>1623</v>
+        <v>1773</v>
       </c>
       <c r="J124" s="19">
-        <v>10200000000</v>
+        <f>427.9*9807000</f>
+        <v>4196415300</v>
       </c>
       <c r="K124" s="19"/>
       <c r="L124" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M124" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="N124" s="29" t="s">
-        <v>161</v>
+        <v>137</v>
+      </c>
+      <c r="N124" s="26" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>114</v>
       </c>
       <c r="D125" s="36" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E125" s="20"/>
       <c r="F125" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G125" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H125" s="22"/>
       <c r="I125" s="23">
-        <v>1773</v>
+        <v>1873</v>
       </c>
       <c r="J125" s="19">
-        <v>8800000000</v>
+        <f>444.3*9807000</f>
+        <v>4357250100</v>
       </c>
       <c r="K125" s="19"/>
       <c r="L125" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M125" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="N125" s="29" t="s">
-        <v>161</v>
+        <v>137</v>
+      </c>
+      <c r="N125" s="26" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B126" s="20" t="s">
         <v>94</v>
@@ -5914,166 +5924,159 @@
       <c r="C126" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D126" s="3" t="s">
-        <v>116</v>
+      <c r="D126" s="36" t="s">
+        <v>187</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G126" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H126" s="22"/>
-      <c r="I126" s="23"/>
+      <c r="I126" s="23">
+        <v>1973</v>
+      </c>
       <c r="J126" s="19">
-        <f>298*9807000</f>
-        <v>2922486000</v>
+        <f>510.9*9807000</f>
+        <v>5010396300</v>
       </c>
       <c r="K126" s="19"/>
       <c r="L126" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M126" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N126" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="3">
-        <v>118</v>
-      </c>
-      <c r="B127" s="20" t="s">
-        <v>94</v>
+        <v>121</v>
+      </c>
+      <c r="B127" s="31" t="s">
+        <v>175</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D127" s="36" t="s">
-        <v>191</v>
+      <c r="D127" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G127" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H127" s="22"/>
       <c r="I127" s="23">
-        <v>1773</v>
+        <v>1673</v>
       </c>
       <c r="J127" s="19">
-        <f>427.9*9807000</f>
-        <v>4196415300</v>
+        <f>340*9807000</f>
+        <v>3334380000</v>
       </c>
       <c r="K127" s="19"/>
       <c r="L127" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M127" s="20" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="N127" s="26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="3">
-        <v>119</v>
-      </c>
-      <c r="B128" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D128" s="36" t="s">
-        <v>191</v>
+        <v>122</v>
+      </c>
+      <c r="B128" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="E128" s="20"/>
       <c r="F128" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G128" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H128" s="22"/>
       <c r="I128" s="23">
-        <v>1873</v>
+        <v>1673</v>
       </c>
       <c r="J128" s="19">
-        <f>444.3*9807000</f>
-        <v>4357250100</v>
+        <f>357*9807000</f>
+        <v>3501099000</v>
       </c>
       <c r="K128" s="19"/>
       <c r="L128" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M128" s="20" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="N128" s="26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="3">
-        <v>120</v>
-      </c>
-      <c r="B129" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D129" s="36" t="s">
-        <v>191</v>
+        <v>123</v>
+      </c>
+      <c r="B129" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="E129" s="20"/>
       <c r="F129" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G129" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H129" s="22"/>
       <c r="I129" s="23">
-        <v>1973</v>
+        <v>1673</v>
       </c>
       <c r="J129" s="19">
-        <f>510.9*9807000</f>
-        <v>5010396300</v>
+        <f>457*9807000</f>
+        <v>4481799000</v>
       </c>
       <c r="K129" s="19"/>
       <c r="L129" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M129" s="20" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="N129" s="26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>117</v>
       </c>
       <c r="E130" s="20"/>
       <c r="F130" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G130" s="20" t="s">
         <v>120</v>
@@ -6083,33 +6086,33 @@
         <v>1673</v>
       </c>
       <c r="J130" s="19">
-        <f>340*9807000</f>
-        <v>3334380000</v>
+        <f>414*9807000</f>
+        <v>4060098000</v>
       </c>
       <c r="K130" s="19"/>
       <c r="L130" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M130" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="N130" s="26" t="s">
         <v>145</v>
-      </c>
-      <c r="N130" s="26" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="3">
-        <v>122</v>
-      </c>
-      <c r="B131" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>117</v>
+        <v>125</v>
+      </c>
+      <c r="B131" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D131" s="37" t="s">
+        <v>116</v>
       </c>
       <c r="E131" s="20"/>
       <c r="F131" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G131" s="20" t="s">
         <v>120</v>
@@ -6119,33 +6122,32 @@
         <v>1673</v>
       </c>
       <c r="J131" s="19">
-        <f>357*9807000</f>
-        <v>3501099000</v>
+        <v>1569000000</v>
       </c>
       <c r="K131" s="19"/>
       <c r="L131" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M131" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="N131" s="26" t="s">
-        <v>146</v>
+      <c r="M131" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="N131" s="35" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="3">
-        <v>123</v>
-      </c>
-      <c r="B132" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>117</v>
+        <v>126</v>
+      </c>
+      <c r="B132" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D132" s="37" t="s">
+        <v>116</v>
       </c>
       <c r="E132" s="20"/>
       <c r="F132" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G132" s="20" t="s">
         <v>120</v>
@@ -6155,33 +6157,32 @@
         <v>1673</v>
       </c>
       <c r="J132" s="19">
-        <f>457*9807000</f>
-        <v>4481799000</v>
+        <v>1667000000</v>
       </c>
       <c r="K132" s="19"/>
       <c r="L132" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M132" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="N132" s="26" t="s">
-        <v>146</v>
+      <c r="M132" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="N132" s="35" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="3">
-        <v>124</v>
-      </c>
-      <c r="B133" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>117</v>
+        <v>127</v>
+      </c>
+      <c r="B133" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="D133" s="37" t="s">
+        <v>116</v>
       </c>
       <c r="E133" s="20"/>
       <c r="F133" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G133" s="20" t="s">
         <v>120</v>
@@ -6191,33 +6192,32 @@
         <v>1673</v>
       </c>
       <c r="J133" s="19">
-        <f>414*9807000</f>
-        <v>4060098000</v>
+        <v>5139000000</v>
       </c>
       <c r="K133" s="19"/>
       <c r="L133" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M133" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="N133" s="26" t="s">
-        <v>146</v>
+      <c r="M133" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="N133" s="35" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D134" s="37" t="s">
         <v>116</v>
       </c>
       <c r="E134" s="20"/>
       <c r="F134" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G134" s="20" t="s">
         <v>120</v>
@@ -6227,32 +6227,32 @@
         <v>1673</v>
       </c>
       <c r="J134" s="19">
-        <v>1569000000</v>
+        <v>6375000000</v>
       </c>
       <c r="K134" s="19"/>
-      <c r="L134" s="20" t="s">
+      <c r="L134" s="38" t="s">
         <v>47</v>
       </c>
       <c r="M134" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N134" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="3">
-        <v>126</v>
-      </c>
-      <c r="B135" s="38" t="s">
-        <v>167</v>
+        <v>129</v>
+      </c>
+      <c r="B135" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="D135" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E135" s="20"/>
       <c r="F135" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G135" s="20" t="s">
         <v>120</v>
@@ -6262,32 +6262,32 @@
         <v>1673</v>
       </c>
       <c r="J135" s="19">
-        <v>1667000000</v>
+        <v>1314000000</v>
       </c>
       <c r="K135" s="19"/>
       <c r="L135" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M135" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N135" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B136" s="38" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D136" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E136" s="20"/>
       <c r="F136" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G136" s="20" t="s">
         <v>120</v>
@@ -6297,32 +6297,32 @@
         <v>1673</v>
       </c>
       <c r="J136" s="19">
-        <v>5139000000</v>
+        <v>1324000000</v>
       </c>
       <c r="K136" s="19"/>
-      <c r="L136" s="20" t="s">
+      <c r="L136" s="38" t="s">
         <v>47</v>
       </c>
       <c r="M136" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N136" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="3">
-        <v>128</v>
-      </c>
-      <c r="B137" s="20" t="s">
-        <v>106</v>
+        <v>131</v>
+      </c>
+      <c r="B137" s="38" t="s">
+        <v>167</v>
       </c>
       <c r="D137" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E137" s="20"/>
       <c r="F137" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G137" s="20" t="s">
         <v>120</v>
@@ -6332,32 +6332,32 @@
         <v>1673</v>
       </c>
       <c r="J137" s="19">
-        <v>6375000000</v>
+        <v>5757000000</v>
       </c>
       <c r="K137" s="19"/>
-      <c r="L137" s="38" t="s">
+      <c r="L137" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M137" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N137" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="3">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D138" s="37" t="s">
         <v>115</v>
       </c>
       <c r="E138" s="20"/>
       <c r="F138" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G138" s="20" t="s">
         <v>120</v>
@@ -6367,204 +6367,222 @@
         <v>1673</v>
       </c>
       <c r="J138" s="19">
-        <v>1314000000</v>
+        <v>6237000000</v>
       </c>
       <c r="K138" s="19"/>
-      <c r="L138" s="20" t="s">
+      <c r="L138" s="38" t="s">
         <v>47</v>
       </c>
       <c r="M138" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N138" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="3">
-        <v>130</v>
-      </c>
-      <c r="B139" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="D139" s="37" t="s">
-        <v>115</v>
+        <v>133</v>
+      </c>
+      <c r="B139" s="20" t="s">
+        <v>107</v>
       </c>
       <c r="E139" s="20"/>
       <c r="F139" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G139" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H139" s="22"/>
-      <c r="I139" s="23">
-        <v>1673</v>
-      </c>
+      <c r="I139" s="23"/>
       <c r="J139" s="19">
-        <v>1324000000</v>
+        <f>940*9807000</f>
+        <v>9218580000</v>
       </c>
       <c r="K139" s="19"/>
-      <c r="L139" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="M139" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="N139" s="35" t="s">
-        <v>166</v>
+      <c r="L139" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M139" s="20"/>
+      <c r="N139" s="30" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="3">
-        <v>131</v>
-      </c>
-      <c r="B140" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="B140" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="D140" s="37" t="s">
-        <v>115</v>
+      <c r="C140" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E140" s="20"/>
       <c r="F140" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G140" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H140" s="22"/>
-      <c r="I140" s="23">
-        <v>1673</v>
-      </c>
+      <c r="I140" s="23"/>
       <c r="J140" s="19">
-        <v>5757000000</v>
+        <v>1360000000000</v>
       </c>
       <c r="K140" s="19"/>
       <c r="L140" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M140" s="38" t="s">
+      <c r="M140" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="N140" s="30" t="s">
         <v>148</v>
-      </c>
-      <c r="N140" s="35" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="3">
-        <v>132</v>
-      </c>
-      <c r="B141" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D141" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="E141" s="20"/>
+        <v>135</v>
+      </c>
+      <c r="B141" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C141" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D141" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="E141" s="51" t="s">
+        <v>212</v>
+      </c>
       <c r="F141" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G141" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H141" s="22"/>
-      <c r="I141" s="23">
-        <v>1673</v>
+      <c r="I141" s="3">
+        <v>298</v>
       </c>
       <c r="J141" s="19">
-        <v>6237000000</v>
+        <f>341*9807000</f>
+        <v>3344187000</v>
       </c>
       <c r="K141" s="19"/>
-      <c r="L141" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="M141" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="N141" s="35" t="s">
-        <v>166</v>
+      <c r="L141" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M141" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="N141" s="28" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="3">
-        <v>133</v>
-      </c>
-      <c r="B142" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E142" s="20"/>
+        <v>136</v>
+      </c>
+      <c r="B142" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C142" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D142" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="E142" s="51" t="s">
+        <v>212</v>
+      </c>
       <c r="F142" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G142" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H142" s="22"/>
-      <c r="I142" s="23"/>
+      <c r="I142" s="3">
+        <v>298</v>
+      </c>
       <c r="J142" s="19">
-        <f>940*9807000</f>
-        <v>9218580000</v>
+        <f>338*9807000</f>
+        <v>3314766000</v>
       </c>
       <c r="K142" s="19"/>
       <c r="L142" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M142" s="20"/>
-      <c r="N142" s="30" t="s">
-        <v>147</v>
+      <c r="M142" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="N142" s="28" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="3">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E143" s="20"/>
+        <v>181</v>
+      </c>
+      <c r="C143" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D143" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="E143" s="51" t="s">
+        <v>212</v>
+      </c>
       <c r="F143" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G143" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H143" s="22"/>
-      <c r="I143" s="23"/>
+      <c r="I143" s="3">
+        <v>298</v>
+      </c>
       <c r="J143" s="19">
-        <v>1360000000000</v>
+        <f>340*9807000</f>
+        <v>3334380000</v>
       </c>
       <c r="K143" s="19"/>
       <c r="L143" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M143" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="N143" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="N143" s="28" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C144" s="50" t="s">
         <v>114</v>
       </c>
       <c r="D144" s="36" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E144" s="51" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F144" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G144" s="20" t="s">
         <v>120</v>
@@ -6574,8 +6592,8 @@
         <v>298</v>
       </c>
       <c r="J144" s="19">
-        <f>341*9807000</f>
-        <v>3344187000</v>
+        <f>345*9807000</f>
+        <v>3383415000</v>
       </c>
       <c r="K144" s="19"/>
       <c r="L144" s="20" t="s">
@@ -6585,27 +6603,27 @@
         <v>126</v>
       </c>
       <c r="N144" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="3">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B145" s="31" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C145" s="50" t="s">
         <v>114</v>
       </c>
       <c r="D145" s="36" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E145" s="51" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F145" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G145" s="20" t="s">
         <v>120</v>
@@ -6615,8 +6633,8 @@
         <v>298</v>
       </c>
       <c r="J145" s="19">
-        <f>338*9807000</f>
-        <v>3314766000</v>
+        <f>334*9807000</f>
+        <v>3275538000</v>
       </c>
       <c r="K145" s="19"/>
       <c r="L145" s="20" t="s">
@@ -6626,27 +6644,27 @@
         <v>126</v>
       </c>
       <c r="N145" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="3">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C146" s="50" t="s">
         <v>114</v>
       </c>
       <c r="D146" s="36" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E146" s="51" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F146" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G146" s="20" t="s">
         <v>120</v>
@@ -6667,27 +6685,27 @@
         <v>126</v>
       </c>
       <c r="N146" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="3">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C147" s="50" t="s">
         <v>114</v>
       </c>
       <c r="D147" s="36" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E147" s="51" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F147" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G147" s="20" t="s">
         <v>120</v>
@@ -6697,8 +6715,8 @@
         <v>298</v>
       </c>
       <c r="J147" s="19">
-        <f>345*9807000</f>
-        <v>3383415000</v>
+        <f>340*9807000</f>
+        <v>3334380000</v>
       </c>
       <c r="K147" s="19"/>
       <c r="L147" s="20" t="s">
@@ -6708,27 +6726,27 @@
         <v>126</v>
       </c>
       <c r="N147" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="3">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B148" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C148" s="50" t="s">
         <v>114</v>
       </c>
       <c r="D148" s="36" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E148" s="51" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F148" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G148" s="20" t="s">
         <v>120</v>
@@ -6738,8 +6756,8 @@
         <v>298</v>
       </c>
       <c r="J148" s="19">
-        <f>334*9807000</f>
-        <v>3275538000</v>
+        <f>331*9807000</f>
+        <v>3246117000</v>
       </c>
       <c r="K148" s="19"/>
       <c r="L148" s="20" t="s">
@@ -6749,27 +6767,22 @@
         <v>126</v>
       </c>
       <c r="N148" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="3">
-        <v>140</v>
-      </c>
-      <c r="B149" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="C149" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="D149" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="E149" s="51" t="s">
-        <v>217</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B149" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E149" s="20"/>
       <c r="F149" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G149" s="20" t="s">
         <v>120</v>
@@ -6779,311 +6792,299 @@
         <v>298</v>
       </c>
       <c r="J149" s="19">
-        <f>340*9807000</f>
-        <v>3334380000</v>
+        <f>459*9807000</f>
+        <v>4501413000</v>
       </c>
       <c r="K149" s="19"/>
       <c r="L149" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M149" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="N149" s="28" t="s">
         <v>150</v>
+      </c>
+      <c r="N149" s="30" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="3">
-        <v>141</v>
-      </c>
-      <c r="B150" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="C150" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="D150" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="E150" s="51" t="s">
-        <v>217</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B150" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E150" s="20"/>
       <c r="F150" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G150" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H150" s="22"/>
-      <c r="I150" s="3">
-        <v>298</v>
+      <c r="I150" s="23">
+        <v>1673</v>
       </c>
       <c r="J150" s="19">
-        <f>340*9807000</f>
-        <v>3334380000</v>
+        <f>487*9807000</f>
+        <v>4776009000</v>
       </c>
       <c r="K150" s="19"/>
       <c r="L150" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M150" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="N150" s="28" t="s">
         <v>150</v>
+      </c>
+      <c r="N150" s="30" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="3">
-        <v>142</v>
-      </c>
-      <c r="B151" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="C151" s="50" t="s">
-        <v>114</v>
+        <v>145</v>
+      </c>
+      <c r="B151" s="20" t="s">
+        <v>108</v>
       </c>
       <c r="D151" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="E151" s="51" t="s">
-        <v>217</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="E151" s="20"/>
       <c r="F151" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G151" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H151" s="22"/>
-      <c r="I151" s="3">
-        <v>298</v>
+      <c r="I151" s="23">
+        <v>1273</v>
       </c>
       <c r="J151" s="19">
-        <f>331*9807000</f>
-        <v>3246117000</v>
+        <f>456*9807000</f>
+        <v>4471992000</v>
       </c>
       <c r="K151" s="19"/>
       <c r="L151" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M151" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="N151" s="28" t="s">
         <v>150</v>
+      </c>
+      <c r="N151" s="30" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="3">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B152" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D152" s="3" t="s">
-        <v>116</v>
+      <c r="D152" s="36" t="s">
+        <v>187</v>
       </c>
       <c r="E152" s="20"/>
       <c r="F152" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G152" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H152" s="22"/>
-      <c r="I152" s="3">
-        <v>298</v>
+      <c r="I152" s="23">
+        <v>1073</v>
       </c>
       <c r="J152" s="19">
+        <f>516*9807000</f>
+        <v>5060412000</v>
+      </c>
+      <c r="K152" s="19"/>
+      <c r="L152" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M152" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="N152" s="30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="A153" s="3">
+        <v>147</v>
+      </c>
+      <c r="B153" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E153" s="20"/>
+      <c r="F153" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="G153" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H153" s="22"/>
+      <c r="I153" s="23"/>
+      <c r="J153" s="19">
+        <f>445*9807000</f>
+        <v>4364115000</v>
+      </c>
+      <c r="K153" s="19"/>
+      <c r="L153" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M153" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="N153" s="30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="A154" s="3">
+        <v>148</v>
+      </c>
+      <c r="B154" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E154" s="20"/>
+      <c r="F154" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="G154" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H154" s="22"/>
+      <c r="I154" s="23">
+        <v>1673</v>
+      </c>
+      <c r="J154" s="19">
         <f>459*9807000</f>
         <v>4501413000</v>
       </c>
-      <c r="K152" s="19"/>
-      <c r="L152" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M152" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="N152" s="30" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
-      <c r="A153" s="3">
-        <v>144</v>
-      </c>
-      <c r="B153" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E153" s="20"/>
-      <c r="F153" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="G153" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="H153" s="22"/>
-      <c r="I153" s="23">
-        <v>1673</v>
-      </c>
-      <c r="J153" s="19">
-        <f>487*9807000</f>
-        <v>4776009000</v>
-      </c>
-      <c r="K153" s="19"/>
-      <c r="L153" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M153" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="N153" s="30" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
-      <c r="A154" s="3">
-        <v>145</v>
-      </c>
-      <c r="B154" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D154" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="E154" s="20"/>
-      <c r="F154" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="G154" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="H154" s="22"/>
-      <c r="I154" s="23">
-        <v>1273</v>
-      </c>
-      <c r="J154" s="19">
-        <f>456*9807000</f>
-        <v>4471992000</v>
-      </c>
       <c r="K154" s="19"/>
       <c r="L154" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M154" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="N154" s="30" t="s">
         <v>151</v>
-      </c>
-      <c r="N154" s="30" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="3">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D155" s="36" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E155" s="20"/>
       <c r="F155" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G155" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H155" s="22"/>
       <c r="I155" s="23">
-        <v>1073</v>
+        <v>1273</v>
       </c>
       <c r="J155" s="19">
-        <f>516*9807000</f>
-        <v>5060412000</v>
+        <f>459*9807000</f>
+        <v>4501413000</v>
       </c>
       <c r="K155" s="19"/>
       <c r="L155" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M155" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="N155" s="30" t="s">
         <v>151</v>
-      </c>
-      <c r="N155" s="30" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="3">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B156" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D156" s="3" t="s">
-        <v>116</v>
+      <c r="D156" s="36" t="s">
+        <v>187</v>
       </c>
       <c r="E156" s="20"/>
       <c r="F156" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G156" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H156" s="22"/>
-      <c r="I156" s="23"/>
+      <c r="I156" s="23">
+        <v>1073</v>
+      </c>
       <c r="J156" s="19">
-        <f>445*9807000</f>
-        <v>4364115000</v>
+        <f>522*9807000</f>
+        <v>5119254000</v>
       </c>
       <c r="K156" s="19"/>
       <c r="L156" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M156" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="N156" s="30" t="s">
         <v>151</v>
-      </c>
-      <c r="N156" s="30" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="3">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="E157" s="20"/>
       <c r="F157" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G157" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H157" s="22"/>
-      <c r="I157" s="23">
-        <v>1673</v>
-      </c>
+      <c r="I157" s="23"/>
       <c r="J157" s="19">
-        <f>459*9807000</f>
-        <v>4501413000</v>
+        <f>960*9807000</f>
+        <v>9414720000</v>
       </c>
       <c r="K157" s="19"/>
       <c r="L157" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M157" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N157" s="30" t="s">
         <v>152</v>
@@ -7091,35 +7092,33 @@
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="3">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D158" s="36" t="s">
-        <v>191</v>
+        <v>111</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="E158" s="20"/>
       <c r="F158" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G158" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H158" s="22"/>
-      <c r="I158" s="23">
-        <v>1273</v>
-      </c>
+      <c r="I158" s="23"/>
       <c r="J158" s="19">
-        <f>459*9807000</f>
-        <v>4501413000</v>
+        <f>920*9807000</f>
+        <v>9022440000</v>
       </c>
       <c r="K158" s="19"/>
       <c r="L158" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M158" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N158" s="30" t="s">
         <v>152</v>
@@ -7127,35 +7126,33 @@
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="3">
-        <v>150</v>
-      </c>
-      <c r="B159" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D159" s="36" t="s">
-        <v>191</v>
+        <v>153</v>
+      </c>
+      <c r="B159" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="E159" s="20"/>
       <c r="F159" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G159" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H159" s="22"/>
-      <c r="I159" s="23">
-        <v>1073</v>
-      </c>
+      <c r="I159" s="23"/>
       <c r="J159" s="19">
-        <f>522*9807000</f>
-        <v>5119254000</v>
+        <f>830*9807000</f>
+        <v>8139810000</v>
       </c>
       <c r="K159" s="19"/>
       <c r="L159" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M159" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N159" s="30" t="s">
         <v>152</v>
@@ -7163,17 +7160,17 @@
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="3">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B160" s="20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>114</v>
       </c>
       <c r="E160" s="20"/>
       <c r="F160" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G160" s="20" t="s">
         <v>120</v>
@@ -7181,33 +7178,33 @@
       <c r="H160" s="22"/>
       <c r="I160" s="23"/>
       <c r="J160" s="19">
-        <f>960*9807000</f>
-        <v>9414720000</v>
+        <f>840*9807000</f>
+        <v>8237880000</v>
       </c>
       <c r="K160" s="19"/>
       <c r="L160" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M160" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N160" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="3">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B161" s="20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>114</v>
       </c>
       <c r="E161" s="20"/>
       <c r="F161" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G161" s="20" t="s">
         <v>120</v>
@@ -7215,33 +7212,36 @@
       <c r="H161" s="22"/>
       <c r="I161" s="23"/>
       <c r="J161" s="19">
-        <f>920*9807000</f>
-        <v>9022440000</v>
+        <f>850*9807000</f>
+        <v>8335950000</v>
       </c>
       <c r="K161" s="19"/>
       <c r="L161" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M161" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N161" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="3">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B162" s="31" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="D162" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="E162" s="20"/>
       <c r="F162" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G162" s="20" t="s">
         <v>120</v>
@@ -7249,245 +7249,170 @@
       <c r="H162" s="22"/>
       <c r="I162" s="23"/>
       <c r="J162" s="19">
-        <f>830*9807000</f>
-        <v>8139810000</v>
+        <f>829*9807000</f>
+        <v>8130003000</v>
       </c>
       <c r="K162" s="19"/>
       <c r="L162" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M162" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="N162" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="N162" s="26" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="3">
-        <v>154</v>
-      </c>
-      <c r="B163" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>114</v>
+        <v>157</v>
+      </c>
+      <c r="B163" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C163" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D163" s="36" t="s">
+        <v>187</v>
       </c>
       <c r="E163" s="20"/>
       <c r="F163" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G163" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H163" s="22"/>
-      <c r="I163" s="23"/>
+      <c r="I163" s="23">
+        <v>1073</v>
+      </c>
       <c r="J163" s="19">
-        <f>840*9807000</f>
-        <v>8237880000</v>
+        <f>920*9807000</f>
+        <v>9022440000</v>
       </c>
       <c r="K163" s="19"/>
       <c r="L163" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M163" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="N163" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="N163" s="26" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="3">
-        <v>155</v>
-      </c>
-      <c r="B164" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E164" s="20"/>
+        <v>158</v>
+      </c>
+      <c r="B164" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C164" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="D164" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="E164" s="31" t="s">
+        <v>190</v>
+      </c>
       <c r="F164" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G164" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H164" s="22"/>
-      <c r="I164" s="23"/>
+      <c r="I164" s="23">
+        <v>1273</v>
+      </c>
       <c r="J164" s="19">
-        <f>850*9807000</f>
-        <v>8335950000</v>
+        <f>931*9807000</f>
+        <v>9130317000</v>
       </c>
       <c r="K164" s="19"/>
       <c r="L164" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M164" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="N164" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="N164" s="26" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="3">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B165" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C165" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D165" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="C165" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E165" s="20"/>
+      <c r="E165" s="31" t="s">
+        <v>190</v>
+      </c>
       <c r="F165" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G165" s="20" t="s">
         <v>120</v>
       </c>
       <c r="H165" s="22"/>
-      <c r="I165" s="23"/>
+      <c r="I165" s="23">
+        <v>1473</v>
+      </c>
       <c r="J165" s="19">
-        <f>829*9807000</f>
-        <v>8130003000</v>
+        <f>960*9807000</f>
+        <v>9414720000</v>
       </c>
       <c r="K165" s="19"/>
       <c r="L165" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M165" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N165" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="166" spans="1:14">
-      <c r="A166" s="3">
-        <v>157</v>
-      </c>
-      <c r="B166" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="C166" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="D166" s="36" t="s">
-        <v>191</v>
-      </c>
       <c r="E166" s="20"/>
-      <c r="F166" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="G166" s="20" t="s">
-        <v>120</v>
-      </c>
+      <c r="F166" s="31"/>
+      <c r="G166" s="20"/>
       <c r="H166" s="22"/>
-      <c r="I166" s="23">
-        <v>1073</v>
-      </c>
-      <c r="J166" s="19">
-        <f>920*9807000</f>
-        <v>9022440000</v>
-      </c>
+      <c r="I166" s="23"/>
       <c r="K166" s="19"/>
-      <c r="L166" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M166" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="N166" s="26" t="s">
-        <v>154</v>
-      </c>
+      <c r="L166" s="31"/>
+      <c r="M166" s="20"/>
     </row>
     <row r="167" spans="1:14">
-      <c r="A167" s="3">
-        <v>158</v>
-      </c>
-      <c r="B167" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="C167" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="D167" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="E167" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="F167" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="G167" s="20" t="s">
-        <v>120</v>
-      </c>
+      <c r="E167" s="20"/>
+      <c r="F167" s="31"/>
+      <c r="G167" s="20"/>
       <c r="H167" s="22"/>
-      <c r="I167" s="23">
-        <v>1273</v>
-      </c>
-      <c r="J167" s="19">
-        <f>931*9807000</f>
-        <v>9130317000</v>
-      </c>
+      <c r="I167" s="23"/>
       <c r="K167" s="19"/>
-      <c r="L167" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M167" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="N167" s="26" t="s">
-        <v>154</v>
-      </c>
+      <c r="L167" s="31"/>
+      <c r="M167" s="20"/>
     </row>
     <row r="168" spans="1:14">
-      <c r="A168" s="3">
-        <v>159</v>
-      </c>
-      <c r="B168" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="C168" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="D168" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="E168" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="F168" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="G168" s="20" t="s">
-        <v>120</v>
-      </c>
+      <c r="E168" s="20"/>
+      <c r="F168" s="31"/>
+      <c r="G168" s="20"/>
       <c r="H168" s="22"/>
-      <c r="I168" s="23">
-        <v>1473</v>
-      </c>
-      <c r="J168" s="19">
-        <f>960*9807000</f>
-        <v>9414720000</v>
-      </c>
+      <c r="I168" s="23"/>
       <c r="K168" s="19"/>
-      <c r="L168" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M168" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="N168" s="26" t="s">
-        <v>154</v>
-      </c>
+      <c r="L168" s="31"/>
+      <c r="M168" s="20"/>
     </row>
     <row r="169" spans="1:14">
       <c r="E169" s="20"/>
@@ -7650,8 +7575,9 @@
       <c r="M184" s="20"/>
     </row>
     <row r="185" spans="4:13">
+      <c r="D185" s="22"/>
       <c r="E185" s="20"/>
-      <c r="F185" s="31"/>
+      <c r="F185" s="32"/>
       <c r="G185" s="20"/>
       <c r="H185" s="22"/>
       <c r="I185" s="23"/>
@@ -7660,8 +7586,9 @@
       <c r="M185" s="20"/>
     </row>
     <row r="186" spans="4:13">
+      <c r="D186" s="22"/>
       <c r="E186" s="20"/>
-      <c r="F186" s="31"/>
+      <c r="F186" s="32"/>
       <c r="G186" s="20"/>
       <c r="H186" s="22"/>
       <c r="I186" s="23"/>
@@ -7670,8 +7597,9 @@
       <c r="M186" s="20"/>
     </row>
     <row r="187" spans="4:13">
+      <c r="D187" s="22"/>
       <c r="E187" s="20"/>
-      <c r="F187" s="31"/>
+      <c r="F187" s="32"/>
       <c r="G187" s="20"/>
       <c r="H187" s="22"/>
       <c r="I187" s="23"/>
@@ -8120,36 +8048,49 @@
       <c r="M227" s="20"/>
     </row>
     <row r="228" spans="1:14">
+      <c r="A228" s="24"/>
+      <c r="B228" s="20"/>
+      <c r="C228" s="22"/>
       <c r="D228" s="22"/>
       <c r="E228" s="20"/>
-      <c r="F228" s="32"/>
-      <c r="G228" s="20"/>
+      <c r="F228" s="22"/>
+      <c r="G228" s="22"/>
       <c r="H228" s="22"/>
       <c r="I228" s="23"/>
+      <c r="J228" s="19"/>
       <c r="K228" s="19"/>
-      <c r="L228" s="31"/>
+      <c r="L228" s="20"/>
       <c r="M228" s="20"/>
+      <c r="N228" s="26"/>
     </row>
     <row r="229" spans="1:14">
+      <c r="A229" s="24"/>
+      <c r="B229" s="20"/>
+      <c r="C229" s="22"/>
       <c r="D229" s="22"/>
       <c r="E229" s="20"/>
-      <c r="F229" s="32"/>
-      <c r="G229" s="20"/>
+      <c r="F229" s="22"/>
+      <c r="G229" s="22"/>
       <c r="H229" s="22"/>
       <c r="I229" s="23"/>
+      <c r="J229" s="19"/>
       <c r="K229" s="19"/>
-      <c r="L229" s="31"/>
+      <c r="L229" s="20"/>
       <c r="M229" s="20"/>
     </row>
     <row r="230" spans="1:14">
+      <c r="A230" s="24"/>
+      <c r="B230" s="20"/>
+      <c r="C230" s="22"/>
       <c r="D230" s="22"/>
       <c r="E230" s="20"/>
-      <c r="F230" s="32"/>
-      <c r="G230" s="20"/>
+      <c r="F230" s="22"/>
+      <c r="G230" s="22"/>
       <c r="H230" s="22"/>
       <c r="I230" s="23"/>
+      <c r="J230" s="19"/>
       <c r="K230" s="19"/>
-      <c r="L230" s="31"/>
+      <c r="L230" s="20"/>
       <c r="M230" s="20"/>
     </row>
     <row r="231" spans="1:14">
@@ -8166,7 +8107,6 @@
       <c r="K231" s="19"/>
       <c r="L231" s="20"/>
       <c r="M231" s="20"/>
-      <c r="N231" s="26"/>
     </row>
     <row r="232" spans="1:14">
       <c r="A232" s="24"/>
@@ -8242,6 +8182,7 @@
       <c r="K236" s="19"/>
       <c r="L236" s="20"/>
       <c r="M236" s="20"/>
+      <c r="N236" s="26"/>
     </row>
     <row r="237" spans="1:14">
       <c r="A237" s="24"/>
@@ -8287,7 +8228,6 @@
       <c r="K239" s="19"/>
       <c r="L239" s="20"/>
       <c r="M239" s="20"/>
-      <c r="N239" s="26"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="24"/>
@@ -8363,6 +8303,7 @@
       <c r="K244" s="19"/>
       <c r="L244" s="20"/>
       <c r="M244" s="20"/>
+      <c r="N244" s="26"/>
     </row>
     <row r="245" spans="1:14">
       <c r="A245" s="24"/>
@@ -8378,6 +8319,7 @@
       <c r="K245" s="19"/>
       <c r="L245" s="20"/>
       <c r="M245" s="20"/>
+      <c r="N245" s="26"/>
     </row>
     <row r="246" spans="1:14">
       <c r="A246" s="24"/>
@@ -8393,6 +8335,7 @@
       <c r="K246" s="19"/>
       <c r="L246" s="20"/>
       <c r="M246" s="20"/>
+      <c r="N246" s="26"/>
     </row>
     <row r="247" spans="1:14">
       <c r="A247" s="24"/>
@@ -8696,7 +8639,7 @@
       <c r="K265" s="19"/>
       <c r="L265" s="20"/>
       <c r="M265" s="20"/>
-      <c r="N265" s="26"/>
+      <c r="N265" s="28"/>
     </row>
     <row r="266" spans="1:14">
       <c r="A266" s="24"/>
@@ -8712,7 +8655,7 @@
       <c r="K266" s="19"/>
       <c r="L266" s="20"/>
       <c r="M266" s="20"/>
-      <c r="N266" s="26"/>
+      <c r="N266" s="28"/>
     </row>
     <row r="267" spans="1:14">
       <c r="A267" s="24"/>
@@ -8728,7 +8671,7 @@
       <c r="K267" s="19"/>
       <c r="L267" s="20"/>
       <c r="M267" s="20"/>
-      <c r="N267" s="26"/>
+      <c r="N267" s="28"/>
     </row>
     <row r="268" spans="1:14">
       <c r="A268" s="24"/>
@@ -8811,14 +8754,13 @@
       <c r="N272" s="28"/>
     </row>
     <row r="273" spans="1:14">
-      <c r="A273" s="24"/>
+      <c r="A273" s="11"/>
       <c r="B273" s="20"/>
-      <c r="C273" s="22"/>
-      <c r="D273" s="22"/>
-      <c r="E273" s="20"/>
-      <c r="F273" s="22"/>
-      <c r="G273" s="22"/>
-      <c r="H273" s="22"/>
+      <c r="C273" s="5"/>
+      <c r="D273" s="5"/>
+      <c r="F273" s="5"/>
+      <c r="G273" s="5"/>
+      <c r="H273" s="5"/>
       <c r="I273" s="23"/>
       <c r="J273" s="19"/>
       <c r="K273" s="19"/>
@@ -8827,14 +8769,13 @@
       <c r="N273" s="28"/>
     </row>
     <row r="274" spans="1:14">
-      <c r="A274" s="24"/>
+      <c r="A274" s="11"/>
       <c r="B274" s="20"/>
-      <c r="C274" s="22"/>
-      <c r="D274" s="22"/>
-      <c r="E274" s="20"/>
-      <c r="F274" s="22"/>
-      <c r="G274" s="22"/>
-      <c r="H274" s="22"/>
+      <c r="C274" s="5"/>
+      <c r="D274" s="5"/>
+      <c r="F274" s="5"/>
+      <c r="G274" s="5"/>
+      <c r="H274" s="5"/>
       <c r="I274" s="23"/>
       <c r="J274" s="19"/>
       <c r="K274" s="19"/>
@@ -8843,14 +8784,13 @@
       <c r="N274" s="28"/>
     </row>
     <row r="275" spans="1:14">
-      <c r="A275" s="24"/>
+      <c r="A275" s="11"/>
       <c r="B275" s="20"/>
-      <c r="C275" s="22"/>
-      <c r="D275" s="22"/>
-      <c r="E275" s="20"/>
-      <c r="F275" s="22"/>
-      <c r="G275" s="22"/>
-      <c r="H275" s="22"/>
+      <c r="C275" s="5"/>
+      <c r="D275" s="5"/>
+      <c r="F275" s="5"/>
+      <c r="G275" s="5"/>
+      <c r="H275" s="5"/>
       <c r="I275" s="23"/>
       <c r="J275" s="19"/>
       <c r="K275" s="19"/>
@@ -8871,7 +8811,7 @@
       <c r="K276" s="19"/>
       <c r="L276" s="20"/>
       <c r="M276" s="20"/>
-      <c r="N276" s="28"/>
+      <c r="N276" s="26"/>
     </row>
     <row r="277" spans="1:14">
       <c r="A277" s="11"/>
@@ -8886,7 +8826,7 @@
       <c r="K277" s="19"/>
       <c r="L277" s="20"/>
       <c r="M277" s="20"/>
-      <c r="N277" s="28"/>
+      <c r="N277" s="26"/>
     </row>
     <row r="278" spans="1:14">
       <c r="A278" s="11"/>
@@ -8901,7 +8841,7 @@
       <c r="K278" s="19"/>
       <c r="L278" s="20"/>
       <c r="M278" s="20"/>
-      <c r="N278" s="28"/>
+      <c r="N278" s="26"/>
     </row>
     <row r="279" spans="1:14">
       <c r="A279" s="11"/>
@@ -9111,7 +9051,7 @@
       <c r="K292" s="19"/>
       <c r="L292" s="20"/>
       <c r="M292" s="20"/>
-      <c r="N292" s="26"/>
+      <c r="N292" s="29"/>
     </row>
     <row r="293" spans="1:14">
       <c r="A293" s="11"/>
@@ -9126,7 +9066,7 @@
       <c r="K293" s="19"/>
       <c r="L293" s="20"/>
       <c r="M293" s="20"/>
-      <c r="N293" s="26"/>
+      <c r="N293" s="29"/>
     </row>
     <row r="294" spans="1:14">
       <c r="A294" s="11"/>
@@ -9141,7 +9081,7 @@
       <c r="K294" s="19"/>
       <c r="L294" s="20"/>
       <c r="M294" s="20"/>
-      <c r="N294" s="26"/>
+      <c r="N294" s="29"/>
     </row>
     <row r="295" spans="1:14">
       <c r="A295" s="11"/>
@@ -9171,7 +9111,7 @@
       <c r="K296" s="19"/>
       <c r="L296" s="20"/>
       <c r="M296" s="20"/>
-      <c r="N296" s="29"/>
+      <c r="N296" s="26"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="11"/>
@@ -9186,7 +9126,7 @@
       <c r="K297" s="19"/>
       <c r="L297" s="20"/>
       <c r="M297" s="20"/>
-      <c r="N297" s="29"/>
+      <c r="N297" s="26"/>
     </row>
     <row r="298" spans="1:14">
       <c r="A298" s="11"/>
@@ -9201,7 +9141,7 @@
       <c r="K298" s="19"/>
       <c r="L298" s="20"/>
       <c r="M298" s="20"/>
-      <c r="N298" s="29"/>
+      <c r="N298" s="26"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="11"/>
@@ -9336,7 +9276,7 @@
       <c r="K307" s="19"/>
       <c r="L307" s="20"/>
       <c r="M307" s="20"/>
-      <c r="N307" s="26"/>
+      <c r="N307" s="30"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="11"/>
@@ -9351,7 +9291,7 @@
       <c r="K308" s="19"/>
       <c r="L308" s="20"/>
       <c r="M308" s="20"/>
-      <c r="N308" s="26"/>
+      <c r="N308" s="30"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="11"/>
@@ -9366,7 +9306,7 @@
       <c r="K309" s="19"/>
       <c r="L309" s="20"/>
       <c r="M309" s="20"/>
-      <c r="N309" s="26"/>
+      <c r="N309" s="30"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="11"/>
@@ -9381,7 +9321,7 @@
       <c r="K310" s="19"/>
       <c r="L310" s="20"/>
       <c r="M310" s="20"/>
-      <c r="N310" s="30"/>
+      <c r="N310" s="28"/>
     </row>
     <row r="311" spans="1:14">
       <c r="A311" s="11"/>
@@ -9396,7 +9336,7 @@
       <c r="K311" s="19"/>
       <c r="L311" s="20"/>
       <c r="M311" s="20"/>
-      <c r="N311" s="30"/>
+      <c r="N311" s="28"/>
     </row>
     <row r="312" spans="1:14">
       <c r="A312" s="11"/>
@@ -9411,7 +9351,7 @@
       <c r="K312" s="19"/>
       <c r="L312" s="20"/>
       <c r="M312" s="20"/>
-      <c r="N312" s="30"/>
+      <c r="N312" s="28"/>
     </row>
     <row r="313" spans="1:14">
       <c r="A313" s="11"/>
@@ -9501,7 +9441,7 @@
       <c r="K318" s="19"/>
       <c r="L318" s="20"/>
       <c r="M318" s="20"/>
-      <c r="N318" s="28"/>
+      <c r="N318" s="30"/>
     </row>
     <row r="319" spans="1:14">
       <c r="A319" s="11"/>
@@ -9516,10 +9456,9 @@
       <c r="K319" s="19"/>
       <c r="L319" s="20"/>
       <c r="M319" s="20"/>
-      <c r="N319" s="28"/>
+      <c r="N319" s="30"/>
     </row>
     <row r="320" spans="1:14">
-      <c r="A320" s="11"/>
       <c r="B320" s="20"/>
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
@@ -9531,10 +9470,9 @@
       <c r="K320" s="19"/>
       <c r="L320" s="20"/>
       <c r="M320" s="20"/>
-      <c r="N320" s="28"/>
-    </row>
-    <row r="321" spans="1:14">
-      <c r="A321" s="11"/>
+      <c r="N320" s="30"/>
+    </row>
+    <row r="321" spans="2:14">
       <c r="B321" s="20"/>
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
@@ -9548,8 +9486,7 @@
       <c r="M321" s="20"/>
       <c r="N321" s="30"/>
     </row>
-    <row r="322" spans="1:14">
-      <c r="A322" s="11"/>
+    <row r="322" spans="2:14">
       <c r="B322" s="20"/>
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
@@ -9563,7 +9500,7 @@
       <c r="M322" s="20"/>
       <c r="N322" s="30"/>
     </row>
-    <row r="323" spans="1:14">
+    <row r="323" spans="2:14">
       <c r="B323" s="20"/>
       <c r="C323" s="5"/>
       <c r="D323" s="5"/>
@@ -9577,7 +9514,7 @@
       <c r="M323" s="20"/>
       <c r="N323" s="30"/>
     </row>
-    <row r="324" spans="1:14">
+    <row r="324" spans="2:14">
       <c r="B324" s="20"/>
       <c r="C324" s="5"/>
       <c r="D324" s="5"/>
@@ -9591,7 +9528,7 @@
       <c r="M324" s="20"/>
       <c r="N324" s="30"/>
     </row>
-    <row r="325" spans="1:14">
+    <row r="325" spans="2:14">
       <c r="B325" s="20"/>
       <c r="C325" s="5"/>
       <c r="D325" s="5"/>
@@ -9605,7 +9542,7 @@
       <c r="M325" s="20"/>
       <c r="N325" s="30"/>
     </row>
-    <row r="326" spans="1:14">
+    <row r="326" spans="2:14">
       <c r="B326" s="20"/>
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
@@ -9619,7 +9556,7 @@
       <c r="M326" s="20"/>
       <c r="N326" s="30"/>
     </row>
-    <row r="327" spans="1:14">
+    <row r="327" spans="2:14">
       <c r="B327" s="20"/>
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
@@ -9633,7 +9570,7 @@
       <c r="M327" s="20"/>
       <c r="N327" s="30"/>
     </row>
-    <row r="328" spans="1:14">
+    <row r="328" spans="2:14">
       <c r="B328" s="20"/>
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
@@ -9647,7 +9584,7 @@
       <c r="M328" s="20"/>
       <c r="N328" s="30"/>
     </row>
-    <row r="329" spans="1:14">
+    <row r="329" spans="2:14">
       <c r="B329" s="20"/>
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
@@ -9661,7 +9598,7 @@
       <c r="M329" s="20"/>
       <c r="N329" s="30"/>
     </row>
-    <row r="330" spans="1:14">
+    <row r="330" spans="2:14">
       <c r="B330" s="20"/>
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
@@ -9675,7 +9612,7 @@
       <c r="M330" s="20"/>
       <c r="N330" s="30"/>
     </row>
-    <row r="331" spans="1:14">
+    <row r="331" spans="2:14">
       <c r="B331" s="20"/>
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
@@ -9687,9 +9624,9 @@
       <c r="K331" s="19"/>
       <c r="L331" s="20"/>
       <c r="M331" s="20"/>
-      <c r="N331" s="30"/>
-    </row>
-    <row r="332" spans="1:14">
+      <c r="N331" s="26"/>
+    </row>
+    <row r="332" spans="2:14">
       <c r="B332" s="20"/>
       <c r="C332" s="5"/>
       <c r="D332" s="5"/>
@@ -9701,9 +9638,9 @@
       <c r="K332" s="19"/>
       <c r="L332" s="20"/>
       <c r="M332" s="20"/>
-      <c r="N332" s="30"/>
-    </row>
-    <row r="333" spans="1:14">
+      <c r="N332" s="26"/>
+    </row>
+    <row r="333" spans="2:14">
       <c r="B333" s="20"/>
       <c r="C333" s="5"/>
       <c r="D333" s="5"/>
@@ -9715,9 +9652,9 @@
       <c r="K333" s="19"/>
       <c r="L333" s="20"/>
       <c r="M333" s="20"/>
-      <c r="N333" s="30"/>
-    </row>
-    <row r="334" spans="1:14">
+      <c r="N333" s="26"/>
+    </row>
+    <row r="334" spans="2:14">
       <c r="B334" s="20"/>
       <c r="C334" s="5"/>
       <c r="D334" s="5"/>
@@ -9731,49 +9668,46 @@
       <c r="M334" s="20"/>
       <c r="N334" s="26"/>
     </row>
-    <row r="335" spans="1:14">
-      <c r="B335" s="20"/>
+    <row r="335" spans="2:14">
       <c r="C335" s="5"/>
       <c r="D335" s="5"/>
       <c r="F335" s="5"/>
       <c r="G335" s="5"/>
       <c r="H335" s="5"/>
-      <c r="I335" s="23"/>
+      <c r="I335" s="18"/>
       <c r="J335" s="19"/>
       <c r="K335" s="19"/>
       <c r="L335" s="20"/>
       <c r="M335" s="20"/>
-      <c r="N335" s="26"/>
-    </row>
-    <row r="336" spans="1:14">
-      <c r="B336" s="20"/>
+      <c r="N335" s="20"/>
+    </row>
+    <row r="336" spans="2:14">
       <c r="C336" s="5"/>
       <c r="D336" s="5"/>
       <c r="F336" s="5"/>
       <c r="G336" s="5"/>
       <c r="H336" s="5"/>
-      <c r="I336" s="23"/>
+      <c r="I336" s="18"/>
       <c r="J336" s="19"/>
       <c r="K336" s="19"/>
       <c r="L336" s="20"/>
       <c r="M336" s="20"/>
-      <c r="N336" s="26"/>
-    </row>
-    <row r="337" spans="2:14">
-      <c r="B337" s="20"/>
+      <c r="N336" s="20"/>
+    </row>
+    <row r="337" spans="3:14">
       <c r="C337" s="5"/>
       <c r="D337" s="5"/>
       <c r="F337" s="5"/>
       <c r="G337" s="5"/>
       <c r="H337" s="5"/>
-      <c r="I337" s="23"/>
+      <c r="I337" s="18"/>
       <c r="J337" s="19"/>
       <c r="K337" s="19"/>
       <c r="L337" s="20"/>
       <c r="M337" s="20"/>
-      <c r="N337" s="26"/>
-    </row>
-    <row r="338" spans="2:14">
+      <c r="N337" s="20"/>
+    </row>
+    <row r="338" spans="3:14">
       <c r="C338" s="5"/>
       <c r="D338" s="5"/>
       <c r="F338" s="5"/>
@@ -9786,7 +9720,7 @@
       <c r="M338" s="20"/>
       <c r="N338" s="20"/>
     </row>
-    <row r="339" spans="2:14">
+    <row r="339" spans="3:14">
       <c r="C339" s="5"/>
       <c r="D339" s="5"/>
       <c r="F339" s="5"/>
@@ -9799,7 +9733,7 @@
       <c r="M339" s="20"/>
       <c r="N339" s="20"/>
     </row>
-    <row r="340" spans="2:14">
+    <row r="340" spans="3:14">
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
       <c r="F340" s="5"/>
@@ -9812,7 +9746,7 @@
       <c r="M340" s="20"/>
       <c r="N340" s="20"/>
     </row>
-    <row r="341" spans="2:14">
+    <row r="341" spans="3:14">
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
       <c r="F341" s="5"/>
@@ -9825,7 +9759,7 @@
       <c r="M341" s="20"/>
       <c r="N341" s="20"/>
     </row>
-    <row r="342" spans="2:14">
+    <row r="342" spans="3:14">
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
       <c r="F342" s="5"/>
@@ -9838,7 +9772,7 @@
       <c r="M342" s="20"/>
       <c r="N342" s="20"/>
     </row>
-    <row r="343" spans="2:14">
+    <row r="343" spans="3:14">
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
       <c r="F343" s="5"/>
@@ -9851,7 +9785,7 @@
       <c r="M343" s="20"/>
       <c r="N343" s="20"/>
     </row>
-    <row r="344" spans="2:14">
+    <row r="344" spans="3:14">
       <c r="C344" s="5"/>
       <c r="D344" s="5"/>
       <c r="F344" s="5"/>
@@ -9864,7 +9798,7 @@
       <c r="M344" s="20"/>
       <c r="N344" s="20"/>
     </row>
-    <row r="345" spans="2:14">
+    <row r="345" spans="3:14">
       <c r="C345" s="5"/>
       <c r="D345" s="5"/>
       <c r="F345" s="5"/>
@@ -9877,7 +9811,7 @@
       <c r="M345" s="20"/>
       <c r="N345" s="20"/>
     </row>
-    <row r="346" spans="2:14">
+    <row r="346" spans="3:14">
       <c r="C346" s="5"/>
       <c r="D346" s="5"/>
       <c r="F346" s="5"/>
@@ -9890,7 +9824,7 @@
       <c r="M346" s="20"/>
       <c r="N346" s="20"/>
     </row>
-    <row r="347" spans="2:14">
+    <row r="347" spans="3:14">
       <c r="C347" s="5"/>
       <c r="D347" s="5"/>
       <c r="F347" s="5"/>
@@ -9903,7 +9837,7 @@
       <c r="M347" s="20"/>
       <c r="N347" s="20"/>
     </row>
-    <row r="348" spans="2:14">
+    <row r="348" spans="3:14">
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
       <c r="F348" s="5"/>
@@ -9916,7 +9850,7 @@
       <c r="M348" s="20"/>
       <c r="N348" s="20"/>
     </row>
-    <row r="349" spans="2:14">
+    <row r="349" spans="3:14">
       <c r="C349" s="5"/>
       <c r="D349" s="5"/>
       <c r="F349" s="5"/>
@@ -9929,7 +9863,7 @@
       <c r="M349" s="20"/>
       <c r="N349" s="20"/>
     </row>
-    <row r="350" spans="2:14">
+    <row r="350" spans="3:14">
       <c r="C350" s="5"/>
       <c r="D350" s="5"/>
       <c r="F350" s="5"/>
@@ -9942,7 +9876,7 @@
       <c r="M350" s="20"/>
       <c r="N350" s="20"/>
     </row>
-    <row r="351" spans="2:14">
+    <row r="351" spans="3:14">
       <c r="C351" s="5"/>
       <c r="D351" s="5"/>
       <c r="F351" s="5"/>
@@ -9955,7 +9889,7 @@
       <c r="M351" s="20"/>
       <c r="N351" s="20"/>
     </row>
-    <row r="352" spans="2:14">
+    <row r="352" spans="3:14">
       <c r="C352" s="5"/>
       <c r="D352" s="5"/>
       <c r="F352" s="5"/>
@@ -11163,45 +11097,6 @@
       <c r="L444" s="20"/>
       <c r="M444" s="20"/>
       <c r="N444" s="20"/>
-    </row>
-    <row r="445" spans="3:14">
-      <c r="C445" s="5"/>
-      <c r="D445" s="5"/>
-      <c r="F445" s="5"/>
-      <c r="G445" s="5"/>
-      <c r="H445" s="5"/>
-      <c r="I445" s="18"/>
-      <c r="J445" s="19"/>
-      <c r="K445" s="19"/>
-      <c r="L445" s="20"/>
-      <c r="M445" s="20"/>
-      <c r="N445" s="20"/>
-    </row>
-    <row r="446" spans="3:14">
-      <c r="C446" s="5"/>
-      <c r="D446" s="5"/>
-      <c r="F446" s="5"/>
-      <c r="G446" s="5"/>
-      <c r="H446" s="5"/>
-      <c r="I446" s="18"/>
-      <c r="J446" s="19"/>
-      <c r="K446" s="19"/>
-      <c r="L446" s="20"/>
-      <c r="M446" s="20"/>
-      <c r="N446" s="20"/>
-    </row>
-    <row r="447" spans="3:14">
-      <c r="C447" s="5"/>
-      <c r="D447" s="5"/>
-      <c r="F447" s="5"/>
-      <c r="G447" s="5"/>
-      <c r="H447" s="5"/>
-      <c r="I447" s="18"/>
-      <c r="J447" s="19"/>
-      <c r="K447" s="19"/>
-      <c r="L447" s="20"/>
-      <c r="M447" s="20"/>
-      <c r="N447" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -11260,14 +11155,14 @@
     <hyperlink ref="N48" r:id="rId31" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.apsusc.2015.06.144" xr:uid="{704921CC-C8E2-464E-BC7A-DC08544C776F}"/>
     <hyperlink ref="N50" r:id="rId32" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.apsusc.2015.06.144" xr:uid="{00D93C46-189D-C846-93F4-F22C51020844}"/>
     <hyperlink ref="N51" r:id="rId33" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.apsusc.2015.06.144" xr:uid="{DC4CA17A-631B-6A40-AF61-57AA255452FB}"/>
-    <hyperlink ref="N134" r:id="rId34" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{40D0BFA4-26A7-AB49-B4AC-7F69BBE04DBA}"/>
-    <hyperlink ref="N135" r:id="rId35" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{F035D85F-3E3C-944D-B994-D6DF456BA947}"/>
-    <hyperlink ref="N136" r:id="rId36" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{D15E9247-F3FB-DA4D-BA2F-90D1BA171F67}"/>
-    <hyperlink ref="N138" r:id="rId37" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{F489F2C3-9FCB-7749-A957-209996C88122}"/>
-    <hyperlink ref="N140" r:id="rId38" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{240582A7-EB47-7E49-8BFC-1E20D9179D29}"/>
-    <hyperlink ref="N137" r:id="rId39" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{4277758D-7704-1043-B0F7-DFE0405B8FC0}"/>
-    <hyperlink ref="N139" r:id="rId40" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{78AD1C2D-7233-1643-9FA7-DAC9FECDF47D}"/>
-    <hyperlink ref="N141" r:id="rId41" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{5B661B0E-1463-7F48-AA96-8F92169B7B63}"/>
+    <hyperlink ref="N131" r:id="rId34" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{40D0BFA4-26A7-AB49-B4AC-7F69BBE04DBA}"/>
+    <hyperlink ref="N132" r:id="rId35" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{F035D85F-3E3C-944D-B994-D6DF456BA947}"/>
+    <hyperlink ref="N133" r:id="rId36" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{D15E9247-F3FB-DA4D-BA2F-90D1BA171F67}"/>
+    <hyperlink ref="N135" r:id="rId37" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{F489F2C3-9FCB-7749-A957-209996C88122}"/>
+    <hyperlink ref="N137" r:id="rId38" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{240582A7-EB47-7E49-8BFC-1E20D9179D29}"/>
+    <hyperlink ref="N134" r:id="rId39" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{4277758D-7704-1043-B0F7-DFE0405B8FC0}"/>
+    <hyperlink ref="N136" r:id="rId40" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{78AD1C2D-7233-1643-9FA7-DAC9FECDF47D}"/>
+    <hyperlink ref="N138" r:id="rId41" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{5B661B0E-1463-7F48-AA96-8F92169B7B63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId42"/>

--- a/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
+++ b/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-guest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBA0CB3-16A8-F349-915E-478C44BD0A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD3BB3C-CD68-0540-BBE3-FED438962957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="219">
   <si>
     <t>Name:</t>
   </si>
@@ -346,9 +346,6 @@
   </si>
   <si>
     <t>Hf20 Nb20 Ta20 Ti20 Zr20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V20 Nb20 Mo20 Ta20 W20 </t>
   </si>
   <si>
     <t>Co25 Cr25 Fe25 Ni25</t>
@@ -530,23 +527,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri (Corpo)"/>
-      </rPr>
-      <t>10.1016/j.jallcom.2018.07.331</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF2196D1"/>
-        <rFont val="AdvOT863180fb"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Ru53 Ta32 Zr15 </t>
   </si>
   <si>
@@ -716,6 +696,15 @@
   </si>
   <si>
     <t>sintered at 2100*C under 35 MPa for 25–30min; high temperature tensile data present but not extracted here</t>
+  </si>
+  <si>
+    <t>SPS for 30min at 30MPa at 1773K</t>
+  </si>
+  <si>
+    <t>SPS for 30min at 30MPa at 1973K</t>
+  </si>
+  <si>
+    <t>SPS for 30min at 30MPa at 1873K</t>
   </si>
 </sst>
 </file>
@@ -1295,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T444"/>
+  <dimension ref="A1:T440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O123" sqref="O123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1332,14 +1321,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D2" s="45" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="45"/>
       <c r="F2" s="43" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
@@ -1356,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="45"/>
       <c r="E3" s="45"/>
@@ -1417,7 +1406,7 @@
         <v>30</v>
       </c>
       <c r="M5" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N5" s="42" t="s">
         <v>46</v>
@@ -1601,17 +1590,17 @@
         <v>60</v>
       </c>
       <c r="C10" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="23">
@@ -1626,10 +1615,10 @@
         <v>47</v>
       </c>
       <c r="M10" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N10" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="N10" s="25" t="s">
-        <v>122</v>
       </c>
       <c r="O10" s="20"/>
     </row>
@@ -1641,17 +1630,17 @@
         <v>60</v>
       </c>
       <c r="C11" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="23">
@@ -1666,10 +1655,10 @@
         <v>47</v>
       </c>
       <c r="M11" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N11" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="N11" s="25" t="s">
-        <v>122</v>
       </c>
       <c r="O11" s="20"/>
     </row>
@@ -1681,17 +1670,17 @@
         <v>60</v>
       </c>
       <c r="C12" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="23">
@@ -1706,10 +1695,10 @@
         <v>47</v>
       </c>
       <c r="M12" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N12" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="N12" s="25" t="s">
-        <v>122</v>
       </c>
       <c r="O12" s="33"/>
     </row>
@@ -1721,17 +1710,17 @@
         <v>60</v>
       </c>
       <c r="C13" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="23">
@@ -1746,10 +1735,10 @@
         <v>47</v>
       </c>
       <c r="M13" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="N13" s="25" t="s">
-        <v>122</v>
       </c>
       <c r="O13" s="20"/>
     </row>
@@ -1761,17 +1750,17 @@
         <v>60</v>
       </c>
       <c r="C14" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="23">
@@ -1786,10 +1775,10 @@
         <v>47</v>
       </c>
       <c r="M14" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N14" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="N14" s="25" t="s">
-        <v>122</v>
       </c>
       <c r="O14" s="20"/>
     </row>
@@ -1801,17 +1790,17 @@
         <v>60</v>
       </c>
       <c r="C15" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="23">
@@ -1826,10 +1815,10 @@
         <v>47</v>
       </c>
       <c r="M15" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N15" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="N15" s="25" t="s">
-        <v>122</v>
       </c>
       <c r="O15" s="20"/>
     </row>
@@ -1841,17 +1830,17 @@
         <v>60</v>
       </c>
       <c r="C16" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="23">
@@ -1866,10 +1855,10 @@
         <v>47</v>
       </c>
       <c r="M16" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N16" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="N16" s="25" t="s">
-        <v>122</v>
       </c>
       <c r="O16" s="20"/>
     </row>
@@ -1881,17 +1870,17 @@
         <v>60</v>
       </c>
       <c r="C17" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="23">
@@ -1906,10 +1895,10 @@
         <v>47</v>
       </c>
       <c r="M17" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N17" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="N17" s="25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1920,17 +1909,17 @@
         <v>60</v>
       </c>
       <c r="C18" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="23">
@@ -1945,10 +1934,10 @@
         <v>47</v>
       </c>
       <c r="M18" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N18" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="N18" s="25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1959,17 +1948,17 @@
         <v>60</v>
       </c>
       <c r="C19" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H19" s="22"/>
       <c r="I19" s="23">
@@ -1984,10 +1973,10 @@
         <v>47</v>
       </c>
       <c r="M19" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N19" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="N19" s="25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1998,17 +1987,17 @@
         <v>60</v>
       </c>
       <c r="C20" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="23">
@@ -2023,10 +2012,10 @@
         <v>47</v>
       </c>
       <c r="M20" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N20" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="N20" s="25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2037,17 +2026,17 @@
         <v>60</v>
       </c>
       <c r="C21" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H21" s="22"/>
       <c r="I21" s="23">
@@ -2062,10 +2051,10 @@
         <v>47</v>
       </c>
       <c r="M21" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N21" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="N21" s="25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2076,17 +2065,17 @@
         <v>60</v>
       </c>
       <c r="C22" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="23">
@@ -2101,10 +2090,10 @@
         <v>47</v>
       </c>
       <c r="M22" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N22" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="N22" s="25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2115,17 +2104,17 @@
         <v>61</v>
       </c>
       <c r="C23" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="23">
@@ -2140,10 +2129,10 @@
         <v>47</v>
       </c>
       <c r="M23" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N23" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="N23" s="25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2154,17 +2143,17 @@
         <v>61</v>
       </c>
       <c r="C24" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="23">
@@ -2179,10 +2168,10 @@
         <v>47</v>
       </c>
       <c r="M24" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N24" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="N24" s="25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2193,17 +2182,17 @@
         <v>61</v>
       </c>
       <c r="C25" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="23">
@@ -2218,10 +2207,10 @@
         <v>47</v>
       </c>
       <c r="M25" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N25" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="N25" s="25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2232,17 +2221,17 @@
         <v>61</v>
       </c>
       <c r="C26" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="23">
@@ -2257,10 +2246,10 @@
         <v>47</v>
       </c>
       <c r="M26" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N26" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="N26" s="25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2271,17 +2260,17 @@
         <v>61</v>
       </c>
       <c r="C27" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="23">
@@ -2296,10 +2285,10 @@
         <v>47</v>
       </c>
       <c r="M27" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N27" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="N27" s="25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2310,17 +2299,17 @@
         <v>61</v>
       </c>
       <c r="C28" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="23">
@@ -2335,10 +2324,10 @@
         <v>47</v>
       </c>
       <c r="M28" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N28" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="N28" s="25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2349,17 +2338,17 @@
         <v>61</v>
       </c>
       <c r="C29" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="23">
@@ -2374,10 +2363,10 @@
         <v>47</v>
       </c>
       <c r="M29" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N29" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="N29" s="25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2388,17 +2377,17 @@
         <v>61</v>
       </c>
       <c r="C30" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="23">
@@ -2413,10 +2402,10 @@
         <v>47</v>
       </c>
       <c r="M30" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N30" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="N30" s="25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2427,17 +2416,17 @@
         <v>61</v>
       </c>
       <c r="C31" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="23">
@@ -2452,10 +2441,10 @@
         <v>47</v>
       </c>
       <c r="M31" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N31" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="N31" s="25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2466,17 +2455,17 @@
         <v>61</v>
       </c>
       <c r="C32" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H32" s="22"/>
       <c r="I32" s="23">
@@ -2491,10 +2480,10 @@
         <v>47</v>
       </c>
       <c r="M32" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N32" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="N32" s="25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2505,17 +2494,17 @@
         <v>61</v>
       </c>
       <c r="C33" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H33" s="22"/>
       <c r="I33" s="23">
@@ -2530,10 +2519,10 @@
         <v>47</v>
       </c>
       <c r="M33" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N33" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="N33" s="25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2544,17 +2533,17 @@
         <v>61</v>
       </c>
       <c r="C34" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H34" s="22"/>
       <c r="I34" s="23">
@@ -2569,10 +2558,10 @@
         <v>47</v>
       </c>
       <c r="M34" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N34" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="N34" s="25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2583,17 +2572,17 @@
         <v>61</v>
       </c>
       <c r="C35" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H35" s="22"/>
       <c r="I35" s="23">
@@ -2608,10 +2597,10 @@
         <v>47</v>
       </c>
       <c r="M35" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N35" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="N35" s="25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2622,14 +2611,14 @@
         <v>62</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H36" s="22"/>
       <c r="I36" s="23">
@@ -2644,10 +2633,10 @@
         <v>47</v>
       </c>
       <c r="M36" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="N36" s="26" t="s">
         <v>123</v>
-      </c>
-      <c r="N36" s="26" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2658,14 +2647,14 @@
         <v>63</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H37" s="22"/>
       <c r="I37" s="23">
@@ -2680,10 +2669,10 @@
         <v>47</v>
       </c>
       <c r="M37" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="N37" s="26" t="s">
         <v>123</v>
-      </c>
-      <c r="N37" s="26" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2694,14 +2683,14 @@
         <v>64</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H38" s="22"/>
       <c r="I38" s="23">
@@ -2715,10 +2704,10 @@
         <v>47</v>
       </c>
       <c r="M38" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="N38" s="26" t="s">
         <v>123</v>
-      </c>
-      <c r="N38" s="26" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2729,14 +2718,14 @@
         <v>65</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H39" s="22"/>
       <c r="I39" s="23">
@@ -2750,10 +2739,10 @@
         <v>47</v>
       </c>
       <c r="M39" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="N39" s="26" t="s">
         <v>123</v>
-      </c>
-      <c r="N39" s="26" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2764,14 +2753,14 @@
         <v>66</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H40" s="22"/>
       <c r="I40" s="23">
@@ -2785,10 +2774,10 @@
         <v>47</v>
       </c>
       <c r="M40" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="N40" s="26" t="s">
         <v>123</v>
-      </c>
-      <c r="N40" s="26" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2799,14 +2788,14 @@
         <v>67</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H41" s="22"/>
       <c r="I41" s="23">
@@ -2821,7 +2810,7 @@
       </c>
       <c r="M41" s="20"/>
       <c r="N41" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2829,18 +2818,18 @@
         <v>33</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H42" s="22"/>
       <c r="I42" s="23">
@@ -2854,10 +2843,10 @@
         <v>47</v>
       </c>
       <c r="M42" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N42" s="26" t="s">
         <v>126</v>
-      </c>
-      <c r="N42" s="26" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2869,14 +2858,14 @@
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H43" s="22"/>
       <c r="I43" s="23">
@@ -2890,10 +2879,10 @@
         <v>47</v>
       </c>
       <c r="M43" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N43" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2905,14 +2894,14 @@
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H44" s="22"/>
       <c r="I44" s="23">
@@ -2926,10 +2915,10 @@
         <v>47</v>
       </c>
       <c r="M44" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N44" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2941,14 +2930,14 @@
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H45" s="22"/>
       <c r="I45" s="23">
@@ -2962,10 +2951,10 @@
         <v>47</v>
       </c>
       <c r="M45" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N45" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2973,18 +2962,18 @@
         <v>37</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H46" s="22"/>
       <c r="I46" s="23">
@@ -2998,10 +2987,10 @@
         <v>47</v>
       </c>
       <c r="M46" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N46" s="35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3013,14 +3002,14 @@
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H47" s="22"/>
       <c r="I47" s="23">
@@ -3034,10 +3023,10 @@
         <v>47</v>
       </c>
       <c r="M47" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N47" s="35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3045,18 +3034,18 @@
         <v>39</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H48" s="22"/>
       <c r="I48" s="23">
@@ -3070,10 +3059,10 @@
         <v>47</v>
       </c>
       <c r="M48" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N48" s="35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3081,18 +3070,18 @@
         <v>40</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H49" s="22"/>
       <c r="I49" s="23">
@@ -3106,10 +3095,10 @@
         <v>47</v>
       </c>
       <c r="M49" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N49" s="35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3121,14 +3110,14 @@
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H50" s="22"/>
       <c r="I50" s="23">
@@ -3142,10 +3131,10 @@
         <v>47</v>
       </c>
       <c r="M50" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N50" s="35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3157,14 +3146,14 @@
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H51" s="22"/>
       <c r="I51" s="23">
@@ -3178,10 +3167,10 @@
         <v>47</v>
       </c>
       <c r="M51" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N51" s="35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3194,10 +3183,10 @@
       <c r="C52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H52" s="22"/>
       <c r="I52" s="23">
@@ -3211,10 +3200,10 @@
         <v>47</v>
       </c>
       <c r="M52" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N52" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3222,15 +3211,15 @@
         <v>44</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C53" s="20"/>
       <c r="E53" s="20"/>
       <c r="F53" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H53" s="22"/>
       <c r="I53" s="23">
@@ -3244,10 +3233,10 @@
         <v>47</v>
       </c>
       <c r="M53" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N53" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3255,15 +3244,15 @@
         <v>45</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C54" s="20"/>
       <c r="E54" s="20"/>
       <c r="F54" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H54" s="22"/>
       <c r="I54" s="23">
@@ -3277,10 +3266,10 @@
         <v>47</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3288,15 +3277,15 @@
         <v>46</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C55" s="20"/>
       <c r="E55" s="20"/>
       <c r="F55" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H55" s="22"/>
       <c r="I55" s="23">
@@ -3310,10 +3299,10 @@
         <v>47</v>
       </c>
       <c r="M55" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3321,15 +3310,15 @@
         <v>47</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H56" s="22"/>
       <c r="I56" s="23">
@@ -3343,10 +3332,10 @@
         <v>47</v>
       </c>
       <c r="M56" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3354,15 +3343,15 @@
         <v>48</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C57" s="20"/>
       <c r="E57" s="20"/>
       <c r="F57" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="23">
@@ -3376,10 +3365,10 @@
         <v>47</v>
       </c>
       <c r="M57" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3391,14 +3380,14 @@
       </c>
       <c r="C58" s="20"/>
       <c r="D58" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H58" s="22"/>
       <c r="I58" s="23"/>
@@ -3411,10 +3400,10 @@
         <v>47</v>
       </c>
       <c r="M58" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N58" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3426,14 +3415,14 @@
       </c>
       <c r="C59" s="20"/>
       <c r="D59" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H59" s="22"/>
       <c r="I59" s="23"/>
@@ -3446,10 +3435,10 @@
         <v>47</v>
       </c>
       <c r="M59" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3461,14 +3450,14 @@
       </c>
       <c r="C60" s="20"/>
       <c r="D60" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H60" s="22"/>
       <c r="I60" s="23"/>
@@ -3481,10 +3470,10 @@
         <v>47</v>
       </c>
       <c r="M60" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3496,14 +3485,14 @@
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H61" s="22"/>
       <c r="I61" s="23"/>
@@ -3516,10 +3505,10 @@
         <v>47</v>
       </c>
       <c r="M61" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3530,17 +3519,17 @@
         <v>72</v>
       </c>
       <c r="C62" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H62" s="22"/>
       <c r="I62" s="23">
@@ -3555,10 +3544,10 @@
         <v>47</v>
       </c>
       <c r="M62" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3569,17 +3558,17 @@
         <v>73</v>
       </c>
       <c r="C63" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E63" s="20"/>
       <c r="F63" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H63" s="22"/>
       <c r="I63" s="23">
@@ -3594,10 +3583,10 @@
         <v>47</v>
       </c>
       <c r="M63" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3608,17 +3597,17 @@
         <v>74</v>
       </c>
       <c r="C64" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H64" s="22"/>
       <c r="I64" s="23">
@@ -3633,10 +3622,10 @@
         <v>47</v>
       </c>
       <c r="M64" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3647,17 +3636,17 @@
         <v>75</v>
       </c>
       <c r="C65" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H65" s="22"/>
       <c r="I65" s="23">
@@ -3672,10 +3661,10 @@
         <v>47</v>
       </c>
       <c r="M65" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3686,17 +3675,17 @@
         <v>76</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E66" s="20"/>
       <c r="F66" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H66" s="22"/>
       <c r="I66" s="23"/>
@@ -3709,10 +3698,10 @@
         <v>47</v>
       </c>
       <c r="M66" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N66" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3723,17 +3712,17 @@
         <v>77</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H67" s="22"/>
       <c r="I67" s="23"/>
@@ -3746,10 +3735,10 @@
         <v>47</v>
       </c>
       <c r="M67" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3760,17 +3749,17 @@
         <v>78</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E68" s="20"/>
       <c r="F68" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H68" s="22"/>
       <c r="I68" s="23"/>
@@ -3783,10 +3772,10 @@
         <v>47</v>
       </c>
       <c r="M68" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3797,17 +3786,17 @@
         <v>79</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H69" s="22"/>
       <c r="I69" s="23"/>
@@ -3820,10 +3809,10 @@
         <v>47</v>
       </c>
       <c r="M69" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3834,17 +3823,17 @@
         <v>80</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E70" s="20"/>
       <c r="F70" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H70" s="22"/>
       <c r="I70" s="23"/>
@@ -3857,10 +3846,10 @@
         <v>47</v>
       </c>
       <c r="M70" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3871,17 +3860,17 @@
         <v>81</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E71" s="20"/>
       <c r="F71" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H71" s="22"/>
       <c r="I71" s="23"/>
@@ -3894,10 +3883,10 @@
         <v>47</v>
       </c>
       <c r="M71" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3908,17 +3897,17 @@
         <v>82</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H72" s="22"/>
       <c r="I72" s="23"/>
@@ -3931,10 +3920,10 @@
         <v>47</v>
       </c>
       <c r="M72" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3945,17 +3934,17 @@
         <v>83</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E73" s="20"/>
       <c r="F73" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H73" s="22"/>
       <c r="I73" s="23"/>
@@ -3968,10 +3957,10 @@
         <v>47</v>
       </c>
       <c r="M73" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3979,15 +3968,15 @@
         <v>65</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H74" s="22"/>
       <c r="I74" s="23">
@@ -4002,7 +3991,7 @@
       </c>
       <c r="M74" s="20"/>
       <c r="N74" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4010,15 +3999,15 @@
         <v>66</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G75" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H75" s="22"/>
       <c r="I75" s="23">
@@ -4033,7 +4022,7 @@
       </c>
       <c r="M75" s="20"/>
       <c r="N75" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -4041,15 +4030,15 @@
         <v>67</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C76" s="20"/>
       <c r="E76" s="20"/>
       <c r="F76" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G76" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H76" s="22"/>
       <c r="I76" s="23">
@@ -4064,7 +4053,7 @@
       </c>
       <c r="M76" s="20"/>
       <c r="N76" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4075,19 +4064,19 @@
         <v>84</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D77" s="50" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E77" s="49" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F77" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H77" s="22"/>
       <c r="I77" s="23">
@@ -4102,10 +4091,10 @@
         <v>47</v>
       </c>
       <c r="M77" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="N77" s="26" t="s">
         <v>133</v>
-      </c>
-      <c r="N77" s="26" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -4113,22 +4102,22 @@
         <v>72</v>
       </c>
       <c r="B78" s="49" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D78" s="50" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E78" s="49" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F78" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H78" s="22"/>
       <c r="I78" s="23">
@@ -4143,10 +4132,10 @@
         <v>47</v>
       </c>
       <c r="M78" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="N78" s="26" t="s">
         <v>133</v>
-      </c>
-      <c r="N78" s="26" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4154,22 +4143,22 @@
         <v>73</v>
       </c>
       <c r="B79" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D79" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="E79" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="C79" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D79" s="50" t="s">
-        <v>187</v>
-      </c>
-      <c r="E79" s="49" t="s">
-        <v>217</v>
-      </c>
       <c r="F79" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H79" s="22"/>
       <c r="I79" s="23">
@@ -4184,10 +4173,10 @@
         <v>47</v>
       </c>
       <c r="M79" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="N79" s="26" t="s">
         <v>133</v>
-      </c>
-      <c r="N79" s="26" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4195,22 +4184,22 @@
         <v>74</v>
       </c>
       <c r="B80" s="49" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D80" s="50" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E80" s="49" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F80" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G80" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H80" s="22"/>
       <c r="I80" s="23">
@@ -4224,10 +4213,10 @@
         <v>47</v>
       </c>
       <c r="M80" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="N80" s="26" t="s">
         <v>133</v>
-      </c>
-      <c r="N80" s="26" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4238,14 +4227,14 @@
         <v>85</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E81" s="20"/>
       <c r="F81" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G81" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H81" s="22"/>
       <c r="I81" s="23">
@@ -4259,10 +4248,10 @@
         <v>47</v>
       </c>
       <c r="M81" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="N81" s="26" t="s">
         <v>135</v>
-      </c>
-      <c r="N81" s="26" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4273,14 +4262,14 @@
         <v>86</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E82" s="20"/>
       <c r="F82" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G82" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H82" s="22"/>
       <c r="I82" s="23">
@@ -4294,10 +4283,10 @@
         <v>47</v>
       </c>
       <c r="M82" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="N82" s="26" t="s">
         <v>135</v>
-      </c>
-      <c r="N82" s="26" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4308,14 +4297,14 @@
         <v>87</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G83" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H83" s="22"/>
       <c r="I83" s="23">
@@ -4329,10 +4318,10 @@
         <v>47</v>
       </c>
       <c r="M83" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="N83" s="26" t="s">
         <v>135</v>
-      </c>
-      <c r="N83" s="26" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4343,14 +4332,14 @@
         <v>88</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E84" s="20"/>
       <c r="F84" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G84" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H84" s="22"/>
       <c r="I84" s="23">
@@ -4364,10 +4353,10 @@
         <v>47</v>
       </c>
       <c r="M84" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="N84" s="26" t="s">
         <v>135</v>
-      </c>
-      <c r="N84" s="26" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4378,14 +4367,14 @@
         <v>84</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E85" s="20"/>
       <c r="F85" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H85" s="22"/>
       <c r="I85" s="23">
@@ -4399,10 +4388,10 @@
         <v>47</v>
       </c>
       <c r="M85" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="N85" s="26" t="s">
         <v>135</v>
-      </c>
-      <c r="N85" s="26" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4410,17 +4399,17 @@
         <v>80</v>
       </c>
       <c r="B86" s="49" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G86" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H86" s="22"/>
       <c r="I86" s="23">
@@ -4434,10 +4423,10 @@
         <v>47</v>
       </c>
       <c r="M86" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="N86" s="26" t="s">
         <v>135</v>
-      </c>
-      <c r="N86" s="26" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4445,17 +4434,17 @@
         <v>81</v>
       </c>
       <c r="B87" s="49" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E87" s="20"/>
       <c r="F87" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G87" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H87" s="22"/>
       <c r="I87" s="23">
@@ -4469,10 +4458,10 @@
         <v>47</v>
       </c>
       <c r="M87" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="N87" s="26" t="s">
         <v>135</v>
-      </c>
-      <c r="N87" s="26" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4480,17 +4469,17 @@
         <v>82</v>
       </c>
       <c r="B88" s="49" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G88" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H88" s="22"/>
       <c r="I88" s="23">
@@ -4504,10 +4493,10 @@
         <v>47</v>
       </c>
       <c r="M88" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="N88" s="26" t="s">
         <v>135</v>
-      </c>
-      <c r="N88" s="26" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4518,19 +4507,19 @@
         <v>86</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D89" s="50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E89" s="49" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F89" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H89" s="22"/>
       <c r="I89" s="23">
@@ -4545,10 +4534,10 @@
         <v>47</v>
       </c>
       <c r="M89" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="N89" s="26" t="s">
         <v>137</v>
-      </c>
-      <c r="N89" s="26" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4556,19 +4545,19 @@
         <v>84</v>
       </c>
       <c r="B90" s="49" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D90" s="50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E90" s="49" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F90" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G90" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H90" s="22"/>
       <c r="I90" s="23">
@@ -4583,10 +4572,10 @@
         <v>47</v>
       </c>
       <c r="M90" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="N90" s="26" t="s">
         <v>137</v>
-      </c>
-      <c r="N90" s="26" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4594,19 +4583,19 @@
         <v>85</v>
       </c>
       <c r="B91" s="49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D91" s="50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E91" s="49" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F91" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G91" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H91" s="22"/>
       <c r="I91" s="23">
@@ -4621,10 +4610,10 @@
         <v>47</v>
       </c>
       <c r="M91" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="N91" s="26" t="s">
         <v>137</v>
-      </c>
-      <c r="N91" s="26" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4632,22 +4621,22 @@
         <v>86</v>
       </c>
       <c r="B92" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="C92" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D92" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="E92" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="C92" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="D92" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="E92" s="51" t="s">
-        <v>198</v>
-      </c>
       <c r="F92" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G92" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H92" s="22"/>
       <c r="I92" s="3">
@@ -4661,10 +4650,10 @@
         <v>47</v>
       </c>
       <c r="M92" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N92" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4672,22 +4661,22 @@
         <v>87</v>
       </c>
       <c r="B93" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C93" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D93" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="E93" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="E93" s="51" t="s">
-        <v>199</v>
-      </c>
       <c r="F93" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G93" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H93" s="22"/>
       <c r="I93" s="3">
@@ -4701,10 +4690,10 @@
         <v>47</v>
       </c>
       <c r="M93" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N93" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4712,22 +4701,22 @@
         <v>88</v>
       </c>
       <c r="B94" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C94" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D94" s="50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E94" s="51" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F94" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H94" s="22"/>
       <c r="I94" s="3">
@@ -4741,10 +4730,10 @@
         <v>47</v>
       </c>
       <c r="M94" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N94" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4752,22 +4741,22 @@
         <v>89</v>
       </c>
       <c r="B95" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C95" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D95" s="50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E95" s="51" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F95" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H95" s="22"/>
       <c r="I95" s="3">
@@ -4781,10 +4770,10 @@
         <v>47</v>
       </c>
       <c r="M95" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N95" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4792,22 +4781,22 @@
         <v>90</v>
       </c>
       <c r="B96" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C96" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D96" s="50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E96" s="51" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F96" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G96" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H96" s="22"/>
       <c r="I96" s="3">
@@ -4821,10 +4810,10 @@
         <v>47</v>
       </c>
       <c r="M96" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N96" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4832,22 +4821,22 @@
         <v>91</v>
       </c>
       <c r="B97" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C97" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D97" s="50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E97" s="51" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F97" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G97" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H97" s="22"/>
       <c r="I97" s="3">
@@ -4861,10 +4850,10 @@
         <v>47</v>
       </c>
       <c r="M97" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N97" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -4872,22 +4861,22 @@
         <v>92</v>
       </c>
       <c r="B98" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C98" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D98" s="50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E98" s="51" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F98" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G98" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H98" s="22"/>
       <c r="I98" s="3">
@@ -4901,10 +4890,10 @@
         <v>47</v>
       </c>
       <c r="M98" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N98" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -4912,22 +4901,22 @@
         <v>93</v>
       </c>
       <c r="B99" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C99" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D99" s="50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E99" s="51" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F99" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G99" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H99" s="22"/>
       <c r="I99" s="3">
@@ -4941,10 +4930,10 @@
         <v>47</v>
       </c>
       <c r="M99" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N99" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -4952,22 +4941,22 @@
         <v>94</v>
       </c>
       <c r="B100" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C100" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D100" s="50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E100" s="51" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F100" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G100" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H100" s="22"/>
       <c r="I100" s="3">
@@ -4981,10 +4970,10 @@
         <v>47</v>
       </c>
       <c r="M100" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N100" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -4992,22 +4981,22 @@
         <v>95</v>
       </c>
       <c r="B101" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C101" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D101" s="50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E101" s="51" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F101" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G101" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H101" s="22"/>
       <c r="I101" s="3">
@@ -5021,10 +5010,10 @@
         <v>47</v>
       </c>
       <c r="M101" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N101" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -5032,22 +5021,22 @@
         <v>96</v>
       </c>
       <c r="B102" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C102" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D102" s="50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E102" s="51" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F102" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G102" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H102" s="22"/>
       <c r="I102" s="3">
@@ -5061,10 +5050,10 @@
         <v>47</v>
       </c>
       <c r="M102" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N102" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -5075,14 +5064,14 @@
         <v>89</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E103" s="20"/>
       <c r="F103" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G103" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H103" s="22"/>
       <c r="I103" s="23"/>
@@ -5095,10 +5084,10 @@
         <v>47</v>
       </c>
       <c r="M103" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="N103" s="26" t="s">
         <v>140</v>
-      </c>
-      <c r="N103" s="26" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5109,14 +5098,14 @@
         <v>90</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E104" s="20"/>
       <c r="F104" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G104" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H104" s="22"/>
       <c r="I104" s="23"/>
@@ -5129,10 +5118,10 @@
         <v>47</v>
       </c>
       <c r="M104" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="N104" s="26" t="s">
         <v>140</v>
-      </c>
-      <c r="N104" s="26" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5143,14 +5132,14 @@
         <v>91</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G105" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H105" s="22"/>
       <c r="I105" s="23"/>
@@ -5163,10 +5152,10 @@
         <v>47</v>
       </c>
       <c r="M105" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="N105" s="26" t="s">
         <v>140</v>
-      </c>
-      <c r="N105" s="26" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5177,14 +5166,14 @@
         <v>92</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G106" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H106" s="22"/>
       <c r="I106" s="23"/>
@@ -5197,10 +5186,10 @@
         <v>47</v>
       </c>
       <c r="M106" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="N106" s="26" t="s">
         <v>140</v>
-      </c>
-      <c r="N106" s="26" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5211,17 +5200,17 @@
         <v>93</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G107" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H107" s="22"/>
       <c r="I107" s="23"/>
@@ -5234,10 +5223,10 @@
         <v>47</v>
       </c>
       <c r="M107" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N107" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5245,20 +5234,20 @@
         <v>102</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E108" s="20"/>
       <c r="F108" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G108" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H108" s="22"/>
       <c r="I108" s="23"/>
@@ -5271,10 +5260,10 @@
         <v>47</v>
       </c>
       <c r="M108" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N108" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5285,17 +5274,17 @@
         <v>94</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E109" s="20"/>
       <c r="F109" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G109" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H109" s="22"/>
       <c r="I109" s="23"/>
@@ -5308,10 +5297,10 @@
         <v>47</v>
       </c>
       <c r="M109" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N109" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5322,17 +5311,17 @@
         <v>95</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G110" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H110" s="22"/>
       <c r="I110" s="23"/>
@@ -5345,10 +5334,10 @@
         <v>47</v>
       </c>
       <c r="M110" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N110" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5359,17 +5348,17 @@
         <v>96</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G111" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H111" s="22"/>
       <c r="I111" s="23"/>
@@ -5382,10 +5371,10 @@
         <v>47</v>
       </c>
       <c r="M111" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N111" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5396,17 +5385,17 @@
         <v>97</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G112" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H112" s="22"/>
       <c r="I112" s="23"/>
@@ -5419,10 +5408,10 @@
         <v>47</v>
       </c>
       <c r="M112" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N112" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5433,17 +5422,17 @@
         <v>98</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G113" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H113" s="22"/>
       <c r="I113" s="23"/>
@@ -5456,10 +5445,10 @@
         <v>47</v>
       </c>
       <c r="M113" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N113" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5470,17 +5459,17 @@
         <v>99</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G114" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H114" s="22"/>
       <c r="I114" s="23"/>
@@ -5493,10 +5482,10 @@
         <v>47</v>
       </c>
       <c r="M114" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N114" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5507,17 +5496,17 @@
         <v>100</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G115" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H115" s="22"/>
       <c r="I115" s="23"/>
@@ -5530,10 +5519,10 @@
         <v>47</v>
       </c>
       <c r="M115" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N115" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5544,17 +5533,17 @@
         <v>101</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G116" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H116" s="22"/>
       <c r="I116" s="23"/>
@@ -5567,10 +5556,10 @@
         <v>47</v>
       </c>
       <c r="M116" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N116" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -5581,17 +5570,17 @@
         <v>102</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G117" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H117" s="22"/>
       <c r="I117" s="23"/>
@@ -5604,10 +5593,10 @@
         <v>47</v>
       </c>
       <c r="M117" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N117" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -5618,17 +5607,17 @@
         <v>103</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G118" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H118" s="22"/>
       <c r="I118" s="23"/>
@@ -5641,910 +5630,928 @@
         <v>47</v>
       </c>
       <c r="M118" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N118" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="3">
+        <v>117</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B119" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D119" s="36" t="s">
-        <v>187</v>
+      <c r="D119" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G119" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H119" s="22"/>
-      <c r="I119" s="23">
-        <v>1423</v>
-      </c>
+      <c r="I119" s="23"/>
       <c r="J119" s="19">
-        <v>11400000000</v>
+        <f>298*9807000</f>
+        <v>2922486000</v>
       </c>
       <c r="K119" s="19"/>
       <c r="L119" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M119" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="N119" s="29" t="s">
-        <v>160</v>
+        <v>136</v>
+      </c>
+      <c r="N119" s="26" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="3">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D120" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="E120" s="20"/>
+        <v>113</v>
+      </c>
+      <c r="D120" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="E120" s="49" t="s">
+        <v>216</v>
+      </c>
       <c r="F120" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G120" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H120" s="22"/>
       <c r="I120" s="23">
-        <v>1523</v>
+        <v>298</v>
       </c>
       <c r="J120" s="19">
-        <v>10300000000</v>
+        <f>427.9*9807000</f>
+        <v>4196415300</v>
       </c>
       <c r="K120" s="19"/>
       <c r="L120" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M120" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="N120" s="29" t="s">
-        <v>160</v>
+        <v>136</v>
+      </c>
+      <c r="N120" s="26" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="3">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D121" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="E121" s="20"/>
+        <v>113</v>
+      </c>
+      <c r="D121" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="E121" s="49" t="s">
+        <v>218</v>
+      </c>
       <c r="F121" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G121" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H121" s="22"/>
       <c r="I121" s="23">
-        <v>1623</v>
+        <v>298</v>
       </c>
       <c r="J121" s="19">
-        <v>10200000000</v>
+        <f>444.3*9807000</f>
+        <v>4357250100</v>
       </c>
       <c r="K121" s="19"/>
       <c r="L121" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M121" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="N121" s="29" t="s">
-        <v>160</v>
+        <v>136</v>
+      </c>
+      <c r="N121" s="26" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="3">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D122" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="E122" s="20"/>
+        <v>113</v>
+      </c>
+      <c r="D122" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="E122" s="49" t="s">
+        <v>217</v>
+      </c>
       <c r="F122" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G122" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H122" s="22"/>
       <c r="I122" s="23">
-        <v>1773</v>
+        <v>298</v>
       </c>
       <c r="J122" s="19">
-        <v>8800000000</v>
+        <f>510.9*9807000</f>
+        <v>5010396300</v>
       </c>
       <c r="K122" s="19"/>
       <c r="L122" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M122" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="N122" s="29" t="s">
-        <v>160</v>
+        <v>136</v>
+      </c>
+      <c r="N122" s="26" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="3">
-        <v>117</v>
-      </c>
-      <c r="B123" s="20" t="s">
-        <v>94</v>
+        <v>121</v>
+      </c>
+      <c r="B123" s="31" t="s">
+        <v>173</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>116</v>
       </c>
       <c r="E123" s="20"/>
       <c r="F123" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G123" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H123" s="22"/>
-      <c r="I123" s="23"/>
+      <c r="I123" s="23">
+        <v>1673</v>
+      </c>
       <c r="J123" s="19">
-        <f>298*9807000</f>
-        <v>2922486000</v>
+        <f>340*9807000</f>
+        <v>3334380000</v>
       </c>
       <c r="K123" s="19"/>
       <c r="L123" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M123" s="20" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="N123" s="26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="3">
-        <v>118</v>
-      </c>
-      <c r="B124" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D124" s="36" t="s">
-        <v>187</v>
+        <v>122</v>
+      </c>
+      <c r="B124" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="E124" s="20"/>
       <c r="F124" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G124" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H124" s="22"/>
       <c r="I124" s="23">
-        <v>1773</v>
+        <v>1673</v>
       </c>
       <c r="J124" s="19">
-        <f>427.9*9807000</f>
-        <v>4196415300</v>
+        <f>357*9807000</f>
+        <v>3501099000</v>
       </c>
       <c r="K124" s="19"/>
       <c r="L124" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M124" s="20" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="N124" s="26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="3">
-        <v>119</v>
-      </c>
-      <c r="B125" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D125" s="36" t="s">
-        <v>187</v>
+        <v>123</v>
+      </c>
+      <c r="B125" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="E125" s="20"/>
       <c r="F125" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G125" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H125" s="22"/>
       <c r="I125" s="23">
-        <v>1873</v>
+        <v>1673</v>
       </c>
       <c r="J125" s="19">
-        <f>444.3*9807000</f>
-        <v>4357250100</v>
+        <f>457*9807000</f>
+        <v>4481799000</v>
       </c>
       <c r="K125" s="19"/>
       <c r="L125" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M125" s="20" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="N125" s="26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="3">
-        <v>120</v>
-      </c>
-      <c r="B126" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D126" s="36" t="s">
-        <v>187</v>
+        <v>124</v>
+      </c>
+      <c r="B126" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G126" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H126" s="22"/>
       <c r="I126" s="23">
-        <v>1973</v>
+        <v>1673</v>
       </c>
       <c r="J126" s="19">
-        <f>510.9*9807000</f>
-        <v>5010396300</v>
+        <f>414*9807000</f>
+        <v>4060098000</v>
       </c>
       <c r="K126" s="19"/>
       <c r="L126" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M126" s="20" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="N126" s="26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="3">
-        <v>121</v>
-      </c>
-      <c r="B127" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>117</v>
+        <v>125</v>
+      </c>
+      <c r="B127" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D127" s="37" t="s">
+        <v>115</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G127" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H127" s="22"/>
       <c r="I127" s="23">
         <v>1673</v>
       </c>
       <c r="J127" s="19">
-        <f>340*9807000</f>
-        <v>3334380000</v>
+        <v>1569000000</v>
       </c>
       <c r="K127" s="19"/>
       <c r="L127" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M127" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="N127" s="26" t="s">
-        <v>145</v>
+      <c r="M127" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="N127" s="35" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="3">
-        <v>122</v>
-      </c>
-      <c r="B128" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>117</v>
+        <v>126</v>
+      </c>
+      <c r="B128" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="D128" s="37" t="s">
+        <v>115</v>
       </c>
       <c r="E128" s="20"/>
       <c r="F128" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G128" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H128" s="22"/>
       <c r="I128" s="23">
         <v>1673</v>
       </c>
       <c r="J128" s="19">
-        <f>357*9807000</f>
-        <v>3501099000</v>
+        <v>1667000000</v>
       </c>
       <c r="K128" s="19"/>
       <c r="L128" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M128" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="N128" s="26" t="s">
-        <v>145</v>
+      <c r="M128" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="N128" s="35" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="3">
-        <v>123</v>
-      </c>
-      <c r="B129" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>117</v>
+        <v>127</v>
+      </c>
+      <c r="B129" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D129" s="37" t="s">
+        <v>115</v>
       </c>
       <c r="E129" s="20"/>
       <c r="F129" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G129" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H129" s="22"/>
       <c r="I129" s="23">
         <v>1673</v>
       </c>
       <c r="J129" s="19">
-        <f>457*9807000</f>
-        <v>4481799000</v>
+        <v>5139000000</v>
       </c>
       <c r="K129" s="19"/>
       <c r="L129" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M129" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="N129" s="26" t="s">
-        <v>145</v>
+      <c r="M129" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="N129" s="35" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="3">
-        <v>124</v>
-      </c>
-      <c r="B130" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>117</v>
+        <v>128</v>
+      </c>
+      <c r="B130" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D130" s="37" t="s">
+        <v>115</v>
       </c>
       <c r="E130" s="20"/>
       <c r="F130" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G130" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H130" s="22"/>
       <c r="I130" s="23">
         <v>1673</v>
       </c>
       <c r="J130" s="19">
-        <f>414*9807000</f>
-        <v>4060098000</v>
+        <v>6375000000</v>
       </c>
       <c r="K130" s="19"/>
-      <c r="L130" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M130" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="N130" s="26" t="s">
-        <v>145</v>
+      <c r="L130" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="M130" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="N130" s="35" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="3">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D131" s="37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E131" s="20"/>
       <c r="F131" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G131" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H131" s="22"/>
       <c r="I131" s="23">
         <v>1673</v>
       </c>
       <c r="J131" s="19">
-        <v>1569000000</v>
+        <v>1314000000</v>
       </c>
       <c r="K131" s="19"/>
       <c r="L131" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M131" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N131" s="35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B132" s="38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D132" s="37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E132" s="20"/>
       <c r="F132" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G132" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H132" s="22"/>
       <c r="I132" s="23">
         <v>1673</v>
       </c>
       <c r="J132" s="19">
-        <v>1667000000</v>
+        <v>1324000000</v>
       </c>
       <c r="K132" s="19"/>
-      <c r="L132" s="20" t="s">
+      <c r="L132" s="38" t="s">
         <v>47</v>
       </c>
       <c r="M132" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N132" s="35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B133" s="38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D133" s="37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E133" s="20"/>
       <c r="F133" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G133" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H133" s="22"/>
       <c r="I133" s="23">
         <v>1673</v>
       </c>
       <c r="J133" s="19">
-        <v>5139000000</v>
+        <v>5757000000</v>
       </c>
       <c r="K133" s="19"/>
       <c r="L133" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M133" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N133" s="35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="3">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D134" s="37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E134" s="20"/>
       <c r="F134" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G134" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H134" s="22"/>
       <c r="I134" s="23">
         <v>1673</v>
       </c>
       <c r="J134" s="19">
-        <v>6375000000</v>
+        <v>6237000000</v>
       </c>
       <c r="K134" s="19"/>
       <c r="L134" s="38" t="s">
         <v>47</v>
       </c>
       <c r="M134" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N134" s="35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="3">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D135" s="37" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E135" s="20"/>
       <c r="F135" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G135" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H135" s="22"/>
-      <c r="I135" s="23">
-        <v>1673</v>
-      </c>
+      <c r="I135" s="23"/>
       <c r="J135" s="19">
-        <v>1314000000</v>
+        <f>940*9807000</f>
+        <v>9218580000</v>
       </c>
       <c r="K135" s="19"/>
       <c r="L135" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M135" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="N135" s="35" t="s">
-        <v>165</v>
+      <c r="M135" s="20"/>
+      <c r="N135" s="30" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="3">
-        <v>130</v>
-      </c>
-      <c r="B136" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="B136" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="D136" s="37" t="s">
-        <v>115</v>
+      <c r="C136" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="E136" s="20"/>
       <c r="F136" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G136" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H136" s="22"/>
-      <c r="I136" s="23">
-        <v>1673</v>
-      </c>
+      <c r="I136" s="23"/>
       <c r="J136" s="19">
-        <v>1324000000</v>
+        <v>1360000000000</v>
       </c>
       <c r="K136" s="19"/>
-      <c r="L136" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="M136" s="38" t="s">
+      <c r="L136" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M136" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="N136" s="30" t="s">
         <v>147</v>
-      </c>
-      <c r="N136" s="35" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="3">
-        <v>131</v>
-      </c>
-      <c r="B137" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="D137" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="E137" s="20"/>
+        <v>135</v>
+      </c>
+      <c r="B137" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C137" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D137" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="E137" s="51" t="s">
+        <v>210</v>
+      </c>
       <c r="F137" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G137" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H137" s="22"/>
-      <c r="I137" s="23">
-        <v>1673</v>
+      <c r="I137" s="3">
+        <v>298</v>
       </c>
       <c r="J137" s="19">
-        <v>5757000000</v>
+        <f>341*9807000</f>
+        <v>3344187000</v>
       </c>
       <c r="K137" s="19"/>
       <c r="L137" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M137" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="N137" s="35" t="s">
-        <v>165</v>
+      <c r="M137" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N137" s="28" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="3">
-        <v>132</v>
-      </c>
-      <c r="B138" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D138" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="E138" s="20"/>
+        <v>136</v>
+      </c>
+      <c r="B138" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="C138" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D138" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="E138" s="51" t="s">
+        <v>210</v>
+      </c>
       <c r="F138" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G138" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H138" s="22"/>
-      <c r="I138" s="23">
-        <v>1673</v>
+      <c r="I138" s="3">
+        <v>298</v>
       </c>
       <c r="J138" s="19">
-        <v>6237000000</v>
+        <f>338*9807000</f>
+        <v>3314766000</v>
       </c>
       <c r="K138" s="19"/>
-      <c r="L138" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="M138" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="N138" s="35" t="s">
-        <v>165</v>
+      <c r="L138" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M138" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N138" s="28" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="3">
-        <v>133</v>
-      </c>
-      <c r="B139" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E139" s="20"/>
+        <v>137</v>
+      </c>
+      <c r="B139" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C139" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D139" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="E139" s="51" t="s">
+        <v>210</v>
+      </c>
       <c r="F139" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G139" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H139" s="22"/>
-      <c r="I139" s="23"/>
+      <c r="I139" s="3">
+        <v>298</v>
+      </c>
       <c r="J139" s="19">
-        <f>940*9807000</f>
-        <v>9218580000</v>
+        <f>340*9807000</f>
+        <v>3334380000</v>
       </c>
       <c r="K139" s="19"/>
       <c r="L139" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M139" s="20"/>
-      <c r="N139" s="30" t="s">
-        <v>146</v>
+      <c r="M139" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N139" s="28" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="3">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B140" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E140" s="20"/>
+        <v>180</v>
+      </c>
+      <c r="C140" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D140" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="E140" s="51" t="s">
+        <v>210</v>
+      </c>
       <c r="F140" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G140" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H140" s="22"/>
-      <c r="I140" s="23"/>
+      <c r="I140" s="3">
+        <v>298</v>
+      </c>
       <c r="J140" s="19">
-        <v>1360000000000</v>
+        <f>345*9807000</f>
+        <v>3383415000</v>
       </c>
       <c r="K140" s="19"/>
       <c r="L140" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M140" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="N140" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="N140" s="28" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="3">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C141" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D141" s="36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E141" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F141" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G141" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H141" s="22"/>
       <c r="I141" s="3">
         <v>298</v>
       </c>
       <c r="J141" s="19">
-        <f>341*9807000</f>
-        <v>3344187000</v>
+        <f>334*9807000</f>
+        <v>3275538000</v>
       </c>
       <c r="K141" s="19"/>
       <c r="L141" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M141" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N141" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="3">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C142" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D142" s="36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E142" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F142" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G142" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H142" s="22"/>
       <c r="I142" s="3">
         <v>298</v>
       </c>
       <c r="J142" s="19">
-        <f>338*9807000</f>
-        <v>3314766000</v>
+        <f>340*9807000</f>
+        <v>3334380000</v>
       </c>
       <c r="K142" s="19"/>
       <c r="L142" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M142" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N142" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="3">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C143" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D143" s="36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E143" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F143" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G143" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H143" s="22"/>
       <c r="I143" s="3">
@@ -6559,390 +6566,368 @@
         <v>47</v>
       </c>
       <c r="M143" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N143" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="3">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C144" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D144" s="36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E144" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F144" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G144" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H144" s="22"/>
       <c r="I144" s="3">
         <v>298</v>
       </c>
       <c r="J144" s="19">
-        <f>345*9807000</f>
-        <v>3383415000</v>
+        <f>331*9807000</f>
+        <v>3246117000</v>
       </c>
       <c r="K144" s="19"/>
       <c r="L144" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M144" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N144" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="3">
-        <v>139</v>
-      </c>
-      <c r="B145" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="C145" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="D145" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="E145" s="51" t="s">
-        <v>213</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B145" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E145" s="20"/>
       <c r="F145" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G145" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H145" s="22"/>
       <c r="I145" s="3">
         <v>298</v>
       </c>
       <c r="J145" s="19">
-        <f>334*9807000</f>
-        <v>3275538000</v>
+        <f>459*9807000</f>
+        <v>4501413000</v>
       </c>
       <c r="K145" s="19"/>
       <c r="L145" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M145" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="N145" s="28" t="s">
         <v>149</v>
+      </c>
+      <c r="N145" s="30" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="3">
-        <v>140</v>
-      </c>
-      <c r="B146" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="C146" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="D146" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="E146" s="51" t="s">
-        <v>213</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B146" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E146" s="20"/>
       <c r="F146" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G146" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H146" s="22"/>
-      <c r="I146" s="3">
-        <v>298</v>
+      <c r="I146" s="23">
+        <v>1673</v>
       </c>
       <c r="J146" s="19">
-        <f>340*9807000</f>
-        <v>3334380000</v>
+        <f>487*9807000</f>
+        <v>4776009000</v>
       </c>
       <c r="K146" s="19"/>
       <c r="L146" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M146" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="N146" s="28" t="s">
         <v>149</v>
+      </c>
+      <c r="N146" s="30" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="3">
-        <v>141</v>
-      </c>
-      <c r="B147" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="C147" s="50" t="s">
-        <v>114</v>
+        <v>145</v>
+      </c>
+      <c r="B147" s="20" t="s">
+        <v>107</v>
       </c>
       <c r="D147" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="E147" s="51" t="s">
-        <v>213</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="E147" s="20"/>
       <c r="F147" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G147" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H147" s="22"/>
-      <c r="I147" s="3">
-        <v>298</v>
+      <c r="I147" s="23">
+        <v>1273</v>
       </c>
       <c r="J147" s="19">
-        <f>340*9807000</f>
-        <v>3334380000</v>
+        <f>456*9807000</f>
+        <v>4471992000</v>
       </c>
       <c r="K147" s="19"/>
       <c r="L147" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M147" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="N147" s="28" t="s">
         <v>149</v>
+      </c>
+      <c r="N147" s="30" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="3">
-        <v>142</v>
-      </c>
-      <c r="B148" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="C148" s="50" t="s">
-        <v>114</v>
+        <v>146</v>
+      </c>
+      <c r="B148" s="20" t="s">
+        <v>107</v>
       </c>
       <c r="D148" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="E148" s="51" t="s">
-        <v>213</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="E148" s="20"/>
       <c r="F148" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G148" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H148" s="22"/>
-      <c r="I148" s="3">
-        <v>298</v>
+      <c r="I148" s="23">
+        <v>1073</v>
       </c>
       <c r="J148" s="19">
-        <f>331*9807000</f>
-        <v>3246117000</v>
+        <f>516*9807000</f>
+        <v>5060412000</v>
       </c>
       <c r="K148" s="19"/>
       <c r="L148" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M148" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="N148" s="28" t="s">
         <v>149</v>
+      </c>
+      <c r="N148" s="30" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="3">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B149" s="20" t="s">
         <v>108</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E149" s="20"/>
       <c r="F149" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G149" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H149" s="22"/>
-      <c r="I149" s="3">
-        <v>298</v>
-      </c>
+      <c r="I149" s="23"/>
       <c r="J149" s="19">
-        <f>459*9807000</f>
-        <v>4501413000</v>
+        <f>445*9807000</f>
+        <v>4364115000</v>
       </c>
       <c r="K149" s="19"/>
       <c r="L149" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M149" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="N149" s="30" t="s">
         <v>150</v>
-      </c>
-      <c r="N149" s="30" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="3">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B150" s="20" t="s">
         <v>108</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E150" s="20"/>
       <c r="F150" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G150" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H150" s="22"/>
       <c r="I150" s="23">
         <v>1673</v>
       </c>
       <c r="J150" s="19">
-        <f>487*9807000</f>
-        <v>4776009000</v>
+        <f>459*9807000</f>
+        <v>4501413000</v>
       </c>
       <c r="K150" s="19"/>
       <c r="L150" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M150" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="N150" s="30" t="s">
         <v>150</v>
-      </c>
-      <c r="N150" s="30" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="3">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B151" s="20" t="s">
         <v>108</v>
       </c>
       <c r="D151" s="36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E151" s="20"/>
       <c r="F151" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G151" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H151" s="22"/>
       <c r="I151" s="23">
         <v>1273</v>
       </c>
       <c r="J151" s="19">
-        <f>456*9807000</f>
-        <v>4471992000</v>
+        <f>459*9807000</f>
+        <v>4501413000</v>
       </c>
       <c r="K151" s="19"/>
       <c r="L151" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M151" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="N151" s="30" t="s">
         <v>150</v>
-      </c>
-      <c r="N151" s="30" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="3">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B152" s="20" t="s">
         <v>108</v>
       </c>
       <c r="D152" s="36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E152" s="20"/>
       <c r="F152" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G152" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H152" s="22"/>
       <c r="I152" s="23">
         <v>1073</v>
       </c>
       <c r="J152" s="19">
-        <f>516*9807000</f>
-        <v>5060412000</v>
+        <f>522*9807000</f>
+        <v>5119254000</v>
       </c>
       <c r="K152" s="19"/>
       <c r="L152" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M152" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="N152" s="30" t="s">
         <v>150</v>
-      </c>
-      <c r="N152" s="30" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="3">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B153" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D153" s="3" t="s">
-        <v>116</v>
+      <c r="C153" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="E153" s="20"/>
       <c r="F153" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G153" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H153" s="22"/>
       <c r="I153" s="23"/>
       <c r="J153" s="19">
-        <f>445*9807000</f>
-        <v>4364115000</v>
+        <f>960*9807000</f>
+        <v>9414720000</v>
       </c>
       <c r="K153" s="19"/>
       <c r="L153" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M153" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N153" s="30" t="s">
         <v>151</v>
@@ -6950,35 +6935,33 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="3">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="E154" s="20"/>
       <c r="F154" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G154" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H154" s="22"/>
-      <c r="I154" s="23">
-        <v>1673</v>
-      </c>
+      <c r="I154" s="23"/>
       <c r="J154" s="19">
-        <f>459*9807000</f>
-        <v>4501413000</v>
+        <f>920*9807000</f>
+        <v>9022440000</v>
       </c>
       <c r="K154" s="19"/>
       <c r="L154" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M154" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N154" s="30" t="s">
         <v>151</v>
@@ -6986,35 +6969,33 @@
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="3">
-        <v>149</v>
-      </c>
-      <c r="B155" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D155" s="36" t="s">
-        <v>187</v>
+        <v>153</v>
+      </c>
+      <c r="B155" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="E155" s="20"/>
       <c r="F155" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G155" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H155" s="22"/>
-      <c r="I155" s="23">
-        <v>1273</v>
-      </c>
+      <c r="I155" s="23"/>
       <c r="J155" s="19">
-        <f>459*9807000</f>
-        <v>4501413000</v>
+        <f>830*9807000</f>
+        <v>8139810000</v>
       </c>
       <c r="K155" s="19"/>
       <c r="L155" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M155" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N155" s="30" t="s">
         <v>151</v>
@@ -7022,35 +7003,33 @@
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="3">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D156" s="36" t="s">
-        <v>187</v>
+        <v>111</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="E156" s="20"/>
       <c r="F156" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G156" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H156" s="22"/>
-      <c r="I156" s="23">
-        <v>1073</v>
-      </c>
+      <c r="I156" s="23"/>
       <c r="J156" s="19">
-        <f>522*9807000</f>
-        <v>5119254000</v>
+        <f>840*9807000</f>
+        <v>8237880000</v>
       </c>
       <c r="K156" s="19"/>
       <c r="L156" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M156" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N156" s="30" t="s">
         <v>151</v>
@@ -7058,331 +7037,235 @@
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="3">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E157" s="20"/>
       <c r="F157" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G157" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H157" s="22"/>
       <c r="I157" s="23"/>
       <c r="J157" s="19">
-        <f>960*9807000</f>
-        <v>9414720000</v>
+        <f>850*9807000</f>
+        <v>8335950000</v>
       </c>
       <c r="K157" s="19"/>
       <c r="L157" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M157" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N157" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="3">
-        <v>152</v>
-      </c>
-      <c r="B158" s="20" t="s">
-        <v>111</v>
+        <v>156</v>
+      </c>
+      <c r="B158" s="31" t="s">
+        <v>181</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="E158" s="20"/>
       <c r="F158" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G158" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H158" s="22"/>
       <c r="I158" s="23"/>
       <c r="J158" s="19">
+        <f>829*9807000</f>
+        <v>8130003000</v>
+      </c>
+      <c r="K158" s="19"/>
+      <c r="L158" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M158" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="N158" s="26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
+      <c r="A159" s="3">
+        <v>157</v>
+      </c>
+      <c r="B159" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C159" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D159" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="E159" s="20"/>
+      <c r="F159" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="G159" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="H159" s="22"/>
+      <c r="I159" s="23">
+        <v>1073</v>
+      </c>
+      <c r="J159" s="19">
         <f>920*9807000</f>
         <v>9022440000</v>
       </c>
-      <c r="K158" s="19"/>
-      <c r="L158" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M158" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="N158" s="30" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14">
-      <c r="A159" s="3">
-        <v>153</v>
-      </c>
-      <c r="B159" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E159" s="20"/>
-      <c r="F159" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="G159" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="H159" s="22"/>
-      <c r="I159" s="23"/>
-      <c r="J159" s="19">
-        <f>830*9807000</f>
-        <v>8139810000</v>
-      </c>
       <c r="K159" s="19"/>
       <c r="L159" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M159" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="N159" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="N159" s="26" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="3">
-        <v>154</v>
-      </c>
-      <c r="B160" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E160" s="20"/>
+        <v>158</v>
+      </c>
+      <c r="B160" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C160" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="D160" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="E160" s="31" t="s">
+        <v>188</v>
+      </c>
       <c r="F160" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G160" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H160" s="22"/>
-      <c r="I160" s="23"/>
+      <c r="I160" s="23">
+        <v>1273</v>
+      </c>
       <c r="J160" s="19">
-        <f>840*9807000</f>
-        <v>8237880000</v>
+        <f>931*9807000</f>
+        <v>9130317000</v>
       </c>
       <c r="K160" s="19"/>
       <c r="L160" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M160" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="N160" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="N160" s="26" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="3">
-        <v>155</v>
-      </c>
-      <c r="B161" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E161" s="20"/>
+        <v>159</v>
+      </c>
+      <c r="B161" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C161" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="D161" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="E161" s="31" t="s">
+        <v>188</v>
+      </c>
       <c r="F161" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G161" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H161" s="22"/>
-      <c r="I161" s="23"/>
+      <c r="I161" s="23">
+        <v>1473</v>
+      </c>
       <c r="J161" s="19">
-        <f>850*9807000</f>
-        <v>8335950000</v>
+        <f>960*9807000</f>
+        <v>9414720000</v>
       </c>
       <c r="K161" s="19"/>
       <c r="L161" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M161" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="N161" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="N161" s="26" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="162" spans="1:14">
-      <c r="A162" s="3">
-        <v>156</v>
-      </c>
-      <c r="B162" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="E162" s="20"/>
-      <c r="F162" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="G162" s="20" t="s">
-        <v>120</v>
-      </c>
+      <c r="F162" s="31"/>
+      <c r="G162" s="20"/>
       <c r="H162" s="22"/>
       <c r="I162" s="23"/>
-      <c r="J162" s="19">
-        <f>829*9807000</f>
-        <v>8130003000</v>
-      </c>
       <c r="K162" s="19"/>
-      <c r="L162" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M162" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="N162" s="26" t="s">
-        <v>153</v>
-      </c>
+      <c r="L162" s="31"/>
+      <c r="M162" s="20"/>
     </row>
     <row r="163" spans="1:14">
-      <c r="A163" s="3">
-        <v>157</v>
-      </c>
-      <c r="B163" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="C163" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="D163" s="36" t="s">
-        <v>187</v>
-      </c>
       <c r="E163" s="20"/>
-      <c r="F163" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="G163" s="20" t="s">
-        <v>120</v>
-      </c>
+      <c r="F163" s="31"/>
+      <c r="G163" s="20"/>
       <c r="H163" s="22"/>
-      <c r="I163" s="23">
-        <v>1073</v>
-      </c>
-      <c r="J163" s="19">
-        <f>920*9807000</f>
-        <v>9022440000</v>
-      </c>
+      <c r="I163" s="23"/>
       <c r="K163" s="19"/>
-      <c r="L163" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M163" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="N163" s="26" t="s">
-        <v>153</v>
-      </c>
+      <c r="L163" s="31"/>
+      <c r="M163" s="20"/>
     </row>
     <row r="164" spans="1:14">
-      <c r="A164" s="3">
-        <v>158</v>
-      </c>
-      <c r="B164" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="C164" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="D164" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="E164" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="F164" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="G164" s="20" t="s">
-        <v>120</v>
-      </c>
+      <c r="E164" s="20"/>
+      <c r="F164" s="31"/>
+      <c r="G164" s="20"/>
       <c r="H164" s="22"/>
-      <c r="I164" s="23">
-        <v>1273</v>
-      </c>
-      <c r="J164" s="19">
-        <f>931*9807000</f>
-        <v>9130317000</v>
-      </c>
+      <c r="I164" s="23"/>
       <c r="K164" s="19"/>
-      <c r="L164" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M164" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="N164" s="26" t="s">
-        <v>153</v>
-      </c>
+      <c r="L164" s="31"/>
+      <c r="M164" s="20"/>
     </row>
     <row r="165" spans="1:14">
-      <c r="A165" s="3">
-        <v>159</v>
-      </c>
-      <c r="B165" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="C165" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="D165" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="E165" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="F165" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="G165" s="20" t="s">
-        <v>120</v>
-      </c>
+      <c r="E165" s="20"/>
+      <c r="F165" s="31"/>
+      <c r="G165" s="20"/>
       <c r="H165" s="22"/>
-      <c r="I165" s="23">
-        <v>1473</v>
-      </c>
-      <c r="J165" s="19">
-        <f>960*9807000</f>
-        <v>9414720000</v>
-      </c>
+      <c r="I165" s="23"/>
       <c r="K165" s="19"/>
-      <c r="L165" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M165" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="N165" s="26" t="s">
-        <v>153</v>
-      </c>
+      <c r="L165" s="31"/>
+      <c r="M165" s="20"/>
     </row>
     <row r="166" spans="1:14">
       <c r="E166" s="20"/>
@@ -7535,8 +7418,9 @@
       <c r="M180" s="20"/>
     </row>
     <row r="181" spans="4:13">
+      <c r="D181" s="22"/>
       <c r="E181" s="20"/>
-      <c r="F181" s="31"/>
+      <c r="F181" s="32"/>
       <c r="G181" s="20"/>
       <c r="H181" s="22"/>
       <c r="I181" s="23"/>
@@ -7545,8 +7429,9 @@
       <c r="M181" s="20"/>
     </row>
     <row r="182" spans="4:13">
+      <c r="D182" s="22"/>
       <c r="E182" s="20"/>
-      <c r="F182" s="31"/>
+      <c r="F182" s="32"/>
       <c r="G182" s="20"/>
       <c r="H182" s="22"/>
       <c r="I182" s="23"/>
@@ -7555,8 +7440,9 @@
       <c r="M182" s="20"/>
     </row>
     <row r="183" spans="4:13">
+      <c r="D183" s="22"/>
       <c r="E183" s="20"/>
-      <c r="F183" s="31"/>
+      <c r="F183" s="32"/>
       <c r="G183" s="20"/>
       <c r="H183" s="22"/>
       <c r="I183" s="23"/>
@@ -7565,8 +7451,9 @@
       <c r="M183" s="20"/>
     </row>
     <row r="184" spans="4:13">
+      <c r="D184" s="22"/>
       <c r="E184" s="20"/>
-      <c r="F184" s="31"/>
+      <c r="F184" s="32"/>
       <c r="G184" s="20"/>
       <c r="H184" s="22"/>
       <c r="I184" s="23"/>
@@ -7838,7 +7725,7 @@
       <c r="L208" s="31"/>
       <c r="M208" s="20"/>
     </row>
-    <row r="209" spans="4:13">
+    <row r="209" spans="1:14">
       <c r="D209" s="22"/>
       <c r="E209" s="20"/>
       <c r="F209" s="32"/>
@@ -7849,7 +7736,7 @@
       <c r="L209" s="31"/>
       <c r="M209" s="20"/>
     </row>
-    <row r="210" spans="4:13">
+    <row r="210" spans="1:14">
       <c r="D210" s="22"/>
       <c r="E210" s="20"/>
       <c r="F210" s="32"/>
@@ -7860,7 +7747,7 @@
       <c r="L210" s="31"/>
       <c r="M210" s="20"/>
     </row>
-    <row r="211" spans="4:13">
+    <row r="211" spans="1:14">
       <c r="D211" s="22"/>
       <c r="E211" s="20"/>
       <c r="F211" s="32"/>
@@ -7871,7 +7758,7 @@
       <c r="L211" s="31"/>
       <c r="M211" s="20"/>
     </row>
-    <row r="212" spans="4:13">
+    <row r="212" spans="1:14">
       <c r="D212" s="22"/>
       <c r="E212" s="20"/>
       <c r="F212" s="32"/>
@@ -7882,7 +7769,7 @@
       <c r="L212" s="31"/>
       <c r="M212" s="20"/>
     </row>
-    <row r="213" spans="4:13">
+    <row r="213" spans="1:14">
       <c r="D213" s="22"/>
       <c r="E213" s="20"/>
       <c r="F213" s="32"/>
@@ -7893,7 +7780,7 @@
       <c r="L213" s="31"/>
       <c r="M213" s="20"/>
     </row>
-    <row r="214" spans="4:13">
+    <row r="214" spans="1:14">
       <c r="D214" s="22"/>
       <c r="E214" s="20"/>
       <c r="F214" s="32"/>
@@ -7904,7 +7791,7 @@
       <c r="L214" s="31"/>
       <c r="M214" s="20"/>
     </row>
-    <row r="215" spans="4:13">
+    <row r="215" spans="1:14">
       <c r="D215" s="22"/>
       <c r="E215" s="20"/>
       <c r="F215" s="32"/>
@@ -7915,7 +7802,7 @@
       <c r="L215" s="31"/>
       <c r="M215" s="20"/>
     </row>
-    <row r="216" spans="4:13">
+    <row r="216" spans="1:14">
       <c r="D216" s="22"/>
       <c r="E216" s="20"/>
       <c r="F216" s="32"/>
@@ -7926,7 +7813,7 @@
       <c r="L216" s="31"/>
       <c r="M216" s="20"/>
     </row>
-    <row r="217" spans="4:13">
+    <row r="217" spans="1:14">
       <c r="D217" s="22"/>
       <c r="E217" s="20"/>
       <c r="F217" s="32"/>
@@ -7937,7 +7824,7 @@
       <c r="L217" s="31"/>
       <c r="M217" s="20"/>
     </row>
-    <row r="218" spans="4:13">
+    <row r="218" spans="1:14">
       <c r="D218" s="22"/>
       <c r="E218" s="20"/>
       <c r="F218" s="32"/>
@@ -7948,7 +7835,7 @@
       <c r="L218" s="31"/>
       <c r="M218" s="20"/>
     </row>
-    <row r="219" spans="4:13">
+    <row r="219" spans="1:14">
       <c r="D219" s="22"/>
       <c r="E219" s="20"/>
       <c r="F219" s="32"/>
@@ -7959,7 +7846,7 @@
       <c r="L219" s="31"/>
       <c r="M219" s="20"/>
     </row>
-    <row r="220" spans="4:13">
+    <row r="220" spans="1:14">
       <c r="D220" s="22"/>
       <c r="E220" s="20"/>
       <c r="F220" s="32"/>
@@ -7970,7 +7857,7 @@
       <c r="L220" s="31"/>
       <c r="M220" s="20"/>
     </row>
-    <row r="221" spans="4:13">
+    <row r="221" spans="1:14">
       <c r="D221" s="22"/>
       <c r="E221" s="20"/>
       <c r="F221" s="32"/>
@@ -7981,7 +7868,7 @@
       <c r="L221" s="31"/>
       <c r="M221" s="20"/>
     </row>
-    <row r="222" spans="4:13">
+    <row r="222" spans="1:14">
       <c r="D222" s="22"/>
       <c r="E222" s="20"/>
       <c r="F222" s="32"/>
@@ -7992,7 +7879,7 @@
       <c r="L222" s="31"/>
       <c r="M222" s="20"/>
     </row>
-    <row r="223" spans="4:13">
+    <row r="223" spans="1:14">
       <c r="D223" s="22"/>
       <c r="E223" s="20"/>
       <c r="F223" s="32"/>
@@ -8003,48 +7890,65 @@
       <c r="L223" s="31"/>
       <c r="M223" s="20"/>
     </row>
-    <row r="224" spans="4:13">
+    <row r="224" spans="1:14">
+      <c r="A224" s="24"/>
+      <c r="B224" s="20"/>
+      <c r="C224" s="22"/>
       <c r="D224" s="22"/>
       <c r="E224" s="20"/>
-      <c r="F224" s="32"/>
-      <c r="G224" s="20"/>
+      <c r="F224" s="22"/>
+      <c r="G224" s="22"/>
       <c r="H224" s="22"/>
       <c r="I224" s="23"/>
+      <c r="J224" s="19"/>
       <c r="K224" s="19"/>
-      <c r="L224" s="31"/>
+      <c r="L224" s="20"/>
       <c r="M224" s="20"/>
+      <c r="N224" s="26"/>
     </row>
     <row r="225" spans="1:14">
+      <c r="A225" s="24"/>
+      <c r="B225" s="20"/>
+      <c r="C225" s="22"/>
       <c r="D225" s="22"/>
       <c r="E225" s="20"/>
-      <c r="F225" s="32"/>
-      <c r="G225" s="20"/>
+      <c r="F225" s="22"/>
+      <c r="G225" s="22"/>
       <c r="H225" s="22"/>
       <c r="I225" s="23"/>
+      <c r="J225" s="19"/>
       <c r="K225" s="19"/>
-      <c r="L225" s="31"/>
+      <c r="L225" s="20"/>
       <c r="M225" s="20"/>
     </row>
     <row r="226" spans="1:14">
+      <c r="A226" s="24"/>
+      <c r="B226" s="20"/>
+      <c r="C226" s="22"/>
       <c r="D226" s="22"/>
       <c r="E226" s="20"/>
-      <c r="F226" s="32"/>
-      <c r="G226" s="20"/>
+      <c r="F226" s="22"/>
+      <c r="G226" s="22"/>
       <c r="H226" s="22"/>
       <c r="I226" s="23"/>
+      <c r="J226" s="19"/>
       <c r="K226" s="19"/>
-      <c r="L226" s="31"/>
+      <c r="L226" s="20"/>
       <c r="M226" s="20"/>
     </row>
     <row r="227" spans="1:14">
+      <c r="A227" s="24"/>
+      <c r="B227" s="20"/>
+      <c r="C227" s="22"/>
       <c r="D227" s="22"/>
       <c r="E227" s="20"/>
-      <c r="F227" s="32"/>
-      <c r="G227" s="20"/>
+      <c r="F227" s="22"/>
+      <c r="G227" s="22"/>
       <c r="H227" s="22"/>
       <c r="I227" s="23"/>
+      <c r="J227" s="19"/>
       <c r="K227" s="19"/>
-      <c r="L227" s="31"/>
+      <c r="L227" s="20"/>
       <c r="M227" s="20"/>
     </row>
     <row r="228" spans="1:14">
@@ -8061,7 +7965,6 @@
       <c r="K228" s="19"/>
       <c r="L228" s="20"/>
       <c r="M228" s="20"/>
-      <c r="N228" s="26"/>
     </row>
     <row r="229" spans="1:14">
       <c r="A229" s="24"/>
@@ -8122,6 +8025,7 @@
       <c r="K232" s="19"/>
       <c r="L232" s="20"/>
       <c r="M232" s="20"/>
+      <c r="N232" s="26"/>
     </row>
     <row r="233" spans="1:14">
       <c r="A233" s="24"/>
@@ -8182,7 +8086,6 @@
       <c r="K236" s="19"/>
       <c r="L236" s="20"/>
       <c r="M236" s="20"/>
-      <c r="N236" s="26"/>
     </row>
     <row r="237" spans="1:14">
       <c r="A237" s="24"/>
@@ -8243,6 +8146,7 @@
       <c r="K240" s="19"/>
       <c r="L240" s="20"/>
       <c r="M240" s="20"/>
+      <c r="N240" s="26"/>
     </row>
     <row r="241" spans="1:14">
       <c r="A241" s="24"/>
@@ -8258,6 +8162,7 @@
       <c r="K241" s="19"/>
       <c r="L241" s="20"/>
       <c r="M241" s="20"/>
+      <c r="N241" s="26"/>
     </row>
     <row r="242" spans="1:14">
       <c r="A242" s="24"/>
@@ -8273,6 +8178,7 @@
       <c r="K242" s="19"/>
       <c r="L242" s="20"/>
       <c r="M242" s="20"/>
+      <c r="N242" s="26"/>
     </row>
     <row r="243" spans="1:14">
       <c r="A243" s="24"/>
@@ -8288,6 +8194,7 @@
       <c r="K243" s="19"/>
       <c r="L243" s="20"/>
       <c r="M243" s="20"/>
+      <c r="N243" s="26"/>
     </row>
     <row r="244" spans="1:14">
       <c r="A244" s="24"/>
@@ -8575,7 +8482,7 @@
       <c r="K261" s="19"/>
       <c r="L261" s="20"/>
       <c r="M261" s="20"/>
-      <c r="N261" s="26"/>
+      <c r="N261" s="28"/>
     </row>
     <row r="262" spans="1:14">
       <c r="A262" s="24"/>
@@ -8591,7 +8498,7 @@
       <c r="K262" s="19"/>
       <c r="L262" s="20"/>
       <c r="M262" s="20"/>
-      <c r="N262" s="26"/>
+      <c r="N262" s="28"/>
     </row>
     <row r="263" spans="1:14">
       <c r="A263" s="24"/>
@@ -8607,7 +8514,7 @@
       <c r="K263" s="19"/>
       <c r="L263" s="20"/>
       <c r="M263" s="20"/>
-      <c r="N263" s="26"/>
+      <c r="N263" s="28"/>
     </row>
     <row r="264" spans="1:14">
       <c r="A264" s="24"/>
@@ -8623,7 +8530,7 @@
       <c r="K264" s="19"/>
       <c r="L264" s="20"/>
       <c r="M264" s="20"/>
-      <c r="N264" s="26"/>
+      <c r="N264" s="28"/>
     </row>
     <row r="265" spans="1:14">
       <c r="A265" s="24"/>
@@ -8690,14 +8597,13 @@
       <c r="N268" s="28"/>
     </row>
     <row r="269" spans="1:14">
-      <c r="A269" s="24"/>
+      <c r="A269" s="11"/>
       <c r="B269" s="20"/>
-      <c r="C269" s="22"/>
-      <c r="D269" s="22"/>
-      <c r="E269" s="20"/>
-      <c r="F269" s="22"/>
-      <c r="G269" s="22"/>
-      <c r="H269" s="22"/>
+      <c r="C269" s="5"/>
+      <c r="D269" s="5"/>
+      <c r="F269" s="5"/>
+      <c r="G269" s="5"/>
+      <c r="H269" s="5"/>
       <c r="I269" s="23"/>
       <c r="J269" s="19"/>
       <c r="K269" s="19"/>
@@ -8706,14 +8612,13 @@
       <c r="N269" s="28"/>
     </row>
     <row r="270" spans="1:14">
-      <c r="A270" s="24"/>
+      <c r="A270" s="11"/>
       <c r="B270" s="20"/>
-      <c r="C270" s="22"/>
-      <c r="D270" s="22"/>
-      <c r="E270" s="20"/>
-      <c r="F270" s="22"/>
-      <c r="G270" s="22"/>
-      <c r="H270" s="22"/>
+      <c r="C270" s="5"/>
+      <c r="D270" s="5"/>
+      <c r="F270" s="5"/>
+      <c r="G270" s="5"/>
+      <c r="H270" s="5"/>
       <c r="I270" s="23"/>
       <c r="J270" s="19"/>
       <c r="K270" s="19"/>
@@ -8722,14 +8627,13 @@
       <c r="N270" s="28"/>
     </row>
     <row r="271" spans="1:14">
-      <c r="A271" s="24"/>
+      <c r="A271" s="11"/>
       <c r="B271" s="20"/>
-      <c r="C271" s="22"/>
-      <c r="D271" s="22"/>
-      <c r="E271" s="20"/>
-      <c r="F271" s="22"/>
-      <c r="G271" s="22"/>
-      <c r="H271" s="22"/>
+      <c r="C271" s="5"/>
+      <c r="D271" s="5"/>
+      <c r="F271" s="5"/>
+      <c r="G271" s="5"/>
+      <c r="H271" s="5"/>
       <c r="I271" s="23"/>
       <c r="J271" s="19"/>
       <c r="K271" s="19"/>
@@ -8738,20 +8642,19 @@
       <c r="N271" s="28"/>
     </row>
     <row r="272" spans="1:14">
-      <c r="A272" s="24"/>
+      <c r="A272" s="11"/>
       <c r="B272" s="20"/>
-      <c r="C272" s="22"/>
-      <c r="D272" s="22"/>
-      <c r="E272" s="20"/>
-      <c r="F272" s="22"/>
-      <c r="G272" s="22"/>
-      <c r="H272" s="22"/>
+      <c r="C272" s="5"/>
+      <c r="D272" s="5"/>
+      <c r="F272" s="5"/>
+      <c r="G272" s="5"/>
+      <c r="H272" s="5"/>
       <c r="I272" s="23"/>
       <c r="J272" s="19"/>
       <c r="K272" s="19"/>
       <c r="L272" s="20"/>
       <c r="M272" s="20"/>
-      <c r="N272" s="28"/>
+      <c r="N272" s="26"/>
     </row>
     <row r="273" spans="1:14">
       <c r="A273" s="11"/>
@@ -8766,7 +8669,7 @@
       <c r="K273" s="19"/>
       <c r="L273" s="20"/>
       <c r="M273" s="20"/>
-      <c r="N273" s="28"/>
+      <c r="N273" s="26"/>
     </row>
     <row r="274" spans="1:14">
       <c r="A274" s="11"/>
@@ -8781,7 +8684,7 @@
       <c r="K274" s="19"/>
       <c r="L274" s="20"/>
       <c r="M274" s="20"/>
-      <c r="N274" s="28"/>
+      <c r="N274" s="26"/>
     </row>
     <row r="275" spans="1:14">
       <c r="A275" s="11"/>
@@ -8796,7 +8699,7 @@
       <c r="K275" s="19"/>
       <c r="L275" s="20"/>
       <c r="M275" s="20"/>
-      <c r="N275" s="28"/>
+      <c r="N275" s="26"/>
     </row>
     <row r="276" spans="1:14">
       <c r="A276" s="11"/>
@@ -8991,7 +8894,7 @@
       <c r="K288" s="19"/>
       <c r="L288" s="20"/>
       <c r="M288" s="20"/>
-      <c r="N288" s="26"/>
+      <c r="N288" s="29"/>
     </row>
     <row r="289" spans="1:14">
       <c r="A289" s="11"/>
@@ -9006,7 +8909,7 @@
       <c r="K289" s="19"/>
       <c r="L289" s="20"/>
       <c r="M289" s="20"/>
-      <c r="N289" s="26"/>
+      <c r="N289" s="29"/>
     </row>
     <row r="290" spans="1:14">
       <c r="A290" s="11"/>
@@ -9021,7 +8924,7 @@
       <c r="K290" s="19"/>
       <c r="L290" s="20"/>
       <c r="M290" s="20"/>
-      <c r="N290" s="26"/>
+      <c r="N290" s="29"/>
     </row>
     <row r="291" spans="1:14">
       <c r="A291" s="11"/>
@@ -9036,7 +8939,7 @@
       <c r="K291" s="19"/>
       <c r="L291" s="20"/>
       <c r="M291" s="20"/>
-      <c r="N291" s="26"/>
+      <c r="N291" s="29"/>
     </row>
     <row r="292" spans="1:14">
       <c r="A292" s="11"/>
@@ -9051,7 +8954,7 @@
       <c r="K292" s="19"/>
       <c r="L292" s="20"/>
       <c r="M292" s="20"/>
-      <c r="N292" s="29"/>
+      <c r="N292" s="26"/>
     </row>
     <row r="293" spans="1:14">
       <c r="A293" s="11"/>
@@ -9066,7 +8969,7 @@
       <c r="K293" s="19"/>
       <c r="L293" s="20"/>
       <c r="M293" s="20"/>
-      <c r="N293" s="29"/>
+      <c r="N293" s="26"/>
     </row>
     <row r="294" spans="1:14">
       <c r="A294" s="11"/>
@@ -9081,7 +8984,7 @@
       <c r="K294" s="19"/>
       <c r="L294" s="20"/>
       <c r="M294" s="20"/>
-      <c r="N294" s="29"/>
+      <c r="N294" s="26"/>
     </row>
     <row r="295" spans="1:14">
       <c r="A295" s="11"/>
@@ -9096,7 +8999,7 @@
       <c r="K295" s="19"/>
       <c r="L295" s="20"/>
       <c r="M295" s="20"/>
-      <c r="N295" s="29"/>
+      <c r="N295" s="26"/>
     </row>
     <row r="296" spans="1:14">
       <c r="A296" s="11"/>
@@ -9216,7 +9119,7 @@
       <c r="K303" s="19"/>
       <c r="L303" s="20"/>
       <c r="M303" s="20"/>
-      <c r="N303" s="26"/>
+      <c r="N303" s="30"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="11"/>
@@ -9231,7 +9134,7 @@
       <c r="K304" s="19"/>
       <c r="L304" s="20"/>
       <c r="M304" s="20"/>
-      <c r="N304" s="26"/>
+      <c r="N304" s="30"/>
     </row>
     <row r="305" spans="1:14">
       <c r="A305" s="11"/>
@@ -9246,7 +9149,7 @@
       <c r="K305" s="19"/>
       <c r="L305" s="20"/>
       <c r="M305" s="20"/>
-      <c r="N305" s="26"/>
+      <c r="N305" s="30"/>
     </row>
     <row r="306" spans="1:14">
       <c r="A306" s="11"/>
@@ -9261,7 +9164,7 @@
       <c r="K306" s="19"/>
       <c r="L306" s="20"/>
       <c r="M306" s="20"/>
-      <c r="N306" s="26"/>
+      <c r="N306" s="28"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="11"/>
@@ -9276,7 +9179,7 @@
       <c r="K307" s="19"/>
       <c r="L307" s="20"/>
       <c r="M307" s="20"/>
-      <c r="N307" s="30"/>
+      <c r="N307" s="28"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="11"/>
@@ -9291,7 +9194,7 @@
       <c r="K308" s="19"/>
       <c r="L308" s="20"/>
       <c r="M308" s="20"/>
-      <c r="N308" s="30"/>
+      <c r="N308" s="28"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="11"/>
@@ -9306,7 +9209,7 @@
       <c r="K309" s="19"/>
       <c r="L309" s="20"/>
       <c r="M309" s="20"/>
-      <c r="N309" s="30"/>
+      <c r="N309" s="28"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="11"/>
@@ -9381,7 +9284,7 @@
       <c r="K314" s="19"/>
       <c r="L314" s="20"/>
       <c r="M314" s="20"/>
-      <c r="N314" s="28"/>
+      <c r="N314" s="30"/>
     </row>
     <row r="315" spans="1:14">
       <c r="A315" s="11"/>
@@ -9396,10 +9299,9 @@
       <c r="K315" s="19"/>
       <c r="L315" s="20"/>
       <c r="M315" s="20"/>
-      <c r="N315" s="28"/>
+      <c r="N315" s="30"/>
     </row>
     <row r="316" spans="1:14">
-      <c r="A316" s="11"/>
       <c r="B316" s="20"/>
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
@@ -9411,10 +9313,9 @@
       <c r="K316" s="19"/>
       <c r="L316" s="20"/>
       <c r="M316" s="20"/>
-      <c r="N316" s="28"/>
+      <c r="N316" s="30"/>
     </row>
     <row r="317" spans="1:14">
-      <c r="A317" s="11"/>
       <c r="B317" s="20"/>
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
@@ -9426,10 +9327,9 @@
       <c r="K317" s="19"/>
       <c r="L317" s="20"/>
       <c r="M317" s="20"/>
-      <c r="N317" s="28"/>
+      <c r="N317" s="30"/>
     </row>
     <row r="318" spans="1:14">
-      <c r="A318" s="11"/>
       <c r="B318" s="20"/>
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
@@ -9444,7 +9344,6 @@
       <c r="N318" s="30"/>
     </row>
     <row r="319" spans="1:14">
-      <c r="A319" s="11"/>
       <c r="B319" s="20"/>
       <c r="C319" s="5"/>
       <c r="D319" s="5"/>
@@ -9568,7 +9467,7 @@
       <c r="K327" s="19"/>
       <c r="L327" s="20"/>
       <c r="M327" s="20"/>
-      <c r="N327" s="30"/>
+      <c r="N327" s="26"/>
     </row>
     <row r="328" spans="2:14">
       <c r="B328" s="20"/>
@@ -9582,7 +9481,7 @@
       <c r="K328" s="19"/>
       <c r="L328" s="20"/>
       <c r="M328" s="20"/>
-      <c r="N328" s="30"/>
+      <c r="N328" s="26"/>
     </row>
     <row r="329" spans="2:14">
       <c r="B329" s="20"/>
@@ -9596,7 +9495,7 @@
       <c r="K329" s="19"/>
       <c r="L329" s="20"/>
       <c r="M329" s="20"/>
-      <c r="N329" s="30"/>
+      <c r="N329" s="26"/>
     </row>
     <row r="330" spans="2:14">
       <c r="B330" s="20"/>
@@ -9610,63 +9509,59 @@
       <c r="K330" s="19"/>
       <c r="L330" s="20"/>
       <c r="M330" s="20"/>
-      <c r="N330" s="30"/>
+      <c r="N330" s="26"/>
     </row>
     <row r="331" spans="2:14">
-      <c r="B331" s="20"/>
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
       <c r="F331" s="5"/>
       <c r="G331" s="5"/>
       <c r="H331" s="5"/>
-      <c r="I331" s="23"/>
+      <c r="I331" s="18"/>
       <c r="J331" s="19"/>
       <c r="K331" s="19"/>
       <c r="L331" s="20"/>
       <c r="M331" s="20"/>
-      <c r="N331" s="26"/>
+      <c r="N331" s="20"/>
     </row>
     <row r="332" spans="2:14">
-      <c r="B332" s="20"/>
       <c r="C332" s="5"/>
       <c r="D332" s="5"/>
       <c r="F332" s="5"/>
       <c r="G332" s="5"/>
       <c r="H332" s="5"/>
-      <c r="I332" s="23"/>
+      <c r="I332" s="18"/>
       <c r="J332" s="19"/>
       <c r="K332" s="19"/>
       <c r="L332" s="20"/>
       <c r="M332" s="20"/>
-      <c r="N332" s="26"/>
+      <c r="N332" s="20"/>
     </row>
     <row r="333" spans="2:14">
-      <c r="B333" s="20"/>
       <c r="C333" s="5"/>
       <c r="D333" s="5"/>
       <c r="F333" s="5"/>
       <c r="G333" s="5"/>
       <c r="H333" s="5"/>
-      <c r="I333" s="23"/>
+      <c r="I333" s="18"/>
       <c r="J333" s="19"/>
       <c r="K333" s="19"/>
       <c r="L333" s="20"/>
       <c r="M333" s="20"/>
-      <c r="N333" s="26"/>
+      <c r="N333" s="20"/>
     </row>
     <row r="334" spans="2:14">
-      <c r="B334" s="20"/>
       <c r="C334" s="5"/>
       <c r="D334" s="5"/>
       <c r="F334" s="5"/>
       <c r="G334" s="5"/>
       <c r="H334" s="5"/>
-      <c r="I334" s="23"/>
+      <c r="I334" s="18"/>
       <c r="J334" s="19"/>
       <c r="K334" s="19"/>
       <c r="L334" s="20"/>
       <c r="M334" s="20"/>
-      <c r="N334" s="26"/>
+      <c r="N334" s="20"/>
     </row>
     <row r="335" spans="2:14">
       <c r="C335" s="5"/>
@@ -11045,58 +10940,6 @@
       <c r="L440" s="20"/>
       <c r="M440" s="20"/>
       <c r="N440" s="20"/>
-    </row>
-    <row r="441" spans="3:14">
-      <c r="C441" s="5"/>
-      <c r="D441" s="5"/>
-      <c r="F441" s="5"/>
-      <c r="G441" s="5"/>
-      <c r="H441" s="5"/>
-      <c r="I441" s="18"/>
-      <c r="J441" s="19"/>
-      <c r="K441" s="19"/>
-      <c r="L441" s="20"/>
-      <c r="M441" s="20"/>
-      <c r="N441" s="20"/>
-    </row>
-    <row r="442" spans="3:14">
-      <c r="C442" s="5"/>
-      <c r="D442" s="5"/>
-      <c r="F442" s="5"/>
-      <c r="G442" s="5"/>
-      <c r="H442" s="5"/>
-      <c r="I442" s="18"/>
-      <c r="J442" s="19"/>
-      <c r="K442" s="19"/>
-      <c r="L442" s="20"/>
-      <c r="M442" s="20"/>
-      <c r="N442" s="20"/>
-    </row>
-    <row r="443" spans="3:14">
-      <c r="C443" s="5"/>
-      <c r="D443" s="5"/>
-      <c r="F443" s="5"/>
-      <c r="G443" s="5"/>
-      <c r="H443" s="5"/>
-      <c r="I443" s="18"/>
-      <c r="J443" s="19"/>
-      <c r="K443" s="19"/>
-      <c r="L443" s="20"/>
-      <c r="M443" s="20"/>
-      <c r="N443" s="20"/>
-    </row>
-    <row r="444" spans="3:14">
-      <c r="C444" s="5"/>
-      <c r="D444" s="5"/>
-      <c r="F444" s="5"/>
-      <c r="G444" s="5"/>
-      <c r="H444" s="5"/>
-      <c r="I444" s="18"/>
-      <c r="J444" s="19"/>
-      <c r="K444" s="19"/>
-      <c r="L444" s="20"/>
-      <c r="M444" s="20"/>
-      <c r="N444" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -11155,14 +10998,14 @@
     <hyperlink ref="N48" r:id="rId31" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.apsusc.2015.06.144" xr:uid="{704921CC-C8E2-464E-BC7A-DC08544C776F}"/>
     <hyperlink ref="N50" r:id="rId32" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.apsusc.2015.06.144" xr:uid="{00D93C46-189D-C846-93F4-F22C51020844}"/>
     <hyperlink ref="N51" r:id="rId33" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.apsusc.2015.06.144" xr:uid="{DC4CA17A-631B-6A40-AF61-57AA255452FB}"/>
-    <hyperlink ref="N131" r:id="rId34" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{40D0BFA4-26A7-AB49-B4AC-7F69BBE04DBA}"/>
-    <hyperlink ref="N132" r:id="rId35" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{F035D85F-3E3C-944D-B994-D6DF456BA947}"/>
-    <hyperlink ref="N133" r:id="rId36" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{D15E9247-F3FB-DA4D-BA2F-90D1BA171F67}"/>
-    <hyperlink ref="N135" r:id="rId37" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{F489F2C3-9FCB-7749-A957-209996C88122}"/>
-    <hyperlink ref="N137" r:id="rId38" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{240582A7-EB47-7E49-8BFC-1E20D9179D29}"/>
-    <hyperlink ref="N134" r:id="rId39" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{4277758D-7704-1043-B0F7-DFE0405B8FC0}"/>
-    <hyperlink ref="N136" r:id="rId40" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{78AD1C2D-7233-1643-9FA7-DAC9FECDF47D}"/>
-    <hyperlink ref="N138" r:id="rId41" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{5B661B0E-1463-7F48-AA96-8F92169B7B63}"/>
+    <hyperlink ref="N127" r:id="rId34" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{40D0BFA4-26A7-AB49-B4AC-7F69BBE04DBA}"/>
+    <hyperlink ref="N128" r:id="rId35" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{F035D85F-3E3C-944D-B994-D6DF456BA947}"/>
+    <hyperlink ref="N129" r:id="rId36" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{D15E9247-F3FB-DA4D-BA2F-90D1BA171F67}"/>
+    <hyperlink ref="N131" r:id="rId37" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{F489F2C3-9FCB-7749-A957-209996C88122}"/>
+    <hyperlink ref="N133" r:id="rId38" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{240582A7-EB47-7E49-8BFC-1E20D9179D29}"/>
+    <hyperlink ref="N130" r:id="rId39" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{4277758D-7704-1043-B0F7-DFE0405B8FC0}"/>
+    <hyperlink ref="N132" r:id="rId40" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{78AD1C2D-7233-1643-9FA7-DAC9FECDF47D}"/>
+    <hyperlink ref="N134" r:id="rId41" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{5B661B0E-1463-7F48-AA96-8F92169B7B63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId42"/>

--- a/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
+++ b/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-guest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD3BB3C-CD68-0540-BBE3-FED438962957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61798994-5A46-1D48-B76D-19B7E7AE4003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="222">
   <si>
     <t>Name:</t>
   </si>
@@ -569,18 +569,6 @@
     <t>Mo25 Nb25 Ta25 V25</t>
   </si>
   <si>
-    <t>Nb36.3 Ti32.2 Zr31.5</t>
-  </si>
-  <si>
-    <t>Nb32.1 Ta11.1 Ti28.1 Zr28.7</t>
-  </si>
-  <si>
-    <t>Cr8.7 Nb34.4 Ti29.2 Zr27.7</t>
-  </si>
-  <si>
-    <t>Nb32.6 Re10.3 Ti27.7 Zr29.4</t>
-  </si>
-  <si>
     <t>Ti72.68 Nb23.83 Ta3.49</t>
   </si>
   <si>
@@ -705,6 +693,27 @@
   </si>
   <si>
     <t>SPS for 30min at 30MPa at 1873K</t>
+  </si>
+  <si>
+    <t>NbTiZr</t>
+  </si>
+  <si>
+    <t>Ta10Nb30Ti30Zr30</t>
+  </si>
+  <si>
+    <t>Cr10Nb30Ti30Zr30</t>
+  </si>
+  <si>
+    <t>Re10Nb30Ti30Zr30</t>
+  </si>
+  <si>
+    <t>BCC+C14</t>
+  </si>
+  <si>
+    <t>BCC+C14+C15</t>
+  </si>
+  <si>
+    <t>HIP'd at 1673K for 2h under 276MPa; annealed at 1673K</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="O123" sqref="O123"/>
     </sheetView>
   </sheetViews>
@@ -1321,14 +1330,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D2" s="45" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="45"/>
       <c r="F2" s="43" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
@@ -1345,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D3" s="45"/>
       <c r="E3" s="45"/>
@@ -1597,7 +1606,7 @@
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G10" s="20" t="s">
         <v>119</v>
@@ -1637,7 +1646,7 @@
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G11" s="20" t="s">
         <v>119</v>
@@ -1677,7 +1686,7 @@
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>119</v>
@@ -1717,7 +1726,7 @@
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>119</v>
@@ -1757,7 +1766,7 @@
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>119</v>
@@ -1797,7 +1806,7 @@
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>119</v>
@@ -1837,7 +1846,7 @@
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>119</v>
@@ -1877,7 +1886,7 @@
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>119</v>
@@ -1916,7 +1925,7 @@
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>119</v>
@@ -1955,7 +1964,7 @@
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>119</v>
@@ -1994,7 +2003,7 @@
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>119</v>
@@ -2033,7 +2042,7 @@
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>119</v>
@@ -2072,7 +2081,7 @@
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>119</v>
@@ -2111,7 +2120,7 @@
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>119</v>
@@ -2150,7 +2159,7 @@
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G24" s="20" t="s">
         <v>119</v>
@@ -2189,7 +2198,7 @@
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>119</v>
@@ -2228,7 +2237,7 @@
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G26" s="20" t="s">
         <v>119</v>
@@ -2267,7 +2276,7 @@
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G27" s="20" t="s">
         <v>119</v>
@@ -2306,7 +2315,7 @@
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G28" s="20" t="s">
         <v>119</v>
@@ -2345,7 +2354,7 @@
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G29" s="20" t="s">
         <v>119</v>
@@ -2384,7 +2393,7 @@
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>119</v>
@@ -2423,7 +2432,7 @@
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G31" s="20" t="s">
         <v>119</v>
@@ -2462,7 +2471,7 @@
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G32" s="20" t="s">
         <v>119</v>
@@ -2501,7 +2510,7 @@
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G33" s="20" t="s">
         <v>119</v>
@@ -2540,7 +2549,7 @@
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G34" s="20" t="s">
         <v>119</v>
@@ -2579,7 +2588,7 @@
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G35" s="20" t="s">
         <v>119</v>
@@ -2615,7 +2624,7 @@
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G36" s="20" t="s">
         <v>119</v>
@@ -2651,7 +2660,7 @@
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G37" s="20" t="s">
         <v>119</v>
@@ -2687,7 +2696,7 @@
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G38" s="20" t="s">
         <v>119</v>
@@ -2722,7 +2731,7 @@
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G39" s="20" t="s">
         <v>119</v>
@@ -2757,7 +2766,7 @@
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G40" s="20" t="s">
         <v>119</v>
@@ -2792,7 +2801,7 @@
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G41" s="20" t="s">
         <v>119</v>
@@ -2826,7 +2835,7 @@
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G42" s="20" t="s">
         <v>119</v>
@@ -2862,7 +2871,7 @@
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G43" s="20" t="s">
         <v>119</v>
@@ -2898,7 +2907,7 @@
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G44" s="20" t="s">
         <v>119</v>
@@ -2934,7 +2943,7 @@
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G45" s="20" t="s">
         <v>119</v>
@@ -2970,7 +2979,7 @@
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G46" s="20" t="s">
         <v>119</v>
@@ -3006,7 +3015,7 @@
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G47" s="20" t="s">
         <v>119</v>
@@ -3042,7 +3051,7 @@
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G48" s="20" t="s">
         <v>119</v>
@@ -3078,7 +3087,7 @@
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G49" s="20" t="s">
         <v>119</v>
@@ -3114,7 +3123,7 @@
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G50" s="20" t="s">
         <v>119</v>
@@ -3150,7 +3159,7 @@
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G51" s="20" t="s">
         <v>119</v>
@@ -3183,7 +3192,7 @@
       <c r="C52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G52" s="20" t="s">
         <v>119</v>
@@ -3216,7 +3225,7 @@
       <c r="C53" s="20"/>
       <c r="E53" s="20"/>
       <c r="F53" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G53" s="20" t="s">
         <v>119</v>
@@ -3249,7 +3258,7 @@
       <c r="C54" s="20"/>
       <c r="E54" s="20"/>
       <c r="F54" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G54" s="20" t="s">
         <v>119</v>
@@ -3282,7 +3291,7 @@
       <c r="C55" s="20"/>
       <c r="E55" s="20"/>
       <c r="F55" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G55" s="20" t="s">
         <v>119</v>
@@ -3315,7 +3324,7 @@
       <c r="C56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G56" s="20" t="s">
         <v>119</v>
@@ -3348,7 +3357,7 @@
       <c r="C57" s="20"/>
       <c r="E57" s="20"/>
       <c r="F57" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G57" s="20" t="s">
         <v>119</v>
@@ -3384,7 +3393,7 @@
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G58" s="20" t="s">
         <v>119</v>
@@ -3419,7 +3428,7 @@
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G59" s="20" t="s">
         <v>119</v>
@@ -3454,7 +3463,7 @@
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G60" s="20" t="s">
         <v>119</v>
@@ -3489,7 +3498,7 @@
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G61" s="20" t="s">
         <v>119</v>
@@ -3526,7 +3535,7 @@
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G62" s="20" t="s">
         <v>119</v>
@@ -3565,7 +3574,7 @@
       </c>
       <c r="E63" s="20"/>
       <c r="F63" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G63" s="20" t="s">
         <v>119</v>
@@ -3604,7 +3613,7 @@
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G64" s="20" t="s">
         <v>119</v>
@@ -3643,7 +3652,7 @@
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G65" s="20" t="s">
         <v>119</v>
@@ -3682,7 +3691,7 @@
       </c>
       <c r="E66" s="20"/>
       <c r="F66" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G66" s="20" t="s">
         <v>119</v>
@@ -3719,7 +3728,7 @@
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G67" s="20" t="s">
         <v>119</v>
@@ -3756,7 +3765,7 @@
       </c>
       <c r="E68" s="20"/>
       <c r="F68" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G68" s="20" t="s">
         <v>119</v>
@@ -3793,7 +3802,7 @@
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G69" s="20" t="s">
         <v>119</v>
@@ -3830,7 +3839,7 @@
       </c>
       <c r="E70" s="20"/>
       <c r="F70" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G70" s="20" t="s">
         <v>119</v>
@@ -3867,7 +3876,7 @@
       </c>
       <c r="E71" s="20"/>
       <c r="F71" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G71" s="20" t="s">
         <v>119</v>
@@ -3904,7 +3913,7 @@
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G72" s="20" t="s">
         <v>119</v>
@@ -3941,7 +3950,7 @@
       </c>
       <c r="E73" s="20"/>
       <c r="F73" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G73" s="20" t="s">
         <v>119</v>
@@ -3973,7 +3982,7 @@
       <c r="C74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G74" s="20" t="s">
         <v>119</v>
@@ -4004,7 +4013,7 @@
       <c r="C75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G75" s="20" t="s">
         <v>119</v>
@@ -4035,7 +4044,7 @@
       <c r="C76" s="20"/>
       <c r="E76" s="20"/>
       <c r="F76" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G76" s="20" t="s">
         <v>119</v>
@@ -4067,13 +4076,13 @@
         <v>113</v>
       </c>
       <c r="D77" s="50" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E77" s="49" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F77" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G77" s="20" t="s">
         <v>119</v>
@@ -4102,19 +4111,19 @@
         <v>72</v>
       </c>
       <c r="B78" s="49" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C78" s="20" t="s">
         <v>113</v>
       </c>
       <c r="D78" s="50" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E78" s="49" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F78" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G78" s="20" t="s">
         <v>119</v>
@@ -4143,19 +4152,19 @@
         <v>73</v>
       </c>
       <c r="B79" s="49" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C79" s="20" t="s">
         <v>113</v>
       </c>
       <c r="D79" s="50" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E79" s="49" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F79" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G79" s="20" t="s">
         <v>119</v>
@@ -4184,19 +4193,19 @@
         <v>74</v>
       </c>
       <c r="B80" s="49" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C80" s="20" t="s">
         <v>113</v>
       </c>
       <c r="D80" s="50" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E80" s="49" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F80" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G80" s="20" t="s">
         <v>119</v>
@@ -4231,7 +4240,7 @@
       </c>
       <c r="E81" s="20"/>
       <c r="F81" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G81" s="20" t="s">
         <v>119</v>
@@ -4266,7 +4275,7 @@
       </c>
       <c r="E82" s="20"/>
       <c r="F82" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G82" s="20" t="s">
         <v>119</v>
@@ -4301,7 +4310,7 @@
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G83" s="20" t="s">
         <v>119</v>
@@ -4336,7 +4345,7 @@
       </c>
       <c r="E84" s="20"/>
       <c r="F84" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G84" s="20" t="s">
         <v>119</v>
@@ -4371,7 +4380,7 @@
       </c>
       <c r="E85" s="20"/>
       <c r="F85" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G85" s="20" t="s">
         <v>119</v>
@@ -4399,14 +4408,14 @@
         <v>80</v>
       </c>
       <c r="B86" s="49" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C86" s="20" t="s">
         <v>113</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G86" s="20" t="s">
         <v>119</v>
@@ -4434,14 +4443,14 @@
         <v>81</v>
       </c>
       <c r="B87" s="49" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C87" s="20" t="s">
         <v>113</v>
       </c>
       <c r="E87" s="20"/>
       <c r="F87" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G87" s="20" t="s">
         <v>119</v>
@@ -4469,14 +4478,14 @@
         <v>82</v>
       </c>
       <c r="B88" s="49" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C88" s="20" t="s">
         <v>113</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G88" s="20" t="s">
         <v>119</v>
@@ -4510,13 +4519,13 @@
         <v>113</v>
       </c>
       <c r="D89" s="50" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E89" s="49" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F89" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G89" s="20" t="s">
         <v>119</v>
@@ -4545,16 +4554,16 @@
         <v>84</v>
       </c>
       <c r="B90" s="49" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D90" s="50" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E90" s="49" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F90" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G90" s="20" t="s">
         <v>119</v>
@@ -4583,16 +4592,16 @@
         <v>85</v>
       </c>
       <c r="B91" s="49" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D91" s="50" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E91" s="49" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F91" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G91" s="20" t="s">
         <v>119</v>
@@ -4621,19 +4630,19 @@
         <v>86</v>
       </c>
       <c r="B92" s="49" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C92" s="50" t="s">
         <v>113</v>
       </c>
       <c r="D92" s="50" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E92" s="51" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F92" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G92" s="20" t="s">
         <v>119</v>
@@ -4661,19 +4670,19 @@
         <v>87</v>
       </c>
       <c r="B93" s="49" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C93" s="50" t="s">
         <v>113</v>
       </c>
       <c r="D93" s="50" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E93" s="51" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F93" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G93" s="20" t="s">
         <v>119</v>
@@ -4701,19 +4710,19 @@
         <v>88</v>
       </c>
       <c r="B94" s="49" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C94" s="50" t="s">
         <v>113</v>
       </c>
       <c r="D94" s="50" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E94" s="51" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F94" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G94" s="20" t="s">
         <v>119</v>
@@ -4741,19 +4750,19 @@
         <v>89</v>
       </c>
       <c r="B95" s="49" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C95" s="50" t="s">
         <v>113</v>
       </c>
       <c r="D95" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E95" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="E95" s="51" t="s">
-        <v>199</v>
-      </c>
       <c r="F95" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G95" s="20" t="s">
         <v>119</v>
@@ -4781,19 +4790,19 @@
         <v>90</v>
       </c>
       <c r="B96" s="49" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C96" s="50" t="s">
         <v>113</v>
       </c>
       <c r="D96" s="50" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E96" s="51" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F96" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G96" s="20" t="s">
         <v>119</v>
@@ -4821,19 +4830,19 @@
         <v>91</v>
       </c>
       <c r="B97" s="49" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C97" s="50" t="s">
         <v>113</v>
       </c>
       <c r="D97" s="50" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E97" s="51" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F97" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G97" s="20" t="s">
         <v>119</v>
@@ -4861,19 +4870,19 @@
         <v>92</v>
       </c>
       <c r="B98" s="49" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C98" s="50" t="s">
         <v>113</v>
       </c>
       <c r="D98" s="50" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E98" s="51" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F98" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G98" s="20" t="s">
         <v>119</v>
@@ -4901,19 +4910,19 @@
         <v>93</v>
       </c>
       <c r="B99" s="49" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C99" s="50" t="s">
         <v>113</v>
       </c>
       <c r="D99" s="50" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E99" s="51" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F99" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G99" s="20" t="s">
         <v>119</v>
@@ -4941,19 +4950,19 @@
         <v>94</v>
       </c>
       <c r="B100" s="49" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C100" s="50" t="s">
         <v>113</v>
       </c>
       <c r="D100" s="50" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E100" s="51" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F100" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G100" s="20" t="s">
         <v>119</v>
@@ -4981,19 +4990,19 @@
         <v>95</v>
       </c>
       <c r="B101" s="49" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C101" s="50" t="s">
         <v>113</v>
       </c>
       <c r="D101" s="50" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E101" s="51" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F101" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G101" s="20" t="s">
         <v>119</v>
@@ -5021,19 +5030,19 @@
         <v>96</v>
       </c>
       <c r="B102" s="49" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C102" s="50" t="s">
         <v>113</v>
       </c>
       <c r="D102" s="50" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E102" s="51" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F102" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G102" s="20" t="s">
         <v>119</v>
@@ -5068,7 +5077,7 @@
       </c>
       <c r="E103" s="20"/>
       <c r="F103" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G103" s="20" t="s">
         <v>119</v>
@@ -5102,7 +5111,7 @@
       </c>
       <c r="E104" s="20"/>
       <c r="F104" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G104" s="20" t="s">
         <v>119</v>
@@ -5136,7 +5145,7 @@
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G105" s="20" t="s">
         <v>119</v>
@@ -5170,7 +5179,7 @@
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G106" s="20" t="s">
         <v>119</v>
@@ -5207,7 +5216,7 @@
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G107" s="20" t="s">
         <v>119</v>
@@ -5244,7 +5253,7 @@
       </c>
       <c r="E108" s="20"/>
       <c r="F108" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G108" s="20" t="s">
         <v>119</v>
@@ -5281,7 +5290,7 @@
       </c>
       <c r="E109" s="20"/>
       <c r="F109" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G109" s="20" t="s">
         <v>119</v>
@@ -5318,7 +5327,7 @@
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G110" s="20" t="s">
         <v>119</v>
@@ -5355,7 +5364,7 @@
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G111" s="20" t="s">
         <v>119</v>
@@ -5392,7 +5401,7 @@
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G112" s="20" t="s">
         <v>119</v>
@@ -5429,7 +5438,7 @@
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G113" s="20" t="s">
         <v>119</v>
@@ -5466,7 +5475,7 @@
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G114" s="20" t="s">
         <v>119</v>
@@ -5503,7 +5512,7 @@
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G115" s="20" t="s">
         <v>119</v>
@@ -5540,7 +5549,7 @@
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G116" s="20" t="s">
         <v>119</v>
@@ -5577,7 +5586,7 @@
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G117" s="20" t="s">
         <v>119</v>
@@ -5614,7 +5623,7 @@
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G118" s="20" t="s">
         <v>119</v>
@@ -5651,7 +5660,7 @@
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G119" s="20" t="s">
         <v>119</v>
@@ -5684,13 +5693,13 @@
         <v>113</v>
       </c>
       <c r="D120" s="50" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E120" s="49" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F120" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G120" s="20" t="s">
         <v>119</v>
@@ -5725,13 +5734,13 @@
         <v>113</v>
       </c>
       <c r="D121" s="50" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E121" s="49" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F121" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G121" s="20" t="s">
         <v>119</v>
@@ -5766,13 +5775,13 @@
         <v>113</v>
       </c>
       <c r="D122" s="50" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E122" s="49" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F122" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G122" s="20" t="s">
         <v>119</v>
@@ -5800,8 +5809,8 @@
       <c r="A123" s="3">
         <v>121</v>
       </c>
-      <c r="B123" s="31" t="s">
-        <v>173</v>
+      <c r="B123" s="49" t="s">
+        <v>215</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>113</v>
@@ -5809,22 +5818,27 @@
       <c r="D123" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E123" s="20"/>
+      <c r="E123" s="49" t="s">
+        <v>221</v>
+      </c>
       <c r="F123" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G123" s="20" t="s">
         <v>119</v>
       </c>
       <c r="H123" s="22"/>
       <c r="I123" s="23">
-        <v>1673</v>
+        <v>298</v>
       </c>
       <c r="J123" s="19">
         <f>340*9807000</f>
         <v>3334380000</v>
       </c>
-      <c r="K123" s="19"/>
+      <c r="K123" s="19">
+        <f>3*9807000</f>
+        <v>29421000</v>
+      </c>
       <c r="L123" s="20" t="s">
         <v>47</v>
       </c>
@@ -5839,28 +5853,36 @@
       <c r="A124" s="3">
         <v>122</v>
       </c>
-      <c r="B124" s="31" t="s">
-        <v>174</v>
+      <c r="B124" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="C124" s="50" t="s">
+        <v>113</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E124" s="20"/>
+      <c r="E124" s="49" t="s">
+        <v>221</v>
+      </c>
       <c r="F124" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G124" s="20" t="s">
         <v>119</v>
       </c>
       <c r="H124" s="22"/>
       <c r="I124" s="23">
-        <v>1673</v>
+        <v>298</v>
       </c>
       <c r="J124" s="19">
         <f>357*9807000</f>
         <v>3501099000</v>
       </c>
-      <c r="K124" s="19"/>
+      <c r="K124" s="19">
+        <f>3*9807000</f>
+        <v>29421000</v>
+      </c>
       <c r="L124" s="20" t="s">
         <v>47</v>
       </c>
@@ -5875,28 +5897,36 @@
       <c r="A125" s="3">
         <v>123</v>
       </c>
-      <c r="B125" s="31" t="s">
-        <v>175</v>
+      <c r="B125" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="C125" s="50" t="s">
+        <v>219</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E125" s="20"/>
+      <c r="E125" s="49" t="s">
+        <v>221</v>
+      </c>
       <c r="F125" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G125" s="20" t="s">
         <v>119</v>
       </c>
       <c r="H125" s="22"/>
       <c r="I125" s="23">
-        <v>1673</v>
+        <v>298</v>
       </c>
       <c r="J125" s="19">
         <f>457*9807000</f>
         <v>4481799000</v>
       </c>
-      <c r="K125" s="19"/>
+      <c r="K125" s="19">
+        <f>13*9807000</f>
+        <v>127491000</v>
+      </c>
       <c r="L125" s="20" t="s">
         <v>47</v>
       </c>
@@ -5911,28 +5941,36 @@
       <c r="A126" s="3">
         <v>124</v>
       </c>
-      <c r="B126" s="31" t="s">
-        <v>176</v>
+      <c r="B126" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="C126" s="50" t="s">
+        <v>220</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E126" s="20"/>
+      <c r="E126" s="49" t="s">
+        <v>221</v>
+      </c>
       <c r="F126" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G126" s="20" t="s">
         <v>119</v>
       </c>
       <c r="H126" s="22"/>
       <c r="I126" s="23">
-        <v>1673</v>
+        <v>298</v>
       </c>
       <c r="J126" s="19">
         <f>414*9807000</f>
         <v>4060098000</v>
       </c>
-      <c r="K126" s="19"/>
+      <c r="K126" s="19">
+        <f>8*9807000</f>
+        <v>78456000</v>
+      </c>
       <c r="L126" s="20" t="s">
         <v>47</v>
       </c>
@@ -5955,7 +5993,7 @@
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G127" s="20" t="s">
         <v>119</v>
@@ -5990,7 +6028,7 @@
       </c>
       <c r="E128" s="20"/>
       <c r="F128" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G128" s="20" t="s">
         <v>119</v>
@@ -6025,7 +6063,7 @@
       </c>
       <c r="E129" s="20"/>
       <c r="F129" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G129" s="20" t="s">
         <v>119</v>
@@ -6060,7 +6098,7 @@
       </c>
       <c r="E130" s="20"/>
       <c r="F130" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G130" s="20" t="s">
         <v>119</v>
@@ -6095,7 +6133,7 @@
       </c>
       <c r="E131" s="20"/>
       <c r="F131" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G131" s="20" t="s">
         <v>119</v>
@@ -6130,7 +6168,7 @@
       </c>
       <c r="E132" s="20"/>
       <c r="F132" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G132" s="20" t="s">
         <v>119</v>
@@ -6165,7 +6203,7 @@
       </c>
       <c r="E133" s="20"/>
       <c r="F133" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G133" s="20" t="s">
         <v>119</v>
@@ -6200,7 +6238,7 @@
       </c>
       <c r="E134" s="20"/>
       <c r="F134" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G134" s="20" t="s">
         <v>119</v>
@@ -6232,7 +6270,7 @@
       </c>
       <c r="E135" s="20"/>
       <c r="F135" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G135" s="20" t="s">
         <v>119</v>
@@ -6264,7 +6302,7 @@
       </c>
       <c r="E136" s="20"/>
       <c r="F136" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G136" s="20" t="s">
         <v>119</v>
@@ -6290,19 +6328,19 @@
         <v>135</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C137" s="50" t="s">
         <v>113</v>
       </c>
       <c r="D137" s="36" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E137" s="51" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F137" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G137" s="20" t="s">
         <v>119</v>
@@ -6331,19 +6369,19 @@
         <v>136</v>
       </c>
       <c r="B138" s="31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C138" s="50" t="s">
         <v>113</v>
       </c>
       <c r="D138" s="36" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E138" s="51" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F138" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G138" s="20" t="s">
         <v>119</v>
@@ -6372,19 +6410,19 @@
         <v>137</v>
       </c>
       <c r="B139" s="31" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C139" s="50" t="s">
         <v>113</v>
       </c>
       <c r="D139" s="36" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E139" s="51" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F139" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G139" s="20" t="s">
         <v>119</v>
@@ -6413,19 +6451,19 @@
         <v>138</v>
       </c>
       <c r="B140" s="31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C140" s="50" t="s">
         <v>113</v>
       </c>
       <c r="D140" s="36" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E140" s="51" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F140" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G140" s="20" t="s">
         <v>119</v>
@@ -6454,19 +6492,19 @@
         <v>139</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C141" s="50" t="s">
         <v>113</v>
       </c>
       <c r="D141" s="36" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E141" s="51" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F141" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G141" s="20" t="s">
         <v>119</v>
@@ -6495,19 +6533,19 @@
         <v>140</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C142" s="50" t="s">
         <v>113</v>
       </c>
       <c r="D142" s="36" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E142" s="51" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F142" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G142" s="20" t="s">
         <v>119</v>
@@ -6536,19 +6574,19 @@
         <v>141</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C143" s="50" t="s">
         <v>113</v>
       </c>
       <c r="D143" s="36" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E143" s="51" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F143" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G143" s="20" t="s">
         <v>119</v>
@@ -6577,19 +6615,19 @@
         <v>142</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C144" s="50" t="s">
         <v>113</v>
       </c>
       <c r="D144" s="36" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E144" s="51" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F144" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G144" s="20" t="s">
         <v>119</v>
@@ -6625,7 +6663,7 @@
       </c>
       <c r="E145" s="20"/>
       <c r="F145" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G145" s="20" t="s">
         <v>119</v>
@@ -6661,7 +6699,7 @@
       </c>
       <c r="E146" s="20"/>
       <c r="F146" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G146" s="20" t="s">
         <v>119</v>
@@ -6693,11 +6731,11 @@
         <v>107</v>
       </c>
       <c r="D147" s="36" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E147" s="20"/>
       <c r="F147" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G147" s="20" t="s">
         <v>119</v>
@@ -6729,11 +6767,11 @@
         <v>107</v>
       </c>
       <c r="D148" s="36" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E148" s="20"/>
       <c r="F148" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G148" s="20" t="s">
         <v>119</v>
@@ -6769,7 +6807,7 @@
       </c>
       <c r="E149" s="20"/>
       <c r="F149" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G149" s="20" t="s">
         <v>119</v>
@@ -6803,7 +6841,7 @@
       </c>
       <c r="E150" s="20"/>
       <c r="F150" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G150" s="20" t="s">
         <v>119</v>
@@ -6835,11 +6873,11 @@
         <v>108</v>
       </c>
       <c r="D151" s="36" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E151" s="20"/>
       <c r="F151" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G151" s="20" t="s">
         <v>119</v>
@@ -6871,11 +6909,11 @@
         <v>108</v>
       </c>
       <c r="D152" s="36" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E152" s="20"/>
       <c r="F152" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G152" s="20" t="s">
         <v>119</v>
@@ -6911,7 +6949,7 @@
       </c>
       <c r="E153" s="20"/>
       <c r="F153" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G153" s="20" t="s">
         <v>119</v>
@@ -6945,7 +6983,7 @@
       </c>
       <c r="E154" s="20"/>
       <c r="F154" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G154" s="20" t="s">
         <v>119</v>
@@ -6979,7 +7017,7 @@
       </c>
       <c r="E155" s="20"/>
       <c r="F155" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G155" s="20" t="s">
         <v>119</v>
@@ -7013,7 +7051,7 @@
       </c>
       <c r="E156" s="20"/>
       <c r="F156" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G156" s="20" t="s">
         <v>119</v>
@@ -7047,7 +7085,7 @@
       </c>
       <c r="E157" s="20"/>
       <c r="F157" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G157" s="20" t="s">
         <v>119</v>
@@ -7074,7 +7112,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="31" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>113</v>
@@ -7084,7 +7122,7 @@
       </c>
       <c r="E158" s="20"/>
       <c r="F158" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G158" s="20" t="s">
         <v>119</v>
@@ -7111,17 +7149,17 @@
         <v>157</v>
       </c>
       <c r="B159" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C159" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D159" s="36" t="s">
         <v>181</v>
-      </c>
-      <c r="C159" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="D159" s="36" t="s">
-        <v>185</v>
       </c>
       <c r="E159" s="20"/>
       <c r="F159" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G159" s="20" t="s">
         <v>119</v>
@@ -7150,19 +7188,19 @@
         <v>158</v>
       </c>
       <c r="B160" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C160" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D160" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="C160" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="D160" s="36" t="s">
-        <v>185</v>
-      </c>
       <c r="E160" s="31" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F160" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G160" s="20" t="s">
         <v>119</v>
@@ -7191,19 +7229,19 @@
         <v>159</v>
       </c>
       <c r="B161" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C161" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D161" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="C161" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="D161" s="36" t="s">
-        <v>185</v>
-      </c>
       <c r="E161" s="31" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F161" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G161" s="20" t="s">
         <v>119</v>

--- a/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
+++ b/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-guest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61798994-5A46-1D48-B76D-19B7E7AE4003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D803FC9A-7E42-164D-B5BE-B21DDA287456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="227">
   <si>
     <t>Name:</t>
   </si>
@@ -346,12 +346,6 @@
   </si>
   <si>
     <t>Hf20 Nb20 Ta20 Ti20 Zr20</t>
-  </si>
-  <si>
-    <t>Co25 Cr25 Fe25 Ni25</t>
-  </si>
-  <si>
-    <t>Co16.66 Cr16.66 Fe16.66 Ni16.66 Mn16.66 V16.66</t>
   </si>
   <si>
     <t xml:space="preserve">Mo47 Ni40 Si13 </t>
@@ -542,12 +536,6 @@
     <t>10.1016/j.jallcom.2013.12.210</t>
   </si>
   <si>
-    <t>Co20 Cr20 Fe20 Ni20 Mn20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Co20 Cr20 Fe20 Ni20 V20 </t>
-  </si>
-  <si>
     <t>Nb40.7 Ti12.8 Mo4.7 W1.3 Hf1.5 Cr2.7 Si20.8 Ge5.9 Al4.6 Sn5</t>
   </si>
   <si>
@@ -714,6 +702,33 @@
   </si>
   <si>
     <t>HIP'd at 1673K for 2h under 276MPa; annealed at 1673K</t>
+  </si>
+  <si>
+    <t>Co Cr Fe Ni</t>
+  </si>
+  <si>
+    <t>Co Cr Fe Ni Mn</t>
+  </si>
+  <si>
+    <t>Co Cr Fe Ni V</t>
+  </si>
+  <si>
+    <t>Co Cr Fe Ni Mn V</t>
+  </si>
+  <si>
+    <t>FCC</t>
+  </si>
+  <si>
+    <t>FCC+sigma</t>
+  </si>
+  <si>
+    <t>AAM</t>
+  </si>
+  <si>
+    <t>AAM+H</t>
+  </si>
+  <si>
+    <t>homogenized at 100*C for 24h</t>
   </si>
 </sst>
 </file>
@@ -896,7 +911,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -972,7 +987,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1295,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O123" sqref="O123"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O132" sqref="O132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1329,24 +1343,24 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="D2" s="45" t="s">
+      <c r="B2" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:20" ht="22" customHeight="1">
@@ -1354,19 +1368,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
+        <v>176</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:20" ht="22.5" customHeight="1">
@@ -1384,43 +1398,43 @@
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="L5" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="N5" s="42" t="s">
+      <c r="M5" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="N5" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="40" t="s">
+      <c r="O5" s="39" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1431,19 +1445,19 @@
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
@@ -1488,7 +1502,7 @@
       <c r="N7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="40"/>
+      <c r="O7" s="39"/>
       <c r="P7" s="9" t="s">
         <v>43</v>
       </c>
@@ -1501,35 +1515,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.5" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47" t="s">
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="48" t="s">
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="48"/>
+      <c r="N8" s="47"/>
       <c r="O8" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="P8" s="41" t="s">
+      <c r="P8" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
     </row>
     <row r="9" spans="1:20" ht="22" customHeight="1">
       <c r="A9" s="5" t="s">
@@ -1599,17 +1613,17 @@
         <v>60</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="23">
@@ -1624,10 +1638,10 @@
         <v>47</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N10" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O10" s="20"/>
     </row>
@@ -1639,17 +1653,17 @@
         <v>60</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="23">
@@ -1664,10 +1678,10 @@
         <v>47</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N11" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O11" s="20"/>
     </row>
@@ -1679,17 +1693,17 @@
         <v>60</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="23">
@@ -1704,10 +1718,10 @@
         <v>47</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N12" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O12" s="33"/>
     </row>
@@ -1719,17 +1733,17 @@
         <v>60</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="23">
@@ -1744,10 +1758,10 @@
         <v>47</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N13" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O13" s="20"/>
     </row>
@@ -1759,17 +1773,17 @@
         <v>60</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="23">
@@ -1784,10 +1798,10 @@
         <v>47</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N14" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O14" s="20"/>
     </row>
@@ -1799,17 +1813,17 @@
         <v>60</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="23">
@@ -1824,10 +1838,10 @@
         <v>47</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N15" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O15" s="20"/>
     </row>
@@ -1839,17 +1853,17 @@
         <v>60</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="23">
@@ -1864,10 +1878,10 @@
         <v>47</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N16" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O16" s="20"/>
     </row>
@@ -1879,17 +1893,17 @@
         <v>60</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="23">
@@ -1904,10 +1918,10 @@
         <v>47</v>
       </c>
       <c r="M17" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N17" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1918,17 +1932,17 @@
         <v>60</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="23">
@@ -1943,10 +1957,10 @@
         <v>47</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N18" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1957,17 +1971,17 @@
         <v>60</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H19" s="22"/>
       <c r="I19" s="23">
@@ -1982,10 +1996,10 @@
         <v>47</v>
       </c>
       <c r="M19" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N19" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1996,17 +2010,17 @@
         <v>60</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="23">
@@ -2021,10 +2035,10 @@
         <v>47</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N20" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2035,17 +2049,17 @@
         <v>60</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H21" s="22"/>
       <c r="I21" s="23">
@@ -2060,10 +2074,10 @@
         <v>47</v>
       </c>
       <c r="M21" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N21" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2074,17 +2088,17 @@
         <v>60</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="23">
@@ -2099,10 +2113,10 @@
         <v>47</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N22" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2113,17 +2127,17 @@
         <v>61</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="23">
@@ -2138,10 +2152,10 @@
         <v>47</v>
       </c>
       <c r="M23" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N23" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2152,17 +2166,17 @@
         <v>61</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="23">
@@ -2177,10 +2191,10 @@
         <v>47</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N24" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2191,17 +2205,17 @@
         <v>61</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="23">
@@ -2216,10 +2230,10 @@
         <v>47</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N25" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2230,17 +2244,17 @@
         <v>61</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="23">
@@ -2255,10 +2269,10 @@
         <v>47</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N26" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2269,17 +2283,17 @@
         <v>61</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="23">
@@ -2294,10 +2308,10 @@
         <v>47</v>
       </c>
       <c r="M27" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N27" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2308,17 +2322,17 @@
         <v>61</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="23">
@@ -2333,10 +2347,10 @@
         <v>47</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N28" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2347,17 +2361,17 @@
         <v>61</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="23">
@@ -2372,10 +2386,10 @@
         <v>47</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N29" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2386,17 +2400,17 @@
         <v>61</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="23">
@@ -2411,10 +2425,10 @@
         <v>47</v>
       </c>
       <c r="M30" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N30" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2425,17 +2439,17 @@
         <v>61</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="23">
@@ -2450,10 +2464,10 @@
         <v>47</v>
       </c>
       <c r="M31" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N31" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2464,17 +2478,17 @@
         <v>61</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H32" s="22"/>
       <c r="I32" s="23">
@@ -2489,10 +2503,10 @@
         <v>47</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N32" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2503,17 +2517,17 @@
         <v>61</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H33" s="22"/>
       <c r="I33" s="23">
@@ -2528,10 +2542,10 @@
         <v>47</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N33" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2542,17 +2556,17 @@
         <v>61</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H34" s="22"/>
       <c r="I34" s="23">
@@ -2567,10 +2581,10 @@
         <v>47</v>
       </c>
       <c r="M34" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N34" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2581,17 +2595,17 @@
         <v>61</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H35" s="22"/>
       <c r="I35" s="23">
@@ -2606,10 +2620,10 @@
         <v>47</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N35" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2620,14 +2634,14 @@
         <v>62</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H36" s="22"/>
       <c r="I36" s="23">
@@ -2642,10 +2656,10 @@
         <v>47</v>
       </c>
       <c r="M36" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N36" s="26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2656,14 +2670,14 @@
         <v>63</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H37" s="22"/>
       <c r="I37" s="23">
@@ -2678,10 +2692,10 @@
         <v>47</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N37" s="26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2692,14 +2706,14 @@
         <v>64</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H38" s="22"/>
       <c r="I38" s="23">
@@ -2713,10 +2727,10 @@
         <v>47</v>
       </c>
       <c r="M38" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N38" s="26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2727,14 +2741,14 @@
         <v>65</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H39" s="22"/>
       <c r="I39" s="23">
@@ -2748,10 +2762,10 @@
         <v>47</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N39" s="26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2762,14 +2776,14 @@
         <v>66</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H40" s="22"/>
       <c r="I40" s="23">
@@ -2783,10 +2797,10 @@
         <v>47</v>
       </c>
       <c r="M40" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N40" s="26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2797,14 +2811,14 @@
         <v>67</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H41" s="22"/>
       <c r="I41" s="23">
@@ -2819,7 +2833,7 @@
       </c>
       <c r="M41" s="20"/>
       <c r="N41" s="26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2827,18 +2841,18 @@
         <v>33</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H42" s="22"/>
       <c r="I42" s="23">
@@ -2852,10 +2866,10 @@
         <v>47</v>
       </c>
       <c r="M42" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N42" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2867,14 +2881,14 @@
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H43" s="22"/>
       <c r="I43" s="23">
@@ -2888,10 +2902,10 @@
         <v>47</v>
       </c>
       <c r="M43" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2903,14 +2917,14 @@
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H44" s="22"/>
       <c r="I44" s="23">
@@ -2924,10 +2938,10 @@
         <v>47</v>
       </c>
       <c r="M44" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2939,14 +2953,14 @@
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H45" s="22"/>
       <c r="I45" s="23">
@@ -2960,10 +2974,10 @@
         <v>47</v>
       </c>
       <c r="M45" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2971,18 +2985,18 @@
         <v>37</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H46" s="22"/>
       <c r="I46" s="23">
@@ -2996,10 +3010,10 @@
         <v>47</v>
       </c>
       <c r="M46" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N46" s="35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3011,14 +3025,14 @@
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H47" s="22"/>
       <c r="I47" s="23">
@@ -3032,10 +3046,10 @@
         <v>47</v>
       </c>
       <c r="M47" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N47" s="35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3043,18 +3057,18 @@
         <v>39</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H48" s="22"/>
       <c r="I48" s="23">
@@ -3068,10 +3082,10 @@
         <v>47</v>
       </c>
       <c r="M48" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N48" s="35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3079,18 +3093,18 @@
         <v>40</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H49" s="22"/>
       <c r="I49" s="23">
@@ -3104,10 +3118,10 @@
         <v>47</v>
       </c>
       <c r="M49" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N49" s="35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3119,14 +3133,14 @@
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H50" s="22"/>
       <c r="I50" s="23">
@@ -3140,10 +3154,10 @@
         <v>47</v>
       </c>
       <c r="M50" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N50" s="35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3155,14 +3169,14 @@
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H51" s="22"/>
       <c r="I51" s="23">
@@ -3176,10 +3190,10 @@
         <v>47</v>
       </c>
       <c r="M51" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N51" s="35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3192,10 +3206,10 @@
       <c r="C52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H52" s="22"/>
       <c r="I52" s="23">
@@ -3209,10 +3223,10 @@
         <v>47</v>
       </c>
       <c r="M52" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N52" s="27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3220,15 +3234,15 @@
         <v>44</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C53" s="20"/>
       <c r="E53" s="20"/>
       <c r="F53" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H53" s="22"/>
       <c r="I53" s="23">
@@ -3242,10 +3256,10 @@
         <v>47</v>
       </c>
       <c r="M53" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N53" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3253,15 +3267,15 @@
         <v>45</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C54" s="20"/>
       <c r="E54" s="20"/>
       <c r="F54" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H54" s="22"/>
       <c r="I54" s="23">
@@ -3275,10 +3289,10 @@
         <v>47</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3286,15 +3300,15 @@
         <v>46</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C55" s="20"/>
       <c r="E55" s="20"/>
       <c r="F55" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H55" s="22"/>
       <c r="I55" s="23">
@@ -3308,10 +3322,10 @@
         <v>47</v>
       </c>
       <c r="M55" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3319,15 +3333,15 @@
         <v>47</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H56" s="22"/>
       <c r="I56" s="23">
@@ -3341,10 +3355,10 @@
         <v>47</v>
       </c>
       <c r="M56" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3352,15 +3366,15 @@
         <v>48</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C57" s="20"/>
       <c r="E57" s="20"/>
       <c r="F57" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="23">
@@ -3374,10 +3388,10 @@
         <v>47</v>
       </c>
       <c r="M57" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3389,14 +3403,14 @@
       </c>
       <c r="C58" s="20"/>
       <c r="D58" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H58" s="22"/>
       <c r="I58" s="23"/>
@@ -3409,10 +3423,10 @@
         <v>47</v>
       </c>
       <c r="M58" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N58" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3424,14 +3438,14 @@
       </c>
       <c r="C59" s="20"/>
       <c r="D59" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H59" s="22"/>
       <c r="I59" s="23"/>
@@ -3444,10 +3458,10 @@
         <v>47</v>
       </c>
       <c r="M59" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3459,14 +3473,14 @@
       </c>
       <c r="C60" s="20"/>
       <c r="D60" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H60" s="22"/>
       <c r="I60" s="23"/>
@@ -3479,10 +3493,10 @@
         <v>47</v>
       </c>
       <c r="M60" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3494,14 +3508,14 @@
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H61" s="22"/>
       <c r="I61" s="23"/>
@@ -3514,10 +3528,10 @@
         <v>47</v>
       </c>
       <c r="M61" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3528,17 +3542,17 @@
         <v>72</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H62" s="22"/>
       <c r="I62" s="23">
@@ -3553,10 +3567,10 @@
         <v>47</v>
       </c>
       <c r="M62" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3567,17 +3581,17 @@
         <v>73</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E63" s="20"/>
       <c r="F63" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H63" s="22"/>
       <c r="I63" s="23">
@@ -3592,10 +3606,10 @@
         <v>47</v>
       </c>
       <c r="M63" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3606,17 +3620,17 @@
         <v>74</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H64" s="22"/>
       <c r="I64" s="23">
@@ -3631,10 +3645,10 @@
         <v>47</v>
       </c>
       <c r="M64" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3645,17 +3659,17 @@
         <v>75</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H65" s="22"/>
       <c r="I65" s="23">
@@ -3670,10 +3684,10 @@
         <v>47</v>
       </c>
       <c r="M65" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3684,17 +3698,17 @@
         <v>76</v>
       </c>
       <c r="C66" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E66" s="20"/>
       <c r="F66" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H66" s="22"/>
       <c r="I66" s="23"/>
@@ -3707,10 +3721,10 @@
         <v>47</v>
       </c>
       <c r="M66" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N66" s="26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3721,17 +3735,17 @@
         <v>77</v>
       </c>
       <c r="C67" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H67" s="22"/>
       <c r="I67" s="23"/>
@@ -3744,10 +3758,10 @@
         <v>47</v>
       </c>
       <c r="M67" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3758,17 +3772,17 @@
         <v>78</v>
       </c>
       <c r="C68" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E68" s="20"/>
       <c r="F68" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H68" s="22"/>
       <c r="I68" s="23"/>
@@ -3781,10 +3795,10 @@
         <v>47</v>
       </c>
       <c r="M68" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3795,17 +3809,17 @@
         <v>79</v>
       </c>
       <c r="C69" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H69" s="22"/>
       <c r="I69" s="23"/>
@@ -3818,10 +3832,10 @@
         <v>47</v>
       </c>
       <c r="M69" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3832,17 +3846,17 @@
         <v>80</v>
       </c>
       <c r="C70" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E70" s="20"/>
       <c r="F70" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H70" s="22"/>
       <c r="I70" s="23"/>
@@ -3855,10 +3869,10 @@
         <v>47</v>
       </c>
       <c r="M70" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3869,17 +3883,17 @@
         <v>81</v>
       </c>
       <c r="C71" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E71" s="20"/>
       <c r="F71" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H71" s="22"/>
       <c r="I71" s="23"/>
@@ -3892,10 +3906,10 @@
         <v>47</v>
       </c>
       <c r="M71" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3906,17 +3920,17 @@
         <v>82</v>
       </c>
       <c r="C72" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H72" s="22"/>
       <c r="I72" s="23"/>
@@ -3929,10 +3943,10 @@
         <v>47</v>
       </c>
       <c r="M72" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3943,17 +3957,17 @@
         <v>83</v>
       </c>
       <c r="C73" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E73" s="20"/>
       <c r="F73" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H73" s="22"/>
       <c r="I73" s="23"/>
@@ -3966,10 +3980,10 @@
         <v>47</v>
       </c>
       <c r="M73" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3977,15 +3991,15 @@
         <v>65</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H74" s="22"/>
       <c r="I74" s="23">
@@ -4000,7 +4014,7 @@
       </c>
       <c r="M74" s="20"/>
       <c r="N74" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4008,15 +4022,15 @@
         <v>66</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G75" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H75" s="22"/>
       <c r="I75" s="23">
@@ -4031,7 +4045,7 @@
       </c>
       <c r="M75" s="20"/>
       <c r="N75" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -4039,15 +4053,15 @@
         <v>67</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C76" s="20"/>
       <c r="E76" s="20"/>
       <c r="F76" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G76" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H76" s="22"/>
       <c r="I76" s="23">
@@ -4062,7 +4076,7 @@
       </c>
       <c r="M76" s="20"/>
       <c r="N76" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4073,19 +4087,19 @@
         <v>84</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D77" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="E77" s="49" t="s">
-        <v>211</v>
+        <v>111</v>
+      </c>
+      <c r="D77" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="E77" s="48" t="s">
+        <v>207</v>
       </c>
       <c r="F77" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H77" s="22"/>
       <c r="I77" s="23">
@@ -4100,33 +4114,33 @@
         <v>47</v>
       </c>
       <c r="M77" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N77" s="26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="3">
         <v>72</v>
       </c>
-      <c r="B78" s="49" t="s">
-        <v>208</v>
+      <c r="B78" s="48" t="s">
+        <v>204</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D78" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="E78" s="49" t="s">
-        <v>211</v>
+        <v>111</v>
+      </c>
+      <c r="D78" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="E78" s="48" t="s">
+        <v>207</v>
       </c>
       <c r="F78" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H78" s="22"/>
       <c r="I78" s="23">
@@ -4141,33 +4155,33 @@
         <v>47</v>
       </c>
       <c r="M78" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N78" s="26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="3">
         <v>73</v>
       </c>
-      <c r="B79" s="49" t="s">
-        <v>209</v>
+      <c r="B79" s="48" t="s">
+        <v>205</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D79" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="E79" s="49" t="s">
-        <v>211</v>
+        <v>111</v>
+      </c>
+      <c r="D79" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="E79" s="48" t="s">
+        <v>207</v>
       </c>
       <c r="F79" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H79" s="22"/>
       <c r="I79" s="23">
@@ -4182,33 +4196,33 @@
         <v>47</v>
       </c>
       <c r="M79" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N79" s="26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="3">
         <v>74</v>
       </c>
-      <c r="B80" s="49" t="s">
-        <v>210</v>
+      <c r="B80" s="48" t="s">
+        <v>206</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D80" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="E80" s="49" t="s">
-        <v>211</v>
+        <v>111</v>
+      </c>
+      <c r="D80" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="E80" s="48" t="s">
+        <v>207</v>
       </c>
       <c r="F80" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G80" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H80" s="22"/>
       <c r="I80" s="23">
@@ -4222,10 +4236,10 @@
         <v>47</v>
       </c>
       <c r="M80" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N80" s="26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4236,14 +4250,14 @@
         <v>85</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E81" s="20"/>
       <c r="F81" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G81" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H81" s="22"/>
       <c r="I81" s="23">
@@ -4257,10 +4271,10 @@
         <v>47</v>
       </c>
       <c r="M81" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N81" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4271,14 +4285,14 @@
         <v>86</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E82" s="20"/>
       <c r="F82" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G82" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H82" s="22"/>
       <c r="I82" s="23">
@@ -4292,10 +4306,10 @@
         <v>47</v>
       </c>
       <c r="M82" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N82" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4306,14 +4320,14 @@
         <v>87</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G83" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H83" s="22"/>
       <c r="I83" s="23">
@@ -4327,10 +4341,10 @@
         <v>47</v>
       </c>
       <c r="M83" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N83" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4341,14 +4355,14 @@
         <v>88</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E84" s="20"/>
       <c r="F84" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G84" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H84" s="22"/>
       <c r="I84" s="23">
@@ -4362,10 +4376,10 @@
         <v>47</v>
       </c>
       <c r="M84" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N84" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4376,14 +4390,14 @@
         <v>84</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E85" s="20"/>
       <c r="F85" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H85" s="22"/>
       <c r="I85" s="23">
@@ -4397,28 +4411,28 @@
         <v>47</v>
       </c>
       <c r="M85" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N85" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="3">
         <v>80</v>
       </c>
-      <c r="B86" s="49" t="s">
-        <v>187</v>
+      <c r="B86" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G86" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H86" s="22"/>
       <c r="I86" s="23">
@@ -4432,28 +4446,28 @@
         <v>47</v>
       </c>
       <c r="M86" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N86" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="3">
         <v>81</v>
       </c>
-      <c r="B87" s="49" t="s">
-        <v>188</v>
+      <c r="B87" s="48" t="s">
+        <v>184</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E87" s="20"/>
       <c r="F87" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G87" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H87" s="22"/>
       <c r="I87" s="23">
@@ -4467,28 +4481,28 @@
         <v>47</v>
       </c>
       <c r="M87" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N87" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="3">
         <v>82</v>
       </c>
-      <c r="B88" s="49" t="s">
-        <v>189</v>
+      <c r="B88" s="48" t="s">
+        <v>185</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G88" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H88" s="22"/>
       <c r="I88" s="23">
@@ -4502,10 +4516,10 @@
         <v>47</v>
       </c>
       <c r="M88" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N88" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4516,19 +4530,19 @@
         <v>86</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D89" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="E89" s="49" t="s">
-        <v>203</v>
+        <v>111</v>
+      </c>
+      <c r="D89" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="E89" s="48" t="s">
+        <v>199</v>
       </c>
       <c r="F89" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H89" s="22"/>
       <c r="I89" s="23">
@@ -4543,30 +4557,30 @@
         <v>47</v>
       </c>
       <c r="M89" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N89" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="3">
         <v>84</v>
       </c>
-      <c r="B90" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="D90" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="E90" s="49" t="s">
-        <v>203</v>
+      <c r="B90" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="D90" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="E90" s="48" t="s">
+        <v>199</v>
       </c>
       <c r="F90" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G90" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H90" s="22"/>
       <c r="I90" s="23">
@@ -4581,30 +4595,30 @@
         <v>47</v>
       </c>
       <c r="M90" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N90" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="3">
         <v>85</v>
       </c>
-      <c r="B91" s="49" t="s">
-        <v>205</v>
-      </c>
-      <c r="D91" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="E91" s="49" t="s">
-        <v>203</v>
+      <c r="B91" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="D91" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="E91" s="48" t="s">
+        <v>199</v>
       </c>
       <c r="F91" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G91" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H91" s="22"/>
       <c r="I91" s="23">
@@ -4619,33 +4633,33 @@
         <v>47</v>
       </c>
       <c r="M91" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N91" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="3">
         <v>86</v>
       </c>
-      <c r="B92" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="C92" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="D92" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="E92" s="51" t="s">
-        <v>192</v>
+      <c r="B92" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D92" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="E92" s="50" t="s">
+        <v>188</v>
       </c>
       <c r="F92" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G92" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H92" s="22"/>
       <c r="I92" s="3">
@@ -4659,33 +4673,33 @@
         <v>47</v>
       </c>
       <c r="M92" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N92" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="3">
         <v>87</v>
       </c>
-      <c r="B93" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="C93" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="D93" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="E93" s="51" t="s">
-        <v>193</v>
+      <c r="B93" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D93" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="E93" s="50" t="s">
+        <v>189</v>
       </c>
       <c r="F93" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G93" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H93" s="22"/>
       <c r="I93" s="3">
@@ -4699,33 +4713,33 @@
         <v>47</v>
       </c>
       <c r="M93" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N93" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="3">
         <v>88</v>
       </c>
-      <c r="B94" s="49" t="s">
+      <c r="B94" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="C94" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D94" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="E94" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="C94" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="D94" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="E94" s="51" t="s">
-        <v>194</v>
-      </c>
       <c r="F94" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H94" s="22"/>
       <c r="I94" s="3">
@@ -4739,33 +4753,33 @@
         <v>47</v>
       </c>
       <c r="M94" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N94" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="3">
         <v>89</v>
       </c>
-      <c r="B95" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="C95" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="D95" s="50" t="s">
+      <c r="B95" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="C95" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D95" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="E95" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="E95" s="51" t="s">
-        <v>195</v>
-      </c>
       <c r="F95" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H95" s="22"/>
       <c r="I95" s="3">
@@ -4779,33 +4793,33 @@
         <v>47</v>
       </c>
       <c r="M95" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N95" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="3">
         <v>90</v>
       </c>
-      <c r="B96" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="C96" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="D96" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="E96" s="51" t="s">
-        <v>196</v>
+      <c r="B96" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="C96" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D96" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="E96" s="50" t="s">
+        <v>192</v>
       </c>
       <c r="F96" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G96" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H96" s="22"/>
       <c r="I96" s="3">
@@ -4819,33 +4833,33 @@
         <v>47</v>
       </c>
       <c r="M96" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N96" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="3">
         <v>91</v>
       </c>
-      <c r="B97" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="C97" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="D97" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="E97" s="51" t="s">
-        <v>197</v>
+      <c r="B97" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="C97" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D97" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="E97" s="50" t="s">
+        <v>193</v>
       </c>
       <c r="F97" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G97" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H97" s="22"/>
       <c r="I97" s="3">
@@ -4859,33 +4873,33 @@
         <v>47</v>
       </c>
       <c r="M97" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N97" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="3">
         <v>92</v>
       </c>
-      <c r="B98" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="C98" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="D98" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="E98" s="51" t="s">
-        <v>198</v>
+      <c r="B98" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="C98" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D98" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="E98" s="50" t="s">
+        <v>194</v>
       </c>
       <c r="F98" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G98" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H98" s="22"/>
       <c r="I98" s="3">
@@ -4899,33 +4913,33 @@
         <v>47</v>
       </c>
       <c r="M98" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N98" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="3">
         <v>93</v>
       </c>
-      <c r="B99" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="C99" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="D99" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="E99" s="51" t="s">
-        <v>199</v>
+      <c r="B99" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="C99" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D99" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="E99" s="50" t="s">
+        <v>195</v>
       </c>
       <c r="F99" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G99" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H99" s="22"/>
       <c r="I99" s="3">
@@ -4939,33 +4953,33 @@
         <v>47</v>
       </c>
       <c r="M99" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N99" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="3">
         <v>94</v>
       </c>
-      <c r="B100" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="C100" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="D100" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="E100" s="51" t="s">
-        <v>200</v>
+      <c r="B100" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="C100" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D100" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="E100" s="50" t="s">
+        <v>196</v>
       </c>
       <c r="F100" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G100" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H100" s="22"/>
       <c r="I100" s="3">
@@ -4979,33 +4993,33 @@
         <v>47</v>
       </c>
       <c r="M100" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N100" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="3">
         <v>95</v>
       </c>
-      <c r="B101" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="C101" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="D101" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="E101" s="51" t="s">
-        <v>201</v>
+      <c r="B101" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="C101" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D101" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="E101" s="50" t="s">
+        <v>197</v>
       </c>
       <c r="F101" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G101" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H101" s="22"/>
       <c r="I101" s="3">
@@ -5019,33 +5033,33 @@
         <v>47</v>
       </c>
       <c r="M101" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N101" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="3">
         <v>96</v>
       </c>
-      <c r="B102" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="C102" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="D102" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="E102" s="51" t="s">
-        <v>202</v>
+      <c r="B102" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="C102" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D102" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="E102" s="50" t="s">
+        <v>198</v>
       </c>
       <c r="F102" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G102" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H102" s="22"/>
       <c r="I102" s="3">
@@ -5059,10 +5073,10 @@
         <v>47</v>
       </c>
       <c r="M102" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N102" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -5073,14 +5087,14 @@
         <v>89</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E103" s="20"/>
       <c r="F103" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G103" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H103" s="22"/>
       <c r="I103" s="23"/>
@@ -5093,10 +5107,10 @@
         <v>47</v>
       </c>
       <c r="M103" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N103" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5107,14 +5121,14 @@
         <v>90</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E104" s="20"/>
       <c r="F104" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G104" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H104" s="22"/>
       <c r="I104" s="23"/>
@@ -5127,10 +5141,10 @@
         <v>47</v>
       </c>
       <c r="M104" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N104" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5141,14 +5155,14 @@
         <v>91</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G105" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H105" s="22"/>
       <c r="I105" s="23"/>
@@ -5161,10 +5175,10 @@
         <v>47</v>
       </c>
       <c r="M105" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N105" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5175,14 +5189,14 @@
         <v>92</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G106" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H106" s="22"/>
       <c r="I106" s="23"/>
@@ -5195,10 +5209,10 @@
         <v>47</v>
       </c>
       <c r="M106" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N106" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5209,17 +5223,17 @@
         <v>93</v>
       </c>
       <c r="C107" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G107" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H107" s="22"/>
       <c r="I107" s="23"/>
@@ -5232,10 +5246,10 @@
         <v>47</v>
       </c>
       <c r="M107" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N107" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5243,20 +5257,20 @@
         <v>102</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C108" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E108" s="20"/>
       <c r="F108" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G108" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H108" s="22"/>
       <c r="I108" s="23"/>
@@ -5269,10 +5283,10 @@
         <v>47</v>
       </c>
       <c r="M108" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N108" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5283,17 +5297,17 @@
         <v>94</v>
       </c>
       <c r="C109" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E109" s="20"/>
       <c r="F109" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G109" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H109" s="22"/>
       <c r="I109" s="23"/>
@@ -5306,10 +5320,10 @@
         <v>47</v>
       </c>
       <c r="M109" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N109" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5320,17 +5334,17 @@
         <v>95</v>
       </c>
       <c r="C110" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G110" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H110" s="22"/>
       <c r="I110" s="23"/>
@@ -5343,10 +5357,10 @@
         <v>47</v>
       </c>
       <c r="M110" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N110" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5357,17 +5371,17 @@
         <v>96</v>
       </c>
       <c r="C111" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G111" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H111" s="22"/>
       <c r="I111" s="23"/>
@@ -5380,10 +5394,10 @@
         <v>47</v>
       </c>
       <c r="M111" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N111" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5394,17 +5408,17 @@
         <v>97</v>
       </c>
       <c r="C112" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G112" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H112" s="22"/>
       <c r="I112" s="23"/>
@@ -5417,10 +5431,10 @@
         <v>47</v>
       </c>
       <c r="M112" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N112" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5431,17 +5445,17 @@
         <v>98</v>
       </c>
       <c r="C113" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G113" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H113" s="22"/>
       <c r="I113" s="23"/>
@@ -5454,10 +5468,10 @@
         <v>47</v>
       </c>
       <c r="M113" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N113" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5468,17 +5482,17 @@
         <v>99</v>
       </c>
       <c r="C114" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G114" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H114" s="22"/>
       <c r="I114" s="23"/>
@@ -5491,10 +5505,10 @@
         <v>47</v>
       </c>
       <c r="M114" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N114" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5505,17 +5519,17 @@
         <v>100</v>
       </c>
       <c r="C115" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G115" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H115" s="22"/>
       <c r="I115" s="23"/>
@@ -5528,10 +5542,10 @@
         <v>47</v>
       </c>
       <c r="M115" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N115" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5542,17 +5556,17 @@
         <v>101</v>
       </c>
       <c r="C116" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G116" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H116" s="22"/>
       <c r="I116" s="23"/>
@@ -5565,10 +5579,10 @@
         <v>47</v>
       </c>
       <c r="M116" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N116" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -5579,17 +5593,17 @@
         <v>102</v>
       </c>
       <c r="C117" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G117" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H117" s="22"/>
       <c r="I117" s="23"/>
@@ -5602,10 +5616,10 @@
         <v>47</v>
       </c>
       <c r="M117" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N117" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -5616,17 +5630,17 @@
         <v>103</v>
       </c>
       <c r="C118" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G118" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H118" s="22"/>
       <c r="I118" s="23"/>
@@ -5639,10 +5653,10 @@
         <v>47</v>
       </c>
       <c r="M118" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N118" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -5653,17 +5667,17 @@
         <v>94</v>
       </c>
       <c r="C119" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G119" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H119" s="22"/>
       <c r="I119" s="23"/>
@@ -5676,10 +5690,10 @@
         <v>47</v>
       </c>
       <c r="M119" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N119" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -5690,19 +5704,19 @@
         <v>94</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D120" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="E120" s="49" t="s">
-        <v>212</v>
+        <v>111</v>
+      </c>
+      <c r="D120" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="E120" s="48" t="s">
+        <v>208</v>
       </c>
       <c r="F120" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G120" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H120" s="22"/>
       <c r="I120" s="23">
@@ -5717,10 +5731,10 @@
         <v>47</v>
       </c>
       <c r="M120" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N120" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -5731,19 +5745,19 @@
         <v>94</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D121" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="E121" s="49" t="s">
-        <v>214</v>
+        <v>111</v>
+      </c>
+      <c r="D121" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="E121" s="48" t="s">
+        <v>210</v>
       </c>
       <c r="F121" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G121" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H121" s="22"/>
       <c r="I121" s="23">
@@ -5758,10 +5772,10 @@
         <v>47</v>
       </c>
       <c r="M121" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N121" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -5772,19 +5786,19 @@
         <v>94</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D122" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="E122" s="49" t="s">
-        <v>213</v>
+        <v>111</v>
+      </c>
+      <c r="D122" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="E122" s="48" t="s">
+        <v>209</v>
       </c>
       <c r="F122" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G122" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H122" s="22"/>
       <c r="I122" s="23">
@@ -5799,33 +5813,33 @@
         <v>47</v>
       </c>
       <c r="M122" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N122" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="3">
         <v>121</v>
       </c>
-      <c r="B123" s="49" t="s">
-        <v>215</v>
+      <c r="B123" s="48" t="s">
+        <v>211</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E123" s="49" t="s">
-        <v>221</v>
+        <v>114</v>
+      </c>
+      <c r="E123" s="48" t="s">
+        <v>217</v>
       </c>
       <c r="F123" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G123" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H123" s="22"/>
       <c r="I123" s="23">
@@ -5843,33 +5857,33 @@
         <v>47</v>
       </c>
       <c r="M123" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N123" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="3">
         <v>122</v>
       </c>
-      <c r="B124" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="C124" s="50" t="s">
-        <v>113</v>
+      <c r="B124" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="C124" s="49" t="s">
+        <v>111</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E124" s="49" t="s">
-        <v>221</v>
+        <v>114</v>
+      </c>
+      <c r="E124" s="48" t="s">
+        <v>217</v>
       </c>
       <c r="F124" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G124" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H124" s="22"/>
       <c r="I124" s="23">
@@ -5887,33 +5901,33 @@
         <v>47</v>
       </c>
       <c r="M124" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N124" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="3">
         <v>123</v>
       </c>
-      <c r="B125" s="49" t="s">
+      <c r="B125" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="C125" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E125" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="C125" s="50" t="s">
-        <v>219</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E125" s="49" t="s">
-        <v>221</v>
-      </c>
       <c r="F125" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G125" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H125" s="22"/>
       <c r="I125" s="23">
@@ -5931,33 +5945,33 @@
         <v>47</v>
       </c>
       <c r="M125" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N125" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="3">
         <v>124</v>
       </c>
-      <c r="B126" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="C126" s="50" t="s">
-        <v>220</v>
+      <c r="B126" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="C126" s="49" t="s">
+        <v>216</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E126" s="49" t="s">
-        <v>221</v>
+        <v>114</v>
+      </c>
+      <c r="E126" s="48" t="s">
+        <v>217</v>
       </c>
       <c r="F126" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G126" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H126" s="22"/>
       <c r="I126" s="23">
@@ -5975,28 +5989,31 @@
         <v>47</v>
       </c>
       <c r="M126" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N126" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="3">
         <v>125</v>
       </c>
-      <c r="B127" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D127" s="37" t="s">
-        <v>115</v>
+      <c r="B127" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="C127" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="D127" s="49" t="s">
+        <v>224</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G127" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H127" s="22"/>
       <c r="I127" s="23">
@@ -6005,33 +6022,39 @@
       <c r="J127" s="19">
         <v>1569000000</v>
       </c>
-      <c r="K127" s="19"/>
+      <c r="K127" s="19">
+        <f>4*9807000</f>
+        <v>39228000</v>
+      </c>
       <c r="L127" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M127" s="38" t="s">
-        <v>146</v>
+      <c r="M127" s="37" t="s">
+        <v>144</v>
       </c>
       <c r="N127" s="35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="3">
         <v>126</v>
       </c>
-      <c r="B128" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="D128" s="37" t="s">
-        <v>115</v>
+      <c r="B128" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="C128" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="D128" s="49" t="s">
+        <v>224</v>
       </c>
       <c r="E128" s="20"/>
       <c r="F128" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G128" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H128" s="22"/>
       <c r="I128" s="23">
@@ -6040,33 +6063,39 @@
       <c r="J128" s="19">
         <v>1667000000</v>
       </c>
-      <c r="K128" s="19"/>
+      <c r="K128" s="19">
+        <f>4*9807000</f>
+        <v>39228000</v>
+      </c>
       <c r="L128" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M128" s="38" t="s">
-        <v>146</v>
+      <c r="M128" s="37" t="s">
+        <v>144</v>
       </c>
       <c r="N128" s="35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="3">
         <v>127</v>
       </c>
-      <c r="B129" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="D129" s="37" t="s">
-        <v>115</v>
+      <c r="B129" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="C129" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="D129" s="49" t="s">
+        <v>224</v>
       </c>
       <c r="E129" s="20"/>
       <c r="F129" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G129" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H129" s="22"/>
       <c r="I129" s="23">
@@ -6075,33 +6104,39 @@
       <c r="J129" s="19">
         <v>5139000000</v>
       </c>
-      <c r="K129" s="19"/>
+      <c r="K129" s="19">
+        <f>15*9807000</f>
+        <v>147105000</v>
+      </c>
       <c r="L129" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M129" s="38" t="s">
-        <v>146</v>
+      <c r="M129" s="37" t="s">
+        <v>144</v>
       </c>
       <c r="N129" s="35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="3">
         <v>128</v>
       </c>
-      <c r="B130" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D130" s="37" t="s">
-        <v>115</v>
+      <c r="B130" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="C130" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="D130" s="49" t="s">
+        <v>224</v>
       </c>
       <c r="E130" s="20"/>
       <c r="F130" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G130" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H130" s="22"/>
       <c r="I130" s="23">
@@ -6110,33 +6145,41 @@
       <c r="J130" s="19">
         <v>6375000000</v>
       </c>
-      <c r="K130" s="19"/>
-      <c r="L130" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="M130" s="38" t="s">
-        <v>146</v>
+      <c r="K130" s="19">
+        <f>27*9807000</f>
+        <v>264789000</v>
+      </c>
+      <c r="L130" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="M130" s="37" t="s">
+        <v>144</v>
       </c>
       <c r="N130" s="35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="3">
         <v>129</v>
       </c>
-      <c r="B131" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D131" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="E131" s="20"/>
+      <c r="B131" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="C131" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="D131" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="E131" s="48" t="s">
+        <v>226</v>
+      </c>
       <c r="F131" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G131" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H131" s="22"/>
       <c r="I131" s="23">
@@ -6145,33 +6188,41 @@
       <c r="J131" s="19">
         <v>1314000000</v>
       </c>
-      <c r="K131" s="19"/>
+      <c r="K131" s="19">
+        <f>4*9807000</f>
+        <v>39228000</v>
+      </c>
       <c r="L131" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M131" s="38" t="s">
-        <v>146</v>
+      <c r="M131" s="37" t="s">
+        <v>144</v>
       </c>
       <c r="N131" s="35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="3">
         <v>130</v>
       </c>
-      <c r="B132" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="D132" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="E132" s="20"/>
+      <c r="B132" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="C132" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="D132" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="E132" s="48" t="s">
+        <v>226</v>
+      </c>
       <c r="F132" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G132" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H132" s="22"/>
       <c r="I132" s="23">
@@ -6180,33 +6231,41 @@
       <c r="J132" s="19">
         <v>1324000000</v>
       </c>
-      <c r="K132" s="19"/>
-      <c r="L132" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="M132" s="38" t="s">
-        <v>146</v>
+      <c r="K132" s="19">
+        <f>2*9807000</f>
+        <v>19614000</v>
+      </c>
+      <c r="L132" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="M132" s="37" t="s">
+        <v>144</v>
       </c>
       <c r="N132" s="35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="3">
         <v>131</v>
       </c>
-      <c r="B133" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="D133" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="E133" s="20"/>
+      <c r="B133" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="C133" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="D133" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="E133" s="48" t="s">
+        <v>226</v>
+      </c>
       <c r="F133" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G133" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H133" s="22"/>
       <c r="I133" s="23">
@@ -6215,33 +6274,41 @@
       <c r="J133" s="19">
         <v>5757000000</v>
       </c>
-      <c r="K133" s="19"/>
+      <c r="K133" s="19">
+        <f>17*9807000</f>
+        <v>166719000</v>
+      </c>
       <c r="L133" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M133" s="38" t="s">
-        <v>146</v>
+      <c r="M133" s="37" t="s">
+        <v>144</v>
       </c>
       <c r="N133" s="35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="3">
         <v>132</v>
       </c>
-      <c r="B134" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D134" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="E134" s="20"/>
+      <c r="B134" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="C134" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="D134" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="E134" s="48" t="s">
+        <v>226</v>
+      </c>
       <c r="F134" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G134" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H134" s="22"/>
       <c r="I134" s="23">
@@ -6250,15 +6317,18 @@
       <c r="J134" s="19">
         <v>6237000000</v>
       </c>
-      <c r="K134" s="19"/>
-      <c r="L134" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="M134" s="38" t="s">
-        <v>146</v>
+      <c r="K134" s="19">
+        <f>23*9807000</f>
+        <v>225561000</v>
+      </c>
+      <c r="L134" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="M134" s="37" t="s">
+        <v>144</v>
       </c>
       <c r="N134" s="35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -6266,14 +6336,14 @@
         <v>133</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E135" s="20"/>
       <c r="F135" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G135" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H135" s="22"/>
       <c r="I135" s="23"/>
@@ -6287,7 +6357,7 @@
       </c>
       <c r="M135" s="20"/>
       <c r="N135" s="30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -6295,17 +6365,17 @@
         <v>134</v>
       </c>
       <c r="B136" s="31" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E136" s="20"/>
       <c r="F136" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G136" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H136" s="22"/>
       <c r="I136" s="23"/>
@@ -6317,10 +6387,10 @@
         <v>47</v>
       </c>
       <c r="M136" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N136" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -6328,22 +6398,22 @@
         <v>135</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="C137" s="50" t="s">
-        <v>113</v>
+        <v>169</v>
+      </c>
+      <c r="C137" s="49" t="s">
+        <v>111</v>
       </c>
       <c r="D137" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="E137" s="51" t="s">
-        <v>206</v>
+        <v>177</v>
+      </c>
+      <c r="E137" s="50" t="s">
+        <v>202</v>
       </c>
       <c r="F137" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G137" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H137" s="22"/>
       <c r="I137" s="3">
@@ -6358,10 +6428,10 @@
         <v>47</v>
       </c>
       <c r="M137" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N137" s="28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -6369,22 +6439,22 @@
         <v>136</v>
       </c>
       <c r="B138" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="C138" s="50" t="s">
-        <v>113</v>
+        <v>170</v>
+      </c>
+      <c r="C138" s="49" t="s">
+        <v>111</v>
       </c>
       <c r="D138" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="E138" s="51" t="s">
-        <v>206</v>
+        <v>177</v>
+      </c>
+      <c r="E138" s="50" t="s">
+        <v>202</v>
       </c>
       <c r="F138" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G138" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H138" s="22"/>
       <c r="I138" s="3">
@@ -6399,10 +6469,10 @@
         <v>47</v>
       </c>
       <c r="M138" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N138" s="28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -6410,22 +6480,22 @@
         <v>137</v>
       </c>
       <c r="B139" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="C139" s="50" t="s">
-        <v>113</v>
+        <v>171</v>
+      </c>
+      <c r="C139" s="49" t="s">
+        <v>111</v>
       </c>
       <c r="D139" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="E139" s="51" t="s">
-        <v>206</v>
+        <v>177</v>
+      </c>
+      <c r="E139" s="50" t="s">
+        <v>202</v>
       </c>
       <c r="F139" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G139" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H139" s="22"/>
       <c r="I139" s="3">
@@ -6440,10 +6510,10 @@
         <v>47</v>
       </c>
       <c r="M139" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N139" s="28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -6451,22 +6521,22 @@
         <v>138</v>
       </c>
       <c r="B140" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="C140" s="50" t="s">
-        <v>113</v>
+        <v>172</v>
+      </c>
+      <c r="C140" s="49" t="s">
+        <v>111</v>
       </c>
       <c r="D140" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="E140" s="51" t="s">
-        <v>206</v>
+        <v>177</v>
+      </c>
+      <c r="E140" s="50" t="s">
+        <v>202</v>
       </c>
       <c r="F140" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G140" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H140" s="22"/>
       <c r="I140" s="3">
@@ -6481,10 +6551,10 @@
         <v>47</v>
       </c>
       <c r="M140" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N140" s="28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -6492,22 +6562,22 @@
         <v>139</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="C141" s="50" t="s">
-        <v>113</v>
+        <v>169</v>
+      </c>
+      <c r="C141" s="49" t="s">
+        <v>111</v>
       </c>
       <c r="D141" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="E141" s="51" t="s">
-        <v>207</v>
+        <v>177</v>
+      </c>
+      <c r="E141" s="50" t="s">
+        <v>203</v>
       </c>
       <c r="F141" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G141" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H141" s="22"/>
       <c r="I141" s="3">
@@ -6522,10 +6592,10 @@
         <v>47</v>
       </c>
       <c r="M141" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N141" s="28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -6533,22 +6603,22 @@
         <v>140</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="C142" s="50" t="s">
-        <v>113</v>
+        <v>170</v>
+      </c>
+      <c r="C142" s="49" t="s">
+        <v>111</v>
       </c>
       <c r="D142" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="E142" s="51" t="s">
-        <v>207</v>
+        <v>177</v>
+      </c>
+      <c r="E142" s="50" t="s">
+        <v>203</v>
       </c>
       <c r="F142" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G142" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H142" s="22"/>
       <c r="I142" s="3">
@@ -6563,10 +6633,10 @@
         <v>47</v>
       </c>
       <c r="M142" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N142" s="28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -6574,22 +6644,22 @@
         <v>141</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="C143" s="50" t="s">
-        <v>113</v>
+        <v>171</v>
+      </c>
+      <c r="C143" s="49" t="s">
+        <v>111</v>
       </c>
       <c r="D143" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="E143" s="51" t="s">
-        <v>207</v>
+        <v>177</v>
+      </c>
+      <c r="E143" s="50" t="s">
+        <v>203</v>
       </c>
       <c r="F143" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G143" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H143" s="22"/>
       <c r="I143" s="3">
@@ -6604,10 +6674,10 @@
         <v>47</v>
       </c>
       <c r="M143" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N143" s="28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -6615,22 +6685,22 @@
         <v>142</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="C144" s="50" t="s">
-        <v>113</v>
+        <v>172</v>
+      </c>
+      <c r="C144" s="49" t="s">
+        <v>111</v>
       </c>
       <c r="D144" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="E144" s="51" t="s">
-        <v>207</v>
+        <v>177</v>
+      </c>
+      <c r="E144" s="50" t="s">
+        <v>203</v>
       </c>
       <c r="F144" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G144" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H144" s="22"/>
       <c r="I144" s="3">
@@ -6645,10 +6715,10 @@
         <v>47</v>
       </c>
       <c r="M144" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N144" s="28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -6656,17 +6726,17 @@
         <v>143</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E145" s="20"/>
       <c r="F145" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G145" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H145" s="22"/>
       <c r="I145" s="3">
@@ -6681,10 +6751,10 @@
         <v>47</v>
       </c>
       <c r="M145" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N145" s="30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -6692,17 +6762,17 @@
         <v>144</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E146" s="20"/>
       <c r="F146" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G146" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H146" s="22"/>
       <c r="I146" s="23">
@@ -6717,10 +6787,10 @@
         <v>47</v>
       </c>
       <c r="M146" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N146" s="30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -6728,17 +6798,17 @@
         <v>145</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D147" s="36" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E147" s="20"/>
       <c r="F147" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G147" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H147" s="22"/>
       <c r="I147" s="23">
@@ -6753,10 +6823,10 @@
         <v>47</v>
       </c>
       <c r="M147" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N147" s="30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -6764,17 +6834,17 @@
         <v>146</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D148" s="36" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E148" s="20"/>
       <c r="F148" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G148" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H148" s="22"/>
       <c r="I148" s="23">
@@ -6789,10 +6859,10 @@
         <v>47</v>
       </c>
       <c r="M148" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N148" s="30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -6800,17 +6870,17 @@
         <v>147</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E149" s="20"/>
       <c r="F149" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G149" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H149" s="22"/>
       <c r="I149" s="23"/>
@@ -6823,10 +6893,10 @@
         <v>47</v>
       </c>
       <c r="M149" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N149" s="30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -6834,17 +6904,17 @@
         <v>148</v>
       </c>
       <c r="B150" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E150" s="20"/>
       <c r="F150" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G150" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H150" s="22"/>
       <c r="I150" s="23">
@@ -6859,10 +6929,10 @@
         <v>47</v>
       </c>
       <c r="M150" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N150" s="30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -6870,17 +6940,17 @@
         <v>149</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D151" s="36" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E151" s="20"/>
       <c r="F151" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G151" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H151" s="22"/>
       <c r="I151" s="23">
@@ -6895,10 +6965,10 @@
         <v>47</v>
       </c>
       <c r="M151" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N151" s="30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -6906,17 +6976,17 @@
         <v>150</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D152" s="36" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E152" s="20"/>
       <c r="F152" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G152" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H152" s="22"/>
       <c r="I152" s="23">
@@ -6931,10 +7001,10 @@
         <v>47</v>
       </c>
       <c r="M152" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N152" s="30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -6942,17 +7012,17 @@
         <v>151</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E153" s="20"/>
       <c r="F153" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G153" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H153" s="22"/>
       <c r="I153" s="23"/>
@@ -6965,10 +7035,10 @@
         <v>47</v>
       </c>
       <c r="M153" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="N153" s="30" t="s">
         <v>149</v>
-      </c>
-      <c r="N153" s="30" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -6976,17 +7046,17 @@
         <v>152</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E154" s="20"/>
       <c r="F154" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G154" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H154" s="22"/>
       <c r="I154" s="23"/>
@@ -6999,10 +7069,10 @@
         <v>47</v>
       </c>
       <c r="M154" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="N154" s="30" t="s">
         <v>149</v>
-      </c>
-      <c r="N154" s="30" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -7010,17 +7080,17 @@
         <v>153</v>
       </c>
       <c r="B155" s="31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E155" s="20"/>
       <c r="F155" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G155" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H155" s="22"/>
       <c r="I155" s="23"/>
@@ -7033,10 +7103,10 @@
         <v>47</v>
       </c>
       <c r="M155" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="N155" s="30" t="s">
         <v>149</v>
-      </c>
-      <c r="N155" s="30" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -7044,17 +7114,17 @@
         <v>154</v>
       </c>
       <c r="B156" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E156" s="20"/>
       <c r="F156" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G156" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H156" s="22"/>
       <c r="I156" s="23"/>
@@ -7067,10 +7137,10 @@
         <v>47</v>
       </c>
       <c r="M156" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="N156" s="30" t="s">
         <v>149</v>
-      </c>
-      <c r="N156" s="30" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -7078,17 +7148,17 @@
         <v>155</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E157" s="20"/>
       <c r="F157" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G157" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H157" s="22"/>
       <c r="I157" s="23"/>
@@ -7101,10 +7171,10 @@
         <v>47</v>
       </c>
       <c r="M157" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="N157" s="30" t="s">
         <v>149</v>
-      </c>
-      <c r="N157" s="30" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -7112,20 +7182,20 @@
         <v>156</v>
       </c>
       <c r="B158" s="31" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C158" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D158" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E158" s="20"/>
       <c r="F158" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G158" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H158" s="22"/>
       <c r="I158" s="23"/>
@@ -7138,10 +7208,10 @@
         <v>47</v>
       </c>
       <c r="M158" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N158" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -7149,20 +7219,20 @@
         <v>157</v>
       </c>
       <c r="B159" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C159" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D159" s="36" t="s">
         <v>177</v>
-      </c>
-      <c r="C159" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="D159" s="36" t="s">
-        <v>181</v>
       </c>
       <c r="E159" s="20"/>
       <c r="F159" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G159" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H159" s="22"/>
       <c r="I159" s="23">
@@ -7177,10 +7247,10 @@
         <v>47</v>
       </c>
       <c r="M159" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N159" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -7188,22 +7258,22 @@
         <v>158</v>
       </c>
       <c r="B160" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C160" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D160" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="C160" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="D160" s="36" t="s">
-        <v>181</v>
-      </c>
       <c r="E160" s="31" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F160" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G160" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H160" s="22"/>
       <c r="I160" s="23">
@@ -7218,10 +7288,10 @@
         <v>47</v>
       </c>
       <c r="M160" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N160" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -7229,22 +7299,22 @@
         <v>159</v>
       </c>
       <c r="B161" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C161" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D161" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="C161" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="D161" s="36" t="s">
-        <v>181</v>
-      </c>
       <c r="E161" s="31" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F161" s="31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G161" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H161" s="22"/>
       <c r="I161" s="23">
@@ -7259,10 +7329,10 @@
         <v>47</v>
       </c>
       <c r="M161" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N161" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="162" spans="1:14">

--- a/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
+++ b/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-guest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D803FC9A-7E42-164D-B5BE-B21DDA287456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FA52D7-3300-AC44-A05A-CBBB34998A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="232">
   <si>
     <t>Name:</t>
   </si>
@@ -351,12 +351,6 @@
     <t xml:space="preserve">Mo47 Ni40 Si13 </t>
   </si>
   <si>
-    <t>Al9.1 Mo23.4 Nb22.8 Ti22.2 V22.5</t>
-  </si>
-  <si>
-    <t>Al15.8 Mo21.2 Nb20.9 Ti20.9 V21.2</t>
-  </si>
-  <si>
     <t>Nb25 Mo25 Co25 Cr25</t>
   </si>
   <si>
@@ -382,9 +376,6 @@
   </si>
   <si>
     <t>beta</t>
-  </si>
-  <si>
-    <t>H</t>
   </si>
   <si>
     <t xml:space="preserve">EXP </t>
@@ -729,6 +720,30 @@
   </si>
   <si>
     <t>homogenized at 100*C for 24h</t>
+  </si>
+  <si>
+    <t>Al Mo Nb Ti V</t>
+  </si>
+  <si>
+    <t>Al10 (Mo Nb Ti V)22.5</t>
+  </si>
+  <si>
+    <t>VAM</t>
+  </si>
+  <si>
+    <t>VAM+H+OQ</t>
+  </si>
+  <si>
+    <t>HT1 was homogenized at 1673K for 24h under vacuum and oil quenched</t>
+  </si>
+  <si>
+    <t>VAM+H+OQ+A+OQ</t>
+  </si>
+  <si>
+    <t>HT2 was homogenized at 1673K for 24h under vacuum and oil quenched; second annealing at 1273K for 24h under vacuum and oil quenched</t>
+  </si>
+  <si>
+    <t>HT3 was homogenized at 1673K for 24h under vacuum and oil quenched; second annealing at 1073K for 24h under vacuum and oil quenched</t>
   </si>
 </sst>
 </file>
@@ -1309,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O132" sqref="O132"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G166" sqref="G166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1344,14 +1359,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D2" s="44" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="44"/>
       <c r="F2" s="42" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G2" s="43"/>
       <c r="H2" s="43"/>
@@ -1368,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D3" s="44"/>
       <c r="E3" s="44"/>
@@ -1429,7 +1444,7 @@
         <v>30</v>
       </c>
       <c r="M5" s="41" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N5" s="41" t="s">
         <v>46</v>
@@ -1613,17 +1628,17 @@
         <v>60</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="23">
@@ -1638,10 +1653,10 @@
         <v>47</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N10" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O10" s="20"/>
     </row>
@@ -1653,17 +1668,17 @@
         <v>60</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="23">
@@ -1678,10 +1693,10 @@
         <v>47</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N11" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O11" s="20"/>
     </row>
@@ -1693,17 +1708,17 @@
         <v>60</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="23">
@@ -1718,10 +1733,10 @@
         <v>47</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N12" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O12" s="33"/>
     </row>
@@ -1733,17 +1748,17 @@
         <v>60</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="23">
@@ -1758,10 +1773,10 @@
         <v>47</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N13" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O13" s="20"/>
     </row>
@@ -1773,17 +1788,17 @@
         <v>60</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="23">
@@ -1798,10 +1813,10 @@
         <v>47</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N14" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O14" s="20"/>
     </row>
@@ -1813,17 +1828,17 @@
         <v>60</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="23">
@@ -1838,10 +1853,10 @@
         <v>47</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N15" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O15" s="20"/>
     </row>
@@ -1853,17 +1868,17 @@
         <v>60</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="23">
@@ -1878,10 +1893,10 @@
         <v>47</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N16" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O16" s="20"/>
     </row>
@@ -1893,17 +1908,17 @@
         <v>60</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="23">
@@ -1918,10 +1933,10 @@
         <v>47</v>
       </c>
       <c r="M17" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N17" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1932,17 +1947,17 @@
         <v>60</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="23">
@@ -1957,10 +1972,10 @@
         <v>47</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N18" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1971,17 +1986,17 @@
         <v>60</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H19" s="22"/>
       <c r="I19" s="23">
@@ -1996,10 +2011,10 @@
         <v>47</v>
       </c>
       <c r="M19" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N19" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2010,17 +2025,17 @@
         <v>60</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="23">
@@ -2035,10 +2050,10 @@
         <v>47</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N20" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2049,17 +2064,17 @@
         <v>60</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H21" s="22"/>
       <c r="I21" s="23">
@@ -2074,10 +2089,10 @@
         <v>47</v>
       </c>
       <c r="M21" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N21" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2088,17 +2103,17 @@
         <v>60</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="23">
@@ -2113,10 +2128,10 @@
         <v>47</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N22" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2127,17 +2142,17 @@
         <v>61</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="23">
@@ -2152,10 +2167,10 @@
         <v>47</v>
       </c>
       <c r="M23" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N23" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2166,17 +2181,17 @@
         <v>61</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="23">
@@ -2191,10 +2206,10 @@
         <v>47</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N24" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2205,17 +2220,17 @@
         <v>61</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="23">
@@ -2230,10 +2245,10 @@
         <v>47</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N25" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2244,17 +2259,17 @@
         <v>61</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="23">
@@ -2269,10 +2284,10 @@
         <v>47</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N26" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2283,17 +2298,17 @@
         <v>61</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="23">
@@ -2308,10 +2323,10 @@
         <v>47</v>
       </c>
       <c r="M27" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N27" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2322,17 +2337,17 @@
         <v>61</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="23">
@@ -2347,10 +2362,10 @@
         <v>47</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N28" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2361,17 +2376,17 @@
         <v>61</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="23">
@@ -2386,10 +2401,10 @@
         <v>47</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N29" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2400,17 +2415,17 @@
         <v>61</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="23">
@@ -2425,10 +2440,10 @@
         <v>47</v>
       </c>
       <c r="M30" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N30" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2439,17 +2454,17 @@
         <v>61</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="23">
@@ -2464,10 +2479,10 @@
         <v>47</v>
       </c>
       <c r="M31" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N31" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2478,17 +2493,17 @@
         <v>61</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H32" s="22"/>
       <c r="I32" s="23">
@@ -2503,10 +2518,10 @@
         <v>47</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N32" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2517,17 +2532,17 @@
         <v>61</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H33" s="22"/>
       <c r="I33" s="23">
@@ -2542,10 +2557,10 @@
         <v>47</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N33" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2556,17 +2571,17 @@
         <v>61</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H34" s="22"/>
       <c r="I34" s="23">
@@ -2581,10 +2596,10 @@
         <v>47</v>
       </c>
       <c r="M34" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N34" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2595,17 +2610,17 @@
         <v>61</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H35" s="22"/>
       <c r="I35" s="23">
@@ -2620,10 +2635,10 @@
         <v>47</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N35" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2634,14 +2649,14 @@
         <v>62</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H36" s="22"/>
       <c r="I36" s="23">
@@ -2656,10 +2671,10 @@
         <v>47</v>
       </c>
       <c r="M36" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N36" s="26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2670,14 +2685,14 @@
         <v>63</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H37" s="22"/>
       <c r="I37" s="23">
@@ -2692,10 +2707,10 @@
         <v>47</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N37" s="26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2706,14 +2721,14 @@
         <v>64</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H38" s="22"/>
       <c r="I38" s="23">
@@ -2727,10 +2742,10 @@
         <v>47</v>
       </c>
       <c r="M38" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N38" s="26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2741,14 +2756,14 @@
         <v>65</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H39" s="22"/>
       <c r="I39" s="23">
@@ -2762,10 +2777,10 @@
         <v>47</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N39" s="26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2776,14 +2791,14 @@
         <v>66</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H40" s="22"/>
       <c r="I40" s="23">
@@ -2797,10 +2812,10 @@
         <v>47</v>
       </c>
       <c r="M40" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N40" s="26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2811,14 +2826,14 @@
         <v>67</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H41" s="22"/>
       <c r="I41" s="23">
@@ -2833,7 +2848,7 @@
       </c>
       <c r="M41" s="20"/>
       <c r="N41" s="26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2841,18 +2856,18 @@
         <v>33</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H42" s="22"/>
       <c r="I42" s="23">
@@ -2866,10 +2881,10 @@
         <v>47</v>
       </c>
       <c r="M42" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N42" s="26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2881,14 +2896,14 @@
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H43" s="22"/>
       <c r="I43" s="23">
@@ -2902,10 +2917,10 @@
         <v>47</v>
       </c>
       <c r="M43" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2917,14 +2932,14 @@
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H44" s="22"/>
       <c r="I44" s="23">
@@ -2938,10 +2953,10 @@
         <v>47</v>
       </c>
       <c r="M44" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2953,14 +2968,14 @@
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H45" s="22"/>
       <c r="I45" s="23">
@@ -2974,10 +2989,10 @@
         <v>47</v>
       </c>
       <c r="M45" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2985,18 +3000,18 @@
         <v>37</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H46" s="22"/>
       <c r="I46" s="23">
@@ -3010,10 +3025,10 @@
         <v>47</v>
       </c>
       <c r="M46" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N46" s="35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3025,14 +3040,14 @@
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H47" s="22"/>
       <c r="I47" s="23">
@@ -3046,10 +3061,10 @@
         <v>47</v>
       </c>
       <c r="M47" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N47" s="35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3057,18 +3072,18 @@
         <v>39</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H48" s="22"/>
       <c r="I48" s="23">
@@ -3082,10 +3097,10 @@
         <v>47</v>
       </c>
       <c r="M48" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N48" s="35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3093,18 +3108,18 @@
         <v>40</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H49" s="22"/>
       <c r="I49" s="23">
@@ -3118,10 +3133,10 @@
         <v>47</v>
       </c>
       <c r="M49" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N49" s="35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3133,14 +3148,14 @@
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H50" s="22"/>
       <c r="I50" s="23">
@@ -3154,10 +3169,10 @@
         <v>47</v>
       </c>
       <c r="M50" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N50" s="35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3169,14 +3184,14 @@
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H51" s="22"/>
       <c r="I51" s="23">
@@ -3190,10 +3205,10 @@
         <v>47</v>
       </c>
       <c r="M51" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N51" s="35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3206,10 +3221,10 @@
       <c r="C52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H52" s="22"/>
       <c r="I52" s="23">
@@ -3223,10 +3238,10 @@
         <v>47</v>
       </c>
       <c r="M52" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N52" s="27" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3234,15 +3249,15 @@
         <v>44</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C53" s="20"/>
       <c r="E53" s="20"/>
       <c r="F53" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H53" s="22"/>
       <c r="I53" s="23">
@@ -3256,10 +3271,10 @@
         <v>47</v>
       </c>
       <c r="M53" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N53" s="26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3267,15 +3282,15 @@
         <v>45</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C54" s="20"/>
       <c r="E54" s="20"/>
       <c r="F54" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H54" s="22"/>
       <c r="I54" s="23">
@@ -3289,10 +3304,10 @@
         <v>47</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3300,15 +3315,15 @@
         <v>46</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C55" s="20"/>
       <c r="E55" s="20"/>
       <c r="F55" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H55" s="22"/>
       <c r="I55" s="23">
@@ -3322,10 +3337,10 @@
         <v>47</v>
       </c>
       <c r="M55" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3333,15 +3348,15 @@
         <v>47</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H56" s="22"/>
       <c r="I56" s="23">
@@ -3355,10 +3370,10 @@
         <v>47</v>
       </c>
       <c r="M56" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3366,15 +3381,15 @@
         <v>48</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C57" s="20"/>
       <c r="E57" s="20"/>
       <c r="F57" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="23">
@@ -3388,10 +3403,10 @@
         <v>47</v>
       </c>
       <c r="M57" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3403,14 +3418,14 @@
       </c>
       <c r="C58" s="20"/>
       <c r="D58" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H58" s="22"/>
       <c r="I58" s="23"/>
@@ -3423,10 +3438,10 @@
         <v>47</v>
       </c>
       <c r="M58" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N58" s="26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3438,14 +3453,14 @@
       </c>
       <c r="C59" s="20"/>
       <c r="D59" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H59" s="22"/>
       <c r="I59" s="23"/>
@@ -3458,10 +3473,10 @@
         <v>47</v>
       </c>
       <c r="M59" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3473,14 +3488,14 @@
       </c>
       <c r="C60" s="20"/>
       <c r="D60" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H60" s="22"/>
       <c r="I60" s="23"/>
@@ -3493,10 +3508,10 @@
         <v>47</v>
       </c>
       <c r="M60" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3508,14 +3523,14 @@
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H61" s="22"/>
       <c r="I61" s="23"/>
@@ -3528,10 +3543,10 @@
         <v>47</v>
       </c>
       <c r="M61" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3542,17 +3557,17 @@
         <v>72</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H62" s="22"/>
       <c r="I62" s="23">
@@ -3567,10 +3582,10 @@
         <v>47</v>
       </c>
       <c r="M62" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3581,17 +3596,17 @@
         <v>73</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E63" s="20"/>
       <c r="F63" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H63" s="22"/>
       <c r="I63" s="23">
@@ -3606,10 +3621,10 @@
         <v>47</v>
       </c>
       <c r="M63" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3620,17 +3635,17 @@
         <v>74</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H64" s="22"/>
       <c r="I64" s="23">
@@ -3645,10 +3660,10 @@
         <v>47</v>
       </c>
       <c r="M64" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3659,17 +3674,17 @@
         <v>75</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H65" s="22"/>
       <c r="I65" s="23">
@@ -3684,10 +3699,10 @@
         <v>47</v>
       </c>
       <c r="M65" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3698,17 +3713,17 @@
         <v>76</v>
       </c>
       <c r="C66" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E66" s="20"/>
       <c r="F66" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H66" s="22"/>
       <c r="I66" s="23"/>
@@ -3721,10 +3736,10 @@
         <v>47</v>
       </c>
       <c r="M66" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N66" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3735,17 +3750,17 @@
         <v>77</v>
       </c>
       <c r="C67" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H67" s="22"/>
       <c r="I67" s="23"/>
@@ -3758,10 +3773,10 @@
         <v>47</v>
       </c>
       <c r="M67" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3772,17 +3787,17 @@
         <v>78</v>
       </c>
       <c r="C68" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E68" s="20"/>
       <c r="F68" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H68" s="22"/>
       <c r="I68" s="23"/>
@@ -3795,10 +3810,10 @@
         <v>47</v>
       </c>
       <c r="M68" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3809,17 +3824,17 @@
         <v>79</v>
       </c>
       <c r="C69" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H69" s="22"/>
       <c r="I69" s="23"/>
@@ -3832,10 +3847,10 @@
         <v>47</v>
       </c>
       <c r="M69" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3846,17 +3861,17 @@
         <v>80</v>
       </c>
       <c r="C70" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E70" s="20"/>
       <c r="F70" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H70" s="22"/>
       <c r="I70" s="23"/>
@@ -3869,10 +3884,10 @@
         <v>47</v>
       </c>
       <c r="M70" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3883,17 +3898,17 @@
         <v>81</v>
       </c>
       <c r="C71" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E71" s="20"/>
       <c r="F71" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H71" s="22"/>
       <c r="I71" s="23"/>
@@ -3906,10 +3921,10 @@
         <v>47</v>
       </c>
       <c r="M71" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3920,17 +3935,17 @@
         <v>82</v>
       </c>
       <c r="C72" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H72" s="22"/>
       <c r="I72" s="23"/>
@@ -3943,10 +3958,10 @@
         <v>47</v>
       </c>
       <c r="M72" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3957,17 +3972,17 @@
         <v>83</v>
       </c>
       <c r="C73" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E73" s="20"/>
       <c r="F73" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H73" s="22"/>
       <c r="I73" s="23"/>
@@ -3980,10 +3995,10 @@
         <v>47</v>
       </c>
       <c r="M73" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3991,15 +4006,15 @@
         <v>65</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H74" s="22"/>
       <c r="I74" s="23">
@@ -4014,7 +4029,7 @@
       </c>
       <c r="M74" s="20"/>
       <c r="N74" s="26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4022,15 +4037,15 @@
         <v>66</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G75" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H75" s="22"/>
       <c r="I75" s="23">
@@ -4045,7 +4060,7 @@
       </c>
       <c r="M75" s="20"/>
       <c r="N75" s="26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -4053,15 +4068,15 @@
         <v>67</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C76" s="20"/>
       <c r="E76" s="20"/>
       <c r="F76" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G76" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H76" s="22"/>
       <c r="I76" s="23">
@@ -4076,7 +4091,7 @@
       </c>
       <c r="M76" s="20"/>
       <c r="N76" s="26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4087,19 +4102,19 @@
         <v>84</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D77" s="49" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E77" s="48" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F77" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H77" s="22"/>
       <c r="I77" s="23">
@@ -4114,10 +4129,10 @@
         <v>47</v>
       </c>
       <c r="M77" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N77" s="26" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -4125,22 +4140,22 @@
         <v>72</v>
       </c>
       <c r="B78" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D78" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="E78" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="C78" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D78" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="E78" s="48" t="s">
-        <v>207</v>
-      </c>
       <c r="F78" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H78" s="22"/>
       <c r="I78" s="23">
@@ -4155,10 +4170,10 @@
         <v>47</v>
       </c>
       <c r="M78" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N78" s="26" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4166,22 +4181,22 @@
         <v>73</v>
       </c>
       <c r="B79" s="48" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D79" s="49" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E79" s="48" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F79" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H79" s="22"/>
       <c r="I79" s="23">
@@ -4196,10 +4211,10 @@
         <v>47</v>
       </c>
       <c r="M79" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N79" s="26" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4207,22 +4222,22 @@
         <v>74</v>
       </c>
       <c r="B80" s="48" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D80" s="49" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E80" s="48" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F80" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G80" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H80" s="22"/>
       <c r="I80" s="23">
@@ -4236,10 +4251,10 @@
         <v>47</v>
       </c>
       <c r="M80" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N80" s="26" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4250,14 +4265,14 @@
         <v>85</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E81" s="20"/>
       <c r="F81" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G81" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H81" s="22"/>
       <c r="I81" s="23">
@@ -4271,10 +4286,10 @@
         <v>47</v>
       </c>
       <c r="M81" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N81" s="26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4285,14 +4300,14 @@
         <v>86</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E82" s="20"/>
       <c r="F82" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G82" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H82" s="22"/>
       <c r="I82" s="23">
@@ -4306,10 +4321,10 @@
         <v>47</v>
       </c>
       <c r="M82" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N82" s="26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4320,14 +4335,14 @@
         <v>87</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G83" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H83" s="22"/>
       <c r="I83" s="23">
@@ -4341,10 +4356,10 @@
         <v>47</v>
       </c>
       <c r="M83" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N83" s="26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4355,14 +4370,14 @@
         <v>88</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E84" s="20"/>
       <c r="F84" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G84" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H84" s="22"/>
       <c r="I84" s="23">
@@ -4376,10 +4391,10 @@
         <v>47</v>
       </c>
       <c r="M84" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N84" s="26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4390,14 +4405,14 @@
         <v>84</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E85" s="20"/>
       <c r="F85" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H85" s="22"/>
       <c r="I85" s="23">
@@ -4411,10 +4426,10 @@
         <v>47</v>
       </c>
       <c r="M85" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N85" s="26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4422,17 +4437,17 @@
         <v>80</v>
       </c>
       <c r="B86" s="48" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G86" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H86" s="22"/>
       <c r="I86" s="23">
@@ -4446,10 +4461,10 @@
         <v>47</v>
       </c>
       <c r="M86" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N86" s="26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4457,17 +4472,17 @@
         <v>81</v>
       </c>
       <c r="B87" s="48" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E87" s="20"/>
       <c r="F87" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G87" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H87" s="22"/>
       <c r="I87" s="23">
@@ -4481,10 +4496,10 @@
         <v>47</v>
       </c>
       <c r="M87" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N87" s="26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4492,17 +4507,17 @@
         <v>82</v>
       </c>
       <c r="B88" s="48" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G88" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H88" s="22"/>
       <c r="I88" s="23">
@@ -4516,10 +4531,10 @@
         <v>47</v>
       </c>
       <c r="M88" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N88" s="26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4530,19 +4545,19 @@
         <v>86</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D89" s="49" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E89" s="48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F89" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H89" s="22"/>
       <c r="I89" s="23">
@@ -4557,10 +4572,10 @@
         <v>47</v>
       </c>
       <c r="M89" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N89" s="26" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4568,19 +4583,19 @@
         <v>84</v>
       </c>
       <c r="B90" s="48" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D90" s="49" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E90" s="48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F90" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G90" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H90" s="22"/>
       <c r="I90" s="23">
@@ -4595,10 +4610,10 @@
         <v>47</v>
       </c>
       <c r="M90" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N90" s="26" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4606,19 +4621,19 @@
         <v>85</v>
       </c>
       <c r="B91" s="48" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D91" s="49" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E91" s="48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F91" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G91" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H91" s="22"/>
       <c r="I91" s="23">
@@ -4633,10 +4648,10 @@
         <v>47</v>
       </c>
       <c r="M91" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N91" s="26" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4644,22 +4659,22 @@
         <v>86</v>
       </c>
       <c r="B92" s="48" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C92" s="49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D92" s="49" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E92" s="50" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F92" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G92" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H92" s="22"/>
       <c r="I92" s="3">
@@ -4673,10 +4688,10 @@
         <v>47</v>
       </c>
       <c r="M92" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N92" s="28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4684,22 +4699,22 @@
         <v>87</v>
       </c>
       <c r="B93" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="C93" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D93" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="E93" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="C93" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="D93" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="E93" s="50" t="s">
-        <v>189</v>
-      </c>
       <c r="F93" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G93" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H93" s="22"/>
       <c r="I93" s="3">
@@ -4713,10 +4728,10 @@
         <v>47</v>
       </c>
       <c r="M93" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N93" s="28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4724,22 +4739,22 @@
         <v>88</v>
       </c>
       <c r="B94" s="48" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C94" s="49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D94" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="E94" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="E94" s="50" t="s">
-        <v>190</v>
-      </c>
       <c r="F94" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H94" s="22"/>
       <c r="I94" s="3">
@@ -4753,10 +4768,10 @@
         <v>47</v>
       </c>
       <c r="M94" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N94" s="28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4764,22 +4779,22 @@
         <v>89</v>
       </c>
       <c r="B95" s="48" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C95" s="49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D95" s="49" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E95" s="50" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F95" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H95" s="22"/>
       <c r="I95" s="3">
@@ -4793,10 +4808,10 @@
         <v>47</v>
       </c>
       <c r="M95" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N95" s="28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4804,22 +4819,22 @@
         <v>90</v>
       </c>
       <c r="B96" s="48" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C96" s="49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D96" s="49" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E96" s="50" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F96" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G96" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H96" s="22"/>
       <c r="I96" s="3">
@@ -4833,10 +4848,10 @@
         <v>47</v>
       </c>
       <c r="M96" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N96" s="28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4844,22 +4859,22 @@
         <v>91</v>
       </c>
       <c r="B97" s="48" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C97" s="49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D97" s="49" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E97" s="50" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F97" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G97" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H97" s="22"/>
       <c r="I97" s="3">
@@ -4873,10 +4888,10 @@
         <v>47</v>
       </c>
       <c r="M97" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N97" s="28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -4884,22 +4899,22 @@
         <v>92</v>
       </c>
       <c r="B98" s="48" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C98" s="49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D98" s="49" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E98" s="50" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F98" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G98" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H98" s="22"/>
       <c r="I98" s="3">
@@ -4913,10 +4928,10 @@
         <v>47</v>
       </c>
       <c r="M98" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N98" s="28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -4924,22 +4939,22 @@
         <v>93</v>
       </c>
       <c r="B99" s="48" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C99" s="49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D99" s="49" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E99" s="50" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F99" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G99" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H99" s="22"/>
       <c r="I99" s="3">
@@ -4953,10 +4968,10 @@
         <v>47</v>
       </c>
       <c r="M99" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N99" s="28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -4964,22 +4979,22 @@
         <v>94</v>
       </c>
       <c r="B100" s="48" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C100" s="49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D100" s="49" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E100" s="50" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F100" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G100" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H100" s="22"/>
       <c r="I100" s="3">
@@ -4993,10 +5008,10 @@
         <v>47</v>
       </c>
       <c r="M100" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N100" s="28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -5004,22 +5019,22 @@
         <v>95</v>
       </c>
       <c r="B101" s="48" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C101" s="49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D101" s="49" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E101" s="50" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F101" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G101" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H101" s="22"/>
       <c r="I101" s="3">
@@ -5033,10 +5048,10 @@
         <v>47</v>
       </c>
       <c r="M101" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N101" s="28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -5044,22 +5059,22 @@
         <v>96</v>
       </c>
       <c r="B102" s="48" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C102" s="49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D102" s="49" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E102" s="50" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F102" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G102" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H102" s="22"/>
       <c r="I102" s="3">
@@ -5073,10 +5088,10 @@
         <v>47</v>
       </c>
       <c r="M102" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N102" s="28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -5087,14 +5102,14 @@
         <v>89</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E103" s="20"/>
       <c r="F103" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G103" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H103" s="22"/>
       <c r="I103" s="23"/>
@@ -5107,10 +5122,10 @@
         <v>47</v>
       </c>
       <c r="M103" s="20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N103" s="26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5121,14 +5136,14 @@
         <v>90</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E104" s="20"/>
       <c r="F104" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G104" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H104" s="22"/>
       <c r="I104" s="23"/>
@@ -5141,10 +5156,10 @@
         <v>47</v>
       </c>
       <c r="M104" s="20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N104" s="26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5155,14 +5170,14 @@
         <v>91</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G105" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H105" s="22"/>
       <c r="I105" s="23"/>
@@ -5175,10 +5190,10 @@
         <v>47</v>
       </c>
       <c r="M105" s="20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N105" s="26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5189,14 +5204,14 @@
         <v>92</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G106" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H106" s="22"/>
       <c r="I106" s="23"/>
@@ -5209,10 +5224,10 @@
         <v>47</v>
       </c>
       <c r="M106" s="20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N106" s="26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5223,17 +5238,17 @@
         <v>93</v>
       </c>
       <c r="C107" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G107" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H107" s="22"/>
       <c r="I107" s="23"/>
@@ -5246,10 +5261,10 @@
         <v>47</v>
       </c>
       <c r="M107" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N107" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5257,20 +5272,20 @@
         <v>102</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C108" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E108" s="20"/>
       <c r="F108" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G108" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H108" s="22"/>
       <c r="I108" s="23"/>
@@ -5283,10 +5298,10 @@
         <v>47</v>
       </c>
       <c r="M108" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N108" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5297,17 +5312,17 @@
         <v>94</v>
       </c>
       <c r="C109" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E109" s="20"/>
       <c r="F109" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G109" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H109" s="22"/>
       <c r="I109" s="23"/>
@@ -5320,10 +5335,10 @@
         <v>47</v>
       </c>
       <c r="M109" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N109" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5334,17 +5349,17 @@
         <v>95</v>
       </c>
       <c r="C110" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G110" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H110" s="22"/>
       <c r="I110" s="23"/>
@@ -5357,10 +5372,10 @@
         <v>47</v>
       </c>
       <c r="M110" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N110" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5371,17 +5386,17 @@
         <v>96</v>
       </c>
       <c r="C111" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G111" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H111" s="22"/>
       <c r="I111" s="23"/>
@@ -5394,10 +5409,10 @@
         <v>47</v>
       </c>
       <c r="M111" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N111" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5408,17 +5423,17 @@
         <v>97</v>
       </c>
       <c r="C112" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G112" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H112" s="22"/>
       <c r="I112" s="23"/>
@@ -5431,10 +5446,10 @@
         <v>47</v>
       </c>
       <c r="M112" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N112" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5445,17 +5460,17 @@
         <v>98</v>
       </c>
       <c r="C113" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G113" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H113" s="22"/>
       <c r="I113" s="23"/>
@@ -5468,10 +5483,10 @@
         <v>47</v>
       </c>
       <c r="M113" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N113" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5482,17 +5497,17 @@
         <v>99</v>
       </c>
       <c r="C114" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G114" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H114" s="22"/>
       <c r="I114" s="23"/>
@@ -5505,10 +5520,10 @@
         <v>47</v>
       </c>
       <c r="M114" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N114" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5519,17 +5534,17 @@
         <v>100</v>
       </c>
       <c r="C115" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G115" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H115" s="22"/>
       <c r="I115" s="23"/>
@@ -5542,10 +5557,10 @@
         <v>47</v>
       </c>
       <c r="M115" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N115" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5556,17 +5571,17 @@
         <v>101</v>
       </c>
       <c r="C116" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G116" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H116" s="22"/>
       <c r="I116" s="23"/>
@@ -5579,10 +5594,10 @@
         <v>47</v>
       </c>
       <c r="M116" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N116" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -5593,17 +5608,17 @@
         <v>102</v>
       </c>
       <c r="C117" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G117" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H117" s="22"/>
       <c r="I117" s="23"/>
@@ -5616,10 +5631,10 @@
         <v>47</v>
       </c>
       <c r="M117" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N117" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -5630,17 +5645,17 @@
         <v>103</v>
       </c>
       <c r="C118" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G118" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H118" s="22"/>
       <c r="I118" s="23"/>
@@ -5653,10 +5668,10 @@
         <v>47</v>
       </c>
       <c r="M118" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N118" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -5667,17 +5682,17 @@
         <v>94</v>
       </c>
       <c r="C119" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G119" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H119" s="22"/>
       <c r="I119" s="23"/>
@@ -5690,10 +5705,10 @@
         <v>47</v>
       </c>
       <c r="M119" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N119" s="26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -5704,19 +5719,19 @@
         <v>94</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D120" s="49" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E120" s="48" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F120" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G120" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H120" s="22"/>
       <c r="I120" s="23">
@@ -5731,10 +5746,10 @@
         <v>47</v>
       </c>
       <c r="M120" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N120" s="26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -5745,19 +5760,19 @@
         <v>94</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D121" s="49" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E121" s="48" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F121" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G121" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H121" s="22"/>
       <c r="I121" s="23">
@@ -5772,10 +5787,10 @@
         <v>47</v>
       </c>
       <c r="M121" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N121" s="26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -5786,19 +5801,19 @@
         <v>94</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D122" s="49" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E122" s="48" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F122" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G122" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H122" s="22"/>
       <c r="I122" s="23">
@@ -5813,10 +5828,10 @@
         <v>47</v>
       </c>
       <c r="M122" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N122" s="26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -5824,22 +5839,22 @@
         <v>121</v>
       </c>
       <c r="B123" s="48" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E123" s="48" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F123" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G123" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H123" s="22"/>
       <c r="I123" s="23">
@@ -5857,10 +5872,10 @@
         <v>47</v>
       </c>
       <c r="M123" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N123" s="26" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -5868,22 +5883,22 @@
         <v>122</v>
       </c>
       <c r="B124" s="48" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C124" s="49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E124" s="48" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F124" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G124" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H124" s="22"/>
       <c r="I124" s="23">
@@ -5901,10 +5916,10 @@
         <v>47</v>
       </c>
       <c r="M124" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N124" s="26" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -5912,22 +5927,22 @@
         <v>123</v>
       </c>
       <c r="B125" s="48" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C125" s="49" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E125" s="48" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F125" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G125" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H125" s="22"/>
       <c r="I125" s="23">
@@ -5945,10 +5960,10 @@
         <v>47</v>
       </c>
       <c r="M125" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N125" s="26" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -5956,22 +5971,22 @@
         <v>124</v>
       </c>
       <c r="B126" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="C126" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E126" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="C126" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E126" s="48" t="s">
-        <v>217</v>
-      </c>
       <c r="F126" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G126" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H126" s="22"/>
       <c r="I126" s="23">
@@ -5989,10 +6004,10 @@
         <v>47</v>
       </c>
       <c r="M126" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N126" s="26" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -6000,20 +6015,20 @@
         <v>125</v>
       </c>
       <c r="B127" s="48" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C127" s="49" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D127" s="49" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G127" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H127" s="22"/>
       <c r="I127" s="23">
@@ -6030,10 +6045,10 @@
         <v>47</v>
       </c>
       <c r="M127" s="37" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N127" s="35" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -6041,20 +6056,20 @@
         <v>126</v>
       </c>
       <c r="B128" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C128" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="C128" s="49" t="s">
-        <v>222</v>
-      </c>
       <c r="D128" s="49" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E128" s="20"/>
       <c r="F128" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G128" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H128" s="22"/>
       <c r="I128" s="23">
@@ -6071,10 +6086,10 @@
         <v>47</v>
       </c>
       <c r="M128" s="37" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N128" s="35" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -6082,20 +6097,20 @@
         <v>127</v>
       </c>
       <c r="B129" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="C129" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="C129" s="49" t="s">
-        <v>223</v>
-      </c>
       <c r="D129" s="49" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E129" s="20"/>
       <c r="F129" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G129" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H129" s="22"/>
       <c r="I129" s="23">
@@ -6112,10 +6127,10 @@
         <v>47</v>
       </c>
       <c r="M129" s="37" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N129" s="35" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -6123,20 +6138,20 @@
         <v>128</v>
       </c>
       <c r="B130" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="C130" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="D130" s="49" t="s">
         <v>221</v>
-      </c>
-      <c r="C130" s="49" t="s">
-        <v>223</v>
-      </c>
-      <c r="D130" s="49" t="s">
-        <v>224</v>
       </c>
       <c r="E130" s="20"/>
       <c r="F130" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G130" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H130" s="22"/>
       <c r="I130" s="23">
@@ -6153,10 +6168,10 @@
         <v>47</v>
       </c>
       <c r="M130" s="37" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N130" s="35" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -6164,22 +6179,22 @@
         <v>129</v>
       </c>
       <c r="B131" s="48" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C131" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="D131" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="D131" s="49" t="s">
-        <v>225</v>
-      </c>
       <c r="E131" s="48" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F131" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G131" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H131" s="22"/>
       <c r="I131" s="23">
@@ -6196,10 +6211,10 @@
         <v>47</v>
       </c>
       <c r="M131" s="37" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N131" s="35" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -6207,22 +6222,22 @@
         <v>130</v>
       </c>
       <c r="B132" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C132" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="C132" s="49" t="s">
+      <c r="D132" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="D132" s="49" t="s">
-        <v>225</v>
-      </c>
       <c r="E132" s="48" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F132" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G132" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H132" s="22"/>
       <c r="I132" s="23">
@@ -6239,10 +6254,10 @@
         <v>47</v>
       </c>
       <c r="M132" s="37" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N132" s="35" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -6250,22 +6265,22 @@
         <v>131</v>
       </c>
       <c r="B133" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="C133" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="C133" s="49" t="s">
+      <c r="D133" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="E133" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="D133" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="E133" s="48" t="s">
-        <v>226</v>
-      </c>
       <c r="F133" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G133" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H133" s="22"/>
       <c r="I133" s="23">
@@ -6282,10 +6297,10 @@
         <v>47</v>
       </c>
       <c r="M133" s="37" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N133" s="35" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -6293,22 +6308,22 @@
         <v>132</v>
       </c>
       <c r="B134" s="48" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C134" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="D134" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="E134" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="D134" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="E134" s="48" t="s">
-        <v>226</v>
-      </c>
       <c r="F134" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G134" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H134" s="22"/>
       <c r="I134" s="23">
@@ -6325,10 +6340,10 @@
         <v>47</v>
       </c>
       <c r="M134" s="37" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N134" s="35" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -6340,10 +6355,10 @@
       </c>
       <c r="E135" s="20"/>
       <c r="F135" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G135" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H135" s="22"/>
       <c r="I135" s="23"/>
@@ -6357,7 +6372,7 @@
       </c>
       <c r="M135" s="20"/>
       <c r="N135" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -6365,17 +6380,17 @@
         <v>134</v>
       </c>
       <c r="B136" s="31" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E136" s="20"/>
       <c r="F136" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G136" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H136" s="22"/>
       <c r="I136" s="23"/>
@@ -6387,10 +6402,10 @@
         <v>47</v>
       </c>
       <c r="M136" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N136" s="30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -6398,22 +6413,22 @@
         <v>135</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C137" s="49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D137" s="36" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E137" s="50" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F137" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G137" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H137" s="22"/>
       <c r="I137" s="3">
@@ -6428,10 +6443,10 @@
         <v>47</v>
       </c>
       <c r="M137" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N137" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -6439,22 +6454,22 @@
         <v>136</v>
       </c>
       <c r="B138" s="31" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C138" s="49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D138" s="36" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E138" s="50" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F138" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G138" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H138" s="22"/>
       <c r="I138" s="3">
@@ -6469,10 +6484,10 @@
         <v>47</v>
       </c>
       <c r="M138" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N138" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -6480,22 +6495,22 @@
         <v>137</v>
       </c>
       <c r="B139" s="31" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C139" s="49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D139" s="36" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E139" s="50" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F139" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G139" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H139" s="22"/>
       <c r="I139" s="3">
@@ -6510,10 +6525,10 @@
         <v>47</v>
       </c>
       <c r="M139" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N139" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -6521,22 +6536,22 @@
         <v>138</v>
       </c>
       <c r="B140" s="31" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C140" s="49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D140" s="36" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E140" s="50" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F140" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G140" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H140" s="22"/>
       <c r="I140" s="3">
@@ -6551,10 +6566,10 @@
         <v>47</v>
       </c>
       <c r="M140" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N140" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -6562,22 +6577,22 @@
         <v>139</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C141" s="49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D141" s="36" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E141" s="50" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F141" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G141" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H141" s="22"/>
       <c r="I141" s="3">
@@ -6592,10 +6607,10 @@
         <v>47</v>
       </c>
       <c r="M141" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N141" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -6603,22 +6618,22 @@
         <v>140</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C142" s="49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D142" s="36" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E142" s="50" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F142" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G142" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H142" s="22"/>
       <c r="I142" s="3">
@@ -6633,10 +6648,10 @@
         <v>47</v>
       </c>
       <c r="M142" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N142" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -6644,22 +6659,22 @@
         <v>141</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C143" s="49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D143" s="36" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E143" s="50" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F143" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G143" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H143" s="22"/>
       <c r="I143" s="3">
@@ -6674,10 +6689,10 @@
         <v>47</v>
       </c>
       <c r="M143" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N143" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -6685,22 +6700,22 @@
         <v>142</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C144" s="49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D144" s="36" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E144" s="50" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F144" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G144" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H144" s="22"/>
       <c r="I144" s="3">
@@ -6715,28 +6730,30 @@
         <v>47</v>
       </c>
       <c r="M144" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N144" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="3">
         <v>143</v>
       </c>
-      <c r="B145" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E145" s="20"/>
+      <c r="B145" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="C145" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D145" s="49" t="s">
+        <v>226</v>
+      </c>
       <c r="F145" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G145" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H145" s="22"/>
       <c r="I145" s="3">
@@ -6751,32 +6768,37 @@
         <v>47</v>
       </c>
       <c r="M145" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N145" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="3">
         <v>144</v>
       </c>
-      <c r="B146" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E146" s="20"/>
+      <c r="B146" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="C146" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D146" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="E146" s="48" t="s">
+        <v>228</v>
+      </c>
       <c r="F146" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G146" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H146" s="22"/>
-      <c r="I146" s="23">
-        <v>1673</v>
+      <c r="I146" s="3">
+        <v>298</v>
       </c>
       <c r="J146" s="19">
         <f>487*9807000</f>
@@ -6787,32 +6809,37 @@
         <v>47</v>
       </c>
       <c r="M146" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N146" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="3">
         <v>145</v>
       </c>
-      <c r="B147" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D147" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="E147" s="20"/>
+      <c r="B147" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="C147" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D147" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="E147" s="48" t="s">
+        <v>230</v>
+      </c>
       <c r="F147" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G147" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H147" s="22"/>
-      <c r="I147" s="23">
-        <v>1273</v>
+      <c r="I147" s="3">
+        <v>298</v>
       </c>
       <c r="J147" s="19">
         <f>456*9807000</f>
@@ -6823,32 +6850,37 @@
         <v>47</v>
       </c>
       <c r="M147" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N147" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="3">
         <v>146</v>
       </c>
-      <c r="B148" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D148" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="E148" s="20"/>
+      <c r="B148" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="C148" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D148" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="E148" s="48" t="s">
+        <v>231</v>
+      </c>
       <c r="F148" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G148" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H148" s="22"/>
-      <c r="I148" s="23">
-        <v>1073</v>
+      <c r="I148" s="3">
+        <v>298</v>
       </c>
       <c r="J148" s="19">
         <f>516*9807000</f>
@@ -6859,31 +6891,35 @@
         <v>47</v>
       </c>
       <c r="M148" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N148" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="3">
         <v>147</v>
       </c>
-      <c r="B149" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E149" s="20"/>
+      <c r="B149" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="C149" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D149" s="49" t="s">
+        <v>226</v>
+      </c>
       <c r="F149" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G149" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H149" s="22"/>
-      <c r="I149" s="23"/>
+      <c r="I149" s="3">
+        <v>298</v>
+      </c>
       <c r="J149" s="19">
         <f>445*9807000</f>
         <v>4364115000</v>
@@ -6893,32 +6929,37 @@
         <v>47</v>
       </c>
       <c r="M149" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N149" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="3">
         <v>148</v>
       </c>
-      <c r="B150" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E150" s="20"/>
+      <c r="B150" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="C150" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D150" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="E150" s="48" t="s">
+        <v>228</v>
+      </c>
       <c r="F150" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G150" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H150" s="22"/>
-      <c r="I150" s="23">
-        <v>1673</v>
+      <c r="I150" s="3">
+        <v>298</v>
       </c>
       <c r="J150" s="19">
         <f>459*9807000</f>
@@ -6929,32 +6970,37 @@
         <v>47</v>
       </c>
       <c r="M150" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N150" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="3">
         <v>149</v>
       </c>
-      <c r="B151" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D151" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="E151" s="20"/>
+      <c r="B151" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="C151" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D151" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="E151" s="48" t="s">
+        <v>230</v>
+      </c>
       <c r="F151" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G151" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H151" s="22"/>
-      <c r="I151" s="23">
-        <v>1273</v>
+      <c r="I151" s="3">
+        <v>298</v>
       </c>
       <c r="J151" s="19">
         <f>459*9807000</f>
@@ -6965,32 +7011,37 @@
         <v>47</v>
       </c>
       <c r="M151" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N151" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="3">
         <v>150</v>
       </c>
-      <c r="B152" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D152" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="E152" s="20"/>
+      <c r="B152" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="C152" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D152" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="E152" s="48" t="s">
+        <v>231</v>
+      </c>
       <c r="F152" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G152" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H152" s="22"/>
-      <c r="I152" s="23">
-        <v>1073</v>
+      <c r="I152" s="3">
+        <v>298</v>
       </c>
       <c r="J152" s="19">
         <f>522*9807000</f>
@@ -7001,10 +7052,10 @@
         <v>47</v>
       </c>
       <c r="M152" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N152" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -7012,17 +7063,17 @@
         <v>151</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E153" s="20"/>
       <c r="F153" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G153" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H153" s="22"/>
       <c r="I153" s="23"/>
@@ -7035,10 +7086,10 @@
         <v>47</v>
       </c>
       <c r="M153" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N153" s="30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -7046,17 +7097,17 @@
         <v>152</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E154" s="20"/>
       <c r="F154" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G154" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H154" s="22"/>
       <c r="I154" s="23"/>
@@ -7069,10 +7120,10 @@
         <v>47</v>
       </c>
       <c r="M154" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N154" s="30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -7080,17 +7131,17 @@
         <v>153</v>
       </c>
       <c r="B155" s="31" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E155" s="20"/>
       <c r="F155" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G155" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H155" s="22"/>
       <c r="I155" s="23"/>
@@ -7103,10 +7154,10 @@
         <v>47</v>
       </c>
       <c r="M155" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N155" s="30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -7114,17 +7165,17 @@
         <v>154</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E156" s="20"/>
       <c r="F156" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G156" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H156" s="22"/>
       <c r="I156" s="23"/>
@@ -7137,10 +7188,10 @@
         <v>47</v>
       </c>
       <c r="M156" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N156" s="30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -7148,17 +7199,17 @@
         <v>155</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E157" s="20"/>
       <c r="F157" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G157" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H157" s="22"/>
       <c r="I157" s="23"/>
@@ -7171,10 +7222,10 @@
         <v>47</v>
       </c>
       <c r="M157" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N157" s="30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -7182,20 +7233,20 @@
         <v>156</v>
       </c>
       <c r="B158" s="31" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C158" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D158" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E158" s="20"/>
       <c r="F158" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G158" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H158" s="22"/>
       <c r="I158" s="23"/>
@@ -7208,10 +7259,10 @@
         <v>47</v>
       </c>
       <c r="M158" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N158" s="26" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -7219,20 +7270,20 @@
         <v>157</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C159" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="D159" s="36" t="s">
         <v>174</v>
-      </c>
-      <c r="D159" s="36" t="s">
-        <v>177</v>
       </c>
       <c r="E159" s="20"/>
       <c r="F159" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G159" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H159" s="22"/>
       <c r="I159" s="23">
@@ -7247,10 +7298,10 @@
         <v>47</v>
       </c>
       <c r="M159" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N159" s="26" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -7258,22 +7309,22 @@
         <v>158</v>
       </c>
       <c r="B160" s="31" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C160" s="36" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D160" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="E160" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="E160" s="31" t="s">
-        <v>180</v>
-      </c>
       <c r="F160" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G160" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H160" s="22"/>
       <c r="I160" s="23">
@@ -7288,10 +7339,10 @@
         <v>47</v>
       </c>
       <c r="M160" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N160" s="26" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -7299,22 +7350,22 @@
         <v>159</v>
       </c>
       <c r="B161" s="31" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C161" s="36" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D161" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="E161" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="E161" s="31" t="s">
-        <v>180</v>
-      </c>
       <c r="F161" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G161" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H161" s="22"/>
       <c r="I161" s="23">
@@ -7329,10 +7380,10 @@
         <v>47</v>
       </c>
       <c r="M161" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N161" s="26" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="162" spans="1:14">

--- a/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
+++ b/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-guest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FA52D7-3300-AC44-A05A-CBBB34998A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F71F456-39A2-C948-9A33-313A134BE05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="235">
   <si>
     <t>Name:</t>
   </si>
@@ -560,12 +560,6 @@
     <t>Ti67.30 Nb24.03 Ta3.53 Fe5.14</t>
   </si>
   <si>
-    <t>Co24.9 Cr24.9 Mo24.9 Nb24.9 Ti0.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCC + BCC </t>
-  </si>
-  <si>
     <t>Marcia Ahn</t>
   </si>
   <si>
@@ -575,15 +569,6 @@
     <t>S</t>
   </si>
   <si>
-    <t>BCC + BCC + ?</t>
-  </si>
-  <si>
-    <t>BCC + CC + ?</t>
-  </si>
-  <si>
-    <t>? is precipitate</t>
-  </si>
-  <si>
     <t>hardness</t>
   </si>
   <si>
@@ -744,6 +729,30 @@
   </si>
   <si>
     <t>HT3 was homogenized at 1673K for 24h under vacuum and oil quenched; second annealing at 1073K for 24h under vacuum and oil quenched</t>
+  </si>
+  <si>
+    <t>CoCrNbMoTi0.4</t>
+  </si>
+  <si>
+    <t>AAM+A</t>
+  </si>
+  <si>
+    <t>annealed for 20h in vacuum at 1073K</t>
+  </si>
+  <si>
+    <t>annealed for 20h in vacuum at 1273K</t>
+  </si>
+  <si>
+    <t>500g vickers for 15s</t>
+  </si>
+  <si>
+    <t>BCC+BCC</t>
+  </si>
+  <si>
+    <t>BCC+BCC+laves</t>
+  </si>
+  <si>
+    <t>annealed for 20h in vacuum at 1473K; strong presence of laves phase</t>
   </si>
 </sst>
 </file>
@@ -926,7 +935,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1036,6 +1045,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1324,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G166" sqref="G166"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I169" sqref="I169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1359,14 +1371,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D2" s="44" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="44"/>
       <c r="F2" s="42" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G2" s="43"/>
       <c r="H2" s="43"/>
@@ -1383,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D3" s="44"/>
       <c r="E3" s="44"/>
@@ -1635,7 +1647,7 @@
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G10" s="20" t="s">
         <v>114</v>
@@ -1675,7 +1687,7 @@
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G11" s="20" t="s">
         <v>114</v>
@@ -1715,7 +1727,7 @@
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>114</v>
@@ -1755,7 +1767,7 @@
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>114</v>
@@ -1795,7 +1807,7 @@
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>114</v>
@@ -1835,7 +1847,7 @@
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>114</v>
@@ -1875,7 +1887,7 @@
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>114</v>
@@ -1915,7 +1927,7 @@
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>114</v>
@@ -1954,7 +1966,7 @@
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>114</v>
@@ -1993,7 +2005,7 @@
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>114</v>
@@ -2032,7 +2044,7 @@
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>114</v>
@@ -2071,7 +2083,7 @@
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>114</v>
@@ -2110,7 +2122,7 @@
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>114</v>
@@ -2149,7 +2161,7 @@
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>114</v>
@@ -2188,7 +2200,7 @@
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G24" s="20" t="s">
         <v>114</v>
@@ -2227,7 +2239,7 @@
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>114</v>
@@ -2266,7 +2278,7 @@
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G26" s="20" t="s">
         <v>114</v>
@@ -2305,7 +2317,7 @@
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G27" s="20" t="s">
         <v>114</v>
@@ -2344,7 +2356,7 @@
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G28" s="20" t="s">
         <v>114</v>
@@ -2383,7 +2395,7 @@
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G29" s="20" t="s">
         <v>114</v>
@@ -2422,7 +2434,7 @@
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>114</v>
@@ -2461,7 +2473,7 @@
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G31" s="20" t="s">
         <v>114</v>
@@ -2500,7 +2512,7 @@
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G32" s="20" t="s">
         <v>114</v>
@@ -2539,7 +2551,7 @@
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G33" s="20" t="s">
         <v>114</v>
@@ -2578,7 +2590,7 @@
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G34" s="20" t="s">
         <v>114</v>
@@ -2617,7 +2629,7 @@
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G35" s="20" t="s">
         <v>114</v>
@@ -2653,7 +2665,7 @@
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G36" s="20" t="s">
         <v>114</v>
@@ -2689,7 +2701,7 @@
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G37" s="20" t="s">
         <v>114</v>
@@ -2725,7 +2737,7 @@
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G38" s="20" t="s">
         <v>114</v>
@@ -2760,7 +2772,7 @@
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G39" s="20" t="s">
         <v>114</v>
@@ -2795,7 +2807,7 @@
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G40" s="20" t="s">
         <v>114</v>
@@ -2830,7 +2842,7 @@
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G41" s="20" t="s">
         <v>114</v>
@@ -2864,7 +2876,7 @@
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G42" s="20" t="s">
         <v>114</v>
@@ -2900,7 +2912,7 @@
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G43" s="20" t="s">
         <v>114</v>
@@ -2936,7 +2948,7 @@
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G44" s="20" t="s">
         <v>114</v>
@@ -2972,7 +2984,7 @@
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G45" s="20" t="s">
         <v>114</v>
@@ -3008,7 +3020,7 @@
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G46" s="20" t="s">
         <v>114</v>
@@ -3044,7 +3056,7 @@
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G47" s="20" t="s">
         <v>114</v>
@@ -3080,7 +3092,7 @@
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G48" s="20" t="s">
         <v>114</v>
@@ -3116,7 +3128,7 @@
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G49" s="20" t="s">
         <v>114</v>
@@ -3152,7 +3164,7 @@
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G50" s="20" t="s">
         <v>114</v>
@@ -3188,7 +3200,7 @@
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G51" s="20" t="s">
         <v>114</v>
@@ -3221,7 +3233,7 @@
       <c r="C52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G52" s="20" t="s">
         <v>114</v>
@@ -3254,7 +3266,7 @@
       <c r="C53" s="20"/>
       <c r="E53" s="20"/>
       <c r="F53" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G53" s="20" t="s">
         <v>114</v>
@@ -3287,7 +3299,7 @@
       <c r="C54" s="20"/>
       <c r="E54" s="20"/>
       <c r="F54" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G54" s="20" t="s">
         <v>114</v>
@@ -3320,7 +3332,7 @@
       <c r="C55" s="20"/>
       <c r="E55" s="20"/>
       <c r="F55" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G55" s="20" t="s">
         <v>114</v>
@@ -3353,7 +3365,7 @@
       <c r="C56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G56" s="20" t="s">
         <v>114</v>
@@ -3386,7 +3398,7 @@
       <c r="C57" s="20"/>
       <c r="E57" s="20"/>
       <c r="F57" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G57" s="20" t="s">
         <v>114</v>
@@ -3422,7 +3434,7 @@
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G58" s="20" t="s">
         <v>114</v>
@@ -3457,7 +3469,7 @@
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G59" s="20" t="s">
         <v>114</v>
@@ -3492,7 +3504,7 @@
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G60" s="20" t="s">
         <v>114</v>
@@ -3527,7 +3539,7 @@
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G61" s="20" t="s">
         <v>114</v>
@@ -3564,7 +3576,7 @@
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G62" s="20" t="s">
         <v>114</v>
@@ -3603,7 +3615,7 @@
       </c>
       <c r="E63" s="20"/>
       <c r="F63" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G63" s="20" t="s">
         <v>114</v>
@@ -3642,7 +3654,7 @@
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G64" s="20" t="s">
         <v>114</v>
@@ -3681,7 +3693,7 @@
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G65" s="20" t="s">
         <v>114</v>
@@ -3720,7 +3732,7 @@
       </c>
       <c r="E66" s="20"/>
       <c r="F66" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G66" s="20" t="s">
         <v>114</v>
@@ -3757,7 +3769,7 @@
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G67" s="20" t="s">
         <v>114</v>
@@ -3794,7 +3806,7 @@
       </c>
       <c r="E68" s="20"/>
       <c r="F68" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G68" s="20" t="s">
         <v>114</v>
@@ -3831,7 +3843,7 @@
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G69" s="20" t="s">
         <v>114</v>
@@ -3868,7 +3880,7 @@
       </c>
       <c r="E70" s="20"/>
       <c r="F70" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G70" s="20" t="s">
         <v>114</v>
@@ -3905,7 +3917,7 @@
       </c>
       <c r="E71" s="20"/>
       <c r="F71" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G71" s="20" t="s">
         <v>114</v>
@@ -3942,7 +3954,7 @@
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G72" s="20" t="s">
         <v>114</v>
@@ -3979,7 +3991,7 @@
       </c>
       <c r="E73" s="20"/>
       <c r="F73" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G73" s="20" t="s">
         <v>114</v>
@@ -4011,7 +4023,7 @@
       <c r="C74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G74" s="20" t="s">
         <v>114</v>
@@ -4042,7 +4054,7 @@
       <c r="C75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G75" s="20" t="s">
         <v>114</v>
@@ -4073,7 +4085,7 @@
       <c r="C76" s="20"/>
       <c r="E76" s="20"/>
       <c r="F76" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G76" s="20" t="s">
         <v>114</v>
@@ -4105,13 +4117,13 @@
         <v>109</v>
       </c>
       <c r="D77" s="49" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E77" s="48" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F77" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G77" s="20" t="s">
         <v>114</v>
@@ -4140,19 +4152,19 @@
         <v>72</v>
       </c>
       <c r="B78" s="48" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C78" s="20" t="s">
         <v>109</v>
       </c>
       <c r="D78" s="49" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E78" s="48" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F78" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G78" s="20" t="s">
         <v>114</v>
@@ -4181,19 +4193,19 @@
         <v>73</v>
       </c>
       <c r="B79" s="48" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C79" s="20" t="s">
         <v>109</v>
       </c>
       <c r="D79" s="49" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E79" s="48" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F79" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G79" s="20" t="s">
         <v>114</v>
@@ -4222,19 +4234,19 @@
         <v>74</v>
       </c>
       <c r="B80" s="48" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C80" s="20" t="s">
         <v>109</v>
       </c>
       <c r="D80" s="49" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E80" s="48" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F80" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G80" s="20" t="s">
         <v>114</v>
@@ -4269,7 +4281,7 @@
       </c>
       <c r="E81" s="20"/>
       <c r="F81" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G81" s="20" t="s">
         <v>114</v>
@@ -4304,7 +4316,7 @@
       </c>
       <c r="E82" s="20"/>
       <c r="F82" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G82" s="20" t="s">
         <v>114</v>
@@ -4339,7 +4351,7 @@
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G83" s="20" t="s">
         <v>114</v>
@@ -4374,7 +4386,7 @@
       </c>
       <c r="E84" s="20"/>
       <c r="F84" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G84" s="20" t="s">
         <v>114</v>
@@ -4409,7 +4421,7 @@
       </c>
       <c r="E85" s="20"/>
       <c r="F85" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G85" s="20" t="s">
         <v>114</v>
@@ -4437,14 +4449,14 @@
         <v>80</v>
       </c>
       <c r="B86" s="48" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C86" s="20" t="s">
         <v>109</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G86" s="20" t="s">
         <v>114</v>
@@ -4472,14 +4484,14 @@
         <v>81</v>
       </c>
       <c r="B87" s="48" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C87" s="20" t="s">
         <v>109</v>
       </c>
       <c r="E87" s="20"/>
       <c r="F87" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G87" s="20" t="s">
         <v>114</v>
@@ -4507,14 +4519,14 @@
         <v>82</v>
       </c>
       <c r="B88" s="48" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C88" s="20" t="s">
         <v>109</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G88" s="20" t="s">
         <v>114</v>
@@ -4548,13 +4560,13 @@
         <v>109</v>
       </c>
       <c r="D89" s="49" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E89" s="48" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F89" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G89" s="20" t="s">
         <v>114</v>
@@ -4583,16 +4595,16 @@
         <v>84</v>
       </c>
       <c r="B90" s="48" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D90" s="49" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E90" s="48" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F90" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G90" s="20" t="s">
         <v>114</v>
@@ -4621,16 +4633,16 @@
         <v>85</v>
       </c>
       <c r="B91" s="48" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D91" s="49" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E91" s="48" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F91" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G91" s="20" t="s">
         <v>114</v>
@@ -4659,19 +4671,19 @@
         <v>86</v>
       </c>
       <c r="B92" s="48" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C92" s="49" t="s">
         <v>109</v>
       </c>
       <c r="D92" s="49" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E92" s="50" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F92" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G92" s="20" t="s">
         <v>114</v>
@@ -4699,19 +4711,19 @@
         <v>87</v>
       </c>
       <c r="B93" s="48" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C93" s="49" t="s">
         <v>109</v>
       </c>
       <c r="D93" s="49" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E93" s="50" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F93" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G93" s="20" t="s">
         <v>114</v>
@@ -4739,19 +4751,19 @@
         <v>88</v>
       </c>
       <c r="B94" s="48" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C94" s="49" t="s">
         <v>109</v>
       </c>
       <c r="D94" s="49" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E94" s="50" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F94" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G94" s="20" t="s">
         <v>114</v>
@@ -4779,19 +4791,19 @@
         <v>89</v>
       </c>
       <c r="B95" s="48" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C95" s="49" t="s">
         <v>109</v>
       </c>
       <c r="D95" s="49" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E95" s="50" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F95" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G95" s="20" t="s">
         <v>114</v>
@@ -4819,19 +4831,19 @@
         <v>90</v>
       </c>
       <c r="B96" s="48" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C96" s="49" t="s">
         <v>109</v>
       </c>
       <c r="D96" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="E96" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="E96" s="50" t="s">
-        <v>189</v>
-      </c>
       <c r="F96" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G96" s="20" t="s">
         <v>114</v>
@@ -4859,19 +4871,19 @@
         <v>91</v>
       </c>
       <c r="B97" s="48" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C97" s="49" t="s">
         <v>109</v>
       </c>
       <c r="D97" s="49" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E97" s="50" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F97" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G97" s="20" t="s">
         <v>114</v>
@@ -4899,19 +4911,19 @@
         <v>92</v>
       </c>
       <c r="B98" s="48" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C98" s="49" t="s">
         <v>109</v>
       </c>
       <c r="D98" s="49" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E98" s="50" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F98" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G98" s="20" t="s">
         <v>114</v>
@@ -4939,19 +4951,19 @@
         <v>93</v>
       </c>
       <c r="B99" s="48" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C99" s="49" t="s">
         <v>109</v>
       </c>
       <c r="D99" s="49" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E99" s="50" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F99" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G99" s="20" t="s">
         <v>114</v>
@@ -4979,19 +4991,19 @@
         <v>94</v>
       </c>
       <c r="B100" s="48" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C100" s="49" t="s">
         <v>109</v>
       </c>
       <c r="D100" s="49" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E100" s="50" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F100" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G100" s="20" t="s">
         <v>114</v>
@@ -5019,19 +5031,19 @@
         <v>95</v>
       </c>
       <c r="B101" s="48" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C101" s="49" t="s">
         <v>109</v>
       </c>
       <c r="D101" s="49" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E101" s="50" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F101" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G101" s="20" t="s">
         <v>114</v>
@@ -5059,19 +5071,19 @@
         <v>96</v>
       </c>
       <c r="B102" s="48" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C102" s="49" t="s">
         <v>109</v>
       </c>
       <c r="D102" s="49" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E102" s="50" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F102" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G102" s="20" t="s">
         <v>114</v>
@@ -5106,7 +5118,7 @@
       </c>
       <c r="E103" s="20"/>
       <c r="F103" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G103" s="20" t="s">
         <v>114</v>
@@ -5140,7 +5152,7 @@
       </c>
       <c r="E104" s="20"/>
       <c r="F104" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G104" s="20" t="s">
         <v>114</v>
@@ -5174,7 +5186,7 @@
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G105" s="20" t="s">
         <v>114</v>
@@ -5208,7 +5220,7 @@
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G106" s="20" t="s">
         <v>114</v>
@@ -5245,7 +5257,7 @@
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G107" s="20" t="s">
         <v>114</v>
@@ -5282,7 +5294,7 @@
       </c>
       <c r="E108" s="20"/>
       <c r="F108" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G108" s="20" t="s">
         <v>114</v>
@@ -5319,7 +5331,7 @@
       </c>
       <c r="E109" s="20"/>
       <c r="F109" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G109" s="20" t="s">
         <v>114</v>
@@ -5356,7 +5368,7 @@
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G110" s="20" t="s">
         <v>114</v>
@@ -5393,7 +5405,7 @@
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G111" s="20" t="s">
         <v>114</v>
@@ -5430,7 +5442,7 @@
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G112" s="20" t="s">
         <v>114</v>
@@ -5467,7 +5479,7 @@
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G113" s="20" t="s">
         <v>114</v>
@@ -5504,7 +5516,7 @@
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G114" s="20" t="s">
         <v>114</v>
@@ -5541,7 +5553,7 @@
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G115" s="20" t="s">
         <v>114</v>
@@ -5578,7 +5590,7 @@
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G116" s="20" t="s">
         <v>114</v>
@@ -5615,7 +5627,7 @@
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G117" s="20" t="s">
         <v>114</v>
@@ -5652,7 +5664,7 @@
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G118" s="20" t="s">
         <v>114</v>
@@ -5689,7 +5701,7 @@
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G119" s="20" t="s">
         <v>114</v>
@@ -5722,13 +5734,13 @@
         <v>109</v>
       </c>
       <c r="D120" s="49" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E120" s="48" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F120" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G120" s="20" t="s">
         <v>114</v>
@@ -5763,13 +5775,13 @@
         <v>109</v>
       </c>
       <c r="D121" s="49" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E121" s="48" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F121" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G121" s="20" t="s">
         <v>114</v>
@@ -5804,13 +5816,13 @@
         <v>109</v>
       </c>
       <c r="D122" s="49" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E122" s="48" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F122" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G122" s="20" t="s">
         <v>114</v>
@@ -5839,7 +5851,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="48" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>109</v>
@@ -5848,10 +5860,10 @@
         <v>112</v>
       </c>
       <c r="E123" s="48" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F123" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G123" s="20" t="s">
         <v>114</v>
@@ -5883,7 +5895,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="48" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C124" s="49" t="s">
         <v>109</v>
@@ -5892,10 +5904,10 @@
         <v>112</v>
       </c>
       <c r="E124" s="48" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F124" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G124" s="20" t="s">
         <v>114</v>
@@ -5927,19 +5939,19 @@
         <v>123</v>
       </c>
       <c r="B125" s="48" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C125" s="49" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>112</v>
       </c>
       <c r="E125" s="48" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F125" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G125" s="20" t="s">
         <v>114</v>
@@ -5971,19 +5983,19 @@
         <v>124</v>
       </c>
       <c r="B126" s="48" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C126" s="49" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>112</v>
       </c>
       <c r="E126" s="48" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F126" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G126" s="20" t="s">
         <v>114</v>
@@ -6015,24 +6027,24 @@
         <v>125</v>
       </c>
       <c r="B127" s="48" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C127" s="49" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D127" s="49" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G127" s="20" t="s">
         <v>114</v>
       </c>
       <c r="H127" s="22"/>
       <c r="I127" s="23">
-        <v>1673</v>
+        <v>298</v>
       </c>
       <c r="J127" s="19">
         <v>1569000000</v>
@@ -6056,24 +6068,24 @@
         <v>126</v>
       </c>
       <c r="B128" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="C128" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="D128" s="49" t="s">
         <v>216</v>
-      </c>
-      <c r="C128" s="49" t="s">
-        <v>219</v>
-      </c>
-      <c r="D128" s="49" t="s">
-        <v>221</v>
       </c>
       <c r="E128" s="20"/>
       <c r="F128" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G128" s="20" t="s">
         <v>114</v>
       </c>
       <c r="H128" s="22"/>
       <c r="I128" s="23">
-        <v>1673</v>
+        <v>298</v>
       </c>
       <c r="J128" s="19">
         <v>1667000000</v>
@@ -6097,24 +6109,24 @@
         <v>127</v>
       </c>
       <c r="B129" s="48" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C129" s="49" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D129" s="49" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E129" s="20"/>
       <c r="F129" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G129" s="20" t="s">
         <v>114</v>
       </c>
       <c r="H129" s="22"/>
       <c r="I129" s="23">
-        <v>1673</v>
+        <v>298</v>
       </c>
       <c r="J129" s="19">
         <v>5139000000</v>
@@ -6138,24 +6150,24 @@
         <v>128</v>
       </c>
       <c r="B130" s="48" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C130" s="49" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D130" s="49" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E130" s="20"/>
       <c r="F130" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G130" s="20" t="s">
         <v>114</v>
       </c>
       <c r="H130" s="22"/>
       <c r="I130" s="23">
-        <v>1673</v>
+        <v>298</v>
       </c>
       <c r="J130" s="19">
         <v>6375000000</v>
@@ -6179,26 +6191,26 @@
         <v>129</v>
       </c>
       <c r="B131" s="48" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C131" s="49" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D131" s="49" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E131" s="48" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F131" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G131" s="20" t="s">
         <v>114</v>
       </c>
       <c r="H131" s="22"/>
       <c r="I131" s="23">
-        <v>1673</v>
+        <v>298</v>
       </c>
       <c r="J131" s="19">
         <v>1314000000</v>
@@ -6222,26 +6234,26 @@
         <v>130</v>
       </c>
       <c r="B132" s="48" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C132" s="49" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D132" s="49" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E132" s="48" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F132" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G132" s="20" t="s">
         <v>114</v>
       </c>
       <c r="H132" s="22"/>
       <c r="I132" s="23">
-        <v>1673</v>
+        <v>298</v>
       </c>
       <c r="J132" s="19">
         <v>1324000000</v>
@@ -6265,26 +6277,26 @@
         <v>131</v>
       </c>
       <c r="B133" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="C133" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="D133" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="C133" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="D133" s="49" t="s">
-        <v>222</v>
-      </c>
       <c r="E133" s="48" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F133" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G133" s="20" t="s">
         <v>114</v>
       </c>
       <c r="H133" s="22"/>
       <c r="I133" s="23">
-        <v>1673</v>
+        <v>298</v>
       </c>
       <c r="J133" s="19">
         <v>5757000000</v>
@@ -6308,26 +6320,26 @@
         <v>132</v>
       </c>
       <c r="B134" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="C134" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="D134" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="E134" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="C134" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="D134" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="E134" s="48" t="s">
-        <v>223</v>
-      </c>
       <c r="F134" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G134" s="20" t="s">
         <v>114</v>
       </c>
       <c r="H134" s="22"/>
       <c r="I134" s="23">
-        <v>1673</v>
+        <v>298</v>
       </c>
       <c r="J134" s="19">
         <v>6237000000</v>
@@ -6355,7 +6367,7 @@
       </c>
       <c r="E135" s="20"/>
       <c r="F135" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G135" s="20" t="s">
         <v>114</v>
@@ -6387,7 +6399,7 @@
       </c>
       <c r="E136" s="20"/>
       <c r="F136" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G136" s="20" t="s">
         <v>114</v>
@@ -6419,13 +6431,13 @@
         <v>109</v>
       </c>
       <c r="D137" s="36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E137" s="50" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F137" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G137" s="20" t="s">
         <v>114</v>
@@ -6460,13 +6472,13 @@
         <v>109</v>
       </c>
       <c r="D138" s="36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E138" s="50" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F138" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G138" s="20" t="s">
         <v>114</v>
@@ -6501,13 +6513,13 @@
         <v>109</v>
       </c>
       <c r="D139" s="36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E139" s="50" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F139" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G139" s="20" t="s">
         <v>114</v>
@@ -6542,13 +6554,13 @@
         <v>109</v>
       </c>
       <c r="D140" s="36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E140" s="50" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F140" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G140" s="20" t="s">
         <v>114</v>
@@ -6583,13 +6595,13 @@
         <v>109</v>
       </c>
       <c r="D141" s="36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E141" s="50" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F141" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G141" s="20" t="s">
         <v>114</v>
@@ -6624,13 +6636,13 @@
         <v>109</v>
       </c>
       <c r="D142" s="36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E142" s="50" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F142" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G142" s="20" t="s">
         <v>114</v>
@@ -6665,13 +6677,13 @@
         <v>109</v>
       </c>
       <c r="D143" s="36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E143" s="50" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F143" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G143" s="20" t="s">
         <v>114</v>
@@ -6706,13 +6718,13 @@
         <v>109</v>
       </c>
       <c r="D144" s="36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E144" s="50" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F144" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G144" s="20" t="s">
         <v>114</v>
@@ -6741,16 +6753,16 @@
         <v>143</v>
       </c>
       <c r="B145" s="48" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C145" s="49" t="s">
         <v>109</v>
       </c>
       <c r="D145" s="49" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F145" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G145" s="20" t="s">
         <v>114</v>
@@ -6779,19 +6791,19 @@
         <v>144</v>
       </c>
       <c r="B146" s="48" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C146" s="49" t="s">
         <v>109</v>
       </c>
       <c r="D146" s="49" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E146" s="48" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F146" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G146" s="20" t="s">
         <v>114</v>
@@ -6820,19 +6832,19 @@
         <v>145</v>
       </c>
       <c r="B147" s="48" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C147" s="49" t="s">
         <v>109</v>
       </c>
       <c r="D147" s="49" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E147" s="48" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F147" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G147" s="20" t="s">
         <v>114</v>
@@ -6861,19 +6873,19 @@
         <v>146</v>
       </c>
       <c r="B148" s="48" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C148" s="49" t="s">
         <v>109</v>
       </c>
       <c r="D148" s="49" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E148" s="48" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F148" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G148" s="20" t="s">
         <v>114</v>
@@ -6902,16 +6914,16 @@
         <v>147</v>
       </c>
       <c r="B149" s="48" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C149" s="49" t="s">
         <v>109</v>
       </c>
       <c r="D149" s="49" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F149" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G149" s="20" t="s">
         <v>114</v>
@@ -6940,19 +6952,19 @@
         <v>148</v>
       </c>
       <c r="B150" s="48" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C150" s="49" t="s">
         <v>109</v>
       </c>
       <c r="D150" s="49" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E150" s="48" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F150" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G150" s="20" t="s">
         <v>114</v>
@@ -6981,19 +6993,19 @@
         <v>149</v>
       </c>
       <c r="B151" s="48" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C151" s="49" t="s">
         <v>109</v>
       </c>
       <c r="D151" s="49" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E151" s="48" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F151" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G151" s="20" t="s">
         <v>114</v>
@@ -7022,19 +7034,19 @@
         <v>150</v>
       </c>
       <c r="B152" s="48" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C152" s="49" t="s">
         <v>109</v>
       </c>
       <c r="D152" s="49" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E152" s="48" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F152" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G152" s="20" t="s">
         <v>114</v>
@@ -7070,7 +7082,7 @@
       </c>
       <c r="E153" s="20"/>
       <c r="F153" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G153" s="20" t="s">
         <v>114</v>
@@ -7104,7 +7116,7 @@
       </c>
       <c r="E154" s="20"/>
       <c r="F154" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G154" s="20" t="s">
         <v>114</v>
@@ -7138,7 +7150,7 @@
       </c>
       <c r="E155" s="20"/>
       <c r="F155" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G155" s="20" t="s">
         <v>114</v>
@@ -7172,7 +7184,7 @@
       </c>
       <c r="E156" s="20"/>
       <c r="F156" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G156" s="20" t="s">
         <v>114</v>
@@ -7206,7 +7218,7 @@
       </c>
       <c r="E157" s="20"/>
       <c r="F157" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G157" s="20" t="s">
         <v>114</v>
@@ -7232,29 +7244,36 @@
       <c r="A158" s="3">
         <v>156</v>
       </c>
-      <c r="B158" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>111</v>
+      <c r="B158" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="C158" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="D158" s="49" t="s">
+        <v>216</v>
       </c>
       <c r="E158" s="20"/>
       <c r="F158" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G158" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="H158" s="22"/>
-      <c r="I158" s="23"/>
+      <c r="H158" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="I158" s="23">
+        <v>298</v>
+      </c>
       <c r="J158" s="19">
         <f>829*9807000</f>
         <v>8130003000</v>
       </c>
-      <c r="K158" s="19"/>
+      <c r="K158" s="19">
+        <f>1*9807000</f>
+        <v>9807000</v>
+      </c>
       <c r="L158" s="20" t="s">
         <v>47</v>
       </c>
@@ -7269,31 +7288,38 @@
       <c r="A159" s="3">
         <v>157</v>
       </c>
-      <c r="B159" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="C159" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="D159" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="E159" s="20"/>
+      <c r="B159" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="C159" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="D159" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="E159" s="48" t="s">
+        <v>229</v>
+      </c>
       <c r="F159" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G159" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="H159" s="22"/>
+      <c r="H159" s="51" t="s">
+        <v>231</v>
+      </c>
       <c r="I159" s="23">
-        <v>1073</v>
+        <v>298</v>
       </c>
       <c r="J159" s="19">
         <f>920*9807000</f>
         <v>9022440000</v>
       </c>
-      <c r="K159" s="19"/>
+      <c r="K159" s="19">
+        <f>1*9807000</f>
+        <v>9807000</v>
+      </c>
       <c r="L159" s="20" t="s">
         <v>47</v>
       </c>
@@ -7308,33 +7334,38 @@
       <c r="A160" s="3">
         <v>158</v>
       </c>
-      <c r="B160" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="C160" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="D160" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="E160" s="31" t="s">
-        <v>177</v>
+      <c r="B160" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="C160" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="D160" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="E160" s="48" t="s">
+        <v>230</v>
       </c>
       <c r="F160" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G160" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="H160" s="22"/>
+      <c r="H160" s="51" t="s">
+        <v>231</v>
+      </c>
       <c r="I160" s="23">
-        <v>1273</v>
+        <v>298</v>
       </c>
       <c r="J160" s="19">
         <f>931*9807000</f>
         <v>9130317000</v>
       </c>
-      <c r="K160" s="19"/>
+      <c r="K160" s="19">
+        <f>2*9807000</f>
+        <v>19614000</v>
+      </c>
       <c r="L160" s="20" t="s">
         <v>47</v>
       </c>
@@ -7349,33 +7380,38 @@
       <c r="A161" s="3">
         <v>159</v>
       </c>
-      <c r="B161" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="C161" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="D161" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="E161" s="31" t="s">
-        <v>177</v>
+      <c r="B161" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="C161" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="D161" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="E161" s="48" t="s">
+        <v>234</v>
       </c>
       <c r="F161" s="31" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G161" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="H161" s="22"/>
+      <c r="H161" s="51" t="s">
+        <v>231</v>
+      </c>
       <c r="I161" s="23">
-        <v>1473</v>
+        <v>298</v>
       </c>
       <c r="J161" s="19">
         <f>960*9807000</f>
         <v>9414720000</v>
       </c>
-      <c r="K161" s="19"/>
+      <c r="K161" s="19">
+        <f>2*9807000</f>
+        <v>19614000</v>
+      </c>
       <c r="L161" s="20" t="s">
         <v>47</v>
       </c>

--- a/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
+++ b/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-guest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F71F456-39A2-C948-9A33-313A134BE05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B39DE38-F023-2340-BFEF-F6C94C061B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="238">
   <si>
     <t>Name:</t>
   </si>
@@ -753,6 +753,15 @@
   </si>
   <si>
     <t>annealed for 20h in vacuum at 1473K; strong presence of laves phase</t>
+  </si>
+  <si>
+    <t>sintered at 1420*C for 30min under 40MPa</t>
+  </si>
+  <si>
+    <t>BCC+Mo2C</t>
+  </si>
+  <si>
+    <t>BCC+Mo2C+Mo2B</t>
   </si>
 </sst>
 </file>
@@ -1336,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I169" sqref="I169"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -3263,8 +3272,15 @@
       <c r="B53" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="C53" s="20"/>
-      <c r="E53" s="20"/>
+      <c r="C53" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="E53" s="48" t="s">
+        <v>235</v>
+      </c>
       <c r="F53" s="31" t="s">
         <v>173</v>
       </c>
@@ -3273,12 +3289,14 @@
       </c>
       <c r="H53" s="22"/>
       <c r="I53" s="23">
-        <v>1273</v>
+        <v>298</v>
       </c>
       <c r="J53" s="19">
         <v>1900000000</v>
       </c>
-      <c r="K53" s="19"/>
+      <c r="K53" s="19">
+        <v>30000000</v>
+      </c>
       <c r="L53" s="20" t="s">
         <v>47</v>
       </c>
@@ -3296,8 +3314,15 @@
       <c r="B54" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="E54" s="20"/>
+      <c r="C54" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="E54" s="48" t="s">
+        <v>235</v>
+      </c>
       <c r="F54" s="31" t="s">
         <v>173</v>
       </c>
@@ -3306,12 +3331,14 @@
       </c>
       <c r="H54" s="22"/>
       <c r="I54" s="23">
-        <v>1273</v>
+        <v>298</v>
       </c>
       <c r="J54" s="19">
         <v>2100000000</v>
       </c>
-      <c r="K54" s="19"/>
+      <c r="K54" s="19">
+        <v>20000000</v>
+      </c>
       <c r="L54" s="20" t="s">
         <v>47</v>
       </c>
@@ -3329,8 +3356,15 @@
       <c r="B55" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="C55" s="20"/>
-      <c r="E55" s="20"/>
+      <c r="C55" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="D55" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="E55" s="48" t="s">
+        <v>235</v>
+      </c>
       <c r="F55" s="31" t="s">
         <v>173</v>
       </c>
@@ -3339,12 +3373,14 @@
       </c>
       <c r="H55" s="22"/>
       <c r="I55" s="23">
-        <v>1273</v>
+        <v>298</v>
       </c>
       <c r="J55" s="19">
         <v>3400000000</v>
       </c>
-      <c r="K55" s="19"/>
+      <c r="K55" s="19">
+        <v>40000000</v>
+      </c>
       <c r="L55" s="20" t="s">
         <v>47</v>
       </c>
@@ -3362,8 +3398,15 @@
       <c r="B56" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="C56" s="20"/>
-      <c r="E56" s="20"/>
+      <c r="C56" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="D56" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="E56" s="48" t="s">
+        <v>235</v>
+      </c>
       <c r="F56" s="31" t="s">
         <v>173</v>
       </c>
@@ -3372,19 +3415,21 @@
       </c>
       <c r="H56" s="22"/>
       <c r="I56" s="23">
-        <v>1273</v>
+        <v>298</v>
       </c>
       <c r="J56" s="19">
         <v>5200000000</v>
       </c>
-      <c r="K56" s="19"/>
+      <c r="K56" s="19">
+        <v>20000000</v>
+      </c>
       <c r="L56" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M56" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="N56" s="3" t="s">
+      <c r="N56" s="49" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3395,8 +3440,15 @@
       <c r="B57" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="E57" s="20"/>
+      <c r="C57" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="D57" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="E57" s="48" t="s">
+        <v>235</v>
+      </c>
       <c r="F57" s="31" t="s">
         <v>173</v>
       </c>
@@ -3405,12 +3457,14 @@
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="23">
-        <v>1273</v>
+        <v>298</v>
       </c>
       <c r="J57" s="19">
         <v>7800000000</v>
       </c>
-      <c r="K57" s="19"/>
+      <c r="K57" s="19">
+        <v>10000000</v>
+      </c>
       <c r="L57" s="20" t="s">
         <v>47</v>
       </c>

--- a/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
+++ b/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-guest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B39DE38-F023-2340-BFEF-F6C94C061B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC161316-93E7-4D4B-9C6A-E3350D237AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9300" yWindow="760" windowWidth="34560" windowHeight="20140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="244">
   <si>
     <t>Name:</t>
   </si>
@@ -250,18 +250,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mo20 Ta20 W20 Nb20 V20 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ti14.3 V14.3 Cr14.3 Zr14.3 Nb14.3 Mo14.3 W14.3 </t>
-  </si>
-  <si>
-    <t>Ti27.8 Cr8.3 Zr8.3 Nb27.8 Mo27.8</t>
-  </si>
-  <si>
-    <t>Ti23.8 V14.3 Cr7.1 Zr7.1 Nb23.8 Mo23.8</t>
-  </si>
-  <si>
-    <t>Ti20.8 V12.5 Cr6.3 Zr6.3 Nb20.8 Mo20.8 Al12.5</t>
   </si>
   <si>
     <t xml:space="preserve">Al25 Nb25 Ta25 Ti25 </t>
@@ -762,6 +750,36 @@
   </si>
   <si>
     <t>BCC+Mo2C+Mo2B</t>
+  </si>
+  <si>
+    <t>VAM+A</t>
+  </si>
+  <si>
+    <t>annealed for 3h at 1623K</t>
+  </si>
+  <si>
+    <t>CrMoNbTiVWZr</t>
+  </si>
+  <si>
+    <t>Cr0.3 NbMoTi Zr0.3</t>
+  </si>
+  <si>
+    <t>Cr0.3 NbMoTi V0.6 Zr0.3</t>
+  </si>
+  <si>
+    <t>Al0.6 Cr0.3 NbMoTi V0.6 Zr0.3</t>
+  </si>
+  <si>
+    <t>BCC+laves+HCP</t>
+  </si>
+  <si>
+    <t>BCC+laves</t>
+  </si>
+  <si>
+    <t>BCC+HCP</t>
+  </si>
+  <si>
+    <t>BCC+HCP+laves</t>
   </si>
 </sst>
 </file>
@@ -1345,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1380,14 +1398,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D2" s="44" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="44"/>
       <c r="F2" s="42" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G2" s="43"/>
       <c r="H2" s="43"/>
@@ -1404,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D3" s="44"/>
       <c r="E3" s="44"/>
@@ -1465,7 +1483,7 @@
         <v>30</v>
       </c>
       <c r="M5" s="41" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="N5" s="41" t="s">
         <v>46</v>
@@ -1649,17 +1667,17 @@
         <v>60</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="23">
@@ -1674,10 +1692,10 @@
         <v>47</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N10" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O10" s="20"/>
     </row>
@@ -1689,17 +1707,17 @@
         <v>60</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="23">
@@ -1714,10 +1732,10 @@
         <v>47</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N11" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O11" s="20"/>
     </row>
@@ -1729,17 +1747,17 @@
         <v>60</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="23">
@@ -1754,10 +1772,10 @@
         <v>47</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N12" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O12" s="33"/>
     </row>
@@ -1769,17 +1787,17 @@
         <v>60</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="23">
@@ -1794,10 +1812,10 @@
         <v>47</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N13" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O13" s="20"/>
     </row>
@@ -1809,17 +1827,17 @@
         <v>60</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="23">
@@ -1834,10 +1852,10 @@
         <v>47</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N14" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O14" s="20"/>
     </row>
@@ -1849,17 +1867,17 @@
         <v>60</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="23">
@@ -1874,10 +1892,10 @@
         <v>47</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N15" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O15" s="20"/>
     </row>
@@ -1889,17 +1907,17 @@
         <v>60</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="23">
@@ -1914,10 +1932,10 @@
         <v>47</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N16" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O16" s="20"/>
     </row>
@@ -1929,17 +1947,17 @@
         <v>60</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="23">
@@ -1954,10 +1972,10 @@
         <v>47</v>
       </c>
       <c r="M17" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N17" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1968,17 +1986,17 @@
         <v>60</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="23">
@@ -1993,10 +2011,10 @@
         <v>47</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N18" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2007,17 +2025,17 @@
         <v>60</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H19" s="22"/>
       <c r="I19" s="23">
@@ -2032,10 +2050,10 @@
         <v>47</v>
       </c>
       <c r="M19" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N19" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2046,17 +2064,17 @@
         <v>60</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="23">
@@ -2071,10 +2089,10 @@
         <v>47</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N20" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2085,17 +2103,17 @@
         <v>60</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H21" s="22"/>
       <c r="I21" s="23">
@@ -2110,10 +2128,10 @@
         <v>47</v>
       </c>
       <c r="M21" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N21" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2124,17 +2142,17 @@
         <v>60</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="23">
@@ -2149,10 +2167,10 @@
         <v>47</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N22" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2163,17 +2181,17 @@
         <v>61</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="23">
@@ -2188,10 +2206,10 @@
         <v>47</v>
       </c>
       <c r="M23" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N23" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2202,17 +2220,17 @@
         <v>61</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="23">
@@ -2227,10 +2245,10 @@
         <v>47</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N24" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2241,17 +2259,17 @@
         <v>61</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="23">
@@ -2266,10 +2284,10 @@
         <v>47</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N25" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2280,17 +2298,17 @@
         <v>61</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="23">
@@ -2305,10 +2323,10 @@
         <v>47</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N26" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2319,17 +2337,17 @@
         <v>61</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="23">
@@ -2344,10 +2362,10 @@
         <v>47</v>
       </c>
       <c r="M27" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N27" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2358,17 +2376,17 @@
         <v>61</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="23">
@@ -2383,10 +2401,10 @@
         <v>47</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N28" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2397,17 +2415,17 @@
         <v>61</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="23">
@@ -2422,10 +2440,10 @@
         <v>47</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N29" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2436,17 +2454,17 @@
         <v>61</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="23">
@@ -2461,10 +2479,10 @@
         <v>47</v>
       </c>
       <c r="M30" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N30" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2475,17 +2493,17 @@
         <v>61</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="23">
@@ -2500,10 +2518,10 @@
         <v>47</v>
       </c>
       <c r="M31" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N31" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2514,17 +2532,17 @@
         <v>61</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H32" s="22"/>
       <c r="I32" s="23">
@@ -2539,10 +2557,10 @@
         <v>47</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N32" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2553,17 +2571,17 @@
         <v>61</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H33" s="22"/>
       <c r="I33" s="23">
@@ -2578,10 +2596,10 @@
         <v>47</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N33" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2592,17 +2610,17 @@
         <v>61</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H34" s="22"/>
       <c r="I34" s="23">
@@ -2617,10 +2635,10 @@
         <v>47</v>
       </c>
       <c r="M34" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N34" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2631,17 +2649,17 @@
         <v>61</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H35" s="22"/>
       <c r="I35" s="23">
@@ -2656,10 +2674,10 @@
         <v>47</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N35" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2670,14 +2688,14 @@
         <v>62</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H36" s="22"/>
       <c r="I36" s="23">
@@ -2692,10 +2710,10 @@
         <v>47</v>
       </c>
       <c r="M36" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N36" s="26" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2706,14 +2724,14 @@
         <v>63</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H37" s="22"/>
       <c r="I37" s="23">
@@ -2728,10 +2746,10 @@
         <v>47</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N37" s="26" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2742,14 +2760,14 @@
         <v>64</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H38" s="22"/>
       <c r="I38" s="23">
@@ -2763,10 +2781,10 @@
         <v>47</v>
       </c>
       <c r="M38" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N38" s="26" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2777,14 +2795,14 @@
         <v>65</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H39" s="22"/>
       <c r="I39" s="23">
@@ -2798,10 +2816,10 @@
         <v>47</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N39" s="26" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2812,14 +2830,14 @@
         <v>66</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H40" s="22"/>
       <c r="I40" s="23">
@@ -2833,10 +2851,10 @@
         <v>47</v>
       </c>
       <c r="M40" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N40" s="26" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2847,14 +2865,14 @@
         <v>67</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H41" s="22"/>
       <c r="I41" s="23">
@@ -2869,7 +2887,7 @@
       </c>
       <c r="M41" s="20"/>
       <c r="N41" s="26" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2877,18 +2895,18 @@
         <v>33</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H42" s="22"/>
       <c r="I42" s="23">
@@ -2902,10 +2920,10 @@
         <v>47</v>
       </c>
       <c r="M42" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N42" s="26" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2917,14 +2935,14 @@
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H43" s="22"/>
       <c r="I43" s="23">
@@ -2938,10 +2956,10 @@
         <v>47</v>
       </c>
       <c r="M43" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2953,14 +2971,14 @@
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H44" s="22"/>
       <c r="I44" s="23">
@@ -2974,10 +2992,10 @@
         <v>47</v>
       </c>
       <c r="M44" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2989,14 +3007,14 @@
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H45" s="22"/>
       <c r="I45" s="23">
@@ -3010,10 +3028,10 @@
         <v>47</v>
       </c>
       <c r="M45" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3021,18 +3039,18 @@
         <v>37</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="34" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H46" s="22"/>
       <c r="I46" s="23">
@@ -3046,10 +3064,10 @@
         <v>47</v>
       </c>
       <c r="M46" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N46" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3061,14 +3079,14 @@
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="34" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H47" s="22"/>
       <c r="I47" s="23">
@@ -3082,10 +3100,10 @@
         <v>47</v>
       </c>
       <c r="M47" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N47" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3093,18 +3111,18 @@
         <v>39</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="34" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H48" s="22"/>
       <c r="I48" s="23">
@@ -3118,10 +3136,10 @@
         <v>47</v>
       </c>
       <c r="M48" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N48" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3129,18 +3147,18 @@
         <v>40</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="34" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H49" s="22"/>
       <c r="I49" s="23">
@@ -3154,10 +3172,10 @@
         <v>47</v>
       </c>
       <c r="M49" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N49" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3169,14 +3187,14 @@
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="34" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H50" s="22"/>
       <c r="I50" s="23">
@@ -3190,10 +3208,10 @@
         <v>47</v>
       </c>
       <c r="M50" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N50" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3205,14 +3223,14 @@
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="34" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H51" s="22"/>
       <c r="I51" s="23">
@@ -3226,10 +3244,10 @@
         <v>47</v>
       </c>
       <c r="M51" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N51" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3242,10 +3260,10 @@
       <c r="C52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H52" s="22"/>
       <c r="I52" s="23">
@@ -3259,10 +3277,10 @@
         <v>47</v>
       </c>
       <c r="M52" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="N52" s="27" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3270,22 +3288,22 @@
         <v>44</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C53" s="48" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D53" s="49" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E53" s="48" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F53" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H53" s="22"/>
       <c r="I53" s="23">
@@ -3301,10 +3319,10 @@
         <v>47</v>
       </c>
       <c r="M53" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N53" s="26" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3312,22 +3330,22 @@
         <v>45</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C54" s="48" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D54" s="49" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E54" s="48" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F54" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H54" s="22"/>
       <c r="I54" s="23">
@@ -3343,10 +3361,10 @@
         <v>47</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3354,22 +3372,22 @@
         <v>46</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C55" s="48" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D55" s="49" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E55" s="48" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F55" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H55" s="22"/>
       <c r="I55" s="23">
@@ -3385,10 +3403,10 @@
         <v>47</v>
       </c>
       <c r="M55" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3396,22 +3414,22 @@
         <v>47</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C56" s="48" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D56" s="49" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E56" s="48" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F56" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H56" s="22"/>
       <c r="I56" s="23">
@@ -3427,10 +3445,10 @@
         <v>47</v>
       </c>
       <c r="M56" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N56" s="49" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3438,22 +3456,22 @@
         <v>48</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C57" s="48" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D57" s="49" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E57" s="48" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F57" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="23">
@@ -3469,306 +3487,354 @@
         <v>47</v>
       </c>
       <c r="M57" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="3">
         <v>49</v>
       </c>
-      <c r="B58" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="3" t="s">
-        <v>111</v>
+      <c r="B58" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="C58" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="D58" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H58" s="22"/>
-      <c r="I58" s="23"/>
+      <c r="I58" s="23">
+        <v>298</v>
+      </c>
       <c r="J58" s="19">
         <f>727*9807000</f>
         <v>7129689000</v>
       </c>
-      <c r="K58" s="19"/>
+      <c r="K58" s="19">
+        <f>18*9807000</f>
+        <v>176526000</v>
+      </c>
       <c r="L58" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M58" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N58" s="26" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="3">
         <v>50</v>
       </c>
-      <c r="B59" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="3" t="s">
-        <v>111</v>
+      <c r="B59" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="C59" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="D59" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H59" s="22"/>
-      <c r="I59" s="23"/>
+      <c r="I59" s="23">
+        <v>298</v>
+      </c>
       <c r="J59" s="19">
         <f>501*9807000</f>
         <v>4913307000</v>
       </c>
-      <c r="K59" s="19"/>
+      <c r="K59" s="19">
+        <f>31*9807000</f>
+        <v>304017000</v>
+      </c>
       <c r="L59" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M59" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="3">
         <v>51</v>
       </c>
-      <c r="B60" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="3" t="s">
-        <v>111</v>
+      <c r="B60" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="C60" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="D60" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H60" s="22"/>
-      <c r="I60" s="23"/>
+      <c r="I60" s="23">
+        <v>298</v>
+      </c>
       <c r="J60" s="19">
         <f>518*9807000</f>
         <v>5080026000</v>
       </c>
-      <c r="K60" s="19"/>
+      <c r="K60" s="19">
+        <f>15*9807000</f>
+        <v>147105000</v>
+      </c>
       <c r="L60" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M60" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>124</v>
+        <v>113</v>
+      </c>
+      <c r="N60" s="49" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="3">
         <v>52</v>
       </c>
-      <c r="B61" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C61" s="20"/>
-      <c r="D61" s="3" t="s">
-        <v>111</v>
+      <c r="B61" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="C61" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="D61" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H61" s="22"/>
-      <c r="I61" s="23"/>
+      <c r="I61" s="23">
+        <v>298</v>
+      </c>
       <c r="J61" s="19">
         <f>612*9807000</f>
         <v>6001884000</v>
       </c>
-      <c r="K61" s="19"/>
+      <c r="K61" s="19">
+        <f>13*9807000</f>
+        <v>127491000</v>
+      </c>
       <c r="L61" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M61" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="3">
         <v>53</v>
       </c>
-      <c r="B62" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E62" s="20"/>
+      <c r="B62" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="C62" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="D62" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="E62" s="48" t="s">
+        <v>235</v>
+      </c>
       <c r="F62" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H62" s="22"/>
       <c r="I62" s="23">
-        <v>1623</v>
+        <v>298</v>
       </c>
       <c r="J62" s="19">
         <f>677*9807000</f>
         <v>6639339000</v>
       </c>
-      <c r="K62" s="19"/>
+      <c r="K62" s="19">
+        <f>18*9807000</f>
+        <v>176526000</v>
+      </c>
       <c r="L62" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M62" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="3">
         <v>54</v>
       </c>
-      <c r="B63" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E63" s="20"/>
+      <c r="B63" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="C63" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="D63" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="E63" s="48" t="s">
+        <v>235</v>
+      </c>
       <c r="F63" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H63" s="22"/>
       <c r="I63" s="23">
-        <v>1623</v>
+        <v>298</v>
       </c>
       <c r="J63" s="19">
         <f>531*9807000</f>
         <v>5207517000</v>
       </c>
-      <c r="K63" s="19"/>
+      <c r="K63" s="19">
+        <f>26*9807000</f>
+        <v>254982000</v>
+      </c>
       <c r="L63" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M63" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="N63" s="3" t="s">
-        <v>124</v>
+        <v>113</v>
+      </c>
+      <c r="N63" s="49" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="3">
         <v>55</v>
       </c>
-      <c r="B64" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E64" s="20"/>
+      <c r="B64" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="C64" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="D64" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="E64" s="48" t="s">
+        <v>235</v>
+      </c>
       <c r="F64" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H64" s="22"/>
       <c r="I64" s="23">
-        <v>1623</v>
+        <v>298</v>
       </c>
       <c r="J64" s="19">
         <f>504*9807000</f>
         <v>4942728000</v>
       </c>
-      <c r="K64" s="19"/>
+      <c r="K64" s="19">
+        <f>29*9807000</f>
+        <v>284403000</v>
+      </c>
       <c r="L64" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M64" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="3">
         <v>56</v>
       </c>
-      <c r="B65" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E65" s="20"/>
+      <c r="B65" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="C65" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="D65" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="E65" s="48" t="s">
+        <v>235</v>
+      </c>
       <c r="F65" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H65" s="22"/>
       <c r="I65" s="23">
-        <v>1623</v>
+        <v>298</v>
       </c>
       <c r="J65" s="19">
         <f>587*9807000</f>
         <v>5756709000</v>
       </c>
-      <c r="K65" s="19"/>
+      <c r="K65" s="19">
+        <f>31*9807000</f>
+        <v>304017000</v>
+      </c>
       <c r="L65" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M65" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3776,20 +3842,20 @@
         <v>57</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E66" s="20"/>
       <c r="F66" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H66" s="22"/>
       <c r="I66" s="23"/>
@@ -3802,10 +3868,10 @@
         <v>47</v>
       </c>
       <c r="M66" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N66" s="26" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3813,20 +3879,20 @@
         <v>58</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H67" s="22"/>
       <c r="I67" s="23"/>
@@ -3839,10 +3905,10 @@
         <v>47</v>
       </c>
       <c r="M67" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3850,20 +3916,20 @@
         <v>59</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E68" s="20"/>
       <c r="F68" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H68" s="22"/>
       <c r="I68" s="23"/>
@@ -3876,10 +3942,10 @@
         <v>47</v>
       </c>
       <c r="M68" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3887,20 +3953,20 @@
         <v>60</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H69" s="22"/>
       <c r="I69" s="23"/>
@@ -3913,10 +3979,10 @@
         <v>47</v>
       </c>
       <c r="M69" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3924,20 +3990,20 @@
         <v>61</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E70" s="20"/>
       <c r="F70" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H70" s="22"/>
       <c r="I70" s="23"/>
@@ -3950,10 +4016,10 @@
         <v>47</v>
       </c>
       <c r="M70" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3961,20 +4027,20 @@
         <v>62</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E71" s="20"/>
       <c r="F71" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H71" s="22"/>
       <c r="I71" s="23"/>
@@ -3987,10 +4053,10 @@
         <v>47</v>
       </c>
       <c r="M71" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3998,20 +4064,20 @@
         <v>63</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H72" s="22"/>
       <c r="I72" s="23"/>
@@ -4024,10 +4090,10 @@
         <v>47</v>
       </c>
       <c r="M72" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -4035,20 +4101,20 @@
         <v>64</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E73" s="20"/>
       <c r="F73" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H73" s="22"/>
       <c r="I73" s="23"/>
@@ -4061,10 +4127,10 @@
         <v>47</v>
       </c>
       <c r="M73" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -4072,15 +4138,15 @@
         <v>65</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H74" s="22"/>
       <c r="I74" s="23">
@@ -4095,7 +4161,7 @@
       </c>
       <c r="M74" s="20"/>
       <c r="N74" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4103,15 +4169,15 @@
         <v>66</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G75" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H75" s="22"/>
       <c r="I75" s="23">
@@ -4126,7 +4192,7 @@
       </c>
       <c r="M75" s="20"/>
       <c r="N75" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -4134,15 +4200,15 @@
         <v>67</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C76" s="20"/>
       <c r="E76" s="20"/>
       <c r="F76" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G76" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H76" s="22"/>
       <c r="I76" s="23">
@@ -4157,7 +4223,7 @@
       </c>
       <c r="M76" s="20"/>
       <c r="N76" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4165,22 +4231,22 @@
         <v>71</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D77" s="49" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E77" s="48" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F77" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H77" s="22"/>
       <c r="I77" s="23">
@@ -4195,10 +4261,10 @@
         <v>47</v>
       </c>
       <c r="M77" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N77" s="26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -4206,22 +4272,22 @@
         <v>72</v>
       </c>
       <c r="B78" s="48" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D78" s="49" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E78" s="48" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F78" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H78" s="22"/>
       <c r="I78" s="23">
@@ -4236,10 +4302,10 @@
         <v>47</v>
       </c>
       <c r="M78" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N78" s="26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4247,22 +4313,22 @@
         <v>73</v>
       </c>
       <c r="B79" s="48" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D79" s="49" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E79" s="48" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F79" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H79" s="22"/>
       <c r="I79" s="23">
@@ -4277,10 +4343,10 @@
         <v>47</v>
       </c>
       <c r="M79" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N79" s="26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4288,22 +4354,22 @@
         <v>74</v>
       </c>
       <c r="B80" s="48" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D80" s="49" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E80" s="48" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F80" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G80" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H80" s="22"/>
       <c r="I80" s="23">
@@ -4317,10 +4383,10 @@
         <v>47</v>
       </c>
       <c r="M80" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N80" s="26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4328,17 +4394,17 @@
         <v>75</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E81" s="20"/>
       <c r="F81" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G81" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H81" s="22"/>
       <c r="I81" s="23">
@@ -4352,10 +4418,10 @@
         <v>47</v>
       </c>
       <c r="M81" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N81" s="26" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4363,17 +4429,17 @@
         <v>76</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E82" s="20"/>
       <c r="F82" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G82" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H82" s="22"/>
       <c r="I82" s="23">
@@ -4387,10 +4453,10 @@
         <v>47</v>
       </c>
       <c r="M82" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N82" s="26" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4398,17 +4464,17 @@
         <v>77</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G83" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H83" s="22"/>
       <c r="I83" s="23">
@@ -4422,10 +4488,10 @@
         <v>47</v>
       </c>
       <c r="M83" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N83" s="26" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4433,17 +4499,17 @@
         <v>78</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E84" s="20"/>
       <c r="F84" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G84" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H84" s="22"/>
       <c r="I84" s="23">
@@ -4457,10 +4523,10 @@
         <v>47</v>
       </c>
       <c r="M84" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N84" s="26" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4468,17 +4534,17 @@
         <v>79</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E85" s="20"/>
       <c r="F85" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H85" s="22"/>
       <c r="I85" s="23">
@@ -4492,10 +4558,10 @@
         <v>47</v>
       </c>
       <c r="M85" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N85" s="26" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4503,17 +4569,17 @@
         <v>80</v>
       </c>
       <c r="B86" s="48" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G86" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H86" s="22"/>
       <c r="I86" s="23">
@@ -4527,10 +4593,10 @@
         <v>47</v>
       </c>
       <c r="M86" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N86" s="26" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4538,17 +4604,17 @@
         <v>81</v>
       </c>
       <c r="B87" s="48" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E87" s="20"/>
       <c r="F87" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G87" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H87" s="22"/>
       <c r="I87" s="23">
@@ -4562,10 +4628,10 @@
         <v>47</v>
       </c>
       <c r="M87" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N87" s="26" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4573,17 +4639,17 @@
         <v>82</v>
       </c>
       <c r="B88" s="48" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G88" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H88" s="22"/>
       <c r="I88" s="23">
@@ -4597,10 +4663,10 @@
         <v>47</v>
       </c>
       <c r="M88" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N88" s="26" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4608,22 +4674,22 @@
         <v>83</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D89" s="49" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E89" s="48" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F89" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H89" s="22"/>
       <c r="I89" s="23">
@@ -4638,10 +4704,10 @@
         <v>47</v>
       </c>
       <c r="M89" s="20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N89" s="26" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4649,19 +4715,19 @@
         <v>84</v>
       </c>
       <c r="B90" s="48" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D90" s="49" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E90" s="48" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F90" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G90" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H90" s="22"/>
       <c r="I90" s="23">
@@ -4676,10 +4742,10 @@
         <v>47</v>
       </c>
       <c r="M90" s="20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N90" s="26" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4687,19 +4753,19 @@
         <v>85</v>
       </c>
       <c r="B91" s="48" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D91" s="49" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E91" s="48" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F91" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G91" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H91" s="22"/>
       <c r="I91" s="23">
@@ -4714,10 +4780,10 @@
         <v>47</v>
       </c>
       <c r="M91" s="20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N91" s="26" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4725,22 +4791,22 @@
         <v>86</v>
       </c>
       <c r="B92" s="48" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C92" s="49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D92" s="49" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E92" s="50" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F92" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G92" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H92" s="22"/>
       <c r="I92" s="3">
@@ -4754,10 +4820,10 @@
         <v>47</v>
       </c>
       <c r="M92" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N92" s="28" t="s">
         <v>129</v>
-      </c>
-      <c r="N92" s="28" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4765,22 +4831,22 @@
         <v>87</v>
       </c>
       <c r="B93" s="48" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C93" s="49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D93" s="49" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E93" s="50" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F93" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G93" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H93" s="22"/>
       <c r="I93" s="3">
@@ -4794,10 +4860,10 @@
         <v>47</v>
       </c>
       <c r="M93" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N93" s="28" t="s">
         <v>129</v>
-      </c>
-      <c r="N93" s="28" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4805,22 +4871,22 @@
         <v>88</v>
       </c>
       <c r="B94" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C94" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D94" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="E94" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="C94" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="D94" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E94" s="50" t="s">
-        <v>182</v>
-      </c>
       <c r="F94" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H94" s="22"/>
       <c r="I94" s="3">
@@ -4834,10 +4900,10 @@
         <v>47</v>
       </c>
       <c r="M94" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N94" s="28" t="s">
         <v>129</v>
-      </c>
-      <c r="N94" s="28" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4845,22 +4911,22 @@
         <v>89</v>
       </c>
       <c r="B95" s="48" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C95" s="49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D95" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="E95" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="E95" s="50" t="s">
-        <v>183</v>
-      </c>
       <c r="F95" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H95" s="22"/>
       <c r="I95" s="3">
@@ -4874,10 +4940,10 @@
         <v>47</v>
       </c>
       <c r="M95" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N95" s="28" t="s">
         <v>129</v>
-      </c>
-      <c r="N95" s="28" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4885,22 +4951,22 @@
         <v>90</v>
       </c>
       <c r="B96" s="48" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C96" s="49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D96" s="49" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E96" s="50" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F96" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G96" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H96" s="22"/>
       <c r="I96" s="3">
@@ -4914,10 +4980,10 @@
         <v>47</v>
       </c>
       <c r="M96" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N96" s="28" t="s">
         <v>129</v>
-      </c>
-      <c r="N96" s="28" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4925,22 +4991,22 @@
         <v>91</v>
       </c>
       <c r="B97" s="48" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C97" s="49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D97" s="49" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E97" s="50" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F97" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G97" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H97" s="22"/>
       <c r="I97" s="3">
@@ -4954,10 +5020,10 @@
         <v>47</v>
       </c>
       <c r="M97" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N97" s="28" t="s">
         <v>129</v>
-      </c>
-      <c r="N97" s="28" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -4965,22 +5031,22 @@
         <v>92</v>
       </c>
       <c r="B98" s="48" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C98" s="49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D98" s="49" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E98" s="50" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F98" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G98" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H98" s="22"/>
       <c r="I98" s="3">
@@ -4994,10 +5060,10 @@
         <v>47</v>
       </c>
       <c r="M98" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N98" s="28" t="s">
         <v>129</v>
-      </c>
-      <c r="N98" s="28" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -5005,22 +5071,22 @@
         <v>93</v>
       </c>
       <c r="B99" s="48" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C99" s="49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D99" s="49" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E99" s="50" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F99" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G99" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H99" s="22"/>
       <c r="I99" s="3">
@@ -5034,10 +5100,10 @@
         <v>47</v>
       </c>
       <c r="M99" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N99" s="28" t="s">
         <v>129</v>
-      </c>
-      <c r="N99" s="28" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -5045,22 +5111,22 @@
         <v>94</v>
       </c>
       <c r="B100" s="48" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C100" s="49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D100" s="49" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E100" s="50" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F100" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G100" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H100" s="22"/>
       <c r="I100" s="3">
@@ -5074,10 +5140,10 @@
         <v>47</v>
       </c>
       <c r="M100" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N100" s="28" t="s">
         <v>129</v>
-      </c>
-      <c r="N100" s="28" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -5085,22 +5151,22 @@
         <v>95</v>
       </c>
       <c r="B101" s="48" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C101" s="49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D101" s="49" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E101" s="50" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F101" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G101" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H101" s="22"/>
       <c r="I101" s="3">
@@ -5114,10 +5180,10 @@
         <v>47</v>
       </c>
       <c r="M101" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N101" s="28" t="s">
         <v>129</v>
-      </c>
-      <c r="N101" s="28" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -5125,22 +5191,22 @@
         <v>96</v>
       </c>
       <c r="B102" s="48" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C102" s="49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D102" s="49" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E102" s="50" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F102" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G102" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H102" s="22"/>
       <c r="I102" s="3">
@@ -5154,10 +5220,10 @@
         <v>47</v>
       </c>
       <c r="M102" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N102" s="28" t="s">
         <v>129</v>
-      </c>
-      <c r="N102" s="28" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -5165,17 +5231,17 @@
         <v>97</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E103" s="20"/>
       <c r="F103" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G103" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H103" s="22"/>
       <c r="I103" s="23"/>
@@ -5188,10 +5254,10 @@
         <v>47</v>
       </c>
       <c r="M103" s="20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N103" s="26" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5199,17 +5265,17 @@
         <v>98</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E104" s="20"/>
       <c r="F104" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G104" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H104" s="22"/>
       <c r="I104" s="23"/>
@@ -5222,10 +5288,10 @@
         <v>47</v>
       </c>
       <c r="M104" s="20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N104" s="26" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5233,17 +5299,17 @@
         <v>99</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G105" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H105" s="22"/>
       <c r="I105" s="23"/>
@@ -5256,10 +5322,10 @@
         <v>47</v>
       </c>
       <c r="M105" s="20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N105" s="26" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5267,17 +5333,17 @@
         <v>100</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G106" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H106" s="22"/>
       <c r="I106" s="23"/>
@@ -5290,10 +5356,10 @@
         <v>47</v>
       </c>
       <c r="M106" s="20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N106" s="26" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5301,20 +5367,20 @@
         <v>101</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G107" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H107" s="22"/>
       <c r="I107" s="23"/>
@@ -5327,10 +5393,10 @@
         <v>47</v>
       </c>
       <c r="M107" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N107" s="26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5338,20 +5404,20 @@
         <v>102</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E108" s="20"/>
       <c r="F108" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G108" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H108" s="22"/>
       <c r="I108" s="23"/>
@@ -5364,10 +5430,10 @@
         <v>47</v>
       </c>
       <c r="M108" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N108" s="26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5375,20 +5441,20 @@
         <v>103</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E109" s="20"/>
       <c r="F109" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G109" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H109" s="22"/>
       <c r="I109" s="23"/>
@@ -5401,10 +5467,10 @@
         <v>47</v>
       </c>
       <c r="M109" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N109" s="26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5412,20 +5478,20 @@
         <v>104</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G110" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H110" s="22"/>
       <c r="I110" s="23"/>
@@ -5438,10 +5504,10 @@
         <v>47</v>
       </c>
       <c r="M110" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N110" s="26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5449,20 +5515,20 @@
         <v>105</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G111" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H111" s="22"/>
       <c r="I111" s="23"/>
@@ -5475,10 +5541,10 @@
         <v>47</v>
       </c>
       <c r="M111" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N111" s="26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5486,20 +5552,20 @@
         <v>106</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G112" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H112" s="22"/>
       <c r="I112" s="23"/>
@@ -5512,10 +5578,10 @@
         <v>47</v>
       </c>
       <c r="M112" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N112" s="26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5523,20 +5589,20 @@
         <v>107</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G113" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H113" s="22"/>
       <c r="I113" s="23"/>
@@ -5549,10 +5615,10 @@
         <v>47</v>
       </c>
       <c r="M113" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N113" s="26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5560,20 +5626,20 @@
         <v>108</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G114" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H114" s="22"/>
       <c r="I114" s="23"/>
@@ -5586,10 +5652,10 @@
         <v>47</v>
       </c>
       <c r="M114" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N114" s="26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5597,20 +5663,20 @@
         <v>109</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G115" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H115" s="22"/>
       <c r="I115" s="23"/>
@@ -5623,10 +5689,10 @@
         <v>47</v>
       </c>
       <c r="M115" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N115" s="26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5634,20 +5700,20 @@
         <v>110</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G116" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H116" s="22"/>
       <c r="I116" s="23"/>
@@ -5660,10 +5726,10 @@
         <v>47</v>
       </c>
       <c r="M116" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N116" s="26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -5671,20 +5737,20 @@
         <v>111</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G117" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H117" s="22"/>
       <c r="I117" s="23"/>
@@ -5697,10 +5763,10 @@
         <v>47</v>
       </c>
       <c r="M117" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N117" s="26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -5708,20 +5774,20 @@
         <v>112</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G118" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H118" s="22"/>
       <c r="I118" s="23"/>
@@ -5734,10 +5800,10 @@
         <v>47</v>
       </c>
       <c r="M118" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N118" s="26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -5745,20 +5811,20 @@
         <v>117</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G119" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H119" s="22"/>
       <c r="I119" s="23"/>
@@ -5771,10 +5837,10 @@
         <v>47</v>
       </c>
       <c r="M119" s="20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N119" s="26" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -5782,22 +5848,22 @@
         <v>118</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D120" s="49" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E120" s="48" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F120" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G120" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H120" s="22"/>
       <c r="I120" s="23">
@@ -5812,10 +5878,10 @@
         <v>47</v>
       </c>
       <c r="M120" s="20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N120" s="26" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -5823,22 +5889,22 @@
         <v>119</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D121" s="49" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E121" s="48" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F121" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G121" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H121" s="22"/>
       <c r="I121" s="23">
@@ -5853,10 +5919,10 @@
         <v>47</v>
       </c>
       <c r="M121" s="20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N121" s="26" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -5864,22 +5930,22 @@
         <v>120</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D122" s="49" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E122" s="48" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F122" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G122" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H122" s="22"/>
       <c r="I122" s="23">
@@ -5894,10 +5960,10 @@
         <v>47</v>
       </c>
       <c r="M122" s="20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N122" s="26" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -5905,22 +5971,22 @@
         <v>121</v>
       </c>
       <c r="B123" s="48" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E123" s="48" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F123" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G123" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H123" s="22"/>
       <c r="I123" s="23">
@@ -5938,10 +6004,10 @@
         <v>47</v>
       </c>
       <c r="M123" s="20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N123" s="26" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -5949,22 +6015,22 @@
         <v>122</v>
       </c>
       <c r="B124" s="48" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C124" s="49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E124" s="48" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F124" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G124" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H124" s="22"/>
       <c r="I124" s="23">
@@ -5982,10 +6048,10 @@
         <v>47</v>
       </c>
       <c r="M124" s="20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N124" s="26" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -5993,22 +6059,22 @@
         <v>123</v>
       </c>
       <c r="B125" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="C125" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E125" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="C125" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E125" s="48" t="s">
-        <v>209</v>
-      </c>
       <c r="F125" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G125" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H125" s="22"/>
       <c r="I125" s="23">
@@ -6026,10 +6092,10 @@
         <v>47</v>
       </c>
       <c r="M125" s="20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N125" s="26" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -6037,22 +6103,22 @@
         <v>124</v>
       </c>
       <c r="B126" s="48" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C126" s="49" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E126" s="48" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F126" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G126" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H126" s="22"/>
       <c r="I126" s="23">
@@ -6070,10 +6136,10 @@
         <v>47</v>
       </c>
       <c r="M126" s="20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N126" s="26" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -6081,20 +6147,20 @@
         <v>125</v>
       </c>
       <c r="B127" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="C127" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="C127" s="49" t="s">
-        <v>214</v>
-      </c>
       <c r="D127" s="49" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G127" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H127" s="22"/>
       <c r="I127" s="23">
@@ -6111,10 +6177,10 @@
         <v>47</v>
       </c>
       <c r="M127" s="37" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N127" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -6122,20 +6188,20 @@
         <v>126</v>
       </c>
       <c r="B128" s="48" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C128" s="49" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D128" s="49" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E128" s="20"/>
       <c r="F128" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G128" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H128" s="22"/>
       <c r="I128" s="23">
@@ -6152,10 +6218,10 @@
         <v>47</v>
       </c>
       <c r="M128" s="37" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N128" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -6163,20 +6229,20 @@
         <v>127</v>
       </c>
       <c r="B129" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="C129" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="D129" s="49" t="s">
         <v>212</v>
-      </c>
-      <c r="C129" s="49" t="s">
-        <v>215</v>
-      </c>
-      <c r="D129" s="49" t="s">
-        <v>216</v>
       </c>
       <c r="E129" s="20"/>
       <c r="F129" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G129" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H129" s="22"/>
       <c r="I129" s="23">
@@ -6193,10 +6259,10 @@
         <v>47</v>
       </c>
       <c r="M129" s="37" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N129" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -6204,20 +6270,20 @@
         <v>128</v>
       </c>
       <c r="B130" s="48" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C130" s="49" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D130" s="49" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E130" s="20"/>
       <c r="F130" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G130" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H130" s="22"/>
       <c r="I130" s="23">
@@ -6234,10 +6300,10 @@
         <v>47</v>
       </c>
       <c r="M130" s="37" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N130" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -6245,22 +6311,22 @@
         <v>129</v>
       </c>
       <c r="B131" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="C131" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="C131" s="49" t="s">
+      <c r="D131" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="E131" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="D131" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="E131" s="48" t="s">
-        <v>218</v>
-      </c>
       <c r="F131" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G131" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H131" s="22"/>
       <c r="I131" s="23">
@@ -6277,10 +6343,10 @@
         <v>47</v>
       </c>
       <c r="M131" s="37" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N131" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -6288,22 +6354,22 @@
         <v>130</v>
       </c>
       <c r="B132" s="48" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C132" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="D132" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="E132" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="D132" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="E132" s="48" t="s">
-        <v>218</v>
-      </c>
       <c r="F132" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G132" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H132" s="22"/>
       <c r="I132" s="23">
@@ -6320,10 +6386,10 @@
         <v>47</v>
       </c>
       <c r="M132" s="37" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N132" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -6331,22 +6397,22 @@
         <v>131</v>
       </c>
       <c r="B133" s="48" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C133" s="49" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D133" s="49" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E133" s="48" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F133" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G133" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H133" s="22"/>
       <c r="I133" s="23">
@@ -6363,10 +6429,10 @@
         <v>47</v>
       </c>
       <c r="M133" s="37" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N133" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -6374,22 +6440,22 @@
         <v>132</v>
       </c>
       <c r="B134" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="C134" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="D134" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="C134" s="49" t="s">
-        <v>215</v>
-      </c>
-      <c r="D134" s="49" t="s">
-        <v>217</v>
-      </c>
       <c r="E134" s="48" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F134" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G134" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H134" s="22"/>
       <c r="I134" s="23">
@@ -6406,10 +6472,10 @@
         <v>47</v>
       </c>
       <c r="M134" s="37" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N134" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -6417,14 +6483,14 @@
         <v>133</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E135" s="20"/>
       <c r="F135" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G135" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H135" s="22"/>
       <c r="I135" s="23"/>
@@ -6438,7 +6504,7 @@
       </c>
       <c r="M135" s="20"/>
       <c r="N135" s="30" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -6446,17 +6512,17 @@
         <v>134</v>
       </c>
       <c r="B136" s="31" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E136" s="20"/>
       <c r="F136" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G136" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H136" s="22"/>
       <c r="I136" s="23"/>
@@ -6468,10 +6534,10 @@
         <v>47</v>
       </c>
       <c r="M136" s="20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N136" s="30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -6479,22 +6545,22 @@
         <v>135</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C137" s="49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D137" s="36" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E137" s="50" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F137" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G137" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H137" s="22"/>
       <c r="I137" s="3">
@@ -6509,10 +6575,10 @@
         <v>47</v>
       </c>
       <c r="M137" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N137" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -6520,22 +6586,22 @@
         <v>136</v>
       </c>
       <c r="B138" s="31" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C138" s="49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D138" s="36" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E138" s="50" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F138" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G138" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H138" s="22"/>
       <c r="I138" s="3">
@@ -6550,10 +6616,10 @@
         <v>47</v>
       </c>
       <c r="M138" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N138" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -6561,22 +6627,22 @@
         <v>137</v>
       </c>
       <c r="B139" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C139" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D139" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="C139" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="D139" s="36" t="s">
-        <v>172</v>
-      </c>
       <c r="E139" s="50" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F139" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G139" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H139" s="22"/>
       <c r="I139" s="3">
@@ -6591,10 +6657,10 @@
         <v>47</v>
       </c>
       <c r="M139" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N139" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -6602,22 +6668,22 @@
         <v>138</v>
       </c>
       <c r="B140" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C140" s="49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D140" s="36" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E140" s="50" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F140" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G140" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H140" s="22"/>
       <c r="I140" s="3">
@@ -6632,10 +6698,10 @@
         <v>47</v>
       </c>
       <c r="M140" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N140" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -6643,22 +6709,22 @@
         <v>139</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C141" s="49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D141" s="36" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E141" s="50" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F141" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G141" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H141" s="22"/>
       <c r="I141" s="3">
@@ -6673,10 +6739,10 @@
         <v>47</v>
       </c>
       <c r="M141" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N141" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -6684,22 +6750,22 @@
         <v>140</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C142" s="49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D142" s="36" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E142" s="50" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F142" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G142" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H142" s="22"/>
       <c r="I142" s="3">
@@ -6714,10 +6780,10 @@
         <v>47</v>
       </c>
       <c r="M142" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N142" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -6725,22 +6791,22 @@
         <v>141</v>
       </c>
       <c r="B143" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C143" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D143" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="C143" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="D143" s="36" t="s">
-        <v>172</v>
-      </c>
       <c r="E143" s="50" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F143" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G143" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H143" s="22"/>
       <c r="I143" s="3">
@@ -6755,10 +6821,10 @@
         <v>47</v>
       </c>
       <c r="M143" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N143" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -6766,22 +6832,22 @@
         <v>142</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C144" s="49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D144" s="36" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E144" s="50" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F144" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G144" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H144" s="22"/>
       <c r="I144" s="3">
@@ -6796,10 +6862,10 @@
         <v>47</v>
       </c>
       <c r="M144" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N144" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -6807,19 +6873,19 @@
         <v>143</v>
       </c>
       <c r="B145" s="48" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C145" s="49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D145" s="49" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F145" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G145" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H145" s="22"/>
       <c r="I145" s="3">
@@ -6834,10 +6900,10 @@
         <v>47</v>
       </c>
       <c r="M145" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N145" s="30" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -6845,22 +6911,22 @@
         <v>144</v>
       </c>
       <c r="B146" s="48" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C146" s="49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D146" s="49" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E146" s="48" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F146" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G146" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H146" s="22"/>
       <c r="I146" s="3">
@@ -6875,10 +6941,10 @@
         <v>47</v>
       </c>
       <c r="M146" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N146" s="30" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -6886,22 +6952,22 @@
         <v>145</v>
       </c>
       <c r="B147" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C147" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D147" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="C147" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="D147" s="49" t="s">
-        <v>224</v>
-      </c>
       <c r="E147" s="48" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F147" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G147" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H147" s="22"/>
       <c r="I147" s="3">
@@ -6916,10 +6982,10 @@
         <v>47</v>
       </c>
       <c r="M147" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N147" s="30" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -6927,22 +6993,22 @@
         <v>146</v>
       </c>
       <c r="B148" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C148" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D148" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="C148" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="D148" s="49" t="s">
-        <v>224</v>
-      </c>
       <c r="E148" s="48" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F148" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G148" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H148" s="22"/>
       <c r="I148" s="3">
@@ -6957,10 +7023,10 @@
         <v>47</v>
       </c>
       <c r="M148" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N148" s="30" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -6968,19 +7034,19 @@
         <v>147</v>
       </c>
       <c r="B149" s="48" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C149" s="49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D149" s="49" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F149" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G149" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H149" s="22"/>
       <c r="I149" s="3">
@@ -6995,10 +7061,10 @@
         <v>47</v>
       </c>
       <c r="M149" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N149" s="30" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -7006,22 +7072,22 @@
         <v>148</v>
       </c>
       <c r="B150" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="C150" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D150" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="E150" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="C150" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="D150" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="E150" s="48" t="s">
-        <v>223</v>
-      </c>
       <c r="F150" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G150" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H150" s="22"/>
       <c r="I150" s="3">
@@ -7036,10 +7102,10 @@
         <v>47</v>
       </c>
       <c r="M150" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N150" s="30" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -7047,22 +7113,22 @@
         <v>149</v>
       </c>
       <c r="B151" s="48" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C151" s="49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D151" s="49" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E151" s="48" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F151" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G151" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H151" s="22"/>
       <c r="I151" s="3">
@@ -7077,10 +7143,10 @@
         <v>47</v>
       </c>
       <c r="M151" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N151" s="30" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -7088,22 +7154,22 @@
         <v>150</v>
       </c>
       <c r="B152" s="48" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C152" s="49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D152" s="49" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E152" s="48" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F152" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G152" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H152" s="22"/>
       <c r="I152" s="3">
@@ -7118,10 +7184,10 @@
         <v>47</v>
       </c>
       <c r="M152" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N152" s="30" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -7129,17 +7195,17 @@
         <v>151</v>
       </c>
       <c r="B153" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="E153" s="20"/>
       <c r="F153" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G153" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H153" s="22"/>
       <c r="I153" s="23"/>
@@ -7152,10 +7218,10 @@
         <v>47</v>
       </c>
       <c r="M153" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N153" s="30" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -7163,17 +7229,17 @@
         <v>152</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E154" s="20"/>
       <c r="F154" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G154" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H154" s="22"/>
       <c r="I154" s="23"/>
@@ -7186,10 +7252,10 @@
         <v>47</v>
       </c>
       <c r="M154" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N154" s="30" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -7197,17 +7263,17 @@
         <v>153</v>
       </c>
       <c r="B155" s="31" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E155" s="20"/>
       <c r="F155" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G155" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H155" s="22"/>
       <c r="I155" s="23"/>
@@ -7220,10 +7286,10 @@
         <v>47</v>
       </c>
       <c r="M155" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N155" s="30" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -7231,17 +7297,17 @@
         <v>154</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E156" s="20"/>
       <c r="F156" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G156" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H156" s="22"/>
       <c r="I156" s="23"/>
@@ -7254,10 +7320,10 @@
         <v>47</v>
       </c>
       <c r="M156" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N156" s="30" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -7265,17 +7331,17 @@
         <v>155</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E157" s="20"/>
       <c r="F157" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G157" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H157" s="22"/>
       <c r="I157" s="23"/>
@@ -7288,10 +7354,10 @@
         <v>47</v>
       </c>
       <c r="M157" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N157" s="30" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -7299,23 +7365,23 @@
         <v>156</v>
       </c>
       <c r="B158" s="48" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C158" s="49" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D158" s="49" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E158" s="20"/>
       <c r="F158" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G158" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H158" s="51" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I158" s="23">
         <v>298</v>
@@ -7332,10 +7398,10 @@
         <v>47</v>
       </c>
       <c r="M158" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N158" s="26" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -7343,25 +7409,25 @@
         <v>157</v>
       </c>
       <c r="B159" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="C159" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="D159" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="E159" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="F159" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="G159" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H159" s="51" t="s">
         <v>227</v>
-      </c>
-      <c r="C159" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="D159" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="E159" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="F159" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="G159" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H159" s="51" t="s">
-        <v>231</v>
       </c>
       <c r="I159" s="23">
         <v>298</v>
@@ -7378,10 +7444,10 @@
         <v>47</v>
       </c>
       <c r="M159" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N159" s="26" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -7389,25 +7455,25 @@
         <v>158</v>
       </c>
       <c r="B160" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="C160" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="D160" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="E160" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="F160" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="G160" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H160" s="51" t="s">
         <v>227</v>
-      </c>
-      <c r="C160" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="D160" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="E160" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="F160" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="G160" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H160" s="51" t="s">
-        <v>231</v>
       </c>
       <c r="I160" s="23">
         <v>298</v>
@@ -7424,10 +7490,10 @@
         <v>47</v>
       </c>
       <c r="M160" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N160" s="26" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -7435,25 +7501,25 @@
         <v>159</v>
       </c>
       <c r="B161" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="C161" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="D161" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="E161" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="F161" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="G161" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H161" s="51" t="s">
         <v>227</v>
-      </c>
-      <c r="C161" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="D161" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="E161" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="F161" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="G161" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H161" s="51" t="s">
-        <v>231</v>
       </c>
       <c r="I161" s="23">
         <v>298</v>
@@ -7470,10 +7536,10 @@
         <v>47</v>
       </c>
       <c r="M161" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N161" s="26" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="162" spans="1:14">

--- a/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
+++ b/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-guest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC161316-93E7-4D4B-9C6A-E3350D237AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9571CA-DDC1-3347-BF1C-FF6ABB968F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9300" yWindow="760" windowWidth="34560" windowHeight="20140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="240">
   <si>
     <t>Name:</t>
   </si>
@@ -402,9 +402,6 @@
     <t xml:space="preserve">10.1016/j.matdes.2018.06.003 </t>
   </si>
   <si>
-    <t xml:space="preserve">10.1016/j.ceramint.2018.07.141 </t>
-  </si>
-  <si>
     <t>F7</t>
   </si>
   <si>
@@ -466,15 +463,6 @@
   </si>
   <si>
     <t>10.1007/s11661-018-4472-z</t>
-  </si>
-  <si>
-    <t>Ti85 C15</t>
-  </si>
-  <si>
-    <t>Ti80 C20</t>
-  </si>
-  <si>
-    <t>Ti75 C25</t>
   </si>
   <si>
     <t>Nb22.73 Mo22.73 Co22.73 Cr22.73 Ti9.08</t>
@@ -1361,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T440"/>
+  <dimension ref="A1:T437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I71" sqref="I71"/>
+    <sheetView tabSelected="1" topLeftCell="E50" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O80" sqref="O80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1398,14 +1386,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D2" s="44" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="44"/>
       <c r="F2" s="42" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G2" s="43"/>
       <c r="H2" s="43"/>
@@ -1422,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D3" s="44"/>
       <c r="E3" s="44"/>
@@ -1483,7 +1471,7 @@
         <v>30</v>
       </c>
       <c r="M5" s="41" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N5" s="41" t="s">
         <v>46</v>
@@ -1674,7 +1662,7 @@
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G10" s="20" t="s">
         <v>110</v>
@@ -1714,7 +1702,7 @@
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G11" s="20" t="s">
         <v>110</v>
@@ -1754,7 +1742,7 @@
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>110</v>
@@ -1794,7 +1782,7 @@
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>110</v>
@@ -1834,7 +1822,7 @@
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>110</v>
@@ -1874,7 +1862,7 @@
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>110</v>
@@ -1914,7 +1902,7 @@
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>110</v>
@@ -1954,7 +1942,7 @@
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>110</v>
@@ -1993,7 +1981,7 @@
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>110</v>
@@ -2032,7 +2020,7 @@
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>110</v>
@@ -2071,7 +2059,7 @@
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>110</v>
@@ -2110,7 +2098,7 @@
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>110</v>
@@ -2149,7 +2137,7 @@
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>110</v>
@@ -2188,7 +2176,7 @@
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>110</v>
@@ -2227,7 +2215,7 @@
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G24" s="20" t="s">
         <v>110</v>
@@ -2266,7 +2254,7 @@
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>110</v>
@@ -2305,7 +2293,7 @@
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G26" s="20" t="s">
         <v>110</v>
@@ -2344,7 +2332,7 @@
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G27" s="20" t="s">
         <v>110</v>
@@ -2383,7 +2371,7 @@
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G28" s="20" t="s">
         <v>110</v>
@@ -2422,7 +2410,7 @@
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G29" s="20" t="s">
         <v>110</v>
@@ -2461,7 +2449,7 @@
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>110</v>
@@ -2500,7 +2488,7 @@
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G31" s="20" t="s">
         <v>110</v>
@@ -2539,7 +2527,7 @@
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G32" s="20" t="s">
         <v>110</v>
@@ -2578,7 +2566,7 @@
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G33" s="20" t="s">
         <v>110</v>
@@ -2617,7 +2605,7 @@
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G34" s="20" t="s">
         <v>110</v>
@@ -2656,7 +2644,7 @@
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G35" s="20" t="s">
         <v>110</v>
@@ -2692,7 +2680,7 @@
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G36" s="20" t="s">
         <v>110</v>
@@ -2728,7 +2716,7 @@
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G37" s="20" t="s">
         <v>110</v>
@@ -2764,7 +2752,7 @@
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G38" s="20" t="s">
         <v>110</v>
@@ -2799,7 +2787,7 @@
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G39" s="20" t="s">
         <v>110</v>
@@ -2834,7 +2822,7 @@
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G40" s="20" t="s">
         <v>110</v>
@@ -2869,7 +2857,7 @@
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G41" s="20" t="s">
         <v>110</v>
@@ -2895,7 +2883,7 @@
         <v>33</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="3" t="s">
@@ -2903,7 +2891,7 @@
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G42" s="20" t="s">
         <v>110</v>
@@ -2939,7 +2927,7 @@
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G43" s="20" t="s">
         <v>110</v>
@@ -2975,7 +2963,7 @@
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G44" s="20" t="s">
         <v>110</v>
@@ -3011,7 +2999,7 @@
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G45" s="20" t="s">
         <v>110</v>
@@ -3039,7 +3027,7 @@
         <v>37</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="34" t="s">
@@ -3047,7 +3035,7 @@
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G46" s="20" t="s">
         <v>110</v>
@@ -3067,7 +3055,7 @@
         <v>116</v>
       </c>
       <c r="N46" s="35" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3083,7 +3071,7 @@
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G47" s="20" t="s">
         <v>110</v>
@@ -3103,7 +3091,7 @@
         <v>116</v>
       </c>
       <c r="N47" s="35" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3111,7 +3099,7 @@
         <v>39</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="34" t="s">
@@ -3119,7 +3107,7 @@
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G48" s="20" t="s">
         <v>110</v>
@@ -3139,7 +3127,7 @@
         <v>116</v>
       </c>
       <c r="N48" s="35" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3147,7 +3135,7 @@
         <v>40</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="34" t="s">
@@ -3155,7 +3143,7 @@
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G49" s="20" t="s">
         <v>110</v>
@@ -3175,7 +3163,7 @@
         <v>116</v>
       </c>
       <c r="N49" s="35" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3191,7 +3179,7 @@
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G50" s="20" t="s">
         <v>110</v>
@@ -3211,7 +3199,7 @@
         <v>116</v>
       </c>
       <c r="N50" s="35" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3227,7 +3215,7 @@
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G51" s="20" t="s">
         <v>110</v>
@@ -3247,7 +3235,7 @@
         <v>116</v>
       </c>
       <c r="N51" s="35" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3260,7 +3248,7 @@
       <c r="C52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G52" s="20" t="s">
         <v>110</v>
@@ -3280,7 +3268,7 @@
         <v>118</v>
       </c>
       <c r="N52" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3288,19 +3276,19 @@
         <v>44</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C53" s="48" t="s">
         <v>105</v>
       </c>
       <c r="D53" s="49" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E53" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F53" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G53" s="20" t="s">
         <v>110</v>
@@ -3330,19 +3318,19 @@
         <v>45</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C54" s="48" t="s">
         <v>105</v>
       </c>
       <c r="D54" s="49" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E54" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F54" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G54" s="20" t="s">
         <v>110</v>
@@ -3372,19 +3360,19 @@
         <v>46</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C55" s="48" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D55" s="49" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E55" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F55" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G55" s="20" t="s">
         <v>110</v>
@@ -3414,19 +3402,19 @@
         <v>47</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C56" s="48" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D56" s="49" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E56" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F56" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G56" s="20" t="s">
         <v>110</v>
@@ -3456,19 +3444,19 @@
         <v>48</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C57" s="48" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D57" s="49" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E57" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F57" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G57" s="20" t="s">
         <v>110</v>
@@ -3498,17 +3486,17 @@
         <v>49</v>
       </c>
       <c r="B58" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="C58" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="C58" s="48" t="s">
-        <v>240</v>
-      </c>
       <c r="D58" s="49" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G58" s="20" t="s">
         <v>110</v>
@@ -3540,17 +3528,17 @@
         <v>50</v>
       </c>
       <c r="B59" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="C59" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="C59" s="48" t="s">
-        <v>241</v>
-      </c>
       <c r="D59" s="49" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G59" s="20" t="s">
         <v>110</v>
@@ -3582,17 +3570,17 @@
         <v>51</v>
       </c>
       <c r="B60" s="48" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C60" s="48" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D60" s="49" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G60" s="20" t="s">
         <v>110</v>
@@ -3624,17 +3612,17 @@
         <v>52</v>
       </c>
       <c r="B61" s="48" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C61" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D61" s="49" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G61" s="20" t="s">
         <v>110</v>
@@ -3666,19 +3654,19 @@
         <v>53</v>
       </c>
       <c r="B62" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="C62" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="C62" s="48" t="s">
-        <v>240</v>
-      </c>
       <c r="D62" s="49" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E62" s="48" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F62" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G62" s="20" t="s">
         <v>110</v>
@@ -3710,19 +3698,19 @@
         <v>54</v>
       </c>
       <c r="B63" s="48" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C63" s="48" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D63" s="49" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E63" s="48" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F63" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G63" s="20" t="s">
         <v>110</v>
@@ -3754,19 +3742,19 @@
         <v>55</v>
       </c>
       <c r="B64" s="48" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C64" s="48" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D64" s="49" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E64" s="48" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F64" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G64" s="20" t="s">
         <v>110</v>
@@ -3798,19 +3786,19 @@
         <v>56</v>
       </c>
       <c r="B65" s="48" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C65" s="48" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D65" s="49" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E65" s="48" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F65" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G65" s="20" t="s">
         <v>110</v>
@@ -3852,7 +3840,7 @@
       </c>
       <c r="E66" s="20"/>
       <c r="F66" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G66" s="20" t="s">
         <v>110</v>
@@ -3889,7 +3877,7 @@
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G67" s="20" t="s">
         <v>110</v>
@@ -3926,7 +3914,7 @@
       </c>
       <c r="E68" s="20"/>
       <c r="F68" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G68" s="20" t="s">
         <v>110</v>
@@ -3963,7 +3951,7 @@
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G69" s="20" t="s">
         <v>110</v>
@@ -4000,7 +3988,7 @@
       </c>
       <c r="E70" s="20"/>
       <c r="F70" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G70" s="20" t="s">
         <v>110</v>
@@ -4037,7 +4025,7 @@
       </c>
       <c r="E71" s="20"/>
       <c r="F71" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G71" s="20" t="s">
         <v>110</v>
@@ -4074,7 +4062,7 @@
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G72" s="20" t="s">
         <v>110</v>
@@ -4111,7 +4099,7 @@
       </c>
       <c r="E73" s="20"/>
       <c r="F73" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G73" s="20" t="s">
         <v>110</v>
@@ -4135,115 +4123,145 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="3">
-        <v>65</v>
-      </c>
-      <c r="B74" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="C74" s="20"/>
-      <c r="E74" s="20"/>
+        <v>71</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="E74" s="48" t="s">
+        <v>191</v>
+      </c>
       <c r="F74" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G74" s="20" t="s">
         <v>110</v>
       </c>
       <c r="H74" s="22"/>
       <c r="I74" s="23">
-        <v>873</v>
+        <v>298</v>
       </c>
       <c r="J74" s="19">
-        <v>15000000000</v>
+        <f>410*9807000</f>
+        <v>4020870000</v>
       </c>
       <c r="K74" s="19"/>
       <c r="L74" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M74" s="20"/>
+      <c r="M74" s="20" t="s">
+        <v>122</v>
+      </c>
       <c r="N74" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="3">
-        <v>66</v>
-      </c>
-      <c r="B75" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C75" s="20"/>
-      <c r="E75" s="20"/>
+        <v>72</v>
+      </c>
+      <c r="B75" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D75" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="E75" s="48" t="s">
+        <v>191</v>
+      </c>
       <c r="F75" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G75" s="20" t="s">
         <v>110</v>
       </c>
       <c r="H75" s="22"/>
       <c r="I75" s="23">
-        <v>873</v>
+        <v>298</v>
       </c>
       <c r="J75" s="19">
-        <v>25000000000</v>
+        <f>383*9807000</f>
+        <v>3756081000</v>
       </c>
       <c r="K75" s="19"/>
       <c r="L75" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M75" s="20"/>
+      <c r="M75" s="20" t="s">
+        <v>122</v>
+      </c>
       <c r="N75" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="3">
-        <v>67</v>
-      </c>
-      <c r="B76" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="C76" s="20"/>
-      <c r="E76" s="20"/>
+        <v>73</v>
+      </c>
+      <c r="B76" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D76" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="E76" s="48" t="s">
+        <v>191</v>
+      </c>
       <c r="F76" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G76" s="20" t="s">
         <v>110</v>
       </c>
       <c r="H76" s="22"/>
       <c r="I76" s="23">
-        <v>873</v>
+        <v>298</v>
       </c>
       <c r="J76" s="19">
-        <v>24000000000</v>
+        <f>530*9807000</f>
+        <v>5197710000</v>
       </c>
       <c r="K76" s="19"/>
       <c r="L76" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M76" s="20"/>
+      <c r="M76" s="20" t="s">
+        <v>122</v>
+      </c>
       <c r="N76" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="3">
-        <v>71</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="B77" s="48" t="s">
+        <v>190</v>
       </c>
       <c r="C77" s="20" t="s">
         <v>105</v>
       </c>
       <c r="D77" s="49" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E77" s="48" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F77" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G77" s="20" t="s">
         <v>110</v>
@@ -4253,38 +4271,32 @@
         <v>298</v>
       </c>
       <c r="J77" s="19">
-        <f>410*9807000</f>
-        <v>4020870000</v>
+        <v>609</v>
       </c>
       <c r="K77" s="19"/>
       <c r="L77" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M77" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="N77" s="26" t="s">
         <v>123</v>
-      </c>
-      <c r="N77" s="26" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="3">
-        <v>72</v>
-      </c>
-      <c r="B78" s="48" t="s">
-        <v>192</v>
+        <v>75</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>81</v>
       </c>
       <c r="C78" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D78" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="E78" s="48" t="s">
-        <v>195</v>
-      </c>
+      <c r="E78" s="20"/>
       <c r="F78" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G78" s="20" t="s">
         <v>110</v>
@@ -4294,38 +4306,32 @@
         <v>298</v>
       </c>
       <c r="J78" s="19">
-        <f>383*9807000</f>
-        <v>3756081000</v>
+        <v>1320000000</v>
       </c>
       <c r="K78" s="19"/>
       <c r="L78" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M78" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N78" s="26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="3">
-        <v>73</v>
-      </c>
-      <c r="B79" s="48" t="s">
-        <v>193</v>
+        <v>76</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>82</v>
       </c>
       <c r="C79" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D79" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="E79" s="48" t="s">
-        <v>195</v>
-      </c>
+      <c r="E79" s="20"/>
       <c r="F79" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G79" s="20" t="s">
         <v>110</v>
@@ -4335,38 +4341,32 @@
         <v>298</v>
       </c>
       <c r="J79" s="19">
-        <f>530*9807000</f>
-        <v>5197710000</v>
+        <v>873000000</v>
       </c>
       <c r="K79" s="19"/>
       <c r="L79" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M79" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N79" s="26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="3">
-        <v>74</v>
-      </c>
-      <c r="B80" s="48" t="s">
-        <v>194</v>
+        <v>77</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="C80" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D80" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="E80" s="48" t="s">
-        <v>195</v>
-      </c>
+      <c r="E80" s="20"/>
       <c r="F80" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G80" s="20" t="s">
         <v>110</v>
@@ -4376,32 +4376,32 @@
         <v>298</v>
       </c>
       <c r="J80" s="19">
-        <v>609</v>
+        <v>970000000</v>
       </c>
       <c r="K80" s="19"/>
       <c r="L80" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M80" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N80" s="26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="3">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C81" s="20" t="s">
         <v>105</v>
       </c>
       <c r="E81" s="20"/>
       <c r="F81" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G81" s="20" t="s">
         <v>110</v>
@@ -4411,32 +4411,32 @@
         <v>298</v>
       </c>
       <c r="J81" s="19">
-        <v>1320000000</v>
+        <v>628000000</v>
       </c>
       <c r="K81" s="19"/>
       <c r="L81" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M81" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="N81" s="26" t="s">
         <v>125</v>
-      </c>
-      <c r="N81" s="26" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="3">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C82" s="20" t="s">
         <v>105</v>
       </c>
       <c r="E82" s="20"/>
       <c r="F82" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G82" s="20" t="s">
         <v>110</v>
@@ -4446,32 +4446,32 @@
         <v>298</v>
       </c>
       <c r="J82" s="19">
-        <v>873000000</v>
+        <v>3430000000</v>
       </c>
       <c r="K82" s="19"/>
       <c r="L82" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M82" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="N82" s="26" t="s">
         <v>125</v>
-      </c>
-      <c r="N82" s="26" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="3">
-        <v>77</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="B83" s="48" t="s">
+        <v>167</v>
       </c>
       <c r="C83" s="20" t="s">
         <v>105</v>
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G83" s="20" t="s">
         <v>110</v>
@@ -4481,32 +4481,32 @@
         <v>298</v>
       </c>
       <c r="J83" s="19">
-        <v>970000000</v>
+        <v>3113000000</v>
       </c>
       <c r="K83" s="19"/>
       <c r="L83" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M83" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="N83" s="26" t="s">
         <v>125</v>
-      </c>
-      <c r="N83" s="26" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="3">
-        <v>78</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
+      </c>
+      <c r="B84" s="48" t="s">
+        <v>168</v>
       </c>
       <c r="C84" s="20" t="s">
         <v>105</v>
       </c>
       <c r="E84" s="20"/>
       <c r="F84" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G84" s="20" t="s">
         <v>110</v>
@@ -4516,32 +4516,32 @@
         <v>298</v>
       </c>
       <c r="J84" s="19">
-        <v>628000000</v>
+        <v>4830000000</v>
       </c>
       <c r="K84" s="19"/>
       <c r="L84" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M84" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="N84" s="26" t="s">
         <v>125</v>
-      </c>
-      <c r="N84" s="26" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="3">
-        <v>79</v>
-      </c>
-      <c r="B85" s="20" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="B85" s="48" t="s">
+        <v>169</v>
       </c>
       <c r="C85" s="20" t="s">
         <v>105</v>
       </c>
       <c r="E85" s="20"/>
       <c r="F85" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G85" s="20" t="s">
         <v>110</v>
@@ -4551,32 +4551,37 @@
         <v>298</v>
       </c>
       <c r="J85" s="19">
-        <v>3430000000</v>
+        <v>4380000000</v>
       </c>
       <c r="K85" s="19"/>
       <c r="L85" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M85" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="N85" s="26" t="s">
         <v>125</v>
-      </c>
-      <c r="N85" s="26" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="3">
-        <v>80</v>
-      </c>
-      <c r="B86" s="48" t="s">
-        <v>171</v>
+        <v>83</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>82</v>
       </c>
       <c r="C86" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E86" s="20"/>
+      <c r="D86" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="E86" s="48" t="s">
+        <v>183</v>
+      </c>
       <c r="F86" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G86" s="20" t="s">
         <v>110</v>
@@ -4586,32 +4591,35 @@
         <v>298</v>
       </c>
       <c r="J86" s="19">
-        <v>3113000000</v>
+        <f>103*9807000</f>
+        <v>1010121000</v>
       </c>
       <c r="K86" s="19"/>
       <c r="L86" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M86" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N86" s="26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="3">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B87" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="C87" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E87" s="20"/>
+        <v>184</v>
+      </c>
+      <c r="D87" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="E87" s="48" t="s">
+        <v>183</v>
+      </c>
       <c r="F87" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G87" s="20" t="s">
         <v>110</v>
@@ -4621,32 +4629,35 @@
         <v>298</v>
       </c>
       <c r="J87" s="19">
-        <v>4830000000</v>
+        <f>204*9807000</f>
+        <v>2000628000</v>
       </c>
       <c r="K87" s="19"/>
       <c r="L87" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M87" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N87" s="26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="3">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B88" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E88" s="20"/>
+        <v>185</v>
+      </c>
+      <c r="D88" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="E88" s="48" t="s">
+        <v>183</v>
+      </c>
       <c r="F88" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G88" s="20" t="s">
         <v>110</v>
@@ -4656,154 +4667,158 @@
         <v>298</v>
       </c>
       <c r="J88" s="19">
-        <v>4380000000</v>
+        <f>244*9807000</f>
+        <v>2392908000</v>
       </c>
       <c r="K88" s="19"/>
       <c r="L88" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M88" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N88" s="26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="3">
-        <v>83</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C89" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B89" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="C89" s="49" t="s">
         <v>105</v>
       </c>
       <c r="D89" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="E89" s="48" t="s">
-        <v>187</v>
+        <v>171</v>
+      </c>
+      <c r="E89" s="50" t="s">
+        <v>172</v>
       </c>
       <c r="F89" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G89" s="20" t="s">
         <v>110</v>
       </c>
       <c r="H89" s="22"/>
-      <c r="I89" s="23">
+      <c r="I89" s="3">
         <v>298</v>
       </c>
       <c r="J89" s="19">
-        <f>103*9807000</f>
-        <v>1010121000</v>
+        <v>1910000000</v>
       </c>
       <c r="K89" s="19"/>
       <c r="L89" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M89" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="N89" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="N89" s="28" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="3">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B90" s="48" t="s">
-        <v>188</v>
+        <v>170</v>
+      </c>
+      <c r="C90" s="49" t="s">
+        <v>105</v>
       </c>
       <c r="D90" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="E90" s="48" t="s">
-        <v>187</v>
+        <v>171</v>
+      </c>
+      <c r="E90" s="50" t="s">
+        <v>173</v>
       </c>
       <c r="F90" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G90" s="20" t="s">
         <v>110</v>
       </c>
       <c r="H90" s="22"/>
-      <c r="I90" s="23">
+      <c r="I90" s="3">
         <v>298</v>
       </c>
       <c r="J90" s="19">
-        <f>204*9807000</f>
-        <v>2000628000</v>
+        <v>1890000000</v>
       </c>
       <c r="K90" s="19"/>
       <c r="L90" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M90" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="N90" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="N90" s="28" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="3">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B91" s="48" t="s">
-        <v>189</v>
+        <v>170</v>
+      </c>
+      <c r="C91" s="49" t="s">
+        <v>105</v>
       </c>
       <c r="D91" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="E91" s="48" t="s">
-        <v>187</v>
+        <v>171</v>
+      </c>
+      <c r="E91" s="50" t="s">
+        <v>174</v>
       </c>
       <c r="F91" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G91" s="20" t="s">
         <v>110</v>
       </c>
       <c r="H91" s="22"/>
-      <c r="I91" s="23">
+      <c r="I91" s="3">
         <v>298</v>
       </c>
       <c r="J91" s="19">
-        <f>244*9807000</f>
-        <v>2392908000</v>
+        <v>1840000000</v>
       </c>
       <c r="K91" s="19"/>
       <c r="L91" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M91" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="N91" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="N91" s="28" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="3">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B92" s="48" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C92" s="49" t="s">
         <v>105</v>
       </c>
       <c r="D92" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="E92" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="E92" s="50" t="s">
-        <v>176</v>
-      </c>
       <c r="F92" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G92" s="20" t="s">
         <v>110</v>
@@ -4813,37 +4828,37 @@
         <v>298</v>
       </c>
       <c r="J92" s="19">
-        <v>1910000000</v>
+        <v>1820000000</v>
       </c>
       <c r="K92" s="19"/>
       <c r="L92" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M92" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N92" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B93" s="48" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C93" s="49" t="s">
         <v>105</v>
       </c>
       <c r="D93" s="49" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E93" s="50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F93" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G93" s="20" t="s">
         <v>110</v>
@@ -4853,37 +4868,37 @@
         <v>298</v>
       </c>
       <c r="J93" s="19">
-        <v>1890000000</v>
+        <v>1850000000</v>
       </c>
       <c r="K93" s="19"/>
       <c r="L93" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M93" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N93" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="3">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B94" s="48" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C94" s="49" t="s">
         <v>105</v>
       </c>
       <c r="D94" s="49" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E94" s="50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F94" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G94" s="20" t="s">
         <v>110</v>
@@ -4893,37 +4908,37 @@
         <v>298</v>
       </c>
       <c r="J94" s="19">
-        <v>1840000000</v>
+        <v>1810000000</v>
       </c>
       <c r="K94" s="19"/>
       <c r="L94" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M94" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N94" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="3">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B95" s="48" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C95" s="49" t="s">
         <v>105</v>
       </c>
       <c r="D95" s="49" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E95" s="50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F95" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G95" s="20" t="s">
         <v>110</v>
@@ -4933,37 +4948,37 @@
         <v>298</v>
       </c>
       <c r="J95" s="19">
-        <v>1820000000</v>
+        <v>1750000000</v>
       </c>
       <c r="K95" s="19"/>
       <c r="L95" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M95" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N95" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="3">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B96" s="48" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C96" s="49" t="s">
         <v>105</v>
       </c>
       <c r="D96" s="49" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E96" s="50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F96" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G96" s="20" t="s">
         <v>110</v>
@@ -4973,37 +4988,37 @@
         <v>298</v>
       </c>
       <c r="J96" s="19">
-        <v>1850000000</v>
+        <v>1920000000</v>
       </c>
       <c r="K96" s="19"/>
       <c r="L96" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M96" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N96" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="3">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B97" s="48" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C97" s="49" t="s">
         <v>105</v>
       </c>
       <c r="D97" s="49" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E97" s="50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F97" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G97" s="20" t="s">
         <v>110</v>
@@ -5013,37 +5028,37 @@
         <v>298</v>
       </c>
       <c r="J97" s="19">
-        <v>1810000000</v>
+        <v>1950000000</v>
       </c>
       <c r="K97" s="19"/>
       <c r="L97" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M97" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N97" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="3">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B98" s="48" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C98" s="49" t="s">
         <v>105</v>
       </c>
       <c r="D98" s="49" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E98" s="50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F98" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G98" s="20" t="s">
         <v>110</v>
@@ -5053,37 +5068,37 @@
         <v>298</v>
       </c>
       <c r="J98" s="19">
-        <v>1750000000</v>
+        <v>2040000000</v>
       </c>
       <c r="K98" s="19"/>
       <c r="L98" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M98" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N98" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="3">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B99" s="48" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C99" s="49" t="s">
         <v>105</v>
       </c>
       <c r="D99" s="49" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E99" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F99" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G99" s="20" t="s">
         <v>110</v>
@@ -5093,152 +5108,134 @@
         <v>298</v>
       </c>
       <c r="J99" s="19">
-        <v>1920000000</v>
+        <v>1980000000</v>
       </c>
       <c r="K99" s="19"/>
       <c r="L99" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M99" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N99" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="3">
-        <v>94</v>
-      </c>
-      <c r="B100" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="C100" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D100" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="E100" s="50" t="s">
-        <v>184</v>
-      </c>
+      <c r="E100" s="20"/>
       <c r="F100" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G100" s="20" t="s">
         <v>110</v>
       </c>
       <c r="H100" s="22"/>
-      <c r="I100" s="3">
-        <v>298</v>
-      </c>
+      <c r="I100" s="23"/>
       <c r="J100" s="19">
-        <v>1950000000</v>
+        <f>400*9807000</f>
+        <v>3922800000</v>
       </c>
       <c r="K100" s="19"/>
       <c r="L100" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M100" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="N100" s="28" t="s">
         <v>129</v>
+      </c>
+      <c r="N100" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="3">
-        <v>95</v>
-      </c>
-      <c r="B101" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="C101" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B101" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D101" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="E101" s="50" t="s">
-        <v>185</v>
-      </c>
+      <c r="E101" s="20"/>
       <c r="F101" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G101" s="20" t="s">
         <v>110</v>
       </c>
       <c r="H101" s="22"/>
-      <c r="I101" s="3">
-        <v>298</v>
-      </c>
+      <c r="I101" s="23"/>
       <c r="J101" s="19">
-        <v>2040000000</v>
+        <f>490*9807000</f>
+        <v>4805430000</v>
       </c>
       <c r="K101" s="19"/>
       <c r="L101" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M101" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="N101" s="28" t="s">
         <v>129</v>
+      </c>
+      <c r="N101" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="3">
-        <v>96</v>
-      </c>
-      <c r="B102" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="C102" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D102" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="E102" s="50" t="s">
-        <v>186</v>
-      </c>
+      <c r="E102" s="20"/>
       <c r="F102" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G102" s="20" t="s">
         <v>110</v>
       </c>
       <c r="H102" s="22"/>
-      <c r="I102" s="3">
-        <v>298</v>
-      </c>
+      <c r="I102" s="23"/>
       <c r="J102" s="19">
-        <v>1980000000</v>
+        <f>575*9807000</f>
+        <v>5639025000</v>
       </c>
       <c r="K102" s="19"/>
       <c r="L102" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M102" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="N102" s="28" t="s">
         <v>129</v>
+      </c>
+      <c r="N102" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="3">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>105</v>
       </c>
       <c r="E103" s="20"/>
       <c r="F103" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G103" s="20" t="s">
         <v>110</v>
@@ -5246,33 +5243,36 @@
       <c r="H103" s="22"/>
       <c r="I103" s="23"/>
       <c r="J103" s="19">
-        <f>400*9807000</f>
-        <v>3922800000</v>
+        <f>600*9807000</f>
+        <v>5884200000</v>
       </c>
       <c r="K103" s="19"/>
       <c r="L103" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M103" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="N103" s="26" t="s">
         <v>130</v>
-      </c>
-      <c r="N103" s="26" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="3">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>105</v>
       </c>
+      <c r="D104" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="E104" s="20"/>
       <c r="F104" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G104" s="20" t="s">
         <v>110</v>
@@ -5280,15 +5280,15 @@
       <c r="H104" s="22"/>
       <c r="I104" s="23"/>
       <c r="J104" s="19">
-        <f>490*9807000</f>
-        <v>4805430000</v>
+        <f>443*9807000</f>
+        <v>4344501000</v>
       </c>
       <c r="K104" s="19"/>
       <c r="L104" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M104" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="N104" s="26" t="s">
         <v>131</v>
@@ -5296,17 +5296,20 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="3">
-        <v>99</v>
-      </c>
-      <c r="B105" s="20" t="s">
-        <v>87</v>
+        <v>102</v>
+      </c>
+      <c r="B105" s="31" t="s">
+        <v>157</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>105</v>
       </c>
+      <c r="D105" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="E105" s="20"/>
       <c r="F105" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G105" s="20" t="s">
         <v>110</v>
@@ -5314,15 +5317,15 @@
       <c r="H105" s="22"/>
       <c r="I105" s="23"/>
       <c r="J105" s="19">
-        <f>575*9807000</f>
-        <v>5639025000</v>
+        <f>504*9807000</f>
+        <v>4942728000</v>
       </c>
       <c r="K105" s="19"/>
       <c r="L105" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M105" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="N105" s="26" t="s">
         <v>131</v>
@@ -5330,17 +5333,20 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="3">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>105</v>
       </c>
+      <c r="D106" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="E106" s="20"/>
       <c r="F106" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G106" s="20" t="s">
         <v>110</v>
@@ -5348,15 +5354,15 @@
       <c r="H106" s="22"/>
       <c r="I106" s="23"/>
       <c r="J106" s="19">
-        <f>600*9807000</f>
-        <v>5884200000</v>
+        <f>298*9807000</f>
+        <v>2922486000</v>
       </c>
       <c r="K106" s="19"/>
       <c r="L106" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M106" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="N106" s="26" t="s">
         <v>131</v>
@@ -5364,10 +5370,10 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="3">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>105</v>
@@ -5377,7 +5383,7 @@
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G107" s="20" t="s">
         <v>110</v>
@@ -5385,26 +5391,26 @@
       <c r="H107" s="22"/>
       <c r="I107" s="23"/>
       <c r="J107" s="19">
-        <f>443*9807000</f>
-        <v>4344501000</v>
+        <f>493*9807000</f>
+        <v>4834851000</v>
       </c>
       <c r="K107" s="19"/>
       <c r="L107" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M107" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N107" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="3">
-        <v>102</v>
-      </c>
-      <c r="B108" s="31" t="s">
-        <v>161</v>
+        <v>105</v>
+      </c>
+      <c r="B108" s="20" t="s">
+        <v>92</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>105</v>
@@ -5414,7 +5420,7 @@
       </c>
       <c r="E108" s="20"/>
       <c r="F108" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G108" s="20" t="s">
         <v>110</v>
@@ -5422,26 +5428,26 @@
       <c r="H108" s="22"/>
       <c r="I108" s="23"/>
       <c r="J108" s="19">
-        <f>504*9807000</f>
-        <v>4942728000</v>
+        <f>447*9807000</f>
+        <v>4383729000</v>
       </c>
       <c r="K108" s="19"/>
       <c r="L108" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M108" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N108" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="3">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>105</v>
@@ -5451,7 +5457,7 @@
       </c>
       <c r="E109" s="20"/>
       <c r="F109" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G109" s="20" t="s">
         <v>110</v>
@@ -5459,26 +5465,26 @@
       <c r="H109" s="22"/>
       <c r="I109" s="23"/>
       <c r="J109" s="19">
-        <f>298*9807000</f>
-        <v>2922486000</v>
+        <f>454*9807000</f>
+        <v>4452378000</v>
       </c>
       <c r="K109" s="19"/>
       <c r="L109" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M109" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N109" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="3">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>105</v>
@@ -5488,7 +5494,7 @@
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G110" s="20" t="s">
         <v>110</v>
@@ -5496,26 +5502,26 @@
       <c r="H110" s="22"/>
       <c r="I110" s="23"/>
       <c r="J110" s="19">
-        <f>493*9807000</f>
-        <v>4834851000</v>
+        <f>535*9807000</f>
+        <v>5246745000</v>
       </c>
       <c r="K110" s="19"/>
       <c r="L110" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M110" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N110" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="3">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>105</v>
@@ -5525,7 +5531,7 @@
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G111" s="20" t="s">
         <v>110</v>
@@ -5533,26 +5539,26 @@
       <c r="H111" s="22"/>
       <c r="I111" s="23"/>
       <c r="J111" s="19">
-        <f>447*9807000</f>
-        <v>4383729000</v>
+        <f>705*9807000</f>
+        <v>6913935000</v>
       </c>
       <c r="K111" s="19"/>
       <c r="L111" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M111" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N111" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="3">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>105</v>
@@ -5562,7 +5568,7 @@
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G112" s="20" t="s">
         <v>110</v>
@@ -5570,26 +5576,26 @@
       <c r="H112" s="22"/>
       <c r="I112" s="23"/>
       <c r="J112" s="19">
-        <f>454*9807000</f>
-        <v>4452378000</v>
+        <f>542*9807000</f>
+        <v>5315394000</v>
       </c>
       <c r="K112" s="19"/>
       <c r="L112" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M112" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N112" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="3">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>105</v>
@@ -5599,7 +5605,7 @@
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G113" s="20" t="s">
         <v>110</v>
@@ -5607,26 +5613,26 @@
       <c r="H113" s="22"/>
       <c r="I113" s="23"/>
       <c r="J113" s="19">
-        <f>535*9807000</f>
-        <v>5246745000</v>
+        <f>505*9807000</f>
+        <v>4952535000</v>
       </c>
       <c r="K113" s="19"/>
       <c r="L113" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M113" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N113" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="3">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>105</v>
@@ -5636,7 +5642,7 @@
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G114" s="20" t="s">
         <v>110</v>
@@ -5644,26 +5650,26 @@
       <c r="H114" s="22"/>
       <c r="I114" s="23"/>
       <c r="J114" s="19">
-        <f>705*9807000</f>
-        <v>6913935000</v>
+        <f>558*9807000</f>
+        <v>5472306000</v>
       </c>
       <c r="K114" s="19"/>
       <c r="L114" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M114" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N114" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="3">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>105</v>
@@ -5673,7 +5679,7 @@
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G115" s="20" t="s">
         <v>110</v>
@@ -5681,26 +5687,26 @@
       <c r="H115" s="22"/>
       <c r="I115" s="23"/>
       <c r="J115" s="19">
-        <f>542*9807000</f>
-        <v>5315394000</v>
+        <f>390*9807000</f>
+        <v>3824730000</v>
       </c>
       <c r="K115" s="19"/>
       <c r="L115" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M115" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N115" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="3">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>105</v>
@@ -5710,7 +5716,7 @@
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G116" s="20" t="s">
         <v>110</v>
@@ -5718,15 +5724,15 @@
       <c r="H116" s="22"/>
       <c r="I116" s="23"/>
       <c r="J116" s="19">
-        <f>505*9807000</f>
-        <v>4952535000</v>
+        <f>298*9807000</f>
+        <v>2922486000</v>
       </c>
       <c r="K116" s="19"/>
       <c r="L116" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M116" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N116" s="26" t="s">
         <v>132</v>
@@ -5734,36 +5740,40 @@
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="3">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E117" s="20"/>
+      <c r="D117" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="E117" s="48" t="s">
+        <v>192</v>
+      </c>
       <c r="F117" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G117" s="20" t="s">
         <v>110</v>
       </c>
       <c r="H117" s="22"/>
-      <c r="I117" s="23"/>
+      <c r="I117" s="23">
+        <v>298</v>
+      </c>
       <c r="J117" s="19">
-        <f>558*9807000</f>
-        <v>5472306000</v>
+        <f>427.9*9807000</f>
+        <v>4196415300</v>
       </c>
       <c r="K117" s="19"/>
       <c r="L117" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M117" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N117" s="26" t="s">
         <v>132</v>
@@ -5771,36 +5781,40 @@
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="3">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E118" s="20"/>
+      <c r="D118" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="E118" s="48" t="s">
+        <v>194</v>
+      </c>
       <c r="F118" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G118" s="20" t="s">
         <v>110</v>
       </c>
       <c r="H118" s="22"/>
-      <c r="I118" s="23"/>
+      <c r="I118" s="23">
+        <v>298</v>
+      </c>
       <c r="J118" s="19">
-        <f>390*9807000</f>
-        <v>3824730000</v>
+        <f>444.3*9807000</f>
+        <v>4357250100</v>
       </c>
       <c r="K118" s="19"/>
       <c r="L118" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M118" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N118" s="26" t="s">
         <v>132</v>
@@ -5808,7 +5822,7 @@
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B119" s="20" t="s">
         <v>90</v>
@@ -5816,51 +5830,55 @@
       <c r="C119" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D119" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E119" s="20"/>
+      <c r="D119" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="E119" s="48" t="s">
+        <v>193</v>
+      </c>
       <c r="F119" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G119" s="20" t="s">
         <v>110</v>
       </c>
       <c r="H119" s="22"/>
-      <c r="I119" s="23"/>
+      <c r="I119" s="23">
+        <v>298</v>
+      </c>
       <c r="J119" s="19">
-        <f>298*9807000</f>
-        <v>2922486000</v>
+        <f>510.9*9807000</f>
+        <v>5010396300</v>
       </c>
       <c r="K119" s="19"/>
       <c r="L119" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M119" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N119" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="3">
-        <v>118</v>
-      </c>
-      <c r="B120" s="20" t="s">
-        <v>90</v>
+        <v>121</v>
+      </c>
+      <c r="B120" s="48" t="s">
+        <v>195</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D120" s="49" t="s">
-        <v>175</v>
+      <c r="D120" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="E120" s="48" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F120" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G120" s="20" t="s">
         <v>110</v>
@@ -5870,38 +5888,41 @@
         <v>298</v>
       </c>
       <c r="J120" s="19">
-        <f>427.9*9807000</f>
-        <v>4196415300</v>
-      </c>
-      <c r="K120" s="19"/>
+        <f>340*9807000</f>
+        <v>3334380000</v>
+      </c>
+      <c r="K120" s="19">
+        <f>3*9807000</f>
+        <v>29421000</v>
+      </c>
       <c r="L120" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M120" s="20" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="N120" s="26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="3">
-        <v>119</v>
-      </c>
-      <c r="B121" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C121" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="C121" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="D121" s="49" t="s">
-        <v>175</v>
+      <c r="D121" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="E121" s="48" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F121" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G121" s="20" t="s">
         <v>110</v>
@@ -5911,38 +5932,41 @@
         <v>298</v>
       </c>
       <c r="J121" s="19">
-        <f>444.3*9807000</f>
-        <v>4357250100</v>
-      </c>
-      <c r="K121" s="19"/>
+        <f>357*9807000</f>
+        <v>3501099000</v>
+      </c>
+      <c r="K121" s="19">
+        <f>3*9807000</f>
+        <v>29421000</v>
+      </c>
       <c r="L121" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M121" s="20" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="N121" s="26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="3">
-        <v>120</v>
-      </c>
-      <c r="B122" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D122" s="49" t="s">
-        <v>175</v>
+        <v>123</v>
+      </c>
+      <c r="B122" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="C122" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="E122" s="48" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F122" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G122" s="20" t="s">
         <v>110</v>
@@ -5952,38 +5976,41 @@
         <v>298</v>
       </c>
       <c r="J122" s="19">
-        <f>510.9*9807000</f>
-        <v>5010396300</v>
-      </c>
-      <c r="K122" s="19"/>
+        <f>457*9807000</f>
+        <v>4481799000</v>
+      </c>
+      <c r="K122" s="19">
+        <f>13*9807000</f>
+        <v>127491000</v>
+      </c>
       <c r="L122" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M122" s="20" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="N122" s="26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B123" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>105</v>
+        <v>198</v>
+      </c>
+      <c r="C123" s="49" t="s">
+        <v>200</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>108</v>
       </c>
       <c r="E123" s="48" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F123" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G123" s="20" t="s">
         <v>110</v>
@@ -5993,41 +6020,39 @@
         <v>298</v>
       </c>
       <c r="J123" s="19">
-        <f>340*9807000</f>
-        <v>3334380000</v>
+        <f>414*9807000</f>
+        <v>4060098000</v>
       </c>
       <c r="K123" s="19">
-        <f>3*9807000</f>
-        <v>29421000</v>
+        <f>8*9807000</f>
+        <v>78456000</v>
       </c>
       <c r="L123" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M123" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="N123" s="26" t="s">
         <v>134</v>
-      </c>
-      <c r="N123" s="26" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B124" s="48" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C124" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E124" s="48" t="s">
-        <v>205</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D124" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="E124" s="20"/>
       <c r="F124" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G124" s="20" t="s">
         <v>110</v>
@@ -6037,41 +6062,38 @@
         <v>298</v>
       </c>
       <c r="J124" s="19">
-        <f>357*9807000</f>
-        <v>3501099000</v>
+        <v>1569000000</v>
       </c>
       <c r="K124" s="19">
-        <f>3*9807000</f>
-        <v>29421000</v>
+        <f>4*9807000</f>
+        <v>39228000</v>
       </c>
       <c r="L124" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M124" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="N124" s="26" t="s">
-        <v>135</v>
+      <c r="M124" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="N124" s="35" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B125" s="48" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C125" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E125" s="48" t="s">
-        <v>205</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D125" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="E125" s="20"/>
       <c r="F125" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G125" s="20" t="s">
         <v>110</v>
@@ -6081,41 +6103,38 @@
         <v>298</v>
       </c>
       <c r="J125" s="19">
-        <f>457*9807000</f>
-        <v>4481799000</v>
+        <v>1667000000</v>
       </c>
       <c r="K125" s="19">
-        <f>13*9807000</f>
-        <v>127491000</v>
+        <f>4*9807000</f>
+        <v>39228000</v>
       </c>
       <c r="L125" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M125" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="N125" s="26" t="s">
-        <v>135</v>
+      <c r="M125" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="N125" s="35" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B126" s="48" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C126" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E126" s="48" t="s">
-        <v>205</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="D126" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="E126" s="20"/>
       <c r="F126" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G126" s="20" t="s">
         <v>110</v>
@@ -6125,39 +6144,38 @@
         <v>298</v>
       </c>
       <c r="J126" s="19">
-        <f>414*9807000</f>
-        <v>4060098000</v>
+        <v>5139000000</v>
       </c>
       <c r="K126" s="19">
-        <f>8*9807000</f>
-        <v>78456000</v>
+        <f>15*9807000</f>
+        <v>147105000</v>
       </c>
       <c r="L126" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M126" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="N126" s="26" t="s">
-        <v>135</v>
+      <c r="M126" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="N126" s="35" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B127" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C127" s="49" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D127" s="49" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G127" s="20" t="s">
         <v>110</v>
@@ -6167,38 +6185,40 @@
         <v>298</v>
       </c>
       <c r="J127" s="19">
-        <v>1569000000</v>
+        <v>6375000000</v>
       </c>
       <c r="K127" s="19">
-        <f>4*9807000</f>
-        <v>39228000</v>
-      </c>
-      <c r="L127" s="20" t="s">
+        <f>27*9807000</f>
+        <v>264789000</v>
+      </c>
+      <c r="L127" s="37" t="s">
         <v>47</v>
       </c>
       <c r="M127" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N127" s="35" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B128" s="48" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C128" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="D128" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="E128" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="D128" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="E128" s="20"/>
       <c r="F128" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G128" s="20" t="s">
         <v>110</v>
@@ -6208,7 +6228,7 @@
         <v>298</v>
       </c>
       <c r="J128" s="19">
-        <v>1667000000</v>
+        <v>1314000000</v>
       </c>
       <c r="K128" s="19">
         <f>4*9807000</f>
@@ -6218,28 +6238,30 @@
         <v>47</v>
       </c>
       <c r="M128" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N128" s="35" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B129" s="48" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C129" s="49" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D129" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="E129" s="20"/>
+        <v>209</v>
+      </c>
+      <c r="E129" s="48" t="s">
+        <v>210</v>
+      </c>
       <c r="F129" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G129" s="20" t="s">
         <v>110</v>
@@ -6249,38 +6271,40 @@
         <v>298</v>
       </c>
       <c r="J129" s="19">
-        <v>5139000000</v>
+        <v>1324000000</v>
       </c>
       <c r="K129" s="19">
-        <f>15*9807000</f>
-        <v>147105000</v>
-      </c>
-      <c r="L129" s="20" t="s">
+        <f>2*9807000</f>
+        <v>19614000</v>
+      </c>
+      <c r="L129" s="37" t="s">
         <v>47</v>
       </c>
       <c r="M129" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N129" s="35" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B130" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="C130" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="D130" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="C130" s="49" t="s">
-        <v>211</v>
-      </c>
-      <c r="D130" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="E130" s="20"/>
+      <c r="E130" s="48" t="s">
+        <v>210</v>
+      </c>
       <c r="F130" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G130" s="20" t="s">
         <v>110</v>
@@ -6290,40 +6314,40 @@
         <v>298</v>
       </c>
       <c r="J130" s="19">
-        <v>6375000000</v>
+        <v>5757000000</v>
       </c>
       <c r="K130" s="19">
-        <f>27*9807000</f>
-        <v>264789000</v>
-      </c>
-      <c r="L130" s="37" t="s">
+        <f>17*9807000</f>
+        <v>166719000</v>
+      </c>
+      <c r="L130" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M130" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N130" s="35" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="3">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B131" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C131" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="D131" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="E131" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="D131" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="E131" s="48" t="s">
-        <v>214</v>
-      </c>
       <c r="F131" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G131" s="20" t="s">
         <v>110</v>
@@ -6333,231 +6357,225 @@
         <v>298</v>
       </c>
       <c r="J131" s="19">
-        <v>1314000000</v>
+        <v>6237000000</v>
       </c>
       <c r="K131" s="19">
-        <f>4*9807000</f>
-        <v>39228000</v>
-      </c>
-      <c r="L131" s="20" t="s">
+        <f>23*9807000</f>
+        <v>225561000</v>
+      </c>
+      <c r="L131" s="37" t="s">
         <v>47</v>
       </c>
       <c r="M131" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N131" s="35" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="3">
-        <v>130</v>
-      </c>
-      <c r="B132" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="C132" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="D132" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="E132" s="48" t="s">
-        <v>214</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B132" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E132" s="20"/>
       <c r="F132" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G132" s="20" t="s">
         <v>110</v>
       </c>
       <c r="H132" s="22"/>
-      <c r="I132" s="23">
-        <v>298</v>
-      </c>
+      <c r="I132" s="23"/>
       <c r="J132" s="19">
-        <v>1324000000</v>
-      </c>
-      <c r="K132" s="19">
-        <f>2*9807000</f>
-        <v>19614000</v>
-      </c>
-      <c r="L132" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="M132" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="N132" s="35" t="s">
-        <v>154</v>
+        <f>940*9807000</f>
+        <v>9218580000</v>
+      </c>
+      <c r="K132" s="19"/>
+      <c r="L132" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M132" s="20"/>
+      <c r="N132" s="30" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="3">
-        <v>131</v>
-      </c>
-      <c r="B133" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="C133" s="49" t="s">
-        <v>211</v>
-      </c>
-      <c r="D133" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="E133" s="48" t="s">
-        <v>214</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B133" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E133" s="20"/>
       <c r="F133" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G133" s="20" t="s">
         <v>110</v>
       </c>
       <c r="H133" s="22"/>
-      <c r="I133" s="23">
-        <v>298</v>
-      </c>
+      <c r="I133" s="23"/>
       <c r="J133" s="19">
-        <v>5757000000</v>
-      </c>
-      <c r="K133" s="19">
-        <f>17*9807000</f>
-        <v>166719000</v>
-      </c>
+        <v>1360000000000</v>
+      </c>
+      <c r="K133" s="19"/>
       <c r="L133" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M133" s="37" t="s">
+      <c r="M133" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="N133" s="30" t="s">
         <v>137</v>
-      </c>
-      <c r="N133" s="35" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="3">
-        <v>132</v>
-      </c>
-      <c r="B134" s="48" t="s">
-        <v>209</v>
+        <v>135</v>
+      </c>
+      <c r="B134" s="31" t="s">
+        <v>158</v>
       </c>
       <c r="C134" s="49" t="s">
-        <v>211</v>
-      </c>
-      <c r="D134" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="E134" s="48" t="s">
-        <v>214</v>
+        <v>105</v>
+      </c>
+      <c r="D134" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="E134" s="50" t="s">
+        <v>186</v>
       </c>
       <c r="F134" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G134" s="20" t="s">
         <v>110</v>
       </c>
       <c r="H134" s="22"/>
-      <c r="I134" s="23">
+      <c r="I134" s="3">
         <v>298</v>
       </c>
       <c r="J134" s="19">
-        <v>6237000000</v>
-      </c>
-      <c r="K134" s="19">
-        <f>23*9807000</f>
-        <v>225561000</v>
-      </c>
-      <c r="L134" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="M134" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="N134" s="35" t="s">
-        <v>154</v>
+        <f>341*9807000</f>
+        <v>3344187000</v>
+      </c>
+      <c r="K134" s="19"/>
+      <c r="L134" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M134" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="N134" s="28" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="3">
-        <v>133</v>
-      </c>
-      <c r="B135" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E135" s="20"/>
+        <v>136</v>
+      </c>
+      <c r="B135" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C135" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D135" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="E135" s="50" t="s">
+        <v>186</v>
+      </c>
       <c r="F135" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G135" s="20" t="s">
         <v>110</v>
       </c>
       <c r="H135" s="22"/>
-      <c r="I135" s="23"/>
+      <c r="I135" s="3">
+        <v>298</v>
+      </c>
       <c r="J135" s="19">
-        <f>940*9807000</f>
-        <v>9218580000</v>
+        <f>338*9807000</f>
+        <v>3314766000</v>
       </c>
       <c r="K135" s="19"/>
       <c r="L135" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M135" s="20"/>
-      <c r="N135" s="30" t="s">
-        <v>136</v>
+      <c r="M135" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="N135" s="28" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="3">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B136" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E136" s="20"/>
+        <v>160</v>
+      </c>
+      <c r="C136" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D136" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="E136" s="50" t="s">
+        <v>186</v>
+      </c>
       <c r="F136" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G136" s="20" t="s">
         <v>110</v>
       </c>
       <c r="H136" s="22"/>
-      <c r="I136" s="23"/>
+      <c r="I136" s="3">
+        <v>298</v>
+      </c>
       <c r="J136" s="19">
-        <v>1360000000000</v>
+        <f>340*9807000</f>
+        <v>3334380000</v>
       </c>
       <c r="K136" s="19"/>
       <c r="L136" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M136" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="N136" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="N136" s="28" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C137" s="49" t="s">
         <v>105</v>
       </c>
       <c r="D137" s="36" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E137" s="50" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F137" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G137" s="20" t="s">
         <v>110</v>
@@ -6567,8 +6585,8 @@
         <v>298</v>
       </c>
       <c r="J137" s="19">
-        <f>341*9807000</f>
-        <v>3344187000</v>
+        <f>345*9807000</f>
+        <v>3383415000</v>
       </c>
       <c r="K137" s="19"/>
       <c r="L137" s="20" t="s">
@@ -6578,27 +6596,27 @@
         <v>116</v>
       </c>
       <c r="N137" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="3">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B138" s="31" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C138" s="49" t="s">
         <v>105</v>
       </c>
       <c r="D138" s="36" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E138" s="50" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F138" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G138" s="20" t="s">
         <v>110</v>
@@ -6608,8 +6626,8 @@
         <v>298</v>
       </c>
       <c r="J138" s="19">
-        <f>338*9807000</f>
-        <v>3314766000</v>
+        <f>334*9807000</f>
+        <v>3275538000</v>
       </c>
       <c r="K138" s="19"/>
       <c r="L138" s="20" t="s">
@@ -6619,27 +6637,27 @@
         <v>116</v>
       </c>
       <c r="N138" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="3">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B139" s="31" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C139" s="49" t="s">
         <v>105</v>
       </c>
       <c r="D139" s="36" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E139" s="50" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F139" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G139" s="20" t="s">
         <v>110</v>
@@ -6660,27 +6678,27 @@
         <v>116</v>
       </c>
       <c r="N139" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="3">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B140" s="31" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C140" s="49" t="s">
         <v>105</v>
       </c>
       <c r="D140" s="36" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E140" s="50" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F140" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G140" s="20" t="s">
         <v>110</v>
@@ -6690,8 +6708,8 @@
         <v>298</v>
       </c>
       <c r="J140" s="19">
-        <f>345*9807000</f>
-        <v>3383415000</v>
+        <f>340*9807000</f>
+        <v>3334380000</v>
       </c>
       <c r="K140" s="19"/>
       <c r="L140" s="20" t="s">
@@ -6701,27 +6719,27 @@
         <v>116</v>
       </c>
       <c r="N140" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="3">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C141" s="49" t="s">
         <v>105</v>
       </c>
       <c r="D141" s="36" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E141" s="50" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F141" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G141" s="20" t="s">
         <v>110</v>
@@ -6731,8 +6749,8 @@
         <v>298</v>
       </c>
       <c r="J141" s="19">
-        <f>334*9807000</f>
-        <v>3275538000</v>
+        <f>331*9807000</f>
+        <v>3246117000</v>
       </c>
       <c r="K141" s="19"/>
       <c r="L141" s="20" t="s">
@@ -6742,27 +6760,24 @@
         <v>116</v>
       </c>
       <c r="N141" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="3">
-        <v>140</v>
-      </c>
-      <c r="B142" s="31" t="s">
-        <v>163</v>
+        <v>143</v>
+      </c>
+      <c r="B142" s="48" t="s">
+        <v>212</v>
       </c>
       <c r="C142" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="D142" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="E142" s="50" t="s">
-        <v>191</v>
+      <c r="D142" s="49" t="s">
+        <v>213</v>
       </c>
       <c r="F142" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G142" s="20" t="s">
         <v>110</v>
@@ -6772,38 +6787,38 @@
         <v>298</v>
       </c>
       <c r="J142" s="19">
-        <f>340*9807000</f>
-        <v>3334380000</v>
+        <f>459*9807000</f>
+        <v>4501413000</v>
       </c>
       <c r="K142" s="19"/>
       <c r="L142" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M142" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="N142" s="28" t="s">
         <v>139</v>
+      </c>
+      <c r="N142" s="30" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="3">
-        <v>141</v>
-      </c>
-      <c r="B143" s="31" t="s">
-        <v>164</v>
+        <v>144</v>
+      </c>
+      <c r="B143" s="48" t="s">
+        <v>212</v>
       </c>
       <c r="C143" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="D143" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="E143" s="50" t="s">
-        <v>191</v>
+      <c r="D143" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="E143" s="48" t="s">
+        <v>215</v>
       </c>
       <c r="F143" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G143" s="20" t="s">
         <v>110</v>
@@ -6813,38 +6828,38 @@
         <v>298</v>
       </c>
       <c r="J143" s="19">
-        <f>340*9807000</f>
-        <v>3334380000</v>
+        <f>487*9807000</f>
+        <v>4776009000</v>
       </c>
       <c r="K143" s="19"/>
       <c r="L143" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M143" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="N143" s="28" t="s">
         <v>139</v>
+      </c>
+      <c r="N143" s="30" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="3">
-        <v>142</v>
-      </c>
-      <c r="B144" s="31" t="s">
-        <v>165</v>
+        <v>145</v>
+      </c>
+      <c r="B144" s="48" t="s">
+        <v>212</v>
       </c>
       <c r="C144" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="D144" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="E144" s="50" t="s">
-        <v>191</v>
+      <c r="D144" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="E144" s="48" t="s">
+        <v>217</v>
       </c>
       <c r="F144" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G144" s="20" t="s">
         <v>110</v>
@@ -6854,35 +6869,38 @@
         <v>298</v>
       </c>
       <c r="J144" s="19">
-        <f>331*9807000</f>
-        <v>3246117000</v>
+        <f>456*9807000</f>
+        <v>4471992000</v>
       </c>
       <c r="K144" s="19"/>
       <c r="L144" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M144" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="N144" s="28" t="s">
         <v>139</v>
+      </c>
+      <c r="N144" s="30" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="3">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B145" s="48" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C145" s="49" t="s">
         <v>105</v>
       </c>
       <c r="D145" s="49" t="s">
-        <v>217</v>
+        <v>216</v>
+      </c>
+      <c r="E145" s="48" t="s">
+        <v>218</v>
       </c>
       <c r="F145" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G145" s="20" t="s">
         <v>110</v>
@@ -6892,38 +6910,35 @@
         <v>298</v>
       </c>
       <c r="J145" s="19">
-        <f>459*9807000</f>
-        <v>4501413000</v>
+        <f>516*9807000</f>
+        <v>5060412000</v>
       </c>
       <c r="K145" s="19"/>
       <c r="L145" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M145" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="N145" s="30" t="s">
         <v>140</v>
-      </c>
-      <c r="N145" s="30" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="3">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B146" s="48" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C146" s="49" t="s">
         <v>105</v>
       </c>
       <c r="D146" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="E146" s="48" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F146" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G146" s="20" t="s">
         <v>110</v>
@@ -6933,38 +6948,38 @@
         <v>298</v>
       </c>
       <c r="J146" s="19">
-        <f>487*9807000</f>
-        <v>4776009000</v>
+        <f>445*9807000</f>
+        <v>4364115000</v>
       </c>
       <c r="K146" s="19"/>
       <c r="L146" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M146" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="N146" s="30" t="s">
         <v>140</v>
-      </c>
-      <c r="N146" s="30" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="3">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B147" s="48" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C147" s="49" t="s">
         <v>105</v>
       </c>
       <c r="D147" s="49" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E147" s="48" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F147" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G147" s="20" t="s">
         <v>110</v>
@@ -6974,38 +6989,38 @@
         <v>298</v>
       </c>
       <c r="J147" s="19">
-        <f>456*9807000</f>
-        <v>4471992000</v>
+        <f>459*9807000</f>
+        <v>4501413000</v>
       </c>
       <c r="K147" s="19"/>
       <c r="L147" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M147" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="N147" s="30" t="s">
         <v>140</v>
-      </c>
-      <c r="N147" s="30" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="3">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B148" s="48" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C148" s="49" t="s">
         <v>105</v>
       </c>
       <c r="D148" s="49" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E148" s="48" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F148" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G148" s="20" t="s">
         <v>110</v>
@@ -7015,35 +7030,38 @@
         <v>298</v>
       </c>
       <c r="J148" s="19">
-        <f>516*9807000</f>
-        <v>5060412000</v>
+        <f>459*9807000</f>
+        <v>4501413000</v>
       </c>
       <c r="K148" s="19"/>
       <c r="L148" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M148" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="N148" s="30" t="s">
         <v>140</v>
-      </c>
-      <c r="N148" s="30" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="3">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B149" s="48" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C149" s="49" t="s">
         <v>105</v>
       </c>
       <c r="D149" s="49" t="s">
-        <v>217</v>
+        <v>216</v>
+      </c>
+      <c r="E149" s="48" t="s">
+        <v>218</v>
       </c>
       <c r="F149" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G149" s="20" t="s">
         <v>110</v>
@@ -7053,56 +7071,49 @@
         <v>298</v>
       </c>
       <c r="J149" s="19">
-        <f>445*9807000</f>
-        <v>4364115000</v>
+        <f>522*9807000</f>
+        <v>5119254000</v>
       </c>
       <c r="K149" s="19"/>
       <c r="L149" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M149" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="N149" s="30" t="s">
         <v>140</v>
-      </c>
-      <c r="N149" s="30" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="3">
-        <v>148</v>
-      </c>
-      <c r="B150" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="C150" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D150" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="E150" s="48" t="s">
-        <v>219</v>
-      </c>
+      <c r="E150" s="20"/>
       <c r="F150" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G150" s="20" t="s">
         <v>110</v>
       </c>
       <c r="H150" s="22"/>
-      <c r="I150" s="3">
-        <v>298</v>
-      </c>
+      <c r="I150" s="23"/>
       <c r="J150" s="19">
-        <f>459*9807000</f>
-        <v>4501413000</v>
+        <f>960*9807000</f>
+        <v>9414720000</v>
       </c>
       <c r="K150" s="19"/>
       <c r="L150" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M150" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N150" s="30" t="s">
         <v>141</v>
@@ -7110,40 +7121,33 @@
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="3">
-        <v>149</v>
-      </c>
-      <c r="B151" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="C151" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D151" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="E151" s="48" t="s">
-        <v>221</v>
-      </c>
+      <c r="E151" s="20"/>
       <c r="F151" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G151" s="20" t="s">
         <v>110</v>
       </c>
       <c r="H151" s="22"/>
-      <c r="I151" s="3">
-        <v>298</v>
-      </c>
+      <c r="I151" s="23"/>
       <c r="J151" s="19">
-        <f>459*9807000</f>
-        <v>4501413000</v>
+        <f>920*9807000</f>
+        <v>9022440000</v>
       </c>
       <c r="K151" s="19"/>
       <c r="L151" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M151" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N151" s="30" t="s">
         <v>141</v>
@@ -7151,40 +7155,33 @@
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="3">
-        <v>150</v>
-      </c>
-      <c r="B152" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="C152" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D152" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="E152" s="48" t="s">
-        <v>222</v>
-      </c>
+      <c r="E152" s="20"/>
       <c r="F152" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G152" s="20" t="s">
         <v>110</v>
       </c>
       <c r="H152" s="22"/>
-      <c r="I152" s="3">
-        <v>298</v>
-      </c>
+      <c r="I152" s="23"/>
       <c r="J152" s="19">
-        <f>522*9807000</f>
-        <v>5119254000</v>
+        <f>830*9807000</f>
+        <v>8139810000</v>
       </c>
       <c r="K152" s="19"/>
       <c r="L152" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M152" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N152" s="30" t="s">
         <v>141</v>
@@ -7192,17 +7189,17 @@
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="3">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>105</v>
       </c>
       <c r="E153" s="20"/>
       <c r="F153" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G153" s="20" t="s">
         <v>110</v>
@@ -7210,33 +7207,33 @@
       <c r="H153" s="22"/>
       <c r="I153" s="23"/>
       <c r="J153" s="19">
-        <f>960*9807000</f>
-        <v>9414720000</v>
+        <f>840*9807000</f>
+        <v>8237880000</v>
       </c>
       <c r="K153" s="19"/>
       <c r="L153" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M153" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N153" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="3">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>105</v>
       </c>
       <c r="E154" s="20"/>
       <c r="F154" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G154" s="20" t="s">
         <v>110</v>
@@ -7244,305 +7241,233 @@
       <c r="H154" s="22"/>
       <c r="I154" s="23"/>
       <c r="J154" s="19">
+        <f>850*9807000</f>
+        <v>8335950000</v>
+      </c>
+      <c r="K154" s="19"/>
+      <c r="L154" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M154" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="N154" s="30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
+      <c r="A155" s="3">
+        <v>156</v>
+      </c>
+      <c r="B155" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="C155" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="D155" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="E155" s="20"/>
+      <c r="F155" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="G155" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H155" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="I155" s="23">
+        <v>298</v>
+      </c>
+      <c r="J155" s="19">
+        <f>829*9807000</f>
+        <v>8130003000</v>
+      </c>
+      <c r="K155" s="19">
+        <f>1*9807000</f>
+        <v>9807000</v>
+      </c>
+      <c r="L155" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M155" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="N155" s="26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
+      <c r="A156" s="3">
+        <v>157</v>
+      </c>
+      <c r="B156" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="C156" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="D156" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="E156" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="F156" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="G156" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H156" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="I156" s="23">
+        <v>298</v>
+      </c>
+      <c r="J156" s="19">
         <f>920*9807000</f>
         <v>9022440000</v>
       </c>
-      <c r="K154" s="19"/>
-      <c r="L154" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M154" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="N154" s="30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
-      <c r="A155" s="3">
-        <v>153</v>
-      </c>
-      <c r="B155" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E155" s="20"/>
-      <c r="F155" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="G155" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="H155" s="22"/>
-      <c r="I155" s="23"/>
-      <c r="J155" s="19">
-        <f>830*9807000</f>
-        <v>8139810000</v>
-      </c>
-      <c r="K155" s="19"/>
-      <c r="L155" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M155" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="N155" s="30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
-      <c r="A156" s="3">
-        <v>154</v>
-      </c>
-      <c r="B156" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E156" s="20"/>
-      <c r="F156" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="G156" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="H156" s="22"/>
-      <c r="I156" s="23"/>
-      <c r="J156" s="19">
-        <f>840*9807000</f>
-        <v>8237880000</v>
-      </c>
-      <c r="K156" s="19"/>
+      <c r="K156" s="19">
+        <f>1*9807000</f>
+        <v>9807000</v>
+      </c>
       <c r="L156" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M156" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="N156" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="N156" s="26" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="3">
-        <v>155</v>
-      </c>
-      <c r="B157" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E157" s="20"/>
+        <v>158</v>
+      </c>
+      <c r="B157" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="C157" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="D157" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="E157" s="48" t="s">
+        <v>222</v>
+      </c>
       <c r="F157" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G157" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="H157" s="22"/>
-      <c r="I157" s="23"/>
+      <c r="H157" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="I157" s="23">
+        <v>298</v>
+      </c>
       <c r="J157" s="19">
-        <f>850*9807000</f>
-        <v>8335950000</v>
-      </c>
-      <c r="K157" s="19"/>
+        <f>931*9807000</f>
+        <v>9130317000</v>
+      </c>
+      <c r="K157" s="19">
+        <f>2*9807000</f>
+        <v>19614000</v>
+      </c>
       <c r="L157" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M157" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="N157" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="N157" s="26" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="3">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B158" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="C158" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="D158" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="E158" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="F158" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="G158" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H158" s="51" t="s">
         <v>223</v>
-      </c>
-      <c r="C158" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="D158" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="E158" s="20"/>
-      <c r="F158" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="G158" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="H158" s="51" t="s">
-        <v>227</v>
       </c>
       <c r="I158" s="23">
         <v>298</v>
       </c>
       <c r="J158" s="19">
-        <f>829*9807000</f>
-        <v>8130003000</v>
+        <f>960*9807000</f>
+        <v>9414720000</v>
       </c>
       <c r="K158" s="19">
-        <f>1*9807000</f>
-        <v>9807000</v>
-      </c>
-      <c r="L158" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M158" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="N158" s="26" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14">
-      <c r="A159" s="3">
-        <v>157</v>
-      </c>
-      <c r="B159" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="C159" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="D159" s="49" t="s">
-        <v>224</v>
-      </c>
-      <c r="E159" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="F159" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="G159" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="H159" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="I159" s="23">
-        <v>298</v>
-      </c>
-      <c r="J159" s="19">
-        <f>920*9807000</f>
-        <v>9022440000</v>
-      </c>
-      <c r="K159" s="19">
-        <f>1*9807000</f>
-        <v>9807000</v>
-      </c>
-      <c r="L159" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M159" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="N159" s="26" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
-      <c r="A160" s="3">
-        <v>158</v>
-      </c>
-      <c r="B160" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="C160" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="D160" s="49" t="s">
-        <v>224</v>
-      </c>
-      <c r="E160" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="F160" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="G160" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="H160" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="I160" s="23">
-        <v>298</v>
-      </c>
-      <c r="J160" s="19">
-        <f>931*9807000</f>
-        <v>9130317000</v>
-      </c>
-      <c r="K160" s="19">
         <f>2*9807000</f>
         <v>19614000</v>
       </c>
-      <c r="L160" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M160" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="N160" s="26" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14">
-      <c r="A161" s="3">
-        <v>159</v>
-      </c>
-      <c r="B161" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="C161" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="D161" s="49" t="s">
-        <v>224</v>
-      </c>
-      <c r="E161" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="F161" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="G161" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="H161" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="I161" s="23">
-        <v>298</v>
-      </c>
-      <c r="J161" s="19">
-        <f>960*9807000</f>
-        <v>9414720000</v>
-      </c>
-      <c r="K161" s="19">
-        <f>2*9807000</f>
-        <v>19614000</v>
-      </c>
-      <c r="L161" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M161" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="N161" s="26" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14">
+      <c r="L158" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M158" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="N158" s="26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
+      <c r="E159" s="20"/>
+      <c r="F159" s="31"/>
+      <c r="G159" s="20"/>
+      <c r="H159" s="22"/>
+      <c r="I159" s="23"/>
+      <c r="K159" s="19"/>
+      <c r="L159" s="31"/>
+      <c r="M159" s="20"/>
+    </row>
+    <row r="160" spans="1:14">
+      <c r="E160" s="20"/>
+      <c r="F160" s="31"/>
+      <c r="G160" s="20"/>
+      <c r="H160" s="22"/>
+      <c r="I160" s="23"/>
+      <c r="K160" s="19"/>
+      <c r="L160" s="31"/>
+      <c r="M160" s="20"/>
+    </row>
+    <row r="161" spans="5:13">
+      <c r="E161" s="20"/>
+      <c r="F161" s="31"/>
+      <c r="G161" s="20"/>
+      <c r="H161" s="22"/>
+      <c r="I161" s="23"/>
+      <c r="K161" s="19"/>
+      <c r="L161" s="31"/>
+      <c r="M161" s="20"/>
+    </row>
+    <row r="162" spans="5:13">
       <c r="E162" s="20"/>
       <c r="F162" s="31"/>
       <c r="G162" s="20"/>
@@ -7552,7 +7477,7 @@
       <c r="L162" s="31"/>
       <c r="M162" s="20"/>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="5:13">
       <c r="E163" s="20"/>
       <c r="F163" s="31"/>
       <c r="G163" s="20"/>
@@ -7562,7 +7487,7 @@
       <c r="L163" s="31"/>
       <c r="M163" s="20"/>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="5:13">
       <c r="E164" s="20"/>
       <c r="F164" s="31"/>
       <c r="G164" s="20"/>
@@ -7572,7 +7497,7 @@
       <c r="L164" s="31"/>
       <c r="M164" s="20"/>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="5:13">
       <c r="E165" s="20"/>
       <c r="F165" s="31"/>
       <c r="G165" s="20"/>
@@ -7582,7 +7507,7 @@
       <c r="L165" s="31"/>
       <c r="M165" s="20"/>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="5:13">
       <c r="E166" s="20"/>
       <c r="F166" s="31"/>
       <c r="G166" s="20"/>
@@ -7592,7 +7517,7 @@
       <c r="L166" s="31"/>
       <c r="M166" s="20"/>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="5:13">
       <c r="E167" s="20"/>
       <c r="F167" s="31"/>
       <c r="G167" s="20"/>
@@ -7602,7 +7527,7 @@
       <c r="L167" s="31"/>
       <c r="M167" s="20"/>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="5:13">
       <c r="E168" s="20"/>
       <c r="F168" s="31"/>
       <c r="G168" s="20"/>
@@ -7612,7 +7537,7 @@
       <c r="L168" s="31"/>
       <c r="M168" s="20"/>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="5:13">
       <c r="E169" s="20"/>
       <c r="F169" s="31"/>
       <c r="G169" s="20"/>
@@ -7622,7 +7547,7 @@
       <c r="L169" s="31"/>
       <c r="M169" s="20"/>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="5:13">
       <c r="E170" s="20"/>
       <c r="F170" s="31"/>
       <c r="G170" s="20"/>
@@ -7632,7 +7557,7 @@
       <c r="L170" s="31"/>
       <c r="M170" s="20"/>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="5:13">
       <c r="E171" s="20"/>
       <c r="F171" s="31"/>
       <c r="G171" s="20"/>
@@ -7642,7 +7567,7 @@
       <c r="L171" s="31"/>
       <c r="M171" s="20"/>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="5:13">
       <c r="E172" s="20"/>
       <c r="F172" s="31"/>
       <c r="G172" s="20"/>
@@ -7652,7 +7577,7 @@
       <c r="L172" s="31"/>
       <c r="M172" s="20"/>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="5:13">
       <c r="E173" s="20"/>
       <c r="F173" s="31"/>
       <c r="G173" s="20"/>
@@ -7662,7 +7587,7 @@
       <c r="L173" s="31"/>
       <c r="M173" s="20"/>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="5:13">
       <c r="E174" s="20"/>
       <c r="F174" s="31"/>
       <c r="G174" s="20"/>
@@ -7672,7 +7597,7 @@
       <c r="L174" s="31"/>
       <c r="M174" s="20"/>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="5:13">
       <c r="E175" s="20"/>
       <c r="F175" s="31"/>
       <c r="G175" s="20"/>
@@ -7682,7 +7607,7 @@
       <c r="L175" s="31"/>
       <c r="M175" s="20"/>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="5:13">
       <c r="E176" s="20"/>
       <c r="F176" s="31"/>
       <c r="G176" s="20"/>
@@ -7703,8 +7628,9 @@
       <c r="M177" s="20"/>
     </row>
     <row r="178" spans="4:13">
+      <c r="D178" s="22"/>
       <c r="E178" s="20"/>
-      <c r="F178" s="31"/>
+      <c r="F178" s="32"/>
       <c r="G178" s="20"/>
       <c r="H178" s="22"/>
       <c r="I178" s="23"/>
@@ -7713,8 +7639,9 @@
       <c r="M178" s="20"/>
     </row>
     <row r="179" spans="4:13">
+      <c r="D179" s="22"/>
       <c r="E179" s="20"/>
-      <c r="F179" s="31"/>
+      <c r="F179" s="32"/>
       <c r="G179" s="20"/>
       <c r="H179" s="22"/>
       <c r="I179" s="23"/>
@@ -7723,8 +7650,9 @@
       <c r="M179" s="20"/>
     </row>
     <row r="180" spans="4:13">
+      <c r="D180" s="22"/>
       <c r="E180" s="20"/>
-      <c r="F180" s="31"/>
+      <c r="F180" s="32"/>
       <c r="G180" s="20"/>
       <c r="H180" s="22"/>
       <c r="I180" s="23"/>
@@ -8173,36 +8101,49 @@
       <c r="M220" s="20"/>
     </row>
     <row r="221" spans="1:14">
+      <c r="A221" s="24"/>
+      <c r="B221" s="20"/>
+      <c r="C221" s="22"/>
       <c r="D221" s="22"/>
       <c r="E221" s="20"/>
-      <c r="F221" s="32"/>
-      <c r="G221" s="20"/>
+      <c r="F221" s="22"/>
+      <c r="G221" s="22"/>
       <c r="H221" s="22"/>
       <c r="I221" s="23"/>
+      <c r="J221" s="19"/>
       <c r="K221" s="19"/>
-      <c r="L221" s="31"/>
+      <c r="L221" s="20"/>
       <c r="M221" s="20"/>
+      <c r="N221" s="26"/>
     </row>
     <row r="222" spans="1:14">
+      <c r="A222" s="24"/>
+      <c r="B222" s="20"/>
+      <c r="C222" s="22"/>
       <c r="D222" s="22"/>
       <c r="E222" s="20"/>
-      <c r="F222" s="32"/>
-      <c r="G222" s="20"/>
+      <c r="F222" s="22"/>
+      <c r="G222" s="22"/>
       <c r="H222" s="22"/>
       <c r="I222" s="23"/>
+      <c r="J222" s="19"/>
       <c r="K222" s="19"/>
-      <c r="L222" s="31"/>
+      <c r="L222" s="20"/>
       <c r="M222" s="20"/>
     </row>
     <row r="223" spans="1:14">
+      <c r="A223" s="24"/>
+      <c r="B223" s="20"/>
+      <c r="C223" s="22"/>
       <c r="D223" s="22"/>
       <c r="E223" s="20"/>
-      <c r="F223" s="32"/>
-      <c r="G223" s="20"/>
+      <c r="F223" s="22"/>
+      <c r="G223" s="22"/>
       <c r="H223" s="22"/>
       <c r="I223" s="23"/>
+      <c r="J223" s="19"/>
       <c r="K223" s="19"/>
-      <c r="L223" s="31"/>
+      <c r="L223" s="20"/>
       <c r="M223" s="20"/>
     </row>
     <row r="224" spans="1:14">
@@ -8219,7 +8160,6 @@
       <c r="K224" s="19"/>
       <c r="L224" s="20"/>
       <c r="M224" s="20"/>
-      <c r="N224" s="26"/>
     </row>
     <row r="225" spans="1:14">
       <c r="A225" s="24"/>
@@ -8295,6 +8235,7 @@
       <c r="K229" s="19"/>
       <c r="L229" s="20"/>
       <c r="M229" s="20"/>
+      <c r="N229" s="26"/>
     </row>
     <row r="230" spans="1:14">
       <c r="A230" s="24"/>
@@ -8340,7 +8281,6 @@
       <c r="K232" s="19"/>
       <c r="L232" s="20"/>
       <c r="M232" s="20"/>
-      <c r="N232" s="26"/>
     </row>
     <row r="233" spans="1:14">
       <c r="A233" s="24"/>
@@ -8416,6 +8356,7 @@
       <c r="K237" s="19"/>
       <c r="L237" s="20"/>
       <c r="M237" s="20"/>
+      <c r="N237" s="26"/>
     </row>
     <row r="238" spans="1:14">
       <c r="A238" s="24"/>
@@ -8431,6 +8372,7 @@
       <c r="K238" s="19"/>
       <c r="L238" s="20"/>
       <c r="M238" s="20"/>
+      <c r="N238" s="26"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="24"/>
@@ -8446,6 +8388,7 @@
       <c r="K239" s="19"/>
       <c r="L239" s="20"/>
       <c r="M239" s="20"/>
+      <c r="N239" s="26"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="24"/>
@@ -8749,7 +8692,7 @@
       <c r="K258" s="19"/>
       <c r="L258" s="20"/>
       <c r="M258" s="20"/>
-      <c r="N258" s="26"/>
+      <c r="N258" s="28"/>
     </row>
     <row r="259" spans="1:14">
       <c r="A259" s="24"/>
@@ -8765,7 +8708,7 @@
       <c r="K259" s="19"/>
       <c r="L259" s="20"/>
       <c r="M259" s="20"/>
-      <c r="N259" s="26"/>
+      <c r="N259" s="28"/>
     </row>
     <row r="260" spans="1:14">
       <c r="A260" s="24"/>
@@ -8781,7 +8724,7 @@
       <c r="K260" s="19"/>
       <c r="L260" s="20"/>
       <c r="M260" s="20"/>
-      <c r="N260" s="26"/>
+      <c r="N260" s="28"/>
     </row>
     <row r="261" spans="1:14">
       <c r="A261" s="24"/>
@@ -8864,14 +8807,13 @@
       <c r="N265" s="28"/>
     </row>
     <row r="266" spans="1:14">
-      <c r="A266" s="24"/>
+      <c r="A266" s="11"/>
       <c r="B266" s="20"/>
-      <c r="C266" s="22"/>
-      <c r="D266" s="22"/>
-      <c r="E266" s="20"/>
-      <c r="F266" s="22"/>
-      <c r="G266" s="22"/>
-      <c r="H266" s="22"/>
+      <c r="C266" s="5"/>
+      <c r="D266" s="5"/>
+      <c r="F266" s="5"/>
+      <c r="G266" s="5"/>
+      <c r="H266" s="5"/>
       <c r="I266" s="23"/>
       <c r="J266" s="19"/>
       <c r="K266" s="19"/>
@@ -8880,14 +8822,13 @@
       <c r="N266" s="28"/>
     </row>
     <row r="267" spans="1:14">
-      <c r="A267" s="24"/>
+      <c r="A267" s="11"/>
       <c r="B267" s="20"/>
-      <c r="C267" s="22"/>
-      <c r="D267" s="22"/>
-      <c r="E267" s="20"/>
-      <c r="F267" s="22"/>
-      <c r="G267" s="22"/>
-      <c r="H267" s="22"/>
+      <c r="C267" s="5"/>
+      <c r="D267" s="5"/>
+      <c r="F267" s="5"/>
+      <c r="G267" s="5"/>
+      <c r="H267" s="5"/>
       <c r="I267" s="23"/>
       <c r="J267" s="19"/>
       <c r="K267" s="19"/>
@@ -8896,14 +8837,13 @@
       <c r="N267" s="28"/>
     </row>
     <row r="268" spans="1:14">
-      <c r="A268" s="24"/>
+      <c r="A268" s="11"/>
       <c r="B268" s="20"/>
-      <c r="C268" s="22"/>
-      <c r="D268" s="22"/>
-      <c r="E268" s="20"/>
-      <c r="F268" s="22"/>
-      <c r="G268" s="22"/>
-      <c r="H268" s="22"/>
+      <c r="C268" s="5"/>
+      <c r="D268" s="5"/>
+      <c r="F268" s="5"/>
+      <c r="G268" s="5"/>
+      <c r="H268" s="5"/>
       <c r="I268" s="23"/>
       <c r="J268" s="19"/>
       <c r="K268" s="19"/>
@@ -8924,7 +8864,7 @@
       <c r="K269" s="19"/>
       <c r="L269" s="20"/>
       <c r="M269" s="20"/>
-      <c r="N269" s="28"/>
+      <c r="N269" s="26"/>
     </row>
     <row r="270" spans="1:14">
       <c r="A270" s="11"/>
@@ -8939,7 +8879,7 @@
       <c r="K270" s="19"/>
       <c r="L270" s="20"/>
       <c r="M270" s="20"/>
-      <c r="N270" s="28"/>
+      <c r="N270" s="26"/>
     </row>
     <row r="271" spans="1:14">
       <c r="A271" s="11"/>
@@ -8954,7 +8894,7 @@
       <c r="K271" s="19"/>
       <c r="L271" s="20"/>
       <c r="M271" s="20"/>
-      <c r="N271" s="28"/>
+      <c r="N271" s="26"/>
     </row>
     <row r="272" spans="1:14">
       <c r="A272" s="11"/>
@@ -9164,7 +9104,7 @@
       <c r="K285" s="19"/>
       <c r="L285" s="20"/>
       <c r="M285" s="20"/>
-      <c r="N285" s="26"/>
+      <c r="N285" s="29"/>
     </row>
     <row r="286" spans="1:14">
       <c r="A286" s="11"/>
@@ -9179,7 +9119,7 @@
       <c r="K286" s="19"/>
       <c r="L286" s="20"/>
       <c r="M286" s="20"/>
-      <c r="N286" s="26"/>
+      <c r="N286" s="29"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="11"/>
@@ -9194,7 +9134,7 @@
       <c r="K287" s="19"/>
       <c r="L287" s="20"/>
       <c r="M287" s="20"/>
-      <c r="N287" s="26"/>
+      <c r="N287" s="29"/>
     </row>
     <row r="288" spans="1:14">
       <c r="A288" s="11"/>
@@ -9224,7 +9164,7 @@
       <c r="K289" s="19"/>
       <c r="L289" s="20"/>
       <c r="M289" s="20"/>
-      <c r="N289" s="29"/>
+      <c r="N289" s="26"/>
     </row>
     <row r="290" spans="1:14">
       <c r="A290" s="11"/>
@@ -9239,7 +9179,7 @@
       <c r="K290" s="19"/>
       <c r="L290" s="20"/>
       <c r="M290" s="20"/>
-      <c r="N290" s="29"/>
+      <c r="N290" s="26"/>
     </row>
     <row r="291" spans="1:14">
       <c r="A291" s="11"/>
@@ -9254,7 +9194,7 @@
       <c r="K291" s="19"/>
       <c r="L291" s="20"/>
       <c r="M291" s="20"/>
-      <c r="N291" s="29"/>
+      <c r="N291" s="26"/>
     </row>
     <row r="292" spans="1:14">
       <c r="A292" s="11"/>
@@ -9389,7 +9329,7 @@
       <c r="K300" s="19"/>
       <c r="L300" s="20"/>
       <c r="M300" s="20"/>
-      <c r="N300" s="26"/>
+      <c r="N300" s="30"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="11"/>
@@ -9404,7 +9344,7 @@
       <c r="K301" s="19"/>
       <c r="L301" s="20"/>
       <c r="M301" s="20"/>
-      <c r="N301" s="26"/>
+      <c r="N301" s="30"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="11"/>
@@ -9419,7 +9359,7 @@
       <c r="K302" s="19"/>
       <c r="L302" s="20"/>
       <c r="M302" s="20"/>
-      <c r="N302" s="26"/>
+      <c r="N302" s="30"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="11"/>
@@ -9434,7 +9374,7 @@
       <c r="K303" s="19"/>
       <c r="L303" s="20"/>
       <c r="M303" s="20"/>
-      <c r="N303" s="30"/>
+      <c r="N303" s="28"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="11"/>
@@ -9449,7 +9389,7 @@
       <c r="K304" s="19"/>
       <c r="L304" s="20"/>
       <c r="M304" s="20"/>
-      <c r="N304" s="30"/>
+      <c r="N304" s="28"/>
     </row>
     <row r="305" spans="1:14">
       <c r="A305" s="11"/>
@@ -9464,7 +9404,7 @@
       <c r="K305" s="19"/>
       <c r="L305" s="20"/>
       <c r="M305" s="20"/>
-      <c r="N305" s="30"/>
+      <c r="N305" s="28"/>
     </row>
     <row r="306" spans="1:14">
       <c r="A306" s="11"/>
@@ -9554,7 +9494,7 @@
       <c r="K311" s="19"/>
       <c r="L311" s="20"/>
       <c r="M311" s="20"/>
-      <c r="N311" s="28"/>
+      <c r="N311" s="30"/>
     </row>
     <row r="312" spans="1:14">
       <c r="A312" s="11"/>
@@ -9569,10 +9509,9 @@
       <c r="K312" s="19"/>
       <c r="L312" s="20"/>
       <c r="M312" s="20"/>
-      <c r="N312" s="28"/>
+      <c r="N312" s="30"/>
     </row>
     <row r="313" spans="1:14">
-      <c r="A313" s="11"/>
       <c r="B313" s="20"/>
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
@@ -9584,10 +9523,9 @@
       <c r="K313" s="19"/>
       <c r="L313" s="20"/>
       <c r="M313" s="20"/>
-      <c r="N313" s="28"/>
+      <c r="N313" s="30"/>
     </row>
     <row r="314" spans="1:14">
-      <c r="A314" s="11"/>
       <c r="B314" s="20"/>
       <c r="C314" s="5"/>
       <c r="D314" s="5"/>
@@ -9602,7 +9540,6 @@
       <c r="N314" s="30"/>
     </row>
     <row r="315" spans="1:14">
-      <c r="A315" s="11"/>
       <c r="B315" s="20"/>
       <c r="C315" s="5"/>
       <c r="D315" s="5"/>
@@ -9740,7 +9677,7 @@
       <c r="K324" s="19"/>
       <c r="L324" s="20"/>
       <c r="M324" s="20"/>
-      <c r="N324" s="30"/>
+      <c r="N324" s="26"/>
     </row>
     <row r="325" spans="2:14">
       <c r="B325" s="20"/>
@@ -9754,7 +9691,7 @@
       <c r="K325" s="19"/>
       <c r="L325" s="20"/>
       <c r="M325" s="20"/>
-      <c r="N325" s="30"/>
+      <c r="N325" s="26"/>
     </row>
     <row r="326" spans="2:14">
       <c r="B326" s="20"/>
@@ -9768,7 +9705,7 @@
       <c r="K326" s="19"/>
       <c r="L326" s="20"/>
       <c r="M326" s="20"/>
-      <c r="N326" s="30"/>
+      <c r="N326" s="26"/>
     </row>
     <row r="327" spans="2:14">
       <c r="B327" s="20"/>
@@ -9785,46 +9722,43 @@
       <c r="N327" s="26"/>
     </row>
     <row r="328" spans="2:14">
-      <c r="B328" s="20"/>
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
       <c r="F328" s="5"/>
       <c r="G328" s="5"/>
       <c r="H328" s="5"/>
-      <c r="I328" s="23"/>
+      <c r="I328" s="18"/>
       <c r="J328" s="19"/>
       <c r="K328" s="19"/>
       <c r="L328" s="20"/>
       <c r="M328" s="20"/>
-      <c r="N328" s="26"/>
+      <c r="N328" s="20"/>
     </row>
     <row r="329" spans="2:14">
-      <c r="B329" s="20"/>
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
       <c r="F329" s="5"/>
       <c r="G329" s="5"/>
       <c r="H329" s="5"/>
-      <c r="I329" s="23"/>
+      <c r="I329" s="18"/>
       <c r="J329" s="19"/>
       <c r="K329" s="19"/>
       <c r="L329" s="20"/>
       <c r="M329" s="20"/>
-      <c r="N329" s="26"/>
+      <c r="N329" s="20"/>
     </row>
     <row r="330" spans="2:14">
-      <c r="B330" s="20"/>
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
       <c r="F330" s="5"/>
       <c r="G330" s="5"/>
       <c r="H330" s="5"/>
-      <c r="I330" s="23"/>
+      <c r="I330" s="18"/>
       <c r="J330" s="19"/>
       <c r="K330" s="19"/>
       <c r="L330" s="20"/>
       <c r="M330" s="20"/>
-      <c r="N330" s="26"/>
+      <c r="N330" s="20"/>
     </row>
     <row r="331" spans="2:14">
       <c r="C331" s="5"/>
@@ -11216,45 +11150,6 @@
       <c r="L437" s="20"/>
       <c r="M437" s="20"/>
       <c r="N437" s="20"/>
-    </row>
-    <row r="438" spans="3:14">
-      <c r="C438" s="5"/>
-      <c r="D438" s="5"/>
-      <c r="F438" s="5"/>
-      <c r="G438" s="5"/>
-      <c r="H438" s="5"/>
-      <c r="I438" s="18"/>
-      <c r="J438" s="19"/>
-      <c r="K438" s="19"/>
-      <c r="L438" s="20"/>
-      <c r="M438" s="20"/>
-      <c r="N438" s="20"/>
-    </row>
-    <row r="439" spans="3:14">
-      <c r="C439" s="5"/>
-      <c r="D439" s="5"/>
-      <c r="F439" s="5"/>
-      <c r="G439" s="5"/>
-      <c r="H439" s="5"/>
-      <c r="I439" s="18"/>
-      <c r="J439" s="19"/>
-      <c r="K439" s="19"/>
-      <c r="L439" s="20"/>
-      <c r="M439" s="20"/>
-      <c r="N439" s="20"/>
-    </row>
-    <row r="440" spans="3:14">
-      <c r="C440" s="5"/>
-      <c r="D440" s="5"/>
-      <c r="F440" s="5"/>
-      <c r="G440" s="5"/>
-      <c r="H440" s="5"/>
-      <c r="I440" s="18"/>
-      <c r="J440" s="19"/>
-      <c r="K440" s="19"/>
-      <c r="L440" s="20"/>
-      <c r="M440" s="20"/>
-      <c r="N440" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -11313,14 +11208,14 @@
     <hyperlink ref="N48" r:id="rId31" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.apsusc.2015.06.144" xr:uid="{704921CC-C8E2-464E-BC7A-DC08544C776F}"/>
     <hyperlink ref="N50" r:id="rId32" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.apsusc.2015.06.144" xr:uid="{00D93C46-189D-C846-93F4-F22C51020844}"/>
     <hyperlink ref="N51" r:id="rId33" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.apsusc.2015.06.144" xr:uid="{DC4CA17A-631B-6A40-AF61-57AA255452FB}"/>
-    <hyperlink ref="N127" r:id="rId34" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{40D0BFA4-26A7-AB49-B4AC-7F69BBE04DBA}"/>
-    <hyperlink ref="N128" r:id="rId35" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{F035D85F-3E3C-944D-B994-D6DF456BA947}"/>
-    <hyperlink ref="N129" r:id="rId36" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{D15E9247-F3FB-DA4D-BA2F-90D1BA171F67}"/>
-    <hyperlink ref="N131" r:id="rId37" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{F489F2C3-9FCB-7749-A957-209996C88122}"/>
-    <hyperlink ref="N133" r:id="rId38" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{240582A7-EB47-7E49-8BFC-1E20D9179D29}"/>
-    <hyperlink ref="N130" r:id="rId39" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{4277758D-7704-1043-B0F7-DFE0405B8FC0}"/>
-    <hyperlink ref="N132" r:id="rId40" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{78AD1C2D-7233-1643-9FA7-DAC9FECDF47D}"/>
-    <hyperlink ref="N134" r:id="rId41" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{5B661B0E-1463-7F48-AA96-8F92169B7B63}"/>
+    <hyperlink ref="N124" r:id="rId34" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{40D0BFA4-26A7-AB49-B4AC-7F69BBE04DBA}"/>
+    <hyperlink ref="N125" r:id="rId35" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{F035D85F-3E3C-944D-B994-D6DF456BA947}"/>
+    <hyperlink ref="N126" r:id="rId36" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{D15E9247-F3FB-DA4D-BA2F-90D1BA171F67}"/>
+    <hyperlink ref="N128" r:id="rId37" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{F489F2C3-9FCB-7749-A957-209996C88122}"/>
+    <hyperlink ref="N130" r:id="rId38" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{240582A7-EB47-7E49-8BFC-1E20D9179D29}"/>
+    <hyperlink ref="N127" r:id="rId39" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{4277758D-7704-1043-B0F7-DFE0405B8FC0}"/>
+    <hyperlink ref="N129" r:id="rId40" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{78AD1C2D-7233-1643-9FA7-DAC9FECDF47D}"/>
+    <hyperlink ref="N131" r:id="rId41" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{5B661B0E-1463-7F48-AA96-8F92169B7B63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId42"/>

--- a/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
+++ b/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-guest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182CE799-4F2A-7943-AA2B-8F33D400796F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1369CAA-65E9-AE41-8A4B-369CAB8F861A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9300" yWindow="760" windowWidth="34560" windowHeight="20140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="239">
   <si>
     <t>Name:</t>
   </si>
@@ -348,9 +348,6 @@
     <t>BCC</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>AC</t>
   </si>
   <si>
@@ -373,9 +370,6 @@
   </si>
   <si>
     <t>T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016/j.apsusc.2015.06.144 </t>
   </si>
   <si>
     <t>T5</t>
@@ -756,6 +750,21 @@
   </si>
   <si>
     <t>BCC+HCP+laves</t>
+  </si>
+  <si>
+    <t>BCC+amorphous</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>magnetron sputtering deposition</t>
+  </si>
+  <si>
+    <t>from an earlier study by the same authors</t>
+  </si>
+  <si>
+    <t>nanohardness</t>
   </si>
 </sst>
 </file>
@@ -1335,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T411"/>
+  <dimension ref="A1:T407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1372,14 +1381,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D2" s="42" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="42"/>
       <c r="F2" s="40" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G2" s="41"/>
       <c r="H2" s="41"/>
@@ -1396,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
@@ -1457,7 +1466,7 @@
         <v>30</v>
       </c>
       <c r="M5" s="39" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N5" s="39" t="s">
         <v>46</v>
@@ -1645,10 +1654,10 @@
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="23">
@@ -1663,10 +1672,10 @@
         <v>47</v>
       </c>
       <c r="M10" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="N10" s="25" t="s">
         <v>109</v>
-      </c>
-      <c r="N10" s="25" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1681,10 +1690,10 @@
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="23">
@@ -1699,10 +1708,10 @@
         <v>47</v>
       </c>
       <c r="M11" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="N11" s="25" t="s">
         <v>109</v>
-      </c>
-      <c r="N11" s="25" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1717,10 +1726,10 @@
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="23">
@@ -1734,10 +1743,10 @@
         <v>47</v>
       </c>
       <c r="M12" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="N12" s="25" t="s">
         <v>109</v>
-      </c>
-      <c r="N12" s="25" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1752,10 +1761,10 @@
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="23">
@@ -1769,10 +1778,10 @@
         <v>47</v>
       </c>
       <c r="M13" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="N13" s="25" t="s">
         <v>109</v>
-      </c>
-      <c r="N13" s="25" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1787,10 +1796,10 @@
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="23">
@@ -1804,10 +1813,10 @@
         <v>47</v>
       </c>
       <c r="M14" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="N14" s="25" t="s">
         <v>109</v>
-      </c>
-      <c r="N14" s="25" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1822,10 +1831,10 @@
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="23">
@@ -1840,639 +1849,681 @@
       </c>
       <c r="M15" s="20"/>
       <c r="N15" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="3">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="30" t="s">
-        <v>161</v>
+        <v>140</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>238</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="23">
-        <v>873</v>
+        <v>298</v>
       </c>
       <c r="J16" s="19">
-        <v>19000000000</v>
+        <v>17100000000</v>
       </c>
       <c r="K16" s="19"/>
-      <c r="L16" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M16" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="N16" s="25" t="s">
-        <v>113</v>
+      <c r="L16" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="N16" s="33" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="3">
-        <v>34</v>
-      </c>
-      <c r="B17" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="30" t="s">
-        <v>161</v>
+      <c r="C17" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>238</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="23">
-        <v>873</v>
+        <v>298</v>
       </c>
       <c r="J17" s="19">
-        <v>18700000000</v>
+        <v>15800000000</v>
       </c>
       <c r="K17" s="19"/>
-      <c r="L17" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M17" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>113</v>
+      <c r="L17" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="N17" s="33" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="3">
-        <v>35</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>67</v>
+        <v>39</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>141</v>
       </c>
       <c r="C18" s="20"/>
-      <c r="D18" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="30" t="s">
-        <v>161</v>
+      <c r="D18" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>238</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="23">
-        <v>873</v>
+        <v>298</v>
       </c>
       <c r="J18" s="19">
-        <v>13500000000</v>
+        <v>14200000000</v>
       </c>
       <c r="K18" s="19"/>
-      <c r="L18" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M18" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>113</v>
+      <c r="L18" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="N18" s="33" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="3">
-        <v>36</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>68</v>
+        <v>40</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>142</v>
       </c>
       <c r="C19" s="20"/>
-      <c r="D19" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="30" t="s">
-        <v>161</v>
+      <c r="D19" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>238</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H19" s="22"/>
       <c r="I19" s="23">
-        <v>873</v>
+        <v>298</v>
       </c>
       <c r="J19" s="19">
-        <v>18400000000</v>
+        <v>12600000000</v>
       </c>
       <c r="K19" s="19"/>
-      <c r="L19" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M19" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>113</v>
+      <c r="L19" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="N19" s="33" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="3">
-        <v>37</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>142</v>
+        <v>41</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>67</v>
       </c>
       <c r="C20" s="20"/>
-      <c r="D20" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="30" t="s">
-        <v>161</v>
+      <c r="D20" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>238</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="23">
         <v>298</v>
       </c>
       <c r="J20" s="19">
-        <v>17100000000</v>
+        <v>5400000000</v>
       </c>
       <c r="K20" s="19"/>
       <c r="L20" s="21" t="s">
         <v>47</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N20" s="33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="3">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C21" s="20"/>
-      <c r="D21" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="30" t="s">
-        <v>161</v>
+      <c r="D21" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>238</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H21" s="22"/>
       <c r="I21" s="23">
         <v>298</v>
       </c>
       <c r="J21" s="19">
-        <v>15800000000</v>
+        <v>12300000000</v>
       </c>
       <c r="K21" s="19"/>
       <c r="L21" s="21" t="s">
         <v>47</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N21" s="33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="3">
-        <v>39</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>143</v>
+        <v>43</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="C22" s="20"/>
-      <c r="D22" s="32" t="s">
-        <v>105</v>
-      </c>
       <c r="E22" s="20"/>
       <c r="F22" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="23">
         <v>298</v>
       </c>
       <c r="J22" s="19">
-        <v>14200000000</v>
+        <v>7576000000</v>
       </c>
       <c r="K22" s="19"/>
-      <c r="L22" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="M22" s="21" t="s">
+      <c r="L22" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="N22" s="33" t="s">
-        <v>145</v>
+      <c r="N22" s="26" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="3">
-        <v>40</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="20"/>
+        <v>44</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>221</v>
+      </c>
       <c r="F23" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="23">
         <v>298</v>
       </c>
       <c r="J23" s="19">
-        <v>12600000000</v>
-      </c>
-      <c r="K23" s="19"/>
-      <c r="L23" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="M23" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="N23" s="33" t="s">
-        <v>145</v>
+        <v>1900000000</v>
+      </c>
+      <c r="K23" s="19">
+        <v>30000000</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="N23" s="25" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="3">
-        <v>41</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="20"/>
+        <v>45</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>221</v>
+      </c>
       <c r="F24" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="23">
         <v>298</v>
       </c>
       <c r="J24" s="19">
-        <v>5400000000</v>
-      </c>
-      <c r="K24" s="19"/>
-      <c r="L24" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="M24" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="N24" s="33" t="s">
-        <v>145</v>
+        <v>2100000000</v>
+      </c>
+      <c r="K24" s="19">
+        <v>20000000</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="3">
-        <v>42</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="20"/>
+        <v>46</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>221</v>
+      </c>
       <c r="F25" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="23">
         <v>298</v>
       </c>
       <c r="J25" s="19">
-        <v>12300000000</v>
-      </c>
-      <c r="K25" s="19"/>
-      <c r="L25" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="M25" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="N25" s="33" t="s">
-        <v>145</v>
+        <v>3400000000</v>
+      </c>
+      <c r="K25" s="19">
+        <v>40000000</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="3">
-        <v>43</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="E26" s="20"/>
+        <v>47</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>221</v>
+      </c>
       <c r="F26" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="23">
         <v>298</v>
       </c>
       <c r="J26" s="19">
-        <v>7576000000</v>
-      </c>
-      <c r="K26" s="19"/>
+        <v>5200000000</v>
+      </c>
+      <c r="K26" s="19">
+        <v>20000000</v>
+      </c>
       <c r="L26" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="N26" s="26" t="s">
-        <v>141</v>
+        <v>108</v>
+      </c>
+      <c r="N26" s="47" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="3">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E27" s="46" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="23">
         <v>298</v>
       </c>
       <c r="J27" s="19">
-        <v>1900000000</v>
+        <v>7800000000</v>
       </c>
       <c r="K27" s="19">
-        <v>30000000</v>
+        <v>10000000</v>
       </c>
       <c r="L27" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M27" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="N27" s="25" t="s">
-        <v>115</v>
+        <v>108</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="3">
-        <v>45</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>149</v>
+        <v>49</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>226</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>103</v>
+        <v>230</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="E28" s="46" t="s">
-        <v>223</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="E28" s="20"/>
       <c r="F28" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="23">
         <v>298</v>
       </c>
       <c r="J28" s="19">
-        <v>2100000000</v>
+        <f>727*9807000</f>
+        <v>7129689000</v>
       </c>
       <c r="K28" s="19">
-        <v>20000000</v>
+        <f>18*9807000</f>
+        <v>176526000</v>
       </c>
       <c r="L28" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
+      </c>
+      <c r="N28" s="25" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="3">
-        <v>46</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>150</v>
+        <v>50</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>227</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="E29" s="46" t="s">
-        <v>223</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="E29" s="20"/>
       <c r="F29" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="23">
         <v>298</v>
       </c>
       <c r="J29" s="19">
-        <v>3400000000</v>
+        <f>501*9807000</f>
+        <v>4913307000</v>
       </c>
       <c r="K29" s="19">
-        <v>40000000</v>
+        <f>31*9807000</f>
+        <v>304017000</v>
       </c>
       <c r="L29" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="3">
-        <v>47</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>151</v>
+        <v>51</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>228</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="E30" s="46" t="s">
-        <v>223</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="E30" s="20"/>
       <c r="F30" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="23">
         <v>298</v>
       </c>
       <c r="J30" s="19">
-        <v>5200000000</v>
+        <f>518*9807000</f>
+        <v>5080026000</v>
       </c>
       <c r="K30" s="19">
-        <v>20000000</v>
+        <f>15*9807000</f>
+        <v>147105000</v>
       </c>
       <c r="L30" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M30" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N30" s="47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="3">
-        <v>48</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>152</v>
+        <v>52</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>229</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="E31" s="46" t="s">
-        <v>223</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="E31" s="20"/>
       <c r="F31" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="23">
         <v>298</v>
       </c>
       <c r="J31" s="19">
-        <v>7800000000</v>
+        <f>612*9807000</f>
+        <v>6001884000</v>
       </c>
       <c r="K31" s="19">
-        <v>10000000</v>
+        <f>13*9807000</f>
+        <v>127491000</v>
       </c>
       <c r="L31" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M31" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="3">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="E32" s="20"/>
+        <v>224</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>225</v>
+      </c>
       <c r="F32" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H32" s="22"/>
       <c r="I32" s="23">
         <v>298</v>
       </c>
       <c r="J32" s="19">
-        <f>727*9807000</f>
-        <v>7129689000</v>
+        <f>677*9807000</f>
+        <v>6639339000</v>
       </c>
       <c r="K32" s="19">
         <f>18*9807000</f>
@@ -2482,639 +2533,626 @@
         <v>47</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="N32" s="25" t="s">
-        <v>116</v>
+        <v>108</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="3">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C33" s="46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="E33" s="20"/>
+        <v>224</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>225</v>
+      </c>
       <c r="F33" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H33" s="22"/>
       <c r="I33" s="23">
         <v>298</v>
       </c>
       <c r="J33" s="19">
-        <f>501*9807000</f>
-        <v>4913307000</v>
+        <f>531*9807000</f>
+        <v>5207517000</v>
       </c>
       <c r="K33" s="19">
-        <f>31*9807000</f>
-        <v>304017000</v>
+        <f>26*9807000</f>
+        <v>254982000</v>
       </c>
       <c r="L33" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
+      </c>
+      <c r="N33" s="47" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="3">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C34" s="46" t="s">
         <v>233</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="E34" s="20"/>
+        <v>224</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>225</v>
+      </c>
       <c r="F34" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H34" s="22"/>
       <c r="I34" s="23">
         <v>298</v>
       </c>
       <c r="J34" s="19">
-        <f>518*9807000</f>
-        <v>5080026000</v>
+        <f>504*9807000</f>
+        <v>4942728000</v>
       </c>
       <c r="K34" s="19">
-        <f>15*9807000</f>
-        <v>147105000</v>
+        <f>29*9807000</f>
+        <v>284403000</v>
       </c>
       <c r="L34" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M34" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="N34" s="47" t="s">
-        <v>116</v>
+        <v>108</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="3">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B35" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="C35" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="C35" s="46" t="s">
-        <v>232</v>
-      </c>
       <c r="D35" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="E35" s="20"/>
+        <v>224</v>
+      </c>
+      <c r="E35" s="46" t="s">
+        <v>225</v>
+      </c>
       <c r="F35" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H35" s="22"/>
       <c r="I35" s="23">
         <v>298</v>
       </c>
       <c r="J35" s="19">
-        <f>612*9807000</f>
-        <v>6001884000</v>
+        <f>587*9807000</f>
+        <v>5756709000</v>
       </c>
       <c r="K35" s="19">
-        <f>13*9807000</f>
-        <v>127491000</v>
+        <f>31*9807000</f>
+        <v>304017000</v>
       </c>
       <c r="L35" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="3">
-        <v>53</v>
-      </c>
-      <c r="B36" s="46" t="s">
-        <v>228</v>
-      </c>
-      <c r="C36" s="46" t="s">
-        <v>232</v>
-      </c>
-      <c r="D36" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E36" s="46" t="s">
-        <v>227</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="20"/>
       <c r="F36" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H36" s="22"/>
-      <c r="I36" s="23">
-        <v>298</v>
-      </c>
+      <c r="I36" s="23"/>
       <c r="J36" s="19">
-        <f>677*9807000</f>
-        <v>6639339000</v>
-      </c>
-      <c r="K36" s="19">
-        <f>18*9807000</f>
-        <v>176526000</v>
-      </c>
+        <f>458*9807000</f>
+        <v>4491606000</v>
+      </c>
+      <c r="K36" s="19"/>
       <c r="L36" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M36" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="N36" s="25" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="3">
-        <v>54</v>
-      </c>
-      <c r="B37" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="C37" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="D37" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E37" s="46" t="s">
-        <v>227</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="20"/>
       <c r="F37" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H37" s="22"/>
-      <c r="I37" s="23">
-        <v>298</v>
-      </c>
+      <c r="I37" s="23"/>
       <c r="J37" s="19">
-        <f>531*9807000</f>
-        <v>5207517000</v>
-      </c>
-      <c r="K37" s="19">
-        <f>26*9807000</f>
-        <v>254982000</v>
-      </c>
+        <f>431*9807000</f>
+        <v>4226817000</v>
+      </c>
+      <c r="K37" s="19"/>
       <c r="L37" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="N37" s="47" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="3">
-        <v>55</v>
-      </c>
-      <c r="B38" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="C38" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E38" s="46" t="s">
-        <v>227</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="20"/>
       <c r="F38" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H38" s="22"/>
-      <c r="I38" s="23">
-        <v>298</v>
-      </c>
+      <c r="I38" s="23"/>
       <c r="J38" s="19">
-        <f>504*9807000</f>
-        <v>4942728000</v>
-      </c>
-      <c r="K38" s="19">
-        <f>29*9807000</f>
-        <v>284403000</v>
-      </c>
+        <f>448*9807000</f>
+        <v>4393536000</v>
+      </c>
+      <c r="K38" s="19"/>
       <c r="L38" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M38" s="20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="3">
-        <v>56</v>
-      </c>
-      <c r="B39" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="C39" s="46" t="s">
-        <v>233</v>
-      </c>
-      <c r="D39" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E39" s="46" t="s">
-        <v>227</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="20"/>
       <c r="F39" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H39" s="22"/>
-      <c r="I39" s="23">
-        <v>298</v>
-      </c>
+      <c r="I39" s="23"/>
       <c r="J39" s="19">
-        <f>587*9807000</f>
-        <v>5756709000</v>
-      </c>
-      <c r="K39" s="19">
-        <f>31*9807000</f>
-        <v>304017000</v>
-      </c>
+        <f>270*9807000</f>
+        <v>2647890000</v>
+      </c>
+      <c r="K39" s="19"/>
       <c r="L39" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="3">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>103</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H40" s="22"/>
       <c r="I40" s="23"/>
       <c r="J40" s="19">
-        <f>458*9807000</f>
-        <v>4491606000</v>
+        <f>495*9807000</f>
+        <v>4854465000</v>
       </c>
       <c r="K40" s="19"/>
       <c r="L40" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M40" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="N40" s="25" t="s">
-        <v>117</v>
+        <v>111</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="3">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>103</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H41" s="22"/>
       <c r="I41" s="23"/>
       <c r="J41" s="19">
-        <f>431*9807000</f>
-        <v>4226817000</v>
+        <f>539*9807000</f>
+        <v>5285973000</v>
       </c>
       <c r="K41" s="19"/>
       <c r="L41" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M41" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="3">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>103</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H42" s="22"/>
       <c r="I42" s="23"/>
       <c r="J42" s="19">
-        <f>448*9807000</f>
-        <v>4393536000</v>
+        <f>630*9807000</f>
+        <v>6178410000</v>
       </c>
       <c r="K42" s="19"/>
       <c r="L42" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M42" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="3">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>103</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H43" s="22"/>
       <c r="I43" s="23"/>
       <c r="J43" s="19">
-        <f>270*9807000</f>
-        <v>2647890000</v>
+        <f>509*9807000</f>
+        <v>4991763000</v>
       </c>
       <c r="K43" s="19"/>
       <c r="L43" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M43" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="3">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E44" s="20"/>
+      <c r="D44" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="46" t="s">
+        <v>185</v>
+      </c>
       <c r="F44" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H44" s="22"/>
-      <c r="I44" s="23"/>
+      <c r="I44" s="23">
+        <v>298</v>
+      </c>
       <c r="J44" s="19">
-        <f>495*9807000</f>
-        <v>4854465000</v>
+        <f>410*9807000</f>
+        <v>4020870000</v>
       </c>
       <c r="K44" s="19"/>
       <c r="L44" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M44" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="N44" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="N44" s="25" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="3">
-        <v>62</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="B45" s="46" t="s">
+        <v>182</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="20"/>
+      <c r="D45" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="E45" s="46" t="s">
+        <v>185</v>
+      </c>
       <c r="F45" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H45" s="22"/>
-      <c r="I45" s="23"/>
+      <c r="I45" s="23">
+        <v>298</v>
+      </c>
       <c r="J45" s="19">
-        <f>539*9807000</f>
-        <v>5285973000</v>
+        <f>383*9807000</f>
+        <v>3756081000</v>
       </c>
       <c r="K45" s="19"/>
       <c r="L45" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M45" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="N45" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="N45" s="25" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="3">
-        <v>63</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="B46" s="46" t="s">
+        <v>183</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" s="20"/>
+      <c r="D46" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" s="46" t="s">
+        <v>185</v>
+      </c>
       <c r="F46" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H46" s="22"/>
-      <c r="I46" s="23"/>
+      <c r="I46" s="23">
+        <v>298</v>
+      </c>
       <c r="J46" s="19">
-        <f>630*9807000</f>
-        <v>6178410000</v>
+        <f>530*9807000</f>
+        <v>5197710000</v>
       </c>
       <c r="K46" s="19"/>
       <c r="L46" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M46" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="N46" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="N46" s="25" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="3">
-        <v>64</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="B47" s="46" t="s">
+        <v>184</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="20"/>
+      <c r="D47" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="E47" s="46" t="s">
+        <v>185</v>
+      </c>
       <c r="F47" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H47" s="22"/>
-      <c r="I47" s="23"/>
+      <c r="I47" s="23">
+        <v>298</v>
+      </c>
       <c r="J47" s="19">
-        <f>509*9807000</f>
-        <v>4991763000</v>
+        <v>609</v>
       </c>
       <c r="K47" s="19"/>
       <c r="L47" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M47" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="N47" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="N47" s="25" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="3">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D48" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="E48" s="46" t="s">
-        <v>187</v>
-      </c>
+      <c r="E48" s="20"/>
       <c r="F48" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H48" s="22"/>
       <c r="I48" s="23">
         <v>298</v>
       </c>
       <c r="J48" s="19">
-        <f>410*9807000</f>
-        <v>4020870000</v>
+        <v>1320000000</v>
       </c>
       <c r="K48" s="19"/>
       <c r="L48" s="20" t="s">
@@ -3129,33 +3167,27 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="3">
-        <v>72</v>
-      </c>
-      <c r="B49" s="46" t="s">
-        <v>184</v>
+        <v>76</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="C49" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="E49" s="46" t="s">
-        <v>187</v>
-      </c>
+      <c r="E49" s="20"/>
       <c r="F49" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H49" s="22"/>
       <c r="I49" s="23">
         <v>298</v>
       </c>
       <c r="J49" s="19">
-        <f>383*9807000</f>
-        <v>3756081000</v>
+        <v>873000000</v>
       </c>
       <c r="K49" s="19"/>
       <c r="L49" s="20" t="s">
@@ -3170,33 +3202,27 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="3">
-        <v>73</v>
-      </c>
-      <c r="B50" s="46" t="s">
-        <v>185</v>
+        <v>77</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>81</v>
       </c>
       <c r="C50" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="E50" s="46" t="s">
-        <v>187</v>
-      </c>
+      <c r="E50" s="20"/>
       <c r="F50" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H50" s="22"/>
       <c r="I50" s="23">
         <v>298</v>
       </c>
       <c r="J50" s="19">
-        <f>530*9807000</f>
-        <v>5197710000</v>
+        <v>970000000</v>
       </c>
       <c r="K50" s="19"/>
       <c r="L50" s="20" t="s">
@@ -3211,32 +3237,27 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="3">
-        <v>74</v>
-      </c>
-      <c r="B51" s="46" t="s">
-        <v>186</v>
+        <v>78</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>82</v>
       </c>
       <c r="C51" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="E51" s="46" t="s">
-        <v>187</v>
-      </c>
+      <c r="E51" s="20"/>
       <c r="F51" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H51" s="22"/>
       <c r="I51" s="23">
         <v>298</v>
       </c>
       <c r="J51" s="19">
-        <v>609</v>
+        <v>628000000</v>
       </c>
       <c r="K51" s="19"/>
       <c r="L51" s="20" t="s">
@@ -3251,167 +3272,173 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="3">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C52" s="20" t="s">
         <v>103</v>
       </c>
       <c r="E52" s="20"/>
       <c r="F52" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H52" s="22"/>
       <c r="I52" s="23">
         <v>298</v>
       </c>
       <c r="J52" s="19">
-        <v>1320000000</v>
+        <v>3430000000</v>
       </c>
       <c r="K52" s="19"/>
       <c r="L52" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M52" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N52" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="3">
-        <v>76</v>
-      </c>
-      <c r="B53" s="20" t="s">
         <v>80</v>
+      </c>
+      <c r="B53" s="46" t="s">
+        <v>161</v>
       </c>
       <c r="C53" s="20" t="s">
         <v>103</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H53" s="22"/>
       <c r="I53" s="23">
         <v>298</v>
       </c>
       <c r="J53" s="19">
-        <v>873000000</v>
+        <v>3113000000</v>
       </c>
       <c r="K53" s="19"/>
       <c r="L53" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M53" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N53" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="3">
-        <v>77</v>
-      </c>
-      <c r="B54" s="20" t="s">
         <v>81</v>
+      </c>
+      <c r="B54" s="46" t="s">
+        <v>162</v>
       </c>
       <c r="C54" s="20" t="s">
         <v>103</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H54" s="22"/>
       <c r="I54" s="23">
         <v>298</v>
       </c>
       <c r="J54" s="19">
-        <v>970000000</v>
+        <v>4830000000</v>
       </c>
       <c r="K54" s="19"/>
       <c r="L54" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N54" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="3">
-        <v>78</v>
-      </c>
-      <c r="B55" s="20" t="s">
         <v>82</v>
+      </c>
+      <c r="B55" s="46" t="s">
+        <v>163</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>103</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H55" s="22"/>
       <c r="I55" s="23">
         <v>298</v>
       </c>
       <c r="J55" s="19">
-        <v>628000000</v>
+        <v>4380000000</v>
       </c>
       <c r="K55" s="19"/>
       <c r="L55" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M55" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N55" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="3">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C56" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E56" s="20"/>
+      <c r="D56" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="E56" s="46" t="s">
+        <v>177</v>
+      </c>
       <c r="F56" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H56" s="22"/>
       <c r="I56" s="23">
         <v>298</v>
       </c>
       <c r="J56" s="19">
-        <v>3430000000</v>
+        <f>103*9807000</f>
+        <v>1010121000</v>
       </c>
       <c r="K56" s="19"/>
       <c r="L56" s="20" t="s">
@@ -3426,27 +3453,30 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="3">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B57" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E57" s="20"/>
+        <v>178</v>
+      </c>
+      <c r="D57" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="E57" s="46" t="s">
+        <v>177</v>
+      </c>
       <c r="F57" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="23">
         <v>298</v>
       </c>
       <c r="J57" s="19">
-        <v>3113000000</v>
+        <f>204*9807000</f>
+        <v>2000628000</v>
       </c>
       <c r="K57" s="19"/>
       <c r="L57" s="20" t="s">
@@ -3461,27 +3491,30 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="3">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B58" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E58" s="20"/>
+        <v>179</v>
+      </c>
+      <c r="D58" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="E58" s="46" t="s">
+        <v>177</v>
+      </c>
       <c r="F58" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H58" s="22"/>
       <c r="I58" s="23">
         <v>298</v>
       </c>
       <c r="J58" s="19">
-        <v>4830000000</v>
+        <f>244*9807000</f>
+        <v>2392908000</v>
       </c>
       <c r="K58" s="19"/>
       <c r="L58" s="20" t="s">
@@ -3496,1053 +3529,1049 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="3">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B59" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E59" s="20"/>
+      <c r="E59" s="48" t="s">
+        <v>166</v>
+      </c>
       <c r="F59" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H59" s="22"/>
-      <c r="I59" s="23">
+      <c r="I59" s="3">
         <v>298</v>
       </c>
       <c r="J59" s="19">
-        <v>4380000000</v>
+        <v>1910000000</v>
       </c>
       <c r="K59" s="19"/>
       <c r="L59" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M59" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="N59" s="25" t="s">
-        <v>121</v>
+        <v>118</v>
+      </c>
+      <c r="N59" s="27" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="3">
-        <v>83</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D60" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="E60" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="E60" s="46" t="s">
-        <v>179</v>
-      </c>
       <c r="F60" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H60" s="22"/>
-      <c r="I60" s="23">
+      <c r="I60" s="3">
         <v>298</v>
       </c>
       <c r="J60" s="19">
-        <f>103*9807000</f>
-        <v>1010121000</v>
+        <v>1890000000</v>
       </c>
       <c r="K60" s="19"/>
       <c r="L60" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M60" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="N60" s="27" t="s">
         <v>122</v>
-      </c>
-      <c r="N60" s="25" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="3">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B61" s="46" t="s">
-        <v>180</v>
+        <v>164</v>
+      </c>
+      <c r="C61" s="47" t="s">
+        <v>103</v>
       </c>
       <c r="D61" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="E61" s="46" t="s">
-        <v>179</v>
+        <v>165</v>
+      </c>
+      <c r="E61" s="48" t="s">
+        <v>168</v>
       </c>
       <c r="F61" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H61" s="22"/>
-      <c r="I61" s="23">
+      <c r="I61" s="3">
         <v>298</v>
       </c>
       <c r="J61" s="19">
-        <f>204*9807000</f>
-        <v>2000628000</v>
+        <v>1840000000</v>
       </c>
       <c r="K61" s="19"/>
       <c r="L61" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M61" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="N61" s="27" t="s">
         <v>122</v>
-      </c>
-      <c r="N61" s="25" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="3">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B62" s="46" t="s">
-        <v>181</v>
+        <v>164</v>
+      </c>
+      <c r="C62" s="47" t="s">
+        <v>103</v>
       </c>
       <c r="D62" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="E62" s="46" t="s">
-        <v>179</v>
+        <v>165</v>
+      </c>
+      <c r="E62" s="48" t="s">
+        <v>169</v>
       </c>
       <c r="F62" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H62" s="22"/>
-      <c r="I62" s="23">
+      <c r="I62" s="3">
         <v>298</v>
       </c>
       <c r="J62" s="19">
-        <f>244*9807000</f>
-        <v>2392908000</v>
+        <v>1820000000</v>
       </c>
       <c r="K62" s="19"/>
       <c r="L62" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M62" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="N62" s="27" t="s">
         <v>122</v>
-      </c>
-      <c r="N62" s="25" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="3">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B63" s="46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C63" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D63" s="47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E63" s="48" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F63" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H63" s="22"/>
       <c r="I63" s="3">
         <v>298</v>
       </c>
       <c r="J63" s="19">
-        <v>1910000000</v>
+        <v>1850000000</v>
       </c>
       <c r="K63" s="19"/>
       <c r="L63" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M63" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N63" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="3">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B64" s="46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C64" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D64" s="47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E64" s="48" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F64" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H64" s="22"/>
       <c r="I64" s="3">
         <v>298</v>
       </c>
       <c r="J64" s="19">
-        <v>1890000000</v>
+        <v>1810000000</v>
       </c>
       <c r="K64" s="19"/>
       <c r="L64" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M64" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N64" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="3">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C65" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D65" s="47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E65" s="48" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F65" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H65" s="22"/>
       <c r="I65" s="3">
         <v>298</v>
       </c>
       <c r="J65" s="19">
-        <v>1840000000</v>
+        <v>1750000000</v>
       </c>
       <c r="K65" s="19"/>
       <c r="L65" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M65" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N65" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="3">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B66" s="46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C66" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D66" s="47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E66" s="48" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F66" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H66" s="22"/>
       <c r="I66" s="3">
         <v>298</v>
       </c>
       <c r="J66" s="19">
-        <v>1820000000</v>
+        <v>1920000000</v>
       </c>
       <c r="K66" s="19"/>
       <c r="L66" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M66" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N66" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="3">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B67" s="46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C67" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D67" s="47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E67" s="48" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F67" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H67" s="22"/>
       <c r="I67" s="3">
         <v>298</v>
       </c>
       <c r="J67" s="19">
-        <v>1850000000</v>
+        <v>1950000000</v>
       </c>
       <c r="K67" s="19"/>
       <c r="L67" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M67" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N67" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="3">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B68" s="46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C68" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D68" s="47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E68" s="48" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F68" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H68" s="22"/>
       <c r="I68" s="3">
         <v>298</v>
       </c>
       <c r="J68" s="19">
-        <v>1810000000</v>
+        <v>2040000000</v>
       </c>
       <c r="K68" s="19"/>
       <c r="L68" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M68" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N68" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="3">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B69" s="46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C69" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D69" s="47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E69" s="48" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F69" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H69" s="22"/>
       <c r="I69" s="3">
         <v>298</v>
       </c>
       <c r="J69" s="19">
-        <v>1750000000</v>
+        <v>1980000000</v>
       </c>
       <c r="K69" s="19"/>
       <c r="L69" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M69" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N69" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="3">
-        <v>93</v>
-      </c>
-      <c r="B70" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="C70" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D70" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="E70" s="48" t="s">
-        <v>175</v>
-      </c>
+      <c r="E70" s="20"/>
       <c r="F70" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H70" s="22"/>
-      <c r="I70" s="3">
-        <v>298</v>
-      </c>
+      <c r="I70" s="23"/>
       <c r="J70" s="19">
-        <v>1920000000</v>
+        <f>400*9807000</f>
+        <v>3922800000</v>
       </c>
       <c r="K70" s="19"/>
       <c r="L70" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M70" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="N70" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="N70" s="25" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="3">
-        <v>94</v>
-      </c>
-      <c r="B71" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="C71" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D71" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="E71" s="48" t="s">
-        <v>176</v>
-      </c>
+      <c r="E71" s="20"/>
       <c r="F71" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H71" s="22"/>
-      <c r="I71" s="3">
-        <v>298</v>
-      </c>
+      <c r="I71" s="23"/>
       <c r="J71" s="19">
-        <v>1950000000</v>
+        <f>490*9807000</f>
+        <v>4805430000</v>
       </c>
       <c r="K71" s="19"/>
       <c r="L71" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M71" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="N71" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="N71" s="25" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="3">
-        <v>95</v>
-      </c>
-      <c r="B72" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="C72" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D72" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="E72" s="48" t="s">
-        <v>177</v>
-      </c>
+      <c r="E72" s="20"/>
       <c r="F72" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H72" s="22"/>
-      <c r="I72" s="3">
-        <v>298</v>
-      </c>
+      <c r="I72" s="23"/>
       <c r="J72" s="19">
-        <v>2040000000</v>
+        <f>575*9807000</f>
+        <v>5639025000</v>
       </c>
       <c r="K72" s="19"/>
       <c r="L72" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M72" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="N72" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="N72" s="25" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="3">
-        <v>96</v>
-      </c>
-      <c r="B73" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="C73" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D73" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="E73" s="48" t="s">
-        <v>178</v>
-      </c>
+      <c r="E73" s="20"/>
       <c r="F73" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H73" s="22"/>
-      <c r="I73" s="3">
-        <v>298</v>
-      </c>
+      <c r="I73" s="23"/>
       <c r="J73" s="19">
-        <v>1980000000</v>
+        <f>600*9807000</f>
+        <v>5884200000</v>
       </c>
       <c r="K73" s="19"/>
       <c r="L73" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M73" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="N73" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="N73" s="25" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="3">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="D74" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="E74" s="20"/>
       <c r="F74" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H74" s="22"/>
       <c r="I74" s="23"/>
       <c r="J74" s="19">
-        <f>400*9807000</f>
-        <v>3922800000</v>
+        <f>443*9807000</f>
+        <v>4344501000</v>
       </c>
       <c r="K74" s="19"/>
       <c r="L74" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M74" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="N74" s="25" t="s">
         <v>125</v>
-      </c>
-      <c r="N74" s="25" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="3">
-        <v>98</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>84</v>
+        <v>102</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>151</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="D75" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="E75" s="20"/>
       <c r="F75" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G75" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H75" s="22"/>
       <c r="I75" s="23"/>
       <c r="J75" s="19">
-        <f>490*9807000</f>
-        <v>4805430000</v>
+        <f>504*9807000</f>
+        <v>4942728000</v>
       </c>
       <c r="K75" s="19"/>
       <c r="L75" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M75" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="N75" s="25" t="s">
         <v>125</v>
-      </c>
-      <c r="N75" s="25" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="3">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="D76" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="E76" s="20"/>
       <c r="F76" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G76" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H76" s="22"/>
       <c r="I76" s="23"/>
       <c r="J76" s="19">
-        <f>575*9807000</f>
-        <v>5639025000</v>
+        <f>298*9807000</f>
+        <v>2922486000</v>
       </c>
       <c r="K76" s="19"/>
       <c r="L76" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M76" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="N76" s="25" t="s">
         <v>125</v>
-      </c>
-      <c r="N76" s="25" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="3">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="D77" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="E77" s="20"/>
       <c r="F77" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H77" s="22"/>
       <c r="I77" s="23"/>
       <c r="J77" s="19">
-        <f>600*9807000</f>
-        <v>5884200000</v>
+        <f>493*9807000</f>
+        <v>4834851000</v>
       </c>
       <c r="K77" s="19"/>
       <c r="L77" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M77" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="N77" s="25" t="s">
         <v>125</v>
-      </c>
-      <c r="N77" s="25" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>103</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E78" s="20"/>
       <c r="F78" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H78" s="22"/>
       <c r="I78" s="23"/>
       <c r="J78" s="19">
-        <f>443*9807000</f>
-        <v>4344501000</v>
+        <f>447*9807000</f>
+        <v>4383729000</v>
       </c>
       <c r="K78" s="19"/>
       <c r="L78" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M78" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N78" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="3">
-        <v>102</v>
-      </c>
-      <c r="B79" s="30" t="s">
-        <v>153</v>
+        <v>106</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>103</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E79" s="20"/>
       <c r="F79" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H79" s="22"/>
       <c r="I79" s="23"/>
       <c r="J79" s="19">
-        <f>504*9807000</f>
-        <v>4942728000</v>
+        <f>454*9807000</f>
+        <v>4452378000</v>
       </c>
       <c r="K79" s="19"/>
       <c r="L79" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M79" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N79" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="3">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>103</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E80" s="20"/>
       <c r="F80" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G80" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H80" s="22"/>
       <c r="I80" s="23"/>
       <c r="J80" s="19">
-        <f>298*9807000</f>
-        <v>2922486000</v>
+        <f>535*9807000</f>
+        <v>5246745000</v>
       </c>
       <c r="K80" s="19"/>
       <c r="L80" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M80" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N80" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="3">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>103</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E81" s="20"/>
       <c r="F81" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G81" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H81" s="22"/>
       <c r="I81" s="23"/>
       <c r="J81" s="19">
-        <f>493*9807000</f>
-        <v>4834851000</v>
+        <f>705*9807000</f>
+        <v>6913935000</v>
       </c>
       <c r="K81" s="19"/>
       <c r="L81" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M81" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N81" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>103</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E82" s="20"/>
       <c r="F82" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G82" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H82" s="22"/>
       <c r="I82" s="23"/>
       <c r="J82" s="19">
-        <f>447*9807000</f>
-        <v>4383729000</v>
+        <f>542*9807000</f>
+        <v>5315394000</v>
       </c>
       <c r="K82" s="19"/>
       <c r="L82" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M82" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N82" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="3">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>103</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G83" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H83" s="22"/>
       <c r="I83" s="23"/>
       <c r="J83" s="19">
-        <f>454*9807000</f>
-        <v>4452378000</v>
+        <f>505*9807000</f>
+        <v>4952535000</v>
       </c>
       <c r="K83" s="19"/>
       <c r="L83" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M83" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N83" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="3">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>103</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E84" s="20"/>
       <c r="F84" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G84" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H84" s="22"/>
       <c r="I84" s="23"/>
       <c r="J84" s="19">
-        <f>535*9807000</f>
-        <v>5246745000</v>
+        <f>558*9807000</f>
+        <v>5472306000</v>
       </c>
       <c r="K84" s="19"/>
       <c r="L84" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M84" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N84" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="3">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>103</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E85" s="20"/>
       <c r="F85" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H85" s="22"/>
       <c r="I85" s="23"/>
       <c r="J85" s="19">
-        <f>705*9807000</f>
-        <v>6913935000</v>
+        <f>390*9807000</f>
+        <v>3824730000</v>
       </c>
       <c r="K85" s="19"/>
       <c r="L85" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M85" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N85" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="3">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>103</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G86" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H86" s="22"/>
       <c r="I86" s="23"/>
       <c r="J86" s="19">
-        <f>542*9807000</f>
-        <v>5315394000</v>
+        <f>298*9807000</f>
+        <v>2922486000</v>
       </c>
       <c r="K86" s="19"/>
       <c r="L86" s="20" t="s">
@@ -4552,34 +4581,38 @@
         <v>120</v>
       </c>
       <c r="N86" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="3">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E87" s="20"/>
+      <c r="D87" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="E87" s="46" t="s">
+        <v>186</v>
+      </c>
       <c r="F87" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G87" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H87" s="22"/>
-      <c r="I87" s="23"/>
+      <c r="I87" s="23">
+        <v>298</v>
+      </c>
       <c r="J87" s="19">
-        <f>505*9807000</f>
-        <v>4952535000</v>
+        <f>427.9*9807000</f>
+        <v>4196415300</v>
       </c>
       <c r="K87" s="19"/>
       <c r="L87" s="20" t="s">
@@ -4589,34 +4622,38 @@
         <v>120</v>
       </c>
       <c r="N87" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="3">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E88" s="20"/>
+      <c r="D88" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="E88" s="46" t="s">
+        <v>188</v>
+      </c>
       <c r="F88" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G88" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H88" s="22"/>
-      <c r="I88" s="23"/>
+      <c r="I88" s="23">
+        <v>298</v>
+      </c>
       <c r="J88" s="19">
-        <f>558*9807000</f>
-        <v>5472306000</v>
+        <f>444.3*9807000</f>
+        <v>4357250100</v>
       </c>
       <c r="K88" s="19"/>
       <c r="L88" s="20" t="s">
@@ -4626,34 +4663,38 @@
         <v>120</v>
       </c>
       <c r="N88" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="3">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E89" s="20"/>
+      <c r="D89" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="E89" s="46" t="s">
+        <v>187</v>
+      </c>
       <c r="F89" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H89" s="22"/>
-      <c r="I89" s="23"/>
+      <c r="I89" s="23">
+        <v>298</v>
+      </c>
       <c r="J89" s="19">
-        <f>390*9807000</f>
-        <v>3824730000</v>
+        <f>510.9*9807000</f>
+        <v>5010396300</v>
       </c>
       <c r="K89" s="19"/>
       <c r="L89" s="20" t="s">
@@ -4663,15 +4704,15 @@
         <v>120</v>
       </c>
       <c r="N89" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="3">
-        <v>117</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>88</v>
+        <v>121</v>
+      </c>
+      <c r="B90" s="46" t="s">
+        <v>189</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>103</v>
@@ -4679,25 +4720,32 @@
       <c r="D90" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E90" s="20"/>
+      <c r="E90" s="46" t="s">
+        <v>195</v>
+      </c>
       <c r="F90" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G90" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H90" s="22"/>
-      <c r="I90" s="23"/>
+      <c r="I90" s="23">
+        <v>298</v>
+      </c>
       <c r="J90" s="19">
-        <f>298*9807000</f>
-        <v>2922486000</v>
-      </c>
-      <c r="K90" s="19"/>
+        <f>340*9807000</f>
+        <v>3334380000</v>
+      </c>
+      <c r="K90" s="19">
+        <f>3*9807000</f>
+        <v>29421000</v>
+      </c>
       <c r="L90" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M90" s="20" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N90" s="25" t="s">
         <v>128</v>
@@ -4705,40 +4753,43 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="3">
-        <v>118</v>
-      </c>
-      <c r="B91" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C91" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B91" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="C91" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="D91" s="47" t="s">
-        <v>167</v>
+      <c r="D91" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="E91" s="46" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="F91" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G91" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H91" s="22"/>
       <c r="I91" s="23">
         <v>298</v>
       </c>
       <c r="J91" s="19">
-        <f>427.9*9807000</f>
-        <v>4196415300</v>
-      </c>
-      <c r="K91" s="19"/>
+        <f>357*9807000</f>
+        <v>3501099000</v>
+      </c>
+      <c r="K91" s="19">
+        <f>3*9807000</f>
+        <v>29421000</v>
+      </c>
       <c r="L91" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M91" s="20" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N91" s="25" t="s">
         <v>128</v>
@@ -4746,40 +4797,43 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="3">
-        <v>119</v>
-      </c>
-      <c r="B92" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D92" s="47" t="s">
-        <v>167</v>
+        <v>123</v>
+      </c>
+      <c r="B92" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="C92" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="E92" s="46" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F92" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G92" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H92" s="22"/>
       <c r="I92" s="23">
         <v>298</v>
       </c>
       <c r="J92" s="19">
-        <f>444.3*9807000</f>
-        <v>4357250100</v>
-      </c>
-      <c r="K92" s="19"/>
+        <f>457*9807000</f>
+        <v>4481799000</v>
+      </c>
+      <c r="K92" s="19">
+        <f>13*9807000</f>
+        <v>127491000</v>
+      </c>
       <c r="L92" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M92" s="20" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N92" s="25" t="s">
         <v>128</v>
@@ -4787,40 +4841,43 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="3">
-        <v>120</v>
-      </c>
-      <c r="B93" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D93" s="47" t="s">
-        <v>167</v>
+        <v>124</v>
+      </c>
+      <c r="B93" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C93" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="E93" s="46" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F93" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G93" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H93" s="22"/>
       <c r="I93" s="23">
         <v>298</v>
       </c>
       <c r="J93" s="19">
-        <f>510.9*9807000</f>
-        <v>5010396300</v>
-      </c>
-      <c r="K93" s="19"/>
+        <f>414*9807000</f>
+        <v>4060098000</v>
+      </c>
+      <c r="K93" s="19">
+        <f>8*9807000</f>
+        <v>78456000</v>
+      </c>
       <c r="L93" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M93" s="20" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N93" s="25" t="s">
         <v>128</v>
@@ -4828,206 +4885,196 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B94" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E94" s="46" t="s">
-        <v>197</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="C94" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="D94" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="E94" s="20"/>
       <c r="F94" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H94" s="22"/>
       <c r="I94" s="23">
         <v>298</v>
       </c>
       <c r="J94" s="19">
-        <f>340*9807000</f>
-        <v>3334380000</v>
+        <v>1569000000</v>
       </c>
       <c r="K94" s="19">
-        <f>3*9807000</f>
-        <v>29421000</v>
+        <f>4*9807000</f>
+        <v>39228000</v>
       </c>
       <c r="L94" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M94" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="N94" s="25" t="s">
+      <c r="M94" s="35" t="s">
         <v>130</v>
+      </c>
+      <c r="N94" s="33" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="3">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B95" s="46" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C95" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E95" s="46" t="s">
-        <v>197</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="D95" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="E95" s="20"/>
       <c r="F95" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H95" s="22"/>
       <c r="I95" s="23">
         <v>298</v>
       </c>
       <c r="J95" s="19">
-        <f>357*9807000</f>
-        <v>3501099000</v>
+        <v>1667000000</v>
       </c>
       <c r="K95" s="19">
-        <f>3*9807000</f>
-        <v>29421000</v>
+        <f>4*9807000</f>
+        <v>39228000</v>
       </c>
       <c r="L95" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M95" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="N95" s="25" t="s">
+      <c r="M95" s="35" t="s">
         <v>130</v>
+      </c>
+      <c r="N95" s="33" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="3">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B96" s="46" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C96" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E96" s="46" t="s">
-        <v>197</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="D96" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="E96" s="20"/>
       <c r="F96" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G96" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H96" s="22"/>
       <c r="I96" s="23">
         <v>298</v>
       </c>
       <c r="J96" s="19">
-        <f>457*9807000</f>
-        <v>4481799000</v>
+        <v>5139000000</v>
       </c>
       <c r="K96" s="19">
-        <f>13*9807000</f>
-        <v>127491000</v>
+        <f>15*9807000</f>
+        <v>147105000</v>
       </c>
       <c r="L96" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M96" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="N96" s="25" t="s">
+      <c r="M96" s="35" t="s">
         <v>130</v>
+      </c>
+      <c r="N96" s="33" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="3">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B97" s="46" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C97" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E97" s="46" t="s">
-        <v>197</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="D97" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="E97" s="20"/>
       <c r="F97" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G97" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H97" s="22"/>
       <c r="I97" s="23">
         <v>298</v>
       </c>
       <c r="J97" s="19">
-        <f>414*9807000</f>
-        <v>4060098000</v>
+        <v>6375000000</v>
       </c>
       <c r="K97" s="19">
-        <f>8*9807000</f>
-        <v>78456000</v>
-      </c>
-      <c r="L97" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M97" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="N97" s="25" t="s">
+        <f>27*9807000</f>
+        <v>264789000</v>
+      </c>
+      <c r="L97" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="M97" s="35" t="s">
         <v>130</v>
+      </c>
+      <c r="N97" s="33" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="3">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B98" s="46" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C98" s="47" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D98" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="E98" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="E98" s="20"/>
       <c r="F98" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G98" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H98" s="22"/>
       <c r="I98" s="23">
         <v>298</v>
       </c>
       <c r="J98" s="19">
-        <v>1569000000</v>
+        <v>1314000000</v>
       </c>
       <c r="K98" s="19">
         <f>4*9807000</f>
@@ -5037,472 +5084,470 @@
         <v>47</v>
       </c>
       <c r="M98" s="35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N98" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B99" s="46" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C99" s="47" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D99" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="E99" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="E99" s="20"/>
       <c r="F99" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G99" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H99" s="22"/>
       <c r="I99" s="23">
         <v>298</v>
       </c>
       <c r="J99" s="19">
-        <v>1667000000</v>
+        <v>1324000000</v>
       </c>
       <c r="K99" s="19">
-        <f>4*9807000</f>
-        <v>39228000</v>
-      </c>
-      <c r="L99" s="20" t="s">
+        <f>2*9807000</f>
+        <v>19614000</v>
+      </c>
+      <c r="L99" s="35" t="s">
         <v>47</v>
       </c>
       <c r="M99" s="35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N99" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="3">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B100" s="46" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C100" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="D100" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="D100" s="47" t="s">
+      <c r="E100" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="E100" s="20"/>
       <c r="F100" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G100" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H100" s="22"/>
       <c r="I100" s="23">
         <v>298</v>
       </c>
       <c r="J100" s="19">
-        <v>5139000000</v>
+        <v>5757000000</v>
       </c>
       <c r="K100" s="19">
-        <f>15*9807000</f>
-        <v>147105000</v>
+        <f>17*9807000</f>
+        <v>166719000</v>
       </c>
       <c r="L100" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M100" s="35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N100" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="3">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B101" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="C101" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="C101" s="47" t="s">
+      <c r="D101" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="D101" s="47" t="s">
+      <c r="E101" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="E101" s="20"/>
       <c r="F101" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G101" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H101" s="22"/>
       <c r="I101" s="23">
         <v>298</v>
       </c>
       <c r="J101" s="19">
-        <v>6375000000</v>
+        <v>6237000000</v>
       </c>
       <c r="K101" s="19">
-        <f>27*9807000</f>
-        <v>264789000</v>
+        <f>23*9807000</f>
+        <v>225561000</v>
       </c>
       <c r="L101" s="35" t="s">
         <v>47</v>
       </c>
       <c r="M101" s="35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N101" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="3">
+        <v>133</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E102" s="20"/>
+      <c r="F102" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="G102" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="H102" s="22"/>
+      <c r="I102" s="23"/>
+      <c r="J102" s="19">
+        <f>940*9807000</f>
+        <v>9218580000</v>
+      </c>
+      <c r="K102" s="19"/>
+      <c r="L102" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M102" s="20"/>
+      <c r="N102" s="29" t="s">
         <v>129</v>
-      </c>
-      <c r="B102" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="C102" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="D102" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="E102" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="F102" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="G102" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="H102" s="22"/>
-      <c r="I102" s="23">
-        <v>298</v>
-      </c>
-      <c r="J102" s="19">
-        <v>1314000000</v>
-      </c>
-      <c r="K102" s="19">
-        <f>4*9807000</f>
-        <v>39228000</v>
-      </c>
-      <c r="L102" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M102" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="N102" s="33" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="3">
+        <v>134</v>
+      </c>
+      <c r="B103" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E103" s="20"/>
+      <c r="F103" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="G103" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="H103" s="22"/>
+      <c r="I103" s="23"/>
+      <c r="J103" s="19">
+        <v>1360000000000</v>
+      </c>
+      <c r="K103" s="19"/>
+      <c r="L103" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M103" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B103" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="C103" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="D103" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="E103" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="F103" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="G103" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="H103" s="22"/>
-      <c r="I103" s="23">
-        <v>298</v>
-      </c>
-      <c r="J103" s="19">
-        <v>1324000000</v>
-      </c>
-      <c r="K103" s="19">
-        <f>2*9807000</f>
-        <v>19614000</v>
-      </c>
-      <c r="L103" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="M103" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="N103" s="33" t="s">
-        <v>146</v>
+      <c r="N103" s="29" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="3">
-        <v>131</v>
-      </c>
-      <c r="B104" s="46" t="s">
-        <v>200</v>
+        <v>135</v>
+      </c>
+      <c r="B104" s="30" t="s">
+        <v>152</v>
       </c>
       <c r="C104" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="D104" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="E104" s="46" t="s">
-        <v>206</v>
+        <v>103</v>
+      </c>
+      <c r="D104" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E104" s="48" t="s">
+        <v>180</v>
       </c>
       <c r="F104" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G104" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H104" s="22"/>
-      <c r="I104" s="23">
+      <c r="I104" s="3">
         <v>298</v>
       </c>
       <c r="J104" s="19">
-        <v>5757000000</v>
-      </c>
-      <c r="K104" s="19">
-        <f>17*9807000</f>
-        <v>166719000</v>
-      </c>
+        <f>341*9807000</f>
+        <v>3344187000</v>
+      </c>
+      <c r="K104" s="19"/>
       <c r="L104" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M104" s="35" t="s">
+      <c r="M104" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="N104" s="27" t="s">
         <v>132</v>
-      </c>
-      <c r="N104" s="33" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="3">
+        <v>136</v>
+      </c>
+      <c r="B105" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C105" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D105" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E105" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="F105" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="G105" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="H105" s="22"/>
+      <c r="I105" s="3">
+        <v>298</v>
+      </c>
+      <c r="J105" s="19">
+        <f>338*9807000</f>
+        <v>3314766000</v>
+      </c>
+      <c r="K105" s="19"/>
+      <c r="L105" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M105" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="N105" s="27" t="s">
         <v>132</v>
-      </c>
-      <c r="B105" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="C105" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="D105" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="E105" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="F105" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="G105" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="H105" s="22"/>
-      <c r="I105" s="23">
-        <v>298</v>
-      </c>
-      <c r="J105" s="19">
-        <v>6237000000</v>
-      </c>
-      <c r="K105" s="19">
-        <f>23*9807000</f>
-        <v>225561000</v>
-      </c>
-      <c r="L105" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="M105" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="N105" s="33" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="3">
-        <v>133</v>
-      </c>
-      <c r="B106" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E106" s="20"/>
+        <v>137</v>
+      </c>
+      <c r="B106" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C106" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D106" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E106" s="48" t="s">
+        <v>180</v>
+      </c>
       <c r="F106" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G106" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H106" s="22"/>
-      <c r="I106" s="23"/>
+      <c r="I106" s="3">
+        <v>298</v>
+      </c>
       <c r="J106" s="19">
-        <f>940*9807000</f>
-        <v>9218580000</v>
+        <f>340*9807000</f>
+        <v>3334380000</v>
       </c>
       <c r="K106" s="19"/>
       <c r="L106" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M106" s="20"/>
-      <c r="N106" s="29" t="s">
-        <v>131</v>
+      <c r="M106" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="N106" s="27" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="3">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E107" s="20"/>
+        <v>155</v>
+      </c>
+      <c r="C107" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D107" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E107" s="48" t="s">
+        <v>180</v>
+      </c>
       <c r="F107" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G107" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H107" s="22"/>
-      <c r="I107" s="23"/>
+      <c r="I107" s="3">
+        <v>298</v>
+      </c>
       <c r="J107" s="19">
-        <v>1360000000000</v>
+        <f>345*9807000</f>
+        <v>3383415000</v>
       </c>
       <c r="K107" s="19"/>
       <c r="L107" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M107" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="N107" s="27" t="s">
         <v>132</v>
-      </c>
-      <c r="N107" s="29" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="3">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C108" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D108" s="34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E108" s="48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F108" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G108" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H108" s="22"/>
       <c r="I108" s="3">
         <v>298</v>
       </c>
       <c r="J108" s="19">
-        <f>341*9807000</f>
-        <v>3344187000</v>
+        <f>334*9807000</f>
+        <v>3275538000</v>
       </c>
       <c r="K108" s="19"/>
       <c r="L108" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M108" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N108" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="3">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C109" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D109" s="34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E109" s="48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F109" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G109" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H109" s="22"/>
       <c r="I109" s="3">
         <v>298</v>
       </c>
       <c r="J109" s="19">
-        <f>338*9807000</f>
-        <v>3314766000</v>
+        <f>340*9807000</f>
+        <v>3334380000</v>
       </c>
       <c r="K109" s="19"/>
       <c r="L109" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M109" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N109" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="3">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C110" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D110" s="34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E110" s="48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F110" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G110" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H110" s="22"/>
       <c r="I110" s="3">
@@ -5517,892 +5562,768 @@
         <v>47</v>
       </c>
       <c r="M110" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N110" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="3">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C111" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D111" s="34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E111" s="48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F111" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G111" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H111" s="22"/>
       <c r="I111" s="3">
         <v>298</v>
       </c>
       <c r="J111" s="19">
-        <f>345*9807000</f>
-        <v>3383415000</v>
+        <f>331*9807000</f>
+        <v>3246117000</v>
       </c>
       <c r="K111" s="19"/>
       <c r="L111" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M111" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N111" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="3">
-        <v>139</v>
-      </c>
-      <c r="B112" s="30" t="s">
-        <v>154</v>
+        <v>143</v>
+      </c>
+      <c r="B112" s="46" t="s">
+        <v>206</v>
       </c>
       <c r="C112" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="D112" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="E112" s="48" t="s">
-        <v>183</v>
+      <c r="D112" s="47" t="s">
+        <v>207</v>
       </c>
       <c r="F112" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G112" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H112" s="22"/>
       <c r="I112" s="3">
         <v>298</v>
       </c>
       <c r="J112" s="19">
-        <f>334*9807000</f>
-        <v>3275538000</v>
+        <f>459*9807000</f>
+        <v>4501413000</v>
       </c>
       <c r="K112" s="19"/>
       <c r="L112" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M112" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="N112" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="N112" s="29" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="3">
-        <v>140</v>
-      </c>
-      <c r="B113" s="30" t="s">
-        <v>155</v>
+        <v>144</v>
+      </c>
+      <c r="B113" s="46" t="s">
+        <v>206</v>
       </c>
       <c r="C113" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="D113" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="E113" s="48" t="s">
-        <v>183</v>
+      <c r="D113" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="E113" s="46" t="s">
+        <v>209</v>
       </c>
       <c r="F113" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G113" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H113" s="22"/>
       <c r="I113" s="3">
         <v>298</v>
       </c>
       <c r="J113" s="19">
-        <f>340*9807000</f>
-        <v>3334380000</v>
+        <f>487*9807000</f>
+        <v>4776009000</v>
       </c>
       <c r="K113" s="19"/>
       <c r="L113" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M113" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="N113" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="N113" s="29" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="3">
-        <v>141</v>
-      </c>
-      <c r="B114" s="30" t="s">
-        <v>156</v>
+        <v>145</v>
+      </c>
+      <c r="B114" s="46" t="s">
+        <v>206</v>
       </c>
       <c r="C114" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="D114" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="E114" s="48" t="s">
-        <v>183</v>
+      <c r="D114" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="E114" s="46" t="s">
+        <v>211</v>
       </c>
       <c r="F114" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G114" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H114" s="22"/>
       <c r="I114" s="3">
         <v>298</v>
       </c>
       <c r="J114" s="19">
-        <f>340*9807000</f>
-        <v>3334380000</v>
+        <f>456*9807000</f>
+        <v>4471992000</v>
       </c>
       <c r="K114" s="19"/>
       <c r="L114" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M114" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="N114" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="N114" s="29" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="3">
-        <v>142</v>
-      </c>
-      <c r="B115" s="30" t="s">
-        <v>157</v>
+        <v>146</v>
+      </c>
+      <c r="B115" s="46" t="s">
+        <v>206</v>
       </c>
       <c r="C115" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="D115" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="E115" s="48" t="s">
-        <v>183</v>
+      <c r="D115" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="E115" s="46" t="s">
+        <v>212</v>
       </c>
       <c r="F115" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G115" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H115" s="22"/>
       <c r="I115" s="3">
         <v>298</v>
       </c>
       <c r="J115" s="19">
-        <f>331*9807000</f>
-        <v>3246117000</v>
+        <f>516*9807000</f>
+        <v>5060412000</v>
       </c>
       <c r="K115" s="19"/>
       <c r="L115" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M115" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="N115" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="N115" s="29" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="3">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B116" s="46" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C116" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D116" s="47" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F116" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G116" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H116" s="22"/>
       <c r="I116" s="3">
         <v>298</v>
       </c>
       <c r="J116" s="19">
-        <f>459*9807000</f>
-        <v>4501413000</v>
+        <f>445*9807000</f>
+        <v>4364115000</v>
       </c>
       <c r="K116" s="19"/>
       <c r="L116" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M116" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N116" s="29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="3">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B117" s="46" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C117" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D117" s="47" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E117" s="46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F117" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G117" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H117" s="22"/>
       <c r="I117" s="3">
         <v>298</v>
       </c>
       <c r="J117" s="19">
-        <f>487*9807000</f>
-        <v>4776009000</v>
+        <f>459*9807000</f>
+        <v>4501413000</v>
       </c>
       <c r="K117" s="19"/>
       <c r="L117" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M117" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N117" s="29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="3">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B118" s="46" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C118" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D118" s="47" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E118" s="46" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F118" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G118" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H118" s="22"/>
       <c r="I118" s="3">
         <v>298</v>
       </c>
       <c r="J118" s="19">
-        <f>456*9807000</f>
-        <v>4471992000</v>
+        <f>459*9807000</f>
+        <v>4501413000</v>
       </c>
       <c r="K118" s="19"/>
       <c r="L118" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M118" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N118" s="29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="3">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B119" s="46" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C119" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D119" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="E119" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="E119" s="46" t="s">
-        <v>214</v>
-      </c>
       <c r="F119" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G119" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H119" s="22"/>
       <c r="I119" s="3">
         <v>298</v>
       </c>
       <c r="J119" s="19">
-        <f>516*9807000</f>
-        <v>5060412000</v>
+        <f>522*9807000</f>
+        <v>5119254000</v>
       </c>
       <c r="K119" s="19"/>
       <c r="L119" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M119" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N119" s="29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="3">
-        <v>147</v>
-      </c>
-      <c r="B120" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="C120" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D120" s="47" t="s">
-        <v>209</v>
-      </c>
+      <c r="E120" s="20"/>
       <c r="F120" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G120" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H120" s="22"/>
-      <c r="I120" s="3">
-        <v>298</v>
-      </c>
+      <c r="I120" s="23"/>
       <c r="J120" s="19">
-        <f>445*9807000</f>
-        <v>4364115000</v>
+        <f>960*9807000</f>
+        <v>9414720000</v>
       </c>
       <c r="K120" s="19"/>
       <c r="L120" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M120" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="N120" s="29" t="s">
         <v>135</v>
-      </c>
-      <c r="N120" s="29" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="3">
-        <v>148</v>
-      </c>
-      <c r="B121" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="C121" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="B121" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D121" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="E121" s="46" t="s">
-        <v>211</v>
-      </c>
+      <c r="E121" s="20"/>
       <c r="F121" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G121" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H121" s="22"/>
-      <c r="I121" s="3">
-        <v>298</v>
-      </c>
+      <c r="I121" s="23"/>
       <c r="J121" s="19">
-        <f>459*9807000</f>
-        <v>4501413000</v>
+        <f>920*9807000</f>
+        <v>9022440000</v>
       </c>
       <c r="K121" s="19"/>
       <c r="L121" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M121" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="N121" s="29" t="s">
         <v>135</v>
-      </c>
-      <c r="N121" s="29" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="3">
-        <v>149</v>
-      </c>
-      <c r="B122" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="C122" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B122" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D122" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="E122" s="46" t="s">
-        <v>213</v>
-      </c>
+      <c r="E122" s="20"/>
       <c r="F122" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G122" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H122" s="22"/>
-      <c r="I122" s="3">
-        <v>298</v>
-      </c>
+      <c r="I122" s="23"/>
       <c r="J122" s="19">
-        <f>459*9807000</f>
-        <v>4501413000</v>
+        <f>830*9807000</f>
+        <v>8139810000</v>
       </c>
       <c r="K122" s="19"/>
       <c r="L122" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M122" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="N122" s="29" t="s">
         <v>135</v>
-      </c>
-      <c r="N122" s="29" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="3">
-        <v>150</v>
-      </c>
-      <c r="B123" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="C123" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D123" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="E123" s="46" t="s">
-        <v>214</v>
-      </c>
+      <c r="E123" s="20"/>
       <c r="F123" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G123" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H123" s="22"/>
-      <c r="I123" s="3">
-        <v>298</v>
-      </c>
+      <c r="I123" s="23"/>
       <c r="J123" s="19">
-        <f>522*9807000</f>
-        <v>5119254000</v>
+        <f>840*9807000</f>
+        <v>8237880000</v>
       </c>
       <c r="K123" s="19"/>
       <c r="L123" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M123" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="N123" s="29" t="s">
         <v>135</v>
-      </c>
-      <c r="N123" s="29" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="3">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>103</v>
       </c>
       <c r="E124" s="20"/>
       <c r="F124" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G124" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H124" s="22"/>
       <c r="I124" s="23"/>
       <c r="J124" s="19">
+        <f>850*9807000</f>
+        <v>8335950000</v>
+      </c>
+      <c r="K124" s="19"/>
+      <c r="L124" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M124" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="N124" s="29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" s="3">
+        <v>156</v>
+      </c>
+      <c r="B125" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="C125" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="D125" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="E125" s="20"/>
+      <c r="F125" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="G125" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="H125" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="I125" s="23">
+        <v>298</v>
+      </c>
+      <c r="J125" s="19">
+        <f>829*9807000</f>
+        <v>8130003000</v>
+      </c>
+      <c r="K125" s="19">
+        <f>1*9807000</f>
+        <v>9807000</v>
+      </c>
+      <c r="L125" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M125" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="N125" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126" s="3">
+        <v>157</v>
+      </c>
+      <c r="B126" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="C126" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="D126" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="E126" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="F126" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="G126" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="H126" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="I126" s="23">
+        <v>298</v>
+      </c>
+      <c r="J126" s="19">
+        <f>920*9807000</f>
+        <v>9022440000</v>
+      </c>
+      <c r="K126" s="19">
+        <f>1*9807000</f>
+        <v>9807000</v>
+      </c>
+      <c r="L126" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M126" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="N126" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127" s="3">
+        <v>158</v>
+      </c>
+      <c r="B127" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="C127" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="D127" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="E127" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="F127" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="G127" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="H127" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="I127" s="23">
+        <v>298</v>
+      </c>
+      <c r="J127" s="19">
+        <f>931*9807000</f>
+        <v>9130317000</v>
+      </c>
+      <c r="K127" s="19">
+        <f>2*9807000</f>
+        <v>19614000</v>
+      </c>
+      <c r="L127" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M127" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="N127" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128" s="3">
+        <v>159</v>
+      </c>
+      <c r="B128" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="C128" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="D128" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="E128" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="F128" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="G128" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="H128" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="I128" s="23">
+        <v>298</v>
+      </c>
+      <c r="J128" s="19">
         <f>960*9807000</f>
         <v>9414720000</v>
       </c>
-      <c r="K124" s="19"/>
-      <c r="L124" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M124" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="N124" s="29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14">
-      <c r="A125" s="3">
-        <v>152</v>
-      </c>
-      <c r="B125" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E125" s="20"/>
-      <c r="F125" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="G125" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="H125" s="22"/>
-      <c r="I125" s="23"/>
-      <c r="J125" s="19">
-        <f>920*9807000</f>
-        <v>9022440000</v>
-      </c>
-      <c r="K125" s="19"/>
-      <c r="L125" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M125" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="N125" s="29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14">
-      <c r="A126" s="3">
-        <v>153</v>
-      </c>
-      <c r="B126" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E126" s="20"/>
-      <c r="F126" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="G126" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="H126" s="22"/>
-      <c r="I126" s="23"/>
-      <c r="J126" s="19">
-        <f>830*9807000</f>
-        <v>8139810000</v>
-      </c>
-      <c r="K126" s="19"/>
-      <c r="L126" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M126" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="N126" s="29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14">
-      <c r="A127" s="3">
-        <v>154</v>
-      </c>
-      <c r="B127" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E127" s="20"/>
-      <c r="F127" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="G127" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="H127" s="22"/>
-      <c r="I127" s="23"/>
-      <c r="J127" s="19">
-        <f>840*9807000</f>
-        <v>8237880000</v>
-      </c>
-      <c r="K127" s="19"/>
-      <c r="L127" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M127" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="N127" s="29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14">
-      <c r="A128" s="3">
-        <v>155</v>
-      </c>
-      <c r="B128" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E128" s="20"/>
-      <c r="F128" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="G128" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="H128" s="22"/>
-      <c r="I128" s="23"/>
-      <c r="J128" s="19">
-        <f>850*9807000</f>
-        <v>8335950000</v>
-      </c>
-      <c r="K128" s="19"/>
-      <c r="L128" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M128" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="N128" s="29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="3">
-        <v>156</v>
-      </c>
-      <c r="B129" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="C129" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="D129" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="E129" s="20"/>
-      <c r="F129" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="G129" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="H129" s="49" t="s">
-        <v>219</v>
-      </c>
-      <c r="I129" s="23">
-        <v>298</v>
-      </c>
-      <c r="J129" s="19">
-        <f>829*9807000</f>
-        <v>8130003000</v>
-      </c>
-      <c r="K129" s="19">
-        <f>1*9807000</f>
-        <v>9807000</v>
-      </c>
-      <c r="L129" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M129" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="N129" s="25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
-      <c r="A130" s="3">
-        <v>157</v>
-      </c>
-      <c r="B130" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="C130" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="D130" s="47" t="s">
-        <v>216</v>
-      </c>
-      <c r="E130" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="F130" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="G130" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="H130" s="49" t="s">
-        <v>219</v>
-      </c>
-      <c r="I130" s="23">
-        <v>298</v>
-      </c>
-      <c r="J130" s="19">
-        <f>920*9807000</f>
-        <v>9022440000</v>
-      </c>
-      <c r="K130" s="19">
-        <f>1*9807000</f>
-        <v>9807000</v>
-      </c>
-      <c r="L130" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M130" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="N130" s="25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
-      <c r="A131" s="3">
-        <v>158</v>
-      </c>
-      <c r="B131" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="C131" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="D131" s="47" t="s">
-        <v>216</v>
-      </c>
-      <c r="E131" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="F131" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="G131" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="H131" s="49" t="s">
-        <v>219</v>
-      </c>
-      <c r="I131" s="23">
-        <v>298</v>
-      </c>
-      <c r="J131" s="19">
-        <f>931*9807000</f>
-        <v>9130317000</v>
-      </c>
-      <c r="K131" s="19">
+      <c r="K128" s="19">
         <f>2*9807000</f>
         <v>19614000</v>
       </c>
-      <c r="L131" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M131" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="N131" s="25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
-      <c r="A132" s="3">
-        <v>159</v>
-      </c>
-      <c r="B132" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="C132" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="D132" s="47" t="s">
-        <v>216</v>
-      </c>
-      <c r="E132" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="F132" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="G132" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="H132" s="49" t="s">
-        <v>219</v>
-      </c>
-      <c r="I132" s="23">
-        <v>298</v>
-      </c>
-      <c r="J132" s="19">
-        <f>960*9807000</f>
-        <v>9414720000</v>
-      </c>
-      <c r="K132" s="19">
-        <f>2*9807000</f>
-        <v>19614000</v>
-      </c>
-      <c r="L132" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M132" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="N132" s="25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+      <c r="L128" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M128" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="N128" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="129" spans="5:13">
+      <c r="E129" s="20"/>
+      <c r="F129" s="30"/>
+      <c r="G129" s="20"/>
+      <c r="H129" s="22"/>
+      <c r="I129" s="23"/>
+      <c r="K129" s="19"/>
+      <c r="L129" s="30"/>
+      <c r="M129" s="20"/>
+    </row>
+    <row r="130" spans="5:13">
+      <c r="E130" s="20"/>
+      <c r="F130" s="30"/>
+      <c r="G130" s="20"/>
+      <c r="H130" s="22"/>
+      <c r="I130" s="23"/>
+      <c r="K130" s="19"/>
+      <c r="L130" s="30"/>
+      <c r="M130" s="20"/>
+    </row>
+    <row r="131" spans="5:13">
+      <c r="E131" s="20"/>
+      <c r="F131" s="30"/>
+      <c r="G131" s="20"/>
+      <c r="H131" s="22"/>
+      <c r="I131" s="23"/>
+      <c r="K131" s="19"/>
+      <c r="L131" s="30"/>
+      <c r="M131" s="20"/>
+    </row>
+    <row r="132" spans="5:13">
+      <c r="E132" s="20"/>
+      <c r="F132" s="30"/>
+      <c r="G132" s="20"/>
+      <c r="H132" s="22"/>
+      <c r="I132" s="23"/>
+      <c r="K132" s="19"/>
+      <c r="L132" s="30"/>
+      <c r="M132" s="20"/>
+    </row>
+    <row r="133" spans="5:13">
       <c r="E133" s="20"/>
       <c r="F133" s="30"/>
       <c r="G133" s="20"/>
@@ -6412,7 +6333,7 @@
       <c r="L133" s="30"/>
       <c r="M133" s="20"/>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="5:13">
       <c r="E134" s="20"/>
       <c r="F134" s="30"/>
       <c r="G134" s="20"/>
@@ -6422,7 +6343,7 @@
       <c r="L134" s="30"/>
       <c r="M134" s="20"/>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="5:13">
       <c r="E135" s="20"/>
       <c r="F135" s="30"/>
       <c r="G135" s="20"/>
@@ -6432,7 +6353,7 @@
       <c r="L135" s="30"/>
       <c r="M135" s="20"/>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="5:13">
       <c r="E136" s="20"/>
       <c r="F136" s="30"/>
       <c r="G136" s="20"/>
@@ -6442,7 +6363,7 @@
       <c r="L136" s="30"/>
       <c r="M136" s="20"/>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="5:13">
       <c r="E137" s="20"/>
       <c r="F137" s="30"/>
       <c r="G137" s="20"/>
@@ -6452,7 +6373,7 @@
       <c r="L137" s="30"/>
       <c r="M137" s="20"/>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="5:13">
       <c r="E138" s="20"/>
       <c r="F138" s="30"/>
       <c r="G138" s="20"/>
@@ -6462,7 +6383,7 @@
       <c r="L138" s="30"/>
       <c r="M138" s="20"/>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="5:13">
       <c r="E139" s="20"/>
       <c r="F139" s="30"/>
       <c r="G139" s="20"/>
@@ -6472,7 +6393,7 @@
       <c r="L139" s="30"/>
       <c r="M139" s="20"/>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="5:13">
       <c r="E140" s="20"/>
       <c r="F140" s="30"/>
       <c r="G140" s="20"/>
@@ -6482,7 +6403,7 @@
       <c r="L140" s="30"/>
       <c r="M140" s="20"/>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="5:13">
       <c r="E141" s="20"/>
       <c r="F141" s="30"/>
       <c r="G141" s="20"/>
@@ -6492,7 +6413,7 @@
       <c r="L141" s="30"/>
       <c r="M141" s="20"/>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="5:13">
       <c r="E142" s="20"/>
       <c r="F142" s="30"/>
       <c r="G142" s="20"/>
@@ -6502,7 +6423,7 @@
       <c r="L142" s="30"/>
       <c r="M142" s="20"/>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="5:13">
       <c r="E143" s="20"/>
       <c r="F143" s="30"/>
       <c r="G143" s="20"/>
@@ -6512,7 +6433,7 @@
       <c r="L143" s="30"/>
       <c r="M143" s="20"/>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="5:13">
       <c r="E144" s="20"/>
       <c r="F144" s="30"/>
       <c r="G144" s="20"/>
@@ -6553,8 +6474,9 @@
       <c r="M147" s="20"/>
     </row>
     <row r="148" spans="4:13">
+      <c r="D148" s="22"/>
       <c r="E148" s="20"/>
-      <c r="F148" s="30"/>
+      <c r="F148" s="31"/>
       <c r="G148" s="20"/>
       <c r="H148" s="22"/>
       <c r="I148" s="23"/>
@@ -6563,8 +6485,9 @@
       <c r="M148" s="20"/>
     </row>
     <row r="149" spans="4:13">
+      <c r="D149" s="22"/>
       <c r="E149" s="20"/>
-      <c r="F149" s="30"/>
+      <c r="F149" s="31"/>
       <c r="G149" s="20"/>
       <c r="H149" s="22"/>
       <c r="I149" s="23"/>
@@ -6573,8 +6496,9 @@
       <c r="M149" s="20"/>
     </row>
     <row r="150" spans="4:13">
+      <c r="D150" s="22"/>
       <c r="E150" s="20"/>
-      <c r="F150" s="30"/>
+      <c r="F150" s="31"/>
       <c r="G150" s="20"/>
       <c r="H150" s="22"/>
       <c r="I150" s="23"/>
@@ -6583,8 +6507,9 @@
       <c r="M150" s="20"/>
     </row>
     <row r="151" spans="4:13">
+      <c r="D151" s="22"/>
       <c r="E151" s="20"/>
-      <c r="F151" s="30"/>
+      <c r="F151" s="31"/>
       <c r="G151" s="20"/>
       <c r="H151" s="22"/>
       <c r="I151" s="23"/>
@@ -6867,7 +6792,7 @@
       <c r="L176" s="30"/>
       <c r="M176" s="20"/>
     </row>
-    <row r="177" spans="4:13">
+    <row r="177" spans="1:14">
       <c r="D177" s="22"/>
       <c r="E177" s="20"/>
       <c r="F177" s="31"/>
@@ -6878,7 +6803,7 @@
       <c r="L177" s="30"/>
       <c r="M177" s="20"/>
     </row>
-    <row r="178" spans="4:13">
+    <row r="178" spans="1:14">
       <c r="D178" s="22"/>
       <c r="E178" s="20"/>
       <c r="F178" s="31"/>
@@ -6889,7 +6814,7 @@
       <c r="L178" s="30"/>
       <c r="M178" s="20"/>
     </row>
-    <row r="179" spans="4:13">
+    <row r="179" spans="1:14">
       <c r="D179" s="22"/>
       <c r="E179" s="20"/>
       <c r="F179" s="31"/>
@@ -6900,7 +6825,7 @@
       <c r="L179" s="30"/>
       <c r="M179" s="20"/>
     </row>
-    <row r="180" spans="4:13">
+    <row r="180" spans="1:14">
       <c r="D180" s="22"/>
       <c r="E180" s="20"/>
       <c r="F180" s="31"/>
@@ -6911,7 +6836,7 @@
       <c r="L180" s="30"/>
       <c r="M180" s="20"/>
     </row>
-    <row r="181" spans="4:13">
+    <row r="181" spans="1:14">
       <c r="D181" s="22"/>
       <c r="E181" s="20"/>
       <c r="F181" s="31"/>
@@ -6922,7 +6847,7 @@
       <c r="L181" s="30"/>
       <c r="M181" s="20"/>
     </row>
-    <row r="182" spans="4:13">
+    <row r="182" spans="1:14">
       <c r="D182" s="22"/>
       <c r="E182" s="20"/>
       <c r="F182" s="31"/>
@@ -6933,7 +6858,7 @@
       <c r="L182" s="30"/>
       <c r="M182" s="20"/>
     </row>
-    <row r="183" spans="4:13">
+    <row r="183" spans="1:14">
       <c r="D183" s="22"/>
       <c r="E183" s="20"/>
       <c r="F183" s="31"/>
@@ -6944,7 +6869,7 @@
       <c r="L183" s="30"/>
       <c r="M183" s="20"/>
     </row>
-    <row r="184" spans="4:13">
+    <row r="184" spans="1:14">
       <c r="D184" s="22"/>
       <c r="E184" s="20"/>
       <c r="F184" s="31"/>
@@ -6955,7 +6880,7 @@
       <c r="L184" s="30"/>
       <c r="M184" s="20"/>
     </row>
-    <row r="185" spans="4:13">
+    <row r="185" spans="1:14">
       <c r="D185" s="22"/>
       <c r="E185" s="20"/>
       <c r="F185" s="31"/>
@@ -6966,7 +6891,7 @@
       <c r="L185" s="30"/>
       <c r="M185" s="20"/>
     </row>
-    <row r="186" spans="4:13">
+    <row r="186" spans="1:14">
       <c r="D186" s="22"/>
       <c r="E186" s="20"/>
       <c r="F186" s="31"/>
@@ -6977,7 +6902,7 @@
       <c r="L186" s="30"/>
       <c r="M186" s="20"/>
     </row>
-    <row r="187" spans="4:13">
+    <row r="187" spans="1:14">
       <c r="D187" s="22"/>
       <c r="E187" s="20"/>
       <c r="F187" s="31"/>
@@ -6988,7 +6913,7 @@
       <c r="L187" s="30"/>
       <c r="M187" s="20"/>
     </row>
-    <row r="188" spans="4:13">
+    <row r="188" spans="1:14">
       <c r="D188" s="22"/>
       <c r="E188" s="20"/>
       <c r="F188" s="31"/>
@@ -6999,7 +6924,7 @@
       <c r="L188" s="30"/>
       <c r="M188" s="20"/>
     </row>
-    <row r="189" spans="4:13">
+    <row r="189" spans="1:14">
       <c r="D189" s="22"/>
       <c r="E189" s="20"/>
       <c r="F189" s="31"/>
@@ -7010,7 +6935,7 @@
       <c r="L189" s="30"/>
       <c r="M189" s="20"/>
     </row>
-    <row r="190" spans="4:13">
+    <row r="190" spans="1:14">
       <c r="D190" s="22"/>
       <c r="E190" s="20"/>
       <c r="F190" s="31"/>
@@ -7021,48 +6946,65 @@
       <c r="L190" s="30"/>
       <c r="M190" s="20"/>
     </row>
-    <row r="191" spans="4:13">
+    <row r="191" spans="1:14">
+      <c r="A191" s="24"/>
+      <c r="B191" s="20"/>
+      <c r="C191" s="22"/>
       <c r="D191" s="22"/>
       <c r="E191" s="20"/>
-      <c r="F191" s="31"/>
-      <c r="G191" s="20"/>
+      <c r="F191" s="22"/>
+      <c r="G191" s="22"/>
       <c r="H191" s="22"/>
       <c r="I191" s="23"/>
+      <c r="J191" s="19"/>
       <c r="K191" s="19"/>
-      <c r="L191" s="30"/>
+      <c r="L191" s="20"/>
       <c r="M191" s="20"/>
-    </row>
-    <row r="192" spans="4:13">
+      <c r="N191" s="25"/>
+    </row>
+    <row r="192" spans="1:14">
+      <c r="A192" s="24"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="22"/>
       <c r="D192" s="22"/>
       <c r="E192" s="20"/>
-      <c r="F192" s="31"/>
-      <c r="G192" s="20"/>
+      <c r="F192" s="22"/>
+      <c r="G192" s="22"/>
       <c r="H192" s="22"/>
       <c r="I192" s="23"/>
+      <c r="J192" s="19"/>
       <c r="K192" s="19"/>
-      <c r="L192" s="30"/>
+      <c r="L192" s="20"/>
       <c r="M192" s="20"/>
     </row>
     <row r="193" spans="1:14">
+      <c r="A193" s="24"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="22"/>
       <c r="D193" s="22"/>
       <c r="E193" s="20"/>
-      <c r="F193" s="31"/>
-      <c r="G193" s="20"/>
+      <c r="F193" s="22"/>
+      <c r="G193" s="22"/>
       <c r="H193" s="22"/>
       <c r="I193" s="23"/>
+      <c r="J193" s="19"/>
       <c r="K193" s="19"/>
-      <c r="L193" s="30"/>
+      <c r="L193" s="20"/>
       <c r="M193" s="20"/>
     </row>
     <row r="194" spans="1:14">
+      <c r="A194" s="24"/>
+      <c r="B194" s="20"/>
+      <c r="C194" s="22"/>
       <c r="D194" s="22"/>
       <c r="E194" s="20"/>
-      <c r="F194" s="31"/>
-      <c r="G194" s="20"/>
+      <c r="F194" s="22"/>
+      <c r="G194" s="22"/>
       <c r="H194" s="22"/>
       <c r="I194" s="23"/>
+      <c r="J194" s="19"/>
       <c r="K194" s="19"/>
-      <c r="L194" s="30"/>
+      <c r="L194" s="20"/>
       <c r="M194" s="20"/>
     </row>
     <row r="195" spans="1:14">
@@ -7079,7 +7021,6 @@
       <c r="K195" s="19"/>
       <c r="L195" s="20"/>
       <c r="M195" s="20"/>
-      <c r="N195" s="25"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="24"/>
@@ -7140,6 +7081,7 @@
       <c r="K199" s="19"/>
       <c r="L199" s="20"/>
       <c r="M199" s="20"/>
+      <c r="N199" s="25"/>
     </row>
     <row r="200" spans="1:14">
       <c r="A200" s="24"/>
@@ -7200,7 +7142,6 @@
       <c r="K203" s="19"/>
       <c r="L203" s="20"/>
       <c r="M203" s="20"/>
-      <c r="N203" s="25"/>
     </row>
     <row r="204" spans="1:14">
       <c r="A204" s="24"/>
@@ -7261,6 +7202,7 @@
       <c r="K207" s="19"/>
       <c r="L207" s="20"/>
       <c r="M207" s="20"/>
+      <c r="N207" s="25"/>
     </row>
     <row r="208" spans="1:14">
       <c r="A208" s="24"/>
@@ -7276,6 +7218,7 @@
       <c r="K208" s="19"/>
       <c r="L208" s="20"/>
       <c r="M208" s="20"/>
+      <c r="N208" s="25"/>
     </row>
     <row r="209" spans="1:14">
       <c r="A209" s="24"/>
@@ -7291,6 +7234,7 @@
       <c r="K209" s="19"/>
       <c r="L209" s="20"/>
       <c r="M209" s="20"/>
+      <c r="N209" s="25"/>
     </row>
     <row r="210" spans="1:14">
       <c r="A210" s="24"/>
@@ -7306,6 +7250,7 @@
       <c r="K210" s="19"/>
       <c r="L210" s="20"/>
       <c r="M210" s="20"/>
+      <c r="N210" s="25"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="24"/>
@@ -7593,7 +7538,7 @@
       <c r="K228" s="19"/>
       <c r="L228" s="20"/>
       <c r="M228" s="20"/>
-      <c r="N228" s="25"/>
+      <c r="N228" s="27"/>
     </row>
     <row r="229" spans="1:14">
       <c r="A229" s="24"/>
@@ -7609,7 +7554,7 @@
       <c r="K229" s="19"/>
       <c r="L229" s="20"/>
       <c r="M229" s="20"/>
-      <c r="N229" s="25"/>
+      <c r="N229" s="27"/>
     </row>
     <row r="230" spans="1:14">
       <c r="A230" s="24"/>
@@ -7625,7 +7570,7 @@
       <c r="K230" s="19"/>
       <c r="L230" s="20"/>
       <c r="M230" s="20"/>
-      <c r="N230" s="25"/>
+      <c r="N230" s="27"/>
     </row>
     <row r="231" spans="1:14">
       <c r="A231" s="24"/>
@@ -7641,7 +7586,7 @@
       <c r="K231" s="19"/>
       <c r="L231" s="20"/>
       <c r="M231" s="20"/>
-      <c r="N231" s="25"/>
+      <c r="N231" s="27"/>
     </row>
     <row r="232" spans="1:14">
       <c r="A232" s="24"/>
@@ -7708,14 +7653,13 @@
       <c r="N235" s="27"/>
     </row>
     <row r="236" spans="1:14">
-      <c r="A236" s="24"/>
+      <c r="A236" s="11"/>
       <c r="B236" s="20"/>
-      <c r="C236" s="22"/>
-      <c r="D236" s="22"/>
-      <c r="E236" s="20"/>
-      <c r="F236" s="22"/>
-      <c r="G236" s="22"/>
-      <c r="H236" s="22"/>
+      <c r="C236" s="5"/>
+      <c r="D236" s="5"/>
+      <c r="F236" s="5"/>
+      <c r="G236" s="5"/>
+      <c r="H236" s="5"/>
       <c r="I236" s="23"/>
       <c r="J236" s="19"/>
       <c r="K236" s="19"/>
@@ -7724,14 +7668,13 @@
       <c r="N236" s="27"/>
     </row>
     <row r="237" spans="1:14">
-      <c r="A237" s="24"/>
+      <c r="A237" s="11"/>
       <c r="B237" s="20"/>
-      <c r="C237" s="22"/>
-      <c r="D237" s="22"/>
-      <c r="E237" s="20"/>
-      <c r="F237" s="22"/>
-      <c r="G237" s="22"/>
-      <c r="H237" s="22"/>
+      <c r="C237" s="5"/>
+      <c r="D237" s="5"/>
+      <c r="F237" s="5"/>
+      <c r="G237" s="5"/>
+      <c r="H237" s="5"/>
       <c r="I237" s="23"/>
       <c r="J237" s="19"/>
       <c r="K237" s="19"/>
@@ -7740,14 +7683,13 @@
       <c r="N237" s="27"/>
     </row>
     <row r="238" spans="1:14">
-      <c r="A238" s="24"/>
+      <c r="A238" s="11"/>
       <c r="B238" s="20"/>
-      <c r="C238" s="22"/>
-      <c r="D238" s="22"/>
-      <c r="E238" s="20"/>
-      <c r="F238" s="22"/>
-      <c r="G238" s="22"/>
-      <c r="H238" s="22"/>
+      <c r="C238" s="5"/>
+      <c r="D238" s="5"/>
+      <c r="F238" s="5"/>
+      <c r="G238" s="5"/>
+      <c r="H238" s="5"/>
       <c r="I238" s="23"/>
       <c r="J238" s="19"/>
       <c r="K238" s="19"/>
@@ -7756,20 +7698,19 @@
       <c r="N238" s="27"/>
     </row>
     <row r="239" spans="1:14">
-      <c r="A239" s="24"/>
+      <c r="A239" s="11"/>
       <c r="B239" s="20"/>
-      <c r="C239" s="22"/>
-      <c r="D239" s="22"/>
-      <c r="E239" s="20"/>
-      <c r="F239" s="22"/>
-      <c r="G239" s="22"/>
-      <c r="H239" s="22"/>
+      <c r="C239" s="5"/>
+      <c r="D239" s="5"/>
+      <c r="F239" s="5"/>
+      <c r="G239" s="5"/>
+      <c r="H239" s="5"/>
       <c r="I239" s="23"/>
       <c r="J239" s="19"/>
       <c r="K239" s="19"/>
       <c r="L239" s="20"/>
       <c r="M239" s="20"/>
-      <c r="N239" s="27"/>
+      <c r="N239" s="25"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="11"/>
@@ -7784,7 +7725,7 @@
       <c r="K240" s="19"/>
       <c r="L240" s="20"/>
       <c r="M240" s="20"/>
-      <c r="N240" s="27"/>
+      <c r="N240" s="25"/>
     </row>
     <row r="241" spans="1:14">
       <c r="A241" s="11"/>
@@ -7799,7 +7740,7 @@
       <c r="K241" s="19"/>
       <c r="L241" s="20"/>
       <c r="M241" s="20"/>
-      <c r="N241" s="27"/>
+      <c r="N241" s="25"/>
     </row>
     <row r="242" spans="1:14">
       <c r="A242" s="11"/>
@@ -7814,7 +7755,7 @@
       <c r="K242" s="19"/>
       <c r="L242" s="20"/>
       <c r="M242" s="20"/>
-      <c r="N242" s="27"/>
+      <c r="N242" s="25"/>
     </row>
     <row r="243" spans="1:14">
       <c r="A243" s="11"/>
@@ -8009,7 +7950,7 @@
       <c r="K255" s="19"/>
       <c r="L255" s="20"/>
       <c r="M255" s="20"/>
-      <c r="N255" s="25"/>
+      <c r="N255" s="28"/>
     </row>
     <row r="256" spans="1:14">
       <c r="A256" s="11"/>
@@ -8024,7 +7965,7 @@
       <c r="K256" s="19"/>
       <c r="L256" s="20"/>
       <c r="M256" s="20"/>
-      <c r="N256" s="25"/>
+      <c r="N256" s="28"/>
     </row>
     <row r="257" spans="1:14">
       <c r="A257" s="11"/>
@@ -8039,7 +7980,7 @@
       <c r="K257" s="19"/>
       <c r="L257" s="20"/>
       <c r="M257" s="20"/>
-      <c r="N257" s="25"/>
+      <c r="N257" s="28"/>
     </row>
     <row r="258" spans="1:14">
       <c r="A258" s="11"/>
@@ -8054,7 +7995,7 @@
       <c r="K258" s="19"/>
       <c r="L258" s="20"/>
       <c r="M258" s="20"/>
-      <c r="N258" s="25"/>
+      <c r="N258" s="28"/>
     </row>
     <row r="259" spans="1:14">
       <c r="A259" s="11"/>
@@ -8069,7 +8010,7 @@
       <c r="K259" s="19"/>
       <c r="L259" s="20"/>
       <c r="M259" s="20"/>
-      <c r="N259" s="28"/>
+      <c r="N259" s="25"/>
     </row>
     <row r="260" spans="1:14">
       <c r="A260" s="11"/>
@@ -8084,7 +8025,7 @@
       <c r="K260" s="19"/>
       <c r="L260" s="20"/>
       <c r="M260" s="20"/>
-      <c r="N260" s="28"/>
+      <c r="N260" s="25"/>
     </row>
     <row r="261" spans="1:14">
       <c r="A261" s="11"/>
@@ -8099,7 +8040,7 @@
       <c r="K261" s="19"/>
       <c r="L261" s="20"/>
       <c r="M261" s="20"/>
-      <c r="N261" s="28"/>
+      <c r="N261" s="25"/>
     </row>
     <row r="262" spans="1:14">
       <c r="A262" s="11"/>
@@ -8114,7 +8055,7 @@
       <c r="K262" s="19"/>
       <c r="L262" s="20"/>
       <c r="M262" s="20"/>
-      <c r="N262" s="28"/>
+      <c r="N262" s="25"/>
     </row>
     <row r="263" spans="1:14">
       <c r="A263" s="11"/>
@@ -8234,7 +8175,7 @@
       <c r="K270" s="19"/>
       <c r="L270" s="20"/>
       <c r="M270" s="20"/>
-      <c r="N270" s="25"/>
+      <c r="N270" s="29"/>
     </row>
     <row r="271" spans="1:14">
       <c r="A271" s="11"/>
@@ -8249,7 +8190,7 @@
       <c r="K271" s="19"/>
       <c r="L271" s="20"/>
       <c r="M271" s="20"/>
-      <c r="N271" s="25"/>
+      <c r="N271" s="29"/>
     </row>
     <row r="272" spans="1:14">
       <c r="A272" s="11"/>
@@ -8264,7 +8205,7 @@
       <c r="K272" s="19"/>
       <c r="L272" s="20"/>
       <c r="M272" s="20"/>
-      <c r="N272" s="25"/>
+      <c r="N272" s="29"/>
     </row>
     <row r="273" spans="1:14">
       <c r="A273" s="11"/>
@@ -8279,7 +8220,7 @@
       <c r="K273" s="19"/>
       <c r="L273" s="20"/>
       <c r="M273" s="20"/>
-      <c r="N273" s="25"/>
+      <c r="N273" s="27"/>
     </row>
     <row r="274" spans="1:14">
       <c r="A274" s="11"/>
@@ -8294,7 +8235,7 @@
       <c r="K274" s="19"/>
       <c r="L274" s="20"/>
       <c r="M274" s="20"/>
-      <c r="N274" s="29"/>
+      <c r="N274" s="27"/>
     </row>
     <row r="275" spans="1:14">
       <c r="A275" s="11"/>
@@ -8309,7 +8250,7 @@
       <c r="K275" s="19"/>
       <c r="L275" s="20"/>
       <c r="M275" s="20"/>
-      <c r="N275" s="29"/>
+      <c r="N275" s="27"/>
     </row>
     <row r="276" spans="1:14">
       <c r="A276" s="11"/>
@@ -8324,7 +8265,7 @@
       <c r="K276" s="19"/>
       <c r="L276" s="20"/>
       <c r="M276" s="20"/>
-      <c r="N276" s="29"/>
+      <c r="N276" s="27"/>
     </row>
     <row r="277" spans="1:14">
       <c r="A277" s="11"/>
@@ -8399,7 +8340,7 @@
       <c r="K281" s="19"/>
       <c r="L281" s="20"/>
       <c r="M281" s="20"/>
-      <c r="N281" s="27"/>
+      <c r="N281" s="29"/>
     </row>
     <row r="282" spans="1:14">
       <c r="A282" s="11"/>
@@ -8414,10 +8355,9 @@
       <c r="K282" s="19"/>
       <c r="L282" s="20"/>
       <c r="M282" s="20"/>
-      <c r="N282" s="27"/>
+      <c r="N282" s="29"/>
     </row>
     <row r="283" spans="1:14">
-      <c r="A283" s="11"/>
       <c r="B283" s="20"/>
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
@@ -8429,10 +8369,9 @@
       <c r="K283" s="19"/>
       <c r="L283" s="20"/>
       <c r="M283" s="20"/>
-      <c r="N283" s="27"/>
+      <c r="N283" s="29"/>
     </row>
     <row r="284" spans="1:14">
-      <c r="A284" s="11"/>
       <c r="B284" s="20"/>
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
@@ -8444,10 +8383,9 @@
       <c r="K284" s="19"/>
       <c r="L284" s="20"/>
       <c r="M284" s="20"/>
-      <c r="N284" s="27"/>
+      <c r="N284" s="29"/>
     </row>
     <row r="285" spans="1:14">
-      <c r="A285" s="11"/>
       <c r="B285" s="20"/>
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
@@ -8462,7 +8400,6 @@
       <c r="N285" s="29"/>
     </row>
     <row r="286" spans="1:14">
-      <c r="A286" s="11"/>
       <c r="B286" s="20"/>
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
@@ -8586,7 +8523,7 @@
       <c r="K294" s="19"/>
       <c r="L294" s="20"/>
       <c r="M294" s="20"/>
-      <c r="N294" s="29"/>
+      <c r="N294" s="25"/>
     </row>
     <row r="295" spans="2:14">
       <c r="B295" s="20"/>
@@ -8600,7 +8537,7 @@
       <c r="K295" s="19"/>
       <c r="L295" s="20"/>
       <c r="M295" s="20"/>
-      <c r="N295" s="29"/>
+      <c r="N295" s="25"/>
     </row>
     <row r="296" spans="2:14">
       <c r="B296" s="20"/>
@@ -8614,7 +8551,7 @@
       <c r="K296" s="19"/>
       <c r="L296" s="20"/>
       <c r="M296" s="20"/>
-      <c r="N296" s="29"/>
+      <c r="N296" s="25"/>
     </row>
     <row r="297" spans="2:14">
       <c r="B297" s="20"/>
@@ -8628,63 +8565,59 @@
       <c r="K297" s="19"/>
       <c r="L297" s="20"/>
       <c r="M297" s="20"/>
-      <c r="N297" s="29"/>
+      <c r="N297" s="25"/>
     </row>
     <row r="298" spans="2:14">
-      <c r="B298" s="20"/>
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
       <c r="F298" s="5"/>
       <c r="G298" s="5"/>
       <c r="H298" s="5"/>
-      <c r="I298" s="23"/>
+      <c r="I298" s="18"/>
       <c r="J298" s="19"/>
       <c r="K298" s="19"/>
       <c r="L298" s="20"/>
       <c r="M298" s="20"/>
-      <c r="N298" s="25"/>
+      <c r="N298" s="20"/>
     </row>
     <row r="299" spans="2:14">
-      <c r="B299" s="20"/>
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
       <c r="F299" s="5"/>
       <c r="G299" s="5"/>
       <c r="H299" s="5"/>
-      <c r="I299" s="23"/>
+      <c r="I299" s="18"/>
       <c r="J299" s="19"/>
       <c r="K299" s="19"/>
       <c r="L299" s="20"/>
       <c r="M299" s="20"/>
-      <c r="N299" s="25"/>
+      <c r="N299" s="20"/>
     </row>
     <row r="300" spans="2:14">
-      <c r="B300" s="20"/>
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
       <c r="F300" s="5"/>
       <c r="G300" s="5"/>
       <c r="H300" s="5"/>
-      <c r="I300" s="23"/>
+      <c r="I300" s="18"/>
       <c r="J300" s="19"/>
       <c r="K300" s="19"/>
       <c r="L300" s="20"/>
       <c r="M300" s="20"/>
-      <c r="N300" s="25"/>
+      <c r="N300" s="20"/>
     </row>
     <row r="301" spans="2:14">
-      <c r="B301" s="20"/>
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
       <c r="F301" s="5"/>
       <c r="G301" s="5"/>
       <c r="H301" s="5"/>
-      <c r="I301" s="23"/>
+      <c r="I301" s="18"/>
       <c r="J301" s="19"/>
       <c r="K301" s="19"/>
       <c r="L301" s="20"/>
       <c r="M301" s="20"/>
-      <c r="N301" s="25"/>
+      <c r="N301" s="20"/>
     </row>
     <row r="302" spans="2:14">
       <c r="C302" s="5"/>
@@ -10063,58 +9996,6 @@
       <c r="L407" s="20"/>
       <c r="M407" s="20"/>
       <c r="N407" s="20"/>
-    </row>
-    <row r="408" spans="3:14">
-      <c r="C408" s="5"/>
-      <c r="D408" s="5"/>
-      <c r="F408" s="5"/>
-      <c r="G408" s="5"/>
-      <c r="H408" s="5"/>
-      <c r="I408" s="18"/>
-      <c r="J408" s="19"/>
-      <c r="K408" s="19"/>
-      <c r="L408" s="20"/>
-      <c r="M408" s="20"/>
-      <c r="N408" s="20"/>
-    </row>
-    <row r="409" spans="3:14">
-      <c r="C409" s="5"/>
-      <c r="D409" s="5"/>
-      <c r="F409" s="5"/>
-      <c r="G409" s="5"/>
-      <c r="H409" s="5"/>
-      <c r="I409" s="18"/>
-      <c r="J409" s="19"/>
-      <c r="K409" s="19"/>
-      <c r="L409" s="20"/>
-      <c r="M409" s="20"/>
-      <c r="N409" s="20"/>
-    </row>
-    <row r="410" spans="3:14">
-      <c r="C410" s="5"/>
-      <c r="D410" s="5"/>
-      <c r="F410" s="5"/>
-      <c r="G410" s="5"/>
-      <c r="H410" s="5"/>
-      <c r="I410" s="18"/>
-      <c r="J410" s="19"/>
-      <c r="K410" s="19"/>
-      <c r="L410" s="20"/>
-      <c r="M410" s="20"/>
-      <c r="N410" s="20"/>
-    </row>
-    <row r="411" spans="3:14">
-      <c r="C411" s="5"/>
-      <c r="D411" s="5"/>
-      <c r="F411" s="5"/>
-      <c r="G411" s="5"/>
-      <c r="H411" s="5"/>
-      <c r="I411" s="18"/>
-      <c r="J411" s="19"/>
-      <c r="K411" s="19"/>
-      <c r="L411" s="20"/>
-      <c r="M411" s="20"/>
-      <c r="N411" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -10141,20 +10022,20 @@
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{D357D88A-2775-40B2-B73F-2173296B7938}"/>
-    <hyperlink ref="N20" r:id="rId2" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.apsusc.2015.06.144" xr:uid="{7B5DAC3E-CC87-4E4D-88FE-D347944EC451}"/>
-    <hyperlink ref="N21" r:id="rId3" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.apsusc.2015.06.144" xr:uid="{B8917B0F-EAE3-BB44-B24C-8FEEF5A89805}"/>
-    <hyperlink ref="N23" r:id="rId4" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.apsusc.2015.06.144" xr:uid="{552FF139-646F-3A4F-9882-48DCFC66B1EC}"/>
-    <hyperlink ref="N22" r:id="rId5" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.apsusc.2015.06.144" xr:uid="{704921CC-C8E2-464E-BC7A-DC08544C776F}"/>
-    <hyperlink ref="N24" r:id="rId6" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.apsusc.2015.06.144" xr:uid="{00D93C46-189D-C846-93F4-F22C51020844}"/>
-    <hyperlink ref="N25" r:id="rId7" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.apsusc.2015.06.144" xr:uid="{DC4CA17A-631B-6A40-AF61-57AA255452FB}"/>
-    <hyperlink ref="N98" r:id="rId8" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{40D0BFA4-26A7-AB49-B4AC-7F69BBE04DBA}"/>
-    <hyperlink ref="N99" r:id="rId9" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{F035D85F-3E3C-944D-B994-D6DF456BA947}"/>
-    <hyperlink ref="N100" r:id="rId10" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{D15E9247-F3FB-DA4D-BA2F-90D1BA171F67}"/>
-    <hyperlink ref="N102" r:id="rId11" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{F489F2C3-9FCB-7749-A957-209996C88122}"/>
-    <hyperlink ref="N104" r:id="rId12" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{240582A7-EB47-7E49-8BFC-1E20D9179D29}"/>
-    <hyperlink ref="N101" r:id="rId13" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{4277758D-7704-1043-B0F7-DFE0405B8FC0}"/>
-    <hyperlink ref="N103" r:id="rId14" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{78AD1C2D-7233-1643-9FA7-DAC9FECDF47D}"/>
-    <hyperlink ref="N105" r:id="rId15" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{5B661B0E-1463-7F48-AA96-8F92169B7B63}"/>
+    <hyperlink ref="N16" r:id="rId2" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.apsusc.2015.06.144" xr:uid="{7B5DAC3E-CC87-4E4D-88FE-D347944EC451}"/>
+    <hyperlink ref="N17" r:id="rId3" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.apsusc.2015.06.144" xr:uid="{B8917B0F-EAE3-BB44-B24C-8FEEF5A89805}"/>
+    <hyperlink ref="N19" r:id="rId4" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.apsusc.2015.06.144" xr:uid="{552FF139-646F-3A4F-9882-48DCFC66B1EC}"/>
+    <hyperlink ref="N18" r:id="rId5" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.apsusc.2015.06.144" xr:uid="{704921CC-C8E2-464E-BC7A-DC08544C776F}"/>
+    <hyperlink ref="N20" r:id="rId6" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.apsusc.2015.06.144" xr:uid="{00D93C46-189D-C846-93F4-F22C51020844}"/>
+    <hyperlink ref="N21" r:id="rId7" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.apsusc.2015.06.144" xr:uid="{DC4CA17A-631B-6A40-AF61-57AA255452FB}"/>
+    <hyperlink ref="N94" r:id="rId8" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{40D0BFA4-26A7-AB49-B4AC-7F69BBE04DBA}"/>
+    <hyperlink ref="N95" r:id="rId9" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{F035D85F-3E3C-944D-B994-D6DF456BA947}"/>
+    <hyperlink ref="N96" r:id="rId10" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{D15E9247-F3FB-DA4D-BA2F-90D1BA171F67}"/>
+    <hyperlink ref="N98" r:id="rId11" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{F489F2C3-9FCB-7749-A957-209996C88122}"/>
+    <hyperlink ref="N100" r:id="rId12" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{240582A7-EB47-7E49-8BFC-1E20D9179D29}"/>
+    <hyperlink ref="N97" r:id="rId13" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{4277758D-7704-1043-B0F7-DFE0405B8FC0}"/>
+    <hyperlink ref="N99" r:id="rId14" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{78AD1C2D-7233-1643-9FA7-DAC9FECDF47D}"/>
+    <hyperlink ref="N101" r:id="rId15" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.jallcom.2013.12.210" xr:uid="{5B661B0E-1463-7F48-AA96-8F92169B7B63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId16"/>

--- a/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
+++ b/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-guest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1369CAA-65E9-AE41-8A4B-369CAB8F861A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55D0ECB-2AA6-234E-B289-CEFA9D346814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9300" yWindow="760" windowWidth="34560" windowHeight="20140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="236">
   <si>
     <t>Name:</t>
   </si>
@@ -354,9 +354,6 @@
     <t>HIP + A</t>
   </si>
   <si>
-    <t>beta</t>
-  </si>
-  <si>
     <t xml:space="preserve">EXP </t>
   </si>
   <si>
@@ -427,9 +424,6 @@
   </si>
   <si>
     <t>T4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3390/ma11010069 </t>
   </si>
   <si>
     <t>10.3390/met9010076</t>
@@ -483,9 +477,6 @@
   </si>
   <si>
     <t>10.1016/j.jallcom.2013.12.210</t>
-  </si>
-  <si>
-    <t>Nb40.7 Ti12.8 Mo4.7 W1.3 Hf1.5 Cr2.7 Si20.8 Ge5.9 Al4.6 Sn5</t>
   </si>
   <si>
     <t>Mo98.79 Ti1.0 Zr0.08 C0.13</t>
@@ -1344,10 +1335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T407"/>
+  <dimension ref="A1:T406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103:XFD103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1381,14 +1372,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D2" s="42" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="42"/>
       <c r="F2" s="40" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G2" s="41"/>
       <c r="H2" s="41"/>
@@ -1405,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
@@ -1466,7 +1457,7 @@
         <v>30</v>
       </c>
       <c r="M5" s="39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N5" s="39" t="s">
         <v>46</v>
@@ -1654,10 +1645,10 @@
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="23">
@@ -1672,10 +1663,10 @@
         <v>47</v>
       </c>
       <c r="M10" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="N10" s="25" t="s">
         <v>108</v>
-      </c>
-      <c r="N10" s="25" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1690,10 +1681,10 @@
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="23">
@@ -1708,10 +1699,10 @@
         <v>47</v>
       </c>
       <c r="M11" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="N11" s="25" t="s">
         <v>108</v>
-      </c>
-      <c r="N11" s="25" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1726,10 +1717,10 @@
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="23">
@@ -1743,10 +1734,10 @@
         <v>47</v>
       </c>
       <c r="M12" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="N12" s="25" t="s">
         <v>108</v>
-      </c>
-      <c r="N12" s="25" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1761,10 +1752,10 @@
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="23">
@@ -1778,10 +1769,10 @@
         <v>47</v>
       </c>
       <c r="M13" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="N13" s="25" t="s">
         <v>108</v>
-      </c>
-      <c r="N13" s="25" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1796,10 +1787,10 @@
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="23">
@@ -1813,10 +1804,10 @@
         <v>47</v>
       </c>
       <c r="M14" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="N14" s="25" t="s">
         <v>108</v>
-      </c>
-      <c r="N14" s="25" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1831,10 +1822,10 @@
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="23">
@@ -1849,7 +1840,7 @@
       </c>
       <c r="M15" s="20"/>
       <c r="N15" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1857,22 +1848,22 @@
         <v>37</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C16" s="46" t="s">
         <v>103</v>
       </c>
       <c r="D16" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="E16" s="46" t="s">
-        <v>236</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>238</v>
-      </c>
       <c r="G16" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="23">
@@ -1886,10 +1877,10 @@
         <v>47</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N16" s="33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1900,19 +1891,19 @@
         <v>66</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D17" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="E17" s="46" t="s">
-        <v>236</v>
-      </c>
-      <c r="F17" s="46" t="s">
-        <v>238</v>
-      </c>
       <c r="G17" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="23">
@@ -1926,10 +1917,10 @@
         <v>47</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N17" s="33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1937,20 +1928,20 @@
         <v>39</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="F18" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="E18" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>238</v>
-      </c>
       <c r="G18" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="23">
@@ -1964,10 +1955,10 @@
         <v>47</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1975,20 +1966,20 @@
         <v>40</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="E19" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>238</v>
-      </c>
       <c r="G19" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H19" s="22"/>
       <c r="I19" s="23">
@@ -2002,10 +1993,10 @@
         <v>47</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N19" s="33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2017,16 +2008,16 @@
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="F20" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="E20" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>238</v>
-      </c>
       <c r="G20" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="23">
@@ -2040,10 +2031,10 @@
         <v>47</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N20" s="33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2055,16 +2046,16 @@
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="F21" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="E21" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>238</v>
-      </c>
       <c r="G21" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H21" s="22"/>
       <c r="I21" s="23">
@@ -2078,10 +2069,10 @@
         <v>47</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N21" s="33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2094,10 +2085,10 @@
       <c r="C22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="23">
@@ -2111,10 +2102,10 @@
         <v>47</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N22" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2122,22 +2113,22 @@
         <v>44</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C23" s="46" t="s">
         <v>103</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E23" s="46" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="23">
@@ -2153,10 +2144,10 @@
         <v>47</v>
       </c>
       <c r="M23" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N23" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2164,22 +2155,22 @@
         <v>45</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C24" s="46" t="s">
         <v>103</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="23">
@@ -2195,10 +2186,10 @@
         <v>47</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2206,22 +2197,22 @@
         <v>46</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="23">
@@ -2237,10 +2228,10 @@
         <v>47</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2248,22 +2239,22 @@
         <v>47</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E26" s="46" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="23">
@@ -2279,10 +2270,10 @@
         <v>47</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N26" s="47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2290,22 +2281,22 @@
         <v>48</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E27" s="46" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="23">
@@ -2321,10 +2312,10 @@
         <v>47</v>
       </c>
       <c r="M27" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2332,20 +2323,20 @@
         <v>49</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="23">
@@ -2363,10 +2354,10 @@
         <v>47</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N28" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2374,20 +2365,20 @@
         <v>50</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="23">
@@ -2405,10 +2396,10 @@
         <v>47</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2416,20 +2407,20 @@
         <v>51</v>
       </c>
       <c r="B30" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="C30" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="C30" s="46" t="s">
-        <v>231</v>
-      </c>
       <c r="D30" s="47" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="23">
@@ -2447,10 +2438,10 @@
         <v>47</v>
       </c>
       <c r="M30" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N30" s="47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2458,20 +2449,20 @@
         <v>52</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="23">
@@ -2489,10 +2480,10 @@
         <v>47</v>
       </c>
       <c r="M31" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2500,22 +2491,22 @@
         <v>53</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E32" s="46" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H32" s="22"/>
       <c r="I32" s="23">
@@ -2533,10 +2524,10 @@
         <v>47</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2544,22 +2535,22 @@
         <v>54</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C33" s="46" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E33" s="46" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H33" s="22"/>
       <c r="I33" s="23">
@@ -2577,10 +2568,10 @@
         <v>47</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N33" s="47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2588,22 +2579,22 @@
         <v>55</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C34" s="46" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E34" s="46" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H34" s="22"/>
       <c r="I34" s="23">
@@ -2621,10 +2612,10 @@
         <v>47</v>
       </c>
       <c r="M34" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2632,22 +2623,22 @@
         <v>56</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D35" s="47" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E35" s="46" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H35" s="22"/>
       <c r="I35" s="23">
@@ -2665,10 +2656,10 @@
         <v>47</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2686,10 +2677,10 @@
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H36" s="22"/>
       <c r="I36" s="23"/>
@@ -2702,10 +2693,10 @@
         <v>47</v>
       </c>
       <c r="M36" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N36" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2723,10 +2714,10 @@
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H37" s="22"/>
       <c r="I37" s="23"/>
@@ -2739,10 +2730,10 @@
         <v>47</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2760,10 +2751,10 @@
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H38" s="22"/>
       <c r="I38" s="23"/>
@@ -2776,10 +2767,10 @@
         <v>47</v>
       </c>
       <c r="M38" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2797,10 +2788,10 @@
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H39" s="22"/>
       <c r="I39" s="23"/>
@@ -2813,10 +2804,10 @@
         <v>47</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2834,10 +2825,10 @@
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H40" s="22"/>
       <c r="I40" s="23"/>
@@ -2850,10 +2841,10 @@
         <v>47</v>
       </c>
       <c r="M40" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2871,10 +2862,10 @@
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H41" s="22"/>
       <c r="I41" s="23"/>
@@ -2887,10 +2878,10 @@
         <v>47</v>
       </c>
       <c r="M41" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2908,10 +2899,10 @@
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H42" s="22"/>
       <c r="I42" s="23"/>
@@ -2924,10 +2915,10 @@
         <v>47</v>
       </c>
       <c r="M42" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2945,10 +2936,10 @@
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H43" s="22"/>
       <c r="I43" s="23"/>
@@ -2961,10 +2952,10 @@
         <v>47</v>
       </c>
       <c r="M43" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2978,16 +2969,16 @@
         <v>103</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E44" s="46" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F44" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H44" s="22"/>
       <c r="I44" s="23">
@@ -3002,10 +2993,10 @@
         <v>47</v>
       </c>
       <c r="M44" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="N44" s="25" t="s">
         <v>116</v>
-      </c>
-      <c r="N44" s="25" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -3013,22 +3004,22 @@
         <v>72</v>
       </c>
       <c r="B45" s="46" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>103</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E45" s="46" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F45" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H45" s="22"/>
       <c r="I45" s="23">
@@ -3043,10 +3034,10 @@
         <v>47</v>
       </c>
       <c r="M45" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="N45" s="25" t="s">
         <v>116</v>
-      </c>
-      <c r="N45" s="25" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3054,22 +3045,22 @@
         <v>73</v>
       </c>
       <c r="B46" s="46" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>103</v>
       </c>
       <c r="D46" s="47" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E46" s="46" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H46" s="22"/>
       <c r="I46" s="23">
@@ -3084,10 +3075,10 @@
         <v>47</v>
       </c>
       <c r="M46" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="N46" s="25" t="s">
         <v>116</v>
-      </c>
-      <c r="N46" s="25" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3095,22 +3086,22 @@
         <v>74</v>
       </c>
       <c r="B47" s="46" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>103</v>
       </c>
       <c r="D47" s="47" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E47" s="46" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H47" s="22"/>
       <c r="I47" s="23">
@@ -3124,10 +3115,10 @@
         <v>47</v>
       </c>
       <c r="M47" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="N47" s="25" t="s">
         <v>116</v>
-      </c>
-      <c r="N47" s="25" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3142,10 +3133,10 @@
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H48" s="22"/>
       <c r="I48" s="23">
@@ -3159,10 +3150,10 @@
         <v>47</v>
       </c>
       <c r="M48" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="N48" s="25" t="s">
         <v>118</v>
-      </c>
-      <c r="N48" s="25" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3177,10 +3168,10 @@
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H49" s="22"/>
       <c r="I49" s="23">
@@ -3194,10 +3185,10 @@
         <v>47</v>
       </c>
       <c r="M49" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="N49" s="25" t="s">
         <v>118</v>
-      </c>
-      <c r="N49" s="25" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3212,10 +3203,10 @@
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H50" s="22"/>
       <c r="I50" s="23">
@@ -3229,10 +3220,10 @@
         <v>47</v>
       </c>
       <c r="M50" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="N50" s="25" t="s">
         <v>118</v>
-      </c>
-      <c r="N50" s="25" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3247,10 +3238,10 @@
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H51" s="22"/>
       <c r="I51" s="23">
@@ -3264,10 +3255,10 @@
         <v>47</v>
       </c>
       <c r="M51" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="N51" s="25" t="s">
         <v>118</v>
-      </c>
-      <c r="N51" s="25" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3282,10 +3273,10 @@
       </c>
       <c r="E52" s="20"/>
       <c r="F52" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H52" s="22"/>
       <c r="I52" s="23">
@@ -3299,10 +3290,10 @@
         <v>47</v>
       </c>
       <c r="M52" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="N52" s="25" t="s">
         <v>118</v>
-      </c>
-      <c r="N52" s="25" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3310,17 +3301,17 @@
         <v>80</v>
       </c>
       <c r="B53" s="46" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C53" s="20" t="s">
         <v>103</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H53" s="22"/>
       <c r="I53" s="23">
@@ -3334,10 +3325,10 @@
         <v>47</v>
       </c>
       <c r="M53" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="N53" s="25" t="s">
         <v>118</v>
-      </c>
-      <c r="N53" s="25" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3345,17 +3336,17 @@
         <v>81</v>
       </c>
       <c r="B54" s="46" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C54" s="20" t="s">
         <v>103</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H54" s="22"/>
       <c r="I54" s="23">
@@ -3369,10 +3360,10 @@
         <v>47</v>
       </c>
       <c r="M54" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="N54" s="25" t="s">
         <v>118</v>
-      </c>
-      <c r="N54" s="25" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3380,17 +3371,17 @@
         <v>82</v>
       </c>
       <c r="B55" s="46" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>103</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H55" s="22"/>
       <c r="I55" s="23">
@@ -3404,10 +3395,10 @@
         <v>47</v>
       </c>
       <c r="M55" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="N55" s="25" t="s">
         <v>118</v>
-      </c>
-      <c r="N55" s="25" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3421,16 +3412,16 @@
         <v>103</v>
       </c>
       <c r="D56" s="47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E56" s="46" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F56" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H56" s="22"/>
       <c r="I56" s="23">
@@ -3445,10 +3436,10 @@
         <v>47</v>
       </c>
       <c r="M56" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="N56" s="25" t="s">
         <v>120</v>
-      </c>
-      <c r="N56" s="25" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3456,19 +3447,19 @@
         <v>84</v>
       </c>
       <c r="B57" s="46" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D57" s="47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E57" s="46" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F57" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="23">
@@ -3483,10 +3474,10 @@
         <v>47</v>
       </c>
       <c r="M57" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="N57" s="25" t="s">
         <v>120</v>
-      </c>
-      <c r="N57" s="25" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3494,19 +3485,19 @@
         <v>85</v>
       </c>
       <c r="B58" s="46" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D58" s="47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E58" s="46" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F58" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H58" s="22"/>
       <c r="I58" s="23">
@@ -3521,10 +3512,10 @@
         <v>47</v>
       </c>
       <c r="M58" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="N58" s="25" t="s">
         <v>120</v>
-      </c>
-      <c r="N58" s="25" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3532,22 +3523,22 @@
         <v>86</v>
       </c>
       <c r="B59" s="46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C59" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D59" s="47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E59" s="48" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F59" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H59" s="22"/>
       <c r="I59" s="3">
@@ -3561,10 +3552,10 @@
         <v>47</v>
       </c>
       <c r="M59" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N59" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3572,22 +3563,22 @@
         <v>87</v>
       </c>
       <c r="B60" s="46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C60" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D60" s="47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E60" s="48" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F60" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H60" s="22"/>
       <c r="I60" s="3">
@@ -3601,10 +3592,10 @@
         <v>47</v>
       </c>
       <c r="M60" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N60" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3612,22 +3603,22 @@
         <v>88</v>
       </c>
       <c r="B61" s="46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C61" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D61" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="E61" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="E61" s="48" t="s">
-        <v>168</v>
-      </c>
       <c r="F61" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H61" s="22"/>
       <c r="I61" s="3">
@@ -3641,10 +3632,10 @@
         <v>47</v>
       </c>
       <c r="M61" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N61" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3652,22 +3643,22 @@
         <v>89</v>
       </c>
       <c r="B62" s="46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C62" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D62" s="47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E62" s="48" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F62" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H62" s="22"/>
       <c r="I62" s="3">
@@ -3681,10 +3672,10 @@
         <v>47</v>
       </c>
       <c r="M62" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N62" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3692,22 +3683,22 @@
         <v>90</v>
       </c>
       <c r="B63" s="46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C63" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D63" s="47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E63" s="48" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F63" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H63" s="22"/>
       <c r="I63" s="3">
@@ -3721,10 +3712,10 @@
         <v>47</v>
       </c>
       <c r="M63" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N63" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3732,22 +3723,22 @@
         <v>91</v>
       </c>
       <c r="B64" s="46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C64" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D64" s="47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E64" s="48" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F64" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H64" s="22"/>
       <c r="I64" s="3">
@@ -3761,10 +3752,10 @@
         <v>47</v>
       </c>
       <c r="M64" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N64" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3772,22 +3763,22 @@
         <v>92</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C65" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D65" s="47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E65" s="48" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F65" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H65" s="22"/>
       <c r="I65" s="3">
@@ -3801,10 +3792,10 @@
         <v>47</v>
       </c>
       <c r="M65" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N65" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3812,22 +3803,22 @@
         <v>93</v>
       </c>
       <c r="B66" s="46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C66" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D66" s="47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E66" s="48" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F66" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H66" s="22"/>
       <c r="I66" s="3">
@@ -3841,10 +3832,10 @@
         <v>47</v>
       </c>
       <c r="M66" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N66" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3852,22 +3843,22 @@
         <v>94</v>
       </c>
       <c r="B67" s="46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C67" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D67" s="47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E67" s="48" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F67" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H67" s="22"/>
       <c r="I67" s="3">
@@ -3881,10 +3872,10 @@
         <v>47</v>
       </c>
       <c r="M67" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N67" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3892,22 +3883,22 @@
         <v>95</v>
       </c>
       <c r="B68" s="46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C68" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D68" s="47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E68" s="48" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F68" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H68" s="22"/>
       <c r="I68" s="3">
@@ -3921,10 +3912,10 @@
         <v>47</v>
       </c>
       <c r="M68" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N68" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3932,22 +3923,22 @@
         <v>96</v>
       </c>
       <c r="B69" s="46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C69" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D69" s="47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E69" s="48" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F69" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H69" s="22"/>
       <c r="I69" s="3">
@@ -3961,10 +3952,10 @@
         <v>47</v>
       </c>
       <c r="M69" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N69" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3979,10 +3970,10 @@
       </c>
       <c r="E70" s="20"/>
       <c r="F70" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H70" s="22"/>
       <c r="I70" s="23"/>
@@ -3995,10 +3986,10 @@
         <v>47</v>
       </c>
       <c r="M70" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="N70" s="25" t="s">
         <v>123</v>
-      </c>
-      <c r="N70" s="25" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -4013,10 +4004,10 @@
       </c>
       <c r="E71" s="20"/>
       <c r="F71" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H71" s="22"/>
       <c r="I71" s="23"/>
@@ -4029,10 +4020,10 @@
         <v>47</v>
       </c>
       <c r="M71" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="N71" s="25" t="s">
         <v>123</v>
-      </c>
-      <c r="N71" s="25" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -4047,10 +4038,10 @@
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H72" s="22"/>
       <c r="I72" s="23"/>
@@ -4063,10 +4054,10 @@
         <v>47</v>
       </c>
       <c r="M72" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="N72" s="25" t="s">
         <v>123</v>
-      </c>
-      <c r="N72" s="25" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -4081,10 +4072,10 @@
       </c>
       <c r="E73" s="20"/>
       <c r="F73" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H73" s="22"/>
       <c r="I73" s="23"/>
@@ -4097,10 +4088,10 @@
         <v>47</v>
       </c>
       <c r="M73" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="N73" s="25" t="s">
         <v>123</v>
-      </c>
-      <c r="N73" s="25" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -4118,10 +4109,10 @@
       </c>
       <c r="E74" s="20"/>
       <c r="F74" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H74" s="22"/>
       <c r="I74" s="23"/>
@@ -4134,10 +4125,10 @@
         <v>47</v>
       </c>
       <c r="M74" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N74" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4145,7 +4136,7 @@
         <v>102</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>103</v>
@@ -4155,10 +4146,10 @@
       </c>
       <c r="E75" s="20"/>
       <c r="F75" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G75" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H75" s="22"/>
       <c r="I75" s="23"/>
@@ -4171,10 +4162,10 @@
         <v>47</v>
       </c>
       <c r="M75" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N75" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -4192,10 +4183,10 @@
       </c>
       <c r="E76" s="20"/>
       <c r="F76" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G76" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H76" s="22"/>
       <c r="I76" s="23"/>
@@ -4208,10 +4199,10 @@
         <v>47</v>
       </c>
       <c r="M76" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N76" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4229,10 +4220,10 @@
       </c>
       <c r="E77" s="20"/>
       <c r="F77" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H77" s="22"/>
       <c r="I77" s="23"/>
@@ -4245,10 +4236,10 @@
         <v>47</v>
       </c>
       <c r="M77" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N77" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -4266,10 +4257,10 @@
       </c>
       <c r="E78" s="20"/>
       <c r="F78" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H78" s="22"/>
       <c r="I78" s="23"/>
@@ -4282,10 +4273,10 @@
         <v>47</v>
       </c>
       <c r="M78" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N78" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4303,10 +4294,10 @@
       </c>
       <c r="E79" s="20"/>
       <c r="F79" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H79" s="22"/>
       <c r="I79" s="23"/>
@@ -4319,10 +4310,10 @@
         <v>47</v>
       </c>
       <c r="M79" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N79" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4340,10 +4331,10 @@
       </c>
       <c r="E80" s="20"/>
       <c r="F80" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G80" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H80" s="22"/>
       <c r="I80" s="23"/>
@@ -4356,10 +4347,10 @@
         <v>47</v>
       </c>
       <c r="M80" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N80" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4377,10 +4368,10 @@
       </c>
       <c r="E81" s="20"/>
       <c r="F81" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G81" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H81" s="22"/>
       <c r="I81" s="23"/>
@@ -4393,10 +4384,10 @@
         <v>47</v>
       </c>
       <c r="M81" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N81" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4414,10 +4405,10 @@
       </c>
       <c r="E82" s="20"/>
       <c r="F82" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G82" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H82" s="22"/>
       <c r="I82" s="23"/>
@@ -4430,10 +4421,10 @@
         <v>47</v>
       </c>
       <c r="M82" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N82" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4451,10 +4442,10 @@
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G83" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H83" s="22"/>
       <c r="I83" s="23"/>
@@ -4467,10 +4458,10 @@
         <v>47</v>
       </c>
       <c r="M83" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N83" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4488,10 +4479,10 @@
       </c>
       <c r="E84" s="20"/>
       <c r="F84" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G84" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H84" s="22"/>
       <c r="I84" s="23"/>
@@ -4504,10 +4495,10 @@
         <v>47</v>
       </c>
       <c r="M84" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N84" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4525,10 +4516,10 @@
       </c>
       <c r="E85" s="20"/>
       <c r="F85" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H85" s="22"/>
       <c r="I85" s="23"/>
@@ -4541,10 +4532,10 @@
         <v>47</v>
       </c>
       <c r="M85" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N85" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4562,10 +4553,10 @@
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G86" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H86" s="22"/>
       <c r="I86" s="23"/>
@@ -4578,10 +4569,10 @@
         <v>47</v>
       </c>
       <c r="M86" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N86" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4595,16 +4586,16 @@
         <v>103</v>
       </c>
       <c r="D87" s="47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E87" s="46" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F87" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G87" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H87" s="22"/>
       <c r="I87" s="23">
@@ -4619,10 +4610,10 @@
         <v>47</v>
       </c>
       <c r="M87" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N87" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4636,16 +4627,16 @@
         <v>103</v>
       </c>
       <c r="D88" s="47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E88" s="46" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F88" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G88" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H88" s="22"/>
       <c r="I88" s="23">
@@ -4660,10 +4651,10 @@
         <v>47</v>
       </c>
       <c r="M88" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N88" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4677,16 +4668,16 @@
         <v>103</v>
       </c>
       <c r="D89" s="47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E89" s="46" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F89" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H89" s="22"/>
       <c r="I89" s="23">
@@ -4701,10 +4692,10 @@
         <v>47</v>
       </c>
       <c r="M89" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N89" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4712,7 +4703,7 @@
         <v>121</v>
       </c>
       <c r="B90" s="46" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>103</v>
@@ -4721,13 +4712,13 @@
         <v>105</v>
       </c>
       <c r="E90" s="46" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F90" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G90" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H90" s="22"/>
       <c r="I90" s="23">
@@ -4745,10 +4736,10 @@
         <v>47</v>
       </c>
       <c r="M90" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="N90" s="25" t="s">
         <v>127</v>
-      </c>
-      <c r="N90" s="25" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4756,7 +4747,7 @@
         <v>122</v>
       </c>
       <c r="B91" s="46" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C91" s="47" t="s">
         <v>103</v>
@@ -4765,13 +4756,13 @@
         <v>105</v>
       </c>
       <c r="E91" s="46" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F91" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G91" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H91" s="22"/>
       <c r="I91" s="23">
@@ -4789,10 +4780,10 @@
         <v>47</v>
       </c>
       <c r="M91" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="N91" s="25" t="s">
         <v>127</v>
-      </c>
-      <c r="N91" s="25" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4800,22 +4791,22 @@
         <v>123</v>
       </c>
       <c r="B92" s="46" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C92" s="47" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>105</v>
       </c>
       <c r="E92" s="46" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F92" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G92" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H92" s="22"/>
       <c r="I92" s="23">
@@ -4833,10 +4824,10 @@
         <v>47</v>
       </c>
       <c r="M92" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="N92" s="25" t="s">
         <v>127</v>
-      </c>
-      <c r="N92" s="25" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4844,22 +4835,22 @@
         <v>124</v>
       </c>
       <c r="B93" s="46" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C93" s="47" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>105</v>
       </c>
       <c r="E93" s="46" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F93" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G93" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H93" s="22"/>
       <c r="I93" s="23">
@@ -4877,10 +4868,10 @@
         <v>47</v>
       </c>
       <c r="M93" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="N93" s="25" t="s">
         <v>127</v>
-      </c>
-      <c r="N93" s="25" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4888,20 +4879,20 @@
         <v>125</v>
       </c>
       <c r="B94" s="46" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C94" s="47" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D94" s="47" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E94" s="20"/>
       <c r="F94" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H94" s="22"/>
       <c r="I94" s="23">
@@ -4918,10 +4909,10 @@
         <v>47</v>
       </c>
       <c r="M94" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N94" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4929,20 +4920,20 @@
         <v>126</v>
       </c>
       <c r="B95" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="C95" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="C95" s="47" t="s">
-        <v>200</v>
-      </c>
       <c r="D95" s="47" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E95" s="20"/>
       <c r="F95" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H95" s="22"/>
       <c r="I95" s="23">
@@ -4959,10 +4950,10 @@
         <v>47</v>
       </c>
       <c r="M95" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N95" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4970,20 +4961,20 @@
         <v>127</v>
       </c>
       <c r="B96" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C96" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="C96" s="47" t="s">
-        <v>201</v>
-      </c>
       <c r="D96" s="47" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E96" s="20"/>
       <c r="F96" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G96" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H96" s="22"/>
       <c r="I96" s="23">
@@ -5000,10 +4991,10 @@
         <v>47</v>
       </c>
       <c r="M96" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N96" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -5011,20 +5002,20 @@
         <v>128</v>
       </c>
       <c r="B97" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="D97" s="47" t="s">
         <v>199</v>
-      </c>
-      <c r="C97" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="D97" s="47" t="s">
-        <v>202</v>
       </c>
       <c r="E97" s="20"/>
       <c r="F97" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G97" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H97" s="22"/>
       <c r="I97" s="23">
@@ -5041,10 +5032,10 @@
         <v>47</v>
       </c>
       <c r="M97" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N97" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -5052,22 +5043,22 @@
         <v>129</v>
       </c>
       <c r="B98" s="46" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C98" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="D98" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="D98" s="47" t="s">
-        <v>203</v>
-      </c>
       <c r="E98" s="46" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F98" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G98" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H98" s="22"/>
       <c r="I98" s="23">
@@ -5084,10 +5075,10 @@
         <v>47</v>
       </c>
       <c r="M98" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N98" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -5095,22 +5086,22 @@
         <v>130</v>
       </c>
       <c r="B99" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="C99" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="C99" s="47" t="s">
+      <c r="D99" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="D99" s="47" t="s">
-        <v>203</v>
-      </c>
       <c r="E99" s="46" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F99" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G99" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H99" s="22"/>
       <c r="I99" s="23">
@@ -5127,10 +5118,10 @@
         <v>47</v>
       </c>
       <c r="M99" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N99" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -5138,22 +5129,22 @@
         <v>131</v>
       </c>
       <c r="B100" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C100" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="C100" s="47" t="s">
+      <c r="D100" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="E100" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="D100" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="E100" s="46" t="s">
-        <v>204</v>
-      </c>
       <c r="F100" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G100" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H100" s="22"/>
       <c r="I100" s="23">
@@ -5170,10 +5161,10 @@
         <v>47</v>
       </c>
       <c r="M100" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N100" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -5181,22 +5172,22 @@
         <v>132</v>
       </c>
       <c r="B101" s="46" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C101" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="D101" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="E101" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="D101" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="E101" s="46" t="s">
-        <v>204</v>
-      </c>
       <c r="F101" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G101" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H101" s="22"/>
       <c r="I101" s="23">
@@ -5213,10 +5204,10 @@
         <v>47</v>
       </c>
       <c r="M101" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N101" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -5228,10 +5219,10 @@
       </c>
       <c r="E102" s="20"/>
       <c r="F102" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G102" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H102" s="22"/>
       <c r="I102" s="23"/>
@@ -5245,268 +5236,276 @@
       </c>
       <c r="M102" s="20"/>
       <c r="N102" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="3">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E103" s="20"/>
+        <v>149</v>
+      </c>
+      <c r="C103" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D103" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="E103" s="48" t="s">
+        <v>177</v>
+      </c>
       <c r="F103" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G103" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H103" s="22"/>
-      <c r="I103" s="23"/>
+      <c r="I103" s="3">
+        <v>298</v>
+      </c>
       <c r="J103" s="19">
-        <v>1360000000000</v>
+        <f>341*9807000</f>
+        <v>3344187000</v>
       </c>
       <c r="K103" s="19"/>
       <c r="L103" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M103" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="N103" s="27" t="s">
         <v>130</v>
-      </c>
-      <c r="N103" s="29" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="3">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C104" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D104" s="34" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E104" s="48" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F104" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G104" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H104" s="22"/>
       <c r="I104" s="3">
         <v>298</v>
       </c>
       <c r="J104" s="19">
-        <f>341*9807000</f>
-        <v>3344187000</v>
+        <f>338*9807000</f>
+        <v>3314766000</v>
       </c>
       <c r="K104" s="19"/>
       <c r="L104" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M104" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N104" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="3">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B105" s="30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C105" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D105" s="34" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E105" s="48" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F105" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G105" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H105" s="22"/>
       <c r="I105" s="3">
         <v>298</v>
       </c>
       <c r="J105" s="19">
-        <f>338*9807000</f>
-        <v>3314766000</v>
+        <f>340*9807000</f>
+        <v>3334380000</v>
       </c>
       <c r="K105" s="19"/>
       <c r="L105" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M105" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N105" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="3">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B106" s="30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C106" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D106" s="34" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E106" s="48" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F106" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G106" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H106" s="22"/>
       <c r="I106" s="3">
         <v>298</v>
       </c>
       <c r="J106" s="19">
-        <f>340*9807000</f>
-        <v>3334380000</v>
+        <f>345*9807000</f>
+        <v>3383415000</v>
       </c>
       <c r="K106" s="19"/>
       <c r="L106" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M106" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N106" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="3">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C107" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D107" s="34" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E107" s="48" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F107" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G107" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H107" s="22"/>
       <c r="I107" s="3">
         <v>298</v>
       </c>
       <c r="J107" s="19">
-        <f>345*9807000</f>
-        <v>3383415000</v>
+        <f>334*9807000</f>
+        <v>3275538000</v>
       </c>
       <c r="K107" s="19"/>
       <c r="L107" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M107" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N107" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="3">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C108" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D108" s="34" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E108" s="48" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F108" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G108" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H108" s="22"/>
       <c r="I108" s="3">
         <v>298</v>
       </c>
       <c r="J108" s="19">
-        <f>334*9807000</f>
-        <v>3275538000</v>
+        <f>340*9807000</f>
+        <v>3334380000</v>
       </c>
       <c r="K108" s="19"/>
       <c r="L108" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M108" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N108" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="3">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C109" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D109" s="34" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E109" s="48" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F109" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G109" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H109" s="22"/>
       <c r="I109" s="3">
@@ -5521,314 +5520,314 @@
         <v>47</v>
       </c>
       <c r="M109" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N109" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="3">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C110" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D110" s="34" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E110" s="48" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F110" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G110" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H110" s="22"/>
       <c r="I110" s="3">
         <v>298</v>
       </c>
       <c r="J110" s="19">
-        <f>340*9807000</f>
-        <v>3334380000</v>
+        <f>331*9807000</f>
+        <v>3246117000</v>
       </c>
       <c r="K110" s="19"/>
       <c r="L110" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M110" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N110" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="3">
-        <v>142</v>
-      </c>
-      <c r="B111" s="30" t="s">
-        <v>155</v>
+        <v>143</v>
+      </c>
+      <c r="B111" s="46" t="s">
+        <v>203</v>
       </c>
       <c r="C111" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="D111" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E111" s="48" t="s">
-        <v>181</v>
+      <c r="D111" s="47" t="s">
+        <v>204</v>
       </c>
       <c r="F111" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G111" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H111" s="22"/>
       <c r="I111" s="3">
         <v>298</v>
       </c>
       <c r="J111" s="19">
-        <f>331*9807000</f>
-        <v>3246117000</v>
+        <f>459*9807000</f>
+        <v>4501413000</v>
       </c>
       <c r="K111" s="19"/>
       <c r="L111" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M111" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="N111" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="N111" s="29" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="3">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B112" s="46" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C112" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D112" s="47" t="s">
-        <v>207</v>
+        <v>205</v>
+      </c>
+      <c r="E112" s="46" t="s">
+        <v>206</v>
       </c>
       <c r="F112" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G112" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H112" s="22"/>
       <c r="I112" s="3">
         <v>298</v>
       </c>
       <c r="J112" s="19">
-        <f>459*9807000</f>
-        <v>4501413000</v>
+        <f>487*9807000</f>
+        <v>4776009000</v>
       </c>
       <c r="K112" s="19"/>
       <c r="L112" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M112" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N112" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="3">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B113" s="46" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C113" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D113" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="E113" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="E113" s="46" t="s">
-        <v>209</v>
-      </c>
       <c r="F113" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G113" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H113" s="22"/>
       <c r="I113" s="3">
         <v>298</v>
       </c>
       <c r="J113" s="19">
-        <f>487*9807000</f>
-        <v>4776009000</v>
+        <f>456*9807000</f>
+        <v>4471992000</v>
       </c>
       <c r="K113" s="19"/>
       <c r="L113" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M113" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N113" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="3">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B114" s="46" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C114" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D114" s="47" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E114" s="46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F114" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G114" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H114" s="22"/>
       <c r="I114" s="3">
         <v>298</v>
       </c>
       <c r="J114" s="19">
-        <f>456*9807000</f>
-        <v>4471992000</v>
+        <f>516*9807000</f>
+        <v>5060412000</v>
       </c>
       <c r="K114" s="19"/>
       <c r="L114" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M114" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N114" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="3">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B115" s="46" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C115" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D115" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="E115" s="46" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F115" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G115" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H115" s="22"/>
       <c r="I115" s="3">
         <v>298</v>
       </c>
       <c r="J115" s="19">
-        <f>516*9807000</f>
-        <v>5060412000</v>
+        <f>445*9807000</f>
+        <v>4364115000</v>
       </c>
       <c r="K115" s="19"/>
       <c r="L115" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M115" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N115" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="3">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B116" s="46" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C116" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D116" s="47" t="s">
-        <v>207</v>
+        <v>205</v>
+      </c>
+      <c r="E116" s="46" t="s">
+        <v>206</v>
       </c>
       <c r="F116" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G116" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H116" s="22"/>
       <c r="I116" s="3">
         <v>298</v>
       </c>
       <c r="J116" s="19">
-        <f>445*9807000</f>
-        <v>4364115000</v>
+        <f>459*9807000</f>
+        <v>4501413000</v>
       </c>
       <c r="K116" s="19"/>
       <c r="L116" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M116" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N116" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="3">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B117" s="46" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C117" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D117" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="E117" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="E117" s="46" t="s">
-        <v>209</v>
-      </c>
       <c r="F117" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G117" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H117" s="22"/>
       <c r="I117" s="3">
@@ -5843,293 +5842,298 @@
         <v>47</v>
       </c>
       <c r="M117" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N117" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="3">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B118" s="46" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C118" s="47" t="s">
         <v>103</v>
       </c>
       <c r="D118" s="47" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E118" s="46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F118" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G118" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H118" s="22"/>
       <c r="I118" s="3">
         <v>298</v>
       </c>
       <c r="J118" s="19">
-        <f>459*9807000</f>
-        <v>4501413000</v>
+        <f>522*9807000</f>
+        <v>5119254000</v>
       </c>
       <c r="K118" s="19"/>
       <c r="L118" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M118" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N118" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="3">
-        <v>150</v>
-      </c>
-      <c r="B119" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="C119" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D119" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="E119" s="46" t="s">
-        <v>212</v>
-      </c>
+      <c r="E119" s="20"/>
       <c r="F119" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G119" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H119" s="22"/>
-      <c r="I119" s="3">
-        <v>298</v>
-      </c>
+      <c r="I119" s="23"/>
       <c r="J119" s="19">
-        <f>522*9807000</f>
-        <v>5119254000</v>
+        <f>960*9807000</f>
+        <v>9414720000</v>
       </c>
       <c r="K119" s="19"/>
       <c r="L119" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M119" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="N119" s="29" t="s">
         <v>133</v>
-      </c>
-      <c r="N119" s="29" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="3">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>103</v>
       </c>
       <c r="E120" s="20"/>
       <c r="F120" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G120" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H120" s="22"/>
       <c r="I120" s="23"/>
       <c r="J120" s="19">
-        <f>960*9807000</f>
-        <v>9414720000</v>
+        <f>920*9807000</f>
+        <v>9022440000</v>
       </c>
       <c r="K120" s="19"/>
       <c r="L120" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M120" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="N120" s="29" t="s">
         <v>133</v>
-      </c>
-      <c r="N120" s="29" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="3">
-        <v>152</v>
-      </c>
-      <c r="B121" s="20" t="s">
-        <v>100</v>
+        <v>153</v>
+      </c>
+      <c r="B121" s="30" t="s">
+        <v>135</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>103</v>
       </c>
       <c r="E121" s="20"/>
       <c r="F121" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G121" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H121" s="22"/>
       <c r="I121" s="23"/>
       <c r="J121" s="19">
-        <f>920*9807000</f>
-        <v>9022440000</v>
+        <f>830*9807000</f>
+        <v>8139810000</v>
       </c>
       <c r="K121" s="19"/>
       <c r="L121" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M121" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="N121" s="29" t="s">
         <v>133</v>
-      </c>
-      <c r="N121" s="29" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="3">
-        <v>153</v>
-      </c>
-      <c r="B122" s="30" t="s">
-        <v>137</v>
+        <v>154</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>103</v>
       </c>
       <c r="E122" s="20"/>
       <c r="F122" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G122" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H122" s="22"/>
       <c r="I122" s="23"/>
       <c r="J122" s="19">
-        <f>830*9807000</f>
-        <v>8139810000</v>
+        <f>840*9807000</f>
+        <v>8237880000</v>
       </c>
       <c r="K122" s="19"/>
       <c r="L122" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M122" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="N122" s="29" t="s">
         <v>133</v>
-      </c>
-      <c r="N122" s="29" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="3">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>103</v>
       </c>
       <c r="E123" s="20"/>
       <c r="F123" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G123" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H123" s="22"/>
       <c r="I123" s="23"/>
       <c r="J123" s="19">
-        <f>840*9807000</f>
-        <v>8237880000</v>
+        <f>850*9807000</f>
+        <v>8335950000</v>
       </c>
       <c r="K123" s="19"/>
       <c r="L123" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M123" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="N123" s="29" t="s">
         <v>133</v>
-      </c>
-      <c r="N123" s="29" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="3">
-        <v>155</v>
-      </c>
-      <c r="B124" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>103</v>
+        <v>156</v>
+      </c>
+      <c r="B124" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="C124" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="D124" s="47" t="s">
+        <v>199</v>
       </c>
       <c r="E124" s="20"/>
       <c r="F124" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G124" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="H124" s="22"/>
-      <c r="I124" s="23"/>
+        <v>106</v>
+      </c>
+      <c r="H124" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="I124" s="23">
+        <v>298</v>
+      </c>
       <c r="J124" s="19">
-        <f>850*9807000</f>
-        <v>8335950000</v>
-      </c>
-      <c r="K124" s="19"/>
+        <f>829*9807000</f>
+        <v>8130003000</v>
+      </c>
+      <c r="K124" s="19">
+        <f>1*9807000</f>
+        <v>9807000</v>
+      </c>
       <c r="L124" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M124" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="N124" s="29" t="s">
-        <v>135</v>
+        <v>115</v>
+      </c>
+      <c r="N124" s="25" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="3">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B125" s="46" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C125" s="47" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D125" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="E125" s="20"/>
+        <v>211</v>
+      </c>
+      <c r="E125" s="46" t="s">
+        <v>212</v>
+      </c>
       <c r="F125" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G125" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H125" s="49" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I125" s="23">
         <v>298</v>
       </c>
       <c r="J125" s="19">
-        <f>829*9807000</f>
-        <v>8130003000</v>
+        <f>920*9807000</f>
+        <v>9022440000</v>
       </c>
       <c r="K125" s="19">
         <f>1*9807000</f>
@@ -6139,89 +6143,89 @@
         <v>47</v>
       </c>
       <c r="M125" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N125" s="25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="3">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B126" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="C126" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="D126" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="E126" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="C126" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="D126" s="47" t="s">
+      <c r="F126" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="G126" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H126" s="49" t="s">
         <v>214</v>
-      </c>
-      <c r="E126" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="F126" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="G126" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="H126" s="49" t="s">
-        <v>217</v>
       </c>
       <c r="I126" s="23">
         <v>298</v>
       </c>
       <c r="J126" s="19">
-        <f>920*9807000</f>
-        <v>9022440000</v>
+        <f>931*9807000</f>
+        <v>9130317000</v>
       </c>
       <c r="K126" s="19">
-        <f>1*9807000</f>
-        <v>9807000</v>
+        <f>2*9807000</f>
+        <v>19614000</v>
       </c>
       <c r="L126" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M126" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N126" s="25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="3">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B127" s="46" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C127" s="47" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D127" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="E127" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="F127" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="G127" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H127" s="49" t="s">
         <v>214</v>
-      </c>
-      <c r="E127" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="F127" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="G127" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="H127" s="49" t="s">
-        <v>217</v>
       </c>
       <c r="I127" s="23">
         <v>298</v>
       </c>
       <c r="J127" s="19">
-        <f>931*9807000</f>
-        <v>9130317000</v>
+        <f>960*9807000</f>
+        <v>9414720000</v>
       </c>
       <c r="K127" s="19">
         <f>2*9807000</f>
@@ -6231,57 +6235,21 @@
         <v>47</v>
       </c>
       <c r="M127" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N127" s="25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128" spans="1:14">
-      <c r="A128" s="3">
-        <v>159</v>
-      </c>
-      <c r="B128" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="C128" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="D128" s="47" t="s">
-        <v>214</v>
-      </c>
-      <c r="E128" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="F128" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="G128" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="H128" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="I128" s="23">
-        <v>298</v>
-      </c>
-      <c r="J128" s="19">
-        <f>960*9807000</f>
-        <v>9414720000</v>
-      </c>
-      <c r="K128" s="19">
-        <f>2*9807000</f>
-        <v>19614000</v>
-      </c>
-      <c r="L128" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M128" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="N128" s="25" t="s">
-        <v>136</v>
-      </c>
+      <c r="E128" s="20"/>
+      <c r="F128" s="30"/>
+      <c r="G128" s="20"/>
+      <c r="H128" s="22"/>
+      <c r="I128" s="23"/>
+      <c r="K128" s="19"/>
+      <c r="L128" s="30"/>
+      <c r="M128" s="20"/>
     </row>
     <row r="129" spans="5:13">
       <c r="E129" s="20"/>
@@ -6464,8 +6432,9 @@
       <c r="M146" s="20"/>
     </row>
     <row r="147" spans="4:13">
+      <c r="D147" s="22"/>
       <c r="E147" s="20"/>
-      <c r="F147" s="30"/>
+      <c r="F147" s="31"/>
       <c r="G147" s="20"/>
       <c r="H147" s="22"/>
       <c r="I147" s="23"/>
@@ -6936,15 +6905,20 @@
       <c r="M189" s="20"/>
     </row>
     <row r="190" spans="1:14">
+      <c r="A190" s="24"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="22"/>
       <c r="D190" s="22"/>
       <c r="E190" s="20"/>
-      <c r="F190" s="31"/>
-      <c r="G190" s="20"/>
+      <c r="F190" s="22"/>
+      <c r="G190" s="22"/>
       <c r="H190" s="22"/>
       <c r="I190" s="23"/>
+      <c r="J190" s="19"/>
       <c r="K190" s="19"/>
-      <c r="L190" s="30"/>
+      <c r="L190" s="20"/>
       <c r="M190" s="20"/>
+      <c r="N190" s="25"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="24"/>
@@ -6960,7 +6934,6 @@
       <c r="K191" s="19"/>
       <c r="L191" s="20"/>
       <c r="M191" s="20"/>
-      <c r="N191" s="25"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="24"/>
@@ -7066,6 +7039,7 @@
       <c r="K198" s="19"/>
       <c r="L198" s="20"/>
       <c r="M198" s="20"/>
+      <c r="N198" s="25"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="24"/>
@@ -7081,7 +7055,6 @@
       <c r="K199" s="19"/>
       <c r="L199" s="20"/>
       <c r="M199" s="20"/>
-      <c r="N199" s="25"/>
     </row>
     <row r="200" spans="1:14">
       <c r="A200" s="24"/>
@@ -7187,6 +7160,7 @@
       <c r="K206" s="19"/>
       <c r="L206" s="20"/>
       <c r="M206" s="20"/>
+      <c r="N206" s="25"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="24"/>
@@ -7522,7 +7496,7 @@
       <c r="K227" s="19"/>
       <c r="L227" s="20"/>
       <c r="M227" s="20"/>
-      <c r="N227" s="25"/>
+      <c r="N227" s="27"/>
     </row>
     <row r="228" spans="1:14">
       <c r="A228" s="24"/>
@@ -7637,14 +7611,13 @@
       <c r="N234" s="27"/>
     </row>
     <row r="235" spans="1:14">
-      <c r="A235" s="24"/>
+      <c r="A235" s="11"/>
       <c r="B235" s="20"/>
-      <c r="C235" s="22"/>
-      <c r="D235" s="22"/>
-      <c r="E235" s="20"/>
-      <c r="F235" s="22"/>
-      <c r="G235" s="22"/>
-      <c r="H235" s="22"/>
+      <c r="C235" s="5"/>
+      <c r="D235" s="5"/>
+      <c r="F235" s="5"/>
+      <c r="G235" s="5"/>
+      <c r="H235" s="5"/>
       <c r="I235" s="23"/>
       <c r="J235" s="19"/>
       <c r="K235" s="19"/>
@@ -7695,7 +7668,7 @@
       <c r="K238" s="19"/>
       <c r="L238" s="20"/>
       <c r="M238" s="20"/>
-      <c r="N238" s="27"/>
+      <c r="N238" s="25"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="11"/>
@@ -7935,7 +7908,7 @@
       <c r="K254" s="19"/>
       <c r="L254" s="20"/>
       <c r="M254" s="20"/>
-      <c r="N254" s="25"/>
+      <c r="N254" s="28"/>
     </row>
     <row r="255" spans="1:14">
       <c r="A255" s="11"/>
@@ -7995,7 +7968,7 @@
       <c r="K258" s="19"/>
       <c r="L258" s="20"/>
       <c r="M258" s="20"/>
-      <c r="N258" s="28"/>
+      <c r="N258" s="25"/>
     </row>
     <row r="259" spans="1:14">
       <c r="A259" s="11"/>
@@ -8160,7 +8133,7 @@
       <c r="K269" s="19"/>
       <c r="L269" s="20"/>
       <c r="M269" s="20"/>
-      <c r="N269" s="25"/>
+      <c r="N269" s="29"/>
     </row>
     <row r="270" spans="1:14">
       <c r="A270" s="11"/>
@@ -8205,7 +8178,7 @@
       <c r="K272" s="19"/>
       <c r="L272" s="20"/>
       <c r="M272" s="20"/>
-      <c r="N272" s="29"/>
+      <c r="N272" s="27"/>
     </row>
     <row r="273" spans="1:14">
       <c r="A273" s="11"/>
@@ -8325,7 +8298,7 @@
       <c r="K280" s="19"/>
       <c r="L280" s="20"/>
       <c r="M280" s="20"/>
-      <c r="N280" s="27"/>
+      <c r="N280" s="29"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="11"/>
@@ -8343,7 +8316,6 @@
       <c r="N281" s="29"/>
     </row>
     <row r="282" spans="1:14">
-      <c r="A282" s="11"/>
       <c r="B282" s="20"/>
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
@@ -8509,7 +8481,7 @@
       <c r="K293" s="19"/>
       <c r="L293" s="20"/>
       <c r="M293" s="20"/>
-      <c r="N293" s="29"/>
+      <c r="N293" s="25"/>
     </row>
     <row r="294" spans="2:14">
       <c r="B294" s="20"/>
@@ -8554,18 +8526,17 @@
       <c r="N296" s="25"/>
     </row>
     <row r="297" spans="2:14">
-      <c r="B297" s="20"/>
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
       <c r="F297" s="5"/>
       <c r="G297" s="5"/>
       <c r="H297" s="5"/>
-      <c r="I297" s="23"/>
+      <c r="I297" s="18"/>
       <c r="J297" s="19"/>
       <c r="K297" s="19"/>
       <c r="L297" s="20"/>
       <c r="M297" s="20"/>
-      <c r="N297" s="25"/>
+      <c r="N297" s="20"/>
     </row>
     <row r="298" spans="2:14">
       <c r="C298" s="5"/>
@@ -9983,19 +9954,6 @@
       <c r="L406" s="20"/>
       <c r="M406" s="20"/>
       <c r="N406" s="20"/>
-    </row>
-    <row r="407" spans="3:14">
-      <c r="C407" s="5"/>
-      <c r="D407" s="5"/>
-      <c r="F407" s="5"/>
-      <c r="G407" s="5"/>
-      <c r="H407" s="5"/>
-      <c r="I407" s="18"/>
-      <c r="J407" s="19"/>
-      <c r="K407" s="19"/>
-      <c r="L407" s="20"/>
-      <c r="M407" s="20"/>
-      <c r="N407" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="19">

--- a/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
+++ b/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-guest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55D0ECB-2AA6-234E-B289-CEFA9D346814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53FFE20-0286-F740-92BB-DE2F8BC4BA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9300" yWindow="760" windowWidth="34560" windowHeight="20140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1337,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103:XFD103"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -3108,7 +3108,8 @@
         <v>298</v>
       </c>
       <c r="J47" s="19">
-        <v>609</v>
+        <f>609*9807000</f>
+        <v>5972463000</v>
       </c>
       <c r="K47" s="19"/>
       <c r="L47" s="20" t="s">
@@ -3143,7 +3144,8 @@
         <v>298</v>
       </c>
       <c r="J48" s="19">
-        <v>1320000000</v>
+        <f>1320*9807000</f>
+        <v>12945240000</v>
       </c>
       <c r="K48" s="19"/>
       <c r="L48" s="20" t="s">
@@ -3178,7 +3180,8 @@
         <v>298</v>
       </c>
       <c r="J49" s="19">
-        <v>873000000</v>
+        <f>873*9807000</f>
+        <v>8561511000</v>
       </c>
       <c r="K49" s="19"/>
       <c r="L49" s="20" t="s">
@@ -3213,7 +3216,8 @@
         <v>298</v>
       </c>
       <c r="J50" s="19">
-        <v>970000000</v>
+        <f>970*9807000</f>
+        <v>9512790000</v>
       </c>
       <c r="K50" s="19"/>
       <c r="L50" s="20" t="s">
@@ -3248,7 +3252,8 @@
         <v>298</v>
       </c>
       <c r="J51" s="19">
-        <v>628000000</v>
+        <f>628*9807000</f>
+        <v>6158796000</v>
       </c>
       <c r="K51" s="19"/>
       <c r="L51" s="20" t="s">
@@ -3283,7 +3288,8 @@
         <v>298</v>
       </c>
       <c r="J52" s="19">
-        <v>3430000000</v>
+        <f>3430*9807000</f>
+        <v>33638010000</v>
       </c>
       <c r="K52" s="19"/>
       <c r="L52" s="20" t="s">
@@ -3318,9 +3324,13 @@
         <v>298</v>
       </c>
       <c r="J53" s="19">
-        <v>3113000000</v>
-      </c>
-      <c r="K53" s="19"/>
+        <f>3113*9807000</f>
+        <v>30529191000</v>
+      </c>
+      <c r="K53" s="19">
+        <f>46*9807000</f>
+        <v>451122000</v>
+      </c>
       <c r="L53" s="20" t="s">
         <v>47</v>
       </c>
@@ -3353,9 +3363,13 @@
         <v>298</v>
       </c>
       <c r="J54" s="19">
-        <v>4830000000</v>
-      </c>
-      <c r="K54" s="19"/>
+        <f>4830*9807000</f>
+        <v>47367810000</v>
+      </c>
+      <c r="K54" s="19">
+        <f>29*9807000</f>
+        <v>284403000</v>
+      </c>
       <c r="L54" s="20" t="s">
         <v>47</v>
       </c>
@@ -3388,9 +3402,13 @@
         <v>298</v>
       </c>
       <c r="J55" s="19">
-        <v>4380000000</v>
-      </c>
-      <c r="K55" s="19"/>
+        <f>4380*9807000</f>
+        <v>42954660000</v>
+      </c>
+      <c r="K55" s="19">
+        <f>34*9807000</f>
+        <v>333438000</v>
+      </c>
       <c r="L55" s="20" t="s">
         <v>47</v>
       </c>

--- a/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
+++ b/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-guest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53FFE20-0286-F740-92BB-DE2F8BC4BA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70B6509-1D6E-AD47-BDDA-90DCDDC6BB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9300" yWindow="760" windowWidth="34560" windowHeight="20140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="236">
   <si>
     <t>Name:</t>
   </si>
@@ -762,9 +762,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -936,119 +943,120 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1337,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1374,21 +1382,21 @@
       <c r="B2" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="40" t="s">
+      <c r="E2" s="43"/>
+      <c r="F2" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:20" ht="22" customHeight="1">
@@ -1398,17 +1406,17 @@
       <c r="B3" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:20" ht="22.5" customHeight="1">
@@ -1426,43 +1434,43 @@
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="39" t="s">
+      <c r="M5" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="N5" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="O5" s="48" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1473,19 +1481,19 @@
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="37"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="48"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
@@ -1530,7 +1538,7 @@
       <c r="N7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="37"/>
+      <c r="O7" s="48"/>
       <c r="P7" s="9" t="s">
         <v>43</v>
       </c>
@@ -1543,35 +1551,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.5" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44" t="s">
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="45" t="s">
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="45"/>
+      <c r="N8" s="46"/>
       <c r="O8" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="P8" s="38" t="s">
+      <c r="P8" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
     </row>
     <row r="9" spans="1:20" ht="22" customHeight="1">
       <c r="A9" s="5" t="s">
@@ -1850,16 +1858,16 @@
       <c r="B16" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="37" t="s">
         <v>235</v>
       </c>
       <c r="G16" s="20" t="s">
@@ -1890,16 +1898,16 @@
       <c r="B17" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="37" t="s">
         <v>235</v>
       </c>
       <c r="G17" s="20" t="s">
@@ -1931,13 +1939,13 @@
         <v>139</v>
       </c>
       <c r="C18" s="20"/>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="37" t="s">
         <v>235</v>
       </c>
       <c r="G18" s="20" t="s">
@@ -1969,13 +1977,13 @@
         <v>140</v>
       </c>
       <c r="C19" s="20"/>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="37" t="s">
         <v>235</v>
       </c>
       <c r="G19" s="20" t="s">
@@ -2007,13 +2015,13 @@
         <v>67</v>
       </c>
       <c r="C20" s="20"/>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="37" t="s">
         <v>235</v>
       </c>
       <c r="G20" s="20" t="s">
@@ -2045,13 +2053,13 @@
         <v>68</v>
       </c>
       <c r="C21" s="20"/>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="37" t="s">
         <v>235</v>
       </c>
       <c r="G21" s="20" t="s">
@@ -2115,13 +2123,13 @@
       <c r="B23" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="37" t="s">
         <v>218</v>
       </c>
       <c r="F23" s="30" t="s">
@@ -2157,13 +2165,13 @@
       <c r="B24" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="37" t="s">
         <v>218</v>
       </c>
       <c r="F24" s="30" t="s">
@@ -2199,13 +2207,13 @@
       <c r="B25" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E25" s="46" t="s">
+      <c r="E25" s="37" t="s">
         <v>218</v>
       </c>
       <c r="F25" s="30" t="s">
@@ -2241,13 +2249,13 @@
       <c r="B26" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="D26" s="47" t="s">
+      <c r="D26" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="37" t="s">
         <v>218</v>
       </c>
       <c r="F26" s="30" t="s">
@@ -2272,7 +2280,7 @@
       <c r="M26" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="N26" s="47" t="s">
+      <c r="N26" s="38" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2283,13 +2291,13 @@
       <c r="B27" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E27" s="46" t="s">
+      <c r="E27" s="37" t="s">
         <v>218</v>
       </c>
       <c r="F27" s="30" t="s">
@@ -2322,13 +2330,13 @@
       <c r="A28" s="3">
         <v>49</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="D28" s="38" t="s">
         <v>204</v>
       </c>
       <c r="E28" s="20"/>
@@ -2364,13 +2372,13 @@
       <c r="A29" s="3">
         <v>50</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="38" t="s">
         <v>204</v>
       </c>
       <c r="E29" s="20"/>
@@ -2406,13 +2414,13 @@
       <c r="A30" s="3">
         <v>51</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="38" t="s">
         <v>204</v>
       </c>
       <c r="E30" s="20"/>
@@ -2440,7 +2448,7 @@
       <c r="M30" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="N30" s="47" t="s">
+      <c r="N30" s="38" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2448,13 +2456,13 @@
       <c r="A31" s="3">
         <v>52</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="D31" s="47" t="s">
+      <c r="D31" s="38" t="s">
         <v>204</v>
       </c>
       <c r="E31" s="20"/>
@@ -2490,16 +2498,16 @@
       <c r="A32" s="3">
         <v>53</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="D32" s="47" t="s">
+      <c r="D32" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="E32" s="46" t="s">
+      <c r="E32" s="37" t="s">
         <v>222</v>
       </c>
       <c r="F32" s="30" t="s">
@@ -2534,16 +2542,16 @@
       <c r="A33" s="3">
         <v>54</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="E33" s="46" t="s">
+      <c r="E33" s="37" t="s">
         <v>222</v>
       </c>
       <c r="F33" s="30" t="s">
@@ -2570,7 +2578,7 @@
       <c r="M33" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="N33" s="47" t="s">
+      <c r="N33" s="38" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2578,16 +2586,16 @@
       <c r="A34" s="3">
         <v>55</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="E34" s="46" t="s">
+      <c r="E34" s="37" t="s">
         <v>222</v>
       </c>
       <c r="F34" s="30" t="s">
@@ -2622,16 +2630,16 @@
       <c r="A35" s="3">
         <v>56</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="D35" s="47" t="s">
+      <c r="D35" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="E35" s="46" t="s">
+      <c r="E35" s="37" t="s">
         <v>222</v>
       </c>
       <c r="F35" s="30" t="s">
@@ -2968,10 +2976,10 @@
       <c r="C44" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="47" t="s">
+      <c r="D44" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="E44" s="46" t="s">
+      <c r="E44" s="37" t="s">
         <v>182</v>
       </c>
       <c r="F44" s="30" t="s">
@@ -3003,16 +3011,16 @@
       <c r="A45" s="3">
         <v>72</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="37" t="s">
         <v>179</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="47" t="s">
+      <c r="D45" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="E45" s="46" t="s">
+      <c r="E45" s="37" t="s">
         <v>182</v>
       </c>
       <c r="F45" s="30" t="s">
@@ -3044,16 +3052,16 @@
       <c r="A46" s="3">
         <v>73</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="37" t="s">
         <v>180</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="47" t="s">
+      <c r="D46" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="E46" s="46" t="s">
+      <c r="E46" s="37" t="s">
         <v>182</v>
       </c>
       <c r="F46" s="30" t="s">
@@ -3085,16 +3093,16 @@
       <c r="A47" s="3">
         <v>74</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="37" t="s">
         <v>181</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D47" s="47" t="s">
+      <c r="D47" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="E47" s="46" t="s">
+      <c r="E47" s="37" t="s">
         <v>182</v>
       </c>
       <c r="F47" s="30" t="s">
@@ -3306,11 +3314,14 @@
       <c r="A53" s="3">
         <v>80</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="37" t="s">
         <v>158</v>
       </c>
       <c r="C53" s="20" t="s">
         <v>103</v>
+      </c>
+      <c r="D53" s="50" t="s">
+        <v>204</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="30" t="s">
@@ -3345,11 +3356,14 @@
       <c r="A54" s="3">
         <v>81</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="37" t="s">
         <v>159</v>
       </c>
       <c r="C54" s="20" t="s">
         <v>103</v>
+      </c>
+      <c r="D54" s="50" t="s">
+        <v>204</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="30" t="s">
@@ -3384,11 +3398,14 @@
       <c r="A55" s="3">
         <v>82</v>
       </c>
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="37" t="s">
         <v>160</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>103</v>
+      </c>
+      <c r="D55" s="50" t="s">
+        <v>204</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="30" t="s">
@@ -3429,10 +3446,10 @@
       <c r="C56" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D56" s="47" t="s">
+      <c r="D56" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E56" s="46" t="s">
+      <c r="E56" s="37" t="s">
         <v>174</v>
       </c>
       <c r="F56" s="30" t="s">
@@ -3464,13 +3481,13 @@
       <c r="A57" s="3">
         <v>84</v>
       </c>
-      <c r="B57" s="46" t="s">
+      <c r="B57" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="D57" s="47" t="s">
+      <c r="D57" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E57" s="46" t="s">
+      <c r="E57" s="37" t="s">
         <v>174</v>
       </c>
       <c r="F57" s="30" t="s">
@@ -3502,13 +3519,13 @@
       <c r="A58" s="3">
         <v>85</v>
       </c>
-      <c r="B58" s="46" t="s">
+      <c r="B58" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="D58" s="47" t="s">
+      <c r="D58" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E58" s="46" t="s">
+      <c r="E58" s="37" t="s">
         <v>174</v>
       </c>
       <c r="F58" s="30" t="s">
@@ -3540,16 +3557,16 @@
       <c r="A59" s="3">
         <v>86</v>
       </c>
-      <c r="B59" s="46" t="s">
+      <c r="B59" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="C59" s="47" t="s">
+      <c r="C59" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D59" s="47" t="s">
+      <c r="D59" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E59" s="48" t="s">
+      <c r="E59" s="39" t="s">
         <v>163</v>
       </c>
       <c r="F59" s="30" t="s">
@@ -3580,16 +3597,16 @@
       <c r="A60" s="3">
         <v>87</v>
       </c>
-      <c r="B60" s="46" t="s">
+      <c r="B60" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="C60" s="47" t="s">
+      <c r="C60" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D60" s="47" t="s">
+      <c r="D60" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E60" s="48" t="s">
+      <c r="E60" s="39" t="s">
         <v>164</v>
       </c>
       <c r="F60" s="30" t="s">
@@ -3620,16 +3637,16 @@
       <c r="A61" s="3">
         <v>88</v>
       </c>
-      <c r="B61" s="46" t="s">
+      <c r="B61" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="C61" s="47" t="s">
+      <c r="C61" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D61" s="47" t="s">
+      <c r="D61" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E61" s="48" t="s">
+      <c r="E61" s="39" t="s">
         <v>165</v>
       </c>
       <c r="F61" s="30" t="s">
@@ -3660,16 +3677,16 @@
       <c r="A62" s="3">
         <v>89</v>
       </c>
-      <c r="B62" s="46" t="s">
+      <c r="B62" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="C62" s="47" t="s">
+      <c r="C62" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D62" s="47" t="s">
+      <c r="D62" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E62" s="48" t="s">
+      <c r="E62" s="39" t="s">
         <v>166</v>
       </c>
       <c r="F62" s="30" t="s">
@@ -3700,16 +3717,16 @@
       <c r="A63" s="3">
         <v>90</v>
       </c>
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="C63" s="47" t="s">
+      <c r="C63" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D63" s="47" t="s">
+      <c r="D63" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E63" s="48" t="s">
+      <c r="E63" s="39" t="s">
         <v>167</v>
       </c>
       <c r="F63" s="30" t="s">
@@ -3740,16 +3757,16 @@
       <c r="A64" s="3">
         <v>91</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="B64" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="C64" s="47" t="s">
+      <c r="C64" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D64" s="47" t="s">
+      <c r="D64" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E64" s="48" t="s">
+      <c r="E64" s="39" t="s">
         <v>168</v>
       </c>
       <c r="F64" s="30" t="s">
@@ -3780,16 +3797,16 @@
       <c r="A65" s="3">
         <v>92</v>
       </c>
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="C65" s="47" t="s">
+      <c r="C65" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D65" s="47" t="s">
+      <c r="D65" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E65" s="48" t="s">
+      <c r="E65" s="39" t="s">
         <v>169</v>
       </c>
       <c r="F65" s="30" t="s">
@@ -3820,16 +3837,16 @@
       <c r="A66" s="3">
         <v>93</v>
       </c>
-      <c r="B66" s="46" t="s">
+      <c r="B66" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="C66" s="47" t="s">
+      <c r="C66" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D66" s="47" t="s">
+      <c r="D66" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E66" s="48" t="s">
+      <c r="E66" s="39" t="s">
         <v>170</v>
       </c>
       <c r="F66" s="30" t="s">
@@ -3860,16 +3877,16 @@
       <c r="A67" s="3">
         <v>94</v>
       </c>
-      <c r="B67" s="46" t="s">
+      <c r="B67" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="C67" s="47" t="s">
+      <c r="C67" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D67" s="47" t="s">
+      <c r="D67" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E67" s="48" t="s">
+      <c r="E67" s="39" t="s">
         <v>171</v>
       </c>
       <c r="F67" s="30" t="s">
@@ -3900,16 +3917,16 @@
       <c r="A68" s="3">
         <v>95</v>
       </c>
-      <c r="B68" s="46" t="s">
+      <c r="B68" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="C68" s="47" t="s">
+      <c r="C68" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D68" s="47" t="s">
+      <c r="D68" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E68" s="48" t="s">
+      <c r="E68" s="39" t="s">
         <v>172</v>
       </c>
       <c r="F68" s="30" t="s">
@@ -3940,16 +3957,16 @@
       <c r="A69" s="3">
         <v>96</v>
       </c>
-      <c r="B69" s="46" t="s">
+      <c r="B69" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="C69" s="47" t="s">
+      <c r="C69" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D69" s="47" t="s">
+      <c r="D69" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E69" s="48" t="s">
+      <c r="E69" s="39" t="s">
         <v>173</v>
       </c>
       <c r="F69" s="30" t="s">
@@ -4603,10 +4620,10 @@
       <c r="C87" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D87" s="47" t="s">
+      <c r="D87" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E87" s="46" t="s">
+      <c r="E87" s="37" t="s">
         <v>183</v>
       </c>
       <c r="F87" s="30" t="s">
@@ -4644,10 +4661,10 @@
       <c r="C88" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D88" s="47" t="s">
+      <c r="D88" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E88" s="46" t="s">
+      <c r="E88" s="37" t="s">
         <v>185</v>
       </c>
       <c r="F88" s="30" t="s">
@@ -4685,10 +4702,10 @@
       <c r="C89" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D89" s="47" t="s">
+      <c r="D89" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E89" s="46" t="s">
+      <c r="E89" s="37" t="s">
         <v>184</v>
       </c>
       <c r="F89" s="30" t="s">
@@ -4720,7 +4737,7 @@
       <c r="A90" s="3">
         <v>121</v>
       </c>
-      <c r="B90" s="46" t="s">
+      <c r="B90" s="37" t="s">
         <v>186</v>
       </c>
       <c r="C90" s="3" t="s">
@@ -4729,7 +4746,7 @@
       <c r="D90" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E90" s="46" t="s">
+      <c r="E90" s="37" t="s">
         <v>192</v>
       </c>
       <c r="F90" s="30" t="s">
@@ -4764,16 +4781,16 @@
       <c r="A91" s="3">
         <v>122</v>
       </c>
-      <c r="B91" s="46" t="s">
+      <c r="B91" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="C91" s="47" t="s">
+      <c r="C91" s="38" t="s">
         <v>103</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E91" s="46" t="s">
+      <c r="E91" s="37" t="s">
         <v>192</v>
       </c>
       <c r="F91" s="30" t="s">
@@ -4808,16 +4825,16 @@
       <c r="A92" s="3">
         <v>123</v>
       </c>
-      <c r="B92" s="46" t="s">
+      <c r="B92" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="C92" s="47" t="s">
+      <c r="C92" s="38" t="s">
         <v>190</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E92" s="46" t="s">
+      <c r="E92" s="37" t="s">
         <v>192</v>
       </c>
       <c r="F92" s="30" t="s">
@@ -4852,16 +4869,16 @@
       <c r="A93" s="3">
         <v>124</v>
       </c>
-      <c r="B93" s="46" t="s">
+      <c r="B93" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="C93" s="47" t="s">
+      <c r="C93" s="38" t="s">
         <v>191</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E93" s="46" t="s">
+      <c r="E93" s="37" t="s">
         <v>192</v>
       </c>
       <c r="F93" s="30" t="s">
@@ -4896,13 +4913,13 @@
       <c r="A94" s="3">
         <v>125</v>
       </c>
-      <c r="B94" s="46" t="s">
+      <c r="B94" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="C94" s="47" t="s">
+      <c r="C94" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="D94" s="47" t="s">
+      <c r="D94" s="38" t="s">
         <v>199</v>
       </c>
       <c r="E94" s="20"/>
@@ -4937,13 +4954,13 @@
       <c r="A95" s="3">
         <v>126</v>
       </c>
-      <c r="B95" s="46" t="s">
+      <c r="B95" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="C95" s="47" t="s">
+      <c r="C95" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="D95" s="47" t="s">
+      <c r="D95" s="38" t="s">
         <v>199</v>
       </c>
       <c r="E95" s="20"/>
@@ -4978,13 +4995,13 @@
       <c r="A96" s="3">
         <v>127</v>
       </c>
-      <c r="B96" s="46" t="s">
+      <c r="B96" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="C96" s="47" t="s">
+      <c r="C96" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="D96" s="47" t="s">
+      <c r="D96" s="38" t="s">
         <v>199</v>
       </c>
       <c r="E96" s="20"/>
@@ -5019,13 +5036,13 @@
       <c r="A97" s="3">
         <v>128</v>
       </c>
-      <c r="B97" s="46" t="s">
+      <c r="B97" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="C97" s="47" t="s">
+      <c r="C97" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="D97" s="47" t="s">
+      <c r="D97" s="38" t="s">
         <v>199</v>
       </c>
       <c r="E97" s="20"/>
@@ -5060,16 +5077,16 @@
       <c r="A98" s="3">
         <v>129</v>
       </c>
-      <c r="B98" s="46" t="s">
+      <c r="B98" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="47" t="s">
+      <c r="C98" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="D98" s="47" t="s">
+      <c r="D98" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="E98" s="46" t="s">
+      <c r="E98" s="37" t="s">
         <v>201</v>
       </c>
       <c r="F98" s="30" t="s">
@@ -5103,16 +5120,16 @@
       <c r="A99" s="3">
         <v>130</v>
       </c>
-      <c r="B99" s="46" t="s">
+      <c r="B99" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="C99" s="47" t="s">
+      <c r="C99" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="D99" s="47" t="s">
+      <c r="D99" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="E99" s="46" t="s">
+      <c r="E99" s="37" t="s">
         <v>201</v>
       </c>
       <c r="F99" s="30" t="s">
@@ -5146,16 +5163,16 @@
       <c r="A100" s="3">
         <v>131</v>
       </c>
-      <c r="B100" s="46" t="s">
+      <c r="B100" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="C100" s="47" t="s">
+      <c r="C100" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="D100" s="47" t="s">
+      <c r="D100" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="E100" s="46" t="s">
+      <c r="E100" s="37" t="s">
         <v>201</v>
       </c>
       <c r="F100" s="30" t="s">
@@ -5189,16 +5206,16 @@
       <c r="A101" s="3">
         <v>132</v>
       </c>
-      <c r="B101" s="46" t="s">
+      <c r="B101" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="C101" s="47" t="s">
+      <c r="C101" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="D101" s="47" t="s">
+      <c r="D101" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="E101" s="46" t="s">
+      <c r="E101" s="37" t="s">
         <v>201</v>
       </c>
       <c r="F101" s="30" t="s">
@@ -5264,13 +5281,13 @@
       <c r="B103" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="C103" s="47" t="s">
+      <c r="C103" s="38" t="s">
         <v>103</v>
       </c>
       <c r="D103" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="E103" s="48" t="s">
+      <c r="E103" s="39" t="s">
         <v>177</v>
       </c>
       <c r="F103" s="30" t="s">
@@ -5305,13 +5322,13 @@
       <c r="B104" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="C104" s="47" t="s">
+      <c r="C104" s="38" t="s">
         <v>103</v>
       </c>
       <c r="D104" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="E104" s="48" t="s">
+      <c r="E104" s="39" t="s">
         <v>177</v>
       </c>
       <c r="F104" s="30" t="s">
@@ -5346,13 +5363,13 @@
       <c r="B105" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="C105" s="47" t="s">
+      <c r="C105" s="38" t="s">
         <v>103</v>
       </c>
       <c r="D105" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="E105" s="48" t="s">
+      <c r="E105" s="39" t="s">
         <v>177</v>
       </c>
       <c r="F105" s="30" t="s">
@@ -5387,13 +5404,13 @@
       <c r="B106" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="C106" s="47" t="s">
+      <c r="C106" s="38" t="s">
         <v>103</v>
       </c>
       <c r="D106" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="E106" s="48" t="s">
+      <c r="E106" s="39" t="s">
         <v>177</v>
       </c>
       <c r="F106" s="30" t="s">
@@ -5428,13 +5445,13 @@
       <c r="B107" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="C107" s="47" t="s">
+      <c r="C107" s="38" t="s">
         <v>103</v>
       </c>
       <c r="D107" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="E107" s="48" t="s">
+      <c r="E107" s="39" t="s">
         <v>178</v>
       </c>
       <c r="F107" s="30" t="s">
@@ -5469,13 +5486,13 @@
       <c r="B108" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="C108" s="47" t="s">
+      <c r="C108" s="38" t="s">
         <v>103</v>
       </c>
       <c r="D108" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="E108" s="48" t="s">
+      <c r="E108" s="39" t="s">
         <v>178</v>
       </c>
       <c r="F108" s="30" t="s">
@@ -5510,13 +5527,13 @@
       <c r="B109" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="C109" s="47" t="s">
+      <c r="C109" s="38" t="s">
         <v>103</v>
       </c>
       <c r="D109" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="E109" s="48" t="s">
+      <c r="E109" s="39" t="s">
         <v>178</v>
       </c>
       <c r="F109" s="30" t="s">
@@ -5551,13 +5568,13 @@
       <c r="B110" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="C110" s="47" t="s">
+      <c r="C110" s="38" t="s">
         <v>103</v>
       </c>
       <c r="D110" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="E110" s="48" t="s">
+      <c r="E110" s="39" t="s">
         <v>178</v>
       </c>
       <c r="F110" s="30" t="s">
@@ -5589,13 +5606,13 @@
       <c r="A111" s="3">
         <v>143</v>
       </c>
-      <c r="B111" s="46" t="s">
+      <c r="B111" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="C111" s="47" t="s">
+      <c r="C111" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D111" s="47" t="s">
+      <c r="D111" s="38" t="s">
         <v>204</v>
       </c>
       <c r="F111" s="30" t="s">
@@ -5627,16 +5644,16 @@
       <c r="A112" s="3">
         <v>144</v>
       </c>
-      <c r="B112" s="46" t="s">
+      <c r="B112" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="C112" s="47" t="s">
+      <c r="C112" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D112" s="47" t="s">
+      <c r="D112" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="E112" s="46" t="s">
+      <c r="E112" s="37" t="s">
         <v>206</v>
       </c>
       <c r="F112" s="30" t="s">
@@ -5668,16 +5685,16 @@
       <c r="A113" s="3">
         <v>145</v>
       </c>
-      <c r="B113" s="46" t="s">
+      <c r="B113" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="C113" s="47" t="s">
+      <c r="C113" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D113" s="47" t="s">
+      <c r="D113" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="E113" s="46" t="s">
+      <c r="E113" s="37" t="s">
         <v>208</v>
       </c>
       <c r="F113" s="30" t="s">
@@ -5709,16 +5726,16 @@
       <c r="A114" s="3">
         <v>146</v>
       </c>
-      <c r="B114" s="46" t="s">
+      <c r="B114" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="C114" s="47" t="s">
+      <c r="C114" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D114" s="47" t="s">
+      <c r="D114" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="E114" s="46" t="s">
+      <c r="E114" s="37" t="s">
         <v>209</v>
       </c>
       <c r="F114" s="30" t="s">
@@ -5750,13 +5767,13 @@
       <c r="A115" s="3">
         <v>147</v>
       </c>
-      <c r="B115" s="46" t="s">
+      <c r="B115" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="C115" s="47" t="s">
+      <c r="C115" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D115" s="47" t="s">
+      <c r="D115" s="38" t="s">
         <v>204</v>
       </c>
       <c r="F115" s="30" t="s">
@@ -5788,16 +5805,16 @@
       <c r="A116" s="3">
         <v>148</v>
       </c>
-      <c r="B116" s="46" t="s">
+      <c r="B116" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="C116" s="47" t="s">
+      <c r="C116" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D116" s="47" t="s">
+      <c r="D116" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="E116" s="46" t="s">
+      <c r="E116" s="37" t="s">
         <v>206</v>
       </c>
       <c r="F116" s="30" t="s">
@@ -5829,16 +5846,16 @@
       <c r="A117" s="3">
         <v>149</v>
       </c>
-      <c r="B117" s="46" t="s">
+      <c r="B117" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="C117" s="47" t="s">
+      <c r="C117" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D117" s="47" t="s">
+      <c r="D117" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="E117" s="46" t="s">
+      <c r="E117" s="37" t="s">
         <v>208</v>
       </c>
       <c r="F117" s="30" t="s">
@@ -5870,16 +5887,16 @@
       <c r="A118" s="3">
         <v>150</v>
       </c>
-      <c r="B118" s="46" t="s">
+      <c r="B118" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="C118" s="47" t="s">
+      <c r="C118" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D118" s="47" t="s">
+      <c r="D118" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="E118" s="46" t="s">
+      <c r="E118" s="37" t="s">
         <v>209</v>
       </c>
       <c r="F118" s="30" t="s">
@@ -6081,13 +6098,13 @@
       <c r="A124" s="3">
         <v>156</v>
       </c>
-      <c r="B124" s="46" t="s">
+      <c r="B124" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="C124" s="47" t="s">
+      <c r="C124" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="D124" s="47" t="s">
+      <c r="D124" s="38" t="s">
         <v>199</v>
       </c>
       <c r="E124" s="20"/>
@@ -6097,7 +6114,7 @@
       <c r="G124" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="H124" s="49" t="s">
+      <c r="H124" s="40" t="s">
         <v>214</v>
       </c>
       <c r="I124" s="23">
@@ -6125,16 +6142,16 @@
       <c r="A125" s="3">
         <v>157</v>
       </c>
-      <c r="B125" s="46" t="s">
+      <c r="B125" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="C125" s="47" t="s">
+      <c r="C125" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="D125" s="47" t="s">
+      <c r="D125" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="E125" s="46" t="s">
+      <c r="E125" s="37" t="s">
         <v>212</v>
       </c>
       <c r="F125" s="30" t="s">
@@ -6143,7 +6160,7 @@
       <c r="G125" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="H125" s="49" t="s">
+      <c r="H125" s="40" t="s">
         <v>214</v>
       </c>
       <c r="I125" s="23">
@@ -6171,16 +6188,16 @@
       <c r="A126" s="3">
         <v>158</v>
       </c>
-      <c r="B126" s="46" t="s">
+      <c r="B126" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="C126" s="47" t="s">
+      <c r="C126" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="D126" s="47" t="s">
+      <c r="D126" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="E126" s="46" t="s">
+      <c r="E126" s="37" t="s">
         <v>213</v>
       </c>
       <c r="F126" s="30" t="s">
@@ -6189,7 +6206,7 @@
       <c r="G126" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="H126" s="49" t="s">
+      <c r="H126" s="40" t="s">
         <v>214</v>
       </c>
       <c r="I126" s="23">
@@ -6217,16 +6234,16 @@
       <c r="A127" s="3">
         <v>159</v>
       </c>
-      <c r="B127" s="46" t="s">
+      <c r="B127" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="C127" s="47" t="s">
+      <c r="C127" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="D127" s="47" t="s">
+      <c r="D127" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="E127" s="46" t="s">
+      <c r="E127" s="37" t="s">
         <v>217</v>
       </c>
       <c r="F127" s="30" t="s">
@@ -6235,7 +6252,7 @@
       <c r="G127" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="H127" s="49" t="s">
+      <c r="H127" s="40" t="s">
         <v>214</v>
       </c>
       <c r="I127" s="23">
@@ -9975,6 +9992,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="B8:E8"/>
@@ -9989,13 +10011,8 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{D357D88A-2775-40B2-B73F-2173296B7938}"/>
     <hyperlink ref="N16" r:id="rId2" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.apsusc.2015.06.144" xr:uid="{7B5DAC3E-CC87-4E4D-88FE-D347944EC451}"/>

--- a/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
+++ b/MarciaAhn_Hardness_Nov2022_AdamFix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/VSCode Projects/ULTERA-contribute-guest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70B6509-1D6E-AD47-BDDA-90DCDDC6BB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD90C81F-4BEA-254D-A195-2423AAD9A9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="760" windowWidth="34560" windowHeight="20140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1029,6 +1029,16 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1047,16 +1057,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1345,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T406"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O113" sqref="O113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1382,21 +1382,21 @@
       <c r="B2" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="41" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:20" ht="22" customHeight="1">
@@ -1406,17 +1406,17 @@
       <c r="B3" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:20" ht="22.5" customHeight="1">
@@ -1434,43 +1434,43 @@
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="47" t="s">
+      <c r="J5" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="47" t="s">
+      <c r="K5" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="47" t="s">
+      <c r="L5" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="47" t="s">
+      <c r="M5" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="N5" s="47" t="s">
+      <c r="N5" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="48" t="s">
+      <c r="O5" s="42" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1481,19 +1481,19 @@
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="42"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
@@ -1538,7 +1538,7 @@
       <c r="N7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="48"/>
+      <c r="O7" s="42"/>
       <c r="P7" s="9" t="s">
         <v>43</v>
       </c>
@@ -1551,35 +1551,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.5" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45" t="s">
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="46" t="s">
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="46"/>
+      <c r="N8" s="50"/>
       <c r="O8" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="P8" s="49" t="s">
+      <c r="P8" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
     </row>
     <row r="9" spans="1:20" ht="22" customHeight="1">
       <c r="A9" s="5" t="s">
@@ -3152,8 +3152,8 @@
         <v>298</v>
       </c>
       <c r="J48" s="19">
-        <f>1320*9807000</f>
-        <v>12945240000</v>
+        <f>1320000000</f>
+        <v>1320000000</v>
       </c>
       <c r="K48" s="19"/>
       <c r="L48" s="20" t="s">
@@ -3188,8 +3188,8 @@
         <v>298</v>
       </c>
       <c r="J49" s="19">
-        <f>873*9807000</f>
-        <v>8561511000</v>
+        <f>873000000</f>
+        <v>873000000</v>
       </c>
       <c r="K49" s="19"/>
       <c r="L49" s="20" t="s">
@@ -3224,8 +3224,8 @@
         <v>298</v>
       </c>
       <c r="J50" s="19">
-        <f>970*9807000</f>
-        <v>9512790000</v>
+        <f>970000000</f>
+        <v>970000000</v>
       </c>
       <c r="K50" s="19"/>
       <c r="L50" s="20" t="s">
@@ -3260,8 +3260,8 @@
         <v>298</v>
       </c>
       <c r="J51" s="19">
-        <f>628*9807000</f>
-        <v>6158796000</v>
+        <f>628000000</f>
+        <v>628000000</v>
       </c>
       <c r="K51" s="19"/>
       <c r="L51" s="20" t="s">
@@ -3296,8 +3296,8 @@
         <v>298</v>
       </c>
       <c r="J52" s="19">
-        <f>3430*9807000</f>
-        <v>33638010000</v>
+        <f>3430000000</f>
+        <v>3430000000</v>
       </c>
       <c r="K52" s="19"/>
       <c r="L52" s="20" t="s">
@@ -3320,7 +3320,7 @@
       <c r="C53" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D53" s="50" t="s">
+      <c r="D53" s="41" t="s">
         <v>204</v>
       </c>
       <c r="E53" s="20"/>
@@ -3335,12 +3335,12 @@
         <v>298</v>
       </c>
       <c r="J53" s="19">
-        <f>3113*9807000</f>
-        <v>30529191000</v>
+        <f>3113000000</f>
+        <v>3113000000</v>
       </c>
       <c r="K53" s="19">
-        <f>46*9807000</f>
-        <v>451122000</v>
+        <f>46000000</f>
+        <v>46000000</v>
       </c>
       <c r="L53" s="20" t="s">
         <v>47</v>
@@ -3362,7 +3362,7 @@
       <c r="C54" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D54" s="50" t="s">
+      <c r="D54" s="41" t="s">
         <v>204</v>
       </c>
       <c r="E54" s="20"/>
@@ -3377,12 +3377,12 @@
         <v>298</v>
       </c>
       <c r="J54" s="19">
-        <f>4830*9807000</f>
-        <v>47367810000</v>
+        <f>4830000000</f>
+        <v>4830000000</v>
       </c>
       <c r="K54" s="19">
-        <f>29*9807000</f>
-        <v>284403000</v>
+        <f>29000000</f>
+        <v>29000000</v>
       </c>
       <c r="L54" s="20" t="s">
         <v>47</v>
@@ -3404,7 +3404,7 @@
       <c r="C55" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="50" t="s">
+      <c r="D55" s="41" t="s">
         <v>204</v>
       </c>
       <c r="E55" s="20"/>
@@ -3419,12 +3419,12 @@
         <v>298</v>
       </c>
       <c r="J55" s="19">
-        <f>4380*9807000</f>
-        <v>42954660000</v>
+        <f>4380000000</f>
+        <v>4380000000</v>
       </c>
       <c r="K55" s="19">
-        <f>34*9807000</f>
-        <v>333438000</v>
+        <f>34000000</f>
+        <v>34000000</v>
       </c>
       <c r="L55" s="20" t="s">
         <v>47</v>
@@ -9992,11 +9992,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="H5:H6"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="B8:E8"/>
@@ -10011,6 +10006,11 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="L5:L6"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
